--- a/MSC_stdev.xlsx
+++ b/MSC_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E554"/>
+  <dimension ref="A1:E556"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,13 +106,13 @@
         <v>3.9173924922943115</v>
       </c>
       <c r="C2" s="2">
-        <v>3.9264068603515625</v>
+        <v>3.9266879558563232</v>
       </c>
       <c r="D2" s="2">
         <v>4.3444499969482422</v>
       </c>
       <c r="E2" s="2">
-        <v>4.3453149795532227</v>
+        <v>4.3455443382263184</v>
       </c>
     </row>
     <row r="3">
@@ -123,13 +123,13 @@
         <v>4.6166448593139648</v>
       </c>
       <c r="C3" s="2">
-        <v>4.5755085945129395</v>
+        <v>4.5757017135620117</v>
       </c>
       <c r="D3" s="2">
-        <v>4.3426127433776855</v>
+        <v>4.3426127433776856</v>
       </c>
       <c r="E3" s="2">
-        <v>4.3407387733459473</v>
+        <v>4.340972900390625</v>
       </c>
     </row>
     <row r="4">
@@ -140,13 +140,13 @@
         <v>4.3726387023925781</v>
       </c>
       <c r="C4" s="2">
-        <v>4.4125704765319824</v>
+        <v>4.4126501083374023</v>
       </c>
       <c r="D4" s="2">
         <v>4.3223543167114258</v>
       </c>
       <c r="E4" s="2">
-        <v>4.3223490715026855</v>
+        <v>4.3225998878479004</v>
       </c>
     </row>
     <row r="5">
@@ -157,13 +157,13 @@
         <v>4.0475072860717773</v>
       </c>
       <c r="C5" s="2">
-        <v>4.0787887573242188</v>
+        <v>4.0789036750793457</v>
       </c>
       <c r="D5" s="2">
         <v>4.3720974922180176</v>
       </c>
       <c r="E5" s="2">
-        <v>4.3656997680664062</v>
+        <v>4.3660001754760742</v>
       </c>
     </row>
     <row r="6">
@@ -174,13 +174,13 @@
         <v>4.76806640625</v>
       </c>
       <c r="C6" s="2">
-        <v>4.7333006858825684</v>
+        <v>4.7337775230407715</v>
       </c>
       <c r="D6" s="2">
         <v>4.3931341171264648</v>
       </c>
       <c r="E6" s="2">
-        <v>4.3916831016540527</v>
+        <v>4.3919782638549805</v>
       </c>
     </row>
     <row r="7">
@@ -188,16 +188,16 @@
         <v>28642</v>
       </c>
       <c r="B7" s="2">
-        <v>4.3334264755249023</v>
+        <v>4.3334264755249024</v>
       </c>
       <c r="C7" s="2">
-        <v>4.3178563117980957</v>
+        <v>4.3181166648864746</v>
       </c>
       <c r="D7" s="2">
         <v>4.4254779815673828</v>
       </c>
       <c r="E7" s="2">
-        <v>4.4274511337280273</v>
+        <v>4.4277639389038086</v>
       </c>
     </row>
     <row r="8">
@@ -208,13 +208,13 @@
         <v>4.2008047103881836</v>
       </c>
       <c r="C8" s="2">
-        <v>4.2120132446289062</v>
+        <v>4.2123613357543945</v>
       </c>
       <c r="D8" s="2">
         <v>4.3980436325073242</v>
       </c>
       <c r="E8" s="2">
-        <v>4.4106574058532715</v>
+        <v>4.4109973907470703</v>
       </c>
     </row>
     <row r="9">
@@ -225,13 +225,13 @@
         <v>4.7202978134155273</v>
       </c>
       <c r="C9" s="2">
-        <v>4.6691532135009766</v>
+        <v>4.6698017120361328</v>
       </c>
       <c r="D9" s="2">
         <v>4.3640079498291016</v>
       </c>
       <c r="E9" s="2">
-        <v>4.3790450096130371</v>
+        <v>4.379427433013916</v>
       </c>
     </row>
     <row r="10">
@@ -242,13 +242,13 @@
         <v>4.5614290237426758</v>
       </c>
       <c r="C10" s="2">
-        <v>4.599550724029541</v>
+        <v>4.5998034477233887</v>
       </c>
       <c r="D10" s="2">
         <v>4.3777251243591309</v>
       </c>
       <c r="E10" s="2">
-        <v>4.3888578414916992</v>
+        <v>4.3892531394958496</v>
       </c>
     </row>
     <row r="11">
@@ -256,16 +256,16 @@
         <v>28764</v>
       </c>
       <c r="B11" s="2">
-        <v>4.2084870338439941</v>
+        <v>4.2084870338439942</v>
       </c>
       <c r="C11" s="2">
-        <v>4.2483186721801758</v>
+        <v>4.2487583160400391</v>
       </c>
       <c r="D11" s="2">
         <v>4.3681507110595703</v>
       </c>
       <c r="E11" s="2">
-        <v>4.3827590942382812</v>
+        <v>4.3831324577331543</v>
       </c>
     </row>
     <row r="12">
@@ -276,13 +276,13 @@
         <v>4.3697357177734375</v>
       </c>
       <c r="C12" s="2">
-        <v>4.4243645668029785</v>
+        <v>4.424802303314209</v>
       </c>
       <c r="D12" s="2">
         <v>4.3958420753479004</v>
       </c>
       <c r="E12" s="2">
-        <v>4.4145536422729492</v>
+        <v>4.414954662322998</v>
       </c>
     </row>
     <row r="13">
@@ -293,13 +293,13 @@
         <v>4.0663175582885742</v>
       </c>
       <c r="C13" s="2">
-        <v>4.1280598640441895</v>
+        <v>4.1285228729248047</v>
       </c>
       <c r="D13" s="2">
         <v>4.4586381912231445</v>
       </c>
       <c r="E13" s="2">
-        <v>4.471839427947998</v>
+        <v>4.4722590446472168</v>
       </c>
     </row>
     <row r="14">
@@ -310,13 +310,13 @@
         <v>4.17095947265625</v>
       </c>
       <c r="C14" s="2">
-        <v>4.1671028137207031</v>
+        <v>4.1673336029052734</v>
       </c>
       <c r="D14" s="2">
         <v>4.494420051574707</v>
       </c>
       <c r="E14" s="2">
-        <v>4.5140461921691895</v>
+        <v>4.5144424438476563</v>
       </c>
     </row>
     <row r="15">
@@ -327,13 +327,13 @@
         <v>4.6818990707397461</v>
       </c>
       <c r="C15" s="2">
-        <v>4.6784138679504395</v>
+        <v>4.6786932945251465</v>
       </c>
       <c r="D15" s="2">
         <v>4.5557160377502441</v>
       </c>
       <c r="E15" s="2">
-        <v>4.567408561706543</v>
+        <v>4.5678377151489258</v>
       </c>
     </row>
     <row r="16">
@@ -344,13 +344,13 @@
         <v>4.5826473236083984</v>
       </c>
       <c r="C16" s="2">
-        <v>4.604006290435791</v>
+        <v>4.6045150756835938</v>
       </c>
       <c r="D16" s="2">
         <v>4.6873102188110352</v>
       </c>
       <c r="E16" s="2">
-        <v>4.6929326057434082</v>
+        <v>4.6933565139770508</v>
       </c>
     </row>
     <row r="17">
@@ -361,13 +361,13 @@
         <v>4.7659707069396973</v>
       </c>
       <c r="C17" s="2">
-        <v>4.7275848388671875</v>
+        <v>4.7280988693237305</v>
       </c>
       <c r="D17" s="2">
         <v>4.7952098846435547</v>
       </c>
       <c r="E17" s="2">
-        <v>4.7855758666992188</v>
+        <v>4.7860021591186523</v>
       </c>
     </row>
     <row r="18">
@@ -378,13 +378,13 @@
         <v>5.0423345565795898</v>
       </c>
       <c r="C18" s="2">
-        <v>5.0490145683288574</v>
+        <v>5.0494532585144043</v>
       </c>
       <c r="D18" s="2">
         <v>4.9091219902038574</v>
       </c>
       <c r="E18" s="2">
-        <v>4.8976364135742188</v>
+        <v>4.8980646133422852</v>
       </c>
     </row>
     <row r="19">
@@ -395,13 +395,13 @@
         <v>5.1130948066711426</v>
       </c>
       <c r="C19" s="2">
-        <v>5.0798110961914062</v>
+        <v>5.0803613662719727</v>
       </c>
       <c r="D19" s="2">
         <v>5.001920223236084</v>
       </c>
       <c r="E19" s="2">
-        <v>4.993720531463623</v>
+        <v>4.9941644668579102</v>
       </c>
     </row>
     <row r="20">
@@ -412,13 +412,13 @@
         <v>5.3928313255310059</v>
       </c>
       <c r="C20" s="2">
-        <v>5.3780374526977539</v>
+        <v>5.3784279823303223</v>
       </c>
       <c r="D20" s="2">
         <v>5.0828590393066406</v>
       </c>
       <c r="E20" s="2">
-        <v>5.079216480255127</v>
+        <v>5.0796627998352051</v>
       </c>
     </row>
     <row r="21">
@@ -429,13 +429,13 @@
         <v>5.3408327102661133</v>
       </c>
       <c r="C21" s="2">
-        <v>5.2581501007080078</v>
+        <v>5.2586140632629395</v>
       </c>
       <c r="D21" s="2">
         <v>5.1690950393676758</v>
       </c>
       <c r="E21" s="2">
-        <v>5.1574869155883789</v>
+        <v>5.1579198837280274</v>
       </c>
     </row>
     <row r="22">
@@ -446,13 +446,13 @@
         <v>5.0915274620056152</v>
       </c>
       <c r="C22" s="2">
-        <v>5.1366086006164551</v>
+        <v>5.1370820999145508</v>
       </c>
       <c r="D22" s="2">
         <v>5.2162694931030273</v>
       </c>
       <c r="E22" s="2">
-        <v>5.2099204063415527</v>
+        <v>5.2103304862976074</v>
       </c>
     </row>
     <row r="23">
@@ -463,13 +463,13 @@
         <v>5.0061426162719727</v>
       </c>
       <c r="C23" s="2">
-        <v>5.0318560600280762</v>
+        <v>5.0322351455688477</v>
       </c>
       <c r="D23" s="2">
         <v>5.2282333374023438</v>
       </c>
       <c r="E23" s="2">
-        <v>5.221919059753418</v>
+        <v>5.2223396301269531</v>
       </c>
     </row>
     <row r="24">
@@ -480,13 +480,13 @@
         <v>5.4103512763977051</v>
       </c>
       <c r="C24" s="2">
-        <v>5.4478778839111328</v>
+        <v>5.4481759071350098</v>
       </c>
       <c r="D24" s="2">
         <v>5.3616595268249512</v>
       </c>
       <c r="E24" s="2">
-        <v>5.3419160842895508</v>
+        <v>5.3423175811767578</v>
       </c>
     </row>
     <row r="25">
@@ -497,13 +497,13 @@
         <v>5.3587679862976074</v>
       </c>
       <c r="C25" s="2">
-        <v>5.308443546295166</v>
+        <v>5.3088297843933106</v>
       </c>
       <c r="D25" s="2">
         <v>5.5079197883605957</v>
       </c>
       <c r="E25" s="2">
-        <v>5.4931764602661133</v>
+        <v>5.4936051368713379</v>
       </c>
     </row>
     <row r="26">
@@ -511,16 +511,16 @@
         <v>29221</v>
       </c>
       <c r="B26" s="2">
-        <v>5.1905431747436523</v>
+        <v>5.1905431747436524</v>
       </c>
       <c r="C26" s="2">
-        <v>5.1994824409484863</v>
+        <v>5.1997928619384766</v>
       </c>
       <c r="D26" s="2">
         <v>5.655947208404541</v>
       </c>
       <c r="E26" s="2">
-        <v>5.6430654525756836</v>
+        <v>5.6434669494628906</v>
       </c>
     </row>
     <row r="27">
@@ -531,13 +531,13 @@
         <v>5.1500072479248047</v>
       </c>
       <c r="C27" s="2">
-        <v>5.1570038795471191</v>
+        <v>5.1575384140014649</v>
       </c>
       <c r="D27" s="2">
         <v>5.7809267044067383</v>
       </c>
       <c r="E27" s="2">
-        <v>5.7610268592834473</v>
+        <v>5.7614083290100098</v>
       </c>
     </row>
     <row r="28">
@@ -548,13 +548,13 @@
         <v>6.3139305114746094</v>
       </c>
       <c r="C28" s="2">
-        <v>6.1597847938537598</v>
+        <v>6.1601619720458984</v>
       </c>
       <c r="D28" s="2">
-        <v>5.882850170135498</v>
+        <v>5.8828501701354981</v>
       </c>
       <c r="E28" s="2">
-        <v>5.861452579498291</v>
+        <v>5.8618345260620117</v>
       </c>
     </row>
     <row r="29">
@@ -562,16 +562,16 @@
         <v>29312</v>
       </c>
       <c r="B29" s="2">
-        <v>6.7091741561889648</v>
+        <v>6.7091741561889649</v>
       </c>
       <c r="C29" s="2">
-        <v>6.7393789291381836</v>
+        <v>6.7400178909301758</v>
       </c>
       <c r="D29" s="2">
         <v>5.8739819526672363</v>
       </c>
       <c r="E29" s="2">
-        <v>5.856468677520752</v>
+        <v>5.8568735122680664</v>
       </c>
     </row>
     <row r="30">
@@ -582,13 +582,13 @@
         <v>6.6730799674987793</v>
       </c>
       <c r="C30" s="2">
-        <v>6.6071510314941406</v>
+        <v>6.6073689460754395</v>
       </c>
       <c r="D30" s="2">
         <v>5.9001255035400391</v>
       </c>
       <c r="E30" s="2">
-        <v>5.8878169059753418</v>
+        <v>5.8882241249084473</v>
       </c>
     </row>
     <row r="31">
@@ -599,13 +599,13 @@
         <v>6.216341495513916</v>
       </c>
       <c r="C31" s="2">
-        <v>6.1982631683349609</v>
+        <v>6.1985535621643067</v>
       </c>
       <c r="D31" s="2">
         <v>5.9874348640441895</v>
       </c>
       <c r="E31" s="2">
-        <v>5.9782590866088867</v>
+        <v>5.9786734580993652</v>
       </c>
     </row>
     <row r="32">
@@ -616,13 +616,13 @@
         <v>5.9234542846679688</v>
       </c>
       <c r="C32" s="2">
-        <v>5.9356884956359863</v>
+        <v>5.936072826385498</v>
       </c>
       <c r="D32" s="2">
         <v>6.0610661506652832</v>
       </c>
       <c r="E32" s="2">
-        <v>6.0481433868408203</v>
+        <v>6.0485324859619141</v>
       </c>
     </row>
     <row r="33">
@@ -633,13 +633,13 @@
         <v>5.3305401802062988</v>
       </c>
       <c r="C33" s="2">
-        <v>5.4030208587646484</v>
+        <v>5.4035258293151855</v>
       </c>
       <c r="D33" s="2">
         <v>6.0170836448669434</v>
       </c>
       <c r="E33" s="2">
-        <v>6.0089302062988281</v>
+        <v>6.0093016624450684</v>
       </c>
     </row>
     <row r="34">
@@ -650,13 +650,13 @@
         <v>5.5940604209899902</v>
       </c>
       <c r="C34" s="2">
-        <v>5.5905771255493164</v>
+        <v>5.5909829139709473</v>
       </c>
       <c r="D34" s="2">
         <v>5.9141139984130859</v>
       </c>
       <c r="E34" s="2">
-        <v>5.9046440124511719</v>
+        <v>5.9050087928771973</v>
       </c>
     </row>
     <row r="35">
@@ -667,13 +667,13 @@
         <v>5.9763264656066895</v>
       </c>
       <c r="C35" s="2">
-        <v>6.013463020324707</v>
+        <v>6.0138368606567383</v>
       </c>
       <c r="D35" s="2">
         <v>5.7950410842895508</v>
       </c>
       <c r="E35" s="2">
-        <v>5.7958669662475586</v>
+        <v>5.7962613105773926</v>
       </c>
     </row>
     <row r="36">
@@ -684,13 +684,13 @@
         <v>5.812687873840332</v>
       </c>
       <c r="C36" s="2">
-        <v>5.7859630584716797</v>
+        <v>5.7862715721130371</v>
       </c>
       <c r="D36" s="2">
         <v>5.7436814308166504</v>
       </c>
       <c r="E36" s="2">
-        <v>5.7243537902832031</v>
+        <v>5.7247967720031738</v>
       </c>
     </row>
     <row r="37">
@@ -701,13 +701,13 @@
         <v>5.9180879592895508</v>
       </c>
       <c r="C37" s="2">
-        <v>5.8068652153015137</v>
+        <v>5.8070855140686035</v>
       </c>
       <c r="D37" s="2">
         <v>5.7534322738647461</v>
       </c>
       <c r="E37" s="2">
-        <v>5.7352862358093262</v>
+        <v>5.7357053756713867</v>
       </c>
     </row>
     <row r="38">
@@ -715,16 +715,16 @@
         <v>29587</v>
       </c>
       <c r="B38" s="2">
-        <v>5.782447338104248</v>
+        <v>5.7824473381042481</v>
       </c>
       <c r="C38" s="2">
-        <v>5.8008050918579102</v>
+        <v>5.8013815879821777</v>
       </c>
       <c r="D38" s="2">
         <v>5.7924013137817383</v>
       </c>
       <c r="E38" s="2">
-        <v>5.7625937461853027</v>
+        <v>5.7629852294921875</v>
       </c>
     </row>
     <row r="39">
@@ -735,13 +735,13 @@
         <v>5.6014218330383301</v>
       </c>
       <c r="C39" s="2">
-        <v>5.6281557083129883</v>
+        <v>5.6286396980285645</v>
       </c>
       <c r="D39" s="2">
         <v>5.7983555793762207</v>
       </c>
       <c r="E39" s="2">
-        <v>5.7641425132751465</v>
+        <v>5.7645025253295898</v>
       </c>
     </row>
     <row r="40">
@@ -752,13 +752,13 @@
         <v>5.7541046142578125</v>
       </c>
       <c r="C40" s="2">
-        <v>5.5546469688415527</v>
+        <v>5.5553755760192871</v>
       </c>
       <c r="D40" s="2">
         <v>5.7396688461303711</v>
       </c>
       <c r="E40" s="2">
-        <v>5.7074580192565918</v>
+        <v>5.7078142166137695</v>
       </c>
     </row>
     <row r="41">
@@ -769,13 +769,13 @@
         <v>6.0112128257751465</v>
       </c>
       <c r="C41" s="2">
-        <v>6.034080982208252</v>
+        <v>6.034247875213623</v>
       </c>
       <c r="D41" s="2">
         <v>5.7314720153808594</v>
       </c>
       <c r="E41" s="2">
-        <v>5.7032251358032227</v>
+        <v>5.7035822868347168</v>
       </c>
     </row>
     <row r="42">
@@ -786,13 +786,13 @@
         <v>5.6812634468078613</v>
       </c>
       <c r="C42" s="2">
-        <v>5.6487870216369629</v>
+        <v>5.6490435600280762</v>
       </c>
       <c r="D42" s="2">
         <v>5.7334041595458984</v>
       </c>
       <c r="E42" s="2">
-        <v>5.7028646469116211</v>
+        <v>5.7032170295715332</v>
       </c>
     </row>
     <row r="43">
@@ -803,13 +803,13 @@
         <v>5.6476459503173828</v>
       </c>
       <c r="C43" s="2">
-        <v>5.604515552520752</v>
+        <v>5.6046404838562012</v>
       </c>
       <c r="D43" s="2">
         <v>5.7263574600219727</v>
       </c>
       <c r="E43" s="2">
-        <v>5.6824822425842285</v>
+        <v>5.6828017234802246</v>
       </c>
     </row>
     <row r="44">
@@ -820,13 +820,13 @@
         <v>5.4481496810913086</v>
       </c>
       <c r="C44" s="2">
-        <v>5.5033040046691895</v>
+        <v>5.5036416053771973</v>
       </c>
       <c r="D44" s="2">
         <v>5.7394461631774902</v>
       </c>
       <c r="E44" s="2">
-        <v>5.6891860961914062</v>
+        <v>5.6894850730895996</v>
       </c>
     </row>
     <row r="45">
@@ -837,13 +837,13 @@
         <v>5.7389159202575684</v>
       </c>
       <c r="C45" s="2">
-        <v>5.7478647232055664</v>
+        <v>5.7481842041015625</v>
       </c>
       <c r="D45" s="2">
         <v>5.7987289428710938</v>
       </c>
       <c r="E45" s="2">
-        <v>5.7607998847961426</v>
+        <v>5.7610630989074707</v>
       </c>
     </row>
     <row r="46">
@@ -854,13 +854,13 @@
         <v>5.9354772567749023</v>
       </c>
       <c r="C46" s="2">
-        <v>5.8036236763000488</v>
+        <v>5.8037967681884766</v>
       </c>
       <c r="D46" s="2">
         <v>5.719050407409668</v>
       </c>
       <c r="E46" s="2">
-        <v>5.6797075271606445</v>
+        <v>5.6799774169921875</v>
       </c>
     </row>
     <row r="47">
@@ -871,13 +871,13 @@
         <v>5.7190256118774414</v>
       </c>
       <c r="C47" s="2">
-        <v>5.617363452911377</v>
+        <v>5.617647647857666</v>
       </c>
       <c r="D47" s="2">
         <v>5.6907224655151367</v>
       </c>
       <c r="E47" s="2">
-        <v>5.651761531829834</v>
+        <v>5.6520519256591797</v>
       </c>
     </row>
     <row r="48">
@@ -888,13 +888,13 @@
         <v>5.7192182540893555</v>
       </c>
       <c r="C48" s="2">
-        <v>5.6884894371032715</v>
+        <v>5.6887869834899902</v>
       </c>
       <c r="D48" s="2">
         <v>5.6798882484436035</v>
       </c>
       <c r="E48" s="2">
-        <v>5.6321301460266113</v>
+        <v>5.6324529647827149</v>
       </c>
     </row>
     <row r="49">
@@ -905,13 +905,13 @@
         <v>6.2876520156860352</v>
       </c>
       <c r="C49" s="2">
-        <v>6.1991710662841797</v>
+        <v>6.1995797157287598</v>
       </c>
       <c r="D49" s="2">
         <v>5.7535262107849121</v>
       </c>
       <c r="E49" s="2">
-        <v>5.6934032440185547</v>
+        <v>5.6936845779418945</v>
       </c>
     </row>
     <row r="50">
@@ -922,13 +922,13 @@
         <v>5.2941045761108398</v>
       </c>
       <c r="C50" s="2">
-        <v>5.3042478561401367</v>
+        <v>5.304476261138916</v>
       </c>
       <c r="D50" s="2">
         <v>5.7474493980407715</v>
       </c>
       <c r="E50" s="2">
-        <v>5.6784286499023438</v>
+        <v>5.6786723136901856</v>
       </c>
     </row>
     <row r="51">
@@ -939,13 +939,13 @@
         <v>5.4263134002685547</v>
       </c>
       <c r="C51" s="2">
-        <v>5.397275447845459</v>
+        <v>5.3977136611938477</v>
       </c>
       <c r="D51" s="2">
         <v>5.7395920753479004</v>
       </c>
       <c r="E51" s="2">
-        <v>5.6784191131591797</v>
+        <v>5.6786527633666992</v>
       </c>
     </row>
     <row r="52">
@@ -956,13 +956,13 @@
         <v>5.5501360893249512</v>
       </c>
       <c r="C52" s="2">
-        <v>5.4278302192687988</v>
+        <v>5.4282512664794922</v>
       </c>
       <c r="D52" s="2">
         <v>5.6856269836425781</v>
       </c>
       <c r="E52" s="2">
-        <v>5.6317615509033203</v>
+        <v>5.6319928169250488</v>
       </c>
     </row>
     <row r="53">
@@ -973,13 +973,13 @@
         <v>6.1108942031860352</v>
       </c>
       <c r="C53" s="2">
-        <v>6.0547652244567871</v>
+        <v>6.0547242164611816</v>
       </c>
       <c r="D53" s="2">
-        <v>5.6655492782592773</v>
+        <v>5.6655492782592774</v>
       </c>
       <c r="E53" s="2">
-        <v>5.5987391471862793</v>
+        <v>5.5989465713500977</v>
       </c>
     </row>
     <row r="54">
@@ -990,13 +990,13 @@
         <v>5.6842246055603027</v>
       </c>
       <c r="C54" s="2">
-        <v>5.613093376159668</v>
+        <v>5.6130752563476563</v>
       </c>
       <c r="D54" s="2">
         <v>5.5611786842346191</v>
       </c>
       <c r="E54" s="2">
-        <v>5.5076942443847656</v>
+        <v>5.5078496932983398</v>
       </c>
     </row>
     <row r="55">
@@ -1007,13 +1007,13 @@
         <v>5.8647608757019043</v>
       </c>
       <c r="C55" s="2">
-        <v>5.803534984588623</v>
+        <v>5.8036198616027832</v>
       </c>
       <c r="D55" s="2">
         <v>5.6205921173095703</v>
       </c>
       <c r="E55" s="2">
-        <v>5.5602512359619141</v>
+        <v>5.5604071617126465</v>
       </c>
     </row>
     <row r="56">
@@ -1024,13 +1024,13 @@
         <v>5.2333388328552246</v>
       </c>
       <c r="C56" s="2">
-        <v>5.1974472999572754</v>
+        <v>5.1977095603942871</v>
       </c>
       <c r="D56" s="2">
         <v>5.6678867340087891</v>
       </c>
       <c r="E56" s="2">
-        <v>5.5945162773132324</v>
+        <v>5.5946474075317383</v>
       </c>
     </row>
     <row r="57">
@@ -1041,13 +1041,13 @@
         <v>5.5385169982910156</v>
       </c>
       <c r="C57" s="2">
-        <v>5.3912873268127441</v>
+        <v>5.3913707733154297</v>
       </c>
       <c r="D57" s="2">
         <v>5.634124755859375</v>
       </c>
       <c r="E57" s="2">
-        <v>5.5541129112243652</v>
+        <v>5.5541548728942871</v>
       </c>
     </row>
     <row r="58">
@@ -1058,13 +1058,13 @@
         <v>5.3483180999755859</v>
       </c>
       <c r="C58" s="2">
-        <v>5.3797645568847656</v>
+        <v>5.3797059059143066</v>
       </c>
       <c r="D58" s="2">
         <v>5.4743690490722656</v>
       </c>
       <c r="E58" s="2">
-        <v>5.406196117401123</v>
+        <v>5.4062585830688477</v>
       </c>
     </row>
     <row r="59">
@@ -1075,13 +1075,13 @@
         <v>5.8288273811340332</v>
       </c>
       <c r="C59" s="2">
-        <v>5.7772631645202637</v>
+        <v>5.7774958610534668</v>
       </c>
       <c r="D59" s="2">
         <v>5.4098186492919922</v>
       </c>
       <c r="E59" s="2">
-        <v>5.3460550308227539</v>
+        <v>5.3460946083068848</v>
       </c>
     </row>
     <row r="60">
@@ -1092,13 +1092,13 @@
         <v>5.8519649505615234</v>
       </c>
       <c r="C60" s="2">
-        <v>5.7056598663330078</v>
+        <v>5.7058725357055664</v>
       </c>
       <c r="D60" s="2">
         <v>5.3264899253845215</v>
       </c>
       <c r="E60" s="2">
-        <v>5.2746734619140625</v>
+        <v>5.2746925354003906</v>
       </c>
     </row>
     <row r="61">
@@ -1109,13 +1109,13 @@
         <v>5.2462759017944336</v>
       </c>
       <c r="C61" s="2">
-        <v>5.0641999244689941</v>
+        <v>5.0638198852539063</v>
       </c>
       <c r="D61" s="2">
         <v>5.238349437713623</v>
       </c>
       <c r="E61" s="2">
-        <v>5.1912326812744141</v>
+        <v>5.1912498474121094</v>
       </c>
     </row>
     <row r="62">
@@ -1126,13 +1126,13 @@
         <v>4.6730952262878418</v>
       </c>
       <c r="C62" s="2">
-        <v>4.7235145568847656</v>
+        <v>4.7236576080322266</v>
       </c>
       <c r="D62" s="2">
         <v>5.1381845474243164</v>
       </c>
       <c r="E62" s="2">
-        <v>5.0967197418212891</v>
+        <v>5.0967378616333008</v>
       </c>
     </row>
     <row r="63">
@@ -1143,13 +1143,13 @@
         <v>5.1032705307006836</v>
       </c>
       <c r="C63" s="2">
-        <v>5.0718245506286621</v>
+        <v>5.0715994834899902</v>
       </c>
       <c r="D63" s="2">
         <v>5.0074877738952637</v>
       </c>
       <c r="E63" s="2">
-        <v>4.9647302627563477</v>
+        <v>4.964747428894043</v>
       </c>
     </row>
     <row r="64">
@@ -1160,13 +1160,13 @@
         <v>5.1148004531860352</v>
       </c>
       <c r="C64" s="2">
-        <v>5.1610984802246094</v>
+        <v>5.1610007286071777</v>
       </c>
       <c r="D64" s="2">
         <v>4.8893857002258301</v>
       </c>
       <c r="E64" s="2">
-        <v>4.8550887107849121</v>
+        <v>4.8550868034362793</v>
       </c>
     </row>
     <row r="65">
@@ -1177,13 +1177,13 @@
         <v>4.4400773048400879</v>
       </c>
       <c r="C65" s="2">
-        <v>4.4464802742004395</v>
+        <v>4.4467248916625977</v>
       </c>
       <c r="D65" s="2">
         <v>4.7622103691101074</v>
       </c>
       <c r="E65" s="2">
-        <v>4.7461824417114258</v>
+        <v>4.7461228370666504</v>
       </c>
     </row>
     <row r="66">
@@ -1191,16 +1191,16 @@
         <v>30437</v>
       </c>
       <c r="B66" s="2">
-        <v>4.637031078338623</v>
+        <v>4.6370310783386231</v>
       </c>
       <c r="C66" s="2">
-        <v>4.5406703948974609</v>
+        <v>4.5407629013061523</v>
       </c>
       <c r="D66" s="2">
         <v>4.6887083053588867</v>
       </c>
       <c r="E66" s="2">
-        <v>4.6930217742919922</v>
+        <v>4.6929812431335449</v>
       </c>
     </row>
     <row r="67">
@@ -1211,13 +1211,13 @@
         <v>4.1720466613769531</v>
       </c>
       <c r="C67" s="2">
-        <v>4.1918621063232422</v>
+        <v>4.1917934417724609</v>
       </c>
       <c r="D67" s="2">
         <v>4.7258806228637695</v>
       </c>
       <c r="E67" s="2">
-        <v>4.72430419921875</v>
+        <v>4.7242646217346191</v>
       </c>
     </row>
     <row r="68">
@@ -1228,13 +1228,13 @@
         <v>4.7659111022949219</v>
       </c>
       <c r="C68" s="2">
-        <v>4.7904868125915527</v>
+        <v>4.7905497550964356</v>
       </c>
       <c r="D68" s="2">
         <v>4.6892385482788086</v>
       </c>
       <c r="E68" s="2">
-        <v>4.6829023361206055</v>
+        <v>4.6828961372375488</v>
       </c>
     </row>
     <row r="69">
@@ -1245,13 +1245,13 @@
         <v>4.7073850631713867</v>
       </c>
       <c r="C69" s="2">
-        <v>4.7255029678344727</v>
+        <v>4.7251987457275391</v>
       </c>
       <c r="D69" s="2">
-        <v>4.6410598754882812</v>
+        <v>4.6410598754882813</v>
       </c>
       <c r="E69" s="2">
-        <v>4.6287002563476562</v>
+        <v>4.628725528717041</v>
       </c>
     </row>
     <row r="70">
@@ -1262,13 +1262,13 @@
         <v>4.5847554206848145</v>
       </c>
       <c r="C70" s="2">
-        <v>4.5857548713684082</v>
+        <v>4.5855436325073242</v>
       </c>
       <c r="D70" s="2">
         <v>4.6104984283447266</v>
       </c>
       <c r="E70" s="2">
-        <v>4.5954151153564453</v>
+        <v>4.5954289436340332</v>
       </c>
     </row>
     <row r="71">
@@ -1279,13 +1279,13 @@
         <v>5.0076484680175781</v>
       </c>
       <c r="C71" s="2">
-        <v>5.005058765411377</v>
+        <v>5.0052099227905274</v>
       </c>
       <c r="D71" s="2">
         <v>4.5841484069824219</v>
       </c>
       <c r="E71" s="2">
-        <v>4.5744390487670898</v>
+        <v>4.5744624137878418</v>
       </c>
     </row>
     <row r="72">
@@ -1296,13 +1296,13 @@
         <v>4.773491382598877</v>
       </c>
       <c r="C72" s="2">
-        <v>4.6992053985595703</v>
+        <v>4.6992812156677246</v>
       </c>
       <c r="D72" s="2">
         <v>4.6379852294921875</v>
       </c>
       <c r="E72" s="2">
-        <v>4.6242427825927734</v>
+        <v>4.6242942810058594</v>
       </c>
     </row>
     <row r="73">
@@ -1313,13 +1313,13 @@
         <v>4.6811914443969727</v>
       </c>
       <c r="C73" s="2">
-        <v>4.673281192779541</v>
+        <v>4.6734633445739746</v>
       </c>
       <c r="D73" s="2">
         <v>4.6563220024108887</v>
       </c>
       <c r="E73" s="2">
-        <v>4.6252865791320801</v>
+        <v>4.6253461837768555</v>
       </c>
     </row>
     <row r="74">
@@ -1330,13 +1330,13 @@
         <v>4.1650247573852539</v>
       </c>
       <c r="C74" s="2">
-        <v>4.1469130516052246</v>
+        <v>4.1470589637756348</v>
       </c>
       <c r="D74" s="2">
         <v>4.6488223075866699</v>
       </c>
       <c r="E74" s="2">
-        <v>4.6227927207946777</v>
+        <v>4.6229128837585449</v>
       </c>
     </row>
     <row r="75">
@@ -1347,13 +1347,13 @@
         <v>4.3998832702636719</v>
       </c>
       <c r="C75" s="2">
-        <v>4.3518862724304199</v>
+        <v>4.3520607948303223</v>
       </c>
       <c r="D75" s="2">
         <v>4.6251792907714844</v>
       </c>
       <c r="E75" s="2">
-        <v>4.6029391288757324</v>
+        <v>4.6031346321105957</v>
       </c>
     </row>
     <row r="76">
@@ -1364,13 +1364,13 @@
         <v>4.6565780639648438</v>
       </c>
       <c r="C76" s="2">
-        <v>4.6400938034057617</v>
+        <v>4.6402826309204102</v>
       </c>
       <c r="D76" s="2">
         <v>4.5890069007873535</v>
       </c>
       <c r="E76" s="2">
-        <v>4.5554218292236328</v>
+        <v>4.5555596351623535</v>
       </c>
     </row>
     <row r="77">
@@ -1381,13 +1381,13 @@
         <v>4.930938720703125</v>
       </c>
       <c r="C77" s="2">
-        <v>4.7998847961425781</v>
+        <v>4.8000154495239258</v>
       </c>
       <c r="D77" s="2">
         <v>4.5461277961730957</v>
       </c>
       <c r="E77" s="2">
-        <v>4.5216498374938965</v>
+        <v>4.5217938423156738</v>
       </c>
     </row>
     <row r="78">
@@ -1398,13 +1398,13 @@
         <v>4.6398911476135254</v>
       </c>
       <c r="C78" s="2">
-        <v>4.7030544281005859</v>
+        <v>4.7033019065856934</v>
       </c>
       <c r="D78" s="2">
         <v>4.4758791923522949</v>
       </c>
       <c r="E78" s="2">
-        <v>4.4568023681640625</v>
+        <v>4.4569215774536133</v>
       </c>
     </row>
     <row r="79">
@@ -1415,13 +1415,13 @@
         <v>4.3719682693481445</v>
       </c>
       <c r="C79" s="2">
-        <v>4.4070744514465332</v>
+        <v>4.4075393676757813</v>
       </c>
       <c r="D79" s="2">
         <v>4.4940571784973145</v>
       </c>
       <c r="E79" s="2">
-        <v>4.4530515670776367</v>
+        <v>4.4531583786010742</v>
       </c>
     </row>
     <row r="80">
@@ -1432,13 +1432,13 @@
         <v>4.6820945739746094</v>
       </c>
       <c r="C80" s="2">
-        <v>4.5774025917053223</v>
+        <v>4.5770325660705567</v>
       </c>
       <c r="D80" s="2">
         <v>4.5513105392456055</v>
       </c>
       <c r="E80" s="2">
-        <v>4.5023193359375</v>
+        <v>4.502410888671875</v>
       </c>
     </row>
     <row r="81">
@@ -1449,13 +1449,13 @@
         <v>4.3875789642333984</v>
       </c>
       <c r="C81" s="2">
-        <v>4.3952560424804688</v>
+        <v>4.3953914642333984</v>
       </c>
       <c r="D81" s="2">
         <v>4.5585446357727051</v>
       </c>
       <c r="E81" s="2">
-        <v>4.5112037658691406</v>
+        <v>4.5112748146057129</v>
       </c>
     </row>
     <row r="82">
@@ -1466,13 +1466,13 @@
         <v>4.048954963684082</v>
       </c>
       <c r="C82" s="2">
-        <v>4.0896577835083008</v>
+        <v>4.0896105766296387</v>
       </c>
       <c r="D82" s="2">
         <v>4.4854936599731445</v>
       </c>
       <c r="E82" s="2">
-        <v>4.453463077545166</v>
+        <v>4.4535374641418457</v>
       </c>
     </row>
     <row r="83">
@@ -1483,13 +1483,13 @@
         <v>4.3286285400390625</v>
       </c>
       <c r="C83" s="2">
-        <v>4.1131558418273926</v>
+        <v>4.1131901741027832</v>
       </c>
       <c r="D83" s="2">
         <v>4.4207696914672852</v>
       </c>
       <c r="E83" s="2">
-        <v>4.3878035545349121</v>
+        <v>4.387845516204834</v>
       </c>
     </row>
     <row r="84">
@@ -1500,13 +1500,13 @@
         <v>4.9151616096496582</v>
       </c>
       <c r="C84" s="2">
-        <v>4.7952961921691895</v>
+        <v>4.7953333854675293</v>
       </c>
       <c r="D84" s="2">
         <v>4.4632306098937988</v>
       </c>
       <c r="E84" s="2">
-        <v>4.4237489700317383</v>
+        <v>4.423736572265625</v>
       </c>
     </row>
     <row r="85">
@@ -1517,13 +1517,13 @@
         <v>4.7216858863830566</v>
       </c>
       <c r="C85" s="2">
-        <v>4.7200522422790527</v>
+        <v>4.720059871673584</v>
       </c>
       <c r="D85" s="2">
         <v>4.4655752182006836</v>
       </c>
       <c r="E85" s="2">
-        <v>4.4337358474731445</v>
+        <v>4.4337449073791504</v>
       </c>
     </row>
     <row r="86">
@@ -1534,13 +1534,13 @@
         <v>4.2734775543212891</v>
       </c>
       <c r="C86" s="2">
-        <v>4.2802190780639648</v>
+        <v>4.2803769111633301</v>
       </c>
       <c r="D86" s="2">
         <v>4.4854159355163574</v>
       </c>
       <c r="E86" s="2">
-        <v>4.4223098754882812</v>
+        <v>4.4222970008850098</v>
       </c>
     </row>
     <row r="87">
@@ -1551,13 +1551,13 @@
         <v>4.0573773384094238</v>
       </c>
       <c r="C87" s="2">
-        <v>4.1121182441711426</v>
+        <v>4.1120753288269043</v>
       </c>
       <c r="D87" s="2">
         <v>4.526339054107666</v>
       </c>
       <c r="E87" s="2">
-        <v>4.4485845565795898</v>
+        <v>4.4485592842102051</v>
       </c>
     </row>
     <row r="88">
@@ -1568,13 +1568,13 @@
         <v>4.7541146278381348</v>
       </c>
       <c r="C88" s="2">
-        <v>4.7305827140808105</v>
+        <v>4.730557918548584</v>
       </c>
       <c r="D88" s="2">
         <v>4.473689079284668</v>
       </c>
       <c r="E88" s="2">
-        <v>4.4105339050292969</v>
+        <v>4.410491943359375</v>
       </c>
     </row>
     <row r="89">
@@ -1585,13 +1585,13 @@
         <v>4.7031955718994141</v>
       </c>
       <c r="C89" s="2">
-        <v>4.6672840118408203</v>
+        <v>4.667109489440918</v>
       </c>
       <c r="D89" s="2">
         <v>4.3598828315734863</v>
       </c>
       <c r="E89" s="2">
-        <v>4.3131628036499023</v>
+        <v>4.3131675720214844</v>
       </c>
     </row>
     <row r="90">
@@ -1602,13 +1602,13 @@
         <v>4.5661458969116211</v>
       </c>
       <c r="C90" s="2">
-        <v>4.292421817779541</v>
+        <v>4.2923579216003418</v>
       </c>
       <c r="D90" s="2">
         <v>4.2931337356567383</v>
       </c>
       <c r="E90" s="2">
-        <v>4.2272000312805176</v>
+        <v>4.2271723747253418</v>
       </c>
     </row>
     <row r="91">
@@ -1619,13 +1619,13 @@
         <v>4.4172654151916504</v>
       </c>
       <c r="C91" s="2">
-        <v>4.3261308670043945</v>
+        <v>4.3259739875793457</v>
       </c>
       <c r="D91" s="2">
         <v>4.3170304298400879</v>
       </c>
       <c r="E91" s="2">
-        <v>4.2438020706176758</v>
+        <v>4.243769645690918</v>
       </c>
     </row>
     <row r="92">
@@ -1636,13 +1636,13 @@
         <v>3.8547775745391846</v>
       </c>
       <c r="C92" s="2">
-        <v>3.770700216293335</v>
+        <v>3.7705831527709961</v>
       </c>
       <c r="D92" s="2">
         <v>4.331636905670166</v>
       </c>
       <c r="E92" s="2">
-        <v>4.2561097145080566</v>
+        <v>4.2560553550720215</v>
       </c>
     </row>
     <row r="93">
@@ -1650,16 +1650,16 @@
         <v>31260</v>
       </c>
       <c r="B93" s="2">
-        <v>3.8909060955047607</v>
+        <v>3.8909060955047608</v>
       </c>
       <c r="C93" s="2">
-        <v>3.9189581871032715</v>
+        <v>3.9194149971008301</v>
       </c>
       <c r="D93" s="2">
         <v>4.3460822105407715</v>
       </c>
       <c r="E93" s="2">
-        <v>4.2656002044677734</v>
+        <v>4.2655916213989258</v>
       </c>
     </row>
     <row r="94">
@@ -1670,13 +1670,13 @@
         <v>4.1209421157836914</v>
       </c>
       <c r="C94" s="2">
-        <v>3.9463844299316406</v>
+        <v>3.9461021423339844</v>
       </c>
       <c r="D94" s="2">
         <v>4.2894444465637207</v>
       </c>
       <c r="E94" s="2">
-        <v>4.2005748748779297</v>
+        <v>4.2005820274353027</v>
       </c>
     </row>
     <row r="95">
@@ -1687,13 +1687,13 @@
         <v>4.4885473251342773</v>
       </c>
       <c r="C95" s="2">
-        <v>4.4296398162841797</v>
+        <v>4.429753303527832</v>
       </c>
       <c r="D95" s="2">
         <v>4.2423930168151855</v>
       </c>
       <c r="E95" s="2">
-        <v>4.161994457244873</v>
+        <v>4.161992073059082</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>4.1888389587402344</v>
       </c>
       <c r="C96" s="2">
-        <v>4.2228856086730957</v>
+        <v>4.2226471900939942</v>
       </c>
       <c r="D96" s="2">
         <v>4.2856988906860352</v>
       </c>
       <c r="E96" s="2">
-        <v>4.1995482444763184</v>
+        <v>4.1995558738708496</v>
       </c>
     </row>
     <row r="97">
@@ -1721,13 +1721,13 @@
         <v>4.884122371673584</v>
       </c>
       <c r="C97" s="2">
-        <v>4.8159947395324707</v>
+        <v>4.8163843154907227</v>
       </c>
       <c r="D97" s="2">
         <v>4.3659963607788086</v>
       </c>
       <c r="E97" s="2">
-        <v>4.2835483551025391</v>
+        <v>4.2835659980773926</v>
       </c>
     </row>
     <row r="98">
@@ -1738,13 +1738,13 @@
         <v>4.193455696105957</v>
       </c>
       <c r="C98" s="2">
-        <v>4.0820598602294922</v>
+        <v>4.0820193290710449</v>
       </c>
       <c r="D98" s="2">
         <v>4.3741154670715332</v>
       </c>
       <c r="E98" s="2">
-        <v>4.2920341491699219</v>
+        <v>4.2919502258300781</v>
       </c>
     </row>
     <row r="99">
@@ -1755,13 +1755,13 @@
         <v>4.1426806449890137</v>
       </c>
       <c r="C99" s="2">
-        <v>3.9451949596405029</v>
+        <v>3.945051908493042</v>
       </c>
       <c r="D99" s="2">
         <v>4.4242830276489258</v>
       </c>
       <c r="E99" s="2">
-        <v>4.3518533706665039</v>
+        <v>4.3517513275146484</v>
       </c>
     </row>
     <row r="100">
@@ -1772,13 +1772,13 @@
         <v>4.8070187568664551</v>
       </c>
       <c r="C100" s="2">
-        <v>4.6641178131103516</v>
+        <v>4.6640448570251465</v>
       </c>
       <c r="D100" s="2">
         <v>4.3953042030334473</v>
       </c>
       <c r="E100" s="2">
-        <v>4.3407793045043945</v>
+        <v>4.3406600952148438</v>
       </c>
     </row>
     <row r="101">
@@ -1789,13 +1789,13 @@
         <v>4.5774550437927246</v>
       </c>
       <c r="C101" s="2">
-        <v>4.5267009735107422</v>
+        <v>4.5266757011413574</v>
       </c>
       <c r="D101" s="2">
         <v>4.4311375617980957</v>
       </c>
       <c r="E101" s="2">
-        <v>4.3676528930664062</v>
+        <v>4.3675603866577148</v>
       </c>
     </row>
     <row r="102">
@@ -1806,13 +1806,13 @@
         <v>3.963977575302124</v>
       </c>
       <c r="C102" s="2">
-        <v>3.9953303337097168</v>
+        <v>3.9948713779449463</v>
       </c>
       <c r="D102" s="2">
         <v>4.3158988952636719</v>
       </c>
       <c r="E102" s="2">
-        <v>4.2609748840332031</v>
+        <v>4.2607970237731934</v>
       </c>
     </row>
     <row r="103">
@@ -1823,13 +1823,13 @@
         <v>4.5724520683288574</v>
       </c>
       <c r="C103" s="2">
-        <v>4.4847574234008789</v>
+        <v>4.4843134880065918</v>
       </c>
       <c r="D103" s="2">
         <v>4.2897796630859375</v>
       </c>
       <c r="E103" s="2">
-        <v>4.2384967803955078</v>
+        <v>4.2383604049682617</v>
       </c>
     </row>
     <row r="104">
@@ -1840,13 +1840,13 @@
         <v>4.2277359962463379</v>
       </c>
       <c r="C104" s="2">
-        <v>4.3299727439880371</v>
+        <v>4.3299317359924316</v>
       </c>
       <c r="D104" s="2">
         <v>4.243870735168457</v>
       </c>
       <c r="E104" s="2">
-        <v>4.2185211181640625</v>
+        <v>4.2184042930603027</v>
       </c>
     </row>
     <row r="105">
@@ -1857,13 +1857,13 @@
         <v>4.5113391876220703</v>
       </c>
       <c r="C105" s="2">
-        <v>4.4647464752197266</v>
+        <v>4.4647488594055176</v>
       </c>
       <c r="D105" s="2">
         <v>4.2307953834533691</v>
       </c>
       <c r="E105" s="2">
-        <v>4.2021775245666504</v>
+        <v>4.2020430564880371</v>
       </c>
     </row>
     <row r="106">
@@ -1874,13 +1874,13 @@
         <v>3.8469746112823486</v>
       </c>
       <c r="C106" s="2">
-        <v>3.855891227722168</v>
+        <v>3.8555166721343994</v>
       </c>
       <c r="D106" s="2">
         <v>4.1245584487915039</v>
       </c>
       <c r="E106" s="2">
-        <v>4.1072282791137695</v>
+        <v>4.107081413269043</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>3.9583845138549805</v>
       </c>
       <c r="C107" s="2">
-        <v>3.8797585964202881</v>
+        <v>3.8800878524780274</v>
       </c>
       <c r="D107" s="2">
         <v>4.1840195655822754</v>
       </c>
       <c r="E107" s="2">
-        <v>4.1752123832702637</v>
+        <v>4.1751036643981934</v>
       </c>
     </row>
     <row r="108">
@@ -1905,16 +1905,16 @@
         <v>31717</v>
       </c>
       <c r="B108" s="2">
-        <v>3.7294986248016357</v>
+        <v>3.7294986248016358</v>
       </c>
       <c r="C108" s="2">
-        <v>3.7654147148132324</v>
+        <v>3.7654497623443604</v>
       </c>
       <c r="D108" s="2">
         <v>4.1624822616577148</v>
       </c>
       <c r="E108" s="2">
-        <v>4.1624960899353027</v>
+        <v>4.1623973846435547</v>
       </c>
     </row>
     <row r="109">
@@ -1925,13 +1925,13 @@
         <v>4.6893420219421387</v>
       </c>
       <c r="C109" s="2">
-        <v>4.517026424407959</v>
+        <v>4.5167937278747559</v>
       </c>
       <c r="D109" s="2">
         <v>4.10174560546875</v>
       </c>
       <c r="E109" s="2">
-        <v>4.0777020454406738</v>
+        <v>4.0776457786560059</v>
       </c>
     </row>
     <row r="110">
@@ -1942,13 +1942,13 @@
         <v>3.6213226318359375</v>
       </c>
       <c r="C110" s="2">
-        <v>3.6721565723419189</v>
+        <v>3.6720180511474609</v>
       </c>
       <c r="D110" s="2">
         <v>3.9951121807098389</v>
       </c>
       <c r="E110" s="2">
-        <v>3.9777657985687256</v>
+        <v>3.9777166843414307</v>
       </c>
     </row>
     <row r="111">
@@ -1959,13 +1959,13 @@
         <v>4.4991283416748047</v>
       </c>
       <c r="C111" s="2">
-        <v>4.6071877479553223</v>
+        <v>4.6070728302001953</v>
       </c>
       <c r="D111" s="2">
         <v>4.0168018341064453</v>
       </c>
       <c r="E111" s="2">
-        <v>3.9973556995391846</v>
+        <v>3.9973709583282471</v>
       </c>
     </row>
     <row r="112">
@@ -1976,13 +1976,13 @@
         <v>4.3786134719848633</v>
       </c>
       <c r="C112" s="2">
-        <v>4.3703103065490723</v>
+        <v>4.3699555397033691</v>
       </c>
       <c r="D112" s="2">
         <v>3.9773139953613281</v>
       </c>
       <c r="E112" s="2">
-        <v>3.9663400650024414</v>
+        <v>3.9663457870483398</v>
       </c>
     </row>
     <row r="113">
@@ -1993,13 +1993,13 @@
         <v>3.6811065673828125</v>
       </c>
       <c r="C113" s="2">
-        <v>3.5668246746063232</v>
+        <v>3.5671694278717041</v>
       </c>
       <c r="D113" s="2">
         <v>4.0369014739990234</v>
       </c>
       <c r="E113" s="2">
-        <v>3.9938011169433594</v>
+        <v>3.9937872886657715</v>
       </c>
     </row>
     <row r="114">
@@ -2010,13 +2010,13 @@
         <v>3.5516388416290283</v>
       </c>
       <c r="C114" s="2">
-        <v>3.5653226375579834</v>
+        <v>3.5653872489929199</v>
       </c>
       <c r="D114" s="2">
-        <v>3.917823314666748</v>
+        <v>3.9178233146667481</v>
       </c>
       <c r="E114" s="2">
-        <v>3.8981418609619141</v>
+        <v>3.8981635570526123</v>
       </c>
     </row>
     <row r="115">
@@ -2027,13 +2027,13 @@
         <v>4.0421795845031738</v>
       </c>
       <c r="C115" s="2">
-        <v>4.0321998596191406</v>
+        <v>4.0324039459228516</v>
       </c>
       <c r="D115" s="2">
         <v>3.9905812740325928</v>
       </c>
       <c r="E115" s="2">
-        <v>3.9748208522796631</v>
+        <v>3.9748125076293945</v>
       </c>
     </row>
     <row r="116">
@@ -2044,13 +2044,13 @@
         <v>3.602996826171875</v>
       </c>
       <c r="C116" s="2">
-        <v>3.6006186008453369</v>
+        <v>3.6008613109588623</v>
       </c>
       <c r="D116" s="2">
         <v>3.9752483367919922</v>
       </c>
       <c r="E116" s="2">
-        <v>3.9359264373779297</v>
+        <v>3.9359197616577148</v>
       </c>
     </row>
     <row r="117">
@@ -2061,13 +2061,13 @@
         <v>4.2657833099365234</v>
       </c>
       <c r="C117" s="2">
-        <v>4.0125622749328613</v>
+        <v>4.0124235153198242</v>
       </c>
       <c r="D117" s="2">
         <v>3.9432253837585449</v>
       </c>
       <c r="E117" s="2">
-        <v>3.9117927551269531</v>
+        <v>3.9118664264678955</v>
       </c>
     </row>
     <row r="118">
@@ -2078,13 +2078,13 @@
         <v>3.6176407337188721</v>
       </c>
       <c r="C118" s="2">
-        <v>3.6560931205749512</v>
+        <v>3.656179666519165</v>
       </c>
       <c r="D118" s="2">
         <v>4.0605607032775879</v>
       </c>
       <c r="E118" s="2">
-        <v>4.0173745155334473</v>
+        <v>4.017364501953125</v>
       </c>
     </row>
     <row r="119">
@@ -2095,13 +2095,13 @@
         <v>4.2761440277099609</v>
       </c>
       <c r="C119" s="2">
-        <v>4.3622689247131348</v>
+        <v>4.3618588447570801</v>
       </c>
       <c r="D119" s="2">
         <v>4.198979377746582</v>
       </c>
       <c r="E119" s="2">
-        <v>4.1533613204956055</v>
+        <v>4.1533317565917969</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>4.3611321449279785</v>
       </c>
       <c r="C120" s="2">
-        <v>4.2571372985839844</v>
+        <v>4.2570385932922363</v>
       </c>
       <c r="D120" s="2">
         <v>4.146876335144043</v>
       </c>
       <c r="E120" s="2">
-        <v>4.1179237365722656</v>
+        <v>4.1178383827209473</v>
       </c>
     </row>
     <row r="121">
@@ -2129,13 +2129,13 @@
         <v>4.0904059410095215</v>
       </c>
       <c r="C121" s="2">
-        <v>4.1531071662902832</v>
+        <v>4.1534757614135742</v>
       </c>
       <c r="D121" s="2">
         <v>4.1947636604309082</v>
       </c>
       <c r="E121" s="2">
-        <v>4.168614387512207</v>
+        <v>4.1684656143188477</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>4.737126350402832</v>
       </c>
       <c r="C122" s="2">
-        <v>4.517061710357666</v>
+        <v>4.5166535377502441</v>
       </c>
       <c r="D122" s="2">
         <v>4.1767911911010742</v>
       </c>
       <c r="E122" s="2">
-        <v>4.1818752288818359</v>
+        <v>4.1817421913146973</v>
       </c>
     </row>
     <row r="123">
@@ -2163,13 +2163,13 @@
         <v>4.7974042892456055</v>
       </c>
       <c r="C123" s="2">
-        <v>4.7892017364501953</v>
+        <v>4.7890896797180176</v>
       </c>
       <c r="D123" s="2">
         <v>4.2154178619384766</v>
       </c>
       <c r="E123" s="2">
-        <v>4.2124967575073242</v>
+        <v>4.2123727798461914</v>
       </c>
     </row>
     <row r="124">
@@ -2180,13 +2180,13 @@
         <v>3.5732526779174805</v>
       </c>
       <c r="C124" s="2">
-        <v>3.713261604309082</v>
+        <v>3.7129640579223633</v>
       </c>
       <c r="D124" s="2">
         <v>4.1879181861877441</v>
       </c>
       <c r="E124" s="2">
-        <v>4.1827163696289062</v>
+        <v>4.1825947761535645</v>
       </c>
     </row>
     <row r="125">
@@ -2197,13 +2197,13 @@
         <v>4.0339841842651367</v>
       </c>
       <c r="C125" s="2">
-        <v>4.0568337440490723</v>
+        <v>4.0565085411071777</v>
       </c>
       <c r="D125" s="2">
         <v>4.2102208137512207</v>
       </c>
       <c r="E125" s="2">
-        <v>4.1827216148376465</v>
+        <v>4.1825785636901856</v>
       </c>
     </row>
     <row r="126">
@@ -2214,13 +2214,13 @@
         <v>4.1040301322937012</v>
       </c>
       <c r="C126" s="2">
-        <v>4.1319103240966797</v>
+        <v>4.1319127082824707</v>
       </c>
       <c r="D126" s="2">
         <v>4.116055965423584</v>
       </c>
       <c r="E126" s="2">
-        <v>4.0816426277160645</v>
+        <v>4.0814599990844727</v>
       </c>
     </row>
     <row r="127">
@@ -2231,13 +2231,13 @@
         <v>3.9652822017669678</v>
       </c>
       <c r="C127" s="2">
-        <v>3.9316878318786621</v>
+        <v>3.9318513870239258</v>
       </c>
       <c r="D127" s="2">
         <v>3.9989426136016846</v>
       </c>
       <c r="E127" s="2">
-        <v>3.9902734756469727</v>
+        <v>3.9901700019836426</v>
       </c>
     </row>
     <row r="128">
@@ -2248,13 +2248,13 @@
         <v>4.0286455154418945</v>
       </c>
       <c r="C128" s="2">
-        <v>4.0942459106445312</v>
+        <v>4.0938568115234375</v>
       </c>
       <c r="D128" s="2">
         <v>3.9041619300842285</v>
       </c>
       <c r="E128" s="2">
-        <v>3.8839831352233887</v>
+        <v>3.8838646411895752</v>
       </c>
     </row>
     <row r="129">
@@ -2265,13 +2265,13 @@
         <v>4.5618553161621094</v>
       </c>
       <c r="C129" s="2">
-        <v>4.2571825981140137</v>
+        <v>4.2568964958190918</v>
       </c>
       <c r="D129" s="2">
         <v>3.9406790733337402</v>
       </c>
       <c r="E129" s="2">
-        <v>3.9115052223205566</v>
+        <v>3.9113929271697998</v>
       </c>
     </row>
     <row r="130">
@@ -2282,13 +2282,13 @@
         <v>3.2429232597351074</v>
       </c>
       <c r="C130" s="2">
-        <v>3.2433977127075195</v>
+        <v>3.2434079647064209</v>
       </c>
       <c r="D130" s="2">
         <v>3.8931331634521484</v>
       </c>
       <c r="E130" s="2">
-        <v>3.8617634773254395</v>
+        <v>3.861689567565918</v>
       </c>
     </row>
     <row r="131">
@@ -2299,13 +2299,13 @@
         <v>3.68310546875</v>
       </c>
       <c r="C131" s="2">
-        <v>3.6947388648986816</v>
+        <v>3.6950423717498779</v>
       </c>
       <c r="D131" s="2">
         <v>3.8230805397033691</v>
       </c>
       <c r="E131" s="2">
-        <v>3.7851862907409668</v>
+        <v>3.785114049911499</v>
       </c>
     </row>
     <row r="132">
@@ -2316,13 +2316,13 @@
         <v>3.9443776607513428</v>
       </c>
       <c r="C132" s="2">
-        <v>3.8325905799865723</v>
+        <v>3.8323404788970947</v>
       </c>
       <c r="D132" s="2">
         <v>3.8246469497680664</v>
       </c>
       <c r="E132" s="2">
-        <v>3.7819781303405762</v>
+        <v>3.7819151878356934</v>
       </c>
     </row>
     <row r="133">
@@ -2333,13 +2333,13 @@
         <v>3.9019074440002441</v>
       </c>
       <c r="C133" s="2">
-        <v>3.9609601497650146</v>
+        <v>3.9607193470001221</v>
       </c>
       <c r="D133" s="2">
         <v>3.8221738338470459</v>
       </c>
       <c r="E133" s="2">
-        <v>3.7681188583374023</v>
+        <v>3.7681236267089844</v>
       </c>
     </row>
     <row r="134">
@@ -2350,13 +2350,13 @@
         <v>3.6060712337493896</v>
       </c>
       <c r="C134" s="2">
-        <v>3.6091573238372803</v>
+        <v>3.6091792583465576</v>
       </c>
       <c r="D134" s="2">
         <v>3.7871029376983643</v>
       </c>
       <c r="E134" s="2">
-        <v>3.7566280364990234</v>
+        <v>3.7566800117492676</v>
       </c>
     </row>
     <row r="135">
@@ -2367,13 +2367,13 @@
         <v>3.4735567569732666</v>
       </c>
       <c r="C135" s="2">
-        <v>3.4427163600921631</v>
+        <v>3.4427323341369629</v>
       </c>
       <c r="D135" s="2">
         <v>3.8688387870788574</v>
       </c>
       <c r="E135" s="2">
-        <v>3.8426425457000732</v>
+        <v>3.8427417278289795</v>
       </c>
     </row>
     <row r="136">
@@ -2384,13 +2384,13 @@
         <v>3.979379415512085</v>
       </c>
       <c r="C136" s="2">
-        <v>3.9028134346008301</v>
+        <v>3.9030606746673584</v>
       </c>
       <c r="D136" s="2">
         <v>3.9195215702056885</v>
       </c>
       <c r="E136" s="2">
-        <v>3.8998081684112549</v>
+        <v>3.8998434543609619</v>
       </c>
     </row>
     <row r="137">
@@ -2401,13 +2401,13 @@
         <v>4.0063877105712891</v>
       </c>
       <c r="C137" s="2">
-        <v>3.9695131778717041</v>
+        <v>3.969733715057373</v>
       </c>
       <c r="D137" s="2">
         <v>3.9067833423614502</v>
       </c>
       <c r="E137" s="2">
-        <v>3.9019088745117188</v>
+        <v>3.9019789695739746</v>
       </c>
     </row>
     <row r="138">
@@ -2418,13 +2418,13 @@
         <v>4.2462167739868164</v>
       </c>
       <c r="C138" s="2">
-        <v>4.1537642478942871</v>
+        <v>4.153904914855957</v>
       </c>
       <c r="D138" s="2">
         <v>3.9162147045135498</v>
       </c>
       <c r="E138" s="2">
-        <v>3.892448902130127</v>
+        <v>3.8925104141235352</v>
       </c>
     </row>
     <row r="139">
@@ -2435,13 +2435,13 @@
         <v>3.9785463809967041</v>
       </c>
       <c r="C139" s="2">
-        <v>4.0175290107727051</v>
+        <v>4.0179624557495117</v>
       </c>
       <c r="D139" s="2">
         <v>3.9166164398193359</v>
       </c>
       <c r="E139" s="2">
-        <v>3.8926947116851807</v>
+        <v>3.8927555084228516</v>
       </c>
     </row>
     <row r="140">
@@ -2452,13 +2452,13 @@
         <v>4.1392512321472168</v>
       </c>
       <c r="C140" s="2">
-        <v>4.2092289924621582</v>
+        <v>4.2089581489562988</v>
       </c>
       <c r="D140" s="2">
         <v>3.9978604316711426</v>
       </c>
       <c r="E140" s="2">
-        <v>3.9790530204772949</v>
+        <v>3.9790611267089844</v>
       </c>
     </row>
     <row r="141">
@@ -2469,13 +2469,13 @@
         <v>3.82973313331604</v>
       </c>
       <c r="C141" s="2">
-        <v>3.851496696472168</v>
+        <v>3.851560115814209</v>
       </c>
       <c r="D141" s="2">
         <v>4.0089535713195801</v>
       </c>
       <c r="E141" s="2">
-        <v>3.9801225662231445</v>
+        <v>3.9801533222198486</v>
       </c>
     </row>
     <row r="142">
@@ -2486,13 +2486,13 @@
         <v>3.9867899417877197</v>
       </c>
       <c r="C142" s="2">
-        <v>3.8758213520050049</v>
+        <v>3.8755028247833252</v>
       </c>
       <c r="D142" s="2">
         <v>4.0298609733581543</v>
       </c>
       <c r="E142" s="2">
-        <v>3.9969785213470459</v>
+        <v>3.9969983100891113</v>
       </c>
     </row>
     <row r="143">
@@ -2503,13 +2503,13 @@
         <v>3.6096861362457275</v>
       </c>
       <c r="C143" s="2">
-        <v>3.6113698482513428</v>
+        <v>3.6113846302032471</v>
       </c>
       <c r="D143" s="2">
         <v>3.9875633716583252</v>
       </c>
       <c r="E143" s="2">
-        <v>3.9631588459014893</v>
+        <v>3.9631545543670654</v>
       </c>
     </row>
     <row r="144">
@@ -2520,13 +2520,13 @@
         <v>4.2047538757324219</v>
       </c>
       <c r="C144" s="2">
-        <v>4.2199411392211914</v>
+        <v>4.2194833755493164</v>
       </c>
       <c r="D144" s="2">
-        <v>3.9666812419891357</v>
+        <v>3.9666812419891358</v>
       </c>
       <c r="E144" s="2">
-        <v>3.9315776824951172</v>
+        <v>3.9315018653869629</v>
       </c>
     </row>
     <row r="145">
@@ -2537,13 +2537,13 @@
         <v>4.0792155265808105</v>
       </c>
       <c r="C145" s="2">
-        <v>3.912437915802002</v>
+        <v>3.9128904342651367</v>
       </c>
       <c r="D145" s="2">
         <v>3.9503111839294434</v>
       </c>
       <c r="E145" s="2">
-        <v>3.9100840091705322</v>
+        <v>3.909991979598999</v>
       </c>
     </row>
     <row r="146">
@@ -2554,13 +2554,13 @@
         <v>4.1945557594299316</v>
       </c>
       <c r="C146" s="2">
-        <v>4.1212172508239746</v>
+        <v>4.1213374137878418</v>
       </c>
       <c r="D146" s="2">
         <v>3.8672749996185303</v>
       </c>
       <c r="E146" s="2">
-        <v>3.8255453109741211</v>
+        <v>3.8254826068878174</v>
       </c>
     </row>
     <row r="147">
@@ -2571,13 +2571,13 @@
         <v>3.8655381202697754</v>
       </c>
       <c r="C147" s="2">
-        <v>3.8493866920471191</v>
+        <v>3.8493118286132813</v>
       </c>
       <c r="D147" s="2">
         <v>3.794119119644165</v>
       </c>
       <c r="E147" s="2">
-        <v>3.7442855834960938</v>
+        <v>3.7442848682403565</v>
       </c>
     </row>
     <row r="148">
@@ -2588,13 +2588,13 @@
         <v>3.790607213973999</v>
       </c>
       <c r="C148" s="2">
-        <v>3.7332999706268311</v>
+        <v>3.7330873012542725</v>
       </c>
       <c r="D148" s="2">
         <v>3.8196616172790527</v>
       </c>
       <c r="E148" s="2">
-        <v>3.7674555778503418</v>
+        <v>3.7675223350524902</v>
       </c>
     </row>
     <row r="149">
@@ -2605,13 +2605,13 @@
         <v>3.9919219017028809</v>
       </c>
       <c r="C149" s="2">
-        <v>4.015784740447998</v>
+        <v>4.0153698921203613</v>
       </c>
       <c r="D149" s="2">
         <v>3.8297927379608154</v>
       </c>
       <c r="E149" s="2">
-        <v>3.769218921661377</v>
+        <v>3.769320011138916</v>
       </c>
     </row>
     <row r="150">
@@ -2622,13 +2622,13 @@
         <v>3.0824072360992432</v>
       </c>
       <c r="C150" s="2">
-        <v>3.0906498432159424</v>
+        <v>3.0909764766693115</v>
       </c>
       <c r="D150" s="2">
         <v>3.9254441261291504</v>
       </c>
       <c r="E150" s="2">
-        <v>3.8913183212280273</v>
+        <v>3.891390323638916</v>
       </c>
     </row>
     <row r="151">
@@ -2639,13 +2639,13 @@
         <v>3.3283853530883789</v>
       </c>
       <c r="C151" s="2">
-        <v>3.1444835662841797</v>
+        <v>3.1447227001190186</v>
       </c>
       <c r="D151" s="2">
         <v>4.0257153511047363</v>
       </c>
       <c r="E151" s="2">
-        <v>3.9980828762054443</v>
+        <v>3.9981260299682617</v>
       </c>
     </row>
     <row r="152">
@@ -2656,13 +2656,13 @@
         <v>3.8395702838897705</v>
       </c>
       <c r="C152" s="2">
-        <v>3.8198986053466797</v>
+        <v>3.8205208778381348</v>
       </c>
       <c r="D152" s="2">
         <v>4.1817293167114258</v>
       </c>
       <c r="E152" s="2">
-        <v>4.1384854316711426</v>
+        <v>4.1385712623596192</v>
       </c>
     </row>
     <row r="153">
@@ -2673,13 +2673,13 @@
         <v>4.2959332466125488</v>
       </c>
       <c r="C153" s="2">
-        <v>4.2358126640319824</v>
+        <v>4.2356629371643066</v>
       </c>
       <c r="D153" s="2">
         <v>4.3404712677001953</v>
       </c>
       <c r="E153" s="2">
-        <v>4.3047456741333008</v>
+        <v>4.3048624992370605</v>
       </c>
     </row>
     <row r="154">
@@ -2690,13 +2690,13 @@
         <v>4.9400782585144043</v>
       </c>
       <c r="C154" s="2">
-        <v>5.0113306045532227</v>
+        <v>5.0115242004394531</v>
       </c>
       <c r="D154" s="2">
         <v>4.5507335662841797</v>
       </c>
       <c r="E154" s="2">
-        <v>4.4772868156433105</v>
+        <v>4.4774370193481445</v>
       </c>
     </row>
     <row r="155">
@@ -2707,13 +2707,13 @@
         <v>5.0969977378845215</v>
       </c>
       <c r="C155" s="2">
-        <v>5.0820984840393066</v>
+        <v>5.0819573402404785</v>
       </c>
       <c r="D155" s="2">
         <v>4.8327503204345703</v>
       </c>
       <c r="E155" s="2">
-        <v>4.7463741302490234</v>
+        <v>4.7464451789855957</v>
       </c>
     </row>
     <row r="156">
@@ -2721,16 +2721,16 @@
         <v>33178</v>
       </c>
       <c r="B156" s="2">
-        <v>5.269660472869873</v>
+        <v>5.2696604728698731</v>
       </c>
       <c r="C156" s="2">
-        <v>5.1130084991455078</v>
+        <v>5.1133189201354981</v>
       </c>
       <c r="D156" s="2">
         <v>4.9979076385498047</v>
       </c>
       <c r="E156" s="2">
-        <v>4.8912954330444336</v>
+        <v>4.8913059234619141</v>
       </c>
     </row>
     <row r="157">
@@ -2741,13 +2741,13 @@
         <v>5.2192864418029785</v>
       </c>
       <c r="C157" s="2">
-        <v>5.2296462059020996</v>
+        <v>5.2297101020812988</v>
       </c>
       <c r="D157" s="2">
         <v>5.1233968734741211</v>
       </c>
       <c r="E157" s="2">
-        <v>5.0100893974304199</v>
+        <v>5.0100259780883789</v>
       </c>
     </row>
     <row r="158">
@@ -2758,13 +2758,13 @@
         <v>5.8842825889587402</v>
       </c>
       <c r="C158" s="2">
-        <v>5.5686521530151367</v>
+        <v>5.5685381889343262</v>
       </c>
       <c r="D158" s="2">
         <v>5.2179183959960938</v>
       </c>
       <c r="E158" s="2">
-        <v>5.0990171432495117</v>
+        <v>5.0989222526550293</v>
       </c>
     </row>
     <row r="159">
@@ -2775,13 +2775,13 @@
         <v>5.6205568313598633</v>
       </c>
       <c r="C159" s="2">
-        <v>5.5124373435974121</v>
+        <v>5.512052059173584</v>
       </c>
       <c r="D159" s="2">
-        <v>5.1188726425170898</v>
+        <v>5.1188726425170899</v>
       </c>
       <c r="E159" s="2">
-        <v>4.9923830032348633</v>
+        <v>4.9922866821289063</v>
       </c>
     </row>
     <row r="160">
@@ -2792,13 +2792,13 @@
         <v>4.8148040771484375</v>
       </c>
       <c r="C160" s="2">
-        <v>4.4487733840942383</v>
+        <v>4.4484705924987793</v>
       </c>
       <c r="D160" s="2">
         <v>5.0083155632019043</v>
       </c>
       <c r="E160" s="2">
-        <v>4.8856463432312012</v>
+        <v>4.8855781555175781</v>
       </c>
     </row>
     <row r="161">
@@ -2809,13 +2809,13 @@
         <v>4.9689736366271973</v>
       </c>
       <c r="C161" s="2">
-        <v>4.8890461921691895</v>
+        <v>4.8889994621276856</v>
       </c>
       <c r="D161" s="2">
         <v>4.8853311538696289</v>
       </c>
       <c r="E161" s="2">
-        <v>4.7863969802856445</v>
+        <v>4.7862882614135742</v>
       </c>
     </row>
     <row r="162">
@@ -2826,13 +2826,13 @@
         <v>5.1466236114501953</v>
       </c>
       <c r="C162" s="2">
-        <v>5.0361623764038086</v>
+        <v>5.0357294082641602</v>
       </c>
       <c r="D162" s="2">
         <v>4.7245163917541504</v>
       </c>
       <c r="E162" s="2">
-        <v>4.621464729309082</v>
+        <v>4.6213665008544922</v>
       </c>
     </row>
     <row r="163">
@@ -2843,13 +2843,13 @@
         <v>4.048668384552002</v>
       </c>
       <c r="C163" s="2">
-        <v>4.0516228675842285</v>
+        <v>4.0518035888671875</v>
       </c>
       <c r="D163" s="2">
         <v>4.5938811302185059</v>
       </c>
       <c r="E163" s="2">
-        <v>4.5214705467224121</v>
+        <v>4.5213432312011719</v>
       </c>
     </row>
     <row r="164">
@@ -2860,13 +2860,13 @@
         <v>4.1019859313964844</v>
       </c>
       <c r="C164" s="2">
-        <v>4.1214694976806641</v>
+        <v>4.1215815544128418</v>
       </c>
       <c r="D164" s="2">
         <v>4.4883174896240234</v>
       </c>
       <c r="E164" s="2">
-        <v>4.4180397987365723</v>
+        <v>4.4179320335388184</v>
       </c>
     </row>
     <row r="165">
@@ -2877,13 +2877,13 @@
         <v>4.1627979278564453</v>
       </c>
       <c r="C165" s="2">
-        <v>4.2197647094726562</v>
+        <v>4.2197098731994629</v>
       </c>
       <c r="D165" s="2">
         <v>4.5428223609924316</v>
       </c>
       <c r="E165" s="2">
-        <v>4.5080399513244629</v>
+        <v>4.5079402923583984</v>
       </c>
     </row>
     <row r="166">
@@ -2894,13 +2894,13 @@
         <v>3.7719550132751465</v>
       </c>
       <c r="C166" s="2">
-        <v>3.7452542781829834</v>
+        <v>3.7454123497009277</v>
       </c>
       <c r="D166" s="2">
         <v>4.5694928169250488</v>
       </c>
       <c r="E166" s="2">
-        <v>4.5218758583068848</v>
+        <v>4.5218009948730469</v>
       </c>
     </row>
     <row r="167">
@@ -2911,13 +2911,13 @@
         <v>4.7085657119750977</v>
       </c>
       <c r="C167" s="2">
-        <v>4.6687054634094238</v>
+        <v>4.6683287620544434</v>
       </c>
       <c r="D167" s="2">
         <v>4.5303997993469238</v>
       </c>
       <c r="E167" s="2">
-        <v>4.4961380958557129</v>
+        <v>4.4960923194885254</v>
       </c>
     </row>
     <row r="168">
@@ -2928,13 +2928,13 @@
         <v>4.6704821586608887</v>
       </c>
       <c r="C168" s="2">
-        <v>4.5815610885620117</v>
+        <v>4.5813517570495605</v>
       </c>
       <c r="D168" s="2">
         <v>4.5268383026123047</v>
       </c>
       <c r="E168" s="2">
-        <v>4.4980068206787109</v>
+        <v>4.4979743957519531</v>
       </c>
     </row>
     <row r="169">
@@ -2945,13 +2945,13 @@
         <v>5.3053488731384277</v>
       </c>
       <c r="C169" s="2">
-        <v>5.2587742805480957</v>
+        <v>5.2585444450378418</v>
       </c>
       <c r="D169" s="2">
         <v>4.5952014923095703</v>
       </c>
       <c r="E169" s="2">
-        <v>4.5635919570922852</v>
+        <v>4.5635566711425781</v>
       </c>
     </row>
     <row r="170">
@@ -2962,13 +2962,13 @@
         <v>5.2090096473693848</v>
       </c>
       <c r="C170" s="2">
-        <v>5.0135688781738281</v>
+        <v>5.0137472152709961</v>
       </c>
       <c r="D170" s="2">
         <v>4.6298704147338867</v>
       </c>
       <c r="E170" s="2">
-        <v>4.5942492485046387</v>
+        <v>4.594182014465332</v>
       </c>
     </row>
     <row r="171">
@@ -2979,13 +2979,13 @@
         <v>4.7947840690612793</v>
       </c>
       <c r="C171" s="2">
-        <v>4.8045210838317871</v>
+        <v>4.8043522834777832</v>
       </c>
       <c r="D171" s="2">
         <v>4.7297163009643555</v>
       </c>
       <c r="E171" s="2">
-        <v>4.6882171630859375</v>
+        <v>4.6881422996520996</v>
       </c>
     </row>
     <row r="172">
@@ -2996,13 +2996,13 @@
         <v>4.0166139602661133</v>
       </c>
       <c r="C172" s="2">
-        <v>4.0684442520141602</v>
+        <v>4.0687432289123535</v>
       </c>
       <c r="D172" s="2">
         <v>4.6381349563598633</v>
       </c>
       <c r="E172" s="2">
-        <v>4.6086173057556152</v>
+        <v>4.608555793762207</v>
       </c>
     </row>
     <row r="173">
@@ -3013,13 +3013,13 @@
         <v>4.7172565460205078</v>
       </c>
       <c r="C173" s="2">
-        <v>4.7117342948913574</v>
+        <v>4.7118191719055176</v>
       </c>
       <c r="D173" s="2">
         <v>4.6270294189453125</v>
       </c>
       <c r="E173" s="2">
-        <v>4.5869431495666504</v>
+        <v>4.5868616104125977</v>
       </c>
     </row>
     <row r="174">
@@ -3030,13 +3030,13 @@
         <v>4.4748187065124512</v>
       </c>
       <c r="C174" s="2">
-        <v>4.4956803321838379</v>
+        <v>4.4953398704528809</v>
       </c>
       <c r="D174" s="2">
         <v>4.5077643394470215</v>
       </c>
       <c r="E174" s="2">
-        <v>4.4752874374389648</v>
+        <v>4.4751863479614258</v>
       </c>
     </row>
     <row r="175">
@@ -3047,13 +3047,13 @@
         <v>4.6705670356750488</v>
       </c>
       <c r="C175" s="2">
-        <v>4.5909628868103027</v>
+        <v>4.5910558700561523</v>
       </c>
       <c r="D175" s="2">
         <v>4.3778076171875</v>
       </c>
       <c r="E175" s="2">
-        <v>4.3657026290893555</v>
+        <v>4.3655533790588379</v>
       </c>
     </row>
     <row r="176">
@@ -3064,13 +3064,13 @@
         <v>3.8843338489532471</v>
       </c>
       <c r="C176" s="2">
-        <v>3.9523069858551025</v>
+        <v>3.9520502090454102</v>
       </c>
       <c r="D176" s="2">
         <v>4.306004524230957</v>
       </c>
       <c r="E176" s="2">
-        <v>4.3010406494140625</v>
+        <v>4.3009281158447266</v>
       </c>
     </row>
     <row r="177">
@@ -3081,13 +3081,13 @@
         <v>4.5705342292785645</v>
       </c>
       <c r="C177" s="2">
-        <v>4.3864970207214355</v>
+        <v>4.386103630065918</v>
       </c>
       <c r="D177" s="2">
-        <v>4.3371500968933105</v>
+        <v>4.3371500968933106</v>
       </c>
       <c r="E177" s="2">
-        <v>4.3198795318603516</v>
+        <v>4.3196969032287598</v>
       </c>
     </row>
     <row r="178">
@@ -3098,13 +3098,13 @@
         <v>4.2319622039794922</v>
       </c>
       <c r="C178" s="2">
-        <v>4.2538700103759766</v>
+        <v>4.2534661293029785</v>
       </c>
       <c r="D178" s="2">
         <v>4.2080726623535156</v>
       </c>
       <c r="E178" s="2">
-        <v>4.1848516464233398</v>
+        <v>4.184661865234375</v>
       </c>
     </row>
     <row r="179">
@@ -3115,13 +3115,13 @@
         <v>4.0393986701965332</v>
       </c>
       <c r="C179" s="2">
-        <v>4.0273075103759766</v>
+        <v>4.0270514488220215</v>
       </c>
       <c r="D179" s="2">
         <v>4.1978750228881836</v>
       </c>
       <c r="E179" s="2">
-        <v>4.1630644798278809</v>
+        <v>4.1629204750061035</v>
       </c>
     </row>
     <row r="180">
@@ -3132,13 +3132,13 @@
         <v>4.1485557556152344</v>
       </c>
       <c r="C180" s="2">
-        <v>4.2225642204284668</v>
+        <v>4.222722053527832</v>
       </c>
       <c r="D180" s="2">
         <v>4.1790437698364258</v>
       </c>
       <c r="E180" s="2">
-        <v>4.1551456451416016</v>
+        <v>4.1549324989318848</v>
       </c>
     </row>
     <row r="181">
@@ -3149,13 +3149,13 @@
         <v>4.2969241142272949</v>
       </c>
       <c r="C181" s="2">
-        <v>4.2379908561706543</v>
+        <v>4.2376623153686523</v>
       </c>
       <c r="D181" s="2">
         <v>4.2363519668579102</v>
       </c>
       <c r="E181" s="2">
-        <v>4.1816582679748535</v>
+        <v>4.1814670562744141</v>
       </c>
     </row>
     <row r="182">
@@ -3166,13 +3166,13 @@
         <v>3.5555591583251953</v>
       </c>
       <c r="C182" s="2">
-        <v>3.4964838027954102</v>
+        <v>3.4965052604675293</v>
       </c>
       <c r="D182" s="2">
         <v>4.1872053146362305</v>
       </c>
       <c r="E182" s="2">
-        <v>4.1524319648742676</v>
+        <v>4.1522431373596192</v>
       </c>
     </row>
     <row r="183">
@@ -3183,13 +3183,13 @@
         <v>4.3830404281616211</v>
       </c>
       <c r="C183" s="2">
-        <v>4.2995953559875488</v>
+        <v>4.2996683120727539</v>
       </c>
       <c r="D183" s="2">
         <v>4.1576037406921387</v>
       </c>
       <c r="E183" s="2">
-        <v>4.0932397842407227</v>
+        <v>4.0931053161621094</v>
       </c>
     </row>
     <row r="184">
@@ -3200,13 +3200,13 @@
         <v>4.5010862350463867</v>
       </c>
       <c r="C184" s="2">
-        <v>4.5196957588195801</v>
+        <v>4.5191650390625</v>
       </c>
       <c r="D184" s="2">
-        <v>4.129065990447998</v>
+        <v>4.1290659904479981</v>
       </c>
       <c r="E184" s="2">
-        <v>4.0483074188232422</v>
+        <v>4.0482096672058106</v>
       </c>
     </row>
     <row r="185">
@@ -3214,16 +3214,16 @@
         <v>34060</v>
       </c>
       <c r="B185" s="2">
-        <v>4.4001073837280273</v>
+        <v>4.4001073837280274</v>
       </c>
       <c r="C185" s="2">
-        <v>4.1909198760986328</v>
+        <v>4.1908612251281738</v>
       </c>
       <c r="D185" s="2">
         <v>4.108891487121582</v>
       </c>
       <c r="E185" s="2">
-        <v>4.021263599395752</v>
+        <v>4.0211005210876465</v>
       </c>
     </row>
     <row r="186">
@@ -3234,13 +3234,13 @@
         <v>4.1282129287719727</v>
       </c>
       <c r="C186" s="2">
-        <v>4.1234593391418457</v>
+        <v>4.1230845451354981</v>
       </c>
       <c r="D186" s="2">
         <v>4.1605253219604492</v>
       </c>
       <c r="E186" s="2">
-        <v>4.065192699432373</v>
+        <v>4.0650424957275391</v>
       </c>
     </row>
     <row r="187">
@@ -3251,13 +3251,13 @@
         <v>3.9655506610870361</v>
       </c>
       <c r="C187" s="2">
-        <v>3.721142053604126</v>
+        <v>3.7212274074554443</v>
       </c>
       <c r="D187" s="2">
         <v>4.2315049171447754</v>
       </c>
       <c r="E187" s="2">
-        <v>4.112856388092041</v>
+        <v>4.1126809120178223</v>
       </c>
     </row>
     <row r="188">
@@ -3268,13 +3268,13 @@
         <v>3.7825582027435303</v>
       </c>
       <c r="C188" s="2">
-        <v>3.6229169368743896</v>
+        <v>3.6229898929595947</v>
       </c>
       <c r="D188" s="2">
         <v>4.2142910957336426</v>
       </c>
       <c r="E188" s="2">
-        <v>4.100895881652832</v>
+        <v>4.1007351875305176</v>
       </c>
     </row>
     <row r="189">
@@ -3285,13 +3285,13 @@
         <v>3.9669833183288574</v>
       </c>
       <c r="C189" s="2">
-        <v>3.9791700839996338</v>
+        <v>3.9787395000457764</v>
       </c>
       <c r="D189" s="2">
         <v>4.2037482261657715</v>
       </c>
       <c r="E189" s="2">
-        <v>4.0902628898620605</v>
+        <v>4.090181827545166</v>
       </c>
     </row>
     <row r="190">
@@ -3302,13 +3302,13 @@
         <v>4.7616300582885742</v>
       </c>
       <c r="C190" s="2">
-        <v>4.6333494186401367</v>
+        <v>4.6331391334533691</v>
       </c>
       <c r="D190" s="2">
-        <v>4.1248078346252441</v>
+        <v>4.1248078346252442</v>
       </c>
       <c r="E190" s="2">
-        <v>4.0262436866760254</v>
+        <v>4.0261921882629395</v>
       </c>
     </row>
     <row r="191">
@@ -3319,13 +3319,13 @@
         <v>4.1943764686584473</v>
       </c>
       <c r="C191" s="2">
-        <v>3.9254579544067383</v>
+        <v>3.9252536296844482</v>
       </c>
       <c r="D191" s="2">
         <v>4.0612754821777344</v>
       </c>
       <c r="E191" s="2">
-        <v>3.946378231048584</v>
+        <v>3.9463298320770264</v>
       </c>
     </row>
     <row r="192">
@@ -3336,13 +3336,13 @@
         <v>4.2281126976013184</v>
       </c>
       <c r="C192" s="2">
-        <v>4.1919493675231934</v>
+        <v>4.1921544075012207</v>
       </c>
       <c r="D192" s="2">
         <v>4.0237245559692383</v>
       </c>
       <c r="E192" s="2">
-        <v>3.899045467376709</v>
+        <v>3.8990166187286377</v>
       </c>
     </row>
     <row r="193">
@@ -3353,13 +3353,13 @@
         <v>4.4062037467956543</v>
       </c>
       <c r="C193" s="2">
-        <v>4.4240021705627441</v>
+        <v>4.4241852760314942</v>
       </c>
       <c r="D193" s="2">
         <v>3.9919888973236084</v>
       </c>
       <c r="E193" s="2">
-        <v>3.8901002407073975</v>
+        <v>3.8900678157806396</v>
       </c>
     </row>
     <row r="194">
@@ -3367,16 +3367,16 @@
         <v>34335</v>
       </c>
       <c r="B194" s="2">
-        <v>3.6896429061889648</v>
+        <v>3.6896429061889649</v>
       </c>
       <c r="C194" s="2">
-        <v>3.6147456169128418</v>
+        <v>3.6149566173553467</v>
       </c>
       <c r="D194" s="2">
         <v>3.9963579177856445</v>
       </c>
       <c r="E194" s="2">
-        <v>3.8947808742523193</v>
+        <v>3.8948314189910889</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +3387,13 @@
         <v>3.5564200878143311</v>
       </c>
       <c r="C195" s="2">
-        <v>3.4046711921691895</v>
+        <v>3.4043221473693848</v>
       </c>
       <c r="D195" s="2">
         <v>3.8820686340332031</v>
       </c>
       <c r="E195" s="2">
-        <v>3.7982277870178223</v>
+        <v>3.7983002662658692</v>
       </c>
     </row>
     <row r="196">
@@ -3404,13 +3404,13 @@
         <v>3.6275947093963623</v>
       </c>
       <c r="C196" s="2">
-        <v>3.2951455116271973</v>
+        <v>3.2954089641571045</v>
       </c>
       <c r="D196" s="2">
         <v>3.8816556930541992</v>
       </c>
       <c r="E196" s="2">
-        <v>3.8251481056213379</v>
+        <v>3.8252396583557129</v>
       </c>
     </row>
     <row r="197">
@@ -3421,13 +3421,13 @@
         <v>3.4969356060028076</v>
       </c>
       <c r="C197" s="2">
-        <v>3.5424118041992188</v>
+        <v>3.5424504280090332</v>
       </c>
       <c r="D197" s="2">
         <v>3.8840534687042236</v>
       </c>
       <c r="E197" s="2">
-        <v>3.8192541599273682</v>
+        <v>3.8192579746246338</v>
       </c>
     </row>
     <row r="198">
@@ -3438,13 +3438,13 @@
         <v>4.0063042640686035</v>
       </c>
       <c r="C198" s="2">
-        <v>4.0212945938110352</v>
+        <v>4.0216131210327149</v>
       </c>
       <c r="D198" s="2">
         <v>3.783766508102417</v>
       </c>
       <c r="E198" s="2">
-        <v>3.7107369899749756</v>
+        <v>3.7106504440307617</v>
       </c>
     </row>
     <row r="199">
@@ -3455,13 +3455,13 @@
         <v>3.733027458190918</v>
       </c>
       <c r="C199" s="2">
-        <v>3.7643716335296631</v>
+        <v>3.764357328414917</v>
       </c>
       <c r="D199" s="2">
         <v>3.7685971260070801</v>
       </c>
       <c r="E199" s="2">
-        <v>3.6814208030700684</v>
+        <v>3.6813268661499023</v>
       </c>
     </row>
     <row r="200">
@@ -3472,13 +3472,13 @@
         <v>4.1906604766845703</v>
       </c>
       <c r="C200" s="2">
-        <v>4.1677412986755371</v>
+        <v>4.1677088737487793</v>
       </c>
       <c r="D200" s="2">
         <v>3.8132710456848145</v>
       </c>
       <c r="E200" s="2">
-        <v>3.7431900501251221</v>
+        <v>3.7431378364562988</v>
       </c>
     </row>
     <row r="201">
@@ -3489,13 +3489,13 @@
         <v>4.2496929168701172</v>
       </c>
       <c r="C201" s="2">
-        <v>4.1389036178588867</v>
+        <v>4.1383185386657715</v>
       </c>
       <c r="D201" s="2">
         <v>3.8687834739685059</v>
       </c>
       <c r="E201" s="2">
-        <v>3.8259382247924805</v>
+        <v>3.8258674144744873</v>
       </c>
     </row>
     <row r="202">
@@ -3506,13 +3506,13 @@
         <v>3.5036203861236572</v>
       </c>
       <c r="C202" s="2">
-        <v>3.4473483562469482</v>
+        <v>3.4467175006866455</v>
       </c>
       <c r="D202" s="2">
         <v>3.8831210136413574</v>
       </c>
       <c r="E202" s="2">
-        <v>3.8364171981811523</v>
+        <v>3.8363790512084961</v>
       </c>
     </row>
     <row r="203">
@@ -3523,13 +3523,13 @@
         <v>3.5531179904937744</v>
       </c>
       <c r="C203" s="2">
-        <v>3.3508989810943604</v>
+        <v>3.3510444164276123</v>
       </c>
       <c r="D203" s="2">
         <v>3.8147087097167969</v>
       </c>
       <c r="E203" s="2">
-        <v>3.7775940895080566</v>
+        <v>3.7774994373321533</v>
       </c>
     </row>
     <row r="204">
@@ -3540,13 +3540,13 @@
         <v>3.9584856033325195</v>
       </c>
       <c r="C204" s="2">
-        <v>3.9605941772460938</v>
+        <v>3.9606215953826904</v>
       </c>
       <c r="D204" s="2">
         <v>3.8203892707824707</v>
       </c>
       <c r="E204" s="2">
-        <v>3.7773728370666504</v>
+        <v>3.7772581577301025</v>
       </c>
     </row>
     <row r="205">
@@ -3557,13 +3557,13 @@
         <v>4.1272068023681641</v>
       </c>
       <c r="C205" s="2">
-        <v>4.039879322052002</v>
+        <v>4.0399742126464844</v>
       </c>
       <c r="D205" s="2">
         <v>3.8052942752838135</v>
       </c>
       <c r="E205" s="2">
-        <v>3.7506508827209473</v>
+        <v>3.7505407333374023</v>
       </c>
     </row>
     <row r="206">
@@ -3574,13 +3574,13 @@
         <v>3.6259734630584717</v>
       </c>
       <c r="C206" s="2">
-        <v>3.636723518371582</v>
+        <v>3.6370565891265869</v>
       </c>
       <c r="D206" s="2">
         <v>3.7856020927429199</v>
       </c>
       <c r="E206" s="2">
-        <v>3.7023046016693115</v>
+        <v>3.7022614479064941</v>
       </c>
     </row>
     <row r="207">
@@ -3591,13 +3591,13 @@
         <v>3.3905940055847168</v>
       </c>
       <c r="C207" s="2">
-        <v>3.4918851852416992</v>
+        <v>3.4916949272155762</v>
       </c>
       <c r="D207" s="2">
         <v>3.836916446685791</v>
       </c>
       <c r="E207" s="2">
-        <v>3.7562196254730225</v>
+        <v>3.7562100887298584</v>
       </c>
     </row>
     <row r="208">
@@ -3608,13 +3608,13 @@
         <v>3.784151554107666</v>
       </c>
       <c r="C208" s="2">
-        <v>3.7623815536499023</v>
+        <v>3.7621867656707764</v>
       </c>
       <c r="D208" s="2">
         <v>3.8652083873748779</v>
       </c>
       <c r="E208" s="2">
-        <v>3.8174734115600586</v>
+        <v>3.8174293041229248</v>
       </c>
     </row>
     <row r="209">
@@ -3625,13 +3625,13 @@
         <v>4.0548062324523926</v>
       </c>
       <c r="C209" s="2">
-        <v>3.9272441864013672</v>
+        <v>3.9272522926330566</v>
       </c>
       <c r="D209" s="2">
         <v>3.8924236297607422</v>
       </c>
       <c r="E209" s="2">
-        <v>3.8164777755737305</v>
+        <v>3.8164353370666504</v>
       </c>
     </row>
     <row r="210">
@@ -3642,13 +3642,13 @@
         <v>4.0724625587463379</v>
       </c>
       <c r="C210" s="2">
-        <v>3.7037856578826904</v>
+        <v>3.7038049697875977</v>
       </c>
       <c r="D210" s="2">
         <v>3.8652403354644775</v>
       </c>
       <c r="E210" s="2">
-        <v>3.8025417327880859</v>
+        <v>3.8024852275848389</v>
       </c>
     </row>
     <row r="211">
@@ -3659,13 +3659,13 @@
         <v>3.9654502868652344</v>
       </c>
       <c r="C211" s="2">
-        <v>3.9325833320617676</v>
+        <v>3.9322555065155029</v>
       </c>
       <c r="D211" s="2">
         <v>3.8147697448730469</v>
       </c>
       <c r="E211" s="2">
-        <v>3.7539951801300049</v>
+        <v>3.7538614273071289</v>
       </c>
     </row>
     <row r="212">
@@ -3676,13 +3676,13 @@
         <v>3.8077449798583984</v>
       </c>
       <c r="C212" s="2">
-        <v>3.9021832942962646</v>
+        <v>3.9020178318023682</v>
       </c>
       <c r="D212" s="2">
         <v>3.9047887325286865</v>
       </c>
       <c r="E212" s="2">
-        <v>3.8428523540496826</v>
+        <v>3.8427391052246094</v>
       </c>
     </row>
     <row r="213">
@@ -3693,13 +3693,13 @@
         <v>4.2034225463867188</v>
       </c>
       <c r="C213" s="2">
-        <v>3.951634407043457</v>
+        <v>3.951674222946167</v>
       </c>
       <c r="D213" s="2">
         <v>3.9039812088012695</v>
       </c>
       <c r="E213" s="2">
-        <v>3.8390216827392578</v>
+        <v>3.838876485824585</v>
       </c>
     </row>
     <row r="214">
@@ -3710,13 +3710,13 @@
         <v>3.8825583457946777</v>
       </c>
       <c r="C214" s="2">
-        <v>3.914454460144043</v>
+        <v>3.9144248962402344</v>
       </c>
       <c r="D214" s="2">
         <v>3.9037740230560303</v>
       </c>
       <c r="E214" s="2">
-        <v>3.8335719108581543</v>
+        <v>3.8334295749664307</v>
       </c>
     </row>
     <row r="215">
@@ -3727,13 +3727,13 @@
         <v>3.1717381477355957</v>
       </c>
       <c r="C215" s="2">
-        <v>3.1998054981231689</v>
+        <v>3.19944167137146</v>
       </c>
       <c r="D215" s="2">
         <v>3.825577974319458</v>
       </c>
       <c r="E215" s="2">
-        <v>3.7912442684173584</v>
+        <v>3.7911415100097656</v>
       </c>
     </row>
     <row r="216">
@@ -3744,13 +3744,13 @@
         <v>4.2007632255554199</v>
       </c>
       <c r="C216" s="2">
-        <v>4.2915997505187988</v>
+        <v>4.2915935516357422</v>
       </c>
       <c r="D216" s="2">
         <v>3.8674559593200684</v>
       </c>
       <c r="E216" s="2">
-        <v>3.8419442176818848</v>
+        <v>3.8418922424316406</v>
       </c>
     </row>
     <row r="217">
@@ -3761,13 +3761,13 @@
         <v>3.7768843173980713</v>
       </c>
       <c r="C217" s="2">
-        <v>3.7279045581817627</v>
+        <v>3.7274234294891358</v>
       </c>
       <c r="D217" s="2">
         <v>3.8432183265686035</v>
       </c>
       <c r="E217" s="2">
-        <v>3.7714169025421143</v>
+        <v>3.7712886333465576</v>
       </c>
     </row>
     <row r="218">
@@ -3778,13 +3778,13 @@
         <v>4.0529413223266602</v>
       </c>
       <c r="C218" s="2">
-        <v>3.8781967163085938</v>
+        <v>3.8782305717468262</v>
       </c>
       <c r="D218" s="2">
         <v>3.872032642364502</v>
       </c>
       <c r="E218" s="2">
-        <v>3.8171322345733643</v>
+        <v>3.8169572353363037</v>
       </c>
     </row>
     <row r="219">
@@ -3795,13 +3795,13 @@
         <v>3.3686988353729248</v>
       </c>
       <c r="C219" s="2">
-        <v>3.3228373527526855</v>
+        <v>3.3232123851776123</v>
       </c>
       <c r="D219" s="2">
         <v>3.8413360118865967</v>
       </c>
       <c r="E219" s="2">
-        <v>3.763514518737793</v>
+        <v>3.7633109092712402</v>
       </c>
     </row>
     <row r="220">
@@ -3812,13 +3812,13 @@
         <v>4.3423514366149902</v>
       </c>
       <c r="C220" s="2">
-        <v>4.3888812065124512</v>
+        <v>4.3890109062194824</v>
       </c>
       <c r="D220" s="2">
         <v>3.9152722358703613</v>
       </c>
       <c r="E220" s="2">
-        <v>3.8185975551605225</v>
+        <v>3.8184375762939453</v>
       </c>
     </row>
     <row r="221">
@@ -3826,16 +3826,16 @@
         <v>35156</v>
       </c>
       <c r="B221" s="2">
-        <v>3.589606761932373</v>
+        <v>3.5896067619323731</v>
       </c>
       <c r="C221" s="2">
-        <v>3.2674386501312256</v>
+        <v>3.2665860652923584</v>
       </c>
       <c r="D221" s="2">
         <v>3.9038076400756836</v>
       </c>
       <c r="E221" s="2">
-        <v>3.7992532253265381</v>
+        <v>3.7990748882293701</v>
       </c>
     </row>
     <row r="222">
@@ -3846,13 +3846,13 @@
         <v>4.4627518653869629</v>
       </c>
       <c r="C222" s="2">
-        <v>4.3630709648132324</v>
+        <v>4.3626918792724609</v>
       </c>
       <c r="D222" s="2">
         <v>3.8869314193725586</v>
       </c>
       <c r="E222" s="2">
-        <v>3.7770214080810547</v>
+        <v>3.7768845558166504</v>
       </c>
     </row>
     <row r="223">
@@ -3863,13 +3863,13 @@
         <v>3.6062881946563721</v>
       </c>
       <c r="C223" s="2">
-        <v>3.4318966865539551</v>
+        <v>3.4316070079803467</v>
       </c>
       <c r="D223" s="2">
         <v>3.9254381656646729</v>
       </c>
       <c r="E223" s="2">
-        <v>3.8236322402954102</v>
+        <v>3.8234634399414063</v>
       </c>
     </row>
     <row r="224">
@@ -3880,13 +3880,13 @@
         <v>3.8371636867523193</v>
       </c>
       <c r="C224" s="2">
-        <v>3.6955513954162598</v>
+        <v>3.6955831050872803</v>
       </c>
       <c r="D224" s="2">
         <v>3.9103567600250244</v>
       </c>
       <c r="E224" s="2">
-        <v>3.8142561912536621</v>
+        <v>3.8140592575073242</v>
       </c>
     </row>
     <row r="225">
@@ -3897,13 +3897,13 @@
         <v>4.0975832939147949</v>
       </c>
       <c r="C225" s="2">
-        <v>4.1175007820129395</v>
+        <v>4.1173281669616699</v>
       </c>
       <c r="D225" s="2">
         <v>3.8274989128112793</v>
       </c>
       <c r="E225" s="2">
-        <v>3.7261343002319336</v>
+        <v>3.7259142398834229</v>
       </c>
     </row>
     <row r="226">
@@ -3914,13 +3914,13 @@
         <v>3.6249983310699463</v>
       </c>
       <c r="C226" s="2">
-        <v>3.5278191566467285</v>
+        <v>3.5277113914489746</v>
       </c>
       <c r="D226" s="2">
         <v>3.7693893909454346</v>
       </c>
       <c r="E226" s="2">
-        <v>3.6964578628540039</v>
+        <v>3.6963553428649902</v>
       </c>
     </row>
     <row r="227">
@@ -3931,13 +3931,13 @@
         <v>4.3995013236999512</v>
       </c>
       <c r="C227" s="2">
-        <v>4.297694206237793</v>
+        <v>4.2974400520324707</v>
       </c>
       <c r="D227" s="2">
         <v>3.6467714309692383</v>
       </c>
       <c r="E227" s="2">
-        <v>3.5752701759338379</v>
+        <v>3.5751473903656006</v>
       </c>
     </row>
     <row r="228">
@@ -3948,13 +3948,13 @@
         <v>3.2329649925231934</v>
       </c>
       <c r="C228" s="2">
-        <v>3.2384521961212158</v>
+        <v>3.2385749816894531</v>
       </c>
       <c r="D228" s="2">
         <v>3.6103711128234863</v>
       </c>
       <c r="E228" s="2">
-        <v>3.5558202266693115</v>
+        <v>3.5557358264923096</v>
       </c>
     </row>
     <row r="229">
@@ -3965,13 +3965,13 @@
         <v>3.5966322422027588</v>
       </c>
       <c r="C229" s="2">
-        <v>3.5957839488983154</v>
+        <v>3.5957057476043701</v>
       </c>
       <c r="D229" s="2">
         <v>3.5925853252410889</v>
       </c>
       <c r="E229" s="2">
-        <v>3.5280852317810059</v>
+        <v>3.5280284881591797</v>
       </c>
     </row>
     <row r="230">
@@ -3982,13 +3982,13 @@
         <v>3.0666215419769287</v>
       </c>
       <c r="C230" s="2">
-        <v>3.0003523826599121</v>
+        <v>3.000556468963623</v>
       </c>
       <c r="D230" s="2">
         <v>3.534658670425415</v>
       </c>
       <c r="E230" s="2">
-        <v>3.4723694324493408</v>
+        <v>3.4723429679870605</v>
       </c>
     </row>
     <row r="231">
@@ -3999,13 +3999,13 @@
         <v>3.3591897487640381</v>
       </c>
       <c r="C231" s="2">
-        <v>3.2723805904388428</v>
+        <v>3.2718188762664795</v>
       </c>
       <c r="D231" s="2">
         <v>3.5254933834075928</v>
       </c>
       <c r="E231" s="2">
-        <v>3.4861147403717041</v>
+        <v>3.486083984375</v>
       </c>
     </row>
     <row r="232">
@@ -4016,13 +4016,13 @@
         <v>3.2786858081817627</v>
       </c>
       <c r="C232" s="2">
-        <v>3.2568478584289551</v>
+        <v>3.2569031715393067</v>
       </c>
       <c r="D232" s="2">
         <v>3.4817874431610107</v>
       </c>
       <c r="E232" s="2">
-        <v>3.4420838356018066</v>
+        <v>3.4421172142028809</v>
       </c>
     </row>
     <row r="233">
@@ -4033,13 +4033,13 @@
         <v>3.6770896911621094</v>
       </c>
       <c r="C233" s="2">
-        <v>3.4459366798400879</v>
+        <v>3.4462180137634277</v>
       </c>
       <c r="D233" s="2">
         <v>3.5156421661376953</v>
       </c>
       <c r="E233" s="2">
-        <v>3.4552083015441895</v>
+        <v>3.4551897048950195</v>
       </c>
     </row>
     <row r="234">
@@ -4050,13 +4050,13 @@
         <v>3.5762434005737305</v>
       </c>
       <c r="C234" s="2">
-        <v>3.616058349609375</v>
+        <v>3.6161589622497559</v>
       </c>
       <c r="D234" s="2">
         <v>3.4382021427154541</v>
       </c>
       <c r="E234" s="2">
-        <v>3.3765249252319336</v>
+        <v>3.3764863014221191</v>
       </c>
     </row>
     <row r="235">
@@ -4067,13 +4067,13 @@
         <v>3.5425121784210205</v>
       </c>
       <c r="C235" s="2">
-        <v>3.6515259742736816</v>
+        <v>3.6513800621032715</v>
       </c>
       <c r="D235" s="2">
         <v>3.4576280117034912</v>
       </c>
       <c r="E235" s="2">
-        <v>3.3957862854003906</v>
+        <v>3.3957564830780029</v>
       </c>
     </row>
     <row r="236">
@@ -4084,13 +4084,13 @@
         <v>4.0061483383178711</v>
       </c>
       <c r="C236" s="2">
-        <v>3.9014167785644531</v>
+        <v>3.9017393589019775</v>
       </c>
       <c r="D236" s="2">
         <v>3.4786615371704102</v>
       </c>
       <c r="E236" s="2">
-        <v>3.437408447265625</v>
+        <v>3.4374094009399414</v>
       </c>
     </row>
     <row r="237">
@@ -4101,13 +4101,13 @@
         <v>3.5376560688018799</v>
       </c>
       <c r="C237" s="2">
-        <v>3.3565714359283447</v>
+        <v>3.3562273979187012</v>
       </c>
       <c r="D237" s="2">
         <v>3.5378484725952148</v>
       </c>
       <c r="E237" s="2">
-        <v>3.4917826652526855</v>
+        <v>3.4917840957641602</v>
       </c>
     </row>
     <row r="238">
@@ -4118,13 +4118,13 @@
         <v>2.8996732234954834</v>
       </c>
       <c r="C238" s="2">
-        <v>2.8876338005065918</v>
+        <v>2.8873741626739502</v>
       </c>
       <c r="D238" s="2">
-        <v>3.5016093254089355</v>
+        <v>3.5016093254089356</v>
       </c>
       <c r="E238" s="2">
-        <v>3.4826769828796387</v>
+        <v>3.4825983047485352</v>
       </c>
     </row>
     <row r="239">
@@ -4135,13 +4135,13 @@
         <v>3.2414543628692627</v>
       </c>
       <c r="C239" s="2">
-        <v>3.1737048625946045</v>
+        <v>3.1739890575408936</v>
       </c>
       <c r="D239" s="2">
         <v>3.4521110057830811</v>
       </c>
       <c r="E239" s="2">
-        <v>3.4436819553375244</v>
+        <v>3.443530797958374</v>
       </c>
     </row>
     <row r="240">
@@ -4152,13 +4152,13 @@
         <v>3.5484905242919922</v>
       </c>
       <c r="C240" s="2">
-        <v>3.6469793319702148</v>
+        <v>3.6466951370239258</v>
       </c>
       <c r="D240" s="2">
         <v>3.4422399997711182</v>
       </c>
       <c r="E240" s="2">
-        <v>3.4274158477783203</v>
+        <v>3.427302360534668</v>
       </c>
     </row>
     <row r="241">
@@ -4169,13 +4169,13 @@
         <v>3.8113682270050049</v>
       </c>
       <c r="C241" s="2">
-        <v>3.7462172508239746</v>
+        <v>3.7462739944458008</v>
       </c>
       <c r="D241" s="2">
         <v>3.3008048534393311</v>
       </c>
       <c r="E241" s="2">
-        <v>3.302349328994751</v>
+        <v>3.3022217750549317</v>
       </c>
     </row>
     <row r="242">
@@ -4186,13 +4186,13 @@
         <v>3.3509376049041748</v>
       </c>
       <c r="C242" s="2">
-        <v>3.3639853000640869</v>
+        <v>3.3635461330413818</v>
       </c>
       <c r="D242" s="2">
         <v>3.2847714424133301</v>
       </c>
       <c r="E242" s="2">
-        <v>3.2973864078521729</v>
+        <v>3.2973198890686035</v>
       </c>
     </row>
     <row r="243">
@@ -4203,13 +4203,13 @@
         <v>3.1307578086853027</v>
       </c>
       <c r="C243" s="2">
-        <v>3.2651023864746094</v>
+        <v>3.2645518779754639</v>
       </c>
       <c r="D243" s="2">
         <v>3.320873498916626</v>
       </c>
       <c r="E243" s="2">
-        <v>3.3388597965240479</v>
+        <v>3.3388185501098633</v>
       </c>
     </row>
     <row r="244">
@@ -4220,13 +4220,13 @@
         <v>3.45367431640625</v>
       </c>
       <c r="C244" s="2">
-        <v>3.5051305294036865</v>
+        <v>3.505324125289917</v>
       </c>
       <c r="D244" s="2">
         <v>3.2778739929199219</v>
       </c>
       <c r="E244" s="2">
-        <v>3.3055765628814697</v>
+        <v>3.3054866790771484</v>
       </c>
     </row>
     <row r="245">
@@ -4237,13 +4237,13 @@
         <v>2.7332313060760498</v>
       </c>
       <c r="C245" s="2">
-        <v>2.7758183479309082</v>
+        <v>2.7760131359100342</v>
       </c>
       <c r="D245" s="2">
-        <v>3.2040784358978271</v>
+        <v>3.2040784358978272</v>
       </c>
       <c r="E245" s="2">
-        <v>3.2014238834381104</v>
+        <v>3.2013559341430664</v>
       </c>
     </row>
     <row r="246">
@@ -4254,13 +4254,13 @@
         <v>3.393355131149292</v>
       </c>
       <c r="C246" s="2">
-        <v>3.3119063377380371</v>
+        <v>3.312110424041748</v>
       </c>
       <c r="D246" s="2">
         <v>3.1632518768310547</v>
       </c>
       <c r="E246" s="2">
-        <v>3.155813455581665</v>
+        <v>3.1557176113128662</v>
       </c>
     </row>
     <row r="247">
@@ -4271,13 +4271,13 @@
         <v>3.2245914936065674</v>
       </c>
       <c r="C247" s="2">
-        <v>3.2608942985534668</v>
+        <v>3.2608621120452881</v>
       </c>
       <c r="D247" s="2">
         <v>3.1315021514892578</v>
       </c>
       <c r="E247" s="2">
-        <v>3.1053569316864014</v>
+        <v>3.1052908897399902</v>
       </c>
     </row>
     <row r="248">
@@ -4288,13 +4288,13 @@
         <v>2.8544595241546631</v>
       </c>
       <c r="C248" s="2">
-        <v>2.8741557598114014</v>
+        <v>2.8740029335021973</v>
       </c>
       <c r="D248" s="2">
         <v>3.192234992980957</v>
       </c>
       <c r="E248" s="2">
-        <v>3.1592822074890137</v>
+        <v>3.1593151092529297</v>
       </c>
     </row>
     <row r="249">
@@ -4302,16 +4302,16 @@
         <v>36008</v>
       </c>
       <c r="B249" s="2">
-        <v>2.8843305110931396</v>
+        <v>2.8843305110931397</v>
       </c>
       <c r="C249" s="2">
-        <v>2.7096042633056641</v>
+        <v>2.7095177173614502</v>
       </c>
       <c r="D249" s="2">
         <v>3.147158145904541</v>
       </c>
       <c r="E249" s="2">
-        <v>3.093787670135498</v>
+        <v>3.0938005447387695</v>
       </c>
     </row>
     <row r="250">
@@ -4322,13 +4322,13 @@
         <v>3.4439294338226318</v>
       </c>
       <c r="C250" s="2">
-        <v>3.335723876953125</v>
+        <v>3.3355309963226318</v>
       </c>
       <c r="D250" s="2">
         <v>3.199044942855835</v>
       </c>
       <c r="E250" s="2">
-        <v>3.137531042098999</v>
+        <v>3.1375119686126709</v>
       </c>
     </row>
     <row r="251">
@@ -4339,13 +4339,13 @@
         <v>3.0651891231536865</v>
       </c>
       <c r="C251" s="2">
-        <v>2.9098756313323975</v>
+        <v>2.909705400466919</v>
       </c>
       <c r="D251" s="2">
         <v>3.1490232944488525</v>
       </c>
       <c r="E251" s="2">
-        <v>3.080312967300415</v>
+        <v>3.0802521705627442</v>
       </c>
     </row>
     <row r="252">
@@ -4356,13 +4356,13 @@
         <v>3.6773538589477539</v>
       </c>
       <c r="C252" s="2">
-        <v>3.7504312992095947</v>
+        <v>3.7507684230804443</v>
       </c>
       <c r="D252" s="2">
         <v>3.1537802219390869</v>
       </c>
       <c r="E252" s="2">
-        <v>3.0671255588531494</v>
+        <v>3.0670797824859619</v>
       </c>
     </row>
     <row r="253">
@@ -4373,13 +4373,13 @@
         <v>3.0479822158813477</v>
       </c>
       <c r="C253" s="2">
-        <v>2.9156792163848877</v>
+        <v>2.9156930446624756</v>
       </c>
       <c r="D253" s="2">
         <v>3.1576163768768311</v>
       </c>
       <c r="E253" s="2">
-        <v>3.0686001777648926</v>
+        <v>3.0685563087463379</v>
       </c>
     </row>
     <row r="254">
@@ -4390,13 +4390,13 @@
         <v>3.2002134323120117</v>
       </c>
       <c r="C254" s="2">
-        <v>3.1695091724395752</v>
+        <v>3.1694176197052002</v>
       </c>
       <c r="D254" s="2">
         <v>3.163780689239502</v>
       </c>
       <c r="E254" s="2">
-        <v>3.0738813877105713</v>
+        <v>3.073836088180542</v>
       </c>
     </row>
     <row r="255">
@@ -4407,13 +4407,13 @@
         <v>2.943159818649292</v>
       </c>
       <c r="C255" s="2">
-        <v>2.7969427108764648</v>
+        <v>2.7967720031738281</v>
       </c>
       <c r="D255" s="2">
         <v>3.151989221572876</v>
       </c>
       <c r="E255" s="2">
-        <v>3.083920955657959</v>
+        <v>3.0838906764984131</v>
       </c>
     </row>
     <row r="256">
@@ -4424,13 +4424,13 @@
         <v>3.2674050331115723</v>
       </c>
       <c r="C256" s="2">
-        <v>3.1422090530395508</v>
+        <v>3.1423089504241943</v>
       </c>
       <c r="D256" s="2">
-        <v>3.1423709392547607</v>
+        <v>3.1423709392547608</v>
       </c>
       <c r="E256" s="2">
-        <v>3.1024839878082275</v>
+        <v>3.1024115085601807</v>
       </c>
     </row>
     <row r="257">
@@ -4438,16 +4438,16 @@
         <v>36251</v>
       </c>
       <c r="B257" s="2">
-        <v>2.8889834880828857</v>
+        <v>2.8889834880828858</v>
       </c>
       <c r="C257" s="2">
-        <v>2.8874268531799316</v>
+        <v>2.8872919082641602</v>
       </c>
       <c r="D257" s="2">
         <v>3.084669828414917</v>
       </c>
       <c r="E257" s="2">
-        <v>3.0354225635528564</v>
+        <v>3.0353143215179443</v>
       </c>
     </row>
     <row r="258">
@@ -4455,16 +4455,16 @@
         <v>36281</v>
       </c>
       <c r="B258" s="2">
-        <v>2.9398102760314941</v>
+        <v>2.9398102760314942</v>
       </c>
       <c r="C258" s="2">
-        <v>2.7571344375610352</v>
+        <v>2.7570374011993408</v>
       </c>
       <c r="D258" s="2">
         <v>3.1128582954406738</v>
       </c>
       <c r="E258" s="2">
-        <v>3.0630741119384766</v>
+        <v>3.0629370212554932</v>
       </c>
     </row>
     <row r="259">
@@ -4472,16 +4472,16 @@
         <v>36312</v>
       </c>
       <c r="B259" s="2">
-        <v>3.3378059864044189</v>
+        <v>3.337805986404419</v>
       </c>
       <c r="C259" s="2">
-        <v>3.426079273223877</v>
+        <v>3.426020622253418</v>
       </c>
       <c r="D259" s="2">
         <v>3.1047215461730957</v>
       </c>
       <c r="E259" s="2">
-        <v>2.9981677532196045</v>
+        <v>2.9980416297912598</v>
       </c>
     </row>
     <row r="260">
@@ -4492,13 +4492,13 @@
         <v>2.9786252975463867</v>
       </c>
       <c r="C260" s="2">
-        <v>3.0769431591033936</v>
+        <v>3.0763943195343018</v>
       </c>
       <c r="D260" s="2">
         <v>3.1624977588653564</v>
       </c>
       <c r="E260" s="2">
-        <v>3.0866131782531738</v>
+        <v>3.0865018367767334</v>
       </c>
     </row>
     <row r="261">
@@ -4506,16 +4506,16 @@
         <v>36373</v>
       </c>
       <c r="B261" s="2">
-        <v>3.1580421924591064</v>
+        <v>3.1580421924591065</v>
       </c>
       <c r="C261" s="2">
-        <v>3.1468794345855713</v>
+        <v>3.1468939781188965</v>
       </c>
       <c r="D261" s="2">
         <v>3.1564946174621582</v>
       </c>
       <c r="E261" s="2">
-        <v>3.0855979919433594</v>
+        <v>3.0854387283325195</v>
       </c>
     </row>
     <row r="262">
@@ -4526,13 +4526,13 @@
         <v>3.3016800880432129</v>
       </c>
       <c r="C262" s="2">
-        <v>3.1645424365997314</v>
+        <v>3.1642963886260986</v>
       </c>
       <c r="D262" s="2">
         <v>3.2513048648834229</v>
       </c>
       <c r="E262" s="2">
-        <v>3.1757509708404541</v>
+        <v>3.1756100654602051</v>
       </c>
     </row>
     <row r="263">
@@ -4543,13 +4543,13 @@
         <v>3.1269807815551758</v>
       </c>
       <c r="C263" s="2">
-        <v>2.5853526592254639</v>
+        <v>2.5853586196899414</v>
       </c>
       <c r="D263" s="2">
         <v>3.3401598930358887</v>
       </c>
       <c r="E263" s="2">
-        <v>3.2746245861053467</v>
+        <v>3.2745096683502197</v>
       </c>
     </row>
     <row r="264">
@@ -4560,13 +4560,13 @@
         <v>3.4631462097167969</v>
       </c>
       <c r="C264" s="2">
-        <v>3.5929515361785889</v>
+        <v>3.5929138660430908</v>
       </c>
       <c r="D264" s="2">
         <v>3.3486342430114746</v>
       </c>
       <c r="E264" s="2">
-        <v>3.2675821781158447</v>
+        <v>3.2674589157104492</v>
       </c>
     </row>
     <row r="265">
@@ -4577,13 +4577,13 @@
         <v>3.2133762836456299</v>
       </c>
       <c r="C265" s="2">
-        <v>3.1330721378326416</v>
+        <v>3.1327419281005859</v>
       </c>
       <c r="D265" s="2">
         <v>3.3644547462463379</v>
       </c>
       <c r="E265" s="2">
-        <v>3.2573602199554443</v>
+        <v>3.2573695182800293</v>
       </c>
     </row>
     <row r="266">
@@ -4594,13 +4594,13 @@
         <v>3.7422761917114258</v>
       </c>
       <c r="C266" s="2">
-        <v>3.698803186416626</v>
+        <v>3.6988334655761719</v>
       </c>
       <c r="D266" s="2">
         <v>3.3512697219848633</v>
       </c>
       <c r="E266" s="2">
-        <v>3.2491543292999268</v>
+        <v>3.2491528987884521</v>
       </c>
     </row>
     <row r="267">
@@ -4611,13 +4611,13 @@
         <v>3.7395064830780029</v>
       </c>
       <c r="C267" s="2">
-        <v>3.6469981670379639</v>
+        <v>3.6471343040466309</v>
       </c>
       <c r="D267" s="2">
         <v>3.342789888381958</v>
       </c>
       <c r="E267" s="2">
-        <v>3.251577615737915</v>
+        <v>3.2516083717346191</v>
       </c>
     </row>
     <row r="268">
@@ -4628,13 +4628,13 @@
         <v>3.4140751361846924</v>
       </c>
       <c r="C268" s="2">
-        <v>3.362696647644043</v>
+        <v>3.3625633716583252</v>
       </c>
       <c r="D268" s="2">
         <v>3.3792126178741455</v>
       </c>
       <c r="E268" s="2">
-        <v>3.3556602001190186</v>
+        <v>3.3556587696075439</v>
       </c>
     </row>
     <row r="269">
@@ -4642,16 +4642,16 @@
         <v>36617</v>
       </c>
       <c r="B269" s="2">
-        <v>3.1210091114044189</v>
+        <v>3.121009111404419</v>
       </c>
       <c r="C269" s="2">
-        <v>2.9849460124969482</v>
+        <v>2.9855892658233643</v>
       </c>
       <c r="D269" s="2">
         <v>3.4116978645324707</v>
       </c>
       <c r="E269" s="2">
-        <v>3.3220300674438477</v>
+        <v>3.3220298290252686</v>
       </c>
     </row>
     <row r="270">
@@ -4662,13 +4662,13 @@
         <v>3.0393767356872559</v>
       </c>
       <c r="C270" s="2">
-        <v>3.0730257034301758</v>
+        <v>3.0729439258575439</v>
       </c>
       <c r="D270" s="2">
         <v>3.5137777328491211</v>
       </c>
       <c r="E270" s="2">
-        <v>3.4122421741485596</v>
+        <v>3.4122357368469238</v>
       </c>
     </row>
     <row r="271">
@@ -4679,13 +4679,13 @@
         <v>3.22536301612854</v>
       </c>
       <c r="C271" s="2">
-        <v>3.1863522529602051</v>
+        <v>3.1863973140716553</v>
       </c>
       <c r="D271" s="2">
         <v>3.5534012317657471</v>
       </c>
       <c r="E271" s="2">
-        <v>3.4411354064941406</v>
+        <v>3.4411466121673584</v>
       </c>
     </row>
     <row r="272">
@@ -4696,13 +4696,13 @@
         <v>3.454784631729126</v>
       </c>
       <c r="C272" s="2">
-        <v>3.5220959186553955</v>
+        <v>3.5218105316162109</v>
       </c>
       <c r="D272" s="2">
         <v>3.536442756652832</v>
       </c>
       <c r="E272" s="2">
-        <v>3.4472393989562988</v>
+        <v>3.4472885131835938</v>
       </c>
     </row>
     <row r="273">
@@ -4713,13 +4713,13 @@
         <v>3.7555122375488281</v>
       </c>
       <c r="C273" s="2">
-        <v>3.2902812957763672</v>
+        <v>3.2902538776397705</v>
       </c>
       <c r="D273" s="2">
         <v>3.5827023983001709</v>
       </c>
       <c r="E273" s="2">
-        <v>3.4740424156188965</v>
+        <v>3.4740884304046631</v>
       </c>
     </row>
     <row r="274">
@@ -4730,13 +4730,13 @@
         <v>4.1320962905883789</v>
       </c>
       <c r="C274" s="2">
-        <v>3.9449794292449951</v>
+        <v>3.9445955753326416</v>
       </c>
       <c r="D274" s="2">
         <v>3.669377326965332</v>
       </c>
       <c r="E274" s="2">
-        <v>3.5779738426208496</v>
+        <v>3.5779094696044922</v>
       </c>
     </row>
     <row r="275">
@@ -4747,13 +4747,13 @@
         <v>4.0988874435424805</v>
       </c>
       <c r="C275" s="2">
-        <v>3.9588429927825928</v>
+        <v>3.9590320587158203</v>
       </c>
       <c r="D275" s="2">
         <v>3.8051445484161377</v>
       </c>
       <c r="E275" s="2">
-        <v>3.7188301086425781</v>
+        <v>3.7187700271606445</v>
       </c>
     </row>
     <row r="276">
@@ -4764,13 +4764,13 @@
         <v>3.5868797302246094</v>
       </c>
       <c r="C276" s="2">
-        <v>3.7019343376159668</v>
+        <v>3.7024102210998535</v>
       </c>
       <c r="D276" s="2">
         <v>3.8741528987884521</v>
       </c>
       <c r="E276" s="2">
-        <v>3.7927019596099854</v>
+        <v>3.7926139831542969</v>
       </c>
     </row>
     <row r="277">
@@ -4781,13 +4781,13 @@
         <v>3.8304121494293213</v>
       </c>
       <c r="C277" s="2">
-        <v>3.6039235591888428</v>
+        <v>3.6037640571594238</v>
       </c>
       <c r="D277" s="2">
         <v>3.9784433841705322</v>
       </c>
       <c r="E277" s="2">
-        <v>3.8771181106567383</v>
+        <v>3.8770515918731689</v>
       </c>
     </row>
     <row r="278">
@@ -4798,13 +4798,13 @@
         <v>3.9010844230651855</v>
       </c>
       <c r="C278" s="2">
-        <v>3.9203293323516846</v>
+        <v>3.9199776649475098</v>
       </c>
       <c r="D278" s="2">
         <v>4.0363903045654297</v>
       </c>
       <c r="E278" s="2">
-        <v>3.9944918155670166</v>
+        <v>3.9944291114807129</v>
       </c>
     </row>
     <row r="279">
@@ -4815,13 +4815,13 @@
         <v>4.2612814903259277</v>
       </c>
       <c r="C279" s="2">
-        <v>4.340731143951416</v>
+        <v>4.3406882286071777</v>
       </c>
       <c r="D279" s="2">
         <v>4.0706839561462402</v>
       </c>
       <c r="E279" s="2">
-        <v>4.0010676383972168</v>
+        <v>4.0010371208190918</v>
       </c>
     </row>
     <row r="280">
@@ -4832,13 +4832,13 @@
         <v>3.8464369773864746</v>
       </c>
       <c r="C280" s="2">
-        <v>3.8511991500854492</v>
+        <v>3.8509936332702637</v>
       </c>
       <c r="D280" s="2">
         <v>4.0286593437194824</v>
       </c>
       <c r="E280" s="2">
-        <v>3.958843469619751</v>
+        <v>3.9587676525115967</v>
       </c>
     </row>
     <row r="281">
@@ -4849,13 +4849,13 @@
         <v>4.393399715423584</v>
       </c>
       <c r="C281" s="2">
-        <v>4.2818412780761719</v>
+        <v>4.2817497253417969</v>
       </c>
       <c r="D281" s="2">
         <v>4.0808019638061523</v>
       </c>
       <c r="E281" s="2">
-        <v>3.9981844425201416</v>
+        <v>3.9980082511901856</v>
       </c>
     </row>
     <row r="282">
@@ -4866,13 +4866,13 @@
         <v>4.2770347595214844</v>
       </c>
       <c r="C282" s="2">
-        <v>4.3466448783874512</v>
+        <v>4.3466510772705078</v>
       </c>
       <c r="D282" s="2">
         <v>4.1467533111572266</v>
       </c>
       <c r="E282" s="2">
-        <v>4.0606837272644043</v>
+        <v>4.0604300498962402</v>
       </c>
     </row>
     <row r="283">
@@ -4883,13 +4883,13 @@
         <v>4.4407405853271484</v>
       </c>
       <c r="C283" s="2">
-        <v>4.0041627883911133</v>
+        <v>4.0040693283081055</v>
       </c>
       <c r="D283" s="2">
-        <v>4.2746191024780273</v>
+        <v>4.2746191024780274</v>
       </c>
       <c r="E283" s="2">
-        <v>4.1576833724975586</v>
+        <v>4.1574592590332031</v>
       </c>
     </row>
     <row r="284">
@@ -4900,13 +4900,13 @@
         <v>3.7206640243530273</v>
       </c>
       <c r="C284" s="2">
-        <v>3.5788242816925049</v>
+        <v>3.5786054134368896</v>
       </c>
       <c r="D284" s="2">
         <v>4.3695507049560547</v>
       </c>
       <c r="E284" s="2">
-        <v>4.2507791519165039</v>
+        <v>4.2505745887756348</v>
       </c>
     </row>
     <row r="285">
@@ -4917,13 +4917,13 @@
         <v>4.0561628341674805</v>
       </c>
       <c r="C285" s="2">
-        <v>4.0560040473937988</v>
+        <v>4.0555744171142578</v>
       </c>
       <c r="D285" s="2">
         <v>4.5183582305908203</v>
       </c>
       <c r="E285" s="2">
-        <v>4.4002585411071777</v>
+        <v>4.4000577926635742</v>
       </c>
     </row>
     <row r="286">
@@ -4934,13 +4934,13 @@
         <v>4.4239740371704102</v>
       </c>
       <c r="C286" s="2">
-        <v>4.1664152145385742</v>
+        <v>4.165560245513916</v>
       </c>
       <c r="D286" s="2">
         <v>4.4677720069885254</v>
       </c>
       <c r="E286" s="2">
-        <v>4.3597278594970703</v>
+        <v>4.3594889640808105</v>
       </c>
     </row>
     <row r="287">
@@ -4951,13 +4951,13 @@
         <v>5.051877498626709</v>
       </c>
       <c r="C287" s="2">
-        <v>4.7933292388916016</v>
+        <v>4.793243408203125</v>
       </c>
       <c r="D287" s="2">
         <v>4.4230818748474121</v>
       </c>
       <c r="E287" s="2">
-        <v>4.3104257583618164</v>
+        <v>4.3102130889892578</v>
       </c>
     </row>
     <row r="288">
@@ -4968,13 +4968,13 @@
         <v>5.1156654357910156</v>
       </c>
       <c r="C288" s="2">
-        <v>5.178591251373291</v>
+        <v>5.1787223815917969</v>
       </c>
       <c r="D288" s="2">
         <v>4.3849377632141113</v>
       </c>
       <c r="E288" s="2">
-        <v>4.3043694496154785</v>
+        <v>4.3041539192199707</v>
       </c>
     </row>
     <row r="289">
@@ -4982,16 +4982,16 @@
         <v>37226</v>
       </c>
       <c r="B289" s="2">
-        <v>5.1857056617736816</v>
+        <v>5.1857056617736817</v>
       </c>
       <c r="C289" s="2">
-        <v>5.1965126991271973</v>
+        <v>5.1963443756103516</v>
       </c>
       <c r="D289" s="2">
         <v>4.3976068496704102</v>
       </c>
       <c r="E289" s="2">
-        <v>4.2744522094726562</v>
+        <v>4.2742228507995605</v>
       </c>
     </row>
     <row r="290">
@@ -5002,13 +5002,13 @@
         <v>3.9381241798400879</v>
       </c>
       <c r="C290" s="2">
-        <v>3.9170651435852051</v>
+        <v>3.916630744934082</v>
       </c>
       <c r="D290" s="2">
         <v>4.3462710380554199</v>
       </c>
       <c r="E290" s="2">
-        <v>4.2083077430725098</v>
+        <v>4.2081379890441895</v>
       </c>
     </row>
     <row r="291">
@@ -5019,13 +5019,13 @@
         <v>3.8748221397399902</v>
       </c>
       <c r="C291" s="2">
-        <v>3.9029250144958496</v>
+        <v>3.9031674861907959</v>
       </c>
       <c r="D291" s="2">
         <v>4.2555227279663086</v>
       </c>
       <c r="E291" s="2">
-        <v>4.1277809143066406</v>
+        <v>4.1277189254760742</v>
       </c>
     </row>
     <row r="292">
@@ -5036,13 +5036,13 @@
         <v>4.097442626953125</v>
       </c>
       <c r="C292" s="2">
-        <v>3.9496588706970215</v>
+        <v>3.9495370388031006</v>
       </c>
       <c r="D292" s="2">
         <v>4.1055941581726074</v>
       </c>
       <c r="E292" s="2">
-        <v>4.0097298622131348</v>
+        <v>4.0096549987792969</v>
       </c>
     </row>
     <row r="293">
@@ -5053,13 +5053,13 @@
         <v>3.8346874713897705</v>
       </c>
       <c r="C293" s="2">
-        <v>3.3095691204071045</v>
+        <v>3.3092250823974609</v>
       </c>
       <c r="D293" s="2">
         <v>3.9219682216644287</v>
       </c>
       <c r="E293" s="2">
-        <v>3.8142678737640381</v>
+        <v>3.8141372203826904</v>
       </c>
     </row>
     <row r="294">
@@ -5070,13 +5070,13 @@
         <v>3.5941383838653564</v>
       </c>
       <c r="C294" s="2">
-        <v>3.460702657699585</v>
+        <v>3.4608108997344971</v>
       </c>
       <c r="D294" s="2">
         <v>3.7633950710296631</v>
       </c>
       <c r="E294" s="2">
-        <v>3.6287522315979004</v>
+        <v>3.6285693645477295</v>
       </c>
     </row>
     <row r="295">
@@ -5087,13 +5087,13 @@
         <v>3.6072416305541992</v>
       </c>
       <c r="C295" s="2">
-        <v>3.4416723251342773</v>
+        <v>3.4417872428894043</v>
       </c>
       <c r="D295" s="2">
         <v>3.7637808322906494</v>
       </c>
       <c r="E295" s="2">
-        <v>3.6271390914916992</v>
+        <v>3.6269819736480713</v>
       </c>
     </row>
     <row r="296">
@@ -5104,13 +5104,13 @@
         <v>3.7025206089019775</v>
       </c>
       <c r="C296" s="2">
-        <v>3.7308697700500488</v>
+        <v>3.730670690536499</v>
       </c>
       <c r="D296" s="2">
         <v>3.7337501049041748</v>
       </c>
       <c r="E296" s="2">
-        <v>3.5717368125915527</v>
+        <v>3.5714991092681885</v>
       </c>
     </row>
     <row r="297">
@@ -5121,13 +5121,13 @@
         <v>3.4630312919616699</v>
       </c>
       <c r="C297" s="2">
-        <v>3.4194343090057373</v>
+        <v>3.4190623760223389</v>
       </c>
       <c r="D297" s="2">
         <v>3.7067553997039795</v>
       </c>
       <c r="E297" s="2">
-        <v>3.564319372177124</v>
+        <v>3.5640420913696289</v>
       </c>
     </row>
     <row r="298">
@@ -5138,13 +5138,13 @@
         <v>3.7585482597351074</v>
       </c>
       <c r="C298" s="2">
-        <v>3.5268728733062744</v>
+        <v>3.526233434677124</v>
       </c>
       <c r="D298" s="2">
         <v>3.6816940307617188</v>
       </c>
       <c r="E298" s="2">
-        <v>3.6073286533355713</v>
+        <v>3.6070563793182373</v>
       </c>
     </row>
     <row r="299">
@@ -5152,16 +5152,16 @@
         <v>37530</v>
       </c>
       <c r="B299" s="2">
-        <v>3.9415957927703857</v>
+        <v>3.9415957927703858</v>
       </c>
       <c r="C299" s="2">
-        <v>3.9025475978851318</v>
+        <v>3.9023435115814209</v>
       </c>
       <c r="D299" s="2">
         <v>3.7416007518768311</v>
       </c>
       <c r="E299" s="2">
-        <v>3.6906974315643311</v>
+        <v>3.6904428005218506</v>
       </c>
     </row>
     <row r="300">
@@ -5169,16 +5169,16 @@
         <v>37561</v>
       </c>
       <c r="B300" s="2">
-        <v>3.6045451164245605</v>
+        <v>3.6045451164245606</v>
       </c>
       <c r="C300" s="2">
-        <v>3.4043042659759521</v>
+        <v>3.4038214683532715</v>
       </c>
       <c r="D300" s="2">
         <v>3.7711029052734375</v>
       </c>
       <c r="E300" s="2">
-        <v>3.7326219081878662</v>
+        <v>3.7323403358459473</v>
       </c>
     </row>
     <row r="301">
@@ -5189,13 +5189,13 @@
         <v>3.8544893264770508</v>
       </c>
       <c r="C301" s="2">
-        <v>3.8829011917114258</v>
+        <v>3.8824234008789063</v>
       </c>
       <c r="D301" s="2">
         <v>3.8967525959014893</v>
       </c>
       <c r="E301" s="2">
-        <v>3.8556439876556396</v>
+        <v>3.8553950786590576</v>
       </c>
     </row>
     <row r="302">
@@ -5206,13 +5206,13 @@
         <v>3.6091365814208984</v>
       </c>
       <c r="C302" s="2">
-        <v>3.6966519355773926</v>
+        <v>3.6963534355163574</v>
       </c>
       <c r="D302" s="2">
         <v>3.8768432140350342</v>
       </c>
       <c r="E302" s="2">
-        <v>3.8412253856658936</v>
+        <v>3.8409829139709473</v>
       </c>
     </row>
     <row r="303">
@@ -5223,13 +5223,13 @@
         <v>4.1332988739013672</v>
       </c>
       <c r="C303" s="2">
-        <v>4.2110223770141602</v>
+        <v>4.2112889289855957</v>
       </c>
       <c r="D303" s="2">
         <v>3.8511974811553955</v>
       </c>
       <c r="E303" s="2">
-        <v>3.839449405670166</v>
+        <v>3.8392751216888428</v>
       </c>
     </row>
     <row r="304">
@@ -5240,13 +5240,13 @@
         <v>3.8727607727050781</v>
       </c>
       <c r="C304" s="2">
-        <v>3.8189928531646729</v>
+        <v>3.818866491317749</v>
       </c>
       <c r="D304" s="2">
         <v>3.7936034202575684</v>
       </c>
       <c r="E304" s="2">
-        <v>3.78731369972229</v>
+        <v>3.7871334552764893</v>
       </c>
     </row>
     <row r="305">
@@ -5257,13 +5257,13 @@
         <v>4.8333673477172852</v>
       </c>
       <c r="C305" s="2">
-        <v>4.8380680084228516</v>
+        <v>4.8381619453430176</v>
       </c>
       <c r="D305" s="2">
         <v>3.8048264980316162</v>
       </c>
       <c r="E305" s="2">
-        <v>3.8014209270477295</v>
+        <v>3.801276683807373</v>
       </c>
     </row>
     <row r="306">
@@ -5274,13 +5274,13 @@
         <v>3.2838468551635742</v>
       </c>
       <c r="C306" s="2">
-        <v>3.2896666526794434</v>
+        <v>3.2893526554107666</v>
       </c>
       <c r="D306" s="2">
         <v>3.7963066101074219</v>
       </c>
       <c r="E306" s="2">
-        <v>3.7909548282623291</v>
+        <v>3.7908058166503906</v>
       </c>
     </row>
     <row r="307">
@@ -5291,13 +5291,13 @@
         <v>3.5277373790740967</v>
       </c>
       <c r="C307" s="2">
-        <v>3.5108895301818848</v>
+        <v>3.5108640193939209</v>
       </c>
       <c r="D307" s="2">
         <v>3.8119418621063232</v>
       </c>
       <c r="E307" s="2">
-        <v>3.7941088676452637</v>
+        <v>3.7939679622650146</v>
       </c>
     </row>
     <row r="308">
@@ -5308,13 +5308,13 @@
         <v>3.4232485294342041</v>
       </c>
       <c r="C308" s="2">
-        <v>3.4333267211914062</v>
+        <v>3.4330697059631348</v>
       </c>
       <c r="D308" s="2">
         <v>3.7372992038726807</v>
       </c>
       <c r="E308" s="2">
-        <v>3.706043004989624</v>
+        <v>3.7058742046356201</v>
       </c>
     </row>
     <row r="309">
@@ -5325,13 +5325,13 @@
         <v>3.7055525779724121</v>
       </c>
       <c r="C309" s="2">
-        <v>3.5312690734863281</v>
+        <v>3.5311105251312256</v>
       </c>
       <c r="D309" s="2">
         <v>3.6620819568634033</v>
       </c>
       <c r="E309" s="2">
-        <v>3.6216971874237061</v>
+        <v>3.6215085983276367</v>
       </c>
     </row>
     <row r="310">
@@ -5342,13 +5342,13 @@
         <v>3.7778110504150391</v>
       </c>
       <c r="C310" s="2">
-        <v>3.7887067794799805</v>
+        <v>3.7881851196289063</v>
       </c>
       <c r="D310" s="2">
-        <v>3.5311498641967773</v>
+        <v>3.5311498641967774</v>
       </c>
       <c r="E310" s="2">
-        <v>3.5021309852600098</v>
+        <v>3.5019087791442871</v>
       </c>
     </row>
     <row r="311">
@@ -5359,13 +5359,13 @@
         <v>3.7498531341552734</v>
       </c>
       <c r="C311" s="2">
-        <v>3.7250375747680664</v>
+        <v>3.724811315536499</v>
       </c>
       <c r="D311" s="2">
         <v>3.5360217094421387</v>
       </c>
       <c r="E311" s="2">
-        <v>3.4953787326812744</v>
+        <v>3.4952208995819092</v>
       </c>
     </row>
     <row r="312">
@@ -5376,13 +5376,13 @@
         <v>3.4615161418914795</v>
       </c>
       <c r="C312" s="2">
-        <v>3.418428897857666</v>
+        <v>3.4184467792510986</v>
       </c>
       <c r="D312" s="2">
         <v>3.5479559898376465</v>
       </c>
       <c r="E312" s="2">
-        <v>3.4945118427276611</v>
+        <v>3.4943287372589111</v>
       </c>
     </row>
     <row r="313">
@@ -5393,13 +5393,13 @@
         <v>3.1958053112030029</v>
       </c>
       <c r="C313" s="2">
-        <v>3.0598816871643066</v>
+        <v>3.0595757961273193</v>
       </c>
       <c r="D313" s="2">
         <v>3.5787432193756104</v>
       </c>
       <c r="E313" s="2">
-        <v>3.5176899433135986</v>
+        <v>3.5175466537475586</v>
       </c>
     </row>
     <row r="314">
@@ -5410,13 +5410,13 @@
         <v>3.6549777984619141</v>
       </c>
       <c r="C314" s="2">
-        <v>3.761972188949585</v>
+        <v>3.761763334274292</v>
       </c>
       <c r="D314" s="2">
         <v>3.5610930919647217</v>
       </c>
       <c r="E314" s="2">
-        <v>3.5202744007110596</v>
+        <v>3.5201561450958252</v>
       </c>
     </row>
     <row r="315">
@@ -5427,13 +5427,13 @@
         <v>3.3276932239532471</v>
       </c>
       <c r="C315" s="2">
-        <v>3.2288963794708252</v>
+        <v>3.2291615009307861</v>
       </c>
       <c r="D315" s="2">
         <v>3.5440859794616699</v>
       </c>
       <c r="E315" s="2">
-        <v>3.4887356758117676</v>
+        <v>3.4887006282806396</v>
       </c>
     </row>
     <row r="316">
@@ -5444,13 +5444,13 @@
         <v>3.6351451873779297</v>
       </c>
       <c r="C316" s="2">
-        <v>3.503087043762207</v>
+        <v>3.5028355121612549</v>
       </c>
       <c r="D316" s="2">
         <v>3.4792108535766602</v>
       </c>
       <c r="E316" s="2">
-        <v>3.4227912425994873</v>
+        <v>3.4227066040039063</v>
       </c>
     </row>
     <row r="317">
@@ -5461,13 +5461,13 @@
         <v>3.700333833694458</v>
       </c>
       <c r="C317" s="2">
-        <v>3.6419296264648438</v>
+        <v>3.6420290470123291</v>
       </c>
       <c r="D317" s="2">
         <v>3.4789412021636963</v>
       </c>
       <c r="E317" s="2">
-        <v>3.4115180969238281</v>
+        <v>3.4114162921905518</v>
       </c>
     </row>
     <row r="318">
@@ -5478,13 +5478,13 @@
         <v>3.5467014312744141</v>
       </c>
       <c r="C318" s="2">
-        <v>3.5545291900634766</v>
+        <v>3.554595947265625</v>
       </c>
       <c r="D318" s="2">
         <v>3.472646951675415</v>
       </c>
       <c r="E318" s="2">
-        <v>3.3977510929107666</v>
+        <v>3.3976559638977051</v>
       </c>
     </row>
     <row r="319">
@@ -5495,13 +5495,13 @@
         <v>3.6247472763061523</v>
       </c>
       <c r="C319" s="2">
-        <v>3.5048575401306152</v>
+        <v>3.5050864219665527</v>
       </c>
       <c r="D319" s="2">
         <v>3.4430778026580811</v>
       </c>
       <c r="E319" s="2">
-        <v>3.3561391830444336</v>
+        <v>3.3560590744018555</v>
       </c>
     </row>
     <row r="320">
@@ -5512,13 +5512,13 @@
         <v>3.1659765243530273</v>
       </c>
       <c r="C320" s="2">
-        <v>3.131537914276123</v>
+        <v>3.1308660507202149</v>
       </c>
       <c r="D320" s="2">
         <v>3.4279749393463135</v>
       </c>
       <c r="E320" s="2">
-        <v>3.3431587219238281</v>
+        <v>3.3430919647216797</v>
       </c>
     </row>
     <row r="321">
@@ -5529,13 +5529,13 @@
         <v>3.4590909481048584</v>
       </c>
       <c r="C321" s="2">
-        <v>3.3169713020324707</v>
+        <v>3.3168330192565918</v>
       </c>
       <c r="D321" s="2">
         <v>3.3937656879425049</v>
       </c>
       <c r="E321" s="2">
-        <v>3.3282735347747803</v>
+        <v>3.3282544612884521</v>
       </c>
     </row>
     <row r="322">
@@ -5546,13 +5546,13 @@
         <v>3.1391561031341553</v>
       </c>
       <c r="C322" s="2">
-        <v>2.9359776973724365</v>
+        <v>2.9357333183288574</v>
       </c>
       <c r="D322" s="2">
         <v>3.3829224109649658</v>
       </c>
       <c r="E322" s="2">
-        <v>3.3031115531921387</v>
+        <v>3.303086519241333</v>
       </c>
     </row>
     <row r="323">
@@ -5563,13 +5563,13 @@
         <v>3.38885498046875</v>
       </c>
       <c r="C323" s="2">
-        <v>3.3874659538269043</v>
+        <v>3.3873898983001709</v>
       </c>
       <c r="D323" s="2">
         <v>3.33188796043396</v>
       </c>
       <c r="E323" s="2">
-        <v>3.2530097961425781</v>
+        <v>3.2529735565185547</v>
       </c>
     </row>
     <row r="324">
@@ -5580,13 +5580,13 @@
         <v>3.1917672157287598</v>
       </c>
       <c r="C324" s="2">
-        <v>3.1120715141296387</v>
+        <v>3.1124587059020996</v>
       </c>
       <c r="D324" s="2">
         <v>3.3056337833404541</v>
       </c>
       <c r="E324" s="2">
-        <v>3.2398576736450195</v>
+        <v>3.2397811412811279</v>
       </c>
     </row>
     <row r="325">
@@ -5597,13 +5597,13 @@
         <v>3.3272631168365479</v>
       </c>
       <c r="C325" s="2">
-        <v>3.3691215515136719</v>
+        <v>3.3692986965179443</v>
       </c>
       <c r="D325" s="2">
-        <v>3.3183209896087646</v>
+        <v>3.3183209896087647</v>
       </c>
       <c r="E325" s="2">
-        <v>3.2535960674285889</v>
+        <v>3.253615140914917</v>
       </c>
     </row>
     <row r="326">
@@ -5614,13 +5614,13 @@
         <v>3.6027436256408691</v>
       </c>
       <c r="C326" s="2">
-        <v>3.4154717922210693</v>
+        <v>3.4155166149139404</v>
       </c>
       <c r="D326" s="2">
         <v>3.2918331623077393</v>
       </c>
       <c r="E326" s="2">
-        <v>3.2385768890380859</v>
+        <v>3.2386062145233154</v>
       </c>
     </row>
     <row r="327">
@@ -5631,13 +5631,13 @@
         <v>3.0873916149139404</v>
       </c>
       <c r="C327" s="2">
-        <v>3.1036128997802734</v>
+        <v>3.1035795211791992</v>
       </c>
       <c r="D327" s="2">
         <v>3.3317298889160156</v>
       </c>
       <c r="E327" s="2">
-        <v>3.3007514476776123</v>
+        <v>3.3007802963256836</v>
       </c>
     </row>
     <row r="328">
@@ -5648,13 +5648,13 @@
         <v>3.388460636138916</v>
       </c>
       <c r="C328" s="2">
-        <v>3.386488676071167</v>
+        <v>3.386354923248291</v>
       </c>
       <c r="D328" s="2">
         <v>3.3198268413543701</v>
       </c>
       <c r="E328" s="2">
-        <v>3.275611400604248</v>
+        <v>3.2756485939025879</v>
       </c>
     </row>
     <row r="329">
@@ -5665,13 +5665,13 @@
         <v>3.2801611423492432</v>
       </c>
       <c r="C329" s="2">
-        <v>3.2551836967468262</v>
+        <v>3.2553708553314209</v>
       </c>
       <c r="D329" s="2">
         <v>3.3744840621948242</v>
       </c>
       <c r="E329" s="2">
-        <v>3.3301215171813965</v>
+        <v>3.3301420211791992</v>
       </c>
     </row>
     <row r="330">
@@ -5682,13 +5682,13 @@
         <v>3.2207002639770508</v>
       </c>
       <c r="C330" s="2">
-        <v>3.181797981262207</v>
+        <v>3.181753396987915</v>
       </c>
       <c r="D330" s="2">
         <v>3.5740458965301514</v>
       </c>
       <c r="E330" s="2">
-        <v>3.5139486789703369</v>
+        <v>3.5139040946960449</v>
       </c>
     </row>
     <row r="331">
@@ -5699,13 +5699,13 @@
         <v>3.4982259273529053</v>
       </c>
       <c r="C331" s="2">
-        <v>3.4955484867095947</v>
+        <v>3.4952998161315918</v>
       </c>
       <c r="D331" s="2">
         <v>3.730290412902832</v>
       </c>
       <c r="E331" s="2">
-        <v>3.6763832569122314</v>
+        <v>3.6763017177581787</v>
       </c>
     </row>
     <row r="332">
@@ -5716,13 +5716,13 @@
         <v>3.2817270755767822</v>
       </c>
       <c r="C332" s="2">
-        <v>3.1612060070037842</v>
+        <v>3.161205530166626</v>
       </c>
       <c r="D332" s="2">
         <v>3.8870706558227539</v>
       </c>
       <c r="E332" s="2">
-        <v>3.8203880786895752</v>
+        <v>3.8202812671661377</v>
       </c>
     </row>
     <row r="333">
@@ -5733,13 +5733,13 @@
         <v>3.6836831569671631</v>
       </c>
       <c r="C333" s="2">
-        <v>3.602663516998291</v>
+        <v>3.6028985977172852</v>
       </c>
       <c r="D333" s="2">
-        <v>4.0632085800170898</v>
+        <v>4.0632085800170899</v>
       </c>
       <c r="E333" s="2">
-        <v>3.9605610370635986</v>
+        <v>3.960453987121582</v>
       </c>
     </row>
     <row r="334">
@@ -5750,13 +5750,13 @@
         <v>5.1233196258544922</v>
       </c>
       <c r="C334" s="2">
-        <v>5.0235657691955566</v>
+        <v>5.023158073425293</v>
       </c>
       <c r="D334" s="2">
         <v>4.1666903495788574</v>
       </c>
       <c r="E334" s="2">
-        <v>4.073458194732666</v>
+        <v>4.0733451843261719</v>
       </c>
     </row>
     <row r="335">
@@ -5767,13 +5767,13 @@
         <v>5.0089449882507324</v>
       </c>
       <c r="C335" s="2">
-        <v>4.8773832321166992</v>
+        <v>4.8770956993103027</v>
       </c>
       <c r="D335" s="2">
         <v>4.1722702980041504</v>
       </c>
       <c r="E335" s="2">
-        <v>4.0810050964355469</v>
+        <v>4.0808849334716797</v>
       </c>
     </row>
     <row r="336">
@@ -5784,13 +5784,13 @@
         <v>4.4984140396118164</v>
       </c>
       <c r="C336" s="2">
-        <v>4.399655818939209</v>
+        <v>4.3993940353393555</v>
       </c>
       <c r="D336" s="2">
         <v>4.1823687553405762</v>
       </c>
       <c r="E336" s="2">
-        <v>4.0939817428588867</v>
+        <v>4.0938348770141602</v>
       </c>
     </row>
     <row r="337">
@@ -5801,13 +5801,13 @@
         <v>4.9737005233764648</v>
       </c>
       <c r="C337" s="2">
-        <v>4.6480450630187988</v>
+        <v>4.6479105949401856</v>
       </c>
       <c r="D337" s="2">
         <v>4.2772340774536133</v>
       </c>
       <c r="E337" s="2">
-        <v>4.2118086814880371</v>
+        <v>4.2116594314575195</v>
       </c>
     </row>
     <row r="338">
@@ -5818,13 +5818,13 @@
         <v>4.2114963531494141</v>
       </c>
       <c r="C338" s="2">
-        <v>4.2712559700012207</v>
+        <v>4.271392822265625</v>
       </c>
       <c r="D338" s="2">
         <v>4.3286595344543457</v>
       </c>
       <c r="E338" s="2">
-        <v>4.256159782409668</v>
+        <v>4.2560029029846191</v>
       </c>
     </row>
     <row r="339">
@@ -5835,13 +5835,13 @@
         <v>3.2709217071533203</v>
       </c>
       <c r="C339" s="2">
-        <v>3.2497236728668213</v>
+        <v>3.249610424041748</v>
       </c>
       <c r="D339" s="2">
         <v>4.1281013488769531</v>
       </c>
       <c r="E339" s="2">
-        <v>4.0656900405883789</v>
+        <v>4.0655431747436524</v>
       </c>
     </row>
     <row r="340">
@@ -5852,13 +5852,13 @@
         <v>3.5891106128692627</v>
       </c>
       <c r="C340" s="2">
-        <v>3.6123380661010742</v>
+        <v>3.6118490695953369</v>
       </c>
       <c r="D340" s="2">
         <v>3.9429290294647217</v>
       </c>
       <c r="E340" s="2">
-        <v>3.8676486015319824</v>
+        <v>3.8675296306610107</v>
       </c>
     </row>
     <row r="341">
@@ -5869,13 +5869,13 @@
         <v>4.1355166435241699</v>
       </c>
       <c r="C341" s="2">
-        <v>4.2216463088989258</v>
+        <v>4.2216267585754395</v>
       </c>
       <c r="D341" s="2">
         <v>3.8944966793060303</v>
       </c>
       <c r="E341" s="2">
-        <v>3.8332245349884033</v>
+        <v>3.8331053256988525</v>
       </c>
     </row>
     <row r="342">
@@ -5886,13 +5886,13 @@
         <v>4.1465115547180176</v>
       </c>
       <c r="C342" s="2">
-        <v>4.0018248558044434</v>
+        <v>4.0019898414611816</v>
       </c>
       <c r="D342" s="2">
         <v>3.7477116584777832</v>
       </c>
       <c r="E342" s="2">
-        <v>3.7169859409332275</v>
+        <v>3.716890811920166</v>
       </c>
     </row>
     <row r="343">
@@ -5903,13 +5903,13 @@
         <v>3.318295955657959</v>
       </c>
       <c r="C343" s="2">
-        <v>3.3093359470367432</v>
+        <v>3.3090171813964844</v>
       </c>
       <c r="D343" s="2">
         <v>3.6600584983825684</v>
       </c>
       <c r="E343" s="2">
-        <v>3.6079790592193604</v>
+        <v>3.6078367233276367</v>
       </c>
     </row>
     <row r="344">
@@ -5920,13 +5920,13 @@
         <v>3.3423929214477539</v>
       </c>
       <c r="C344" s="2">
-        <v>3.0950117111206055</v>
+        <v>3.0949764251708984</v>
       </c>
       <c r="D344" s="2">
-        <v>3.6862246990203857</v>
+        <v>3.6862246990203858</v>
       </c>
       <c r="E344" s="2">
-        <v>3.6308927536010742</v>
+        <v>3.6307961940765381</v>
       </c>
     </row>
     <row r="345">
@@ -5937,13 +5937,13 @@
         <v>4.0625247955322266</v>
       </c>
       <c r="C345" s="2">
-        <v>4.0898394584655762</v>
+        <v>4.0895748138427734</v>
       </c>
       <c r="D345" s="2">
         <v>3.6805758476257324</v>
       </c>
       <c r="E345" s="2">
-        <v>3.620518684387207</v>
+        <v>3.6204681396484375</v>
       </c>
     </row>
     <row r="346">
@@ -5954,13 +5954,13 @@
         <v>3.6526343822479248</v>
       </c>
       <c r="C346" s="2">
-        <v>3.6018977165222168</v>
+        <v>3.6019792556762695</v>
       </c>
       <c r="D346" s="2">
         <v>3.6399054527282715</v>
       </c>
       <c r="E346" s="2">
-        <v>3.5687198638916016</v>
+        <v>3.5686678886413574</v>
       </c>
     </row>
     <row r="347">
@@ -5971,13 +5971,13 @@
         <v>3.4226171970367432</v>
       </c>
       <c r="C347" s="2">
-        <v>3.2901928424835205</v>
+        <v>3.2899062633514404</v>
       </c>
       <c r="D347" s="2">
         <v>3.5440464019775391</v>
       </c>
       <c r="E347" s="2">
-        <v>3.478424072265625</v>
+        <v>3.4782757759094238</v>
       </c>
     </row>
     <row r="348">
@@ -5988,13 +5988,13 @@
         <v>3.5064172744750977</v>
       </c>
       <c r="C348" s="2">
-        <v>3.4559478759765625</v>
+        <v>3.4562468528747559</v>
       </c>
       <c r="D348" s="2">
         <v>3.5252079963684082</v>
       </c>
       <c r="E348" s="2">
-        <v>3.4575345516204834</v>
+        <v>3.4573981761932373</v>
       </c>
     </row>
     <row r="349">
@@ -6005,13 +6005,13 @@
         <v>3.5382711887359619</v>
       </c>
       <c r="C349" s="2">
-        <v>3.5189707279205322</v>
+        <v>3.5188958644866943</v>
       </c>
       <c r="D349" s="2">
         <v>3.5586881637573242</v>
       </c>
       <c r="E349" s="2">
-        <v>3.5129075050354004</v>
+        <v>3.512770414352417</v>
       </c>
     </row>
     <row r="350">
@@ -6022,13 +6022,13 @@
         <v>3.769484281539917</v>
       </c>
       <c r="C350" s="2">
-        <v>3.7554583549499512</v>
+        <v>3.7554235458374023</v>
       </c>
       <c r="D350" s="2">
         <v>3.5072808265686035</v>
       </c>
       <c r="E350" s="2">
-        <v>3.4445087909698486</v>
+        <v>3.4443767070770264</v>
       </c>
     </row>
     <row r="351">
@@ -6039,13 +6039,13 @@
         <v>3.2837791442871094</v>
       </c>
       <c r="C351" s="2">
-        <v>3.1891610622406006</v>
+        <v>3.1884627342224121</v>
       </c>
       <c r="D351" s="2">
         <v>3.4866721630096436</v>
       </c>
       <c r="E351" s="2">
-        <v>3.4116342067718506</v>
+        <v>3.411454439163208</v>
       </c>
     </row>
     <row r="352">
@@ -6056,13 +6056,13 @@
         <v>3.1487517356872559</v>
       </c>
       <c r="C352" s="2">
-        <v>3.1213312149047852</v>
+        <v>3.1211185455322266</v>
       </c>
       <c r="D352" s="2">
         <v>3.5454921722412109</v>
       </c>
       <c r="E352" s="2">
-        <v>3.4816267490386963</v>
+        <v>3.4814753532409668</v>
       </c>
     </row>
     <row r="353">
@@ -6073,13 +6073,13 @@
         <v>3.6437129974365234</v>
       </c>
       <c r="C353" s="2">
-        <v>3.5933690071105957</v>
+        <v>3.5933265686035156</v>
       </c>
       <c r="D353" s="2">
         <v>3.6694416999816895</v>
       </c>
       <c r="E353" s="2">
-        <v>3.5717833042144775</v>
+        <v>3.5715513229370117</v>
       </c>
     </row>
     <row r="354">
@@ -6090,13 +6090,13 @@
         <v>3.5998599529266357</v>
       </c>
       <c r="C354" s="2">
-        <v>3.4742498397827148</v>
+        <v>3.4740302562713623</v>
       </c>
       <c r="D354" s="2">
         <v>3.7164912223815918</v>
       </c>
       <c r="E354" s="2">
-        <v>3.630345344543457</v>
+        <v>3.6301329135894775</v>
       </c>
     </row>
     <row r="355">
@@ -6107,13 +6107,13 @@
         <v>3.4671556949615479</v>
       </c>
       <c r="C355" s="2">
-        <v>3.3060262203216553</v>
+        <v>3.3056786060333252</v>
       </c>
       <c r="D355" s="2">
         <v>3.7044999599456787</v>
       </c>
       <c r="E355" s="2">
-        <v>3.6152465343475342</v>
+        <v>3.615018367767334</v>
       </c>
     </row>
     <row r="356">
@@ -6124,13 +6124,13 @@
         <v>3.9519977569580078</v>
       </c>
       <c r="C356" s="2">
-        <v>3.9201273918151855</v>
+        <v>3.920095682144165</v>
       </c>
       <c r="D356" s="2">
         <v>3.8225727081298828</v>
       </c>
       <c r="E356" s="2">
-        <v>3.7361035346984863</v>
+        <v>3.7359154224395752</v>
       </c>
     </row>
     <row r="357">
@@ -6141,13 +6141,13 @@
         <v>4.6219635009765625</v>
       </c>
       <c r="C357" s="2">
-        <v>4.2673554420471191</v>
+        <v>4.2669305801391602</v>
       </c>
       <c r="D357" s="2">
         <v>4.0059103965759277</v>
       </c>
       <c r="E357" s="2">
-        <v>3.919119119644165</v>
+        <v>3.9189248085021973</v>
       </c>
     </row>
     <row r="358">
@@ -6158,13 +6158,13 @@
         <v>3.9617159366607666</v>
       </c>
       <c r="C358" s="2">
-        <v>4.0460305213928223</v>
+        <v>4.0461297035217285</v>
       </c>
       <c r="D358" s="2">
         <v>4.0175023078918457</v>
       </c>
       <c r="E358" s="2">
-        <v>3.947986364364624</v>
+        <v>3.9478218555450439</v>
       </c>
     </row>
     <row r="359">
@@ -6175,13 +6175,13 @@
         <v>3.661562442779541</v>
       </c>
       <c r="C359" s="2">
-        <v>3.6195690631866455</v>
+        <v>3.6193923950195313</v>
       </c>
       <c r="D359" s="2">
         <v>4.0629725456237793</v>
       </c>
       <c r="E359" s="2">
-        <v>4.0162177085876465</v>
+        <v>4.0160737037658692</v>
       </c>
     </row>
     <row r="360">
@@ -6192,13 +6192,13 @@
         <v>4.3464341163635254</v>
       </c>
       <c r="C360" s="2">
-        <v>4.2768726348876953</v>
+        <v>4.2765359878540039</v>
       </c>
       <c r="D360" s="2">
         <v>4.1381683349609375</v>
       </c>
       <c r="E360" s="2">
-        <v>4.1218042373657227</v>
+        <v>4.1217541694641113</v>
       </c>
     </row>
     <row r="361">
@@ -6209,13 +6209,13 @@
         <v>4.7987914085388184</v>
       </c>
       <c r="C361" s="2">
-        <v>4.7684717178344727</v>
+        <v>4.7682037353515625</v>
       </c>
       <c r="D361" s="2">
         <v>4.3013873100280762</v>
       </c>
       <c r="E361" s="2">
-        <v>4.2692165374755859</v>
+        <v>4.2691445350646973</v>
       </c>
     </row>
     <row r="362">
@@ -6226,13 +6226,13 @@
         <v>3.7480406761169434</v>
       </c>
       <c r="C362" s="2">
-        <v>3.8531754016876221</v>
+        <v>3.8533990383148193</v>
       </c>
       <c r="D362" s="2">
         <v>4.3249030113220215</v>
       </c>
       <c r="E362" s="2">
-        <v>4.3084278106689453</v>
+        <v>4.3083391189575195</v>
       </c>
     </row>
     <row r="363">
@@ -6243,13 +6243,13 @@
         <v>4.0090928077697754</v>
       </c>
       <c r="C363" s="2">
-        <v>4.0883293151855469</v>
+        <v>4.0882978439331055</v>
       </c>
       <c r="D363" s="2">
         <v>4.5165724754333496</v>
       </c>
       <c r="E363" s="2">
-        <v>4.463691234588623</v>
+        <v>4.463533878326416</v>
       </c>
     </row>
     <row r="364">
@@ -6260,13 +6260,13 @@
         <v>4.1439151763916016</v>
       </c>
       <c r="C364" s="2">
-        <v>4.2563066482543945</v>
+        <v>4.2568039894104004</v>
       </c>
       <c r="D364" s="2">
         <v>4.6799225807189941</v>
       </c>
       <c r="E364" s="2">
-        <v>4.6104288101196289</v>
+        <v>4.6102433204650879</v>
       </c>
     </row>
     <row r="365">
@@ -6277,13 +6277,13 @@
         <v>5.4209690093994141</v>
       </c>
       <c r="C365" s="2">
-        <v>5.2468376159667969</v>
+        <v>5.2466068267822266</v>
       </c>
       <c r="D365" s="2">
         <v>4.7414731979370117</v>
       </c>
       <c r="E365" s="2">
-        <v>4.6720199584960938</v>
+        <v>4.6719098091125488</v>
       </c>
     </row>
     <row r="366">
@@ -6294,13 +6294,13 @@
         <v>4.8336038589477539</v>
       </c>
       <c r="C366" s="2">
-        <v>4.6202564239501953</v>
+        <v>4.6196842193603516</v>
       </c>
       <c r="D366" s="2">
         <v>4.7578773498535156</v>
       </c>
       <c r="E366" s="2">
-        <v>4.6962213516235352</v>
+        <v>4.6961531639099121</v>
       </c>
     </row>
     <row r="367">
@@ -6311,13 +6311,13 @@
         <v>5.6867408752441406</v>
       </c>
       <c r="C367" s="2">
-        <v>5.4434008598327637</v>
+        <v>5.4428825378417969</v>
       </c>
       <c r="D367" s="2">
         <v>4.9875340461730957</v>
       </c>
       <c r="E367" s="2">
-        <v>4.9181346893310547</v>
+        <v>4.9180717468261719</v>
       </c>
     </row>
     <row r="368">
@@ -6328,13 +6328,13 @@
         <v>5.1317143440246582</v>
       </c>
       <c r="C368" s="2">
-        <v>4.940208911895752</v>
+        <v>4.9397745132446289</v>
       </c>
       <c r="D368" s="2">
         <v>5.2222738265991211</v>
       </c>
       <c r="E368" s="2">
-        <v>5.1506237983703613</v>
+        <v>5.1504998207092285</v>
       </c>
     </row>
     <row r="369">
@@ -6345,13 +6345,13 @@
         <v>4.9003920555114746</v>
       </c>
       <c r="C369" s="2">
-        <v>4.8311939239501953</v>
+        <v>4.831535816192627</v>
       </c>
       <c r="D369" s="2">
         <v>5.4702773094177246</v>
       </c>
       <c r="E369" s="2">
-        <v>5.3777599334716797</v>
+        <v>5.3775572776794434</v>
       </c>
     </row>
     <row r="370">
@@ -6362,13 +6362,13 @@
         <v>4.9464282989501953</v>
       </c>
       <c r="C370" s="2">
-        <v>4.9862823486328125</v>
+        <v>4.9863953590393067</v>
       </c>
       <c r="D370" s="2">
         <v>5.603147029876709</v>
       </c>
       <c r="E370" s="2">
-        <v>5.518831729888916</v>
+        <v>5.5186195373535156</v>
       </c>
     </row>
     <row r="371">
@@ -6379,13 +6379,13 @@
         <v>5.8149518966674805</v>
       </c>
       <c r="C371" s="2">
-        <v>5.8503961563110352</v>
+        <v>5.8506655693054199</v>
       </c>
       <c r="D371" s="2">
         <v>5.8102240562438965</v>
       </c>
       <c r="E371" s="2">
-        <v>5.7488174438476562</v>
+        <v>5.748565673828125</v>
       </c>
     </row>
     <row r="372">
@@ -6396,13 +6396,13 @@
         <v>6.1217489242553711</v>
       </c>
       <c r="C372" s="2">
-        <v>6.1807317733764648</v>
+        <v>6.1801514625549316</v>
       </c>
       <c r="D372" s="2">
         <v>5.8662552833557129</v>
       </c>
       <c r="E372" s="2">
-        <v>5.8271975517272949</v>
+        <v>5.8269925117492676</v>
       </c>
     </row>
     <row r="373">
@@ -6413,13 +6413,13 @@
         <v>6.375946044921875</v>
       </c>
       <c r="C373" s="2">
-        <v>6.300532341003418</v>
+        <v>6.3003182411193848</v>
       </c>
       <c r="D373" s="2">
-        <v>5.9241394996643066</v>
+        <v>5.9241394996643067</v>
       </c>
       <c r="E373" s="2">
-        <v>5.9002528190612793</v>
+        <v>5.9000601768493652</v>
       </c>
     </row>
     <row r="374">
@@ -6430,13 +6430,13 @@
         <v>6.6167960166931152</v>
       </c>
       <c r="C374" s="2">
-        <v>6.5164828300476074</v>
+        <v>6.516169548034668</v>
       </c>
       <c r="D374" s="2">
         <v>6.0169620513916016</v>
       </c>
       <c r="E374" s="2">
-        <v>5.9973955154418945</v>
+        <v>5.9971213340759277</v>
       </c>
     </row>
     <row r="375">
@@ -6447,13 +6447,13 @@
         <v>6.6972966194152832</v>
       </c>
       <c r="C375" s="2">
-        <v>6.6901273727416992</v>
+        <v>6.6891999244689942</v>
       </c>
       <c r="D375" s="2">
         <v>6.0849957466125488</v>
       </c>
       <c r="E375" s="2">
-        <v>6.0633101463317871</v>
+        <v>6.0630397796630859</v>
       </c>
     </row>
     <row r="376">
@@ -6464,13 +6464,13 @@
         <v>6.1910228729248047</v>
       </c>
       <c r="C376" s="2">
-        <v>6.1488218307495117</v>
+        <v>6.1487212181091309</v>
       </c>
       <c r="D376" s="2">
         <v>6.0511994361877441</v>
       </c>
       <c r="E376" s="2">
-        <v>6.0238428115844727</v>
+        <v>6.0234732627868652</v>
       </c>
     </row>
     <row r="377">
@@ -6481,13 +6481,13 @@
         <v>5.6526718139648438</v>
       </c>
       <c r="C377" s="2">
-        <v>5.5977077484130859</v>
+        <v>5.5973830223083496</v>
       </c>
       <c r="D377" s="2">
         <v>5.9160447120666504</v>
       </c>
       <c r="E377" s="2">
-        <v>5.8996701240539551</v>
+        <v>5.899376392364502</v>
       </c>
     </row>
     <row r="378">
@@ -6498,13 +6498,13 @@
         <v>5.7357945442199707</v>
       </c>
       <c r="C378" s="2">
-        <v>5.705477237701416</v>
+        <v>5.7050857543945313</v>
       </c>
       <c r="D378" s="2">
         <v>5.734926700592041</v>
       </c>
       <c r="E378" s="2">
-        <v>5.7312278747558594</v>
+        <v>5.730931282043457</v>
       </c>
     </row>
     <row r="379">
@@ -6515,13 +6515,13 @@
         <v>5.5587348937988281</v>
       </c>
       <c r="C379" s="2">
-        <v>5.5795135498046875</v>
+        <v>5.5796637535095215</v>
       </c>
       <c r="D379" s="2">
         <v>5.4862046241760254</v>
       </c>
       <c r="E379" s="2">
-        <v>5.4864716529846191</v>
+        <v>5.4862070083618164</v>
       </c>
     </row>
     <row r="380">
@@ -6532,13 +6532,13 @@
         <v>5.5107827186584473</v>
       </c>
       <c r="C380" s="2">
-        <v>5.4951896667480469</v>
+        <v>5.4945659637451172</v>
       </c>
       <c r="D380" s="2">
         <v>5.2940917015075684</v>
       </c>
       <c r="E380" s="2">
-        <v>5.2895669937133789</v>
+        <v>5.2893972396850586</v>
       </c>
     </row>
     <row r="381">
@@ -6549,13 +6549,13 @@
         <v>4.9053564071655273</v>
       </c>
       <c r="C381" s="2">
-        <v>5.0631794929504395</v>
+        <v>5.0632810592651367</v>
       </c>
       <c r="D381" s="2">
         <v>5.0460348129272461</v>
       </c>
       <c r="E381" s="2">
-        <v>5.057868480682373</v>
+        <v>5.0576820373535156</v>
       </c>
     </row>
     <row r="382">
@@ -6566,13 +6566,13 @@
         <v>4.7458853721618652</v>
       </c>
       <c r="C382" s="2">
-        <v>4.7845525741577148</v>
+        <v>4.7843093872070313</v>
       </c>
       <c r="D382" s="2">
         <v>5.0062055587768555</v>
       </c>
       <c r="E382" s="2">
-        <v>5.0214567184448242</v>
+        <v>5.0212569236755371</v>
       </c>
     </row>
     <row r="383">
@@ -6583,13 +6583,13 @@
         <v>4.378298282623291</v>
       </c>
       <c r="C383" s="2">
-        <v>4.3136768341064453</v>
+        <v>4.3136539459228516</v>
       </c>
       <c r="D383" s="2">
         <v>4.8587741851806641</v>
       </c>
       <c r="E383" s="2">
-        <v>4.8631138801574707</v>
+        <v>4.8629403114318848</v>
       </c>
     </row>
     <row r="384">
@@ -6600,13 +6600,13 @@
         <v>4.9682765007019043</v>
       </c>
       <c r="C384" s="2">
-        <v>4.9179849624633789</v>
+        <v>4.9179129600524902</v>
       </c>
       <c r="D384" s="2">
         <v>4.7014479637145996</v>
       </c>
       <c r="E384" s="2">
-        <v>4.6901593208312988</v>
+        <v>4.6899652481079102</v>
       </c>
     </row>
     <row r="385">
@@ -6617,13 +6617,13 @@
         <v>3.9585111141204834</v>
       </c>
       <c r="C385" s="2">
-        <v>4.0635361671447754</v>
+        <v>4.0632820129394531</v>
       </c>
       <c r="D385" s="2">
         <v>4.5931224822998047</v>
       </c>
       <c r="E385" s="2">
-        <v>4.596743106842041</v>
+        <v>4.5965704917907715</v>
       </c>
     </row>
     <row r="386">
@@ -6634,13 +6634,13 @@
         <v>5.2942104339599609</v>
       </c>
       <c r="C386" s="2">
-        <v>5.2699985504150391</v>
+        <v>5.2695565223693848</v>
       </c>
       <c r="D386" s="2">
         <v>4.5202045440673828</v>
       </c>
       <c r="E386" s="2">
-        <v>4.5072565078735352</v>
+        <v>4.5070357322692871</v>
       </c>
     </row>
     <row r="387">
@@ -6648,16 +6648,16 @@
         <v>40210</v>
       </c>
       <c r="B387" s="2">
-        <v>4.4089126586914062</v>
+        <v>4.4089126586914063</v>
       </c>
       <c r="C387" s="2">
-        <v>4.2803921699523926</v>
+        <v>4.2802391052246094</v>
       </c>
       <c r="D387" s="2">
         <v>4.4593081474304199</v>
       </c>
       <c r="E387" s="2">
-        <v>4.4296135902404785</v>
+        <v>4.4294233322143555</v>
       </c>
     </row>
     <row r="388">
@@ -6668,13 +6668,13 @@
         <v>4.142796516418457</v>
       </c>
       <c r="C388" s="2">
-        <v>4.0229220390319824</v>
+        <v>4.0228867530822754</v>
       </c>
       <c r="D388" s="2">
         <v>4.4173460006713867</v>
       </c>
       <c r="E388" s="2">
-        <v>4.367976188659668</v>
+        <v>4.3677635192871094</v>
       </c>
     </row>
     <row r="389">
@@ -6685,13 +6685,13 @@
         <v>4.5358529090881348</v>
       </c>
       <c r="C389" s="2">
-        <v>4.6544437408447266</v>
+        <v>4.6540131568908691</v>
       </c>
       <c r="D389" s="2">
         <v>4.3634805679321289</v>
       </c>
       <c r="E389" s="2">
-        <v>4.3161444664001465</v>
+        <v>4.3158531188964844</v>
       </c>
     </row>
     <row r="390">
@@ -6702,13 +6702,13 @@
         <v>4.2490954399108887</v>
       </c>
       <c r="C390" s="2">
-        <v>4.2578010559082031</v>
+        <v>4.2574687004089356</v>
       </c>
       <c r="D390" s="2">
         <v>4.4213542938232422</v>
       </c>
       <c r="E390" s="2">
-        <v>4.3612027168273926</v>
+        <v>4.3608646392822266</v>
       </c>
     </row>
     <row r="391">
@@ -6719,13 +6719,13 @@
         <v>4.1978187561035156</v>
       </c>
       <c r="C391" s="2">
-        <v>4.0857686996459961</v>
+        <v>4.0857954025268555</v>
       </c>
       <c r="D391" s="2">
         <v>4.2956666946411133</v>
       </c>
       <c r="E391" s="2">
-        <v>4.2400360107421875</v>
+        <v>4.239750862121582</v>
       </c>
     </row>
     <row r="392">
@@ -6736,13 +6736,13 @@
         <v>4.0006413459777832</v>
       </c>
       <c r="C392" s="2">
-        <v>3.7589378356933594</v>
+        <v>3.7587177753448486</v>
       </c>
       <c r="D392" s="2">
         <v>4.2608504295349121</v>
       </c>
       <c r="E392" s="2">
-        <v>4.1941747665405273</v>
+        <v>4.1938257217407227</v>
       </c>
     </row>
     <row r="393">
@@ -6753,13 +6753,13 @@
         <v>4.4834861755371094</v>
       </c>
       <c r="C393" s="2">
-        <v>4.4515013694763184</v>
+        <v>4.4507174491882324</v>
       </c>
       <c r="D393" s="2">
         <v>4.3273444175720215</v>
       </c>
       <c r="E393" s="2">
-        <v>4.2541975975036621</v>
+        <v>4.2537937164306641</v>
       </c>
     </row>
     <row r="394">
@@ -6770,13 +6770,13 @@
         <v>4.4793758392333984</v>
       </c>
       <c r="C394" s="2">
-        <v>4.4690580368041992</v>
+        <v>4.4683866500854492</v>
       </c>
       <c r="D394" s="2">
         <v>4.3267126083374023</v>
       </c>
       <c r="E394" s="2">
-        <v>4.2229580879211426</v>
+        <v>4.2225980758666992</v>
       </c>
     </row>
     <row r="395">
@@ -6787,13 +6787,13 @@
         <v>4.1630220413208008</v>
       </c>
       <c r="C395" s="2">
-        <v>4.1795005798339844</v>
+        <v>4.1795320510864258</v>
       </c>
       <c r="D395" s="2">
         <v>4.3108134269714355</v>
       </c>
       <c r="E395" s="2">
-        <v>4.1928253173828125</v>
+        <v>4.1924724578857422</v>
       </c>
     </row>
     <row r="396">
@@ -6804,13 +6804,13 @@
         <v>4.0955667495727539</v>
       </c>
       <c r="C396" s="2">
-        <v>3.867638111114502</v>
+        <v>3.8669126033782959</v>
       </c>
       <c r="D396" s="2">
         <v>4.3164701461791992</v>
       </c>
       <c r="E396" s="2">
-        <v>4.18572998046875</v>
+        <v>4.1854419708251953</v>
       </c>
     </row>
     <row r="397">
@@ -6821,13 +6821,13 @@
         <v>4.7412385940551758</v>
       </c>
       <c r="C397" s="2">
-        <v>4.5631308555603027</v>
+        <v>4.5625982284545899</v>
       </c>
       <c r="D397" s="2">
         <v>4.3604536056518555</v>
       </c>
       <c r="E397" s="2">
-        <v>4.2530813217163086</v>
+        <v>4.2527556419372559</v>
       </c>
     </row>
     <row r="398">
@@ -6838,13 +6838,13 @@
         <v>4.5301675796508789</v>
       </c>
       <c r="C398" s="2">
-        <v>4.3732848167419434</v>
+        <v>4.373253345489502</v>
       </c>
       <c r="D398" s="2">
         <v>4.3411579132080078</v>
       </c>
       <c r="E398" s="2">
-        <v>4.2367663383483887</v>
+        <v>4.2365217208862305</v>
       </c>
     </row>
     <row r="399">
@@ -6855,13 +6855,13 @@
         <v>4.1060023307800293</v>
       </c>
       <c r="C399" s="2">
-        <v>3.9866065979003906</v>
+        <v>3.986337423324585</v>
       </c>
       <c r="D399" s="2">
         <v>4.3359031677246094</v>
       </c>
       <c r="E399" s="2">
-        <v>4.2152156829833984</v>
+        <v>4.2149519920349121</v>
       </c>
     </row>
     <row r="400">
@@ -6872,13 +6872,13 @@
         <v>4.2487320899963379</v>
       </c>
       <c r="C400" s="2">
-        <v>4.0219125747680664</v>
+        <v>4.0225200653076172</v>
       </c>
       <c r="D400" s="2">
         <v>4.3771729469299316</v>
       </c>
       <c r="E400" s="2">
-        <v>4.2612557411193848</v>
+        <v>4.261016845703125</v>
       </c>
     </row>
     <row r="401">
@@ -6889,13 +6889,13 @@
         <v>4.3964905738830566</v>
       </c>
       <c r="C401" s="2">
-        <v>4.3650975227355957</v>
+        <v>4.3645410537719727</v>
       </c>
       <c r="D401" s="2">
-        <v>4.412147045135498</v>
+        <v>4.4121470451354981</v>
       </c>
       <c r="E401" s="2">
-        <v>4.3024582862854004</v>
+        <v>4.3022561073303223</v>
       </c>
     </row>
     <row r="402">
@@ -6906,13 +6906,13 @@
         <v>4.3098263740539551</v>
       </c>
       <c r="C402" s="2">
-        <v>4.3046674728393555</v>
+        <v>4.3046150207519531</v>
       </c>
       <c r="D402" s="2">
         <v>4.3665757179260254</v>
       </c>
       <c r="E402" s="2">
-        <v>4.2689404487609863</v>
+        <v>4.2688102722167969</v>
       </c>
     </row>
     <row r="403">
@@ -6923,13 +6923,13 @@
         <v>4.4320836067199707</v>
       </c>
       <c r="C403" s="2">
-        <v>4.2751021385192871</v>
+        <v>4.2742562294006348</v>
       </c>
       <c r="D403" s="2">
         <v>4.3413434028625488</v>
       </c>
       <c r="E403" s="2">
-        <v>4.251706600189209</v>
+        <v>4.2515830993652344</v>
       </c>
     </row>
     <row r="404">
@@ -6940,13 +6940,13 @@
         <v>4.5344467163085938</v>
       </c>
       <c r="C404" s="2">
-        <v>4.5938615798950195</v>
+        <v>4.5941190719604492</v>
       </c>
       <c r="D404" s="2">
         <v>4.2883005142211914</v>
       </c>
       <c r="E404" s="2">
-        <v>4.2184667587280273</v>
+        <v>4.2183480262756348</v>
       </c>
     </row>
     <row r="405">
@@ -6957,13 +6957,13 @@
         <v>4.4103355407714844</v>
       </c>
       <c r="C405" s="2">
-        <v>4.2384614944458008</v>
+        <v>4.2380647659301758</v>
       </c>
       <c r="D405" s="2">
         <v>4.278923511505127</v>
       </c>
       <c r="E405" s="2">
-        <v>4.21258544921875</v>
+        <v>4.2124104499816895</v>
       </c>
     </row>
     <row r="406">
@@ -6974,13 +6974,13 @@
         <v>4.3310976028442383</v>
       </c>
       <c r="C406" s="2">
-        <v>4.2614679336547852</v>
+        <v>4.2615833282470703</v>
       </c>
       <c r="D406" s="2">
         <v>4.2046651840209961</v>
       </c>
       <c r="E406" s="2">
-        <v>4.1221675872802734</v>
+        <v>4.1220545768737793</v>
       </c>
     </row>
     <row r="407">
@@ -6991,13 +6991,13 @@
         <v>4.3030738830566406</v>
       </c>
       <c r="C407" s="2">
-        <v>4.2181811332702637</v>
+        <v>4.2182097434997559</v>
       </c>
       <c r="D407" s="2">
         <v>4.1821503639221191</v>
       </c>
       <c r="E407" s="2">
-        <v>4.0721006393432617</v>
+        <v>4.0720362663269043</v>
       </c>
     </row>
     <row r="408">
@@ -7008,13 +7008,13 @@
         <v>3.6286160945892334</v>
       </c>
       <c r="C408" s="2">
-        <v>3.6874477863311768</v>
+        <v>3.6872220039367676</v>
       </c>
       <c r="D408" s="2">
         <v>4.1902179718017578</v>
       </c>
       <c r="E408" s="2">
-        <v>4.0859065055847168</v>
+        <v>4.0858855247497559</v>
       </c>
     </row>
     <row r="409">
@@ -7025,13 +7025,13 @@
         <v>4.1643404960632324</v>
       </c>
       <c r="C409" s="2">
-        <v>3.9689812660217285</v>
+        <v>3.9690840244293213</v>
       </c>
       <c r="D409" s="2">
         <v>4.124579906463623</v>
       </c>
       <c r="E409" s="2">
-        <v>4.0168228149414062</v>
+        <v>4.0167512893676758</v>
       </c>
     </row>
     <row r="410">
@@ -7042,13 +7042,13 @@
         <v>3.7281684875488281</v>
       </c>
       <c r="C410" s="2">
-        <v>3.5513362884521484</v>
+        <v>3.5513389110565186</v>
       </c>
       <c r="D410" s="2">
         <v>4.0719895362854004</v>
       </c>
       <c r="E410" s="2">
-        <v>3.9767401218414307</v>
+        <v>3.9766499996185303</v>
       </c>
     </row>
     <row r="411">
@@ -7059,13 +7059,13 @@
         <v>4.1071896553039551</v>
       </c>
       <c r="C411" s="2">
-        <v>3.8540663719177246</v>
+        <v>3.854447603225708</v>
       </c>
       <c r="D411" s="2">
         <v>4.0649623870849609</v>
       </c>
       <c r="E411" s="2">
-        <v>3.9663441181182861</v>
+        <v>3.966198205947876</v>
       </c>
     </row>
     <row r="412">
@@ -7076,13 +7076,13 @@
         <v>4.5046954154968262</v>
       </c>
       <c r="C412" s="2">
-        <v>4.39935302734375</v>
+        <v>4.3988995552062988</v>
       </c>
       <c r="D412" s="2">
         <v>4.0494828224182129</v>
       </c>
       <c r="E412" s="2">
-        <v>3.9524662494659424</v>
+        <v>3.9523029327392578</v>
       </c>
     </row>
     <row r="413">
@@ -7093,13 +7093,13 @@
         <v>3.9437003135681152</v>
       </c>
       <c r="C413" s="2">
-        <v>3.9721083641052246</v>
+        <v>3.9719095230102539</v>
       </c>
       <c r="D413" s="2">
         <v>4.1114287376403809</v>
       </c>
       <c r="E413" s="2">
-        <v>4.0049929618835449</v>
+        <v>4.0048155784606934</v>
       </c>
     </row>
     <row r="414">
@@ -7110,13 +7110,13 @@
         <v>3.9370238780975342</v>
       </c>
       <c r="C414" s="2">
-        <v>3.8777196407318115</v>
+        <v>3.8771553039550781</v>
       </c>
       <c r="D414" s="2">
         <v>4.1388192176818848</v>
       </c>
       <c r="E414" s="2">
-        <v>4.0528316497802734</v>
+        <v>4.0526123046875</v>
       </c>
     </row>
     <row r="415">
@@ -7127,13 +7127,13 @@
         <v>4.2678513526916504</v>
       </c>
       <c r="C415" s="2">
-        <v>4.1679024696350098</v>
+        <v>4.1675171852111816</v>
       </c>
       <c r="D415" s="2">
         <v>4.1454658508300781</v>
       </c>
       <c r="E415" s="2">
-        <v>4.0775337219238281</v>
+        <v>4.0772852897644043</v>
       </c>
     </row>
     <row r="416">
@@ -7144,13 +7144,13 @@
         <v>4.1637606620788574</v>
       </c>
       <c r="C416" s="2">
-        <v>4.0932812690734863</v>
+        <v>4.0931515693664551</v>
       </c>
       <c r="D416" s="2">
         <v>4.1783709526062012</v>
       </c>
       <c r="E416" s="2">
-        <v>4.1425199508666992</v>
+        <v>4.1422309875488281</v>
       </c>
     </row>
     <row r="417">
@@ -7161,13 +7161,13 @@
         <v>4.1861276626586914</v>
       </c>
       <c r="C417" s="2">
-        <v>4.1601881980895996</v>
+        <v>4.1598381996154785</v>
       </c>
       <c r="D417" s="2">
         <v>4.1868424415588379</v>
       </c>
       <c r="E417" s="2">
-        <v>4.1645755767822266</v>
+        <v>4.1643185615539551</v>
       </c>
     </row>
     <row r="418">
@@ -7178,13 +7178,13 @@
         <v>4.4108562469482422</v>
       </c>
       <c r="C418" s="2">
-        <v>4.399528980255127</v>
+        <v>4.3992547988891602</v>
       </c>
       <c r="D418" s="2">
         <v>4.1842365264892578</v>
       </c>
       <c r="E418" s="2">
-        <v>4.1537742614746094</v>
+        <v>4.1534852981567383</v>
       </c>
     </row>
     <row r="419">
@@ -7195,13 +7195,13 @@
         <v>3.7879889011383057</v>
       </c>
       <c r="C419" s="2">
-        <v>3.7736554145812988</v>
+        <v>3.7733931541442871</v>
       </c>
       <c r="D419" s="2">
         <v>4.2660789489746094</v>
       </c>
       <c r="E419" s="2">
-        <v>4.2399182319641113</v>
+        <v>4.2396764755249024</v>
       </c>
     </row>
     <row r="420">
@@ -7212,13 +7212,13 @@
         <v>4.4033350944519043</v>
       </c>
       <c r="C420" s="2">
-        <v>4.4389433860778809</v>
+        <v>4.4389615058898926</v>
       </c>
       <c r="D420" s="2">
         <v>4.1830687522888184</v>
       </c>
       <c r="E420" s="2">
-        <v>4.1825146675109863</v>
+        <v>4.182335376739502</v>
       </c>
     </row>
     <row r="421">
@@ -7229,13 +7229,13 @@
         <v>4.5809383392333984</v>
       </c>
       <c r="C421" s="2">
-        <v>4.5978503227233887</v>
+        <v>4.5976853370666504</v>
       </c>
       <c r="D421" s="2">
         <v>4.1754117012023926</v>
       </c>
       <c r="E421" s="2">
-        <v>4.1804242134094238</v>
+        <v>4.1802425384521484</v>
       </c>
     </row>
     <row r="422">
@@ -7246,13 +7246,13 @@
         <v>3.9202456474304199</v>
       </c>
       <c r="C422" s="2">
-        <v>3.8748993873596191</v>
+        <v>3.8744094371795654</v>
       </c>
       <c r="D422" s="2">
         <v>4.1906309127807617</v>
       </c>
       <c r="E422" s="2">
-        <v>4.188410758972168</v>
+        <v>4.1882877349853516</v>
       </c>
     </row>
     <row r="423">
@@ -7260,16 +7260,16 @@
         <v>41306</v>
       </c>
       <c r="B423" s="2">
-        <v>4.6736054420471191</v>
+        <v>4.6736054420471192</v>
       </c>
       <c r="C423" s="2">
-        <v>4.6530146598815918</v>
+        <v>4.6528782844543457</v>
       </c>
       <c r="D423" s="2">
         <v>4.1023178100585938</v>
       </c>
       <c r="E423" s="2">
-        <v>4.0979318618774414</v>
+        <v>4.0977978706359863</v>
       </c>
     </row>
     <row r="424">
@@ -7280,13 +7280,13 @@
         <v>3.5207626819610596</v>
       </c>
       <c r="C424" s="2">
-        <v>3.6512701511383057</v>
+        <v>3.651444673538208</v>
       </c>
       <c r="D424" s="2">
-        <v>4.0845861434936523</v>
+        <v>4.0845861434936524</v>
       </c>
       <c r="E424" s="2">
-        <v>4.0550751686096191</v>
+        <v>4.0549654960632324</v>
       </c>
     </row>
     <row r="425">
@@ -7297,13 +7297,13 @@
         <v>4.0948443412780762</v>
       </c>
       <c r="C425" s="2">
-        <v>4.0744657516479492</v>
+        <v>4.0743188858032227</v>
       </c>
       <c r="D425" s="2">
         <v>4.0781993865966797</v>
       </c>
       <c r="E425" s="2">
-        <v>4.0337367057800293</v>
+        <v>4.0335865020751953</v>
       </c>
     </row>
     <row r="426">
@@ -7314,13 +7314,13 @@
         <v>4.3231015205383301</v>
       </c>
       <c r="C426" s="2">
-        <v>4.2320671081542969</v>
+        <v>4.2322444915771484</v>
       </c>
       <c r="D426" s="2">
         <v>3.9869227409362793</v>
       </c>
       <c r="E426" s="2">
-        <v>3.9137446880340576</v>
+        <v>3.9136228561401367</v>
       </c>
     </row>
     <row r="427">
@@ -7331,13 +7331,13 @@
         <v>3.6160387992858887</v>
       </c>
       <c r="C427" s="2">
-        <v>3.5852220058441162</v>
+        <v>3.584843635559082</v>
       </c>
       <c r="D427" s="2">
         <v>3.9508092403411865</v>
       </c>
       <c r="E427" s="2">
-        <v>3.8795521259307861</v>
+        <v>3.8794560432434082</v>
       </c>
     </row>
     <row r="428">
@@ -7348,13 +7348,13 @@
         <v>3.6284034252166748</v>
       </c>
       <c r="C428" s="2">
-        <v>3.3879437446594238</v>
+        <v>3.3879015445709229</v>
       </c>
       <c r="D428" s="2">
-        <v>3.8596417903900146</v>
+        <v>3.8596417903900147</v>
       </c>
       <c r="E428" s="2">
-        <v>3.7973132133483887</v>
+        <v>3.7972004413604736</v>
       </c>
     </row>
     <row r="429">
@@ -7365,13 +7365,13 @@
         <v>4.3458542823791504</v>
       </c>
       <c r="C429" s="2">
-        <v>4.2468981742858887</v>
+        <v>4.2465510368347168</v>
       </c>
       <c r="D429" s="2">
         <v>3.8999776840209961</v>
       </c>
       <c r="E429" s="2">
-        <v>3.8078463077545166</v>
+        <v>3.8076756000518799</v>
       </c>
     </row>
     <row r="430">
@@ -7382,13 +7382,13 @@
         <v>3.7594485282897949</v>
       </c>
       <c r="C430" s="2">
-        <v>3.5179202556610107</v>
+        <v>3.5180134773254395</v>
       </c>
       <c r="D430" s="2">
         <v>3.8746161460876465</v>
       </c>
       <c r="E430" s="2">
-        <v>3.7801928520202637</v>
+        <v>3.779994010925293</v>
       </c>
     </row>
     <row r="431">
@@ -7399,13 +7399,13 @@
         <v>3.5952250957489014</v>
       </c>
       <c r="C431" s="2">
-        <v>3.5671672821044922</v>
+        <v>3.5669081211090088</v>
       </c>
       <c r="D431" s="2">
         <v>3.8206756114959717</v>
       </c>
       <c r="E431" s="2">
-        <v>3.7166693210601807</v>
+        <v>3.7164468765258789</v>
       </c>
     </row>
     <row r="432">
@@ -7416,13 +7416,13 @@
         <v>3.8530969619750977</v>
       </c>
       <c r="C432" s="2">
-        <v>3.9128634929656982</v>
+        <v>3.9125771522521973</v>
       </c>
       <c r="D432" s="2">
         <v>3.8644287586212158</v>
       </c>
       <c r="E432" s="2">
-        <v>3.7612283229827881</v>
+        <v>3.7610247135162354</v>
       </c>
     </row>
     <row r="433">
@@ -7433,13 +7433,13 @@
         <v>3.8837859630584717</v>
       </c>
       <c r="C433" s="2">
-        <v>3.7460691928863525</v>
+        <v>3.7457230091094971</v>
       </c>
       <c r="D433" s="2">
         <v>3.8501389026641846</v>
       </c>
       <c r="E433" s="2">
-        <v>3.7568154335021973</v>
+        <v>3.756594181060791</v>
       </c>
     </row>
     <row r="434">
@@ -7450,13 +7450,13 @@
         <v>3.8665909767150879</v>
       </c>
       <c r="C434" s="2">
-        <v>3.8255846500396729</v>
+        <v>3.8251841068267822</v>
       </c>
       <c r="D434" s="2">
         <v>3.7994756698608398</v>
       </c>
       <c r="E434" s="2">
-        <v>3.7135882377624512</v>
+        <v>3.7133431434631348</v>
       </c>
     </row>
     <row r="435">
@@ -7467,13 +7467,13 @@
         <v>3.8376364707946777</v>
       </c>
       <c r="C435" s="2">
-        <v>3.6603550910949707</v>
+        <v>3.6603188514709473</v>
       </c>
       <c r="D435" s="2">
         <v>3.731520414352417</v>
       </c>
       <c r="E435" s="2">
-        <v>3.6747157573699951</v>
+        <v>3.674473762512207</v>
       </c>
     </row>
     <row r="436">
@@ -7484,13 +7484,13 @@
         <v>4.0098171234130859</v>
       </c>
       <c r="C436" s="2">
-        <v>3.986253023147583</v>
+        <v>3.9860455989837646</v>
       </c>
       <c r="D436" s="2">
         <v>3.6961855888366699</v>
       </c>
       <c r="E436" s="2">
-        <v>3.6391122341156006</v>
+        <v>3.6388821601867676</v>
       </c>
     </row>
     <row r="437">
@@ -7498,16 +7498,16 @@
         <v>41730</v>
       </c>
       <c r="B437" s="2">
-        <v>3.4997940063476562</v>
+        <v>3.4997940063476563</v>
       </c>
       <c r="C437" s="2">
-        <v>3.3482279777526855</v>
+        <v>3.3480262756347656</v>
       </c>
       <c r="D437" s="2">
-        <v>3.6769936084747314</v>
+        <v>3.6769936084747315</v>
       </c>
       <c r="E437" s="2">
-        <v>3.6075038909912109</v>
+        <v>3.6073215007781983</v>
       </c>
     </row>
     <row r="438">
@@ -7518,13 +7518,13 @@
         <v>3.889885425567627</v>
       </c>
       <c r="C438" s="2">
-        <v>3.8578536510467529</v>
+        <v>3.8572914600372314</v>
       </c>
       <c r="D438" s="2">
         <v>3.6050310134887695</v>
       </c>
       <c r="E438" s="2">
-        <v>3.538942813873291</v>
+        <v>3.5387616157531738</v>
       </c>
     </row>
     <row r="439">
@@ -7535,13 +7535,13 @@
         <v>3.1478512287139893</v>
       </c>
       <c r="C439" s="2">
-        <v>3.1680672168731689</v>
+        <v>3.1681895256042481</v>
       </c>
       <c r="D439" s="2">
         <v>3.5499520301818848</v>
       </c>
       <c r="E439" s="2">
-        <v>3.5054209232330322</v>
+        <v>3.5052957534790039</v>
       </c>
     </row>
     <row r="440">
@@ -7552,13 +7552,13 @@
         <v>3.2772116661071777</v>
       </c>
       <c r="C440" s="2">
-        <v>3.2467350959777832</v>
+        <v>3.2465841770172119</v>
       </c>
       <c r="D440" s="2">
         <v>3.5421032905578613</v>
       </c>
       <c r="E440" s="2">
-        <v>3.5078909397125244</v>
+        <v>3.5077705383300781</v>
       </c>
     </row>
     <row r="441">
@@ -7569,13 +7569,13 @@
         <v>3.6803703308105469</v>
       </c>
       <c r="C441" s="2">
-        <v>3.6283886432647705</v>
+        <v>3.6285297870635986</v>
       </c>
       <c r="D441" s="2">
         <v>3.4593536853790283</v>
       </c>
       <c r="E441" s="2">
-        <v>3.4220199584960938</v>
+        <v>3.4219043254852295</v>
       </c>
     </row>
     <row r="442">
@@ -7586,13 +7586,13 @@
         <v>3.236121654510498</v>
       </c>
       <c r="C442" s="2">
-        <v>3.1290202140808105</v>
+        <v>3.1286857128143311</v>
       </c>
       <c r="D442" s="2">
         <v>3.4865090847015381</v>
       </c>
       <c r="E442" s="2">
-        <v>3.4751293659210205</v>
+        <v>3.4750518798828125</v>
       </c>
     </row>
     <row r="443">
@@ -7603,13 +7603,13 @@
         <v>3.3708798885345459</v>
       </c>
       <c r="C443" s="2">
-        <v>3.5238871574401855</v>
+        <v>3.5239911079406738</v>
       </c>
       <c r="D443" s="2">
         <v>3.4650111198425293</v>
       </c>
       <c r="E443" s="2">
-        <v>3.4470367431640625</v>
+        <v>3.447049617767334</v>
       </c>
     </row>
     <row r="444">
@@ -7620,13 +7620,13 @@
         <v>3.7669975757598877</v>
       </c>
       <c r="C444" s="2">
-        <v>3.6825850009918213</v>
+        <v>3.6825904846191406</v>
       </c>
       <c r="D444" s="2">
         <v>3.4761631488800049</v>
       </c>
       <c r="E444" s="2">
-        <v>3.4485492706298828</v>
+        <v>3.448544979095459</v>
       </c>
     </row>
     <row r="445">
@@ -7637,13 +7637,13 @@
         <v>3.2650706768035889</v>
       </c>
       <c r="C445" s="2">
-        <v>3.2134153842926025</v>
+        <v>3.2132503986358643</v>
       </c>
       <c r="D445" s="2">
         <v>3.4726383686065674</v>
       </c>
       <c r="E445" s="2">
-        <v>3.4499180316925049</v>
+        <v>3.4499404430389404</v>
       </c>
     </row>
     <row r="446">
@@ -7654,13 +7654,13 @@
         <v>3.7441933155059814</v>
       </c>
       <c r="C446" s="2">
-        <v>3.82621169090271</v>
+        <v>3.8263552188873291</v>
       </c>
       <c r="D446" s="2">
         <v>3.4007117748260498</v>
       </c>
       <c r="E446" s="2">
-        <v>3.3768525123596191</v>
+        <v>3.3768484592437744</v>
       </c>
     </row>
     <row r="447">
@@ -7671,13 +7671,13 @@
         <v>3.6964037418365479</v>
       </c>
       <c r="C447" s="2">
-        <v>3.6050195693969727</v>
+        <v>3.6052706241607666</v>
       </c>
       <c r="D447" s="2">
         <v>3.4382469654083252</v>
       </c>
       <c r="E447" s="2">
-        <v>3.4133760929107666</v>
+        <v>3.4133903980255127</v>
       </c>
     </row>
     <row r="448">
@@ -7688,13 +7688,13 @@
         <v>3.2482204437255859</v>
       </c>
       <c r="C448" s="2">
-        <v>3.1816816329956055</v>
+        <v>3.1816470623016358</v>
       </c>
       <c r="D448" s="2">
         <v>3.5121443271636963</v>
       </c>
       <c r="E448" s="2">
-        <v>3.457937479019165</v>
+        <v>3.4579436779022217</v>
       </c>
     </row>
     <row r="449">
@@ -7705,13 +7705,13 @@
         <v>3.2454879283905029</v>
       </c>
       <c r="C449" s="2">
-        <v>3.2590534687042236</v>
+        <v>3.2591443061828613</v>
       </c>
       <c r="D449" s="2">
         <v>3.4961528778076172</v>
       </c>
       <c r="E449" s="2">
-        <v>3.4442014694213867</v>
+        <v>3.444209098815918</v>
       </c>
     </row>
     <row r="450">
@@ -7722,13 +7722,13 @@
         <v>3.0330300331115723</v>
       </c>
       <c r="C450" s="2">
-        <v>2.9707982540130615</v>
+        <v>2.9707016944885254</v>
       </c>
       <c r="D450" s="2">
         <v>3.5135207176208496</v>
       </c>
       <c r="E450" s="2">
-        <v>3.4595925807952881</v>
+        <v>3.459644079208374</v>
       </c>
     </row>
     <row r="451">
@@ -7739,13 +7739,13 @@
         <v>3.5739383697509766</v>
       </c>
       <c r="C451" s="2">
-        <v>3.4577317237854004</v>
+        <v>3.4575619697570801</v>
       </c>
       <c r="D451" s="2">
         <v>3.5166964530944824</v>
       </c>
       <c r="E451" s="2">
-        <v>3.4542932510375977</v>
+        <v>3.4542772769927979</v>
       </c>
     </row>
     <row r="452">
@@ -7756,13 +7756,13 @@
         <v>4.0359559059143066</v>
       </c>
       <c r="C452" s="2">
-        <v>3.9249415397644043</v>
+        <v>3.9249720573425293</v>
       </c>
       <c r="D452" s="2">
         <v>3.4785239696502686</v>
       </c>
       <c r="E452" s="2">
-        <v>3.4208600521087646</v>
+        <v>3.42079758644104</v>
       </c>
     </row>
     <row r="453">
@@ -7773,13 +7773,13 @@
         <v>3.6230745315551758</v>
       </c>
       <c r="C453" s="2">
-        <v>3.5589604377746582</v>
+        <v>3.558978796005249</v>
       </c>
       <c r="D453" s="2">
         <v>3.5176351070404053</v>
       </c>
       <c r="E453" s="2">
-        <v>3.4721531867980957</v>
+        <v>3.4721183776855469</v>
       </c>
     </row>
     <row r="454">
@@ -7790,13 +7790,13 @@
         <v>3.4213821887969971</v>
       </c>
       <c r="C454" s="2">
-        <v>3.3519351482391357</v>
+        <v>3.3521649837493896</v>
       </c>
       <c r="D454" s="2">
         <v>3.58199143409729</v>
       </c>
       <c r="E454" s="2">
-        <v>3.5135009288787842</v>
+        <v>3.5134024620056152</v>
       </c>
     </row>
     <row r="455">
@@ -7807,13 +7807,13 @@
         <v>3.7727756500244141</v>
       </c>
       <c r="C455" s="2">
-        <v>3.7785184383392334</v>
+        <v>3.7780532836914063</v>
       </c>
       <c r="D455" s="2">
         <v>3.6315968036651611</v>
       </c>
       <c r="E455" s="2">
-        <v>3.5579817295074463</v>
+        <v>3.5579416751861572</v>
       </c>
     </row>
     <row r="456">
@@ -7824,13 +7824,13 @@
         <v>3.3528516292572021</v>
       </c>
       <c r="C456" s="2">
-        <v>3.304119348526001</v>
+        <v>3.3039548397064209</v>
       </c>
       <c r="D456" s="2">
         <v>3.5888140201568604</v>
       </c>
       <c r="E456" s="2">
-        <v>3.513336181640625</v>
+        <v>3.5132880210876465</v>
       </c>
     </row>
     <row r="457">
@@ -7841,13 +7841,13 @@
         <v>3.6002190113067627</v>
       </c>
       <c r="C457" s="2">
-        <v>3.6433200836181641</v>
+        <v>3.6435325145721436</v>
       </c>
       <c r="D457" s="2">
         <v>3.5377955436706543</v>
       </c>
       <c r="E457" s="2">
-        <v>3.4776711463928223</v>
+        <v>3.477630615234375</v>
       </c>
     </row>
     <row r="458">
@@ -7858,13 +7858,13 @@
         <v>3.8246951103210449</v>
       </c>
       <c r="C458" s="2">
-        <v>3.6311831474304199</v>
+        <v>3.6307013034820557</v>
       </c>
       <c r="D458" s="2">
         <v>3.5175139904022217</v>
       </c>
       <c r="E458" s="2">
-        <v>3.4655334949493408</v>
+        <v>3.4654648303985596</v>
       </c>
     </row>
     <row r="459">
@@ -7875,13 +7875,13 @@
         <v>3.4794793128967285</v>
       </c>
       <c r="C459" s="2">
-        <v>3.371126651763916</v>
+        <v>3.3715548515319824</v>
       </c>
       <c r="D459" s="2">
         <v>3.4716658592224121</v>
       </c>
       <c r="E459" s="2">
-        <v>3.421154260635376</v>
+        <v>3.4210433959960938</v>
       </c>
     </row>
     <row r="460">
@@ -7892,13 +7892,13 @@
         <v>3.1888933181762695</v>
       </c>
       <c r="C460" s="2">
-        <v>3.0559201240539551</v>
+        <v>3.0556793212890625</v>
       </c>
       <c r="D460" s="2">
         <v>3.4218933582305908</v>
       </c>
       <c r="E460" s="2">
-        <v>3.3579246997833252</v>
+        <v>3.3578653335571289</v>
       </c>
     </row>
     <row r="461">
@@ -7906,16 +7906,16 @@
         <v>42461</v>
       </c>
       <c r="B461" s="2">
-        <v>3.5767889022827148</v>
+        <v>3.5767889022827149</v>
       </c>
       <c r="C461" s="2">
-        <v>3.6039574146270752</v>
+        <v>3.6040554046630859</v>
       </c>
       <c r="D461" s="2">
         <v>3.4345381259918213</v>
       </c>
       <c r="E461" s="2">
-        <v>3.3704922199249268</v>
+        <v>3.3704497814178467</v>
       </c>
     </row>
     <row r="462">
@@ -7926,13 +7926,13 @@
         <v>3.4405417442321777</v>
       </c>
       <c r="C462" s="2">
-        <v>3.4497201442718506</v>
+        <v>3.4494867324829102</v>
       </c>
       <c r="D462" s="2">
         <v>3.3863358497619629</v>
       </c>
       <c r="E462" s="2">
-        <v>3.3082659244537354</v>
+        <v>3.308239221572876</v>
       </c>
     </row>
     <row r="463">
@@ -7943,13 +7943,13 @@
         <v>3.0087485313415527</v>
       </c>
       <c r="C463" s="2">
-        <v>2.9525229930877686</v>
+        <v>2.9523720741271973</v>
       </c>
       <c r="D463" s="2">
         <v>3.3187849521636963</v>
       </c>
       <c r="E463" s="2">
-        <v>3.2609844207763672</v>
+        <v>3.2609775066375732</v>
       </c>
     </row>
     <row r="464">
@@ -7960,13 +7960,13 @@
         <v>3.3248226642608643</v>
       </c>
       <c r="C464" s="2">
-        <v>3.2094521522521973</v>
+        <v>3.2094511985778809</v>
       </c>
       <c r="D464" s="2">
-        <v>3.2916328907012939</v>
+        <v>3.291632890701294</v>
       </c>
       <c r="E464" s="2">
-        <v>3.2462201118469238</v>
+        <v>3.2461442947387695</v>
       </c>
     </row>
     <row r="465">
@@ -7977,13 +7977,13 @@
         <v>3.4666545391082764</v>
       </c>
       <c r="C465" s="2">
-        <v>3.417227029800415</v>
+        <v>3.4172143936157227</v>
       </c>
       <c r="D465" s="2">
         <v>3.3108029365539551</v>
       </c>
       <c r="E465" s="2">
-        <v>3.2725498676300049</v>
+        <v>3.2724874019622803</v>
       </c>
     </row>
     <row r="466">
@@ -7994,13 +7994,13 @@
         <v>3.1663978099822998</v>
       </c>
       <c r="C466" s="2">
-        <v>3.0832839012145996</v>
+        <v>3.0836377143859863</v>
       </c>
       <c r="D466" s="2">
         <v>3.2702279090881348</v>
       </c>
       <c r="E466" s="2">
-        <v>3.2331581115722656</v>
+        <v>3.2330951690673828</v>
       </c>
     </row>
     <row r="467">
@@ -8011,13 +8011,13 @@
         <v>3.2167372703552246</v>
       </c>
       <c r="C467" s="2">
-        <v>3.2056503295898438</v>
+        <v>3.205345630645752</v>
       </c>
       <c r="D467" s="2">
         <v>3.2822127342224121</v>
       </c>
       <c r="E467" s="2">
-        <v>3.2450625896453857</v>
+        <v>3.2450580596923828</v>
       </c>
     </row>
     <row r="468">
@@ -8028,13 +8028,13 @@
         <v>3.2351109981536865</v>
       </c>
       <c r="C468" s="2">
-        <v>3.2382478713989258</v>
+        <v>3.2380568981170654</v>
       </c>
       <c r="D468" s="2">
         <v>3.3174350261688232</v>
       </c>
       <c r="E468" s="2">
-        <v>3.2708826065063477</v>
+        <v>3.2709250450134277</v>
       </c>
     </row>
     <row r="469">
@@ -8045,13 +8045,13 @@
         <v>3.3614249229431152</v>
       </c>
       <c r="C469" s="2">
-        <v>3.2928862571716309</v>
+        <v>3.2927675247192383</v>
       </c>
       <c r="D469" s="2">
         <v>3.3219799995422363</v>
       </c>
       <c r="E469" s="2">
-        <v>3.2922959327697754</v>
+        <v>3.2923712730407715</v>
       </c>
     </row>
     <row r="470">
@@ -8062,13 +8062,13 @@
         <v>3.211613655090332</v>
       </c>
       <c r="C470" s="2">
-        <v>3.249431848526001</v>
+        <v>3.2495253086090088</v>
       </c>
       <c r="D470" s="2">
         <v>3.3007421493530273</v>
       </c>
       <c r="E470" s="2">
-        <v>3.2759411334991455</v>
+        <v>3.2760453224182129</v>
       </c>
     </row>
     <row r="471">
@@ -8079,13 +8079,13 @@
         <v>3.5484046936035156</v>
       </c>
       <c r="C471" s="2">
-        <v>3.5568604469299316</v>
+        <v>3.5571513175964356</v>
       </c>
       <c r="D471" s="2">
         <v>3.3442409038543701</v>
       </c>
       <c r="E471" s="2">
-        <v>3.3201792240142822</v>
+        <v>3.3202593326568604</v>
       </c>
     </row>
     <row r="472">
@@ -8096,13 +8096,13 @@
         <v>3.3257477283477783</v>
       </c>
       <c r="C472" s="2">
-        <v>3.1849033832550049</v>
+        <v>3.1851749420166016</v>
       </c>
       <c r="D472" s="2">
         <v>3.3238921165466309</v>
       </c>
       <c r="E472" s="2">
-        <v>3.2957165241241455</v>
+        <v>3.2958252429962158</v>
       </c>
     </row>
     <row r="473">
@@ -8110,16 +8110,16 @@
         <v>42826</v>
       </c>
       <c r="B473" s="2">
-        <v>3.3657293319702148</v>
+        <v>3.3657293319702149</v>
       </c>
       <c r="C473" s="2">
-        <v>3.4021725654602051</v>
+        <v>3.4024677276611328</v>
       </c>
       <c r="D473" s="2">
         <v>3.3387739658355713</v>
       </c>
       <c r="E473" s="2">
-        <v>3.292245626449585</v>
+        <v>3.2923319339752197</v>
       </c>
     </row>
     <row r="474">
@@ -8130,13 +8130,13 @@
         <v>3.2755124568939209</v>
       </c>
       <c r="C474" s="2">
-        <v>3.2700338363647461</v>
+        <v>3.2702805995941162</v>
       </c>
       <c r="D474" s="2">
         <v>3.3244314193725586</v>
       </c>
       <c r="E474" s="2">
-        <v>3.2843539714813232</v>
+        <v>3.2844996452331543</v>
       </c>
     </row>
     <row r="475">
@@ -8147,13 +8147,13 @@
         <v>3.557887077331543</v>
       </c>
       <c r="C475" s="2">
-        <v>3.4814267158508301</v>
+        <v>3.4815640449523926</v>
       </c>
       <c r="D475" s="2">
         <v>3.3224530220031738</v>
       </c>
       <c r="E475" s="2">
-        <v>3.2757599353790283</v>
+        <v>3.2758934497833252</v>
       </c>
     </row>
     <row r="476">
@@ -8164,13 +8164,13 @@
         <v>3.0335986614227295</v>
       </c>
       <c r="C476" s="2">
-        <v>2.9854857921600342</v>
+        <v>2.9854378700256348</v>
       </c>
       <c r="D476" s="2">
         <v>3.3201529979705811</v>
       </c>
       <c r="E476" s="2">
-        <v>3.2607283592224121</v>
+        <v>3.2608127593994141</v>
       </c>
     </row>
     <row r="477">
@@ -8181,13 +8181,13 @@
         <v>3.3690464496612549</v>
       </c>
       <c r="C477" s="2">
-        <v>3.2070102691650391</v>
+        <v>3.2066178321838379</v>
       </c>
       <c r="D477" s="2">
         <v>3.3027467727661133</v>
       </c>
       <c r="E477" s="2">
-        <v>3.2525243759155273</v>
+        <v>3.2525928020477295</v>
       </c>
     </row>
     <row r="478">
@@ -8198,13 +8198,13 @@
         <v>3.2323434352874756</v>
       </c>
       <c r="C478" s="2">
-        <v>3.2218611240386963</v>
+        <v>3.2222774028778076</v>
       </c>
       <c r="D478" s="2">
-        <v>3.2677679061889648</v>
+        <v>3.2677679061889649</v>
       </c>
       <c r="E478" s="2">
-        <v>3.2020971775054932</v>
+        <v>3.2021381855010986</v>
       </c>
     </row>
     <row r="479">
@@ -8215,13 +8215,13 @@
         <v>3.1938076019287109</v>
       </c>
       <c r="C479" s="2">
-        <v>3.1720843315124512</v>
+        <v>3.1720702648162842</v>
       </c>
       <c r="D479" s="2">
         <v>3.2509391307830811</v>
       </c>
       <c r="E479" s="2">
-        <v>3.187225341796875</v>
+        <v>3.1872544288635254</v>
       </c>
     </row>
     <row r="480">
@@ -8232,13 +8232,13 @@
         <v>3.527705192565918</v>
       </c>
       <c r="C480" s="2">
-        <v>3.4215774536132812</v>
+        <v>3.4214248657226563</v>
       </c>
       <c r="D480" s="2">
         <v>3.1826138496398926</v>
       </c>
       <c r="E480" s="2">
-        <v>3.1228115558624268</v>
+        <v>3.1228303909301758</v>
       </c>
     </row>
     <row r="481">
@@ -8249,13 +8249,13 @@
         <v>3.1690912246704102</v>
       </c>
       <c r="C481" s="2">
-        <v>3.1110680103302002</v>
+        <v>3.1111950874328613</v>
       </c>
       <c r="D481" s="2">
         <v>3.216069221496582</v>
       </c>
       <c r="E481" s="2">
-        <v>3.159712553024292</v>
+        <v>3.1597590446472168</v>
       </c>
     </row>
     <row r="482">
@@ -8266,13 +8266,13 @@
         <v>3.0509192943572998</v>
       </c>
       <c r="C482" s="2">
-        <v>2.9483268260955811</v>
+        <v>2.9483764171600342</v>
       </c>
       <c r="D482" s="2">
         <v>3.1866574287414551</v>
       </c>
       <c r="E482" s="2">
-        <v>3.140059232711792</v>
+        <v>3.140188455581665</v>
       </c>
     </row>
     <row r="483">
@@ -8283,13 +8283,13 @@
         <v>3.124053955078125</v>
       </c>
       <c r="C483" s="2">
-        <v>3.1361877918243408</v>
+        <v>3.1363255977630615</v>
       </c>
       <c r="D483" s="2">
         <v>3.22096848487854</v>
       </c>
       <c r="E483" s="2">
-        <v>3.1680898666381836</v>
+        <v>3.1681928634643555</v>
       </c>
     </row>
     <row r="484">
@@ -8300,13 +8300,13 @@
         <v>2.9429597854614258</v>
       </c>
       <c r="C484" s="2">
-        <v>2.9017024040222168</v>
+        <v>2.9017481803894043</v>
       </c>
       <c r="D484" s="2">
         <v>3.2778096199035645</v>
       </c>
       <c r="E484" s="2">
-        <v>3.2320141792297363</v>
+        <v>3.2321329116821289</v>
       </c>
     </row>
     <row r="485">
@@ -8317,13 +8317,13 @@
         <v>3.3346970081329346</v>
       </c>
       <c r="C485" s="2">
-        <v>3.3175942897796631</v>
+        <v>3.317795991897583</v>
       </c>
       <c r="D485" s="2">
         <v>3.2976031303405762</v>
       </c>
       <c r="E485" s="2">
-        <v>3.2567911148071289</v>
+        <v>3.2569341659545899</v>
       </c>
     </row>
     <row r="486">
@@ -8334,13 +8334,13 @@
         <v>3.1043403148651123</v>
       </c>
       <c r="C486" s="2">
-        <v>3.0301315784454346</v>
+        <v>3.0304830074310303</v>
       </c>
       <c r="D486" s="2">
         <v>3.2933359146118164</v>
       </c>
       <c r="E486" s="2">
-        <v>3.2525179386138916</v>
+        <v>3.2527205944061279</v>
       </c>
     </row>
     <row r="487">
@@ -8351,13 +8351,13 @@
         <v>3.5411427021026611</v>
       </c>
       <c r="C487" s="2">
-        <v>3.4741361141204834</v>
+        <v>3.4743154048919678</v>
       </c>
       <c r="D487" s="2">
         <v>3.3664484024047852</v>
       </c>
       <c r="E487" s="2">
-        <v>3.3418045043945312</v>
+        <v>3.3420274257659912</v>
       </c>
     </row>
     <row r="488">
@@ -8368,13 +8368,13 @@
         <v>3.7053766250610352</v>
       </c>
       <c r="C488" s="2">
-        <v>3.7474026679992676</v>
+        <v>3.7475318908691406</v>
       </c>
       <c r="D488" s="2">
         <v>3.4156734943389893</v>
       </c>
       <c r="E488" s="2">
-        <v>3.3892068862915039</v>
+        <v>3.3894450664520264</v>
       </c>
     </row>
     <row r="489">
@@ -8385,13 +8385,13 @@
         <v>3.7058470249176025</v>
       </c>
       <c r="C489" s="2">
-        <v>3.6445713043212891</v>
+        <v>3.6446366310119629</v>
       </c>
       <c r="D489" s="2">
         <v>3.4969873428344727</v>
       </c>
       <c r="E489" s="2">
-        <v>3.4777858257293701</v>
+        <v>3.4780104160308838</v>
       </c>
     </row>
     <row r="490">
@@ -8402,13 +8402,13 @@
         <v>3.1306874752044678</v>
       </c>
       <c r="C490" s="2">
-        <v>3.0726075172424316</v>
+        <v>3.0732719898223877</v>
       </c>
       <c r="D490" s="2">
         <v>3.4565737247467041</v>
       </c>
       <c r="E490" s="2">
-        <v>3.4439167976379395</v>
+        <v>3.4441545009613037</v>
       </c>
     </row>
     <row r="491">
@@ -8416,16 +8416,16 @@
         <v>43374</v>
       </c>
       <c r="B491" s="2">
-        <v>3.7089302539825439</v>
+        <v>3.708930253982544</v>
       </c>
       <c r="C491" s="2">
-        <v>3.7519073486328125</v>
+        <v>3.7521388530731201</v>
       </c>
       <c r="D491" s="2">
         <v>3.4550285339355469</v>
       </c>
       <c r="E491" s="2">
-        <v>3.4445459842681885</v>
+        <v>3.444746732711792</v>
       </c>
     </row>
     <row r="492">
@@ -8436,13 +8436,13 @@
         <v>3.5670793056488037</v>
       </c>
       <c r="C492" s="2">
-        <v>3.5628080368041992</v>
+        <v>3.563084602355957</v>
       </c>
       <c r="D492" s="2">
         <v>3.3958930969238281</v>
       </c>
       <c r="E492" s="2">
-        <v>3.388498067855835</v>
+        <v>3.3886568546295166</v>
       </c>
     </row>
     <row r="493">
@@ -8453,13 +8453,13 @@
         <v>3.6747863292694092</v>
       </c>
       <c r="C493" s="2">
-        <v>3.6989126205444336</v>
+        <v>3.6988363265991211</v>
       </c>
       <c r="D493" s="2">
         <v>3.3094384670257568</v>
       </c>
       <c r="E493" s="2">
-        <v>3.2891180515289307</v>
+        <v>3.2892684936523438</v>
       </c>
     </row>
     <row r="494">
@@ -8470,13 +8470,13 @@
         <v>2.9709737300872803</v>
       </c>
       <c r="C494" s="2">
-        <v>3.0127730369567871</v>
+        <v>3.0130922794342041</v>
       </c>
       <c r="D494" s="2">
         <v>3.233849048614502</v>
       </c>
       <c r="E494" s="2">
-        <v>3.2239606380462646</v>
+        <v>3.2241134643554688</v>
       </c>
     </row>
     <row r="495">
@@ -8487,13 +8487,13 @@
         <v>3.0904343128204346</v>
       </c>
       <c r="C495" s="2">
-        <v>3.0357961654663086</v>
+        <v>3.0358119010925293</v>
       </c>
       <c r="D495" s="2">
         <v>3.2887201309204102</v>
       </c>
       <c r="E495" s="2">
-        <v>3.2721574306488037</v>
+        <v>3.2722797393798828</v>
       </c>
     </row>
     <row r="496">
@@ -8504,13 +8504,13 @@
         <v>3.0089230537414551</v>
       </c>
       <c r="C496" s="2">
-        <v>2.9697046279907227</v>
+        <v>2.9695062637329102</v>
       </c>
       <c r="D496" s="2">
         <v>3.278853178024292</v>
       </c>
       <c r="E496" s="2">
-        <v>3.2591023445129395</v>
+        <v>3.2592246532440186</v>
       </c>
     </row>
     <row r="497">
@@ -8521,13 +8521,13 @@
         <v>2.9272847175598145</v>
       </c>
       <c r="C497" s="2">
-        <v>2.8529822826385498</v>
+        <v>2.8530378341674805</v>
       </c>
       <c r="D497" s="2">
         <v>3.277618408203125</v>
       </c>
       <c r="E497" s="2">
-        <v>3.255535364151001</v>
+        <v>3.2556185722351074</v>
       </c>
     </row>
     <row r="498">
@@ -8538,13 +8538,13 @@
         <v>3.025543212890625</v>
       </c>
       <c r="C498" s="2">
-        <v>3.0581550598144531</v>
+        <v>3.0582401752471924</v>
       </c>
       <c r="D498" s="2">
         <v>3.2586498260498047</v>
       </c>
       <c r="E498" s="2">
-        <v>3.2358663082122803</v>
+        <v>3.236015796661377</v>
       </c>
     </row>
     <row r="499">
@@ -8555,13 +8555,13 @@
         <v>3.6245269775390625</v>
       </c>
       <c r="C499" s="2">
-        <v>3.5063784122467041</v>
+        <v>3.5067696571350098</v>
       </c>
       <c r="D499" s="2">
         <v>3.2885701656341553</v>
       </c>
       <c r="E499" s="2">
-        <v>3.263944149017334</v>
+        <v>3.2641074657440186</v>
       </c>
     </row>
     <row r="500">
@@ -8572,13 +8572,13 @@
         <v>3.6201279163360596</v>
       </c>
       <c r="C500" s="2">
-        <v>3.6344113349914551</v>
+        <v>3.6346426010131836</v>
       </c>
       <c r="D500" s="2">
         <v>3.316361665725708</v>
       </c>
       <c r="E500" s="2">
-        <v>3.2718191146850586</v>
+        <v>3.2719955444335938</v>
       </c>
     </row>
     <row r="501">
@@ -8589,13 +8589,13 @@
         <v>3.5559659004211426</v>
       </c>
       <c r="C501" s="2">
-        <v>3.530705451965332</v>
+        <v>3.5306305885314942</v>
       </c>
       <c r="D501" s="2">
         <v>3.3411548137664795</v>
       </c>
       <c r="E501" s="2">
-        <v>3.2999579906463623</v>
+        <v>3.300142765045166</v>
       </c>
     </row>
     <row r="502">
@@ -8606,13 +8606,13 @@
         <v>3.5040690898895264</v>
       </c>
       <c r="C502" s="2">
-        <v>3.5218901634216309</v>
+        <v>3.5224103927612305</v>
       </c>
       <c r="D502" s="2">
         <v>3.3402423858642578</v>
       </c>
       <c r="E502" s="2">
-        <v>3.2883331775665283</v>
+        <v>3.2885258197784424</v>
       </c>
     </row>
     <row r="503">
@@ -8623,13 +8623,13 @@
         <v>3.24025559425354</v>
       </c>
       <c r="C503" s="2">
-        <v>3.2654728889465332</v>
+        <v>3.2659173011779785</v>
       </c>
       <c r="D503" s="2">
         <v>3.3367319107055664</v>
       </c>
       <c r="E503" s="2">
-        <v>3.2869627475738525</v>
+        <v>3.2872030735015869</v>
       </c>
     </row>
     <row r="504">
@@ -8640,13 +8640,13 @@
         <v>3.3405587673187256</v>
       </c>
       <c r="C504" s="2">
-        <v>3.1066718101501465</v>
+        <v>3.1068055629730225</v>
       </c>
       <c r="D504" s="2">
         <v>3.3683757781982422</v>
       </c>
       <c r="E504" s="2">
-        <v>3.333444356918335</v>
+        <v>3.3336482048034668</v>
       </c>
     </row>
     <row r="505">
@@ -8657,13 +8657,13 @@
         <v>3.2320601940155029</v>
       </c>
       <c r="C505" s="2">
-        <v>3.2229535579681396</v>
+        <v>3.2228314876556397</v>
       </c>
       <c r="D505" s="2">
         <v>3.6003420352935791</v>
       </c>
       <c r="E505" s="2">
-        <v>3.5526986122131348</v>
+        <v>3.5528838634490967</v>
       </c>
     </row>
     <row r="506">
@@ -8674,13 +8674,13 @@
         <v>2.9190728664398193</v>
       </c>
       <c r="C506" s="2">
-        <v>2.7483594417572021</v>
+        <v>2.7484853267669678</v>
       </c>
       <c r="D506" s="2">
         <v>3.8552887439727783</v>
       </c>
       <c r="E506" s="2">
-        <v>3.8038148880004883</v>
+        <v>3.8040337562561035</v>
       </c>
     </row>
     <row r="507">
@@ -8688,16 +8688,16 @@
         <v>43862</v>
       </c>
       <c r="B507" s="2">
-        <v>2.9939491748809814</v>
+        <v>2.9939491748809815</v>
       </c>
       <c r="C507" s="2">
-        <v>3.0458207130432129</v>
+        <v>3.0463352203369141</v>
       </c>
       <c r="D507" s="2">
         <v>3.9692280292510986</v>
       </c>
       <c r="E507" s="2">
-        <v>3.909055233001709</v>
+        <v>3.9092090129852295</v>
       </c>
     </row>
     <row r="508">
@@ -8708,13 +8708,13 @@
         <v>3.9093215465545654</v>
       </c>
       <c r="C508" s="2">
-        <v>3.9247140884399414</v>
+        <v>3.9247746467590332</v>
       </c>
       <c r="D508" s="2">
         <v>4.1104598045349121</v>
       </c>
       <c r="E508" s="2">
-        <v>4.0400738716125488</v>
+        <v>4.0401878356933594</v>
       </c>
     </row>
     <row r="509">
@@ -8725,13 +8725,13 @@
         <v>5.70782470703125</v>
       </c>
       <c r="C509" s="2">
-        <v>5.6076993942260742</v>
+        <v>5.6077651977539063</v>
       </c>
       <c r="D509" s="2">
         <v>4.2469882965087891</v>
       </c>
       <c r="E509" s="2">
-        <v>4.2054133415222168</v>
+        <v>4.2054824829101563</v>
       </c>
     </row>
     <row r="510">
@@ -8742,13 +8742,13 @@
         <v>5.850487232208252</v>
       </c>
       <c r="C510" s="2">
-        <v>5.7907524108886719</v>
+        <v>5.7909793853759766</v>
       </c>
       <c r="D510" s="2">
         <v>4.3552389144897461</v>
       </c>
       <c r="E510" s="2">
-        <v>4.3142166137695312</v>
+        <v>4.3143134117126465</v>
       </c>
     </row>
     <row r="511">
@@ -8759,13 +8759,13 @@
         <v>4.5295224189758301</v>
       </c>
       <c r="C511" s="2">
-        <v>4.4690537452697754</v>
+        <v>4.4689865112304688</v>
       </c>
       <c r="D511" s="2">
         <v>4.4503674507141113</v>
       </c>
       <c r="E511" s="2">
-        <v>4.4111604690551758</v>
+        <v>4.4112539291381836</v>
       </c>
     </row>
     <row r="512">
@@ -8776,13 +8776,13 @@
         <v>4.5113420486450195</v>
       </c>
       <c r="C512" s="2">
-        <v>4.4446396827697754</v>
+        <v>4.4447274208068848</v>
       </c>
       <c r="D512" s="2">
         <v>4.5743598937988281</v>
       </c>
       <c r="E512" s="2">
-        <v>4.52978515625</v>
+        <v>4.5298490524291992</v>
       </c>
     </row>
     <row r="513">
@@ -8793,13 +8793,13 @@
         <v>4.5693154335021973</v>
       </c>
       <c r="C513" s="2">
-        <v>4.5947284698486328</v>
+        <v>4.5944585800170899</v>
       </c>
       <c r="D513" s="2">
         <v>4.6378192901611328</v>
       </c>
       <c r="E513" s="2">
-        <v>4.6075320243835449</v>
+        <v>4.607572078704834</v>
       </c>
     </row>
     <row r="514">
@@ -8810,13 +8810,13 @@
         <v>4.2063159942626953</v>
       </c>
       <c r="C514" s="2">
-        <v>4.202181339263916</v>
+        <v>4.2023100852966309</v>
       </c>
       <c r="D514" s="2">
         <v>4.4920592308044434</v>
       </c>
       <c r="E514" s="2">
-        <v>4.4769001007080078</v>
+        <v>4.4769258499145508</v>
       </c>
     </row>
     <row r="515">
@@ -8824,16 +8824,16 @@
         <v>44105</v>
       </c>
       <c r="B515" s="2">
-        <v>3.7752299308776855</v>
+        <v>3.7752299308776856</v>
       </c>
       <c r="C515" s="2">
-        <v>3.6208565235137939</v>
+        <v>3.6209485530853272</v>
       </c>
       <c r="D515" s="2">
         <v>4.3292365074157715</v>
       </c>
       <c r="E515" s="2">
-        <v>4.3217902183532715</v>
+        <v>4.3217391967773438</v>
       </c>
     </row>
     <row r="516">
@@ -8844,13 +8844,13 @@
         <v>4.1098775863647461</v>
       </c>
       <c r="C516" s="2">
-        <v>4.1134400367736816</v>
+        <v>4.1136918067932129</v>
       </c>
       <c r="D516" s="2">
         <v>4.2806987762451172</v>
       </c>
       <c r="E516" s="2">
-        <v>4.2710838317871094</v>
+        <v>4.271024227142334</v>
       </c>
     </row>
     <row r="517">
@@ -8861,13 +8861,13 @@
         <v>4.4804592132568359</v>
       </c>
       <c r="C517" s="2">
-        <v>4.6244373321533203</v>
+        <v>4.6242814064025879</v>
       </c>
       <c r="D517" s="2">
         <v>4.2383441925048828</v>
       </c>
       <c r="E517" s="2">
-        <v>4.2461042404174805</v>
+        <v>4.2460408210754395</v>
       </c>
     </row>
     <row r="518">
@@ -8878,13 +8878,13 @@
         <v>4.3959846496582031</v>
       </c>
       <c r="C518" s="2">
-        <v>4.4320096969604492</v>
+        <v>4.4319500923156738</v>
       </c>
       <c r="D518" s="2">
         <v>4.2485189437866211</v>
       </c>
       <c r="E518" s="2">
-        <v>4.2461452484130859</v>
+        <v>4.246100902557373</v>
       </c>
     </row>
     <row r="519">
@@ -8895,13 +8895,13 @@
         <v>4.3850827217102051</v>
       </c>
       <c r="C519" s="2">
-        <v>4.3947649002075195</v>
+        <v>4.3943004608154297</v>
       </c>
       <c r="D519" s="2">
         <v>4.3535876274108887</v>
       </c>
       <c r="E519" s="2">
-        <v>4.3378324508666992</v>
+        <v>4.3377161026000977</v>
       </c>
     </row>
     <row r="520">
@@ -8912,13 +8912,13 @@
         <v>4.0926823616027832</v>
       </c>
       <c r="C520" s="2">
-        <v>4.012697696685791</v>
+        <v>4.0125484466552734</v>
       </c>
       <c r="D520" s="2">
         <v>4.4861111640930176</v>
       </c>
       <c r="E520" s="2">
-        <v>4.4869904518127441</v>
+        <v>4.4868354797363281</v>
       </c>
     </row>
     <row r="521">
@@ -8929,13 +8929,13 @@
         <v>4.1301479339599609</v>
       </c>
       <c r="C521" s="2">
-        <v>4.2198209762573242</v>
+        <v>4.219876766204834</v>
       </c>
       <c r="D521" s="2">
         <v>4.5787687301635742</v>
       </c>
       <c r="E521" s="2">
-        <v>4.5840177536010742</v>
+        <v>4.5838136672973633</v>
       </c>
     </row>
     <row r="522">
@@ -8946,13 +8946,13 @@
         <v>4.660888671875</v>
       </c>
       <c r="C522" s="2">
-        <v>4.5950989723205566</v>
+        <v>4.5950002670288086</v>
       </c>
       <c r="D522" s="2">
         <v>4.7003388404846191</v>
       </c>
       <c r="E522" s="2">
-        <v>4.6845369338989258</v>
+        <v>4.6843671798706055</v>
       </c>
     </row>
     <row r="523">
@@ -8963,13 +8963,13 @@
         <v>5.1519336700439453</v>
       </c>
       <c r="C523" s="2">
-        <v>5.027367115020752</v>
+        <v>5.0268464088439942</v>
       </c>
       <c r="D523" s="2">
-        <v>4.7933120727539062</v>
+        <v>4.7933120727539063</v>
       </c>
       <c r="E523" s="2">
-        <v>4.7571978569030762</v>
+        <v>4.7569880485534668</v>
       </c>
     </row>
     <row r="524">
@@ -8980,13 +8980,13 @@
         <v>4.9679455757141113</v>
       </c>
       <c r="C524" s="2">
-        <v>4.9632787704467773</v>
+        <v>4.9630246162414551</v>
       </c>
       <c r="D524" s="2">
         <v>4.8824996948242188</v>
       </c>
       <c r="E524" s="2">
-        <v>4.8403148651123047</v>
+        <v>4.8401365280151367</v>
       </c>
     </row>
     <row r="525">
@@ -8997,13 +8997,13 @@
         <v>4.9437952041625977</v>
       </c>
       <c r="C525" s="2">
-        <v>4.9866852760314941</v>
+        <v>4.9864945411682129</v>
       </c>
       <c r="D525" s="2">
         <v>5.0670738220214844</v>
       </c>
       <c r="E525" s="2">
-        <v>5.0418496131896973</v>
+        <v>5.0416626930236817</v>
       </c>
     </row>
     <row r="526">
@@ -9014,13 +9014,13 @@
         <v>5.5745902061462402</v>
       </c>
       <c r="C526" s="2">
-        <v>5.5291094779968262</v>
+        <v>5.5292611122131348</v>
       </c>
       <c r="D526" s="2">
         <v>5.1949796676635742</v>
       </c>
       <c r="E526" s="2">
-        <v>5.1490478515625</v>
+        <v>5.1488308906555176</v>
       </c>
     </row>
     <row r="527">
@@ -9031,13 +9031,13 @@
         <v>5.2327427864074707</v>
       </c>
       <c r="C527" s="2">
-        <v>5.0859589576721191</v>
+        <v>5.0855388641357422</v>
       </c>
       <c r="D527" s="2">
         <v>5.2232699394226074</v>
       </c>
       <c r="E527" s="2">
-        <v>5.1783928871154785</v>
+        <v>5.1782083511352539</v>
       </c>
     </row>
     <row r="528">
@@ -9048,13 +9048,13 @@
         <v>5.1877713203430176</v>
       </c>
       <c r="C528" s="2">
-        <v>5.1428184509277344</v>
+        <v>5.14263916015625</v>
       </c>
       <c r="D528" s="2">
         <v>5.2693939208984375</v>
       </c>
       <c r="E528" s="2">
-        <v>5.2329788208007812</v>
+        <v>5.232841968536377</v>
       </c>
     </row>
     <row r="529">
@@ -9065,13 +9065,13 @@
         <v>5.7538480758666992</v>
       </c>
       <c r="C529" s="2">
-        <v>5.8265085220336914</v>
+        <v>5.8262820243835449</v>
       </c>
       <c r="D529" s="2">
         <v>5.3304028511047363</v>
       </c>
       <c r="E529" s="2">
-        <v>5.2937431335449219</v>
+        <v>5.2936229705810547</v>
       </c>
     </row>
     <row r="530">
@@ -9082,13 +9082,13 @@
         <v>5.2813014984130859</v>
       </c>
       <c r="C530" s="2">
-        <v>5.1846041679382324</v>
+        <v>5.184391975402832</v>
       </c>
       <c r="D530" s="2">
         <v>5.4217104911804199</v>
       </c>
       <c r="E530" s="2">
-        <v>5.387120246887207</v>
+        <v>5.3870062828063965</v>
       </c>
     </row>
     <row r="531">
@@ -9099,13 +9099,13 @@
         <v>4.915501594543457</v>
       </c>
       <c r="C531" s="2">
-        <v>4.8592061996459961</v>
+        <v>4.8593950271606445</v>
       </c>
       <c r="D531" s="2">
         <v>5.4156079292297363</v>
       </c>
       <c r="E531" s="2">
-        <v>5.3799643516540527</v>
+        <v>5.3798189163208008</v>
       </c>
     </row>
     <row r="532">
@@ -9116,13 +9116,13 @@
         <v>5.5670490264892578</v>
       </c>
       <c r="C532" s="2">
-        <v>5.5186376571655273</v>
+        <v>5.5185508728027344</v>
       </c>
       <c r="D532" s="2">
         <v>5.4558911323547363</v>
       </c>
       <c r="E532" s="2">
-        <v>5.4319477081298828</v>
+        <v>5.4318299293518067</v>
       </c>
     </row>
     <row r="533">
@@ -9133,13 +9133,13 @@
         <v>5.5170273780822754</v>
       </c>
       <c r="C533" s="2">
-        <v>5.5101590156555176</v>
+        <v>5.5100526809692383</v>
       </c>
       <c r="D533" s="2">
         <v>5.5727348327636719</v>
       </c>
       <c r="E533" s="2">
-        <v>5.5569548606872559</v>
+        <v>5.5568084716796875</v>
       </c>
     </row>
     <row r="534">
@@ -9150,13 +9150,13 @@
         <v>5.7655625343322754</v>
       </c>
       <c r="C534" s="2">
-        <v>5.8270788192749023</v>
+        <v>5.8269443511962891</v>
       </c>
       <c r="D534" s="2">
         <v>5.6403322219848633</v>
       </c>
       <c r="E534" s="2">
-        <v>5.6117343902587891</v>
+        <v>5.6115603446960449</v>
       </c>
     </row>
     <row r="535">
@@ -9167,13 +9167,13 @@
         <v>5.5196666717529297</v>
       </c>
       <c r="C535" s="2">
-        <v>5.4647088050842285</v>
+        <v>5.4645748138427734</v>
       </c>
       <c r="D535" s="2">
         <v>5.779301643371582</v>
       </c>
       <c r="E535" s="2">
-        <v>5.7385592460632324</v>
+        <v>5.7383866310119629</v>
       </c>
     </row>
     <row r="536">
@@ -9184,13 +9184,13 @@
         <v>5.5952920913696289</v>
       </c>
       <c r="C536" s="2">
-        <v>5.5538063049316406</v>
+        <v>5.5536370277404785</v>
       </c>
       <c r="D536" s="2">
         <v>5.8993611335754395</v>
       </c>
       <c r="E536" s="2">
-        <v>5.8580021858215332</v>
+        <v>5.8577985763549805</v>
       </c>
     </row>
     <row r="537">
@@ -9201,13 +9201,13 @@
         <v>6.2393627166748047</v>
       </c>
       <c r="C537" s="2">
-        <v>6.2678837776184082</v>
+        <v>6.2674484252929688</v>
       </c>
       <c r="D537" s="2">
         <v>5.9830894470214844</v>
       </c>
       <c r="E537" s="2">
-        <v>5.9494748115539551</v>
+        <v>5.9492478370666504</v>
       </c>
     </row>
     <row r="538">
@@ -9218,13 +9218,13 @@
         <v>6.3622269630432129</v>
       </c>
       <c r="C538" s="2">
-        <v>6.3195228576660156</v>
+        <v>6.3190464973449707</v>
       </c>
       <c r="D538" s="2">
         <v>5.9506516456604004</v>
       </c>
       <c r="E538" s="2">
-        <v>5.9224767684936523</v>
+        <v>5.9222936630249024</v>
       </c>
     </row>
     <row r="539">
@@ -9235,13 +9235,13 @@
         <v>6.5320248603820801</v>
       </c>
       <c r="C539" s="2">
-        <v>6.3260312080383301</v>
+        <v>6.3258304595947266</v>
       </c>
       <c r="D539" s="2">
         <v>5.9368720054626465</v>
       </c>
       <c r="E539" s="2">
-        <v>5.9014239311218262</v>
+        <v>5.9012846946716309</v>
       </c>
     </row>
     <row r="540">
@@ -9249,16 +9249,16 @@
         <v>44866</v>
       </c>
       <c r="B540" s="2">
-        <v>5.9960389137268066</v>
+        <v>5.9960389137268067</v>
       </c>
       <c r="C540" s="2">
-        <v>5.9341893196105957</v>
+        <v>5.9341011047363281</v>
       </c>
       <c r="D540" s="2">
         <v>5.94476318359375</v>
       </c>
       <c r="E540" s="2">
-        <v>5.9166607856750488</v>
+        <v>5.9165544509887695</v>
       </c>
     </row>
     <row r="541">
@@ -9269,13 +9269,13 @@
         <v>6.3206038475036621</v>
       </c>
       <c r="C541" s="2">
-        <v>6.3418922424316406</v>
+        <v>6.3415942192077637</v>
       </c>
       <c r="D541" s="2">
         <v>5.9007554054260254</v>
       </c>
       <c r="E541" s="2">
-        <v>5.8647050857543945</v>
+        <v>5.8646402359008789</v>
       </c>
     </row>
     <row r="542">
@@ -9286,13 +9286,13 @@
         <v>5.2250876426696777</v>
       </c>
       <c r="C542" s="2">
-        <v>5.2671775817871094</v>
+        <v>5.2674641609191895</v>
       </c>
       <c r="D542" s="2">
         <v>5.7901620864868164</v>
       </c>
       <c r="E542" s="2">
-        <v>5.7566514015197754</v>
+        <v>5.7566161155700684</v>
       </c>
     </row>
     <row r="543">
@@ -9303,13 +9303,13 @@
         <v>5.641545295715332</v>
       </c>
       <c r="C543" s="2">
-        <v>5.6376047134399414</v>
+        <v>5.6378674507141113</v>
       </c>
       <c r="D543" s="2">
         <v>5.6473541259765625</v>
       </c>
       <c r="E543" s="2">
-        <v>5.6033439636230469</v>
+        <v>5.6033353805541992</v>
       </c>
     </row>
     <row r="544">
@@ -9320,13 +9320,13 @@
         <v>5.5906858444213867</v>
       </c>
       <c r="C544" s="2">
-        <v>5.6018385887145996</v>
+        <v>5.6020016670227051</v>
       </c>
       <c r="D544" s="2">
         <v>5.4985289573669434</v>
       </c>
       <c r="E544" s="2">
-        <v>5.4789199829101562</v>
+        <v>5.4788994789123535</v>
       </c>
     </row>
     <row r="545">
@@ -9337,13 +9337,13 @@
         <v>5.1992244720458984</v>
       </c>
       <c r="C545" s="2">
-        <v>5.0862035751342773</v>
+        <v>5.0864086151123047</v>
       </c>
       <c r="D545" s="2">
         <v>5.3203144073486328</v>
       </c>
       <c r="E545" s="2">
-        <v>5.2995238304138184</v>
+        <v>5.2994413375854492</v>
       </c>
     </row>
     <row r="546">
@@ -9354,13 +9354,13 @@
         <v>5.244020938873291</v>
       </c>
       <c r="C546" s="2">
-        <v>5.2954044342041016</v>
+        <v>5.2952299118041992</v>
       </c>
       <c r="D546" s="2">
-        <v>5.1082072257995605</v>
+        <v>5.1088137626647949</v>
       </c>
       <c r="E546" s="2">
-        <v>5.0793123245239258</v>
+        <v>5.0798897743225098</v>
       </c>
     </row>
     <row r="547">
@@ -9371,13 +9371,13 @@
         <v>5.0769534111022949</v>
       </c>
       <c r="C547" s="2">
-        <v>4.9397544860839844</v>
+        <v>4.9395198822021484</v>
       </c>
       <c r="D547" s="2">
-        <v>5.1008796691894531</v>
+        <v>5.1014866828918457</v>
       </c>
       <c r="E547" s="2">
-        <v>5.0729422569274902</v>
+        <v>5.0734763145446777</v>
       </c>
     </row>
     <row r="548">
@@ -9388,13 +9388,13 @@
         <v>5.1925992965698242</v>
       </c>
       <c r="C548" s="2">
-        <v>5.2062139511108398</v>
+        <v>5.2059078216552734</v>
       </c>
       <c r="D548" s="2">
-        <v>5.0383334159851074</v>
+        <v>5.0389404296875</v>
       </c>
       <c r="E548" s="2">
-        <v>5.0079617500305176</v>
+        <v>5.0084323883056641</v>
       </c>
     </row>
     <row r="549">
@@ -9405,13 +9405,13 @@
         <v>4.3921093940734863</v>
       </c>
       <c r="C549" s="2">
-        <v>4.3196249008178711</v>
+        <v>4.3189768791198731</v>
       </c>
       <c r="D549" s="2">
-        <v>4.9618735313415527</v>
+        <v>4.9624805450439453</v>
       </c>
       <c r="E549" s="2">
-        <v>4.9169697761535645</v>
+        <v>4.9173626899719238</v>
       </c>
     </row>
     <row r="550">
@@ -9419,16 +9419,16 @@
         <v>45170</v>
       </c>
       <c r="B550" s="2">
-        <v>4.4116368293762207</v>
+        <v>4.4170994758605957</v>
       </c>
       <c r="C550" s="2">
-        <v>4.359990119934082</v>
+        <v>4.3656320571899414</v>
       </c>
       <c r="D550" s="2">
-        <v>4.866020679473877</v>
+        <v>4.8666276931762695</v>
       </c>
       <c r="E550" s="2">
-        <v>4.8366093635559082</v>
+        <v>4.8369197845458984</v>
       </c>
     </row>
     <row r="551">
@@ -9439,13 +9439,13 @@
         <v>5.1591434478759766</v>
       </c>
       <c r="C551" s="2">
-        <v>5.2098445892333984</v>
+        <v>5.209742546081543</v>
       </c>
       <c r="D551" s="2">
-        <v>4.8187708854675293</v>
+        <v>4.8695583343505859</v>
       </c>
       <c r="E551" s="2">
-        <v>4.7792596817016602</v>
+        <v>4.8357696533203125</v>
       </c>
     </row>
     <row r="552">
@@ -9456,13 +9456,13 @@
         <v>5.0786275863647461</v>
       </c>
       <c r="C552" s="2">
-        <v>5.0527830123901367</v>
+        <v>5.0524702072143555</v>
       </c>
       <c r="D552" s="2">
-        <v>4.7818875312805176</v>
+        <v>4.8698391914367676</v>
       </c>
       <c r="E552" s="2">
-        <v>4.7563319206237793</v>
+        <v>4.8254880905151367</v>
       </c>
     </row>
     <row r="553">
@@ -9473,13 +9473,13 @@
         <v>4.9025483131408691</v>
       </c>
       <c r="C553" s="2">
-        <v>4.7829089164733887</v>
+        <v>4.7823758125305176</v>
       </c>
       <c r="D553" s="2">
-        <v>4.7134356498718262</v>
+        <v>4.8294939994812012</v>
       </c>
       <c r="E553" s="2">
-        <v>4.6813516616821289</v>
+        <v>4.7779359817504883</v>
       </c>
     </row>
     <row r="554">
@@ -9490,13 +9490,47 @@
         <v>4.3365478515625</v>
       </c>
       <c r="C554" s="2">
-        <v>4.3629589080810547</v>
+        <v>4.3624248504638672</v>
       </c>
       <c r="D554" s="2">
-        <v>4.7777009010314941</v>
+        <v>4.8919777870178223</v>
       </c>
       <c r="E554" s="2">
-        <v>4.7536969184875488</v>
+        <v>4.8435015678405762</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B555" s="2">
+        <v>5.2703976631164551</v>
+      </c>
+      <c r="C555" s="2">
+        <v>5.2848758697509766</v>
+      </c>
+      <c r="D555" s="2">
+        <v>4.9711241722106934</v>
+      </c>
+      <c r="E555" s="2">
+        <v>4.9231462478637695</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B556" s="2">
+        <v>5.0794796943664551</v>
+      </c>
+      <c r="C556" s="2">
+        <v>4.8469882011413574</v>
+      </c>
+      <c r="D556" s="2">
+        <v>4.9335203170776367</v>
+      </c>
+      <c r="E556" s="2">
+        <v>4.8658270835876465</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_stdev.xlsx
+++ b/MSC_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E556"/>
+  <dimension ref="A1:E561"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,13 +106,13 @@
         <v>3.9173924922943115</v>
       </c>
       <c r="C2" s="2">
-        <v>3.9266879558563232</v>
+        <v>3.9267470836639404</v>
       </c>
       <c r="D2" s="2">
         <v>4.3444499969482422</v>
       </c>
       <c r="E2" s="2">
-        <v>4.3455443382263184</v>
+        <v>4.3455934524536133</v>
       </c>
     </row>
     <row r="3">
@@ -123,13 +123,13 @@
         <v>4.6166448593139648</v>
       </c>
       <c r="C3" s="2">
-        <v>4.5757017135620117</v>
+        <v>4.5758876800537109</v>
       </c>
       <c r="D3" s="2">
         <v>4.3426127433776856</v>
       </c>
       <c r="E3" s="2">
-        <v>4.340972900390625</v>
+        <v>4.3410120010375977</v>
       </c>
     </row>
     <row r="4">
@@ -140,13 +140,13 @@
         <v>4.3726387023925781</v>
       </c>
       <c r="C4" s="2">
-        <v>4.4126501083374023</v>
+        <v>4.4124965667724609</v>
       </c>
       <c r="D4" s="2">
         <v>4.3223543167114258</v>
       </c>
       <c r="E4" s="2">
-        <v>4.3225998878479004</v>
+        <v>4.3226337432861328</v>
       </c>
     </row>
     <row r="5">
@@ -157,13 +157,13 @@
         <v>4.0475072860717773</v>
       </c>
       <c r="C5" s="2">
-        <v>4.0789036750793457</v>
+        <v>4.0787997245788574</v>
       </c>
       <c r="D5" s="2">
         <v>4.3720974922180176</v>
       </c>
       <c r="E5" s="2">
-        <v>4.3660001754760742</v>
+        <v>4.3660540580749512</v>
       </c>
     </row>
     <row r="6">
@@ -174,13 +174,13 @@
         <v>4.76806640625</v>
       </c>
       <c r="C6" s="2">
-        <v>4.7337775230407715</v>
+        <v>4.7340364456176758</v>
       </c>
       <c r="D6" s="2">
         <v>4.3931341171264648</v>
       </c>
       <c r="E6" s="2">
-        <v>4.3919782638549805</v>
+        <v>4.3920168876647949</v>
       </c>
     </row>
     <row r="7">
@@ -191,13 +191,13 @@
         <v>4.3334264755249024</v>
       </c>
       <c r="C7" s="2">
-        <v>4.3181166648864746</v>
+        <v>4.3181056976318359</v>
       </c>
       <c r="D7" s="2">
         <v>4.4254779815673828</v>
       </c>
       <c r="E7" s="2">
-        <v>4.4277639389038086</v>
+        <v>4.4277920722961426</v>
       </c>
     </row>
     <row r="8">
@@ -208,13 +208,13 @@
         <v>4.2008047103881836</v>
       </c>
       <c r="C8" s="2">
-        <v>4.2123613357543945</v>
+        <v>4.2123641967773438</v>
       </c>
       <c r="D8" s="2">
         <v>4.3980436325073242</v>
       </c>
       <c r="E8" s="2">
-        <v>4.4109973907470703</v>
+        <v>4.4110245704650879</v>
       </c>
     </row>
     <row r="9">
@@ -225,13 +225,13 @@
         <v>4.7202978134155273</v>
       </c>
       <c r="C9" s="2">
-        <v>4.6698017120361328</v>
+        <v>4.6699948310852051</v>
       </c>
       <c r="D9" s="2">
         <v>4.3640079498291016</v>
       </c>
       <c r="E9" s="2">
-        <v>4.379427433013916</v>
+        <v>4.3794965744018555</v>
       </c>
     </row>
     <row r="10">
@@ -242,13 +242,13 @@
         <v>4.5614290237426758</v>
       </c>
       <c r="C10" s="2">
-        <v>4.5998034477233887</v>
+        <v>4.5997209548950195</v>
       </c>
       <c r="D10" s="2">
         <v>4.3777251243591309</v>
       </c>
       <c r="E10" s="2">
-        <v>4.3892531394958496</v>
+        <v>4.3893370628356934</v>
       </c>
     </row>
     <row r="11">
@@ -259,13 +259,13 @@
         <v>4.2084870338439942</v>
       </c>
       <c r="C11" s="2">
-        <v>4.2487583160400391</v>
+        <v>4.2487239837646484</v>
       </c>
       <c r="D11" s="2">
         <v>4.3681507110595703</v>
       </c>
       <c r="E11" s="2">
-        <v>4.3831324577331543</v>
+        <v>4.3831934928894043</v>
       </c>
     </row>
     <row r="12">
@@ -276,13 +276,13 @@
         <v>4.3697357177734375</v>
       </c>
       <c r="C12" s="2">
-        <v>4.424802303314209</v>
+        <v>4.4249773025512695</v>
       </c>
       <c r="D12" s="2">
         <v>4.3958420753479004</v>
       </c>
       <c r="E12" s="2">
-        <v>4.414954662322998</v>
+        <v>4.4150190353393555</v>
       </c>
     </row>
     <row r="13">
@@ -293,13 +293,13 @@
         <v>4.0663175582885742</v>
       </c>
       <c r="C13" s="2">
-        <v>4.1285228729248047</v>
+        <v>4.1287469863891602</v>
       </c>
       <c r="D13" s="2">
         <v>4.4586381912231445</v>
       </c>
       <c r="E13" s="2">
-        <v>4.4722590446472168</v>
+        <v>4.4723343849182129</v>
       </c>
     </row>
     <row r="14">
@@ -310,13 +310,13 @@
         <v>4.17095947265625</v>
       </c>
       <c r="C14" s="2">
-        <v>4.1673336029052734</v>
+        <v>4.1673617362976074</v>
       </c>
       <c r="D14" s="2">
         <v>4.494420051574707</v>
       </c>
       <c r="E14" s="2">
-        <v>4.5144424438476563</v>
+        <v>4.5145115852355957</v>
       </c>
     </row>
     <row r="15">
@@ -327,13 +327,13 @@
         <v>4.6818990707397461</v>
       </c>
       <c r="C15" s="2">
-        <v>4.6786932945251465</v>
+        <v>4.6787457466125488</v>
       </c>
       <c r="D15" s="2">
         <v>4.5557160377502441</v>
       </c>
       <c r="E15" s="2">
-        <v>4.5678377151489258</v>
+        <v>4.5679311752319336</v>
       </c>
     </row>
     <row r="16">
@@ -344,13 +344,13 @@
         <v>4.5826473236083984</v>
       </c>
       <c r="C16" s="2">
-        <v>4.6045150756835938</v>
+        <v>4.6045370101928711</v>
       </c>
       <c r="D16" s="2">
         <v>4.6873102188110352</v>
       </c>
       <c r="E16" s="2">
-        <v>4.6933565139770508</v>
+        <v>4.6934671401977539</v>
       </c>
     </row>
     <row r="17">
@@ -361,13 +361,13 @@
         <v>4.7659707069396973</v>
       </c>
       <c r="C17" s="2">
-        <v>4.7280988693237305</v>
+        <v>4.7282018661499023</v>
       </c>
       <c r="D17" s="2">
         <v>4.7952098846435547</v>
       </c>
       <c r="E17" s="2">
-        <v>4.7860021591186523</v>
+        <v>4.7861084938049317</v>
       </c>
     </row>
     <row r="18">
@@ -378,13 +378,13 @@
         <v>5.0423345565795898</v>
       </c>
       <c r="C18" s="2">
-        <v>5.0494532585144043</v>
+        <v>5.0495896339416504</v>
       </c>
       <c r="D18" s="2">
         <v>4.9091219902038574</v>
       </c>
       <c r="E18" s="2">
-        <v>4.8980646133422852</v>
+        <v>4.8981451988220215</v>
       </c>
     </row>
     <row r="19">
@@ -395,13 +395,13 @@
         <v>5.1130948066711426</v>
       </c>
       <c r="C19" s="2">
-        <v>5.0803613662719727</v>
+        <v>5.0804977416992188</v>
       </c>
       <c r="D19" s="2">
         <v>5.001920223236084</v>
       </c>
       <c r="E19" s="2">
-        <v>4.9941644668579102</v>
+        <v>4.9942502975463867</v>
       </c>
     </row>
     <row r="20">
@@ -412,13 +412,13 @@
         <v>5.3928313255310059</v>
       </c>
       <c r="C20" s="2">
-        <v>5.3784279823303223</v>
+        <v>5.3785462379455566</v>
       </c>
       <c r="D20" s="2">
         <v>5.0828590393066406</v>
       </c>
       <c r="E20" s="2">
-        <v>5.0796627998352051</v>
+        <v>5.0797390937805176</v>
       </c>
     </row>
     <row r="21">
@@ -429,13 +429,13 @@
         <v>5.3408327102661133</v>
       </c>
       <c r="C21" s="2">
-        <v>5.2586140632629395</v>
+        <v>5.2587499618530273</v>
       </c>
       <c r="D21" s="2">
         <v>5.1690950393676758</v>
       </c>
       <c r="E21" s="2">
-        <v>5.1579198837280274</v>
+        <v>5.1580028533935547</v>
       </c>
     </row>
     <row r="22">
@@ -446,13 +446,13 @@
         <v>5.0915274620056152</v>
       </c>
       <c r="C22" s="2">
-        <v>5.1370820999145508</v>
+        <v>5.1370754241943359</v>
       </c>
       <c r="D22" s="2">
         <v>5.2162694931030273</v>
       </c>
       <c r="E22" s="2">
-        <v>5.2103304862976074</v>
+        <v>5.2104082107543945</v>
       </c>
     </row>
     <row r="23">
@@ -463,13 +463,13 @@
         <v>5.0061426162719727</v>
       </c>
       <c r="C23" s="2">
-        <v>5.0322351455688477</v>
+        <v>5.0323076248168945</v>
       </c>
       <c r="D23" s="2">
         <v>5.2282333374023438</v>
       </c>
       <c r="E23" s="2">
-        <v>5.2223396301269531</v>
+        <v>5.222414493560791</v>
       </c>
     </row>
     <row r="24">
@@ -480,13 +480,13 @@
         <v>5.4103512763977051</v>
       </c>
       <c r="C24" s="2">
-        <v>5.4481759071350098</v>
+        <v>5.4481468200683594</v>
       </c>
       <c r="D24" s="2">
         <v>5.3616595268249512</v>
       </c>
       <c r="E24" s="2">
-        <v>5.3423175811767578</v>
+        <v>5.3423662185668945</v>
       </c>
     </row>
     <row r="25">
@@ -497,13 +497,13 @@
         <v>5.3587679862976074</v>
       </c>
       <c r="C25" s="2">
-        <v>5.3088297843933106</v>
+        <v>5.3089089393615723</v>
       </c>
       <c r="D25" s="2">
         <v>5.5079197883605957</v>
       </c>
       <c r="E25" s="2">
-        <v>5.4936051368713379</v>
+        <v>5.4936671257019043</v>
       </c>
     </row>
     <row r="26">
@@ -514,13 +514,13 @@
         <v>5.1905431747436524</v>
       </c>
       <c r="C26" s="2">
-        <v>5.1997928619384766</v>
+        <v>5.1998519897460938</v>
       </c>
       <c r="D26" s="2">
         <v>5.655947208404541</v>
       </c>
       <c r="E26" s="2">
-        <v>5.6434669494628906</v>
+        <v>5.6435012817382813</v>
       </c>
     </row>
     <row r="27">
@@ -531,13 +531,13 @@
         <v>5.1500072479248047</v>
       </c>
       <c r="C27" s="2">
-        <v>5.1575384140014649</v>
+        <v>5.1576442718505859</v>
       </c>
       <c r="D27" s="2">
         <v>5.7809267044067383</v>
       </c>
       <c r="E27" s="2">
-        <v>5.7614083290100098</v>
+        <v>5.7614555358886719</v>
       </c>
     </row>
     <row r="28">
@@ -548,13 +548,13 @@
         <v>6.3139305114746094</v>
       </c>
       <c r="C28" s="2">
-        <v>6.1601619720458984</v>
+        <v>6.1600661277770996</v>
       </c>
       <c r="D28" s="2">
         <v>5.8828501701354981</v>
       </c>
       <c r="E28" s="2">
-        <v>5.8618345260620117</v>
+        <v>5.8618817329406738</v>
       </c>
     </row>
     <row r="29">
@@ -565,13 +565,13 @@
         <v>6.7091741561889649</v>
       </c>
       <c r="C29" s="2">
-        <v>6.7400178909301758</v>
+        <v>6.7402539253234863</v>
       </c>
       <c r="D29" s="2">
         <v>5.8739819526672363</v>
       </c>
       <c r="E29" s="2">
-        <v>5.8568735122680664</v>
+        <v>5.8569126129150391</v>
       </c>
     </row>
     <row r="30">
@@ -582,13 +582,13 @@
         <v>6.6730799674987793</v>
       </c>
       <c r="C30" s="2">
-        <v>6.6073689460754395</v>
+        <v>6.6072554588317871</v>
       </c>
       <c r="D30" s="2">
         <v>5.9001255035400391</v>
       </c>
       <c r="E30" s="2">
-        <v>5.8882241249084473</v>
+        <v>5.8882713317871094</v>
       </c>
     </row>
     <row r="31">
@@ -599,13 +599,13 @@
         <v>6.216341495513916</v>
       </c>
       <c r="C31" s="2">
-        <v>6.1985535621643067</v>
+        <v>6.1986665725708008</v>
       </c>
       <c r="D31" s="2">
         <v>5.9874348640441895</v>
       </c>
       <c r="E31" s="2">
-        <v>5.9786734580993652</v>
+        <v>5.9787173271179199</v>
       </c>
     </row>
     <row r="32">
@@ -616,13 +616,13 @@
         <v>5.9234542846679688</v>
       </c>
       <c r="C32" s="2">
-        <v>5.936072826385498</v>
+        <v>5.9361424446105957</v>
       </c>
       <c r="D32" s="2">
         <v>6.0610661506652832</v>
       </c>
       <c r="E32" s="2">
-        <v>6.0485324859619141</v>
+        <v>6.0485634803771973</v>
       </c>
     </row>
     <row r="33">
@@ -633,13 +633,13 @@
         <v>5.3305401802062988</v>
       </c>
       <c r="C33" s="2">
-        <v>5.4035258293151855</v>
+        <v>5.4034252166748047</v>
       </c>
       <c r="D33" s="2">
         <v>6.0170836448669434</v>
       </c>
       <c r="E33" s="2">
-        <v>6.0093016624450684</v>
+        <v>6.0093350410461426</v>
       </c>
     </row>
     <row r="34">
@@ -650,13 +650,13 @@
         <v>5.5940604209899902</v>
       </c>
       <c r="C34" s="2">
-        <v>5.5909829139709473</v>
+        <v>5.5911369323730469</v>
       </c>
       <c r="D34" s="2">
         <v>5.9141139984130859</v>
       </c>
       <c r="E34" s="2">
-        <v>5.9050087928771973</v>
+        <v>5.9050188064575195</v>
       </c>
     </row>
     <row r="35">
@@ -667,13 +667,13 @@
         <v>5.9763264656066895</v>
       </c>
       <c r="C35" s="2">
-        <v>6.0138368606567383</v>
+        <v>6.0138645172119141</v>
       </c>
       <c r="D35" s="2">
         <v>5.7950410842895508</v>
       </c>
       <c r="E35" s="2">
-        <v>5.7962613105773926</v>
+        <v>5.7962989807128906</v>
       </c>
     </row>
     <row r="36">
@@ -684,13 +684,13 @@
         <v>5.812687873840332</v>
       </c>
       <c r="C36" s="2">
-        <v>5.7862715721130371</v>
+        <v>5.786259651184082</v>
       </c>
       <c r="D36" s="2">
         <v>5.7436814308166504</v>
       </c>
       <c r="E36" s="2">
-        <v>5.7247967720031738</v>
+        <v>5.7248682975769043</v>
       </c>
     </row>
     <row r="37">
@@ -701,13 +701,13 @@
         <v>5.9180879592895508</v>
       </c>
       <c r="C37" s="2">
-        <v>5.8070855140686035</v>
+        <v>5.8070087432861328</v>
       </c>
       <c r="D37" s="2">
         <v>5.7534322738647461</v>
       </c>
       <c r="E37" s="2">
-        <v>5.7357053756713867</v>
+        <v>5.73577880859375</v>
       </c>
     </row>
     <row r="38">
@@ -718,13 +718,13 @@
         <v>5.7824473381042481</v>
       </c>
       <c r="C38" s="2">
-        <v>5.8013815879821777</v>
+        <v>5.8014092445373535</v>
       </c>
       <c r="D38" s="2">
         <v>5.7924013137817383</v>
       </c>
       <c r="E38" s="2">
-        <v>5.7629852294921875</v>
+        <v>5.7630486488342285</v>
       </c>
     </row>
     <row r="39">
@@ -735,13 +735,13 @@
         <v>5.6014218330383301</v>
       </c>
       <c r="C39" s="2">
-        <v>5.6286396980285645</v>
+        <v>5.6287775039672852</v>
       </c>
       <c r="D39" s="2">
         <v>5.7983555793762207</v>
       </c>
       <c r="E39" s="2">
-        <v>5.7645025253295898</v>
+        <v>5.7645249366760254</v>
       </c>
     </row>
     <row r="40">
@@ -752,13 +752,13 @@
         <v>5.7541046142578125</v>
       </c>
       <c r="C40" s="2">
-        <v>5.5553755760192871</v>
+        <v>5.5557918548583984</v>
       </c>
       <c r="D40" s="2">
         <v>5.7396688461303711</v>
       </c>
       <c r="E40" s="2">
-        <v>5.7078142166137695</v>
+        <v>5.7078628540039063</v>
       </c>
     </row>
     <row r="41">
@@ -769,13 +769,13 @@
         <v>6.0112128257751465</v>
       </c>
       <c r="C41" s="2">
-        <v>6.034247875213623</v>
+        <v>6.0343341827392578</v>
       </c>
       <c r="D41" s="2">
         <v>5.7314720153808594</v>
       </c>
       <c r="E41" s="2">
-        <v>5.7035822868347168</v>
+        <v>5.7036476135253906</v>
       </c>
     </row>
     <row r="42">
@@ -786,13 +786,13 @@
         <v>5.6812634468078613</v>
       </c>
       <c r="C42" s="2">
-        <v>5.6490435600280762</v>
+        <v>5.6488552093505859</v>
       </c>
       <c r="D42" s="2">
         <v>5.7334041595458984</v>
       </c>
       <c r="E42" s="2">
-        <v>5.7032170295715332</v>
+        <v>5.7032861709594727</v>
       </c>
     </row>
     <row r="43">
@@ -803,13 +803,13 @@
         <v>5.6476459503173828</v>
       </c>
       <c r="C43" s="2">
-        <v>5.6046404838562012</v>
+        <v>5.6044225692749024</v>
       </c>
       <c r="D43" s="2">
         <v>5.7263574600219727</v>
       </c>
       <c r="E43" s="2">
-        <v>5.6828017234802246</v>
+        <v>5.6828899383544922</v>
       </c>
     </row>
     <row r="44">
@@ -820,13 +820,13 @@
         <v>5.4481496810913086</v>
       </c>
       <c r="C44" s="2">
-        <v>5.5036416053771973</v>
+        <v>5.50390625</v>
       </c>
       <c r="D44" s="2">
         <v>5.7394461631774902</v>
       </c>
       <c r="E44" s="2">
-        <v>5.6894850730895996</v>
+        <v>5.6895408630371094</v>
       </c>
     </row>
     <row r="45">
@@ -837,13 +837,13 @@
         <v>5.7389159202575684</v>
       </c>
       <c r="C45" s="2">
-        <v>5.7481842041015625</v>
+        <v>5.7483210563659668</v>
       </c>
       <c r="D45" s="2">
         <v>5.7987289428710938</v>
       </c>
       <c r="E45" s="2">
-        <v>5.7610630989074707</v>
+        <v>5.761075496673584</v>
       </c>
     </row>
     <row r="46">
@@ -854,13 +854,13 @@
         <v>5.9354772567749023</v>
       </c>
       <c r="C46" s="2">
-        <v>5.8037967681884766</v>
+        <v>5.8037586212158203</v>
       </c>
       <c r="D46" s="2">
         <v>5.719050407409668</v>
       </c>
       <c r="E46" s="2">
-        <v>5.6799774169921875</v>
+        <v>5.6799764633178711</v>
       </c>
     </row>
     <row r="47">
@@ -871,13 +871,13 @@
         <v>5.7190256118774414</v>
       </c>
       <c r="C47" s="2">
-        <v>5.617647647857666</v>
+        <v>5.6178431510925293</v>
       </c>
       <c r="D47" s="2">
         <v>5.6907224655151367</v>
       </c>
       <c r="E47" s="2">
-        <v>5.6520519256591797</v>
+        <v>5.6521015167236328</v>
       </c>
     </row>
     <row r="48">
@@ -888,13 +888,13 @@
         <v>5.7192182540893555</v>
       </c>
       <c r="C48" s="2">
-        <v>5.6887869834899902</v>
+        <v>5.6886358261108398</v>
       </c>
       <c r="D48" s="2">
         <v>5.6798882484436035</v>
       </c>
       <c r="E48" s="2">
-        <v>5.6324529647827149</v>
+        <v>5.6325397491455078</v>
       </c>
     </row>
     <row r="49">
@@ -905,13 +905,13 @@
         <v>6.2876520156860352</v>
       </c>
       <c r="C49" s="2">
-        <v>6.1995797157287598</v>
+        <v>6.1996035575866699</v>
       </c>
       <c r="D49" s="2">
         <v>5.7535262107849121</v>
       </c>
       <c r="E49" s="2">
-        <v>5.6936845779418945</v>
+        <v>5.6937432289123535</v>
       </c>
     </row>
     <row r="50">
@@ -922,13 +922,13 @@
         <v>5.2941045761108398</v>
       </c>
       <c r="C50" s="2">
-        <v>5.304476261138916</v>
+        <v>5.3044438362121582</v>
       </c>
       <c r="D50" s="2">
         <v>5.7474493980407715</v>
       </c>
       <c r="E50" s="2">
-        <v>5.6786723136901856</v>
+        <v>5.678715705871582</v>
       </c>
     </row>
     <row r="51">
@@ -939,13 +939,13 @@
         <v>5.4263134002685547</v>
       </c>
       <c r="C51" s="2">
-        <v>5.3977136611938477</v>
+        <v>5.3979792594909668</v>
       </c>
       <c r="D51" s="2">
         <v>5.7395920753479004</v>
       </c>
       <c r="E51" s="2">
-        <v>5.6786527633666992</v>
+        <v>5.6786985397338867</v>
       </c>
     </row>
     <row r="52">
@@ -956,13 +956,13 @@
         <v>5.5501360893249512</v>
       </c>
       <c r="C52" s="2">
-        <v>5.4282512664794922</v>
+        <v>5.4283676147460938</v>
       </c>
       <c r="D52" s="2">
         <v>5.6856269836425781</v>
       </c>
       <c r="E52" s="2">
-        <v>5.6319928169250488</v>
+        <v>5.6320419311523438</v>
       </c>
     </row>
     <row r="53">
@@ -973,13 +973,13 @@
         <v>6.1108942031860352</v>
       </c>
       <c r="C53" s="2">
-        <v>6.0547242164611816</v>
+        <v>6.0547375679016113</v>
       </c>
       <c r="D53" s="2">
         <v>5.6655492782592774</v>
       </c>
       <c r="E53" s="2">
-        <v>5.5989465713500977</v>
+        <v>5.5989894866943359</v>
       </c>
     </row>
     <row r="54">
@@ -990,13 +990,13 @@
         <v>5.6842246055603027</v>
       </c>
       <c r="C54" s="2">
-        <v>5.6130752563476563</v>
+        <v>5.6130728721618652</v>
       </c>
       <c r="D54" s="2">
         <v>5.5611786842346191</v>
       </c>
       <c r="E54" s="2">
-        <v>5.5078496932983398</v>
+        <v>5.5078902244567871</v>
       </c>
     </row>
     <row r="55">
@@ -1007,13 +1007,13 @@
         <v>5.8647608757019043</v>
       </c>
       <c r="C55" s="2">
-        <v>5.8036198616027832</v>
+        <v>5.8036041259765625</v>
       </c>
       <c r="D55" s="2">
         <v>5.6205921173095703</v>
       </c>
       <c r="E55" s="2">
-        <v>5.5604071617126465</v>
+        <v>5.5604691505432129</v>
       </c>
     </row>
     <row r="56">
@@ -1024,13 +1024,13 @@
         <v>5.2333388328552246</v>
       </c>
       <c r="C56" s="2">
-        <v>5.1977095603942871</v>
+        <v>5.1979312896728516</v>
       </c>
       <c r="D56" s="2">
         <v>5.6678867340087891</v>
       </c>
       <c r="E56" s="2">
-        <v>5.5946474075317383</v>
+        <v>5.5946826934814453</v>
       </c>
     </row>
     <row r="57">
@@ -1041,13 +1041,13 @@
         <v>5.5385169982910156</v>
       </c>
       <c r="C57" s="2">
-        <v>5.3913707733154297</v>
+        <v>5.3911638259887695</v>
       </c>
       <c r="D57" s="2">
         <v>5.634124755859375</v>
       </c>
       <c r="E57" s="2">
-        <v>5.5541548728942871</v>
+        <v>5.5541386604309082</v>
       </c>
     </row>
     <row r="58">
@@ -1058,13 +1058,13 @@
         <v>5.3483180999755859</v>
       </c>
       <c r="C58" s="2">
-        <v>5.3797059059143066</v>
+        <v>5.3797097206115723</v>
       </c>
       <c r="D58" s="2">
         <v>5.4743690490722656</v>
       </c>
       <c r="E58" s="2">
-        <v>5.4062585830688477</v>
+        <v>5.4062762260437012</v>
       </c>
     </row>
     <row r="59">
@@ -1075,13 +1075,13 @@
         <v>5.8288273811340332</v>
       </c>
       <c r="C59" s="2">
-        <v>5.7774958610534668</v>
+        <v>5.7776551246643067</v>
       </c>
       <c r="D59" s="2">
         <v>5.4098186492919922</v>
       </c>
       <c r="E59" s="2">
-        <v>5.3460946083068848</v>
+        <v>5.3460712432861328</v>
       </c>
     </row>
     <row r="60">
@@ -1092,13 +1092,13 @@
         <v>5.8519649505615234</v>
       </c>
       <c r="C60" s="2">
-        <v>5.7058725357055664</v>
+        <v>5.705902099609375</v>
       </c>
       <c r="D60" s="2">
         <v>5.3264899253845215</v>
       </c>
       <c r="E60" s="2">
-        <v>5.2746925354003906</v>
+        <v>5.2746820449829102</v>
       </c>
     </row>
     <row r="61">
@@ -1109,13 +1109,13 @@
         <v>5.2462759017944336</v>
       </c>
       <c r="C61" s="2">
-        <v>5.0638198852539063</v>
+        <v>5.0634713172912598</v>
       </c>
       <c r="D61" s="2">
         <v>5.238349437713623</v>
       </c>
       <c r="E61" s="2">
-        <v>5.1912498474121094</v>
+        <v>5.1912202835083008</v>
       </c>
     </row>
     <row r="62">
@@ -1126,13 +1126,13 @@
         <v>4.6730952262878418</v>
       </c>
       <c r="C62" s="2">
-        <v>4.7236576080322266</v>
+        <v>4.7239756584167481</v>
       </c>
       <c r="D62" s="2">
         <v>5.1381845474243164</v>
       </c>
       <c r="E62" s="2">
-        <v>5.0967378616333008</v>
+        <v>5.0967397689819336</v>
       </c>
     </row>
     <row r="63">
@@ -1143,13 +1143,13 @@
         <v>5.1032705307006836</v>
       </c>
       <c r="C63" s="2">
-        <v>5.0715994834899902</v>
+        <v>5.0712270736694336</v>
       </c>
       <c r="D63" s="2">
         <v>5.0074877738952637</v>
       </c>
       <c r="E63" s="2">
-        <v>4.964747428894043</v>
+        <v>4.964759349822998</v>
       </c>
     </row>
     <row r="64">
@@ -1160,13 +1160,13 @@
         <v>5.1148004531860352</v>
       </c>
       <c r="C64" s="2">
-        <v>5.1610007286071777</v>
+        <v>5.1611042022705078</v>
       </c>
       <c r="D64" s="2">
         <v>4.8893857002258301</v>
       </c>
       <c r="E64" s="2">
-        <v>4.8550868034362793</v>
+        <v>4.855069637298584</v>
       </c>
     </row>
     <row r="65">
@@ -1177,13 +1177,13 @@
         <v>4.4400773048400879</v>
       </c>
       <c r="C65" s="2">
-        <v>4.4467248916625977</v>
+        <v>4.4467716217041016</v>
       </c>
       <c r="D65" s="2">
         <v>4.7622103691101074</v>
       </c>
       <c r="E65" s="2">
-        <v>4.7461228370666504</v>
+        <v>4.7460780143737793</v>
       </c>
     </row>
     <row r="66">
@@ -1194,13 +1194,13 @@
         <v>4.6370310783386231</v>
       </c>
       <c r="C66" s="2">
-        <v>4.5407629013061523</v>
+        <v>4.5408411026000977</v>
       </c>
       <c r="D66" s="2">
         <v>4.6887083053588867</v>
       </c>
       <c r="E66" s="2">
-        <v>4.6929812431335449</v>
+        <v>4.6929788589477539</v>
       </c>
     </row>
     <row r="67">
@@ -1211,13 +1211,13 @@
         <v>4.1720466613769531</v>
       </c>
       <c r="C67" s="2">
-        <v>4.1917934417724609</v>
+        <v>4.1918864250183105</v>
       </c>
       <c r="D67" s="2">
         <v>4.7258806228637695</v>
       </c>
       <c r="E67" s="2">
-        <v>4.7242646217346191</v>
+        <v>4.7242512702941895</v>
       </c>
     </row>
     <row r="68">
@@ -1228,13 +1228,13 @@
         <v>4.7659111022949219</v>
       </c>
       <c r="C68" s="2">
-        <v>4.7905497550964356</v>
+        <v>4.7904458045959473</v>
       </c>
       <c r="D68" s="2">
         <v>4.6892385482788086</v>
       </c>
       <c r="E68" s="2">
-        <v>4.6828961372375488</v>
+        <v>4.6829519271850586</v>
       </c>
     </row>
     <row r="69">
@@ -1245,13 +1245,13 @@
         <v>4.7073850631713867</v>
       </c>
       <c r="C69" s="2">
-        <v>4.7251987457275391</v>
+        <v>4.7249798774719238</v>
       </c>
       <c r="D69" s="2">
         <v>4.6410598754882813</v>
       </c>
       <c r="E69" s="2">
-        <v>4.628725528717041</v>
+        <v>4.6287751197814942</v>
       </c>
     </row>
     <row r="70">
@@ -1262,13 +1262,13 @@
         <v>4.5847554206848145</v>
       </c>
       <c r="C70" s="2">
-        <v>4.5855436325073242</v>
+        <v>4.5855789184570313</v>
       </c>
       <c r="D70" s="2">
         <v>4.6104984283447266</v>
       </c>
       <c r="E70" s="2">
-        <v>4.5954289436340332</v>
+        <v>4.5954880714416504</v>
       </c>
     </row>
     <row r="71">
@@ -1279,13 +1279,13 @@
         <v>5.0076484680175781</v>
       </c>
       <c r="C71" s="2">
-        <v>5.0052099227905274</v>
+        <v>5.0054264068603516</v>
       </c>
       <c r="D71" s="2">
         <v>4.5841484069824219</v>
       </c>
       <c r="E71" s="2">
-        <v>4.5744624137878418</v>
+        <v>4.5745201110839844</v>
       </c>
     </row>
     <row r="72">
@@ -1296,13 +1296,13 @@
         <v>4.773491382598877</v>
       </c>
       <c r="C72" s="2">
-        <v>4.6992812156677246</v>
+        <v>4.6995334625244141</v>
       </c>
       <c r="D72" s="2">
         <v>4.6379852294921875</v>
       </c>
       <c r="E72" s="2">
-        <v>4.6242942810058594</v>
+        <v>4.6243782043457031</v>
       </c>
     </row>
     <row r="73">
@@ -1313,13 +1313,13 @@
         <v>4.6811914443969727</v>
       </c>
       <c r="C73" s="2">
-        <v>4.6734633445739746</v>
+        <v>4.6735105514526367</v>
       </c>
       <c r="D73" s="2">
         <v>4.6563220024108887</v>
       </c>
       <c r="E73" s="2">
-        <v>4.6253461837768555</v>
+        <v>4.6254444122314453</v>
       </c>
     </row>
     <row r="74">
@@ -1330,13 +1330,13 @@
         <v>4.1650247573852539</v>
       </c>
       <c r="C74" s="2">
-        <v>4.1470589637756348</v>
+        <v>4.1471900939941406</v>
       </c>
       <c r="D74" s="2">
         <v>4.6488223075866699</v>
       </c>
       <c r="E74" s="2">
-        <v>4.6229128837585449</v>
+        <v>4.6230525970458984</v>
       </c>
     </row>
     <row r="75">
@@ -1347,13 +1347,13 @@
         <v>4.3998832702636719</v>
       </c>
       <c r="C75" s="2">
-        <v>4.3520607948303223</v>
+        <v>4.3521299362182617</v>
       </c>
       <c r="D75" s="2">
         <v>4.6251792907714844</v>
       </c>
       <c r="E75" s="2">
-        <v>4.6031346321105957</v>
+        <v>4.6032991409301758</v>
       </c>
     </row>
     <row r="76">
@@ -1364,13 +1364,13 @@
         <v>4.6565780639648438</v>
       </c>
       <c r="C76" s="2">
-        <v>4.6402826309204102</v>
+        <v>4.6406068801879883</v>
       </c>
       <c r="D76" s="2">
         <v>4.5890069007873535</v>
       </c>
       <c r="E76" s="2">
-        <v>4.5555596351623535</v>
+        <v>4.5556793212890625</v>
       </c>
     </row>
     <row r="77">
@@ -1381,13 +1381,13 @@
         <v>4.930938720703125</v>
       </c>
       <c r="C77" s="2">
-        <v>4.8000154495239258</v>
+        <v>4.8000426292419434</v>
       </c>
       <c r="D77" s="2">
         <v>4.5461277961730957</v>
       </c>
       <c r="E77" s="2">
-        <v>4.5217938423156738</v>
+        <v>4.5219273567199707</v>
       </c>
     </row>
     <row r="78">
@@ -1398,13 +1398,13 @@
         <v>4.6398911476135254</v>
       </c>
       <c r="C78" s="2">
-        <v>4.7033019065856934</v>
+        <v>4.7034549713134766</v>
       </c>
       <c r="D78" s="2">
         <v>4.4758791923522949</v>
       </c>
       <c r="E78" s="2">
-        <v>4.4569215774536133</v>
+        <v>4.4570446014404297</v>
       </c>
     </row>
     <row r="79">
@@ -1415,13 +1415,13 @@
         <v>4.3719682693481445</v>
       </c>
       <c r="C79" s="2">
-        <v>4.4075393676757813</v>
+        <v>4.407799243927002</v>
       </c>
       <c r="D79" s="2">
         <v>4.4940571784973145</v>
       </c>
       <c r="E79" s="2">
-        <v>4.4531583786010742</v>
+        <v>4.4532785415649414</v>
       </c>
     </row>
     <row r="80">
@@ -1432,13 +1432,13 @@
         <v>4.6820945739746094</v>
       </c>
       <c r="C80" s="2">
-        <v>4.5770325660705567</v>
+        <v>4.5768470764160156</v>
       </c>
       <c r="D80" s="2">
         <v>4.5513105392456055</v>
       </c>
       <c r="E80" s="2">
-        <v>4.502410888671875</v>
+        <v>4.5025286674499512</v>
       </c>
     </row>
     <row r="81">
@@ -1449,13 +1449,13 @@
         <v>4.3875789642333984</v>
       </c>
       <c r="C81" s="2">
-        <v>4.3953914642333984</v>
+        <v>4.3957643508911133</v>
       </c>
       <c r="D81" s="2">
         <v>4.5585446357727051</v>
       </c>
       <c r="E81" s="2">
-        <v>4.5112748146057129</v>
+        <v>4.5113615989685059</v>
       </c>
     </row>
     <row r="82">
@@ -1466,13 +1466,13 @@
         <v>4.048954963684082</v>
       </c>
       <c r="C82" s="2">
-        <v>4.0896105766296387</v>
+        <v>4.0895657539367676</v>
       </c>
       <c r="D82" s="2">
         <v>4.4854936599731445</v>
       </c>
       <c r="E82" s="2">
-        <v>4.4535374641418457</v>
+        <v>4.4536561965942383</v>
       </c>
     </row>
     <row r="83">
@@ -1483,13 +1483,13 @@
         <v>4.3286285400390625</v>
       </c>
       <c r="C83" s="2">
-        <v>4.1131901741027832</v>
+        <v>4.1132950782775879</v>
       </c>
       <c r="D83" s="2">
         <v>4.4207696914672852</v>
       </c>
       <c r="E83" s="2">
-        <v>4.387845516204834</v>
+        <v>4.3879661560058594</v>
       </c>
     </row>
     <row r="84">
@@ -1500,13 +1500,13 @@
         <v>4.9151616096496582</v>
       </c>
       <c r="C84" s="2">
-        <v>4.7953333854675293</v>
+        <v>4.7953805923461914</v>
       </c>
       <c r="D84" s="2">
         <v>4.4632306098937988</v>
       </c>
       <c r="E84" s="2">
-        <v>4.423736572265625</v>
+        <v>4.4238405227661133</v>
       </c>
     </row>
     <row r="85">
@@ -1517,13 +1517,13 @@
         <v>4.7216858863830566</v>
       </c>
       <c r="C85" s="2">
-        <v>4.720059871673584</v>
+        <v>4.7201066017150879</v>
       </c>
       <c r="D85" s="2">
         <v>4.4655752182006836</v>
       </c>
       <c r="E85" s="2">
-        <v>4.4337449073791504</v>
+        <v>4.4338550567626953</v>
       </c>
     </row>
     <row r="86">
@@ -1534,13 +1534,13 @@
         <v>4.2734775543212891</v>
       </c>
       <c r="C86" s="2">
-        <v>4.2803769111633301</v>
+        <v>4.2806906700134277</v>
       </c>
       <c r="D86" s="2">
         <v>4.4854159355163574</v>
       </c>
       <c r="E86" s="2">
-        <v>4.4222970008850098</v>
+        <v>4.4223818778991699</v>
       </c>
     </row>
     <row r="87">
@@ -1551,13 +1551,13 @@
         <v>4.0573773384094238</v>
       </c>
       <c r="C87" s="2">
-        <v>4.1120753288269043</v>
+        <v>4.1122474670410156</v>
       </c>
       <c r="D87" s="2">
         <v>4.526339054107666</v>
       </c>
       <c r="E87" s="2">
-        <v>4.4485592842102051</v>
+        <v>4.4486346244812012</v>
       </c>
     </row>
     <row r="88">
@@ -1568,13 +1568,13 @@
         <v>4.7541146278381348</v>
       </c>
       <c r="C88" s="2">
-        <v>4.730557918548584</v>
+        <v>4.7306690216064453</v>
       </c>
       <c r="D88" s="2">
         <v>4.473689079284668</v>
       </c>
       <c r="E88" s="2">
-        <v>4.410491943359375</v>
+        <v>4.4105839729309082</v>
       </c>
     </row>
     <row r="89">
@@ -1585,13 +1585,13 @@
         <v>4.7031955718994141</v>
       </c>
       <c r="C89" s="2">
-        <v>4.667109489440918</v>
+        <v>4.6669740676879883</v>
       </c>
       <c r="D89" s="2">
         <v>4.3598828315734863</v>
       </c>
       <c r="E89" s="2">
-        <v>4.3131675720214844</v>
+        <v>4.3132891654968262</v>
       </c>
     </row>
     <row r="90">
@@ -1602,13 +1602,13 @@
         <v>4.5661458969116211</v>
       </c>
       <c r="C90" s="2">
-        <v>4.2923579216003418</v>
+        <v>4.2925071716308594</v>
       </c>
       <c r="D90" s="2">
         <v>4.2931337356567383</v>
       </c>
       <c r="E90" s="2">
-        <v>4.2271723747253418</v>
+        <v>4.2272710800170899</v>
       </c>
     </row>
     <row r="91">
@@ -1619,13 +1619,13 @@
         <v>4.4172654151916504</v>
       </c>
       <c r="C91" s="2">
-        <v>4.3259739875793457</v>
+        <v>4.3258414268493652</v>
       </c>
       <c r="D91" s="2">
         <v>4.3170304298400879</v>
       </c>
       <c r="E91" s="2">
-        <v>4.243769645690918</v>
+        <v>4.2438626289367676</v>
       </c>
     </row>
     <row r="92">
@@ -1636,13 +1636,13 @@
         <v>3.8547775745391846</v>
       </c>
       <c r="C92" s="2">
-        <v>3.7705831527709961</v>
+        <v>3.7708401679992676</v>
       </c>
       <c r="D92" s="2">
         <v>4.331636905670166</v>
       </c>
       <c r="E92" s="2">
-        <v>4.2560553550720215</v>
+        <v>4.2560954093933106</v>
       </c>
     </row>
     <row r="93">
@@ -1653,13 +1653,13 @@
         <v>3.8909060955047608</v>
       </c>
       <c r="C93" s="2">
-        <v>3.9194149971008301</v>
+        <v>3.9197249412536621</v>
       </c>
       <c r="D93" s="2">
         <v>4.3460822105407715</v>
       </c>
       <c r="E93" s="2">
-        <v>4.2655916213989258</v>
+        <v>4.2656607627868652</v>
       </c>
     </row>
     <row r="94">
@@ -1670,13 +1670,13 @@
         <v>4.1209421157836914</v>
       </c>
       <c r="C94" s="2">
-        <v>3.9461021423339844</v>
+        <v>3.9459428787231445</v>
       </c>
       <c r="D94" s="2">
         <v>4.2894444465637207</v>
       </c>
       <c r="E94" s="2">
-        <v>4.2005820274353027</v>
+        <v>4.200678825378418</v>
       </c>
     </row>
     <row r="95">
@@ -1687,13 +1687,13 @@
         <v>4.4885473251342773</v>
       </c>
       <c r="C95" s="2">
-        <v>4.429753303527832</v>
+        <v>4.4300165176391602</v>
       </c>
       <c r="D95" s="2">
         <v>4.2423930168151855</v>
       </c>
       <c r="E95" s="2">
-        <v>4.161992073059082</v>
+        <v>4.1620626449584961</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>4.1888389587402344</v>
       </c>
       <c r="C96" s="2">
-        <v>4.2226471900939942</v>
+        <v>4.2223405838012695</v>
       </c>
       <c r="D96" s="2">
         <v>4.2856988906860352</v>
       </c>
       <c r="E96" s="2">
-        <v>4.1995558738708496</v>
+        <v>4.199643611907959</v>
       </c>
     </row>
     <row r="97">
@@ -1721,13 +1721,13 @@
         <v>4.884122371673584</v>
       </c>
       <c r="C97" s="2">
-        <v>4.8163843154907227</v>
+        <v>4.8167610168457031</v>
       </c>
       <c r="D97" s="2">
         <v>4.3659963607788086</v>
       </c>
       <c r="E97" s="2">
-        <v>4.2835659980773926</v>
+        <v>4.2836360931396484</v>
       </c>
     </row>
     <row r="98">
@@ -1738,13 +1738,13 @@
         <v>4.193455696105957</v>
       </c>
       <c r="C98" s="2">
-        <v>4.0820193290710449</v>
+        <v>4.0821342468261719</v>
       </c>
       <c r="D98" s="2">
         <v>4.3741154670715332</v>
       </c>
       <c r="E98" s="2">
-        <v>4.2919502258300781</v>
+        <v>4.2919306755065918</v>
       </c>
     </row>
     <row r="99">
@@ -1755,13 +1755,13 @@
         <v>4.1426806449890137</v>
       </c>
       <c r="C99" s="2">
-        <v>3.945051908493042</v>
+        <v>3.9449608325958252</v>
       </c>
       <c r="D99" s="2">
         <v>4.4242830276489258</v>
       </c>
       <c r="E99" s="2">
-        <v>4.3517513275146484</v>
+        <v>4.3517236709594727</v>
       </c>
     </row>
     <row r="100">
@@ -1772,13 +1772,13 @@
         <v>4.8070187568664551</v>
       </c>
       <c r="C100" s="2">
-        <v>4.6640448570251465</v>
+        <v>4.6640715599060059</v>
       </c>
       <c r="D100" s="2">
         <v>4.3953042030334473</v>
       </c>
       <c r="E100" s="2">
-        <v>4.3406600952148438</v>
+        <v>4.3405704498291016</v>
       </c>
     </row>
     <row r="101">
@@ -1789,13 +1789,13 @@
         <v>4.5774550437927246</v>
       </c>
       <c r="C101" s="2">
-        <v>4.5266757011413574</v>
+        <v>4.5267715454101563</v>
       </c>
       <c r="D101" s="2">
         <v>4.4311375617980957</v>
       </c>
       <c r="E101" s="2">
-        <v>4.3675603866577148</v>
+        <v>4.3674888610839844</v>
       </c>
     </row>
     <row r="102">
@@ -1806,13 +1806,13 @@
         <v>3.963977575302124</v>
       </c>
       <c r="C102" s="2">
-        <v>3.9948713779449463</v>
+        <v>3.9943783283233643</v>
       </c>
       <c r="D102" s="2">
         <v>4.3158988952636719</v>
       </c>
       <c r="E102" s="2">
-        <v>4.2607970237731934</v>
+        <v>4.2606649398803711</v>
       </c>
     </row>
     <row r="103">
@@ -1823,13 +1823,13 @@
         <v>4.5724520683288574</v>
       </c>
       <c r="C103" s="2">
-        <v>4.4843134880065918</v>
+        <v>4.4840779304504395</v>
       </c>
       <c r="D103" s="2">
         <v>4.2897796630859375</v>
       </c>
       <c r="E103" s="2">
-        <v>4.2383604049682617</v>
+        <v>4.2382426261901856</v>
       </c>
     </row>
     <row r="104">
@@ -1840,13 +1840,13 @@
         <v>4.2277359962463379</v>
       </c>
       <c r="C104" s="2">
-        <v>4.3299317359924316</v>
+        <v>4.3296384811401367</v>
       </c>
       <c r="D104" s="2">
         <v>4.243870735168457</v>
       </c>
       <c r="E104" s="2">
-        <v>4.2184042930603027</v>
+        <v>4.2183008193969727</v>
       </c>
     </row>
     <row r="105">
@@ -1857,13 +1857,13 @@
         <v>4.5113391876220703</v>
       </c>
       <c r="C105" s="2">
-        <v>4.4647488594055176</v>
+        <v>4.4646077156066895</v>
       </c>
       <c r="D105" s="2">
         <v>4.2307953834533691</v>
       </c>
       <c r="E105" s="2">
-        <v>4.2020430564880371</v>
+        <v>4.2019486427307129</v>
       </c>
     </row>
     <row r="106">
@@ -1874,13 +1874,13 @@
         <v>3.8469746112823486</v>
       </c>
       <c r="C106" s="2">
-        <v>3.8555166721343994</v>
+        <v>3.8553431034088135</v>
       </c>
       <c r="D106" s="2">
         <v>4.1245584487915039</v>
       </c>
       <c r="E106" s="2">
-        <v>4.107081413269043</v>
+        <v>4.1069765090942383</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>3.9583845138549805</v>
       </c>
       <c r="C107" s="2">
-        <v>3.8800878524780274</v>
+        <v>3.8803329467773438</v>
       </c>
       <c r="D107" s="2">
         <v>4.1840195655822754</v>
       </c>
       <c r="E107" s="2">
-        <v>4.1751036643981934</v>
+        <v>4.1750516891479492</v>
       </c>
     </row>
     <row r="108">
@@ -1908,13 +1908,13 @@
         <v>3.7294986248016358</v>
       </c>
       <c r="C108" s="2">
-        <v>3.7654497623443604</v>
+        <v>3.7654874324798584</v>
       </c>
       <c r="D108" s="2">
         <v>4.1624822616577148</v>
       </c>
       <c r="E108" s="2">
-        <v>4.1623973846435547</v>
+        <v>4.1623344421386719</v>
       </c>
     </row>
     <row r="109">
@@ -1925,13 +1925,13 @@
         <v>4.6893420219421387</v>
       </c>
       <c r="C109" s="2">
-        <v>4.5167937278747559</v>
+        <v>4.5169000625610352</v>
       </c>
       <c r="D109" s="2">
         <v>4.10174560546875</v>
       </c>
       <c r="E109" s="2">
-        <v>4.0776457786560059</v>
+        <v>4.0776658058166504</v>
       </c>
     </row>
     <row r="110">
@@ -1942,13 +1942,13 @@
         <v>3.6213226318359375</v>
       </c>
       <c r="C110" s="2">
-        <v>3.6720180511474609</v>
+        <v>3.6720235347747803</v>
       </c>
       <c r="D110" s="2">
         <v>3.9951121807098389</v>
       </c>
       <c r="E110" s="2">
-        <v>3.9777166843414307</v>
+        <v>3.9777488708496094</v>
       </c>
     </row>
     <row r="111">
@@ -1959,13 +1959,13 @@
         <v>4.4991283416748047</v>
       </c>
       <c r="C111" s="2">
-        <v>4.6070728302001953</v>
+        <v>4.6070528030395508</v>
       </c>
       <c r="D111" s="2">
         <v>4.0168018341064453</v>
       </c>
       <c r="E111" s="2">
-        <v>3.9973709583282471</v>
+        <v>3.9974291324615479</v>
       </c>
     </row>
     <row r="112">
@@ -1976,13 +1976,13 @@
         <v>4.3786134719848633</v>
       </c>
       <c r="C112" s="2">
-        <v>4.3699555397033691</v>
+        <v>4.3696250915527344</v>
       </c>
       <c r="D112" s="2">
         <v>3.9773139953613281</v>
       </c>
       <c r="E112" s="2">
-        <v>3.9663457870483398</v>
+        <v>3.9663949012756348</v>
       </c>
     </row>
     <row r="113">
@@ -1993,13 +1993,13 @@
         <v>3.6811065673828125</v>
       </c>
       <c r="C113" s="2">
-        <v>3.5671694278717041</v>
+        <v>3.5676181316375732</v>
       </c>
       <c r="D113" s="2">
         <v>4.0369014739990234</v>
       </c>
       <c r="E113" s="2">
-        <v>3.9937872886657715</v>
+        <v>3.9938366413116455</v>
       </c>
     </row>
     <row r="114">
@@ -2010,13 +2010,13 @@
         <v>3.5516388416290283</v>
       </c>
       <c r="C114" s="2">
-        <v>3.5653872489929199</v>
+        <v>3.5653574466705322</v>
       </c>
       <c r="D114" s="2">
         <v>3.9178233146667481</v>
       </c>
       <c r="E114" s="2">
-        <v>3.8981635570526123</v>
+        <v>3.8981857299804688</v>
       </c>
     </row>
     <row r="115">
@@ -2027,13 +2027,13 @@
         <v>4.0421795845031738</v>
       </c>
       <c r="C115" s="2">
-        <v>4.0324039459228516</v>
+        <v>4.0324640274047852</v>
       </c>
       <c r="D115" s="2">
         <v>3.9905812740325928</v>
       </c>
       <c r="E115" s="2">
-        <v>3.9748125076293945</v>
+        <v>3.9748101234436035</v>
       </c>
     </row>
     <row r="116">
@@ -2044,13 +2044,13 @@
         <v>3.602996826171875</v>
       </c>
       <c r="C116" s="2">
-        <v>3.6008613109588623</v>
+        <v>3.6010262966156006</v>
       </c>
       <c r="D116" s="2">
         <v>3.9752483367919922</v>
       </c>
       <c r="E116" s="2">
-        <v>3.9359197616577148</v>
+        <v>3.9359138011932373</v>
       </c>
     </row>
     <row r="117">
@@ -2061,13 +2061,13 @@
         <v>4.2657833099365234</v>
       </c>
       <c r="C117" s="2">
-        <v>4.0124235153198242</v>
+        <v>4.0124621391296387</v>
       </c>
       <c r="D117" s="2">
         <v>3.9432253837585449</v>
       </c>
       <c r="E117" s="2">
-        <v>3.9118664264678955</v>
+        <v>3.9118874073028564</v>
       </c>
     </row>
     <row r="118">
@@ -2078,13 +2078,13 @@
         <v>3.6176407337188721</v>
       </c>
       <c r="C118" s="2">
-        <v>3.656179666519165</v>
+        <v>3.656041145324707</v>
       </c>
       <c r="D118" s="2">
         <v>4.0605607032775879</v>
       </c>
       <c r="E118" s="2">
-        <v>4.017364501953125</v>
+        <v>4.017298698425293</v>
       </c>
     </row>
     <row r="119">
@@ -2095,13 +2095,13 @@
         <v>4.2761440277099609</v>
       </c>
       <c r="C119" s="2">
-        <v>4.3618588447570801</v>
+        <v>4.3616447448730469</v>
       </c>
       <c r="D119" s="2">
         <v>4.198979377746582</v>
       </c>
       <c r="E119" s="2">
-        <v>4.1533317565917969</v>
+        <v>4.1532869338989258</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>4.3611321449279785</v>
       </c>
       <c r="C120" s="2">
-        <v>4.2570385932922363</v>
+        <v>4.2569851875305176</v>
       </c>
       <c r="D120" s="2">
         <v>4.146876335144043</v>
       </c>
       <c r="E120" s="2">
-        <v>4.1178383827209473</v>
+        <v>4.1177997589111328</v>
       </c>
     </row>
     <row r="121">
@@ -2129,13 +2129,13 @@
         <v>4.0904059410095215</v>
       </c>
       <c r="C121" s="2">
-        <v>4.1534757614135742</v>
+        <v>4.153388500213623</v>
       </c>
       <c r="D121" s="2">
         <v>4.1947636604309082</v>
       </c>
       <c r="E121" s="2">
-        <v>4.1684656143188477</v>
+        <v>4.1683707237243652</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>4.737126350402832</v>
       </c>
       <c r="C122" s="2">
-        <v>4.5166535377502441</v>
+        <v>4.5163202285766602</v>
       </c>
       <c r="D122" s="2">
         <v>4.1767911911010742</v>
       </c>
       <c r="E122" s="2">
-        <v>4.1817421913146973</v>
+        <v>4.1816306114196777</v>
       </c>
     </row>
     <row r="123">
@@ -2163,13 +2163,13 @@
         <v>4.7974042892456055</v>
       </c>
       <c r="C123" s="2">
-        <v>4.7890896797180176</v>
+        <v>4.7892489433288574</v>
       </c>
       <c r="D123" s="2">
         <v>4.2154178619384766</v>
       </c>
       <c r="E123" s="2">
-        <v>4.2123727798461914</v>
+        <v>4.212315559387207</v>
       </c>
     </row>
     <row r="124">
@@ -2180,13 +2180,13 @@
         <v>3.5732526779174805</v>
       </c>
       <c r="C124" s="2">
-        <v>3.7129640579223633</v>
+        <v>3.7130815982818604</v>
       </c>
       <c r="D124" s="2">
         <v>4.1879181861877441</v>
       </c>
       <c r="E124" s="2">
-        <v>4.1825947761535645</v>
+        <v>4.182523250579834</v>
       </c>
     </row>
     <row r="125">
@@ -2197,13 +2197,13 @@
         <v>4.0339841842651367</v>
       </c>
       <c r="C125" s="2">
-        <v>4.0565085411071777</v>
+        <v>4.0561642646789551</v>
       </c>
       <c r="D125" s="2">
         <v>4.2102208137512207</v>
       </c>
       <c r="E125" s="2">
-        <v>4.1825785636901856</v>
+        <v>4.1825141906738281</v>
       </c>
     </row>
     <row r="126">
@@ -2214,13 +2214,13 @@
         <v>4.1040301322937012</v>
       </c>
       <c r="C126" s="2">
-        <v>4.1319127082824707</v>
+        <v>4.131800651550293</v>
       </c>
       <c r="D126" s="2">
         <v>4.116055965423584</v>
       </c>
       <c r="E126" s="2">
-        <v>4.0814599990844727</v>
+        <v>4.0813937187194824</v>
       </c>
     </row>
     <row r="127">
@@ -2231,13 +2231,13 @@
         <v>3.9652822017669678</v>
       </c>
       <c r="C127" s="2">
-        <v>3.9318513870239258</v>
+        <v>3.9322037696838379</v>
       </c>
       <c r="D127" s="2">
         <v>3.9989426136016846</v>
       </c>
       <c r="E127" s="2">
-        <v>3.9901700019836426</v>
+        <v>3.9901576042175293</v>
       </c>
     </row>
     <row r="128">
@@ -2248,13 +2248,13 @@
         <v>4.0286455154418945</v>
       </c>
       <c r="C128" s="2">
-        <v>4.0938568115234375</v>
+        <v>4.0935168266296387</v>
       </c>
       <c r="D128" s="2">
         <v>3.9041619300842285</v>
       </c>
       <c r="E128" s="2">
-        <v>3.8838646411895752</v>
+        <v>3.8838162422180176</v>
       </c>
     </row>
     <row r="129">
@@ -2265,13 +2265,13 @@
         <v>4.5618553161621094</v>
       </c>
       <c r="C129" s="2">
-        <v>4.2568964958190918</v>
+        <v>4.2569050788879395</v>
       </c>
       <c r="D129" s="2">
         <v>3.9406790733337402</v>
       </c>
       <c r="E129" s="2">
-        <v>3.9113929271697998</v>
+        <v>3.9113154411315918</v>
       </c>
     </row>
     <row r="130">
@@ -2282,13 +2282,13 @@
         <v>3.2429232597351074</v>
       </c>
       <c r="C130" s="2">
-        <v>3.2434079647064209</v>
+        <v>3.2433028221130371</v>
       </c>
       <c r="D130" s="2">
         <v>3.8931331634521484</v>
       </c>
       <c r="E130" s="2">
-        <v>3.861689567565918</v>
+        <v>3.8616311550140381</v>
       </c>
     </row>
     <row r="131">
@@ -2299,13 +2299,13 @@
         <v>3.68310546875</v>
       </c>
       <c r="C131" s="2">
-        <v>3.6950423717498779</v>
+        <v>3.6951942443847656</v>
       </c>
       <c r="D131" s="2">
         <v>3.8230805397033691</v>
       </c>
       <c r="E131" s="2">
-        <v>3.785114049911499</v>
+        <v>3.7851099967956543</v>
       </c>
     </row>
     <row r="132">
@@ -2316,13 +2316,13 @@
         <v>3.9443776607513428</v>
       </c>
       <c r="C132" s="2">
-        <v>3.8323404788970947</v>
+        <v>3.8321769237518311</v>
       </c>
       <c r="D132" s="2">
         <v>3.8246469497680664</v>
       </c>
       <c r="E132" s="2">
-        <v>3.7819151878356934</v>
+        <v>3.7819039821624756</v>
       </c>
     </row>
     <row r="133">
@@ -2333,13 +2333,13 @@
         <v>3.9019074440002441</v>
       </c>
       <c r="C133" s="2">
-        <v>3.9607193470001221</v>
+        <v>3.9605753421783447</v>
       </c>
       <c r="D133" s="2">
         <v>3.8221738338470459</v>
       </c>
       <c r="E133" s="2">
-        <v>3.7681236267089844</v>
+        <v>3.7681427001953125</v>
       </c>
     </row>
     <row r="134">
@@ -2350,13 +2350,13 @@
         <v>3.6060712337493896</v>
       </c>
       <c r="C134" s="2">
-        <v>3.6091792583465576</v>
+        <v>3.6090044975280762</v>
       </c>
       <c r="D134" s="2">
         <v>3.7871029376983643</v>
       </c>
       <c r="E134" s="2">
-        <v>3.7566800117492676</v>
+        <v>3.756699800491333</v>
       </c>
     </row>
     <row r="135">
@@ -2367,13 +2367,13 @@
         <v>3.4735567569732666</v>
       </c>
       <c r="C135" s="2">
-        <v>3.4427323341369629</v>
+        <v>3.4431097507476807</v>
       </c>
       <c r="D135" s="2">
         <v>3.8688387870788574</v>
       </c>
       <c r="E135" s="2">
-        <v>3.8427417278289795</v>
+        <v>3.8428285121917725</v>
       </c>
     </row>
     <row r="136">
@@ -2384,13 +2384,13 @@
         <v>3.979379415512085</v>
       </c>
       <c r="C136" s="2">
-        <v>3.9030606746673584</v>
+        <v>3.9033496379852295</v>
       </c>
       <c r="D136" s="2">
         <v>3.9195215702056885</v>
       </c>
       <c r="E136" s="2">
-        <v>3.8998434543609619</v>
+        <v>3.8999295234680176</v>
       </c>
     </row>
     <row r="137">
@@ -2401,13 +2401,13 @@
         <v>4.0063877105712891</v>
       </c>
       <c r="C137" s="2">
-        <v>3.969733715057373</v>
+        <v>3.9696657657623291</v>
       </c>
       <c r="D137" s="2">
         <v>3.9067833423614502</v>
       </c>
       <c r="E137" s="2">
-        <v>3.9019789695739746</v>
+        <v>3.9020750522613525</v>
       </c>
     </row>
     <row r="138">
@@ -2418,13 +2418,13 @@
         <v>4.2462167739868164</v>
       </c>
       <c r="C138" s="2">
-        <v>4.153904914855957</v>
+        <v>4.1539196968078613</v>
       </c>
       <c r="D138" s="2">
         <v>3.9162147045135498</v>
       </c>
       <c r="E138" s="2">
-        <v>3.8925104141235352</v>
+        <v>3.8925516605377197</v>
       </c>
     </row>
     <row r="139">
@@ -2435,13 +2435,13 @@
         <v>3.9785463809967041</v>
       </c>
       <c r="C139" s="2">
-        <v>4.0179624557495117</v>
+        <v>4.0184602737426758</v>
       </c>
       <c r="D139" s="2">
         <v>3.9166164398193359</v>
       </c>
       <c r="E139" s="2">
-        <v>3.8927555084228516</v>
+        <v>3.8928139209747315</v>
       </c>
     </row>
     <row r="140">
@@ -2452,13 +2452,13 @@
         <v>4.1392512321472168</v>
       </c>
       <c r="C140" s="2">
-        <v>4.2089581489562988</v>
+        <v>4.2091035842895508</v>
       </c>
       <c r="D140" s="2">
         <v>3.9978604316711426</v>
       </c>
       <c r="E140" s="2">
-        <v>3.9790611267089844</v>
+        <v>3.9790523052215576</v>
       </c>
     </row>
     <row r="141">
@@ -2469,13 +2469,13 @@
         <v>3.82973313331604</v>
       </c>
       <c r="C141" s="2">
-        <v>3.851560115814209</v>
+        <v>3.8514866828918457</v>
       </c>
       <c r="D141" s="2">
         <v>4.0089535713195801</v>
       </c>
       <c r="E141" s="2">
-        <v>3.9801533222198486</v>
+        <v>3.9801287651062012</v>
       </c>
     </row>
     <row r="142">
@@ -2486,13 +2486,13 @@
         <v>3.9867899417877197</v>
       </c>
       <c r="C142" s="2">
-        <v>3.8755028247833252</v>
+        <v>3.8748657703399658</v>
       </c>
       <c r="D142" s="2">
         <v>4.0298609733581543</v>
       </c>
       <c r="E142" s="2">
-        <v>3.9969983100891113</v>
+        <v>3.9970219135284424</v>
       </c>
     </row>
     <row r="143">
@@ -2503,13 +2503,13 @@
         <v>3.6096861362457275</v>
       </c>
       <c r="C143" s="2">
-        <v>3.6113846302032471</v>
+        <v>3.6113650798797607</v>
       </c>
       <c r="D143" s="2">
         <v>3.9875633716583252</v>
       </c>
       <c r="E143" s="2">
-        <v>3.9631545543670654</v>
+        <v>3.9631848335266113</v>
       </c>
     </row>
     <row r="144">
@@ -2520,13 +2520,13 @@
         <v>4.2047538757324219</v>
       </c>
       <c r="C144" s="2">
-        <v>4.2194833755493164</v>
+        <v>4.2192544937133789</v>
       </c>
       <c r="D144" s="2">
         <v>3.9666812419891358</v>
       </c>
       <c r="E144" s="2">
-        <v>3.9315018653869629</v>
+        <v>3.9314835071563721</v>
       </c>
     </row>
     <row r="145">
@@ -2537,13 +2537,13 @@
         <v>4.0792155265808105</v>
       </c>
       <c r="C145" s="2">
-        <v>3.9128904342651367</v>
+        <v>3.9130373001098633</v>
       </c>
       <c r="D145" s="2">
         <v>3.9503111839294434</v>
       </c>
       <c r="E145" s="2">
-        <v>3.909991979598999</v>
+        <v>3.9099068641662598</v>
       </c>
     </row>
     <row r="146">
@@ -2554,13 +2554,13 @@
         <v>4.1945557594299316</v>
       </c>
       <c r="C146" s="2">
-        <v>4.1213374137878418</v>
+        <v>4.1217036247253418</v>
       </c>
       <c r="D146" s="2">
         <v>3.8672749996185303</v>
       </c>
       <c r="E146" s="2">
-        <v>3.8254826068878174</v>
+        <v>3.8254239559173584</v>
       </c>
     </row>
     <row r="147">
@@ -2571,13 +2571,13 @@
         <v>3.8655381202697754</v>
       </c>
       <c r="C147" s="2">
-        <v>3.8493118286132813</v>
+        <v>3.8493862152099609</v>
       </c>
       <c r="D147" s="2">
         <v>3.794119119644165</v>
       </c>
       <c r="E147" s="2">
-        <v>3.7442848682403565</v>
+        <v>3.7442996501922607</v>
       </c>
     </row>
     <row r="148">
@@ -2588,13 +2588,13 @@
         <v>3.790607213973999</v>
       </c>
       <c r="C148" s="2">
-        <v>3.7330873012542725</v>
+        <v>3.7331488132476807</v>
       </c>
       <c r="D148" s="2">
         <v>3.8196616172790527</v>
       </c>
       <c r="E148" s="2">
-        <v>3.7675223350524902</v>
+        <v>3.7675626277923584</v>
       </c>
     </row>
     <row r="149">
@@ -2605,13 +2605,13 @@
         <v>3.9919219017028809</v>
       </c>
       <c r="C149" s="2">
-        <v>4.0153698921203613</v>
+        <v>4.0149130821228027</v>
       </c>
       <c r="D149" s="2">
         <v>3.8297927379608154</v>
       </c>
       <c r="E149" s="2">
-        <v>3.769320011138916</v>
+        <v>3.7693717479705811</v>
       </c>
     </row>
     <row r="150">
@@ -2622,13 +2622,13 @@
         <v>3.0824072360992432</v>
       </c>
       <c r="C150" s="2">
-        <v>3.0909764766693115</v>
+        <v>3.0911412239074707</v>
       </c>
       <c r="D150" s="2">
         <v>3.9254441261291504</v>
       </c>
       <c r="E150" s="2">
-        <v>3.891390323638916</v>
+        <v>3.8913917541503906</v>
       </c>
     </row>
     <row r="151">
@@ -2639,13 +2639,13 @@
         <v>3.3283853530883789</v>
       </c>
       <c r="C151" s="2">
-        <v>3.1447227001190186</v>
+        <v>3.144747257232666</v>
       </c>
       <c r="D151" s="2">
         <v>4.0257153511047363</v>
       </c>
       <c r="E151" s="2">
-        <v>3.9981260299682617</v>
+        <v>3.9980771541595459</v>
       </c>
     </row>
     <row r="152">
@@ -2656,13 +2656,13 @@
         <v>3.8395702838897705</v>
       </c>
       <c r="C152" s="2">
-        <v>3.8205208778381348</v>
+        <v>3.8207323551177979</v>
       </c>
       <c r="D152" s="2">
         <v>4.1817293167114258</v>
       </c>
       <c r="E152" s="2">
-        <v>4.1385712623596192</v>
+        <v>4.1385207176208496</v>
       </c>
     </row>
     <row r="153">
@@ -2673,13 +2673,13 @@
         <v>4.2959332466125488</v>
       </c>
       <c r="C153" s="2">
-        <v>4.2356629371643066</v>
+        <v>4.2355360984802246</v>
       </c>
       <c r="D153" s="2">
         <v>4.3404712677001953</v>
       </c>
       <c r="E153" s="2">
-        <v>4.3048624992370605</v>
+        <v>4.3048391342163086</v>
       </c>
     </row>
     <row r="154">
@@ -2690,13 +2690,13 @@
         <v>4.9400782585144043</v>
       </c>
       <c r="C154" s="2">
-        <v>5.0115242004394531</v>
+        <v>5.0112175941467285</v>
       </c>
       <c r="D154" s="2">
         <v>4.5507335662841797</v>
       </c>
       <c r="E154" s="2">
-        <v>4.4774370193481445</v>
+        <v>4.4774966239929199</v>
       </c>
     </row>
     <row r="155">
@@ -2707,13 +2707,13 @@
         <v>5.0969977378845215</v>
       </c>
       <c r="C155" s="2">
-        <v>5.0819573402404785</v>
+        <v>5.0818719863891602</v>
       </c>
       <c r="D155" s="2">
         <v>4.8327503204345703</v>
       </c>
       <c r="E155" s="2">
-        <v>4.7464451789855957</v>
+        <v>4.7465038299560547</v>
       </c>
     </row>
     <row r="156">
@@ -2724,13 +2724,13 @@
         <v>5.2696604728698731</v>
       </c>
       <c r="C156" s="2">
-        <v>5.1133189201354981</v>
+        <v>5.1133785247802734</v>
       </c>
       <c r="D156" s="2">
         <v>4.9979076385498047</v>
       </c>
       <c r="E156" s="2">
-        <v>4.8913059234619141</v>
+        <v>4.8913216590881348</v>
       </c>
     </row>
     <row r="157">
@@ -2741,13 +2741,13 @@
         <v>5.2192864418029785</v>
       </c>
       <c r="C157" s="2">
-        <v>5.2297101020812988</v>
+        <v>5.2300152778625488</v>
       </c>
       <c r="D157" s="2">
         <v>5.1233968734741211</v>
       </c>
       <c r="E157" s="2">
-        <v>5.0100259780883789</v>
+        <v>5.0100054740905762</v>
       </c>
     </row>
     <row r="158">
@@ -2758,13 +2758,13 @@
         <v>5.8842825889587402</v>
       </c>
       <c r="C158" s="2">
-        <v>5.5685381889343262</v>
+        <v>5.5688309669494629</v>
       </c>
       <c r="D158" s="2">
         <v>5.2179183959960938</v>
       </c>
       <c r="E158" s="2">
-        <v>5.0989222526550293</v>
+        <v>5.0989232063293457</v>
       </c>
     </row>
     <row r="159">
@@ -2775,13 +2775,13 @@
         <v>5.6205568313598633</v>
       </c>
       <c r="C159" s="2">
-        <v>5.512052059173584</v>
+        <v>5.5122036933898926</v>
       </c>
       <c r="D159" s="2">
         <v>5.1188726425170899</v>
       </c>
       <c r="E159" s="2">
-        <v>4.9922866821289063</v>
+        <v>4.9923539161682129</v>
       </c>
     </row>
     <row r="160">
@@ -2792,13 +2792,13 @@
         <v>4.8148040771484375</v>
       </c>
       <c r="C160" s="2">
-        <v>4.4484705924987793</v>
+        <v>4.4481077194213867</v>
       </c>
       <c r="D160" s="2">
         <v>5.0083155632019043</v>
       </c>
       <c r="E160" s="2">
-        <v>4.8855781555175781</v>
+        <v>4.8856663703918457</v>
       </c>
     </row>
     <row r="161">
@@ -2809,13 +2809,13 @@
         <v>4.9689736366271973</v>
       </c>
       <c r="C161" s="2">
-        <v>4.8889994621276856</v>
+        <v>4.8888869285583496</v>
       </c>
       <c r="D161" s="2">
         <v>4.8853311538696289</v>
       </c>
       <c r="E161" s="2">
-        <v>4.7862882614135742</v>
+        <v>4.7863798141479492</v>
       </c>
     </row>
     <row r="162">
@@ -2826,13 +2826,13 @@
         <v>5.1466236114501953</v>
       </c>
       <c r="C162" s="2">
-        <v>5.0357294082641602</v>
+        <v>5.0357942581176758</v>
       </c>
       <c r="D162" s="2">
         <v>4.7245163917541504</v>
       </c>
       <c r="E162" s="2">
-        <v>4.6213665008544922</v>
+        <v>4.6214165687561035</v>
       </c>
     </row>
     <row r="163">
@@ -2843,13 +2843,13 @@
         <v>4.048668384552002</v>
       </c>
       <c r="C163" s="2">
-        <v>4.0518035888671875</v>
+        <v>4.0520973205566406</v>
       </c>
       <c r="D163" s="2">
         <v>4.5938811302185059</v>
       </c>
       <c r="E163" s="2">
-        <v>4.5213432312011719</v>
+        <v>4.5213313102722168</v>
       </c>
     </row>
     <row r="164">
@@ -2860,13 +2860,13 @@
         <v>4.1019859313964844</v>
       </c>
       <c r="C164" s="2">
-        <v>4.1215815544128418</v>
+        <v>4.1216845512390137</v>
       </c>
       <c r="D164" s="2">
         <v>4.4883174896240234</v>
       </c>
       <c r="E164" s="2">
-        <v>4.4179320335388184</v>
+        <v>4.4178814888000488</v>
       </c>
     </row>
     <row r="165">
@@ -2877,13 +2877,13 @@
         <v>4.1627979278564453</v>
       </c>
       <c r="C165" s="2">
-        <v>4.2197098731994629</v>
+        <v>4.2197985649108887</v>
       </c>
       <c r="D165" s="2">
         <v>4.5428223609924316</v>
       </c>
       <c r="E165" s="2">
-        <v>4.5079402923583984</v>
+        <v>4.5079364776611328</v>
       </c>
     </row>
     <row r="166">
@@ -2894,13 +2894,13 @@
         <v>3.7719550132751465</v>
       </c>
       <c r="C166" s="2">
-        <v>3.7454123497009277</v>
+        <v>3.7453458309173584</v>
       </c>
       <c r="D166" s="2">
         <v>4.5694928169250488</v>
       </c>
       <c r="E166" s="2">
-        <v>4.5218009948730469</v>
+        <v>4.5218348503112793</v>
       </c>
     </row>
     <row r="167">
@@ -2911,13 +2911,13 @@
         <v>4.7085657119750977</v>
       </c>
       <c r="C167" s="2">
-        <v>4.6683287620544434</v>
+        <v>4.6680631637573242</v>
       </c>
       <c r="D167" s="2">
         <v>4.5303997993469238</v>
       </c>
       <c r="E167" s="2">
-        <v>4.4960923194885254</v>
+        <v>4.4961333274841309</v>
       </c>
     </row>
     <row r="168">
@@ -2928,13 +2928,13 @@
         <v>4.6704821586608887</v>
       </c>
       <c r="C168" s="2">
-        <v>4.5813517570495605</v>
+        <v>4.5811548233032227</v>
       </c>
       <c r="D168" s="2">
         <v>4.5268383026123047</v>
       </c>
       <c r="E168" s="2">
-        <v>4.4979743957519531</v>
+        <v>4.4980149269104004</v>
       </c>
     </row>
     <row r="169">
@@ -2945,13 +2945,13 @@
         <v>5.3053488731384277</v>
       </c>
       <c r="C169" s="2">
-        <v>5.2585444450378418</v>
+        <v>5.258601188659668</v>
       </c>
       <c r="D169" s="2">
         <v>4.5952014923095703</v>
       </c>
       <c r="E169" s="2">
-        <v>4.5635566711425781</v>
+        <v>4.5636000633239746</v>
       </c>
     </row>
     <row r="170">
@@ -2962,13 +2962,13 @@
         <v>5.2090096473693848</v>
       </c>
       <c r="C170" s="2">
-        <v>5.0137472152709961</v>
+        <v>5.013972282409668</v>
       </c>
       <c r="D170" s="2">
         <v>4.6298704147338867</v>
       </c>
       <c r="E170" s="2">
-        <v>4.594182014465332</v>
+        <v>4.5942206382751465</v>
       </c>
     </row>
     <row r="171">
@@ -2979,13 +2979,13 @@
         <v>4.7947840690612793</v>
       </c>
       <c r="C171" s="2">
-        <v>4.8043522834777832</v>
+        <v>4.8044815063476563</v>
       </c>
       <c r="D171" s="2">
         <v>4.7297163009643555</v>
       </c>
       <c r="E171" s="2">
-        <v>4.6881422996520996</v>
+        <v>4.6881990432739258</v>
       </c>
     </row>
     <row r="172">
@@ -2996,13 +2996,13 @@
         <v>4.0166139602661133</v>
       </c>
       <c r="C172" s="2">
-        <v>4.0687432289123535</v>
+        <v>4.0690326690673828</v>
       </c>
       <c r="D172" s="2">
         <v>4.6381349563598633</v>
       </c>
       <c r="E172" s="2">
-        <v>4.608555793762207</v>
+        <v>4.6085968017578125</v>
       </c>
     </row>
     <row r="173">
@@ -3013,13 +3013,13 @@
         <v>4.7172565460205078</v>
       </c>
       <c r="C173" s="2">
-        <v>4.7118191719055176</v>
+        <v>4.7119507789611816</v>
       </c>
       <c r="D173" s="2">
         <v>4.6270294189453125</v>
       </c>
       <c r="E173" s="2">
-        <v>4.5868616104125977</v>
+        <v>4.5868983268737793</v>
       </c>
     </row>
     <row r="174">
@@ -3030,13 +3030,13 @@
         <v>4.4748187065124512</v>
       </c>
       <c r="C174" s="2">
-        <v>4.4953398704528809</v>
+        <v>4.4953837394714355</v>
       </c>
       <c r="D174" s="2">
         <v>4.5077643394470215</v>
       </c>
       <c r="E174" s="2">
-        <v>4.4751863479614258</v>
+        <v>4.4751949310302734</v>
       </c>
     </row>
     <row r="175">
@@ -3047,13 +3047,13 @@
         <v>4.6705670356750488</v>
       </c>
       <c r="C175" s="2">
-        <v>4.5910558700561523</v>
+        <v>4.5911493301391602</v>
       </c>
       <c r="D175" s="2">
         <v>4.3778076171875</v>
       </c>
       <c r="E175" s="2">
-        <v>4.3655533790588379</v>
+        <v>4.3655071258544922</v>
       </c>
     </row>
     <row r="176">
@@ -3064,13 +3064,13 @@
         <v>3.8843338489532471</v>
       </c>
       <c r="C176" s="2">
-        <v>3.9520502090454102</v>
+        <v>3.9516463279724121</v>
       </c>
       <c r="D176" s="2">
         <v>4.306004524230957</v>
       </c>
       <c r="E176" s="2">
-        <v>4.3009281158447266</v>
+        <v>4.3008666038513184</v>
       </c>
     </row>
     <row r="177">
@@ -3081,13 +3081,13 @@
         <v>4.5705342292785645</v>
       </c>
       <c r="C177" s="2">
-        <v>4.386103630065918</v>
+        <v>4.3858656883239746</v>
       </c>
       <c r="D177" s="2">
         <v>4.3371500968933106</v>
       </c>
       <c r="E177" s="2">
-        <v>4.3196969032287598</v>
+        <v>4.3195552825927734</v>
       </c>
     </row>
     <row r="178">
@@ -3098,13 +3098,13 @@
         <v>4.2319622039794922</v>
       </c>
       <c r="C178" s="2">
-        <v>4.2534661293029785</v>
+        <v>4.2532734870910645</v>
       </c>
       <c r="D178" s="2">
         <v>4.2080726623535156</v>
       </c>
       <c r="E178" s="2">
-        <v>4.184661865234375</v>
+        <v>4.1845345497131348</v>
       </c>
     </row>
     <row r="179">
@@ -3115,13 +3115,13 @@
         <v>4.0393986701965332</v>
       </c>
       <c r="C179" s="2">
-        <v>4.0270514488220215</v>
+        <v>4.0267796516418457</v>
       </c>
       <c r="D179" s="2">
         <v>4.1978750228881836</v>
       </c>
       <c r="E179" s="2">
-        <v>4.1629204750061035</v>
+        <v>4.1627745628356934</v>
       </c>
     </row>
     <row r="180">
@@ -3132,13 +3132,13 @@
         <v>4.1485557556152344</v>
       </c>
       <c r="C180" s="2">
-        <v>4.222722053527832</v>
+        <v>4.2227182388305664</v>
       </c>
       <c r="D180" s="2">
         <v>4.1790437698364258</v>
       </c>
       <c r="E180" s="2">
-        <v>4.1549324989318848</v>
+        <v>4.1547355651855469</v>
       </c>
     </row>
     <row r="181">
@@ -3149,13 +3149,13 @@
         <v>4.2969241142272949</v>
       </c>
       <c r="C181" s="2">
-        <v>4.2376623153686523</v>
+        <v>4.2372307777404785</v>
       </c>
       <c r="D181" s="2">
         <v>4.2363519668579102</v>
       </c>
       <c r="E181" s="2">
-        <v>4.1814670562744141</v>
+        <v>4.1812815666198731</v>
       </c>
     </row>
     <row r="182">
@@ -3166,13 +3166,13 @@
         <v>3.5555591583251953</v>
       </c>
       <c r="C182" s="2">
-        <v>3.4965052604675293</v>
+        <v>3.4967625141143799</v>
       </c>
       <c r="D182" s="2">
         <v>4.1872053146362305</v>
       </c>
       <c r="E182" s="2">
-        <v>4.1522431373596192</v>
+        <v>4.1520786285400391</v>
       </c>
     </row>
     <row r="183">
@@ -3183,13 +3183,13 @@
         <v>4.3830404281616211</v>
       </c>
       <c r="C183" s="2">
-        <v>4.2996683120727539</v>
+        <v>4.2995452880859375</v>
       </c>
       <c r="D183" s="2">
         <v>4.1576037406921387</v>
       </c>
       <c r="E183" s="2">
-        <v>4.0931053161621094</v>
+        <v>4.0929512977600098</v>
       </c>
     </row>
     <row r="184">
@@ -3200,13 +3200,13 @@
         <v>4.5010862350463867</v>
       </c>
       <c r="C184" s="2">
-        <v>4.5191650390625</v>
+        <v>4.5187978744506836</v>
       </c>
       <c r="D184" s="2">
         <v>4.1290659904479981</v>
       </c>
       <c r="E184" s="2">
-        <v>4.0482096672058106</v>
+        <v>4.048093318939209</v>
       </c>
     </row>
     <row r="185">
@@ -3217,13 +3217,13 @@
         <v>4.4001073837280274</v>
       </c>
       <c r="C185" s="2">
-        <v>4.1908612251281738</v>
+        <v>4.1905617713928223</v>
       </c>
       <c r="D185" s="2">
         <v>4.108891487121582</v>
       </c>
       <c r="E185" s="2">
-        <v>4.0211005210876465</v>
+        <v>4.0209331512451172</v>
       </c>
     </row>
     <row r="186">
@@ -3234,13 +3234,13 @@
         <v>4.1282129287719727</v>
       </c>
       <c r="C186" s="2">
-        <v>4.1230845451354981</v>
+        <v>4.1230363845825195</v>
       </c>
       <c r="D186" s="2">
         <v>4.1605253219604492</v>
       </c>
       <c r="E186" s="2">
-        <v>4.0650424957275391</v>
+        <v>4.064903736114502</v>
       </c>
     </row>
     <row r="187">
@@ -3251,13 +3251,13 @@
         <v>3.9655506610870361</v>
       </c>
       <c r="C187" s="2">
-        <v>3.7212274074554443</v>
+        <v>3.7211275100708008</v>
       </c>
       <c r="D187" s="2">
         <v>4.2315049171447754</v>
       </c>
       <c r="E187" s="2">
-        <v>4.1126809120178223</v>
+        <v>4.1124668121337891</v>
       </c>
     </row>
     <row r="188">
@@ -3268,13 +3268,13 @@
         <v>3.7825582027435303</v>
       </c>
       <c r="C188" s="2">
-        <v>3.6229898929595947</v>
+        <v>3.6230590343475342</v>
       </c>
       <c r="D188" s="2">
         <v>4.2142910957336426</v>
       </c>
       <c r="E188" s="2">
-        <v>4.1007351875305176</v>
+        <v>4.1005258560180664</v>
       </c>
     </row>
     <row r="189">
@@ -3285,13 +3285,13 @@
         <v>3.9669833183288574</v>
       </c>
       <c r="C189" s="2">
-        <v>3.9787395000457764</v>
+        <v>3.9782774448394775</v>
       </c>
       <c r="D189" s="2">
         <v>4.2037482261657715</v>
       </c>
       <c r="E189" s="2">
-        <v>4.090181827545166</v>
+        <v>4.0900096893310547</v>
       </c>
     </row>
     <row r="190">
@@ -3302,13 +3302,13 @@
         <v>4.7616300582885742</v>
       </c>
       <c r="C190" s="2">
-        <v>4.6331391334533691</v>
+        <v>4.6329646110534668</v>
       </c>
       <c r="D190" s="2">
         <v>4.1248078346252442</v>
       </c>
       <c r="E190" s="2">
-        <v>4.0261921882629395</v>
+        <v>4.0260653495788574</v>
       </c>
     </row>
     <row r="191">
@@ -3319,13 +3319,13 @@
         <v>4.1943764686584473</v>
       </c>
       <c r="C191" s="2">
-        <v>3.9252536296844482</v>
+        <v>3.9248332977294922</v>
       </c>
       <c r="D191" s="2">
         <v>4.0612754821777344</v>
       </c>
       <c r="E191" s="2">
-        <v>3.9463298320770264</v>
+        <v>3.9461948871612549</v>
       </c>
     </row>
     <row r="192">
@@ -3336,13 +3336,13 @@
         <v>4.2281126976013184</v>
       </c>
       <c r="C192" s="2">
-        <v>4.1921544075012207</v>
+        <v>4.1920757293701172</v>
       </c>
       <c r="D192" s="2">
         <v>4.0237245559692383</v>
       </c>
       <c r="E192" s="2">
-        <v>3.8990166187286377</v>
+        <v>3.8989028930664063</v>
       </c>
     </row>
     <row r="193">
@@ -3353,13 +3353,13 @@
         <v>4.4062037467956543</v>
       </c>
       <c r="C193" s="2">
-        <v>4.4241852760314942</v>
+        <v>4.4241523742675781</v>
       </c>
       <c r="D193" s="2">
         <v>3.9919888973236084</v>
       </c>
       <c r="E193" s="2">
-        <v>3.8900678157806396</v>
+        <v>3.8899333477020264</v>
       </c>
     </row>
     <row r="194">
@@ -3370,13 +3370,13 @@
         <v>3.6896429061889649</v>
       </c>
       <c r="C194" s="2">
-        <v>3.6149566173553467</v>
+        <v>3.6150634288787842</v>
       </c>
       <c r="D194" s="2">
         <v>3.9963579177856445</v>
       </c>
       <c r="E194" s="2">
-        <v>3.8948314189910889</v>
+        <v>3.8947775363922119</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +3387,13 @@
         <v>3.5564200878143311</v>
       </c>
       <c r="C195" s="2">
-        <v>3.4043221473693848</v>
+        <v>3.4042012691497803</v>
       </c>
       <c r="D195" s="2">
         <v>3.8820686340332031</v>
       </c>
       <c r="E195" s="2">
-        <v>3.7983002662658692</v>
+        <v>3.798276424407959</v>
       </c>
     </row>
     <row r="196">
@@ -3404,13 +3404,13 @@
         <v>3.6275947093963623</v>
       </c>
       <c r="C196" s="2">
-        <v>3.2954089641571045</v>
+        <v>3.2954981327056885</v>
       </c>
       <c r="D196" s="2">
         <v>3.8816556930541992</v>
       </c>
       <c r="E196" s="2">
-        <v>3.8252396583557129</v>
+        <v>3.8252663612365723</v>
       </c>
     </row>
     <row r="197">
@@ -3421,13 +3421,13 @@
         <v>3.4969356060028076</v>
       </c>
       <c r="C197" s="2">
-        <v>3.5424504280090332</v>
+        <v>3.5423343181610107</v>
       </c>
       <c r="D197" s="2">
         <v>3.8840534687042236</v>
       </c>
       <c r="E197" s="2">
-        <v>3.8192579746246338</v>
+        <v>3.819237232208252</v>
       </c>
     </row>
     <row r="198">
@@ -3438,13 +3438,13 @@
         <v>4.0063042640686035</v>
       </c>
       <c r="C198" s="2">
-        <v>4.0216131210327149</v>
+        <v>4.0218753814697266</v>
       </c>
       <c r="D198" s="2">
         <v>3.783766508102417</v>
       </c>
       <c r="E198" s="2">
-        <v>3.7106504440307617</v>
+        <v>3.7106058597564697</v>
       </c>
     </row>
     <row r="199">
@@ -3455,13 +3455,13 @@
         <v>3.733027458190918</v>
       </c>
       <c r="C199" s="2">
-        <v>3.764357328414917</v>
+        <v>3.764453649520874</v>
       </c>
       <c r="D199" s="2">
         <v>3.7685971260070801</v>
       </c>
       <c r="E199" s="2">
-        <v>3.6813268661499023</v>
+        <v>3.6813180446624756</v>
       </c>
     </row>
     <row r="200">
@@ -3472,13 +3472,13 @@
         <v>4.1906604766845703</v>
       </c>
       <c r="C200" s="2">
-        <v>4.1677088737487793</v>
+        <v>4.1677427291870117</v>
       </c>
       <c r="D200" s="2">
         <v>3.8132710456848145</v>
       </c>
       <c r="E200" s="2">
-        <v>3.7431378364562988</v>
+        <v>3.7431333065032959</v>
       </c>
     </row>
     <row r="201">
@@ -3489,13 +3489,13 @@
         <v>4.2496929168701172</v>
       </c>
       <c r="C201" s="2">
-        <v>4.1383185386657715</v>
+        <v>4.1378135681152344</v>
       </c>
       <c r="D201" s="2">
         <v>3.8687834739685059</v>
       </c>
       <c r="E201" s="2">
-        <v>3.8258674144744873</v>
+        <v>3.8258709907531738</v>
       </c>
     </row>
     <row r="202">
@@ -3506,13 +3506,13 @@
         <v>3.5036203861236572</v>
       </c>
       <c r="C202" s="2">
-        <v>3.4467175006866455</v>
+        <v>3.4464693069458008</v>
       </c>
       <c r="D202" s="2">
         <v>3.8831210136413574</v>
       </c>
       <c r="E202" s="2">
-        <v>3.8363790512084961</v>
+        <v>3.8364322185516358</v>
       </c>
     </row>
     <row r="203">
@@ -3523,13 +3523,13 @@
         <v>3.5531179904937744</v>
       </c>
       <c r="C203" s="2">
-        <v>3.3510444164276123</v>
+        <v>3.351473331451416</v>
       </c>
       <c r="D203" s="2">
         <v>3.8147087097167969</v>
       </c>
       <c r="E203" s="2">
-        <v>3.7774994373321533</v>
+        <v>3.7775301933288574</v>
       </c>
     </row>
     <row r="204">
@@ -3540,13 +3540,13 @@
         <v>3.9584856033325195</v>
       </c>
       <c r="C204" s="2">
-        <v>3.9606215953826904</v>
+        <v>3.9605398178100586</v>
       </c>
       <c r="D204" s="2">
         <v>3.8203892707824707</v>
       </c>
       <c r="E204" s="2">
-        <v>3.7772581577301025</v>
+        <v>3.7772715091705322</v>
       </c>
     </row>
     <row r="205">
@@ -3557,13 +3557,13 @@
         <v>4.1272068023681641</v>
       </c>
       <c r="C205" s="2">
-        <v>4.0399742126464844</v>
+        <v>4.0401363372802734</v>
       </c>
       <c r="D205" s="2">
         <v>3.8052942752838135</v>
       </c>
       <c r="E205" s="2">
-        <v>3.7505407333374023</v>
+        <v>3.7505719661712646</v>
       </c>
     </row>
     <row r="206">
@@ -3574,13 +3574,13 @@
         <v>3.6259734630584717</v>
       </c>
       <c r="C206" s="2">
-        <v>3.6370565891265869</v>
+        <v>3.6373860836029053</v>
       </c>
       <c r="D206" s="2">
         <v>3.7856020927429199</v>
       </c>
       <c r="E206" s="2">
-        <v>3.7022614479064941</v>
+        <v>3.7023360729217529</v>
       </c>
     </row>
     <row r="207">
@@ -3591,13 +3591,13 @@
         <v>3.3905940055847168</v>
       </c>
       <c r="C207" s="2">
-        <v>3.4916949272155762</v>
+        <v>3.4917576313018799</v>
       </c>
       <c r="D207" s="2">
         <v>3.836916446685791</v>
       </c>
       <c r="E207" s="2">
-        <v>3.7562100887298584</v>
+        <v>3.7562971115112305</v>
       </c>
     </row>
     <row r="208">
@@ -3608,13 +3608,13 @@
         <v>3.784151554107666</v>
       </c>
       <c r="C208" s="2">
-        <v>3.7621867656707764</v>
+        <v>3.7621243000030518</v>
       </c>
       <c r="D208" s="2">
         <v>3.8652083873748779</v>
       </c>
       <c r="E208" s="2">
-        <v>3.8174293041229248</v>
+        <v>3.817460298538208</v>
       </c>
     </row>
     <row r="209">
@@ -3625,13 +3625,13 @@
         <v>4.0548062324523926</v>
       </c>
       <c r="C209" s="2">
-        <v>3.9272522926330566</v>
+        <v>3.9274473190307617</v>
       </c>
       <c r="D209" s="2">
         <v>3.8924236297607422</v>
       </c>
       <c r="E209" s="2">
-        <v>3.8164353370666504</v>
+        <v>3.8165144920349121</v>
       </c>
     </row>
     <row r="210">
@@ -3642,13 +3642,13 @@
         <v>4.0724625587463379</v>
       </c>
       <c r="C210" s="2">
-        <v>3.7038049697875977</v>
+        <v>3.7036912441253662</v>
       </c>
       <c r="D210" s="2">
         <v>3.8652403354644775</v>
       </c>
       <c r="E210" s="2">
-        <v>3.8024852275848389</v>
+        <v>3.8025557994842529</v>
       </c>
     </row>
     <row r="211">
@@ -3659,13 +3659,13 @@
         <v>3.9654502868652344</v>
       </c>
       <c r="C211" s="2">
-        <v>3.9322555065155029</v>
+        <v>3.932117223739624</v>
       </c>
       <c r="D211" s="2">
         <v>3.8147697448730469</v>
       </c>
       <c r="E211" s="2">
-        <v>3.7538614273071289</v>
+        <v>3.7538542747497559</v>
       </c>
     </row>
     <row r="212">
@@ -3676,13 +3676,13 @@
         <v>3.8077449798583984</v>
       </c>
       <c r="C212" s="2">
-        <v>3.9020178318023682</v>
+        <v>3.9019424915313721</v>
       </c>
       <c r="D212" s="2">
         <v>3.9047887325286865</v>
       </c>
       <c r="E212" s="2">
-        <v>3.8427391052246094</v>
+        <v>3.8427307605743408</v>
       </c>
     </row>
     <row r="213">
@@ -3693,13 +3693,13 @@
         <v>4.2034225463867188</v>
       </c>
       <c r="C213" s="2">
-        <v>3.951674222946167</v>
+        <v>3.9520285129547119</v>
       </c>
       <c r="D213" s="2">
         <v>3.9039812088012695</v>
       </c>
       <c r="E213" s="2">
-        <v>3.838876485824585</v>
+        <v>3.838841438293457</v>
       </c>
     </row>
     <row r="214">
@@ -3710,13 +3710,13 @@
         <v>3.8825583457946777</v>
       </c>
       <c r="C214" s="2">
-        <v>3.9144248962402344</v>
+        <v>3.9145066738128662</v>
       </c>
       <c r="D214" s="2">
         <v>3.9037740230560303</v>
       </c>
       <c r="E214" s="2">
-        <v>3.8334295749664307</v>
+        <v>3.8333580493927002</v>
       </c>
     </row>
     <row r="215">
@@ -3727,13 +3727,13 @@
         <v>3.1717381477355957</v>
       </c>
       <c r="C215" s="2">
-        <v>3.19944167137146</v>
+        <v>3.1990721225738525</v>
       </c>
       <c r="D215" s="2">
         <v>3.825577974319458</v>
       </c>
       <c r="E215" s="2">
-        <v>3.7911415100097656</v>
+        <v>3.7911038398742676</v>
       </c>
     </row>
     <row r="216">
@@ -3744,13 +3744,13 @@
         <v>4.2007632255554199</v>
       </c>
       <c r="C216" s="2">
-        <v>4.2915935516357422</v>
+        <v>4.2916479110717773</v>
       </c>
       <c r="D216" s="2">
         <v>3.8674559593200684</v>
       </c>
       <c r="E216" s="2">
-        <v>3.8418922424316406</v>
+        <v>3.841914176940918</v>
       </c>
     </row>
     <row r="217">
@@ -3761,13 +3761,13 @@
         <v>3.7768843173980713</v>
       </c>
       <c r="C217" s="2">
-        <v>3.7274234294891358</v>
+        <v>3.7271184921264648</v>
       </c>
       <c r="D217" s="2">
         <v>3.8432183265686035</v>
       </c>
       <c r="E217" s="2">
-        <v>3.7712886333465576</v>
+        <v>3.7712879180908203</v>
       </c>
     </row>
     <row r="218">
@@ -3778,13 +3778,13 @@
         <v>4.0529413223266602</v>
       </c>
       <c r="C218" s="2">
-        <v>3.8782305717468262</v>
+        <v>3.8780968189239502</v>
       </c>
       <c r="D218" s="2">
         <v>3.872032642364502</v>
       </c>
       <c r="E218" s="2">
-        <v>3.8169572353363037</v>
+        <v>3.8168830871582031</v>
       </c>
     </row>
     <row r="219">
@@ -3795,13 +3795,13 @@
         <v>3.3686988353729248</v>
       </c>
       <c r="C219" s="2">
-        <v>3.3232123851776123</v>
+        <v>3.3234038352966309</v>
       </c>
       <c r="D219" s="2">
         <v>3.8413360118865967</v>
       </c>
       <c r="E219" s="2">
-        <v>3.7633109092712402</v>
+        <v>3.7631683349609375</v>
       </c>
     </row>
     <row r="220">
@@ -3812,13 +3812,13 @@
         <v>4.3423514366149902</v>
       </c>
       <c r="C220" s="2">
-        <v>4.3890109062194824</v>
+        <v>4.3894104957580567</v>
       </c>
       <c r="D220" s="2">
         <v>3.9152722358703613</v>
       </c>
       <c r="E220" s="2">
-        <v>3.8184375762939453</v>
+        <v>3.8183467388153076</v>
       </c>
     </row>
     <row r="221">
@@ -3829,13 +3829,13 @@
         <v>3.5896067619323731</v>
       </c>
       <c r="C221" s="2">
-        <v>3.2665860652923584</v>
+        <v>3.2663071155548096</v>
       </c>
       <c r="D221" s="2">
         <v>3.9038076400756836</v>
       </c>
       <c r="E221" s="2">
-        <v>3.7990748882293701</v>
+        <v>3.7989878654479981</v>
       </c>
     </row>
     <row r="222">
@@ -3846,13 +3846,13 @@
         <v>4.4627518653869629</v>
       </c>
       <c r="C222" s="2">
-        <v>4.3626918792724609</v>
+        <v>4.3623833656311035</v>
       </c>
       <c r="D222" s="2">
         <v>3.8869314193725586</v>
       </c>
       <c r="E222" s="2">
-        <v>3.7768845558166504</v>
+        <v>3.7768096923828125</v>
       </c>
     </row>
     <row r="223">
@@ -3863,13 +3863,13 @@
         <v>3.6062881946563721</v>
       </c>
       <c r="C223" s="2">
-        <v>3.4316070079803467</v>
+        <v>3.431074857711792</v>
       </c>
       <c r="D223" s="2">
         <v>3.9254381656646729</v>
       </c>
       <c r="E223" s="2">
-        <v>3.8234634399414063</v>
+        <v>3.823392391204834</v>
       </c>
     </row>
     <row r="224">
@@ -3880,13 +3880,13 @@
         <v>3.8371636867523193</v>
       </c>
       <c r="C224" s="2">
-        <v>3.6955831050872803</v>
+        <v>3.6956775188446045</v>
       </c>
       <c r="D224" s="2">
         <v>3.9103567600250244</v>
       </c>
       <c r="E224" s="2">
-        <v>3.8140592575073242</v>
+        <v>3.8139595985412598</v>
       </c>
     </row>
     <row r="225">
@@ -3897,13 +3897,13 @@
         <v>4.0975832939147949</v>
       </c>
       <c r="C225" s="2">
-        <v>4.1173281669616699</v>
+        <v>4.1174182891845703</v>
       </c>
       <c r="D225" s="2">
         <v>3.8274989128112793</v>
       </c>
       <c r="E225" s="2">
-        <v>3.7259142398834229</v>
+        <v>3.7257921695709229</v>
       </c>
     </row>
     <row r="226">
@@ -3914,13 +3914,13 @@
         <v>3.6249983310699463</v>
       </c>
       <c r="C226" s="2">
-        <v>3.5277113914489746</v>
+        <v>3.5275156497955322</v>
       </c>
       <c r="D226" s="2">
         <v>3.7693893909454346</v>
       </c>
       <c r="E226" s="2">
-        <v>3.6963553428649902</v>
+        <v>3.6962745189666748</v>
       </c>
     </row>
     <row r="227">
@@ -3931,13 +3931,13 @@
         <v>4.3995013236999512</v>
       </c>
       <c r="C227" s="2">
-        <v>4.2974400520324707</v>
+        <v>4.2973403930664063</v>
       </c>
       <c r="D227" s="2">
         <v>3.6467714309692383</v>
       </c>
       <c r="E227" s="2">
-        <v>3.5751473903656006</v>
+        <v>3.5751092433929443</v>
       </c>
     </row>
     <row r="228">
@@ -3948,13 +3948,13 @@
         <v>3.2329649925231934</v>
       </c>
       <c r="C228" s="2">
-        <v>3.2385749816894531</v>
+        <v>3.238508939743042</v>
       </c>
       <c r="D228" s="2">
         <v>3.6103711128234863</v>
       </c>
       <c r="E228" s="2">
-        <v>3.5557358264923096</v>
+        <v>3.5557513236999512</v>
       </c>
     </row>
     <row r="229">
@@ -3965,13 +3965,13 @@
         <v>3.5966322422027588</v>
       </c>
       <c r="C229" s="2">
-        <v>3.5957057476043701</v>
+        <v>3.5959024429321289</v>
       </c>
       <c r="D229" s="2">
         <v>3.5925853252410889</v>
       </c>
       <c r="E229" s="2">
-        <v>3.5280284881591797</v>
+        <v>3.5280745029449463</v>
       </c>
     </row>
     <row r="230">
@@ -3982,13 +3982,13 @@
         <v>3.0666215419769287</v>
       </c>
       <c r="C230" s="2">
-        <v>3.000556468963623</v>
+        <v>3.0006494522094727</v>
       </c>
       <c r="D230" s="2">
         <v>3.534658670425415</v>
       </c>
       <c r="E230" s="2">
-        <v>3.4723429679870605</v>
+        <v>3.4723927974700928</v>
       </c>
     </row>
     <row r="231">
@@ -3999,13 +3999,13 @@
         <v>3.3591897487640381</v>
       </c>
       <c r="C231" s="2">
-        <v>3.2718188762664795</v>
+        <v>3.271895170211792</v>
       </c>
       <c r="D231" s="2">
         <v>3.5254933834075928</v>
       </c>
       <c r="E231" s="2">
-        <v>3.486083984375</v>
+        <v>3.486137866973877</v>
       </c>
     </row>
     <row r="232">
@@ -4016,13 +4016,13 @@
         <v>3.2786858081817627</v>
       </c>
       <c r="C232" s="2">
-        <v>3.2569031715393067</v>
+        <v>3.256854772567749</v>
       </c>
       <c r="D232" s="2">
         <v>3.4817874431610107</v>
       </c>
       <c r="E232" s="2">
-        <v>3.4421172142028809</v>
+        <v>3.4422111511230469</v>
       </c>
     </row>
     <row r="233">
@@ -4033,13 +4033,13 @@
         <v>3.6770896911621094</v>
       </c>
       <c r="C233" s="2">
-        <v>3.4462180137634277</v>
+        <v>3.4465854167938233</v>
       </c>
       <c r="D233" s="2">
         <v>3.5156421661376953</v>
       </c>
       <c r="E233" s="2">
-        <v>3.4551897048950195</v>
+        <v>3.4552772045135498</v>
       </c>
     </row>
     <row r="234">
@@ -4050,13 +4050,13 @@
         <v>3.5762434005737305</v>
       </c>
       <c r="C234" s="2">
-        <v>3.6161589622497559</v>
+        <v>3.6162824630737305</v>
       </c>
       <c r="D234" s="2">
         <v>3.4382021427154541</v>
       </c>
       <c r="E234" s="2">
-        <v>3.3764863014221191</v>
+        <v>3.3765208721160889</v>
       </c>
     </row>
     <row r="235">
@@ -4067,13 +4067,13 @@
         <v>3.5425121784210205</v>
       </c>
       <c r="C235" s="2">
-        <v>3.6513800621032715</v>
+        <v>3.6512207984924316</v>
       </c>
       <c r="D235" s="2">
         <v>3.4576280117034912</v>
       </c>
       <c r="E235" s="2">
-        <v>3.3957564830780029</v>
+        <v>3.3957729339599609</v>
       </c>
     </row>
     <row r="236">
@@ -4084,13 +4084,13 @@
         <v>4.0061483383178711</v>
       </c>
       <c r="C236" s="2">
-        <v>3.9017393589019775</v>
+        <v>3.9020004272460938</v>
       </c>
       <c r="D236" s="2">
         <v>3.4786615371704102</v>
       </c>
       <c r="E236" s="2">
-        <v>3.4374094009399414</v>
+        <v>3.4373860359191895</v>
       </c>
     </row>
     <row r="237">
@@ -4101,13 +4101,13 @@
         <v>3.5376560688018799</v>
       </c>
       <c r="C237" s="2">
-        <v>3.3562273979187012</v>
+        <v>3.3561043739318848</v>
       </c>
       <c r="D237" s="2">
         <v>3.5378484725952148</v>
       </c>
       <c r="E237" s="2">
-        <v>3.4917840957641602</v>
+        <v>3.4917721748352051</v>
       </c>
     </row>
     <row r="238">
@@ -4118,13 +4118,13 @@
         <v>2.8996732234954834</v>
       </c>
       <c r="C238" s="2">
-        <v>2.8873741626739502</v>
+        <v>2.8870949745178223</v>
       </c>
       <c r="D238" s="2">
         <v>3.5016093254089356</v>
       </c>
       <c r="E238" s="2">
-        <v>3.4825983047485352</v>
+        <v>3.482529878616333</v>
       </c>
     </row>
     <row r="239">
@@ -4135,13 +4135,13 @@
         <v>3.2414543628692627</v>
       </c>
       <c r="C239" s="2">
-        <v>3.1739890575408936</v>
+        <v>3.173917293548584</v>
       </c>
       <c r="D239" s="2">
         <v>3.4521110057830811</v>
       </c>
       <c r="E239" s="2">
-        <v>3.443530797958374</v>
+        <v>3.443446159362793</v>
       </c>
     </row>
     <row r="240">
@@ -4152,13 +4152,13 @@
         <v>3.5484905242919922</v>
       </c>
       <c r="C240" s="2">
-        <v>3.6466951370239258</v>
+        <v>3.6464142799377441</v>
       </c>
       <c r="D240" s="2">
         <v>3.4422399997711182</v>
       </c>
       <c r="E240" s="2">
-        <v>3.427302360534668</v>
+        <v>3.4272570610046387</v>
       </c>
     </row>
     <row r="241">
@@ -4169,13 +4169,13 @@
         <v>3.8113682270050049</v>
       </c>
       <c r="C241" s="2">
-        <v>3.7462739944458008</v>
+        <v>3.7463302612304688</v>
       </c>
       <c r="D241" s="2">
         <v>3.3008048534393311</v>
       </c>
       <c r="E241" s="2">
-        <v>3.3022217750549317</v>
+        <v>3.3021504878997803</v>
       </c>
     </row>
     <row r="242">
@@ -4186,13 +4186,13 @@
         <v>3.3509376049041748</v>
       </c>
       <c r="C242" s="2">
-        <v>3.3635461330413818</v>
+        <v>3.3634037971496582</v>
       </c>
       <c r="D242" s="2">
         <v>3.2847714424133301</v>
       </c>
       <c r="E242" s="2">
-        <v>3.2973198890686035</v>
+        <v>3.2972793579101563</v>
       </c>
     </row>
     <row r="243">
@@ -4203,13 +4203,13 @@
         <v>3.1307578086853027</v>
       </c>
       <c r="C243" s="2">
-        <v>3.2645518779754639</v>
+        <v>3.264528751373291</v>
       </c>
       <c r="D243" s="2">
         <v>3.320873498916626</v>
       </c>
       <c r="E243" s="2">
-        <v>3.3388185501098633</v>
+        <v>3.3388087749481201</v>
       </c>
     </row>
     <row r="244">
@@ -4220,13 +4220,13 @@
         <v>3.45367431640625</v>
       </c>
       <c r="C244" s="2">
-        <v>3.505324125289917</v>
+        <v>3.505518913269043</v>
       </c>
       <c r="D244" s="2">
         <v>3.2778739929199219</v>
       </c>
       <c r="E244" s="2">
-        <v>3.3054866790771484</v>
+        <v>3.3054709434509277</v>
       </c>
     </row>
     <row r="245">
@@ -4237,13 +4237,13 @@
         <v>2.7332313060760498</v>
       </c>
       <c r="C245" s="2">
-        <v>2.7760131359100342</v>
+        <v>2.7760417461395264</v>
       </c>
       <c r="D245" s="2">
         <v>3.2040784358978272</v>
       </c>
       <c r="E245" s="2">
-        <v>3.2013559341430664</v>
+        <v>3.20133376121521</v>
       </c>
     </row>
     <row r="246">
@@ -4254,13 +4254,13 @@
         <v>3.393355131149292</v>
       </c>
       <c r="C246" s="2">
-        <v>3.312110424041748</v>
+        <v>3.3122632503509522</v>
       </c>
       <c r="D246" s="2">
         <v>3.1632518768310547</v>
       </c>
       <c r="E246" s="2">
-        <v>3.1557176113128662</v>
+        <v>3.1556718349456787</v>
       </c>
     </row>
     <row r="247">
@@ -4271,13 +4271,13 @@
         <v>3.2245914936065674</v>
       </c>
       <c r="C247" s="2">
-        <v>3.2608621120452881</v>
+        <v>3.2608602046966553</v>
       </c>
       <c r="D247" s="2">
         <v>3.1315021514892578</v>
       </c>
       <c r="E247" s="2">
-        <v>3.1052908897399902</v>
+        <v>3.1052281856536865</v>
       </c>
     </row>
     <row r="248">
@@ -4288,13 +4288,13 @@
         <v>2.8544595241546631</v>
       </c>
       <c r="C248" s="2">
-        <v>2.8740029335021973</v>
+        <v>2.8738763332366943</v>
       </c>
       <c r="D248" s="2">
         <v>3.192234992980957</v>
       </c>
       <c r="E248" s="2">
-        <v>3.1593151092529297</v>
+        <v>3.1592886447906494</v>
       </c>
     </row>
     <row r="249">
@@ -4305,13 +4305,13 @@
         <v>2.8843305110931397</v>
       </c>
       <c r="C249" s="2">
-        <v>2.7095177173614502</v>
+        <v>2.7091798782348633</v>
       </c>
       <c r="D249" s="2">
         <v>3.147158145904541</v>
       </c>
       <c r="E249" s="2">
-        <v>3.0938005447387695</v>
+        <v>3.0937590599060059</v>
       </c>
     </row>
     <row r="250">
@@ -4322,13 +4322,13 @@
         <v>3.4439294338226318</v>
       </c>
       <c r="C250" s="2">
-        <v>3.3355309963226318</v>
+        <v>3.3353736400604248</v>
       </c>
       <c r="D250" s="2">
         <v>3.199044942855835</v>
       </c>
       <c r="E250" s="2">
-        <v>3.1375119686126709</v>
+        <v>3.1375076770782471</v>
       </c>
     </row>
     <row r="251">
@@ -4339,13 +4339,13 @@
         <v>3.0651891231536865</v>
       </c>
       <c r="C251" s="2">
-        <v>2.909705400466919</v>
+        <v>2.9094114303588867</v>
       </c>
       <c r="D251" s="2">
         <v>3.1490232944488525</v>
       </c>
       <c r="E251" s="2">
-        <v>3.0802521705627442</v>
+        <v>3.0802567005157471</v>
       </c>
     </row>
     <row r="252">
@@ -4356,13 +4356,13 @@
         <v>3.6773538589477539</v>
       </c>
       <c r="C252" s="2">
-        <v>3.7507684230804443</v>
+        <v>3.7510719299316406</v>
       </c>
       <c r="D252" s="2">
         <v>3.1537802219390869</v>
       </c>
       <c r="E252" s="2">
-        <v>3.0670797824859619</v>
+        <v>3.0671029090881348</v>
       </c>
     </row>
     <row r="253">
@@ -4373,13 +4373,13 @@
         <v>3.0479822158813477</v>
       </c>
       <c r="C253" s="2">
-        <v>2.9156930446624756</v>
+        <v>2.9157538414001465</v>
       </c>
       <c r="D253" s="2">
         <v>3.1576163768768311</v>
       </c>
       <c r="E253" s="2">
-        <v>3.0685563087463379</v>
+        <v>3.0685808658599854</v>
       </c>
     </row>
     <row r="254">
@@ -4390,13 +4390,13 @@
         <v>3.2002134323120117</v>
       </c>
       <c r="C254" s="2">
-        <v>3.1694176197052002</v>
+        <v>3.1697788238525391</v>
       </c>
       <c r="D254" s="2">
         <v>3.163780689239502</v>
       </c>
       <c r="E254" s="2">
-        <v>3.073836088180542</v>
+        <v>3.0738842487335205</v>
       </c>
     </row>
     <row r="255">
@@ -4407,13 +4407,13 @@
         <v>2.943159818649292</v>
       </c>
       <c r="C255" s="2">
-        <v>2.7967720031738281</v>
+        <v>2.7970049381256104</v>
       </c>
       <c r="D255" s="2">
         <v>3.151989221572876</v>
       </c>
       <c r="E255" s="2">
-        <v>3.0838906764984131</v>
+        <v>3.0839290618896484</v>
       </c>
     </row>
     <row r="256">
@@ -4424,13 +4424,13 @@
         <v>3.2674050331115723</v>
       </c>
       <c r="C256" s="2">
-        <v>3.1423089504241943</v>
+        <v>3.142474889755249</v>
       </c>
       <c r="D256" s="2">
         <v>3.1423709392547608</v>
       </c>
       <c r="E256" s="2">
-        <v>3.1024115085601807</v>
+        <v>3.1024479866027832</v>
       </c>
     </row>
     <row r="257">
@@ -4441,13 +4441,13 @@
         <v>2.8889834880828858</v>
       </c>
       <c r="C257" s="2">
-        <v>2.8872919082641602</v>
+        <v>2.887178897857666</v>
       </c>
       <c r="D257" s="2">
         <v>3.084669828414917</v>
       </c>
       <c r="E257" s="2">
-        <v>3.0353143215179443</v>
+        <v>3.0353004932403565</v>
       </c>
     </row>
     <row r="258">
@@ -4458,13 +4458,13 @@
         <v>2.9398102760314942</v>
       </c>
       <c r="C258" s="2">
-        <v>2.7570374011993408</v>
+        <v>2.7569091320037842</v>
       </c>
       <c r="D258" s="2">
         <v>3.1128582954406738</v>
       </c>
       <c r="E258" s="2">
-        <v>3.0629370212554932</v>
+        <v>3.0629265308380127</v>
       </c>
     </row>
     <row r="259">
@@ -4475,13 +4475,13 @@
         <v>3.337805986404419</v>
       </c>
       <c r="C259" s="2">
-        <v>3.426020622253418</v>
+        <v>3.4257783889770508</v>
       </c>
       <c r="D259" s="2">
         <v>3.1047215461730957</v>
       </c>
       <c r="E259" s="2">
-        <v>2.9980416297912598</v>
+        <v>2.9980030059814453</v>
       </c>
     </row>
     <row r="260">
@@ -4492,13 +4492,13 @@
         <v>2.9786252975463867</v>
       </c>
       <c r="C260" s="2">
-        <v>3.0763943195343018</v>
+        <v>3.0760800838470459</v>
       </c>
       <c r="D260" s="2">
         <v>3.1624977588653564</v>
       </c>
       <c r="E260" s="2">
-        <v>3.0865018367767334</v>
+        <v>3.086444616317749</v>
       </c>
     </row>
     <row r="261">
@@ -4509,13 +4509,13 @@
         <v>3.1580421924591065</v>
       </c>
       <c r="C261" s="2">
-        <v>3.1468939781188965</v>
+        <v>3.146744966506958</v>
       </c>
       <c r="D261" s="2">
         <v>3.1564946174621582</v>
       </c>
       <c r="E261" s="2">
-        <v>3.0854387283325195</v>
+        <v>3.0853116512298584</v>
       </c>
     </row>
     <row r="262">
@@ -4526,13 +4526,13 @@
         <v>3.3016800880432129</v>
       </c>
       <c r="C262" s="2">
-        <v>3.1642963886260986</v>
+        <v>3.16438889503479</v>
       </c>
       <c r="D262" s="2">
         <v>3.2513048648834229</v>
       </c>
       <c r="E262" s="2">
-        <v>3.1756100654602051</v>
+        <v>3.1755039691925049</v>
       </c>
     </row>
     <row r="263">
@@ -4543,13 +4543,13 @@
         <v>3.1269807815551758</v>
       </c>
       <c r="C263" s="2">
-        <v>2.5853586196899414</v>
+        <v>2.5854659080505371</v>
       </c>
       <c r="D263" s="2">
         <v>3.3401598930358887</v>
       </c>
       <c r="E263" s="2">
-        <v>3.2745096683502197</v>
+        <v>3.2744183540344238</v>
       </c>
     </row>
     <row r="264">
@@ -4560,13 +4560,13 @@
         <v>3.4631462097167969</v>
       </c>
       <c r="C264" s="2">
-        <v>3.5929138660430908</v>
+        <v>3.592979907989502</v>
       </c>
       <c r="D264" s="2">
         <v>3.3486342430114746</v>
       </c>
       <c r="E264" s="2">
-        <v>3.2674589157104492</v>
+        <v>3.2674283981323242</v>
       </c>
     </row>
     <row r="265">
@@ -4577,13 +4577,13 @@
         <v>3.2133762836456299</v>
       </c>
       <c r="C265" s="2">
-        <v>3.1327419281005859</v>
+        <v>3.132279634475708</v>
       </c>
       <c r="D265" s="2">
         <v>3.3644547462463379</v>
       </c>
       <c r="E265" s="2">
-        <v>3.2573695182800293</v>
+        <v>3.2574100494384766</v>
       </c>
     </row>
     <row r="266">
@@ -4594,13 +4594,13 @@
         <v>3.7422761917114258</v>
       </c>
       <c r="C266" s="2">
-        <v>3.6988334655761719</v>
+        <v>3.6989095211029053</v>
       </c>
       <c r="D266" s="2">
         <v>3.3512697219848633</v>
       </c>
       <c r="E266" s="2">
-        <v>3.2491528987884521</v>
+        <v>3.2491979598999023</v>
       </c>
     </row>
     <row r="267">
@@ -4611,13 +4611,13 @@
         <v>3.7395064830780029</v>
       </c>
       <c r="C267" s="2">
-        <v>3.6471343040466309</v>
+        <v>3.6471381187438965</v>
       </c>
       <c r="D267" s="2">
         <v>3.342789888381958</v>
       </c>
       <c r="E267" s="2">
-        <v>3.2516083717346191</v>
+        <v>3.2516565322875977</v>
       </c>
     </row>
     <row r="268">
@@ -4628,13 +4628,13 @@
         <v>3.4140751361846924</v>
       </c>
       <c r="C268" s="2">
-        <v>3.3625633716583252</v>
+        <v>3.3628683090209961</v>
       </c>
       <c r="D268" s="2">
         <v>3.3792126178741455</v>
       </c>
       <c r="E268" s="2">
-        <v>3.3556587696075439</v>
+        <v>3.3557162284851074</v>
       </c>
     </row>
     <row r="269">
@@ -4645,13 +4645,13 @@
         <v>3.121009111404419</v>
       </c>
       <c r="C269" s="2">
-        <v>2.9855892658233643</v>
+        <v>2.9859156608581543</v>
       </c>
       <c r="D269" s="2">
         <v>3.4116978645324707</v>
       </c>
       <c r="E269" s="2">
-        <v>3.3220298290252686</v>
+        <v>3.3220858573913574</v>
       </c>
     </row>
     <row r="270">
@@ -4662,13 +4662,13 @@
         <v>3.0393767356872559</v>
       </c>
       <c r="C270" s="2">
-        <v>3.0729439258575439</v>
+        <v>3.0728359222412109</v>
       </c>
       <c r="D270" s="2">
         <v>3.5137777328491211</v>
       </c>
       <c r="E270" s="2">
-        <v>3.4122357368469238</v>
+        <v>3.4122979640960693</v>
       </c>
     </row>
     <row r="271">
@@ -4679,13 +4679,13 @@
         <v>3.22536301612854</v>
       </c>
       <c r="C271" s="2">
-        <v>3.1863973140716553</v>
+        <v>3.1865165233612061</v>
       </c>
       <c r="D271" s="2">
         <v>3.5534012317657471</v>
       </c>
       <c r="E271" s="2">
-        <v>3.4411466121673584</v>
+        <v>3.4412236213684082</v>
       </c>
     </row>
     <row r="272">
@@ -4696,13 +4696,13 @@
         <v>3.454784631729126</v>
       </c>
       <c r="C272" s="2">
-        <v>3.5218105316162109</v>
+        <v>3.5220017433166504</v>
       </c>
       <c r="D272" s="2">
         <v>3.536442756652832</v>
       </c>
       <c r="E272" s="2">
-        <v>3.4472885131835938</v>
+        <v>3.447390079498291</v>
       </c>
     </row>
     <row r="273">
@@ -4713,13 +4713,13 @@
         <v>3.7555122375488281</v>
       </c>
       <c r="C273" s="2">
-        <v>3.2902538776397705</v>
+        <v>3.2903077602386475</v>
       </c>
       <c r="D273" s="2">
         <v>3.5827023983001709</v>
       </c>
       <c r="E273" s="2">
-        <v>3.4740884304046631</v>
+        <v>3.4741325378417969</v>
       </c>
     </row>
     <row r="274">
@@ -4730,13 +4730,13 @@
         <v>4.1320962905883789</v>
       </c>
       <c r="C274" s="2">
-        <v>3.9445955753326416</v>
+        <v>3.9441883563995361</v>
       </c>
       <c r="D274" s="2">
         <v>3.669377326965332</v>
       </c>
       <c r="E274" s="2">
-        <v>3.5779094696044922</v>
+        <v>3.577911376953125</v>
       </c>
     </row>
     <row r="275">
@@ -4747,13 +4747,13 @@
         <v>4.0988874435424805</v>
       </c>
       <c r="C275" s="2">
-        <v>3.9590320587158203</v>
+        <v>3.9592409133911133</v>
       </c>
       <c r="D275" s="2">
         <v>3.8051445484161377</v>
       </c>
       <c r="E275" s="2">
-        <v>3.7187700271606445</v>
+        <v>3.7187836170196533</v>
       </c>
     </row>
     <row r="276">
@@ -4764,13 +4764,13 @@
         <v>3.5868797302246094</v>
       </c>
       <c r="C276" s="2">
-        <v>3.7024102210998535</v>
+        <v>3.7026348114013672</v>
       </c>
       <c r="D276" s="2">
         <v>3.8741528987884521</v>
       </c>
       <c r="E276" s="2">
-        <v>3.7926139831542969</v>
+        <v>3.7925889492034912</v>
       </c>
     </row>
     <row r="277">
@@ -4781,13 +4781,13 @@
         <v>3.8304121494293213</v>
       </c>
       <c r="C277" s="2">
-        <v>3.6037640571594238</v>
+        <v>3.6035506725311279</v>
       </c>
       <c r="D277" s="2">
         <v>3.9784433841705322</v>
       </c>
       <c r="E277" s="2">
-        <v>3.8770515918731689</v>
+        <v>3.8769838809967041</v>
       </c>
     </row>
     <row r="278">
@@ -4798,13 +4798,13 @@
         <v>3.9010844230651855</v>
       </c>
       <c r="C278" s="2">
-        <v>3.9199776649475098</v>
+        <v>3.919926643371582</v>
       </c>
       <c r="D278" s="2">
         <v>4.0363903045654297</v>
       </c>
       <c r="E278" s="2">
-        <v>3.9944291114807129</v>
+        <v>3.9943528175354004</v>
       </c>
     </row>
     <row r="279">
@@ -4815,13 +4815,13 @@
         <v>4.2612814903259277</v>
       </c>
       <c r="C279" s="2">
-        <v>4.3406882286071777</v>
+        <v>4.3406848907470703</v>
       </c>
       <c r="D279" s="2">
         <v>4.0706839561462402</v>
       </c>
       <c r="E279" s="2">
-        <v>4.0010371208190918</v>
+        <v>4.0010232925415039</v>
       </c>
     </row>
     <row r="280">
@@ -4832,13 +4832,13 @@
         <v>3.8464369773864746</v>
       </c>
       <c r="C280" s="2">
-        <v>3.8509936332702637</v>
+        <v>3.8507645130157471</v>
       </c>
       <c r="D280" s="2">
         <v>4.0286593437194824</v>
       </c>
       <c r="E280" s="2">
-        <v>3.9587676525115967</v>
+        <v>3.9587280750274658</v>
       </c>
     </row>
     <row r="281">
@@ -4849,13 +4849,13 @@
         <v>4.393399715423584</v>
       </c>
       <c r="C281" s="2">
-        <v>4.2817497253417969</v>
+        <v>4.2815566062927246</v>
       </c>
       <c r="D281" s="2">
         <v>4.0808019638061523</v>
       </c>
       <c r="E281" s="2">
-        <v>3.9980082511901856</v>
+        <v>3.9979617595672608</v>
       </c>
     </row>
     <row r="282">
@@ -4866,13 +4866,13 @@
         <v>4.2770347595214844</v>
       </c>
       <c r="C282" s="2">
-        <v>4.3466510772705078</v>
+        <v>4.3466272354125977</v>
       </c>
       <c r="D282" s="2">
         <v>4.1467533111572266</v>
       </c>
       <c r="E282" s="2">
-        <v>4.0604300498962402</v>
+        <v>4.0603470802307129</v>
       </c>
     </row>
     <row r="283">
@@ -4883,13 +4883,13 @@
         <v>4.4407405853271484</v>
       </c>
       <c r="C283" s="2">
-        <v>4.0040693283081055</v>
+        <v>4.0042252540588379</v>
       </c>
       <c r="D283" s="2">
         <v>4.2746191024780274</v>
       </c>
       <c r="E283" s="2">
-        <v>4.1574592590332031</v>
+        <v>4.1574296951293945</v>
       </c>
     </row>
     <row r="284">
@@ -4900,13 +4900,13 @@
         <v>3.7206640243530273</v>
       </c>
       <c r="C284" s="2">
-        <v>3.5786054134368896</v>
+        <v>3.5785825252532959</v>
       </c>
       <c r="D284" s="2">
         <v>4.3695507049560547</v>
       </c>
       <c r="E284" s="2">
-        <v>4.2505745887756348</v>
+        <v>4.2505507469177246</v>
       </c>
     </row>
     <row r="285">
@@ -4917,13 +4917,13 @@
         <v>4.0561628341674805</v>
       </c>
       <c r="C285" s="2">
-        <v>4.0555744171142578</v>
+        <v>4.0557365417480469</v>
       </c>
       <c r="D285" s="2">
         <v>4.5183582305908203</v>
       </c>
       <c r="E285" s="2">
-        <v>4.4000577926635742</v>
+        <v>4.4000530242919922</v>
       </c>
     </row>
     <row r="286">
@@ -4934,13 +4934,13 @@
         <v>4.4239740371704102</v>
       </c>
       <c r="C286" s="2">
-        <v>4.165560245513916</v>
+        <v>4.1650214195251465</v>
       </c>
       <c r="D286" s="2">
         <v>4.4677720069885254</v>
       </c>
       <c r="E286" s="2">
-        <v>4.3594889640808105</v>
+        <v>4.3594851493835449</v>
       </c>
     </row>
     <row r="287">
@@ -4951,13 +4951,13 @@
         <v>5.051877498626709</v>
       </c>
       <c r="C287" s="2">
-        <v>4.793243408203125</v>
+        <v>4.7936687469482422</v>
       </c>
       <c r="D287" s="2">
         <v>4.4230818748474121</v>
       </c>
       <c r="E287" s="2">
-        <v>4.3102130889892578</v>
+        <v>4.3102331161499023</v>
       </c>
     </row>
     <row r="288">
@@ -4968,13 +4968,13 @@
         <v>5.1156654357910156</v>
       </c>
       <c r="C288" s="2">
-        <v>5.1787223815917969</v>
+        <v>5.17877197265625</v>
       </c>
       <c r="D288" s="2">
         <v>4.3849377632141113</v>
       </c>
       <c r="E288" s="2">
-        <v>4.3041539192199707</v>
+        <v>4.3041610717773438</v>
       </c>
     </row>
     <row r="289">
@@ -4985,13 +4985,13 @@
         <v>5.1857056617736817</v>
       </c>
       <c r="C289" s="2">
-        <v>5.1963443756103516</v>
+        <v>5.1962852478027344</v>
       </c>
       <c r="D289" s="2">
         <v>4.3976068496704102</v>
       </c>
       <c r="E289" s="2">
-        <v>4.2742228507995605</v>
+        <v>4.2742218971252442</v>
       </c>
     </row>
     <row r="290">
@@ -5002,13 +5002,13 @@
         <v>3.9381241798400879</v>
       </c>
       <c r="C290" s="2">
-        <v>3.916630744934082</v>
+        <v>3.9164471626281738</v>
       </c>
       <c r="D290" s="2">
         <v>4.3462710380554199</v>
       </c>
       <c r="E290" s="2">
-        <v>4.2081379890441895</v>
+        <v>4.2081432342529297</v>
       </c>
     </row>
     <row r="291">
@@ -5019,13 +5019,13 @@
         <v>3.8748221397399902</v>
       </c>
       <c r="C291" s="2">
-        <v>3.9031674861907959</v>
+        <v>3.9033575057983398</v>
       </c>
       <c r="D291" s="2">
         <v>4.2555227279663086</v>
       </c>
       <c r="E291" s="2">
-        <v>4.1277189254760742</v>
+        <v>4.1278090476989746</v>
       </c>
     </row>
     <row r="292">
@@ -5036,13 +5036,13 @@
         <v>4.097442626953125</v>
       </c>
       <c r="C292" s="2">
-        <v>3.9495370388031006</v>
+        <v>3.9495804309844971</v>
       </c>
       <c r="D292" s="2">
         <v>4.1055941581726074</v>
       </c>
       <c r="E292" s="2">
-        <v>4.0096549987792969</v>
+        <v>4.0096855163574219</v>
       </c>
     </row>
     <row r="293">
@@ -5053,13 +5053,13 @@
         <v>3.8346874713897705</v>
       </c>
       <c r="C293" s="2">
-        <v>3.3092250823974609</v>
+        <v>3.3091270923614502</v>
       </c>
       <c r="D293" s="2">
         <v>3.9219682216644287</v>
       </c>
       <c r="E293" s="2">
-        <v>3.8141372203826904</v>
+        <v>3.814133882522583</v>
       </c>
     </row>
     <row r="294">
@@ -5070,13 +5070,13 @@
         <v>3.5941383838653564</v>
       </c>
       <c r="C294" s="2">
-        <v>3.4608108997344971</v>
+        <v>3.4610283374786377</v>
       </c>
       <c r="D294" s="2">
         <v>3.7633950710296631</v>
       </c>
       <c r="E294" s="2">
-        <v>3.6285693645477295</v>
+        <v>3.6285617351531982</v>
       </c>
     </row>
     <row r="295">
@@ -5087,13 +5087,13 @@
         <v>3.6072416305541992</v>
       </c>
       <c r="C295" s="2">
-        <v>3.4417872428894043</v>
+        <v>3.4420135021209717</v>
       </c>
       <c r="D295" s="2">
         <v>3.7637808322906494</v>
       </c>
       <c r="E295" s="2">
-        <v>3.6269819736480713</v>
+        <v>3.6269943714141846</v>
       </c>
     </row>
     <row r="296">
@@ -5104,13 +5104,13 @@
         <v>3.7025206089019775</v>
       </c>
       <c r="C296" s="2">
-        <v>3.730670690536499</v>
+        <v>3.7305569648742676</v>
       </c>
       <c r="D296" s="2">
         <v>3.7337501049041748</v>
       </c>
       <c r="E296" s="2">
-        <v>3.5714991092681885</v>
+        <v>3.5714774131774902</v>
       </c>
     </row>
     <row r="297">
@@ -5121,13 +5121,13 @@
         <v>3.4630312919616699</v>
       </c>
       <c r="C297" s="2">
-        <v>3.4190623760223389</v>
+        <v>3.4188096523284912</v>
       </c>
       <c r="D297" s="2">
         <v>3.7067553997039795</v>
       </c>
       <c r="E297" s="2">
-        <v>3.5640420913696289</v>
+        <v>3.5639703273773193</v>
       </c>
     </row>
     <row r="298">
@@ -5138,13 +5138,13 @@
         <v>3.7585482597351074</v>
       </c>
       <c r="C298" s="2">
-        <v>3.526233434677124</v>
+        <v>3.5261342525482178</v>
       </c>
       <c r="D298" s="2">
         <v>3.6816940307617188</v>
       </c>
       <c r="E298" s="2">
-        <v>3.6070563793182373</v>
+        <v>3.6069784164428711</v>
       </c>
     </row>
     <row r="299">
@@ -5155,13 +5155,13 @@
         <v>3.9415957927703858</v>
       </c>
       <c r="C299" s="2">
-        <v>3.9023435115814209</v>
+        <v>3.9023425579071045</v>
       </c>
       <c r="D299" s="2">
         <v>3.7416007518768311</v>
       </c>
       <c r="E299" s="2">
-        <v>3.6904428005218506</v>
+        <v>3.690394401550293</v>
       </c>
     </row>
     <row r="300">
@@ -5172,13 +5172,13 @@
         <v>3.6045451164245606</v>
       </c>
       <c r="C300" s="2">
-        <v>3.4038214683532715</v>
+        <v>3.4037041664123535</v>
       </c>
       <c r="D300" s="2">
         <v>3.7711029052734375</v>
       </c>
       <c r="E300" s="2">
-        <v>3.7323403358459473</v>
+        <v>3.7322702407836914</v>
       </c>
     </row>
     <row r="301">
@@ -5189,13 +5189,13 @@
         <v>3.8544893264770508</v>
       </c>
       <c r="C301" s="2">
-        <v>3.8824234008789063</v>
+        <v>3.8820168972015381</v>
       </c>
       <c r="D301" s="2">
         <v>3.8967525959014893</v>
       </c>
       <c r="E301" s="2">
-        <v>3.8553950786590576</v>
+        <v>3.8553671836853027</v>
       </c>
     </row>
     <row r="302">
@@ -5206,13 +5206,13 @@
         <v>3.6091365814208984</v>
       </c>
       <c r="C302" s="2">
-        <v>3.6963534355163574</v>
+        <v>3.6961984634399414</v>
       </c>
       <c r="D302" s="2">
         <v>3.8768432140350342</v>
       </c>
       <c r="E302" s="2">
-        <v>3.8409829139709473</v>
+        <v>3.840977668762207</v>
       </c>
     </row>
     <row r="303">
@@ -5223,13 +5223,13 @@
         <v>4.1332988739013672</v>
       </c>
       <c r="C303" s="2">
-        <v>4.2112889289855957</v>
+        <v>4.2117724418640137</v>
       </c>
       <c r="D303" s="2">
         <v>3.8511974811553955</v>
       </c>
       <c r="E303" s="2">
-        <v>3.8392751216888428</v>
+        <v>3.8392684459686279</v>
       </c>
     </row>
     <row r="304">
@@ -5240,13 +5240,13 @@
         <v>3.8727607727050781</v>
       </c>
       <c r="C304" s="2">
-        <v>3.818866491317749</v>
+        <v>3.8188967704772949</v>
       </c>
       <c r="D304" s="2">
         <v>3.7936034202575684</v>
       </c>
       <c r="E304" s="2">
-        <v>3.7871334552764893</v>
+        <v>3.7871115207672119</v>
       </c>
     </row>
     <row r="305">
@@ -5257,13 +5257,13 @@
         <v>4.8333673477172852</v>
       </c>
       <c r="C305" s="2">
-        <v>4.8381619453430176</v>
+        <v>4.8384284973144531</v>
       </c>
       <c r="D305" s="2">
         <v>3.8048264980316162</v>
       </c>
       <c r="E305" s="2">
-        <v>3.801276683807373</v>
+        <v>3.8012702465057373</v>
       </c>
     </row>
     <row r="306">
@@ -5274,13 +5274,13 @@
         <v>3.2838468551635742</v>
       </c>
       <c r="C306" s="2">
-        <v>3.2893526554107666</v>
+        <v>3.2893056869506836</v>
       </c>
       <c r="D306" s="2">
         <v>3.7963066101074219</v>
       </c>
       <c r="E306" s="2">
-        <v>3.7908058166503906</v>
+        <v>3.790813684463501</v>
       </c>
     </row>
     <row r="307">
@@ -5291,13 +5291,13 @@
         <v>3.5277373790740967</v>
       </c>
       <c r="C307" s="2">
-        <v>3.5108640193939209</v>
+        <v>3.5107502937316895</v>
       </c>
       <c r="D307" s="2">
         <v>3.8119418621063232</v>
       </c>
       <c r="E307" s="2">
-        <v>3.7939679622650146</v>
+        <v>3.7940349578857422</v>
       </c>
     </row>
     <row r="308">
@@ -5308,13 +5308,13 @@
         <v>3.4232485294342041</v>
       </c>
       <c r="C308" s="2">
-        <v>3.4330697059631348</v>
+        <v>3.4329309463500977</v>
       </c>
       <c r="D308" s="2">
         <v>3.7372992038726807</v>
       </c>
       <c r="E308" s="2">
-        <v>3.7058742046356201</v>
+        <v>3.7059009075164795</v>
       </c>
     </row>
     <row r="309">
@@ -5325,13 +5325,13 @@
         <v>3.7055525779724121</v>
       </c>
       <c r="C309" s="2">
-        <v>3.5311105251312256</v>
+        <v>3.5311329364776611</v>
       </c>
       <c r="D309" s="2">
         <v>3.6620819568634033</v>
       </c>
       <c r="E309" s="2">
-        <v>3.6215085983276367</v>
+        <v>3.6215558052062988</v>
       </c>
     </row>
     <row r="310">
@@ -5342,13 +5342,13 @@
         <v>3.7778110504150391</v>
       </c>
       <c r="C310" s="2">
-        <v>3.7881851196289063</v>
+        <v>3.7879064083099365</v>
       </c>
       <c r="D310" s="2">
         <v>3.5311498641967774</v>
       </c>
       <c r="E310" s="2">
-        <v>3.5019087791442871</v>
+        <v>3.5018754005432129</v>
       </c>
     </row>
     <row r="311">
@@ -5359,13 +5359,13 @@
         <v>3.7498531341552734</v>
       </c>
       <c r="C311" s="2">
-        <v>3.724811315536499</v>
+        <v>3.7251913547515869</v>
       </c>
       <c r="D311" s="2">
         <v>3.5360217094421387</v>
       </c>
       <c r="E311" s="2">
-        <v>3.4952208995819092</v>
+        <v>3.4952027797698975</v>
       </c>
     </row>
     <row r="312">
@@ -5376,13 +5376,13 @@
         <v>3.4615161418914795</v>
       </c>
       <c r="C312" s="2">
-        <v>3.4184467792510986</v>
+        <v>3.4185652732849121</v>
       </c>
       <c r="D312" s="2">
         <v>3.5479559898376465</v>
       </c>
       <c r="E312" s="2">
-        <v>3.4943287372589111</v>
+        <v>3.4943234920501709</v>
       </c>
     </row>
     <row r="313">
@@ -5393,13 +5393,13 @@
         <v>3.1958053112030029</v>
       </c>
       <c r="C313" s="2">
-        <v>3.0595757961273193</v>
+        <v>3.0597913265228271</v>
       </c>
       <c r="D313" s="2">
         <v>3.5787432193756104</v>
       </c>
       <c r="E313" s="2">
-        <v>3.5175466537475586</v>
+        <v>3.5175666809082031</v>
       </c>
     </row>
     <row r="314">
@@ -5410,13 +5410,13 @@
         <v>3.6549777984619141</v>
       </c>
       <c r="C314" s="2">
-        <v>3.761763334274292</v>
+        <v>3.7613039016723633</v>
       </c>
       <c r="D314" s="2">
         <v>3.5610930919647217</v>
       </c>
       <c r="E314" s="2">
-        <v>3.5201561450958252</v>
+        <v>3.5201802253723145</v>
       </c>
     </row>
     <row r="315">
@@ -5427,13 +5427,13 @@
         <v>3.3276932239532471</v>
       </c>
       <c r="C315" s="2">
-        <v>3.2291615009307861</v>
+        <v>3.2292530536651611</v>
       </c>
       <c r="D315" s="2">
         <v>3.5440859794616699</v>
       </c>
       <c r="E315" s="2">
-        <v>3.4887006282806396</v>
+        <v>3.4887814521789551</v>
       </c>
     </row>
     <row r="316">
@@ -5444,13 +5444,13 @@
         <v>3.6351451873779297</v>
       </c>
       <c r="C316" s="2">
-        <v>3.5028355121612549</v>
+        <v>3.5028359889984131</v>
       </c>
       <c r="D316" s="2">
         <v>3.4792108535766602</v>
       </c>
       <c r="E316" s="2">
-        <v>3.4227066040039063</v>
+        <v>3.4227173328399658</v>
       </c>
     </row>
     <row r="317">
@@ -5461,13 +5461,13 @@
         <v>3.700333833694458</v>
       </c>
       <c r="C317" s="2">
-        <v>3.6420290470123291</v>
+        <v>3.6421205997467041</v>
       </c>
       <c r="D317" s="2">
         <v>3.4789412021636963</v>
       </c>
       <c r="E317" s="2">
-        <v>3.4114162921905518</v>
+        <v>3.4113972187042236</v>
       </c>
     </row>
     <row r="318">
@@ -5478,13 +5478,13 @@
         <v>3.5467014312744141</v>
       </c>
       <c r="C318" s="2">
-        <v>3.554595947265625</v>
+        <v>3.5546541213989258</v>
       </c>
       <c r="D318" s="2">
         <v>3.472646951675415</v>
       </c>
       <c r="E318" s="2">
-        <v>3.3976559638977051</v>
+        <v>3.3975999355316162</v>
       </c>
     </row>
     <row r="319">
@@ -5495,13 +5495,13 @@
         <v>3.6247472763061523</v>
       </c>
       <c r="C319" s="2">
-        <v>3.5050864219665527</v>
+        <v>3.5053172111511231</v>
       </c>
       <c r="D319" s="2">
         <v>3.4430778026580811</v>
       </c>
       <c r="E319" s="2">
-        <v>3.3560590744018555</v>
+        <v>3.3560159206390381</v>
       </c>
     </row>
     <row r="320">
@@ -5512,13 +5512,13 @@
         <v>3.1659765243530273</v>
       </c>
       <c r="C320" s="2">
-        <v>3.1308660507202149</v>
+        <v>3.1306149959564209</v>
       </c>
       <c r="D320" s="2">
         <v>3.4279749393463135</v>
       </c>
       <c r="E320" s="2">
-        <v>3.3430919647216797</v>
+        <v>3.3430447578430176</v>
       </c>
     </row>
     <row r="321">
@@ -5529,13 +5529,13 @@
         <v>3.4590909481048584</v>
       </c>
       <c r="C321" s="2">
-        <v>3.3168330192565918</v>
+        <v>3.3166847229003906</v>
       </c>
       <c r="D321" s="2">
         <v>3.3937656879425049</v>
       </c>
       <c r="E321" s="2">
-        <v>3.3282544612884521</v>
+        <v>3.3282003402709961</v>
       </c>
     </row>
     <row r="322">
@@ -5546,13 +5546,13 @@
         <v>3.1391561031341553</v>
       </c>
       <c r="C322" s="2">
-        <v>2.9357333183288574</v>
+        <v>2.935615062713623</v>
       </c>
       <c r="D322" s="2">
         <v>3.3829224109649658</v>
       </c>
       <c r="E322" s="2">
-        <v>3.303086519241333</v>
+        <v>3.3030052185058594</v>
       </c>
     </row>
     <row r="323">
@@ -5563,13 +5563,13 @@
         <v>3.38885498046875</v>
       </c>
       <c r="C323" s="2">
-        <v>3.3873898983001709</v>
+        <v>3.3870468139648438</v>
       </c>
       <c r="D323" s="2">
         <v>3.33188796043396</v>
       </c>
       <c r="E323" s="2">
-        <v>3.2529735565185547</v>
+        <v>3.2528760433197022</v>
       </c>
     </row>
     <row r="324">
@@ -5580,13 +5580,13 @@
         <v>3.1917672157287598</v>
       </c>
       <c r="C324" s="2">
-        <v>3.1124587059020996</v>
+        <v>3.1125140190124512</v>
       </c>
       <c r="D324" s="2">
         <v>3.3056337833404541</v>
       </c>
       <c r="E324" s="2">
-        <v>3.2397811412811279</v>
+        <v>3.239607572555542</v>
       </c>
     </row>
     <row r="325">
@@ -5597,13 +5597,13 @@
         <v>3.3272631168365479</v>
       </c>
       <c r="C325" s="2">
-        <v>3.3692986965179443</v>
+        <v>3.3692350387573242</v>
       </c>
       <c r="D325" s="2">
         <v>3.3183209896087647</v>
       </c>
       <c r="E325" s="2">
-        <v>3.253615140914917</v>
+        <v>3.2534546852111816</v>
       </c>
     </row>
     <row r="326">
@@ -5614,13 +5614,13 @@
         <v>3.6027436256408691</v>
       </c>
       <c r="C326" s="2">
-        <v>3.4155166149139404</v>
+        <v>3.4153642654418945</v>
       </c>
       <c r="D326" s="2">
         <v>3.2918331623077393</v>
       </c>
       <c r="E326" s="2">
-        <v>3.2386062145233154</v>
+        <v>3.2384326457977295</v>
       </c>
     </row>
     <row r="327">
@@ -5631,13 +5631,13 @@
         <v>3.0873916149139404</v>
       </c>
       <c r="C327" s="2">
-        <v>3.1035795211791992</v>
+        <v>3.1034929752349854</v>
       </c>
       <c r="D327" s="2">
         <v>3.3317298889160156</v>
       </c>
       <c r="E327" s="2">
-        <v>3.3007802963256836</v>
+        <v>3.3006293773651123</v>
       </c>
     </row>
     <row r="328">
@@ -5648,13 +5648,13 @@
         <v>3.388460636138916</v>
       </c>
       <c r="C328" s="2">
-        <v>3.386354923248291</v>
+        <v>3.3859004974365234</v>
       </c>
       <c r="D328" s="2">
         <v>3.3198268413543701</v>
       </c>
       <c r="E328" s="2">
-        <v>3.2756485939025879</v>
+        <v>3.2755520343780518</v>
       </c>
     </row>
     <row r="329">
@@ -5665,13 +5665,13 @@
         <v>3.2801611423492432</v>
       </c>
       <c r="C329" s="2">
-        <v>3.2553708553314209</v>
+        <v>3.2552382946014404</v>
       </c>
       <c r="D329" s="2">
         <v>3.3744840621948242</v>
       </c>
       <c r="E329" s="2">
-        <v>3.3301420211791992</v>
+        <v>3.330052375793457</v>
       </c>
     </row>
     <row r="330">
@@ -5682,13 +5682,13 @@
         <v>3.2207002639770508</v>
       </c>
       <c r="C330" s="2">
-        <v>3.181753396987915</v>
+        <v>3.1814863681793213</v>
       </c>
       <c r="D330" s="2">
         <v>3.5740458965301514</v>
       </c>
       <c r="E330" s="2">
-        <v>3.5139040946960449</v>
+        <v>3.5138111114501953</v>
       </c>
     </row>
     <row r="331">
@@ -5699,13 +5699,13 @@
         <v>3.4982259273529053</v>
       </c>
       <c r="C331" s="2">
-        <v>3.4952998161315918</v>
+        <v>3.4953854084014893</v>
       </c>
       <c r="D331" s="2">
         <v>3.730290412902832</v>
       </c>
       <c r="E331" s="2">
-        <v>3.6763017177581787</v>
+        <v>3.6762189865112305</v>
       </c>
     </row>
     <row r="332">
@@ -5716,13 +5716,13 @@
         <v>3.2817270755767822</v>
       </c>
       <c r="C332" s="2">
-        <v>3.161205530166626</v>
+        <v>3.1613507270812988</v>
       </c>
       <c r="D332" s="2">
         <v>3.8870706558227539</v>
       </c>
       <c r="E332" s="2">
-        <v>3.8202812671661377</v>
+        <v>3.8201875686645508</v>
       </c>
     </row>
     <row r="333">
@@ -5733,13 +5733,13 @@
         <v>3.6836831569671631</v>
       </c>
       <c r="C333" s="2">
-        <v>3.6028985977172852</v>
+        <v>3.6030168533325195</v>
       </c>
       <c r="D333" s="2">
         <v>4.0632085800170899</v>
       </c>
       <c r="E333" s="2">
-        <v>3.960453987121582</v>
+        <v>3.9603545665740967</v>
       </c>
     </row>
     <row r="334">
@@ -5750,13 +5750,13 @@
         <v>5.1233196258544922</v>
       </c>
       <c r="C334" s="2">
-        <v>5.023158073425293</v>
+        <v>5.0230650901794434</v>
       </c>
       <c r="D334" s="2">
         <v>4.1666903495788574</v>
       </c>
       <c r="E334" s="2">
-        <v>4.0733451843261719</v>
+        <v>4.0732865333557129</v>
       </c>
     </row>
     <row r="335">
@@ -5767,13 +5767,13 @@
         <v>5.0089449882507324</v>
       </c>
       <c r="C335" s="2">
-        <v>4.8770956993103027</v>
+        <v>4.8770337104797363</v>
       </c>
       <c r="D335" s="2">
         <v>4.1722702980041504</v>
       </c>
       <c r="E335" s="2">
-        <v>4.0808849334716797</v>
+        <v>4.0808925628662109</v>
       </c>
     </row>
     <row r="336">
@@ -5784,13 +5784,13 @@
         <v>4.4984140396118164</v>
       </c>
       <c r="C336" s="2">
-        <v>4.3993940353393555</v>
+        <v>4.3992104530334473</v>
       </c>
       <c r="D336" s="2">
         <v>4.1823687553405762</v>
       </c>
       <c r="E336" s="2">
-        <v>4.0938348770141602</v>
+        <v>4.0938410758972168</v>
       </c>
     </row>
     <row r="337">
@@ -5801,13 +5801,13 @@
         <v>4.9737005233764648</v>
       </c>
       <c r="C337" s="2">
-        <v>4.6479105949401856</v>
+        <v>4.6474037170410156</v>
       </c>
       <c r="D337" s="2">
         <v>4.2772340774536133</v>
       </c>
       <c r="E337" s="2">
-        <v>4.2116594314575195</v>
+        <v>4.2116575241088867</v>
       </c>
     </row>
     <row r="338">
@@ -5818,13 +5818,13 @@
         <v>4.2114963531494141</v>
       </c>
       <c r="C338" s="2">
-        <v>4.271392822265625</v>
+        <v>4.2716274261474609</v>
       </c>
       <c r="D338" s="2">
         <v>4.3286595344543457</v>
       </c>
       <c r="E338" s="2">
-        <v>4.2560029029846191</v>
+        <v>4.2559952735900879</v>
       </c>
     </row>
     <row r="339">
@@ -5835,13 +5835,13 @@
         <v>3.2709217071533203</v>
       </c>
       <c r="C339" s="2">
-        <v>3.249610424041748</v>
+        <v>3.2499401569366455</v>
       </c>
       <c r="D339" s="2">
         <v>4.1281013488769531</v>
       </c>
       <c r="E339" s="2">
-        <v>4.0655431747436524</v>
+        <v>4.0655388832092285</v>
       </c>
     </row>
     <row r="340">
@@ -5852,13 +5852,13 @@
         <v>3.5891106128692627</v>
       </c>
       <c r="C340" s="2">
-        <v>3.6118490695953369</v>
+        <v>3.6119198799133301</v>
       </c>
       <c r="D340" s="2">
         <v>3.9429290294647217</v>
       </c>
       <c r="E340" s="2">
-        <v>3.8675296306610107</v>
+        <v>3.8675065040588379</v>
       </c>
     </row>
     <row r="341">
@@ -5869,13 +5869,13 @@
         <v>4.1355166435241699</v>
       </c>
       <c r="C341" s="2">
-        <v>4.2216267585754395</v>
+        <v>4.2217006683349609</v>
       </c>
       <c r="D341" s="2">
         <v>3.8944966793060303</v>
       </c>
       <c r="E341" s="2">
-        <v>3.8331053256988525</v>
+        <v>3.8330905437469483</v>
       </c>
     </row>
     <row r="342">
@@ -5886,13 +5886,13 @@
         <v>4.1465115547180176</v>
       </c>
       <c r="C342" s="2">
-        <v>4.0019898414611816</v>
+        <v>4.0020570755004883</v>
       </c>
       <c r="D342" s="2">
         <v>3.7477116584777832</v>
       </c>
       <c r="E342" s="2">
-        <v>3.716890811920166</v>
+        <v>3.7169413566589356</v>
       </c>
     </row>
     <row r="343">
@@ -5903,13 +5903,13 @@
         <v>3.318295955657959</v>
       </c>
       <c r="C343" s="2">
-        <v>3.3090171813964844</v>
+        <v>3.3089587688446045</v>
       </c>
       <c r="D343" s="2">
         <v>3.6600584983825684</v>
       </c>
       <c r="E343" s="2">
-        <v>3.6078367233276367</v>
+        <v>3.6078469753265381</v>
       </c>
     </row>
     <row r="344">
@@ -5920,13 +5920,13 @@
         <v>3.3423929214477539</v>
       </c>
       <c r="C344" s="2">
-        <v>3.0949764251708984</v>
+        <v>3.0947408676147461</v>
       </c>
       <c r="D344" s="2">
         <v>3.6862246990203858</v>
       </c>
       <c r="E344" s="2">
-        <v>3.6307961940765381</v>
+        <v>3.6308233737945557</v>
       </c>
     </row>
     <row r="345">
@@ -5937,13 +5937,13 @@
         <v>4.0625247955322266</v>
       </c>
       <c r="C345" s="2">
-        <v>4.0895748138427734</v>
+        <v>4.0894656181335449</v>
       </c>
       <c r="D345" s="2">
         <v>3.6805758476257324</v>
       </c>
       <c r="E345" s="2">
-        <v>3.6204681396484375</v>
+        <v>3.6205010414123535</v>
       </c>
     </row>
     <row r="346">
@@ -5954,13 +5954,13 @@
         <v>3.6526343822479248</v>
       </c>
       <c r="C346" s="2">
-        <v>3.6019792556762695</v>
+        <v>3.6020627021789551</v>
       </c>
       <c r="D346" s="2">
         <v>3.6399054527282715</v>
       </c>
       <c r="E346" s="2">
-        <v>3.5686678886413574</v>
+        <v>3.5687148571014404</v>
       </c>
     </row>
     <row r="347">
@@ -5971,13 +5971,13 @@
         <v>3.4226171970367432</v>
       </c>
       <c r="C347" s="2">
-        <v>3.2899062633514404</v>
+        <v>3.2897779941558838</v>
       </c>
       <c r="D347" s="2">
         <v>3.5440464019775391</v>
       </c>
       <c r="E347" s="2">
-        <v>3.4782757759094238</v>
+        <v>3.4783275127410889</v>
       </c>
     </row>
     <row r="348">
@@ -5988,13 +5988,13 @@
         <v>3.5064172744750977</v>
       </c>
       <c r="C348" s="2">
-        <v>3.4562468528747559</v>
+        <v>3.4567265510559082</v>
       </c>
       <c r="D348" s="2">
         <v>3.5252079963684082</v>
       </c>
       <c r="E348" s="2">
-        <v>3.4573981761932373</v>
+        <v>3.4574222564697266</v>
       </c>
     </row>
     <row r="349">
@@ -6005,13 +6005,13 @@
         <v>3.5382711887359619</v>
       </c>
       <c r="C349" s="2">
-        <v>3.5188958644866943</v>
+        <v>3.5190200805664063</v>
       </c>
       <c r="D349" s="2">
         <v>3.5586881637573242</v>
       </c>
       <c r="E349" s="2">
-        <v>3.512770414352417</v>
+        <v>3.5128245353698731</v>
       </c>
     </row>
     <row r="350">
@@ -6022,13 +6022,13 @@
         <v>3.769484281539917</v>
       </c>
       <c r="C350" s="2">
-        <v>3.7554235458374023</v>
+        <v>3.755624532699585</v>
       </c>
       <c r="D350" s="2">
         <v>3.5072808265686035</v>
       </c>
       <c r="E350" s="2">
-        <v>3.4443767070770264</v>
+        <v>3.4443881511688232</v>
       </c>
     </row>
     <row r="351">
@@ -6039,13 +6039,13 @@
         <v>3.2837791442871094</v>
       </c>
       <c r="C351" s="2">
-        <v>3.1884627342224121</v>
+        <v>3.1885702610015869</v>
       </c>
       <c r="D351" s="2">
         <v>3.4866721630096436</v>
       </c>
       <c r="E351" s="2">
-        <v>3.411454439163208</v>
+        <v>3.411444902420044</v>
       </c>
     </row>
     <row r="352">
@@ -6056,13 +6056,13 @@
         <v>3.1487517356872559</v>
       </c>
       <c r="C352" s="2">
-        <v>3.1211185455322266</v>
+        <v>3.1208126544952393</v>
       </c>
       <c r="D352" s="2">
         <v>3.5454921722412109</v>
       </c>
       <c r="E352" s="2">
-        <v>3.4814753532409668</v>
+        <v>3.4815106391906738</v>
       </c>
     </row>
     <row r="353">
@@ -6073,13 +6073,13 @@
         <v>3.6437129974365234</v>
       </c>
       <c r="C353" s="2">
-        <v>3.5933265686035156</v>
+        <v>3.5933606624603271</v>
       </c>
       <c r="D353" s="2">
         <v>3.6694416999816895</v>
       </c>
       <c r="E353" s="2">
-        <v>3.5715513229370117</v>
+        <v>3.5715391635894775</v>
       </c>
     </row>
     <row r="354">
@@ -6090,13 +6090,13 @@
         <v>3.5998599529266357</v>
       </c>
       <c r="C354" s="2">
-        <v>3.4740302562713623</v>
+        <v>3.4735374450683594</v>
       </c>
       <c r="D354" s="2">
         <v>3.7164912223815918</v>
       </c>
       <c r="E354" s="2">
-        <v>3.6301329135894775</v>
+        <v>3.630119800567627</v>
       </c>
     </row>
     <row r="355">
@@ -6107,13 +6107,13 @@
         <v>3.4671556949615479</v>
       </c>
       <c r="C355" s="2">
-        <v>3.3056786060333252</v>
+        <v>3.3055739402770996</v>
       </c>
       <c r="D355" s="2">
         <v>3.7044999599456787</v>
       </c>
       <c r="E355" s="2">
-        <v>3.615018367767334</v>
+        <v>3.6149947643280029</v>
       </c>
     </row>
     <row r="356">
@@ -6124,13 +6124,13 @@
         <v>3.9519977569580078</v>
       </c>
       <c r="C356" s="2">
-        <v>3.920095682144165</v>
+        <v>3.9203689098358154</v>
       </c>
       <c r="D356" s="2">
         <v>3.8225727081298828</v>
       </c>
       <c r="E356" s="2">
-        <v>3.7359154224395752</v>
+        <v>3.7358653545379639</v>
       </c>
     </row>
     <row r="357">
@@ -6141,13 +6141,13 @@
         <v>4.6219635009765625</v>
       </c>
       <c r="C357" s="2">
-        <v>4.2669305801391602</v>
+        <v>4.2669830322265625</v>
       </c>
       <c r="D357" s="2">
         <v>4.0059103965759277</v>
       </c>
       <c r="E357" s="2">
-        <v>3.9189248085021973</v>
+        <v>3.9188926219940186</v>
       </c>
     </row>
     <row r="358">
@@ -6158,13 +6158,13 @@
         <v>3.9617159366607666</v>
       </c>
       <c r="C358" s="2">
-        <v>4.0461297035217285</v>
+        <v>4.0462474822998047</v>
       </c>
       <c r="D358" s="2">
         <v>4.0175023078918457</v>
       </c>
       <c r="E358" s="2">
-        <v>3.9478218555450439</v>
+        <v>3.9477815628051758</v>
       </c>
     </row>
     <row r="359">
@@ -6175,13 +6175,13 @@
         <v>3.661562442779541</v>
       </c>
       <c r="C359" s="2">
-        <v>3.6193923950195313</v>
+        <v>3.6194987297058106</v>
       </c>
       <c r="D359" s="2">
         <v>4.0629725456237793</v>
       </c>
       <c r="E359" s="2">
-        <v>4.0160737037658692</v>
+        <v>4.0161209106445313</v>
       </c>
     </row>
     <row r="360">
@@ -6192,13 +6192,13 @@
         <v>4.3464341163635254</v>
       </c>
       <c r="C360" s="2">
-        <v>4.2765359878540039</v>
+        <v>4.2764062881469727</v>
       </c>
       <c r="D360" s="2">
         <v>4.1381683349609375</v>
       </c>
       <c r="E360" s="2">
-        <v>4.1217541694641113</v>
+        <v>4.1218252182006836</v>
       </c>
     </row>
     <row r="361">
@@ -6209,13 +6209,13 @@
         <v>4.7987914085388184</v>
       </c>
       <c r="C361" s="2">
-        <v>4.7682037353515625</v>
+        <v>4.7680568695068359</v>
       </c>
       <c r="D361" s="2">
         <v>4.3013873100280762</v>
       </c>
       <c r="E361" s="2">
-        <v>4.2691445350646973</v>
+        <v>4.2691764831542969</v>
       </c>
     </row>
     <row r="362">
@@ -6226,13 +6226,13 @@
         <v>3.7480406761169434</v>
       </c>
       <c r="C362" s="2">
-        <v>3.8533990383148193</v>
+        <v>3.8533618450164795</v>
       </c>
       <c r="D362" s="2">
         <v>4.3249030113220215</v>
       </c>
       <c r="E362" s="2">
-        <v>4.3083391189575195</v>
+        <v>4.3083510398864746</v>
       </c>
     </row>
     <row r="363">
@@ -6243,13 +6243,13 @@
         <v>4.0090928077697754</v>
       </c>
       <c r="C363" s="2">
-        <v>4.0882978439331055</v>
+        <v>4.0885906219482422</v>
       </c>
       <c r="D363" s="2">
         <v>4.5165724754333496</v>
       </c>
       <c r="E363" s="2">
-        <v>4.463533878326416</v>
+        <v>4.4635305404663086</v>
       </c>
     </row>
     <row r="364">
@@ -6260,13 +6260,13 @@
         <v>4.1439151763916016</v>
       </c>
       <c r="C364" s="2">
-        <v>4.2568039894104004</v>
+        <v>4.2569131851196289</v>
       </c>
       <c r="D364" s="2">
         <v>4.6799225807189941</v>
       </c>
       <c r="E364" s="2">
-        <v>4.6102433204650879</v>
+        <v>4.610203742980957</v>
       </c>
     </row>
     <row r="365">
@@ -6277,13 +6277,13 @@
         <v>5.4209690093994141</v>
       </c>
       <c r="C365" s="2">
-        <v>5.2466068267822266</v>
+        <v>5.2465295791625977</v>
       </c>
       <c r="D365" s="2">
         <v>4.7414731979370117</v>
       </c>
       <c r="E365" s="2">
-        <v>4.6719098091125488</v>
+        <v>4.6719064712524414</v>
       </c>
     </row>
     <row r="366">
@@ -6294,13 +6294,13 @@
         <v>4.8336038589477539</v>
       </c>
       <c r="C366" s="2">
-        <v>4.6196842193603516</v>
+        <v>4.6195540428161621</v>
       </c>
       <c r="D366" s="2">
         <v>4.7578773498535156</v>
       </c>
       <c r="E366" s="2">
-        <v>4.6961531639099121</v>
+        <v>4.6961970329284668</v>
       </c>
     </row>
     <row r="367">
@@ -6311,13 +6311,13 @@
         <v>5.6867408752441406</v>
       </c>
       <c r="C367" s="2">
-        <v>5.4428825378417969</v>
+        <v>5.4428658485412598</v>
       </c>
       <c r="D367" s="2">
         <v>4.9875340461730957</v>
       </c>
       <c r="E367" s="2">
-        <v>4.9180717468261719</v>
+        <v>4.918179988861084</v>
       </c>
     </row>
     <row r="368">
@@ -6328,13 +6328,13 @@
         <v>5.1317143440246582</v>
       </c>
       <c r="C368" s="2">
-        <v>4.9397745132446289</v>
+        <v>4.9395570755004883</v>
       </c>
       <c r="D368" s="2">
         <v>5.2222738265991211</v>
       </c>
       <c r="E368" s="2">
-        <v>5.1504998207092285</v>
+        <v>5.1505522727966309</v>
       </c>
     </row>
     <row r="369">
@@ -6345,13 +6345,13 @@
         <v>4.9003920555114746</v>
       </c>
       <c r="C369" s="2">
-        <v>4.831535816192627</v>
+        <v>4.831730842590332</v>
       </c>
       <c r="D369" s="2">
         <v>5.4702773094177246</v>
       </c>
       <c r="E369" s="2">
-        <v>5.3775572776794434</v>
+        <v>5.3776035308837891</v>
       </c>
     </row>
     <row r="370">
@@ -6362,13 +6362,13 @@
         <v>4.9464282989501953</v>
       </c>
       <c r="C370" s="2">
-        <v>4.9863953590393067</v>
+        <v>4.986668586730957</v>
       </c>
       <c r="D370" s="2">
         <v>5.603147029876709</v>
       </c>
       <c r="E370" s="2">
-        <v>5.5186195373535156</v>
+        <v>5.5187282562255859</v>
       </c>
     </row>
     <row r="371">
@@ -6379,13 +6379,13 @@
         <v>5.8149518966674805</v>
       </c>
       <c r="C371" s="2">
-        <v>5.8506655693054199</v>
+        <v>5.8512110710144043</v>
       </c>
       <c r="D371" s="2">
         <v>5.8102240562438965</v>
       </c>
       <c r="E371" s="2">
-        <v>5.748565673828125</v>
+        <v>5.7486438751220703</v>
       </c>
     </row>
     <row r="372">
@@ -6396,13 +6396,13 @@
         <v>6.1217489242553711</v>
       </c>
       <c r="C372" s="2">
-        <v>6.1801514625549316</v>
+        <v>6.1799407005310059</v>
       </c>
       <c r="D372" s="2">
         <v>5.8662552833557129</v>
       </c>
       <c r="E372" s="2">
-        <v>5.8269925117492676</v>
+        <v>5.8270406723022461</v>
       </c>
     </row>
     <row r="373">
@@ -6413,13 +6413,13 @@
         <v>6.375946044921875</v>
       </c>
       <c r="C373" s="2">
-        <v>6.3003182411193848</v>
+        <v>6.3003726005554199</v>
       </c>
       <c r="D373" s="2">
         <v>5.9241394996643067</v>
       </c>
       <c r="E373" s="2">
-        <v>5.9000601768493652</v>
+        <v>5.9000558853149414</v>
       </c>
     </row>
     <row r="374">
@@ -6430,13 +6430,13 @@
         <v>6.6167960166931152</v>
       </c>
       <c r="C374" s="2">
-        <v>6.516169548034668</v>
+        <v>6.5166544914245606</v>
       </c>
       <c r="D374" s="2">
         <v>6.0169620513916016</v>
       </c>
       <c r="E374" s="2">
-        <v>5.9971213340759277</v>
+        <v>5.9970769882202149</v>
       </c>
     </row>
     <row r="375">
@@ -6447,13 +6447,13 @@
         <v>6.6972966194152832</v>
       </c>
       <c r="C375" s="2">
-        <v>6.6891999244689942</v>
+        <v>6.6887950897216797</v>
       </c>
       <c r="D375" s="2">
         <v>6.0849957466125488</v>
       </c>
       <c r="E375" s="2">
-        <v>6.0630397796630859</v>
+        <v>6.0630412101745605</v>
       </c>
     </row>
     <row r="376">
@@ -6464,13 +6464,13 @@
         <v>6.1910228729248047</v>
       </c>
       <c r="C376" s="2">
-        <v>6.1487212181091309</v>
+        <v>6.1484355926513672</v>
       </c>
       <c r="D376" s="2">
         <v>6.0511994361877441</v>
       </c>
       <c r="E376" s="2">
-        <v>6.0234732627868652</v>
+        <v>6.0234308242797852</v>
       </c>
     </row>
     <row r="377">
@@ -6481,13 +6481,13 @@
         <v>5.6526718139648438</v>
       </c>
       <c r="C377" s="2">
-        <v>5.5973830223083496</v>
+        <v>5.5966920852661133</v>
       </c>
       <c r="D377" s="2">
         <v>5.9160447120666504</v>
       </c>
       <c r="E377" s="2">
-        <v>5.899376392364502</v>
+        <v>5.8993673324584961</v>
       </c>
     </row>
     <row r="378">
@@ -6498,13 +6498,13 @@
         <v>5.7357945442199707</v>
       </c>
       <c r="C378" s="2">
-        <v>5.7050857543945313</v>
+        <v>5.7049241065979004</v>
       </c>
       <c r="D378" s="2">
         <v>5.734926700592041</v>
       </c>
       <c r="E378" s="2">
-        <v>5.730931282043457</v>
+        <v>5.7309107780456543</v>
       </c>
     </row>
     <row r="379">
@@ -6515,13 +6515,13 @@
         <v>5.5587348937988281</v>
       </c>
       <c r="C379" s="2">
-        <v>5.5796637535095215</v>
+        <v>5.580345630645752</v>
       </c>
       <c r="D379" s="2">
         <v>5.4862046241760254</v>
       </c>
       <c r="E379" s="2">
-        <v>5.4862070083618164</v>
+        <v>5.4861135482788086</v>
       </c>
     </row>
     <row r="380">
@@ -6532,13 +6532,13 @@
         <v>5.5107827186584473</v>
       </c>
       <c r="C380" s="2">
-        <v>5.4945659637451172</v>
+        <v>5.4947161674499512</v>
       </c>
       <c r="D380" s="2">
         <v>5.2940917015075684</v>
       </c>
       <c r="E380" s="2">
-        <v>5.2893972396850586</v>
+        <v>5.2893595695495605</v>
       </c>
     </row>
     <row r="381">
@@ -6549,13 +6549,13 @@
         <v>4.9053564071655273</v>
       </c>
       <c r="C381" s="2">
-        <v>5.0632810592651367</v>
+        <v>5.0633711814880371</v>
       </c>
       <c r="D381" s="2">
         <v>5.0460348129272461</v>
       </c>
       <c r="E381" s="2">
-        <v>5.0576820373535156</v>
+        <v>5.0576276779174805</v>
       </c>
     </row>
     <row r="382">
@@ -6566,13 +6566,13 @@
         <v>4.7458853721618652</v>
       </c>
       <c r="C382" s="2">
-        <v>4.7843093872070313</v>
+        <v>4.7842636108398438</v>
       </c>
       <c r="D382" s="2">
         <v>5.0062055587768555</v>
       </c>
       <c r="E382" s="2">
-        <v>5.0212569236755371</v>
+        <v>5.0212631225585938</v>
       </c>
     </row>
     <row r="383">
@@ -6583,13 +6583,13 @@
         <v>4.378298282623291</v>
       </c>
       <c r="C383" s="2">
-        <v>4.3136539459228516</v>
+        <v>4.3134799003601074</v>
       </c>
       <c r="D383" s="2">
         <v>4.8587741851806641</v>
       </c>
       <c r="E383" s="2">
-        <v>4.8629403114318848</v>
+        <v>4.8629460334777832</v>
       </c>
     </row>
     <row r="384">
@@ -6600,13 +6600,13 @@
         <v>4.9682765007019043</v>
       </c>
       <c r="C384" s="2">
-        <v>4.9179129600524902</v>
+        <v>4.9180083274841309</v>
       </c>
       <c r="D384" s="2">
         <v>4.7014479637145996</v>
       </c>
       <c r="E384" s="2">
-        <v>4.6899652481079102</v>
+        <v>4.6898727416992188</v>
       </c>
     </row>
     <row r="385">
@@ -6617,13 +6617,13 @@
         <v>3.9585111141204834</v>
       </c>
       <c r="C385" s="2">
-        <v>4.0632820129394531</v>
+        <v>4.0628480911254883</v>
       </c>
       <c r="D385" s="2">
         <v>4.5931224822998047</v>
       </c>
       <c r="E385" s="2">
-        <v>4.5965704917907715</v>
+        <v>4.5964746475219727</v>
       </c>
     </row>
     <row r="386">
@@ -6634,13 +6634,13 @@
         <v>5.2942104339599609</v>
       </c>
       <c r="C386" s="2">
-        <v>5.2695565223693848</v>
+        <v>5.2694101333618164</v>
       </c>
       <c r="D386" s="2">
         <v>4.5202045440673828</v>
       </c>
       <c r="E386" s="2">
-        <v>4.5070357322692871</v>
+        <v>4.5069084167480469</v>
       </c>
     </row>
     <row r="387">
@@ -6651,13 +6651,13 @@
         <v>4.4089126586914063</v>
       </c>
       <c r="C387" s="2">
-        <v>4.2802391052246094</v>
+        <v>4.2800722122192383</v>
       </c>
       <c r="D387" s="2">
         <v>4.4593081474304199</v>
       </c>
       <c r="E387" s="2">
-        <v>4.4294233322143555</v>
+        <v>4.4293150901794434</v>
       </c>
     </row>
     <row r="388">
@@ -6668,13 +6668,13 @@
         <v>4.142796516418457</v>
       </c>
       <c r="C388" s="2">
-        <v>4.0228867530822754</v>
+        <v>4.0226869583129883</v>
       </c>
       <c r="D388" s="2">
         <v>4.4173460006713867</v>
       </c>
       <c r="E388" s="2">
-        <v>4.3677635192871094</v>
+        <v>4.3676290512084961</v>
       </c>
     </row>
     <row r="389">
@@ -6685,13 +6685,13 @@
         <v>4.5358529090881348</v>
       </c>
       <c r="C389" s="2">
-        <v>4.6540131568908691</v>
+        <v>4.6541295051574707</v>
       </c>
       <c r="D389" s="2">
         <v>4.3634805679321289</v>
       </c>
       <c r="E389" s="2">
-        <v>4.3158531188964844</v>
+        <v>4.3156790733337402</v>
       </c>
     </row>
     <row r="390">
@@ -6702,13 +6702,13 @@
         <v>4.2490954399108887</v>
       </c>
       <c r="C390" s="2">
-        <v>4.2574687004089356</v>
+        <v>4.2572760581970215</v>
       </c>
       <c r="D390" s="2">
         <v>4.4213542938232422</v>
       </c>
       <c r="E390" s="2">
-        <v>4.3608646392822266</v>
+        <v>4.3607187271118164</v>
       </c>
     </row>
     <row r="391">
@@ -6719,13 +6719,13 @@
         <v>4.1978187561035156</v>
       </c>
       <c r="C391" s="2">
-        <v>4.0857954025268555</v>
+        <v>4.0859246253967285</v>
       </c>
       <c r="D391" s="2">
         <v>4.2956666946411133</v>
       </c>
       <c r="E391" s="2">
-        <v>4.239750862121582</v>
+        <v>4.2396297454833984</v>
       </c>
     </row>
     <row r="392">
@@ -6736,13 +6736,13 @@
         <v>4.0006413459777832</v>
       </c>
       <c r="C392" s="2">
-        <v>3.7587177753448486</v>
+        <v>3.7583045959472656</v>
       </c>
       <c r="D392" s="2">
         <v>4.2608504295349121</v>
       </c>
       <c r="E392" s="2">
-        <v>4.1938257217407227</v>
+        <v>4.1936612129211426</v>
       </c>
     </row>
     <row r="393">
@@ -6753,13 +6753,13 @@
         <v>4.4834861755371094</v>
       </c>
       <c r="C393" s="2">
-        <v>4.4507174491882324</v>
+        <v>4.4504613876342773</v>
       </c>
       <c r="D393" s="2">
         <v>4.3273444175720215</v>
       </c>
       <c r="E393" s="2">
-        <v>4.2537937164306641</v>
+        <v>4.2536182403564453</v>
       </c>
     </row>
     <row r="394">
@@ -6770,13 +6770,13 @@
         <v>4.4793758392333984</v>
       </c>
       <c r="C394" s="2">
-        <v>4.4683866500854492</v>
+        <v>4.4682021141052246</v>
       </c>
       <c r="D394" s="2">
         <v>4.3267126083374023</v>
       </c>
       <c r="E394" s="2">
-        <v>4.2225980758666992</v>
+        <v>4.2224316596984863</v>
       </c>
     </row>
     <row r="395">
@@ -6787,13 +6787,13 @@
         <v>4.1630220413208008</v>
       </c>
       <c r="C395" s="2">
-        <v>4.1795320510864258</v>
+        <v>4.1796088218688965</v>
       </c>
       <c r="D395" s="2">
         <v>4.3108134269714355</v>
       </c>
       <c r="E395" s="2">
-        <v>4.1924724578857422</v>
+        <v>4.1923379898071289</v>
       </c>
     </row>
     <row r="396">
@@ -6804,13 +6804,13 @@
         <v>4.0955667495727539</v>
       </c>
       <c r="C396" s="2">
-        <v>3.8669126033782959</v>
+        <v>3.8663578033447266</v>
       </c>
       <c r="D396" s="2">
         <v>4.3164701461791992</v>
       </c>
       <c r="E396" s="2">
-        <v>4.1854419708251953</v>
+        <v>4.1853079795837402</v>
       </c>
     </row>
     <row r="397">
@@ -6821,13 +6821,13 @@
         <v>4.7412385940551758</v>
       </c>
       <c r="C397" s="2">
-        <v>4.5625982284545899</v>
+        <v>4.5622982978820801</v>
       </c>
       <c r="D397" s="2">
         <v>4.3604536056518555</v>
       </c>
       <c r="E397" s="2">
-        <v>4.2527556419372559</v>
+        <v>4.25262451171875</v>
       </c>
     </row>
     <row r="398">
@@ -6838,13 +6838,13 @@
         <v>4.5301675796508789</v>
       </c>
       <c r="C398" s="2">
-        <v>4.373253345489502</v>
+        <v>4.3734517097473145</v>
       </c>
       <c r="D398" s="2">
         <v>4.3411579132080078</v>
       </c>
       <c r="E398" s="2">
-        <v>4.2365217208862305</v>
+        <v>4.2364120483398438</v>
       </c>
     </row>
     <row r="399">
@@ -6855,13 +6855,13 @@
         <v>4.1060023307800293</v>
       </c>
       <c r="C399" s="2">
-        <v>3.986337423324585</v>
+        <v>3.9864335060119629</v>
       </c>
       <c r="D399" s="2">
         <v>4.3359031677246094</v>
       </c>
       <c r="E399" s="2">
-        <v>4.2149519920349121</v>
+        <v>4.2148556709289551</v>
       </c>
     </row>
     <row r="400">
@@ -6872,13 +6872,13 @@
         <v>4.2487320899963379</v>
       </c>
       <c r="C400" s="2">
-        <v>4.0225200653076172</v>
+        <v>4.0226526260375977</v>
       </c>
       <c r="D400" s="2">
         <v>4.3771729469299316</v>
       </c>
       <c r="E400" s="2">
-        <v>4.261016845703125</v>
+        <v>4.2609529495239258</v>
       </c>
     </row>
     <row r="401">
@@ -6889,13 +6889,13 @@
         <v>4.3964905738830566</v>
       </c>
       <c r="C401" s="2">
-        <v>4.3645410537719727</v>
+        <v>4.3641533851623535</v>
       </c>
       <c r="D401" s="2">
         <v>4.4121470451354981</v>
       </c>
       <c r="E401" s="2">
-        <v>4.3022561073303223</v>
+        <v>4.3022251129150391</v>
       </c>
     </row>
     <row r="402">
@@ -6906,13 +6906,13 @@
         <v>4.3098263740539551</v>
       </c>
       <c r="C402" s="2">
-        <v>4.3046150207519531</v>
+        <v>4.3045492172241211</v>
       </c>
       <c r="D402" s="2">
         <v>4.3665757179260254</v>
       </c>
       <c r="E402" s="2">
-        <v>4.2688102722167969</v>
+        <v>4.2688264846801758</v>
       </c>
     </row>
     <row r="403">
@@ -6923,13 +6923,13 @@
         <v>4.4320836067199707</v>
       </c>
       <c r="C403" s="2">
-        <v>4.2742562294006348</v>
+        <v>4.2741937637329102</v>
       </c>
       <c r="D403" s="2">
         <v>4.3413434028625488</v>
       </c>
       <c r="E403" s="2">
-        <v>4.2515830993652344</v>
+        <v>4.251551628112793</v>
       </c>
     </row>
     <row r="404">
@@ -6940,13 +6940,13 @@
         <v>4.5344467163085938</v>
       </c>
       <c r="C404" s="2">
-        <v>4.5941190719604492</v>
+        <v>4.5944881439208984</v>
       </c>
       <c r="D404" s="2">
         <v>4.2883005142211914</v>
       </c>
       <c r="E404" s="2">
-        <v>4.2183480262756348</v>
+        <v>4.2183384895324707</v>
       </c>
     </row>
     <row r="405">
@@ -6957,13 +6957,13 @@
         <v>4.4103355407714844</v>
       </c>
       <c r="C405" s="2">
-        <v>4.2380647659301758</v>
+        <v>4.2378044128417969</v>
       </c>
       <c r="D405" s="2">
         <v>4.278923511505127</v>
       </c>
       <c r="E405" s="2">
-        <v>4.2124104499816895</v>
+        <v>4.2123665809631348</v>
       </c>
     </row>
     <row r="406">
@@ -6974,13 +6974,13 @@
         <v>4.3310976028442383</v>
       </c>
       <c r="C406" s="2">
-        <v>4.2615833282470703</v>
+        <v>4.2617135047912598</v>
       </c>
       <c r="D406" s="2">
         <v>4.2046651840209961</v>
       </c>
       <c r="E406" s="2">
-        <v>4.1220545768737793</v>
+        <v>4.1220464706420898</v>
       </c>
     </row>
     <row r="407">
@@ -6991,13 +6991,13 @@
         <v>4.3030738830566406</v>
       </c>
       <c r="C407" s="2">
-        <v>4.2182097434997559</v>
+        <v>4.2179770469665527</v>
       </c>
       <c r="D407" s="2">
         <v>4.1821503639221191</v>
       </c>
       <c r="E407" s="2">
-        <v>4.0720362663269043</v>
+        <v>4.0720925331115723</v>
       </c>
     </row>
     <row r="408">
@@ -7008,13 +7008,13 @@
         <v>3.6286160945892334</v>
       </c>
       <c r="C408" s="2">
-        <v>3.6872220039367676</v>
+        <v>3.687514066696167</v>
       </c>
       <c r="D408" s="2">
         <v>4.1902179718017578</v>
       </c>
       <c r="E408" s="2">
-        <v>4.0858855247497559</v>
+        <v>4.085909366607666</v>
       </c>
     </row>
     <row r="409">
@@ -7025,13 +7025,13 @@
         <v>4.1643404960632324</v>
       </c>
       <c r="C409" s="2">
-        <v>3.9690840244293213</v>
+        <v>3.9689044952392578</v>
       </c>
       <c r="D409" s="2">
         <v>4.124579906463623</v>
       </c>
       <c r="E409" s="2">
-        <v>4.0167512893676758</v>
+        <v>4.0167155265808105</v>
       </c>
     </row>
     <row r="410">
@@ -7042,13 +7042,13 @@
         <v>3.7281684875488281</v>
       </c>
       <c r="C410" s="2">
-        <v>3.5513389110565186</v>
+        <v>3.5512731075286865</v>
       </c>
       <c r="D410" s="2">
         <v>4.0719895362854004</v>
       </c>
       <c r="E410" s="2">
-        <v>3.9766499996185303</v>
+        <v>3.9766197204589844</v>
       </c>
     </row>
     <row r="411">
@@ -7059,13 +7059,13 @@
         <v>4.1071896553039551</v>
       </c>
       <c r="C411" s="2">
-        <v>3.854447603225708</v>
+        <v>3.8549635410308838</v>
       </c>
       <c r="D411" s="2">
         <v>4.0649623870849609</v>
       </c>
       <c r="E411" s="2">
-        <v>3.966198205947876</v>
+        <v>3.9660959243774414</v>
       </c>
     </row>
     <row r="412">
@@ -7076,13 +7076,13 @@
         <v>4.5046954154968262</v>
       </c>
       <c r="C412" s="2">
-        <v>4.3988995552062988</v>
+        <v>4.3985457420349121</v>
       </c>
       <c r="D412" s="2">
         <v>4.0494828224182129</v>
       </c>
       <c r="E412" s="2">
-        <v>3.9523029327392578</v>
+        <v>3.9522082805633545</v>
       </c>
     </row>
     <row r="413">
@@ -7093,13 +7093,13 @@
         <v>3.9437003135681152</v>
       </c>
       <c r="C413" s="2">
-        <v>3.9719095230102539</v>
+        <v>3.9717423915863037</v>
       </c>
       <c r="D413" s="2">
         <v>4.1114287376403809</v>
       </c>
       <c r="E413" s="2">
-        <v>4.0048155784606934</v>
+        <v>4.0046577453613281</v>
       </c>
     </row>
     <row r="414">
@@ -7110,13 +7110,13 @@
         <v>3.9370238780975342</v>
       </c>
       <c r="C414" s="2">
-        <v>3.8771553039550781</v>
+        <v>3.8769428730010986</v>
       </c>
       <c r="D414" s="2">
         <v>4.1388192176818848</v>
       </c>
       <c r="E414" s="2">
-        <v>4.0526123046875</v>
+        <v>4.052433967590332</v>
       </c>
     </row>
     <row r="415">
@@ -7127,13 +7127,13 @@
         <v>4.2678513526916504</v>
       </c>
       <c r="C415" s="2">
-        <v>4.1675171852111816</v>
+        <v>4.1670002937316895</v>
       </c>
       <c r="D415" s="2">
         <v>4.1454658508300781</v>
       </c>
       <c r="E415" s="2">
-        <v>4.0772852897644043</v>
+        <v>4.0770974159240723</v>
       </c>
     </row>
     <row r="416">
@@ -7144,13 +7144,13 @@
         <v>4.1637606620788574</v>
       </c>
       <c r="C416" s="2">
-        <v>4.0931515693664551</v>
+        <v>4.0929875373840332</v>
       </c>
       <c r="D416" s="2">
         <v>4.1783709526062012</v>
       </c>
       <c r="E416" s="2">
-        <v>4.1422309875488281</v>
+        <v>4.1420307159423828</v>
       </c>
     </row>
     <row r="417">
@@ -7161,13 +7161,13 @@
         <v>4.1861276626586914</v>
       </c>
       <c r="C417" s="2">
-        <v>4.1598381996154785</v>
+        <v>4.1595606803894043</v>
       </c>
       <c r="D417" s="2">
         <v>4.1868424415588379</v>
       </c>
       <c r="E417" s="2">
-        <v>4.1643185615539551</v>
+        <v>4.1641411781311035</v>
       </c>
     </row>
     <row r="418">
@@ -7178,13 +7178,13 @@
         <v>4.4108562469482422</v>
       </c>
       <c r="C418" s="2">
-        <v>4.3992547988891602</v>
+        <v>4.3988885879516602</v>
       </c>
       <c r="D418" s="2">
         <v>4.1842365264892578</v>
       </c>
       <c r="E418" s="2">
-        <v>4.1534852981567383</v>
+        <v>4.1533284187316895</v>
       </c>
     </row>
     <row r="419">
@@ -7195,13 +7195,13 @@
         <v>3.7879889011383057</v>
       </c>
       <c r="C419" s="2">
-        <v>3.7733931541442871</v>
+        <v>3.7732439041137695</v>
       </c>
       <c r="D419" s="2">
         <v>4.2660789489746094</v>
       </c>
       <c r="E419" s="2">
-        <v>4.2396764755249024</v>
+        <v>4.2394967079162598</v>
       </c>
     </row>
     <row r="420">
@@ -7212,13 +7212,13 @@
         <v>4.4033350944519043</v>
       </c>
       <c r="C420" s="2">
-        <v>4.4389615058898926</v>
+        <v>4.4393630027770996</v>
       </c>
       <c r="D420" s="2">
         <v>4.1830687522888184</v>
       </c>
       <c r="E420" s="2">
-        <v>4.182335376739502</v>
+        <v>4.1822209358215332</v>
       </c>
     </row>
     <row r="421">
@@ -7229,13 +7229,13 @@
         <v>4.5809383392333984</v>
       </c>
       <c r="C421" s="2">
-        <v>4.5976853370666504</v>
+        <v>4.597541332244873</v>
       </c>
       <c r="D421" s="2">
         <v>4.1754117012023926</v>
       </c>
       <c r="E421" s="2">
-        <v>4.1802425384521484</v>
+        <v>4.1801471710205078</v>
       </c>
     </row>
     <row r="422">
@@ -7246,13 +7246,13 @@
         <v>3.9202456474304199</v>
       </c>
       <c r="C422" s="2">
-        <v>3.8744094371795654</v>
+        <v>3.874427318572998</v>
       </c>
       <c r="D422" s="2">
         <v>4.1906309127807617</v>
       </c>
       <c r="E422" s="2">
-        <v>4.1882877349853516</v>
+        <v>4.1882491111755371</v>
       </c>
     </row>
     <row r="423">
@@ -7263,13 +7263,13 @@
         <v>4.6736054420471192</v>
       </c>
       <c r="C423" s="2">
-        <v>4.6528782844543457</v>
+        <v>4.6524596214294434</v>
       </c>
       <c r="D423" s="2">
         <v>4.1023178100585938</v>
       </c>
       <c r="E423" s="2">
-        <v>4.0977978706359863</v>
+        <v>4.097832202911377</v>
       </c>
     </row>
     <row r="424">
@@ -7280,13 +7280,13 @@
         <v>3.5207626819610596</v>
       </c>
       <c r="C424" s="2">
-        <v>3.651444673538208</v>
+        <v>3.6515181064605713</v>
       </c>
       <c r="D424" s="2">
         <v>4.0845861434936524</v>
       </c>
       <c r="E424" s="2">
-        <v>4.0549654960632324</v>
+        <v>4.0550541877746582</v>
       </c>
     </row>
     <row r="425">
@@ -7297,13 +7297,13 @@
         <v>4.0948443412780762</v>
       </c>
       <c r="C425" s="2">
-        <v>4.0743188858032227</v>
+        <v>4.0743207931518555</v>
       </c>
       <c r="D425" s="2">
         <v>4.0781993865966797</v>
       </c>
       <c r="E425" s="2">
-        <v>4.0335865020751953</v>
+        <v>4.0336318016052246</v>
       </c>
     </row>
     <row r="426">
@@ -7314,13 +7314,13 @@
         <v>4.3231015205383301</v>
       </c>
       <c r="C426" s="2">
-        <v>4.2322444915771484</v>
+        <v>4.232478141784668</v>
       </c>
       <c r="D426" s="2">
         <v>3.9869227409362793</v>
       </c>
       <c r="E426" s="2">
-        <v>3.9136228561401367</v>
+        <v>3.9136812686920166</v>
       </c>
     </row>
     <row r="427">
@@ -7331,13 +7331,13 @@
         <v>3.6160387992858887</v>
       </c>
       <c r="C427" s="2">
-        <v>3.584843635559082</v>
+        <v>3.5851383209228516</v>
       </c>
       <c r="D427" s="2">
         <v>3.9508092403411865</v>
       </c>
       <c r="E427" s="2">
-        <v>3.8794560432434082</v>
+        <v>3.8794608116149902</v>
       </c>
     </row>
     <row r="428">
@@ -7348,13 +7348,13 @@
         <v>3.6284034252166748</v>
       </c>
       <c r="C428" s="2">
-        <v>3.3879015445709229</v>
+        <v>3.3882429599761963</v>
       </c>
       <c r="D428" s="2">
         <v>3.8596417903900147</v>
       </c>
       <c r="E428" s="2">
-        <v>3.7972004413604736</v>
+        <v>3.7972524166107178</v>
       </c>
     </row>
     <row r="429">
@@ -7365,13 +7365,13 @@
         <v>4.3458542823791504</v>
       </c>
       <c r="C429" s="2">
-        <v>4.2465510368347168</v>
+        <v>4.2465605735778809</v>
       </c>
       <c r="D429" s="2">
         <v>3.8999776840209961</v>
       </c>
       <c r="E429" s="2">
-        <v>3.8076756000518799</v>
+        <v>3.8076889514923096</v>
       </c>
     </row>
     <row r="430">
@@ -7382,13 +7382,13 @@
         <v>3.7594485282897949</v>
       </c>
       <c r="C430" s="2">
-        <v>3.5180134773254395</v>
+        <v>3.5179860591888428</v>
       </c>
       <c r="D430" s="2">
         <v>3.8746161460876465</v>
       </c>
       <c r="E430" s="2">
-        <v>3.779994010925293</v>
+        <v>3.7800135612487793</v>
       </c>
     </row>
     <row r="431">
@@ -7399,13 +7399,13 @@
         <v>3.5952250957489014</v>
       </c>
       <c r="C431" s="2">
-        <v>3.5669081211090088</v>
+        <v>3.5664429664611816</v>
       </c>
       <c r="D431" s="2">
         <v>3.8206756114959717</v>
       </c>
       <c r="E431" s="2">
-        <v>3.7164468765258789</v>
+        <v>3.7164220809936524</v>
       </c>
     </row>
     <row r="432">
@@ -7416,13 +7416,13 @@
         <v>3.8530969619750977</v>
       </c>
       <c r="C432" s="2">
-        <v>3.9125771522521973</v>
+        <v>3.9125845432281494</v>
       </c>
       <c r="D432" s="2">
         <v>3.8644287586212158</v>
       </c>
       <c r="E432" s="2">
-        <v>3.7610247135162354</v>
+        <v>3.7609636783599854</v>
       </c>
     </row>
     <row r="433">
@@ -7433,13 +7433,13 @@
         <v>3.8837859630584717</v>
       </c>
       <c r="C433" s="2">
-        <v>3.7457230091094971</v>
+        <v>3.7454462051391602</v>
       </c>
       <c r="D433" s="2">
         <v>3.8501389026641846</v>
       </c>
       <c r="E433" s="2">
-        <v>3.756594181060791</v>
+        <v>3.7564651966094971</v>
       </c>
     </row>
     <row r="434">
@@ -7450,13 +7450,13 @@
         <v>3.8665909767150879</v>
       </c>
       <c r="C434" s="2">
-        <v>3.8251841068267822</v>
+        <v>3.825242280960083</v>
       </c>
       <c r="D434" s="2">
         <v>3.7994756698608398</v>
       </c>
       <c r="E434" s="2">
-        <v>3.7133431434631348</v>
+        <v>3.7131898403167725</v>
       </c>
     </row>
     <row r="435">
@@ -7467,13 +7467,13 @@
         <v>3.8376364707946777</v>
       </c>
       <c r="C435" s="2">
-        <v>3.6603188514709473</v>
+        <v>3.6601543426513672</v>
       </c>
       <c r="D435" s="2">
         <v>3.731520414352417</v>
       </c>
       <c r="E435" s="2">
-        <v>3.674473762512207</v>
+        <v>3.6743683815002441</v>
       </c>
     </row>
     <row r="436">
@@ -7484,13 +7484,13 @@
         <v>4.0098171234130859</v>
       </c>
       <c r="C436" s="2">
-        <v>3.9860455989837646</v>
+        <v>3.9860138893127442</v>
       </c>
       <c r="D436" s="2">
         <v>3.6961855888366699</v>
       </c>
       <c r="E436" s="2">
-        <v>3.6388821601867676</v>
+        <v>3.6388125419616699</v>
       </c>
     </row>
     <row r="437">
@@ -7501,13 +7501,13 @@
         <v>3.4997940063476563</v>
       </c>
       <c r="C437" s="2">
-        <v>3.3480262756347656</v>
+        <v>3.347754955291748</v>
       </c>
       <c r="D437" s="2">
         <v>3.6769936084747315</v>
       </c>
       <c r="E437" s="2">
-        <v>3.6073215007781983</v>
+        <v>3.6072826385498047</v>
       </c>
     </row>
     <row r="438">
@@ -7518,13 +7518,13 @@
         <v>3.889885425567627</v>
       </c>
       <c r="C438" s="2">
-        <v>3.8572914600372314</v>
+        <v>3.8570835590362549</v>
       </c>
       <c r="D438" s="2">
         <v>3.6050310134887695</v>
       </c>
       <c r="E438" s="2">
-        <v>3.5387616157531738</v>
+        <v>3.5387561321258545</v>
       </c>
     </row>
     <row r="439">
@@ -7535,13 +7535,13 @@
         <v>3.1478512287139893</v>
       </c>
       <c r="C439" s="2">
-        <v>3.1681895256042481</v>
+        <v>3.1685922145843506</v>
       </c>
       <c r="D439" s="2">
         <v>3.5499520301818848</v>
       </c>
       <c r="E439" s="2">
-        <v>3.5052957534790039</v>
+        <v>3.5053045749664307</v>
       </c>
     </row>
     <row r="440">
@@ -7552,13 +7552,13 @@
         <v>3.2772116661071777</v>
       </c>
       <c r="C440" s="2">
-        <v>3.2465841770172119</v>
+        <v>3.2464408874511719</v>
       </c>
       <c r="D440" s="2">
         <v>3.5421032905578613</v>
       </c>
       <c r="E440" s="2">
-        <v>3.5077705383300781</v>
+        <v>3.5078186988830566</v>
       </c>
     </row>
     <row r="441">
@@ -7569,13 +7569,13 @@
         <v>3.6803703308105469</v>
       </c>
       <c r="C441" s="2">
-        <v>3.6285297870635986</v>
+        <v>3.6288151741027832</v>
       </c>
       <c r="D441" s="2">
         <v>3.4593536853790283</v>
       </c>
       <c r="E441" s="2">
-        <v>3.4219043254852295</v>
+        <v>3.4219424724578857</v>
       </c>
     </row>
     <row r="442">
@@ -7586,13 +7586,13 @@
         <v>3.236121654510498</v>
       </c>
       <c r="C442" s="2">
-        <v>3.1286857128143311</v>
+        <v>3.1287069320678711</v>
       </c>
       <c r="D442" s="2">
         <v>3.4865090847015381</v>
       </c>
       <c r="E442" s="2">
-        <v>3.4750518798828125</v>
+        <v>3.4751441478729248</v>
       </c>
     </row>
     <row r="443">
@@ -7603,13 +7603,13 @@
         <v>3.3708798885345459</v>
       </c>
       <c r="C443" s="2">
-        <v>3.5239911079406738</v>
+        <v>3.5241782665252686</v>
       </c>
       <c r="D443" s="2">
         <v>3.4650111198425293</v>
       </c>
       <c r="E443" s="2">
-        <v>3.447049617767334</v>
+        <v>3.4471848011016846</v>
       </c>
     </row>
     <row r="444">
@@ -7620,13 +7620,13 @@
         <v>3.7669975757598877</v>
       </c>
       <c r="C444" s="2">
-        <v>3.6825904846191406</v>
+        <v>3.6827816963195801</v>
       </c>
       <c r="D444" s="2">
         <v>3.4761631488800049</v>
       </c>
       <c r="E444" s="2">
-        <v>3.448544979095459</v>
+        <v>3.4486627578735352</v>
       </c>
     </row>
     <row r="445">
@@ -7637,13 +7637,13 @@
         <v>3.2650706768035889</v>
       </c>
       <c r="C445" s="2">
-        <v>3.2132503986358643</v>
+        <v>3.2131280899047852</v>
       </c>
       <c r="D445" s="2">
         <v>3.4726383686065674</v>
       </c>
       <c r="E445" s="2">
-        <v>3.4499404430389404</v>
+        <v>3.4500854015350342</v>
       </c>
     </row>
     <row r="446">
@@ -7654,13 +7654,13 @@
         <v>3.7441933155059814</v>
       </c>
       <c r="C446" s="2">
-        <v>3.8263552188873291</v>
+        <v>3.826570987701416</v>
       </c>
       <c r="D446" s="2">
         <v>3.4007117748260498</v>
       </c>
       <c r="E446" s="2">
-        <v>3.3768484592437744</v>
+        <v>3.3769702911376953</v>
       </c>
     </row>
     <row r="447">
@@ -7671,13 +7671,13 @@
         <v>3.6964037418365479</v>
       </c>
       <c r="C447" s="2">
-        <v>3.6052706241607666</v>
+        <v>3.6054480075836182</v>
       </c>
       <c r="D447" s="2">
         <v>3.4382469654083252</v>
       </c>
       <c r="E447" s="2">
-        <v>3.4133903980255127</v>
+        <v>3.4135000705718994</v>
       </c>
     </row>
     <row r="448">
@@ -7688,13 +7688,13 @@
         <v>3.2482204437255859</v>
       </c>
       <c r="C448" s="2">
-        <v>3.1816470623016358</v>
+        <v>3.181894063949585</v>
       </c>
       <c r="D448" s="2">
         <v>3.5121443271636963</v>
       </c>
       <c r="E448" s="2">
-        <v>3.4579436779022217</v>
+        <v>3.4580512046813965</v>
       </c>
     </row>
     <row r="449">
@@ -7705,13 +7705,13 @@
         <v>3.2454879283905029</v>
       </c>
       <c r="C449" s="2">
-        <v>3.2591443061828613</v>
+        <v>3.2592446804046631</v>
       </c>
       <c r="D449" s="2">
         <v>3.4961528778076172</v>
       </c>
       <c r="E449" s="2">
-        <v>3.444209098815918</v>
+        <v>3.444305419921875</v>
       </c>
     </row>
     <row r="450">
@@ -7722,13 +7722,13 @@
         <v>3.0330300331115723</v>
       </c>
       <c r="C450" s="2">
-        <v>2.9707016944885254</v>
+        <v>2.9707803726196289</v>
       </c>
       <c r="D450" s="2">
         <v>3.5135207176208496</v>
       </c>
       <c r="E450" s="2">
-        <v>3.459644079208374</v>
+        <v>3.4597389698028564</v>
       </c>
     </row>
     <row r="451">
@@ -7739,13 +7739,13 @@
         <v>3.5739383697509766</v>
       </c>
       <c r="C451" s="2">
-        <v>3.4575619697570801</v>
+        <v>3.4574737548828125</v>
       </c>
       <c r="D451" s="2">
         <v>3.5166964530944824</v>
       </c>
       <c r="E451" s="2">
-        <v>3.4542772769927979</v>
+        <v>3.4543297290802002</v>
       </c>
     </row>
     <row r="452">
@@ -7756,13 +7756,13 @@
         <v>4.0359559059143066</v>
       </c>
       <c r="C452" s="2">
-        <v>3.9249720573425293</v>
+        <v>3.9251391887664795</v>
       </c>
       <c r="D452" s="2">
         <v>3.4785239696502686</v>
       </c>
       <c r="E452" s="2">
-        <v>3.42079758644104</v>
+        <v>3.420818567276001</v>
       </c>
     </row>
     <row r="453">
@@ -7773,13 +7773,13 @@
         <v>3.6230745315551758</v>
       </c>
       <c r="C453" s="2">
-        <v>3.558978796005249</v>
+        <v>3.5590693950653076</v>
       </c>
       <c r="D453" s="2">
         <v>3.5176351070404053</v>
       </c>
       <c r="E453" s="2">
-        <v>3.4721183776855469</v>
+        <v>3.4721567630767822</v>
       </c>
     </row>
     <row r="454">
@@ -7790,13 +7790,13 @@
         <v>3.4213821887969971</v>
       </c>
       <c r="C454" s="2">
-        <v>3.3521649837493896</v>
+        <v>3.3520293235778809</v>
       </c>
       <c r="D454" s="2">
         <v>3.58199143409729</v>
       </c>
       <c r="E454" s="2">
-        <v>3.5134024620056152</v>
+        <v>3.5134029388427734</v>
       </c>
     </row>
     <row r="455">
@@ -7807,13 +7807,13 @@
         <v>3.7727756500244141</v>
       </c>
       <c r="C455" s="2">
-        <v>3.7780532836914063</v>
+        <v>3.7778892517089844</v>
       </c>
       <c r="D455" s="2">
         <v>3.6315968036651611</v>
       </c>
       <c r="E455" s="2">
-        <v>3.5579416751861572</v>
+        <v>3.5579617023468018</v>
       </c>
     </row>
     <row r="456">
@@ -7824,13 +7824,13 @@
         <v>3.3528516292572021</v>
       </c>
       <c r="C456" s="2">
-        <v>3.3039548397064209</v>
+        <v>3.303847074508667</v>
       </c>
       <c r="D456" s="2">
         <v>3.5888140201568604</v>
       </c>
       <c r="E456" s="2">
-        <v>3.5132880210876465</v>
+        <v>3.5133383274078369</v>
       </c>
     </row>
     <row r="457">
@@ -7841,13 +7841,13 @@
         <v>3.6002190113067627</v>
       </c>
       <c r="C457" s="2">
-        <v>3.6435325145721436</v>
+        <v>3.6439380645751953</v>
       </c>
       <c r="D457" s="2">
         <v>3.5377955436706543</v>
       </c>
       <c r="E457" s="2">
-        <v>3.477630615234375</v>
+        <v>3.477651834487915</v>
       </c>
     </row>
     <row r="458">
@@ -7858,13 +7858,13 @@
         <v>3.8246951103210449</v>
       </c>
       <c r="C458" s="2">
-        <v>3.6307013034820557</v>
+        <v>3.6304607391357422</v>
       </c>
       <c r="D458" s="2">
         <v>3.5175139904022217</v>
       </c>
       <c r="E458" s="2">
-        <v>3.4654648303985596</v>
+        <v>3.4655070304870605</v>
       </c>
     </row>
     <row r="459">
@@ -7875,13 +7875,13 @@
         <v>3.4794793128967285</v>
       </c>
       <c r="C459" s="2">
-        <v>3.3715548515319824</v>
+        <v>3.3718075752258301</v>
       </c>
       <c r="D459" s="2">
         <v>3.4716658592224121</v>
       </c>
       <c r="E459" s="2">
-        <v>3.4210433959960938</v>
+        <v>3.4210631847381592</v>
       </c>
     </row>
     <row r="460">
@@ -7892,13 +7892,13 @@
         <v>3.1888933181762695</v>
       </c>
       <c r="C460" s="2">
-        <v>3.0556793212890625</v>
+        <v>3.0558643341064453</v>
       </c>
       <c r="D460" s="2">
         <v>3.4218933582305908</v>
       </c>
       <c r="E460" s="2">
-        <v>3.3578653335571289</v>
+        <v>3.3579156398773193</v>
       </c>
     </row>
     <row r="461">
@@ -7909,13 +7909,13 @@
         <v>3.5767889022827149</v>
       </c>
       <c r="C461" s="2">
-        <v>3.6040554046630859</v>
+        <v>3.6039597988128662</v>
       </c>
       <c r="D461" s="2">
         <v>3.4345381259918213</v>
       </c>
       <c r="E461" s="2">
-        <v>3.3704497814178467</v>
+        <v>3.3705155849456787</v>
       </c>
     </row>
     <row r="462">
@@ -7926,13 +7926,13 @@
         <v>3.4405417442321777</v>
       </c>
       <c r="C462" s="2">
-        <v>3.4494867324829102</v>
+        <v>3.4497671127319336</v>
       </c>
       <c r="D462" s="2">
         <v>3.3863358497619629</v>
       </c>
       <c r="E462" s="2">
-        <v>3.308239221572876</v>
+        <v>3.3082759380340576</v>
       </c>
     </row>
     <row r="463">
@@ -7943,13 +7943,13 @@
         <v>3.0087485313415527</v>
       </c>
       <c r="C463" s="2">
-        <v>2.9523720741271973</v>
+        <v>2.9520339965820313</v>
       </c>
       <c r="D463" s="2">
         <v>3.3187849521636963</v>
       </c>
       <c r="E463" s="2">
-        <v>3.2609775066375732</v>
+        <v>3.260991096496582</v>
       </c>
     </row>
     <row r="464">
@@ -7960,13 +7960,13 @@
         <v>3.3248226642608643</v>
       </c>
       <c r="C464" s="2">
-        <v>3.2094511985778809</v>
+        <v>3.2095613479614258</v>
       </c>
       <c r="D464" s="2">
         <v>3.291632890701294</v>
       </c>
       <c r="E464" s="2">
-        <v>3.2461442947387695</v>
+        <v>3.2461121082305908</v>
       </c>
     </row>
     <row r="465">
@@ -7977,13 +7977,13 @@
         <v>3.4666545391082764</v>
       </c>
       <c r="C465" s="2">
-        <v>3.4172143936157227</v>
+        <v>3.4172463417053223</v>
       </c>
       <c r="D465" s="2">
         <v>3.3108029365539551</v>
       </c>
       <c r="E465" s="2">
-        <v>3.2724874019622803</v>
+        <v>3.272411584854126</v>
       </c>
     </row>
     <row r="466">
@@ -7994,13 +7994,13 @@
         <v>3.1663978099822998</v>
       </c>
       <c r="C466" s="2">
-        <v>3.0836377143859863</v>
+        <v>3.0837829113006592</v>
       </c>
       <c r="D466" s="2">
         <v>3.2702279090881348</v>
       </c>
       <c r="E466" s="2">
-        <v>3.2330951690673828</v>
+        <v>3.2329845428466797</v>
       </c>
     </row>
     <row r="467">
@@ -8011,13 +8011,13 @@
         <v>3.2167372703552246</v>
       </c>
       <c r="C467" s="2">
-        <v>3.205345630645752</v>
+        <v>3.2048971652984619</v>
       </c>
       <c r="D467" s="2">
         <v>3.2822127342224121</v>
       </c>
       <c r="E467" s="2">
-        <v>3.2450580596923828</v>
+        <v>3.2449424266815186</v>
       </c>
     </row>
     <row r="468">
@@ -8028,13 +8028,13 @@
         <v>3.2351109981536865</v>
       </c>
       <c r="C468" s="2">
-        <v>3.2380568981170654</v>
+        <v>3.2378950119018555</v>
       </c>
       <c r="D468" s="2">
         <v>3.3174350261688232</v>
       </c>
       <c r="E468" s="2">
-        <v>3.2709250450134277</v>
+        <v>3.2708866596221924</v>
       </c>
     </row>
     <row r="469">
@@ -8045,13 +8045,13 @@
         <v>3.3614249229431152</v>
       </c>
       <c r="C469" s="2">
-        <v>3.2927675247192383</v>
+        <v>3.2925596237182617</v>
       </c>
       <c r="D469" s="2">
         <v>3.3219799995422363</v>
       </c>
       <c r="E469" s="2">
-        <v>3.2923712730407715</v>
+        <v>3.2923338413238525</v>
       </c>
     </row>
     <row r="470">
@@ -8062,13 +8062,13 @@
         <v>3.211613655090332</v>
       </c>
       <c r="C470" s="2">
-        <v>3.2495253086090088</v>
+        <v>3.249117374420166</v>
       </c>
       <c r="D470" s="2">
         <v>3.3007421493530273</v>
       </c>
       <c r="E470" s="2">
-        <v>3.2760453224182129</v>
+        <v>3.2760419845581055</v>
       </c>
     </row>
     <row r="471">
@@ -8079,13 +8079,13 @@
         <v>3.5484046936035156</v>
       </c>
       <c r="C471" s="2">
-        <v>3.5571513175964356</v>
+        <v>3.5573873519897461</v>
       </c>
       <c r="D471" s="2">
         <v>3.3442409038543701</v>
       </c>
       <c r="E471" s="2">
-        <v>3.3202593326568604</v>
+        <v>3.3202626705169678</v>
       </c>
     </row>
     <row r="472">
@@ -8096,13 +8096,13 @@
         <v>3.3257477283477783</v>
       </c>
       <c r="C472" s="2">
-        <v>3.1851749420166016</v>
+        <v>3.1855318546295166</v>
       </c>
       <c r="D472" s="2">
         <v>3.3238921165466309</v>
       </c>
       <c r="E472" s="2">
-        <v>3.2958252429962158</v>
+        <v>3.2958674430847168</v>
       </c>
     </row>
     <row r="473">
@@ -8113,13 +8113,13 @@
         <v>3.3657293319702149</v>
       </c>
       <c r="C473" s="2">
-        <v>3.4024677276611328</v>
+        <v>3.4025876522064209</v>
       </c>
       <c r="D473" s="2">
         <v>3.3387739658355713</v>
       </c>
       <c r="E473" s="2">
-        <v>3.2923319339752197</v>
+        <v>3.2923545837402344</v>
       </c>
     </row>
     <row r="474">
@@ -8130,13 +8130,13 @@
         <v>3.2755124568939209</v>
       </c>
       <c r="C474" s="2">
-        <v>3.2702805995941162</v>
+        <v>3.270618200302124</v>
       </c>
       <c r="D474" s="2">
         <v>3.3244314193725586</v>
       </c>
       <c r="E474" s="2">
-        <v>3.2844996452331543</v>
+        <v>3.2845602035522461</v>
       </c>
     </row>
     <row r="475">
@@ -8147,13 +8147,13 @@
         <v>3.557887077331543</v>
       </c>
       <c r="C475" s="2">
-        <v>3.4815640449523926</v>
+        <v>3.4817695617675781</v>
       </c>
       <c r="D475" s="2">
         <v>3.3224530220031738</v>
       </c>
       <c r="E475" s="2">
-        <v>3.2758934497833252</v>
+        <v>3.2760043144226074</v>
       </c>
     </row>
     <row r="476">
@@ -8164,13 +8164,13 @@
         <v>3.0335986614227295</v>
       </c>
       <c r="C476" s="2">
-        <v>2.9854378700256348</v>
+        <v>2.9853413105010986</v>
       </c>
       <c r="D476" s="2">
         <v>3.3201529979705811</v>
       </c>
       <c r="E476" s="2">
-        <v>3.2608127593994141</v>
+        <v>3.2608957290649414</v>
       </c>
     </row>
     <row r="477">
@@ -8181,13 +8181,13 @@
         <v>3.3690464496612549</v>
       </c>
       <c r="C477" s="2">
-        <v>3.2066178321838379</v>
+        <v>3.2062790393829346</v>
       </c>
       <c r="D477" s="2">
         <v>3.3027467727661133</v>
       </c>
       <c r="E477" s="2">
-        <v>3.2525928020477295</v>
+        <v>3.252669095993042</v>
       </c>
     </row>
     <row r="478">
@@ -8198,13 +8198,13 @@
         <v>3.2323434352874756</v>
       </c>
       <c r="C478" s="2">
-        <v>3.2222774028778076</v>
+        <v>3.2224090099334717</v>
       </c>
       <c r="D478" s="2">
         <v>3.2677679061889649</v>
       </c>
       <c r="E478" s="2">
-        <v>3.2021381855010986</v>
+        <v>3.2022097110748291</v>
       </c>
     </row>
     <row r="479">
@@ -8215,13 +8215,13 @@
         <v>3.1938076019287109</v>
       </c>
       <c r="C479" s="2">
-        <v>3.1720702648162842</v>
+        <v>3.1721150875091553</v>
       </c>
       <c r="D479" s="2">
         <v>3.2509391307830811</v>
       </c>
       <c r="E479" s="2">
-        <v>3.1872544288635254</v>
+        <v>3.187323808670044</v>
       </c>
     </row>
     <row r="480">
@@ -8232,13 +8232,13 @@
         <v>3.527705192565918</v>
       </c>
       <c r="C480" s="2">
-        <v>3.4214248657226563</v>
+        <v>3.4214105606079102</v>
       </c>
       <c r="D480" s="2">
         <v>3.1826138496398926</v>
       </c>
       <c r="E480" s="2">
-        <v>3.1228303909301758</v>
+        <v>3.1229383945465088</v>
       </c>
     </row>
     <row r="481">
@@ -8249,13 +8249,13 @@
         <v>3.1690912246704102</v>
       </c>
       <c r="C481" s="2">
-        <v>3.1111950874328613</v>
+        <v>3.1114914417266846</v>
       </c>
       <c r="D481" s="2">
         <v>3.216069221496582</v>
       </c>
       <c r="E481" s="2">
-        <v>3.1597590446472168</v>
+        <v>3.1599102020263672</v>
       </c>
     </row>
     <row r="482">
@@ -8266,13 +8266,13 @@
         <v>3.0509192943572998</v>
       </c>
       <c r="C482" s="2">
-        <v>2.9483764171600342</v>
+        <v>2.9484541416168213</v>
       </c>
       <c r="D482" s="2">
         <v>3.1866574287414551</v>
       </c>
       <c r="E482" s="2">
-        <v>3.140188455581665</v>
+        <v>3.140390157699585</v>
       </c>
     </row>
     <row r="483">
@@ -8283,13 +8283,13 @@
         <v>3.124053955078125</v>
       </c>
       <c r="C483" s="2">
-        <v>3.1363255977630615</v>
+        <v>3.136643648147583</v>
       </c>
       <c r="D483" s="2">
         <v>3.22096848487854</v>
       </c>
       <c r="E483" s="2">
-        <v>3.1681928634643555</v>
+        <v>3.1684143543243408</v>
       </c>
     </row>
     <row r="484">
@@ -8300,13 +8300,13 @@
         <v>2.9429597854614258</v>
       </c>
       <c r="C484" s="2">
-        <v>2.9017481803894043</v>
+        <v>2.9023003578186035</v>
       </c>
       <c r="D484" s="2">
         <v>3.2778096199035645</v>
       </c>
       <c r="E484" s="2">
-        <v>3.2321329116821289</v>
+        <v>3.2323687076568604</v>
       </c>
     </row>
     <row r="485">
@@ -8317,13 +8317,13 @@
         <v>3.3346970081329346</v>
       </c>
       <c r="C485" s="2">
-        <v>3.317795991897583</v>
+        <v>3.3180892467498779</v>
       </c>
       <c r="D485" s="2">
         <v>3.2976031303405762</v>
       </c>
       <c r="E485" s="2">
-        <v>3.2569341659545899</v>
+        <v>3.2572023868560791</v>
       </c>
     </row>
     <row r="486">
@@ -8334,13 +8334,13 @@
         <v>3.1043403148651123</v>
       </c>
       <c r="C486" s="2">
-        <v>3.0304830074310303</v>
+        <v>3.0305979251861572</v>
       </c>
       <c r="D486" s="2">
         <v>3.2933359146118164</v>
       </c>
       <c r="E486" s="2">
-        <v>3.2527205944061279</v>
+        <v>3.2530035972595215</v>
       </c>
     </row>
     <row r="487">
@@ -8351,13 +8351,13 @@
         <v>3.5411427021026611</v>
       </c>
       <c r="C487" s="2">
-        <v>3.4743154048919678</v>
+        <v>3.4746274948120117</v>
       </c>
       <c r="D487" s="2">
         <v>3.3664484024047852</v>
       </c>
       <c r="E487" s="2">
-        <v>3.3420274257659912</v>
+        <v>3.3423056602478027</v>
       </c>
     </row>
     <row r="488">
@@ -8368,13 +8368,13 @@
         <v>3.7053766250610352</v>
       </c>
       <c r="C488" s="2">
-        <v>3.7475318908691406</v>
+        <v>3.7477025985717773</v>
       </c>
       <c r="D488" s="2">
         <v>3.4156734943389893</v>
       </c>
       <c r="E488" s="2">
-        <v>3.3894450664520264</v>
+        <v>3.389674186706543</v>
       </c>
     </row>
     <row r="489">
@@ -8385,13 +8385,13 @@
         <v>3.7058470249176025</v>
       </c>
       <c r="C489" s="2">
-        <v>3.6446366310119629</v>
+        <v>3.6449136734008789</v>
       </c>
       <c r="D489" s="2">
         <v>3.4969873428344727</v>
       </c>
       <c r="E489" s="2">
-        <v>3.4780104160308838</v>
+        <v>3.4781851768493652</v>
       </c>
     </row>
     <row r="490">
@@ -8402,13 +8402,13 @@
         <v>3.1306874752044678</v>
       </c>
       <c r="C490" s="2">
-        <v>3.0732719898223877</v>
+        <v>3.0737037658691406</v>
       </c>
       <c r="D490" s="2">
         <v>3.4565737247467041</v>
       </c>
       <c r="E490" s="2">
-        <v>3.4441545009613037</v>
+        <v>3.4443237781524658</v>
       </c>
     </row>
     <row r="491">
@@ -8419,13 +8419,13 @@
         <v>3.708930253982544</v>
       </c>
       <c r="C491" s="2">
-        <v>3.7521388530731201</v>
+        <v>3.7521729469299316</v>
       </c>
       <c r="D491" s="2">
         <v>3.4550285339355469</v>
       </c>
       <c r="E491" s="2">
-        <v>3.444746732711792</v>
+        <v>3.4449203014373779</v>
       </c>
     </row>
     <row r="492">
@@ -8436,13 +8436,13 @@
         <v>3.5670793056488037</v>
       </c>
       <c r="C492" s="2">
-        <v>3.563084602355957</v>
+        <v>3.5629594326019287</v>
       </c>
       <c r="D492" s="2">
         <v>3.3958930969238281</v>
       </c>
       <c r="E492" s="2">
-        <v>3.3886568546295166</v>
+        <v>3.3887944221496582</v>
       </c>
     </row>
     <row r="493">
@@ -8453,13 +8453,13 @@
         <v>3.6747863292694092</v>
       </c>
       <c r="C493" s="2">
-        <v>3.6988363265991211</v>
+        <v>3.6989002227783203</v>
       </c>
       <c r="D493" s="2">
         <v>3.3094384670257568</v>
       </c>
       <c r="E493" s="2">
-        <v>3.2892684936523438</v>
+        <v>3.2893638610839844</v>
       </c>
     </row>
     <row r="494">
@@ -8470,13 +8470,13 @@
         <v>2.9709737300872803</v>
       </c>
       <c r="C494" s="2">
-        <v>3.0130922794342041</v>
+        <v>3.0133368968963623</v>
       </c>
       <c r="D494" s="2">
         <v>3.233849048614502</v>
       </c>
       <c r="E494" s="2">
-        <v>3.2241134643554688</v>
+        <v>3.2241723537445068</v>
       </c>
     </row>
     <row r="495">
@@ -8487,13 +8487,13 @@
         <v>3.0904343128204346</v>
       </c>
       <c r="C495" s="2">
-        <v>3.0358119010925293</v>
+        <v>3.0359659194946289</v>
       </c>
       <c r="D495" s="2">
         <v>3.2887201309204102</v>
       </c>
       <c r="E495" s="2">
-        <v>3.2722797393798828</v>
+        <v>3.2723274230957031</v>
       </c>
     </row>
     <row r="496">
@@ -8504,13 +8504,13 @@
         <v>3.0089230537414551</v>
       </c>
       <c r="C496" s="2">
-        <v>2.9695062637329102</v>
+        <v>2.9694945812225342</v>
       </c>
       <c r="D496" s="2">
         <v>3.278853178024292</v>
       </c>
       <c r="E496" s="2">
-        <v>3.2592246532440186</v>
+        <v>3.2592639923095703</v>
       </c>
     </row>
     <row r="497">
@@ -8521,13 +8521,13 @@
         <v>2.9272847175598145</v>
       </c>
       <c r="C497" s="2">
-        <v>2.8530378341674805</v>
+        <v>2.8528282642364502</v>
       </c>
       <c r="D497" s="2">
         <v>3.277618408203125</v>
       </c>
       <c r="E497" s="2">
-        <v>3.2556185722351074</v>
+        <v>3.2556343078613281</v>
       </c>
     </row>
     <row r="498">
@@ -8538,13 +8538,13 @@
         <v>3.025543212890625</v>
       </c>
       <c r="C498" s="2">
-        <v>3.0582401752471924</v>
+        <v>3.0581891536712646</v>
       </c>
       <c r="D498" s="2">
         <v>3.2586498260498047</v>
       </c>
       <c r="E498" s="2">
-        <v>3.236015796661377</v>
+        <v>3.2360930442810059</v>
       </c>
     </row>
     <row r="499">
@@ -8555,13 +8555,13 @@
         <v>3.6245269775390625</v>
       </c>
       <c r="C499" s="2">
-        <v>3.5067696571350098</v>
+        <v>3.5071001052856445</v>
       </c>
       <c r="D499" s="2">
         <v>3.2885701656341553</v>
       </c>
       <c r="E499" s="2">
-        <v>3.2641074657440186</v>
+        <v>3.2642192840576172</v>
       </c>
     </row>
     <row r="500">
@@ -8572,13 +8572,13 @@
         <v>3.6201279163360596</v>
       </c>
       <c r="C500" s="2">
-        <v>3.6346426010131836</v>
+        <v>3.6346020698547363</v>
       </c>
       <c r="D500" s="2">
         <v>3.316361665725708</v>
       </c>
       <c r="E500" s="2">
-        <v>3.2719955444335938</v>
+        <v>3.2721383571624756</v>
       </c>
     </row>
     <row r="501">
@@ -8589,13 +8589,13 @@
         <v>3.5559659004211426</v>
       </c>
       <c r="C501" s="2">
-        <v>3.5306305885314942</v>
+        <v>3.530292272567749</v>
       </c>
       <c r="D501" s="2">
         <v>3.3411548137664795</v>
       </c>
       <c r="E501" s="2">
-        <v>3.300142765045166</v>
+        <v>3.3002827167510986</v>
       </c>
     </row>
     <row r="502">
@@ -8606,13 +8606,13 @@
         <v>3.5040690898895264</v>
       </c>
       <c r="C502" s="2">
-        <v>3.5224103927612305</v>
+        <v>3.5230271816253662</v>
       </c>
       <c r="D502" s="2">
         <v>3.3402423858642578</v>
       </c>
       <c r="E502" s="2">
-        <v>3.2885258197784424</v>
+        <v>3.2887034416198731</v>
       </c>
     </row>
     <row r="503">
@@ -8623,13 +8623,13 @@
         <v>3.24025559425354</v>
       </c>
       <c r="C503" s="2">
-        <v>3.2659173011779785</v>
+        <v>3.2664732933044434</v>
       </c>
       <c r="D503" s="2">
         <v>3.3367319107055664</v>
       </c>
       <c r="E503" s="2">
-        <v>3.2872030735015869</v>
+        <v>3.2874312400817871</v>
       </c>
     </row>
     <row r="504">
@@ -8640,13 +8640,13 @@
         <v>3.3405587673187256</v>
       </c>
       <c r="C504" s="2">
-        <v>3.1068055629730225</v>
+        <v>3.1072378158569336</v>
       </c>
       <c r="D504" s="2">
         <v>3.3683757781982422</v>
       </c>
       <c r="E504" s="2">
-        <v>3.3336482048034668</v>
+        <v>3.3338589668273926</v>
       </c>
     </row>
     <row r="505">
@@ -8657,13 +8657,13 @@
         <v>3.2320601940155029</v>
       </c>
       <c r="C505" s="2">
-        <v>3.2228314876556397</v>
+        <v>3.2227940559387207</v>
       </c>
       <c r="D505" s="2">
         <v>3.6003420352935791</v>
       </c>
       <c r="E505" s="2">
-        <v>3.5528838634490967</v>
+        <v>3.5531375408172608</v>
       </c>
     </row>
     <row r="506">
@@ -8674,13 +8674,13 @@
         <v>2.9190728664398193</v>
       </c>
       <c r="C506" s="2">
-        <v>2.7484853267669678</v>
+        <v>2.7486157417297363</v>
       </c>
       <c r="D506" s="2">
         <v>3.8552887439727783</v>
       </c>
       <c r="E506" s="2">
-        <v>3.8040337562561035</v>
+        <v>3.8043572902679443</v>
       </c>
     </row>
     <row r="507">
@@ -8691,13 +8691,13 @@
         <v>2.9939491748809815</v>
       </c>
       <c r="C507" s="2">
-        <v>3.0463352203369141</v>
+        <v>3.0467393398284912</v>
       </c>
       <c r="D507" s="2">
         <v>3.9692280292510986</v>
       </c>
       <c r="E507" s="2">
-        <v>3.9092090129852295</v>
+        <v>3.9094517230987549</v>
       </c>
     </row>
     <row r="508">
@@ -8708,13 +8708,13 @@
         <v>3.9093215465545654</v>
       </c>
       <c r="C508" s="2">
-        <v>3.9247746467590332</v>
+        <v>3.9249486923217773</v>
       </c>
       <c r="D508" s="2">
         <v>4.1104598045349121</v>
       </c>
       <c r="E508" s="2">
-        <v>4.0401878356933594</v>
+        <v>4.0403885841369629</v>
       </c>
     </row>
     <row r="509">
@@ -8725,13 +8725,13 @@
         <v>5.70782470703125</v>
       </c>
       <c r="C509" s="2">
-        <v>5.6077651977539063</v>
+        <v>5.6081094741821289</v>
       </c>
       <c r="D509" s="2">
         <v>4.2469882965087891</v>
       </c>
       <c r="E509" s="2">
-        <v>4.2054824829101563</v>
+        <v>4.2056369781494141</v>
       </c>
     </row>
     <row r="510">
@@ -8742,13 +8742,13 @@
         <v>5.850487232208252</v>
       </c>
       <c r="C510" s="2">
-        <v>5.7909793853759766</v>
+        <v>5.7912697792053223</v>
       </c>
       <c r="D510" s="2">
         <v>4.3552389144897461</v>
       </c>
       <c r="E510" s="2">
-        <v>4.3143134117126465</v>
+        <v>4.3144893646240234</v>
       </c>
     </row>
     <row r="511">
@@ -8759,13 +8759,13 @@
         <v>4.5295224189758301</v>
       </c>
       <c r="C511" s="2">
-        <v>4.4689865112304688</v>
+        <v>4.4688777923583984</v>
       </c>
       <c r="D511" s="2">
         <v>4.4503674507141113</v>
       </c>
       <c r="E511" s="2">
-        <v>4.4112539291381836</v>
+        <v>4.4114198684692383</v>
       </c>
     </row>
     <row r="512">
@@ -8776,13 +8776,13 @@
         <v>4.5113420486450195</v>
       </c>
       <c r="C512" s="2">
-        <v>4.4447274208068848</v>
+        <v>4.4449057579040527</v>
       </c>
       <c r="D512" s="2">
         <v>4.5743598937988281</v>
       </c>
       <c r="E512" s="2">
-        <v>4.5298490524291992</v>
+        <v>4.5300259590148926</v>
       </c>
     </row>
     <row r="513">
@@ -8793,13 +8793,13 @@
         <v>4.5693154335021973</v>
       </c>
       <c r="C513" s="2">
-        <v>4.5944585800170899</v>
+        <v>4.5944728851318359</v>
       </c>
       <c r="D513" s="2">
         <v>4.6378192901611328</v>
       </c>
       <c r="E513" s="2">
-        <v>4.607572078704834</v>
+        <v>4.6076478958129883</v>
       </c>
     </row>
     <row r="514">
@@ -8810,13 +8810,13 @@
         <v>4.2063159942626953</v>
       </c>
       <c r="C514" s="2">
-        <v>4.2023100852966309</v>
+        <v>4.2024660110473633</v>
       </c>
       <c r="D514" s="2">
         <v>4.4920592308044434</v>
       </c>
       <c r="E514" s="2">
-        <v>4.4769258499145508</v>
+        <v>4.4769163131713867</v>
       </c>
     </row>
     <row r="515">
@@ -8827,13 +8827,13 @@
         <v>3.7752299308776856</v>
       </c>
       <c r="C515" s="2">
-        <v>3.6209485530853272</v>
+        <v>3.6209876537322998</v>
       </c>
       <c r="D515" s="2">
         <v>4.3292365074157715</v>
       </c>
       <c r="E515" s="2">
-        <v>4.3217391967773438</v>
+        <v>4.3216381072998047</v>
       </c>
     </row>
     <row r="516">
@@ -8844,13 +8844,13 @@
         <v>4.1098775863647461</v>
       </c>
       <c r="C516" s="2">
-        <v>4.1136918067932129</v>
+        <v>4.114194393157959</v>
       </c>
       <c r="D516" s="2">
         <v>4.2806987762451172</v>
       </c>
       <c r="E516" s="2">
-        <v>4.271024227142334</v>
+        <v>4.2708892822265625</v>
       </c>
     </row>
     <row r="517">
@@ -8861,13 +8861,13 @@
         <v>4.4804592132568359</v>
       </c>
       <c r="C517" s="2">
-        <v>4.6242814064025879</v>
+        <v>4.6235485076904297</v>
       </c>
       <c r="D517" s="2">
         <v>4.2383441925048828</v>
       </c>
       <c r="E517" s="2">
-        <v>4.2460408210754395</v>
+        <v>4.2458815574645996</v>
       </c>
     </row>
     <row r="518">
@@ -8878,13 +8878,13 @@
         <v>4.3959846496582031</v>
       </c>
       <c r="C518" s="2">
-        <v>4.4319500923156738</v>
+        <v>4.4315261840820313</v>
       </c>
       <c r="D518" s="2">
         <v>4.2485189437866211</v>
       </c>
       <c r="E518" s="2">
-        <v>4.246100902557373</v>
+        <v>4.245934009552002</v>
       </c>
     </row>
     <row r="519">
@@ -8895,13 +8895,13 @@
         <v>4.3850827217102051</v>
       </c>
       <c r="C519" s="2">
-        <v>4.3943004608154297</v>
+        <v>4.393765926361084</v>
       </c>
       <c r="D519" s="2">
         <v>4.3535876274108887</v>
       </c>
       <c r="E519" s="2">
-        <v>4.3377161026000977</v>
+        <v>4.3375177383422852</v>
       </c>
     </row>
     <row r="520">
@@ -8912,13 +8912,13 @@
         <v>4.0926823616027832</v>
       </c>
       <c r="C520" s="2">
-        <v>4.0125484466552734</v>
+        <v>4.0121374130249024</v>
       </c>
       <c r="D520" s="2">
         <v>4.4861111640930176</v>
       </c>
       <c r="E520" s="2">
-        <v>4.4868354797363281</v>
+        <v>4.4866228103637695</v>
       </c>
     </row>
     <row r="521">
@@ -8929,13 +8929,13 @@
         <v>4.1301479339599609</v>
       </c>
       <c r="C521" s="2">
-        <v>4.219876766204834</v>
+        <v>4.2198348045349121</v>
       </c>
       <c r="D521" s="2">
         <v>4.5787687301635742</v>
       </c>
       <c r="E521" s="2">
-        <v>4.5838136672973633</v>
+        <v>4.5835399627685547</v>
       </c>
     </row>
     <row r="522">
@@ -8946,13 +8946,13 @@
         <v>4.660888671875</v>
       </c>
       <c r="C522" s="2">
-        <v>4.5950002670288086</v>
+        <v>4.5949435234069824</v>
       </c>
       <c r="D522" s="2">
         <v>4.7003388404846191</v>
       </c>
       <c r="E522" s="2">
-        <v>4.6843671798706055</v>
+        <v>4.6841621398925781</v>
       </c>
     </row>
     <row r="523">
@@ -8963,13 +8963,13 @@
         <v>5.1519336700439453</v>
       </c>
       <c r="C523" s="2">
-        <v>5.0268464088439942</v>
+        <v>5.0267210006713867</v>
       </c>
       <c r="D523" s="2">
         <v>4.7933120727539063</v>
       </c>
       <c r="E523" s="2">
-        <v>4.7569880485534668</v>
+        <v>4.756798267364502</v>
       </c>
     </row>
     <row r="524">
@@ -8980,13 +8980,13 @@
         <v>4.9679455757141113</v>
       </c>
       <c r="C524" s="2">
-        <v>4.9630246162414551</v>
+        <v>4.9629330635070801</v>
       </c>
       <c r="D524" s="2">
         <v>4.8824996948242188</v>
       </c>
       <c r="E524" s="2">
-        <v>4.8401365280151367</v>
+        <v>4.8399691581726074</v>
       </c>
     </row>
     <row r="525">
@@ -8997,13 +8997,13 @@
         <v>4.9437952041625977</v>
       </c>
       <c r="C525" s="2">
-        <v>4.9864945411682129</v>
+        <v>4.9864487648010254</v>
       </c>
       <c r="D525" s="2">
         <v>5.0670738220214844</v>
       </c>
       <c r="E525" s="2">
-        <v>5.0416626930236817</v>
+        <v>5.0415215492248535</v>
       </c>
     </row>
     <row r="526">
@@ -9014,13 +9014,13 @@
         <v>5.5745902061462402</v>
       </c>
       <c r="C526" s="2">
-        <v>5.5292611122131348</v>
+        <v>5.529149055480957</v>
       </c>
       <c r="D526" s="2">
         <v>5.1949796676635742</v>
       </c>
       <c r="E526" s="2">
-        <v>5.1488308906555176</v>
+        <v>5.1486878395080567</v>
       </c>
     </row>
     <row r="527">
@@ -9031,13 +9031,13 @@
         <v>5.2327427864074707</v>
       </c>
       <c r="C527" s="2">
-        <v>5.0855388641357422</v>
+        <v>5.0852503776550293</v>
       </c>
       <c r="D527" s="2">
         <v>5.2232699394226074</v>
       </c>
       <c r="E527" s="2">
-        <v>5.1782083511352539</v>
+        <v>5.178067684173584</v>
       </c>
     </row>
     <row r="528">
@@ -9048,13 +9048,13 @@
         <v>5.1877713203430176</v>
       </c>
       <c r="C528" s="2">
-        <v>5.14263916015625</v>
+        <v>5.142305850982666</v>
       </c>
       <c r="D528" s="2">
         <v>5.2693939208984375</v>
       </c>
       <c r="E528" s="2">
-        <v>5.232841968536377</v>
+        <v>5.2326583862304688</v>
       </c>
     </row>
     <row r="529">
@@ -9065,13 +9065,13 @@
         <v>5.7538480758666992</v>
       </c>
       <c r="C529" s="2">
-        <v>5.8262820243835449</v>
+        <v>5.8261065483093262</v>
       </c>
       <c r="D529" s="2">
         <v>5.3304028511047363</v>
       </c>
       <c r="E529" s="2">
-        <v>5.2936229705810547</v>
+        <v>5.2934470176696777</v>
       </c>
     </row>
     <row r="530">
@@ -9082,13 +9082,13 @@
         <v>5.2813014984130859</v>
       </c>
       <c r="C530" s="2">
-        <v>5.184391975402832</v>
+        <v>5.1843314170837402</v>
       </c>
       <c r="D530" s="2">
         <v>5.4217104911804199</v>
       </c>
       <c r="E530" s="2">
-        <v>5.3870062828063965</v>
+        <v>5.3868217468261719</v>
       </c>
     </row>
     <row r="531">
@@ -9099,13 +9099,13 @@
         <v>4.915501594543457</v>
       </c>
       <c r="C531" s="2">
-        <v>4.8593950271606445</v>
+        <v>4.8593630790710449</v>
       </c>
       <c r="D531" s="2">
         <v>5.4156079292297363</v>
       </c>
       <c r="E531" s="2">
-        <v>5.3798189163208008</v>
+        <v>5.3795900344848633</v>
       </c>
     </row>
     <row r="532">
@@ -9116,13 +9116,13 @@
         <v>5.5670490264892578</v>
       </c>
       <c r="C532" s="2">
-        <v>5.5185508728027344</v>
+        <v>5.5180363655090332</v>
       </c>
       <c r="D532" s="2">
         <v>5.4558911323547363</v>
       </c>
       <c r="E532" s="2">
-        <v>5.4318299293518067</v>
+        <v>5.4316062927246094</v>
       </c>
     </row>
     <row r="533">
@@ -9133,13 +9133,13 @@
         <v>5.5170273780822754</v>
       </c>
       <c r="C533" s="2">
-        <v>5.5100526809692383</v>
+        <v>5.5100302696228027</v>
       </c>
       <c r="D533" s="2">
         <v>5.5727348327636719</v>
       </c>
       <c r="E533" s="2">
-        <v>5.5568084716796875</v>
+        <v>5.5565767288208008</v>
       </c>
     </row>
     <row r="534">
@@ -9150,13 +9150,13 @@
         <v>5.7655625343322754</v>
       </c>
       <c r="C534" s="2">
-        <v>5.8269443511962891</v>
+        <v>5.8268222808837891</v>
       </c>
       <c r="D534" s="2">
         <v>5.6403322219848633</v>
       </c>
       <c r="E534" s="2">
-        <v>5.6115603446960449</v>
+        <v>5.6113228797912598</v>
       </c>
     </row>
     <row r="535">
@@ -9167,13 +9167,13 @@
         <v>5.5196666717529297</v>
       </c>
       <c r="C535" s="2">
-        <v>5.4645748138427734</v>
+        <v>5.4640655517578125</v>
       </c>
       <c r="D535" s="2">
         <v>5.779301643371582</v>
       </c>
       <c r="E535" s="2">
-        <v>5.7383866310119629</v>
+        <v>5.738128662109375</v>
       </c>
     </row>
     <row r="536">
@@ -9184,13 +9184,13 @@
         <v>5.5952920913696289</v>
       </c>
       <c r="C536" s="2">
-        <v>5.5536370277404785</v>
+        <v>5.5533933639526367</v>
       </c>
       <c r="D536" s="2">
         <v>5.8993611335754395</v>
       </c>
       <c r="E536" s="2">
-        <v>5.8577985763549805</v>
+        <v>5.8575253486633301</v>
       </c>
     </row>
     <row r="537">
@@ -9201,13 +9201,13 @@
         <v>6.2393627166748047</v>
       </c>
       <c r="C537" s="2">
-        <v>6.2674484252929688</v>
+        <v>6.2670435905456543</v>
       </c>
       <c r="D537" s="2">
         <v>5.9830894470214844</v>
       </c>
       <c r="E537" s="2">
-        <v>5.9492478370666504</v>
+        <v>5.9489998817443848</v>
       </c>
     </row>
     <row r="538">
@@ -9218,13 +9218,13 @@
         <v>6.3622269630432129</v>
       </c>
       <c r="C538" s="2">
-        <v>6.3190464973449707</v>
+        <v>6.3188185691833496</v>
       </c>
       <c r="D538" s="2">
         <v>5.9506516456604004</v>
       </c>
       <c r="E538" s="2">
-        <v>5.9222936630249024</v>
+        <v>5.9220576286315918</v>
       </c>
     </row>
     <row r="539">
@@ -9235,13 +9235,13 @@
         <v>6.5320248603820801</v>
       </c>
       <c r="C539" s="2">
-        <v>6.3258304595947266</v>
+        <v>6.3255863189697266</v>
       </c>
       <c r="D539" s="2">
         <v>5.9368720054626465</v>
       </c>
       <c r="E539" s="2">
-        <v>5.9012846946716309</v>
+        <v>5.9010524749755859</v>
       </c>
     </row>
     <row r="540">
@@ -9252,13 +9252,13 @@
         <v>5.9960389137268067</v>
       </c>
       <c r="C540" s="2">
-        <v>5.9341011047363281</v>
+        <v>5.9339337348937988</v>
       </c>
       <c r="D540" s="2">
         <v>5.94476318359375</v>
       </c>
       <c r="E540" s="2">
-        <v>5.9165544509887695</v>
+        <v>5.9163870811462402</v>
       </c>
     </row>
     <row r="541">
@@ -9269,13 +9269,13 @@
         <v>6.3206038475036621</v>
       </c>
       <c r="C541" s="2">
-        <v>6.3415942192077637</v>
+        <v>6.3413043022155762</v>
       </c>
       <c r="D541" s="2">
         <v>5.9007554054260254</v>
       </c>
       <c r="E541" s="2">
-        <v>5.8646402359008789</v>
+        <v>5.8644890785217285</v>
       </c>
     </row>
     <row r="542">
@@ -9286,13 +9286,13 @@
         <v>5.2250876426696777</v>
       </c>
       <c r="C542" s="2">
-        <v>5.2674641609191895</v>
+        <v>5.2675514221191406</v>
       </c>
       <c r="D542" s="2">
         <v>5.7901620864868164</v>
       </c>
       <c r="E542" s="2">
-        <v>5.7566161155700684</v>
+        <v>5.7564659118652344</v>
       </c>
     </row>
     <row r="543">
@@ -9303,13 +9303,13 @@
         <v>5.641545295715332</v>
       </c>
       <c r="C543" s="2">
-        <v>5.6378674507141113</v>
+        <v>5.6377744674682617</v>
       </c>
       <c r="D543" s="2">
         <v>5.6473541259765625</v>
       </c>
       <c r="E543" s="2">
-        <v>5.6033353805541992</v>
+        <v>5.6031713485717773</v>
       </c>
     </row>
     <row r="544">
@@ -9320,13 +9320,13 @@
         <v>5.5906858444213867</v>
       </c>
       <c r="C544" s="2">
-        <v>5.6020016670227051</v>
+        <v>5.6020784378051758</v>
       </c>
       <c r="D544" s="2">
         <v>5.4985289573669434</v>
       </c>
       <c r="E544" s="2">
-        <v>5.4788994789123535</v>
+        <v>5.4787225723266602</v>
       </c>
     </row>
     <row r="545">
@@ -9337,13 +9337,13 @@
         <v>5.1992244720458984</v>
       </c>
       <c r="C545" s="2">
-        <v>5.0864086151123047</v>
+        <v>5.0863118171691895</v>
       </c>
       <c r="D545" s="2">
         <v>5.3203144073486328</v>
       </c>
       <c r="E545" s="2">
-        <v>5.2994413375854492</v>
+        <v>5.2992563247680664</v>
       </c>
     </row>
     <row r="546">
@@ -9354,13 +9354,13 @@
         <v>5.244020938873291</v>
       </c>
       <c r="C546" s="2">
-        <v>5.2952299118041992</v>
+        <v>5.2948336601257324</v>
       </c>
       <c r="D546" s="2">
         <v>5.1088137626647949</v>
       </c>
       <c r="E546" s="2">
-        <v>5.0798897743225098</v>
+        <v>5.0796718597412109</v>
       </c>
     </row>
     <row r="547">
@@ -9371,13 +9371,13 @@
         <v>5.0769534111022949</v>
       </c>
       <c r="C547" s="2">
-        <v>4.9395198822021484</v>
+        <v>4.9391674995422363</v>
       </c>
       <c r="D547" s="2">
         <v>5.1014866828918457</v>
       </c>
       <c r="E547" s="2">
-        <v>5.0734763145446777</v>
+        <v>5.0732541084289551</v>
       </c>
     </row>
     <row r="548">
@@ -9388,13 +9388,13 @@
         <v>5.1925992965698242</v>
       </c>
       <c r="C548" s="2">
-        <v>5.2059078216552734</v>
+        <v>5.2055492401123047</v>
       </c>
       <c r="D548" s="2">
         <v>5.0389404296875</v>
       </c>
       <c r="E548" s="2">
-        <v>5.0084323883056641</v>
+        <v>5.0081720352172852</v>
       </c>
     </row>
     <row r="549">
@@ -9405,13 +9405,13 @@
         <v>4.3921093940734863</v>
       </c>
       <c r="C549" s="2">
-        <v>4.3189768791198731</v>
+        <v>4.3187365531921387</v>
       </c>
       <c r="D549" s="2">
         <v>4.9624805450439453</v>
       </c>
       <c r="E549" s="2">
-        <v>4.9173626899719238</v>
+        <v>4.9170613288879395</v>
       </c>
     </row>
     <row r="550">
@@ -9422,13 +9422,13 @@
         <v>4.4170994758605957</v>
       </c>
       <c r="C550" s="2">
-        <v>4.3656320571899414</v>
+        <v>4.365044116973877</v>
       </c>
       <c r="D550" s="2">
         <v>4.8666276931762695</v>
       </c>
       <c r="E550" s="2">
-        <v>4.8369197845458984</v>
+        <v>4.8366179466247559</v>
       </c>
     </row>
     <row r="551">
@@ -9439,13 +9439,13 @@
         <v>5.1591434478759766</v>
       </c>
       <c r="C551" s="2">
-        <v>5.209742546081543</v>
+        <v>5.2097930908203125</v>
       </c>
       <c r="D551" s="2">
         <v>4.8695583343505859</v>
       </c>
       <c r="E551" s="2">
-        <v>4.8357696533203125</v>
+        <v>4.835477352142334</v>
       </c>
     </row>
     <row r="552">
@@ -9456,13 +9456,13 @@
         <v>5.0786275863647461</v>
       </c>
       <c r="C552" s="2">
-        <v>5.0524702072143555</v>
+        <v>5.0520343780517578</v>
       </c>
       <c r="D552" s="2">
         <v>4.8698391914367676</v>
       </c>
       <c r="E552" s="2">
-        <v>4.8254880905151367</v>
+        <v>4.8251967430114746</v>
       </c>
     </row>
     <row r="553">
@@ -9473,13 +9473,13 @@
         <v>4.9025483131408691</v>
       </c>
       <c r="C553" s="2">
-        <v>4.7823758125305176</v>
+        <v>4.7820820808410645</v>
       </c>
       <c r="D553" s="2">
-        <v>4.8294939994812012</v>
+        <v>4.7510867118835449</v>
       </c>
       <c r="E553" s="2">
-        <v>4.7779359817504883</v>
+        <v>4.7091455459594727</v>
       </c>
     </row>
     <row r="554">
@@ -9490,13 +9490,13 @@
         <v>4.3365478515625</v>
       </c>
       <c r="C554" s="2">
-        <v>4.3624248504638672</v>
+        <v>4.3623213768005371</v>
       </c>
       <c r="D554" s="2">
-        <v>4.8919777870178223</v>
+        <v>4.7816629409790039</v>
       </c>
       <c r="E554" s="2">
-        <v>4.8435015678405762</v>
+        <v>4.7309732437133789</v>
       </c>
     </row>
     <row r="555">
@@ -9507,13 +9507,13 @@
         <v>5.2703976631164551</v>
       </c>
       <c r="C555" s="2">
-        <v>5.2848758697509766</v>
+        <v>5.2845697402954102</v>
       </c>
       <c r="D555" s="2">
-        <v>4.9711241722106934</v>
+        <v>4.8540267944335938</v>
       </c>
       <c r="E555" s="2">
-        <v>4.9231462478637695</v>
+        <v>4.8150506019592285</v>
       </c>
     </row>
     <row r="556">
@@ -9524,13 +9524,98 @@
         <v>5.0794796943664551</v>
       </c>
       <c r="C556" s="2">
-        <v>4.8469882011413574</v>
+        <v>4.8466396331787109</v>
       </c>
       <c r="D556" s="2">
-        <v>4.9335203170776367</v>
+        <v>4.391899585723877</v>
       </c>
       <c r="E556" s="2">
-        <v>4.8658270835876465</v>
+        <v>4.3519043922424316</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B557" s="2">
+        <v>4.1238250732421875</v>
+      </c>
+      <c r="C557" s="2">
+        <v>4.1610870361328125</v>
+      </c>
+      <c r="D557" s="2">
+        <v>4.5562119483947754</v>
+      </c>
+      <c r="E557" s="2">
+        <v>4.5069880485534668</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B558" s="2">
+        <v>4.66729736328125</v>
+      </c>
+      <c r="C558" s="2">
+        <v>4.5151867866516113</v>
+      </c>
+      <c r="D558" s="2">
+        <v>4.5129199028015137</v>
+      </c>
+      <c r="E558" s="2">
+        <v>4.4726014137268066</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B559" s="2">
+        <v>5.0683727264404297</v>
+      </c>
+      <c r="C559" s="2">
+        <v>5.1217403411865234</v>
+      </c>
+      <c r="D559" s="2">
+        <v>4.5381159782409668</v>
+      </c>
+      <c r="E559" s="2">
+        <v>4.4883556365966797</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B560" s="2">
+        <v>1</v>
+      </c>
+      <c r="C560" s="2">
+        <v>1.041478157043457</v>
+      </c>
+      <c r="D560" s="2">
+        <v>4.4160690307617188</v>
+      </c>
+      <c r="E560" s="2">
+        <v>4.3556532859802246</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B561" s="2">
+        <v>6.5574383735656738</v>
+      </c>
+      <c r="C561" s="2">
+        <v>6.4477882385253906</v>
+      </c>
+      <c r="D561" s="2">
+        <v>4.2833867073059082</v>
+      </c>
+      <c r="E561" s="2">
+        <v>4.2574563026428223</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_stdev.xlsx
+++ b/MSC_stdev.xlsx
@@ -106,13 +106,13 @@
         <v>3.9173924922943115</v>
       </c>
       <c r="C2" s="2">
-        <v>3.9267470836639404</v>
+        <v>3.926511287689209</v>
       </c>
       <c r="D2" s="2">
         <v>4.3444499969482422</v>
       </c>
       <c r="E2" s="2">
-        <v>4.3455934524536133</v>
+        <v>4.3453578948974609</v>
       </c>
     </row>
     <row r="3">
@@ -123,13 +123,13 @@
         <v>4.6166448593139648</v>
       </c>
       <c r="C3" s="2">
-        <v>4.5758876800537109</v>
+        <v>4.5758566856384277</v>
       </c>
       <c r="D3" s="2">
         <v>4.3426127433776856</v>
       </c>
       <c r="E3" s="2">
-        <v>4.3410120010375977</v>
+        <v>4.3407530784606934</v>
       </c>
     </row>
     <row r="4">
@@ -140,13 +140,13 @@
         <v>4.3726387023925781</v>
       </c>
       <c r="C4" s="2">
-        <v>4.4124965667724609</v>
+        <v>4.4117813110351563</v>
       </c>
       <c r="D4" s="2">
         <v>4.3223543167114258</v>
       </c>
       <c r="E4" s="2">
-        <v>4.3226337432861328</v>
+        <v>4.3223323822021484</v>
       </c>
     </row>
     <row r="5">
@@ -157,13 +157,13 @@
         <v>4.0475072860717773</v>
       </c>
       <c r="C5" s="2">
-        <v>4.0787997245788574</v>
+        <v>4.0784220695495605</v>
       </c>
       <c r="D5" s="2">
         <v>4.3720974922180176</v>
       </c>
       <c r="E5" s="2">
-        <v>4.3660540580749512</v>
+        <v>4.3658022880554199</v>
       </c>
     </row>
     <row r="6">
@@ -174,13 +174,13 @@
         <v>4.76806640625</v>
       </c>
       <c r="C6" s="2">
-        <v>4.7340364456176758</v>
+        <v>4.7342190742492676</v>
       </c>
       <c r="D6" s="2">
         <v>4.3931341171264648</v>
       </c>
       <c r="E6" s="2">
-        <v>4.3920168876647949</v>
+        <v>4.3917350769042969</v>
       </c>
     </row>
     <row r="7">
@@ -191,13 +191,13 @@
         <v>4.3334264755249024</v>
       </c>
       <c r="C7" s="2">
-        <v>4.3181056976318359</v>
+        <v>4.3177280426025391</v>
       </c>
       <c r="D7" s="2">
         <v>4.4254779815673828</v>
       </c>
       <c r="E7" s="2">
-        <v>4.4277920722961426</v>
+        <v>4.4274859428405762</v>
       </c>
     </row>
     <row r="8">
@@ -208,13 +208,13 @@
         <v>4.2008047103881836</v>
       </c>
       <c r="C8" s="2">
-        <v>4.2123641967773438</v>
+        <v>4.2118091583251953</v>
       </c>
       <c r="D8" s="2">
         <v>4.3980436325073242</v>
       </c>
       <c r="E8" s="2">
-        <v>4.4110245704650879</v>
+        <v>4.410736083984375</v>
       </c>
     </row>
     <row r="9">
@@ -225,13 +225,13 @@
         <v>4.7202978134155273</v>
       </c>
       <c r="C9" s="2">
-        <v>4.6699948310852051</v>
+        <v>4.6700906753540039</v>
       </c>
       <c r="D9" s="2">
         <v>4.3640079498291016</v>
       </c>
       <c r="E9" s="2">
-        <v>4.3794965744018555</v>
+        <v>4.3793258666992188</v>
       </c>
     </row>
     <row r="10">
@@ -242,13 +242,13 @@
         <v>4.5614290237426758</v>
       </c>
       <c r="C10" s="2">
-        <v>4.5997209548950195</v>
+        <v>4.5991992950439453</v>
       </c>
       <c r="D10" s="2">
         <v>4.3777251243591309</v>
       </c>
       <c r="E10" s="2">
-        <v>4.3893370628356934</v>
+        <v>4.3892002105712891</v>
       </c>
     </row>
     <row r="11">
@@ -259,13 +259,13 @@
         <v>4.2084870338439942</v>
       </c>
       <c r="C11" s="2">
-        <v>4.2487239837646484</v>
+        <v>4.2482690811157227</v>
       </c>
       <c r="D11" s="2">
         <v>4.3681507110595703</v>
       </c>
       <c r="E11" s="2">
-        <v>4.3831934928894043</v>
+        <v>4.3830428123474121</v>
       </c>
     </row>
     <row r="12">
@@ -276,13 +276,13 @@
         <v>4.3697357177734375</v>
       </c>
       <c r="C12" s="2">
-        <v>4.4249773025512695</v>
+        <v>4.4251079559326172</v>
       </c>
       <c r="D12" s="2">
         <v>4.3958420753479004</v>
       </c>
       <c r="E12" s="2">
-        <v>4.4150190353393555</v>
+        <v>4.4148416519165039</v>
       </c>
     </row>
     <row r="13">
@@ -293,13 +293,13 @@
         <v>4.0663175582885742</v>
       </c>
       <c r="C13" s="2">
-        <v>4.1287469863891602</v>
+        <v>4.1290888786315918</v>
       </c>
       <c r="D13" s="2">
         <v>4.4586381912231445</v>
       </c>
       <c r="E13" s="2">
-        <v>4.4723343849182129</v>
+        <v>4.4721875190734863</v>
       </c>
     </row>
     <row r="14">
@@ -310,13 +310,13 @@
         <v>4.17095947265625</v>
       </c>
       <c r="C14" s="2">
-        <v>4.1673617362976074</v>
+        <v>4.1672887802124024</v>
       </c>
       <c r="D14" s="2">
         <v>4.494420051574707</v>
       </c>
       <c r="E14" s="2">
-        <v>4.5145115852355957</v>
+        <v>4.5143232345581055</v>
       </c>
     </row>
     <row r="15">
@@ -327,13 +327,13 @@
         <v>4.6818990707397461</v>
       </c>
       <c r="C15" s="2">
-        <v>4.6787457466125488</v>
+        <v>4.6788015365600586</v>
       </c>
       <c r="D15" s="2">
         <v>4.5557160377502441</v>
       </c>
       <c r="E15" s="2">
-        <v>4.5679311752319336</v>
+        <v>4.567777156829834</v>
       </c>
     </row>
     <row r="16">
@@ -344,13 +344,13 @@
         <v>4.5826473236083984</v>
       </c>
       <c r="C16" s="2">
-        <v>4.6045370101928711</v>
+        <v>4.6039214134216309</v>
       </c>
       <c r="D16" s="2">
         <v>4.6873102188110352</v>
       </c>
       <c r="E16" s="2">
-        <v>4.6934671401977539</v>
+        <v>4.6933383941650391</v>
       </c>
     </row>
     <row r="17">
@@ -361,13 +361,13 @@
         <v>4.7659707069396973</v>
       </c>
       <c r="C17" s="2">
-        <v>4.7282018661499023</v>
+        <v>4.7279205322265625</v>
       </c>
       <c r="D17" s="2">
         <v>4.7952098846435547</v>
       </c>
       <c r="E17" s="2">
-        <v>4.7861084938049317</v>
+        <v>4.7859454154968262</v>
       </c>
     </row>
     <row r="18">
@@ -378,13 +378,13 @@
         <v>5.0423345565795898</v>
       </c>
       <c r="C18" s="2">
-        <v>5.0495896339416504</v>
+        <v>5.0493125915527344</v>
       </c>
       <c r="D18" s="2">
         <v>4.9091219902038574</v>
       </c>
       <c r="E18" s="2">
-        <v>4.8981451988220215</v>
+        <v>4.8978757858276367</v>
       </c>
     </row>
     <row r="19">
@@ -395,13 +395,13 @@
         <v>5.1130948066711426</v>
       </c>
       <c r="C19" s="2">
-        <v>5.0804977416992188</v>
+        <v>5.0802826881408691</v>
       </c>
       <c r="D19" s="2">
         <v>5.001920223236084</v>
       </c>
       <c r="E19" s="2">
-        <v>4.9942502975463867</v>
+        <v>4.9939327239990234</v>
       </c>
     </row>
     <row r="20">
@@ -412,13 +412,13 @@
         <v>5.3928313255310059</v>
       </c>
       <c r="C20" s="2">
-        <v>5.3785462379455566</v>
+        <v>5.3783230781555176</v>
       </c>
       <c r="D20" s="2">
         <v>5.0828590393066406</v>
       </c>
       <c r="E20" s="2">
-        <v>5.0797390937805176</v>
+        <v>5.0793428421020508</v>
       </c>
     </row>
     <row r="21">
@@ -429,13 +429,13 @@
         <v>5.3408327102661133</v>
       </c>
       <c r="C21" s="2">
-        <v>5.2587499618530273</v>
+        <v>5.2585701942443848</v>
       </c>
       <c r="D21" s="2">
         <v>5.1690950393676758</v>
       </c>
       <c r="E21" s="2">
-        <v>5.1580028533935547</v>
+        <v>5.1576433181762695</v>
       </c>
     </row>
     <row r="22">
@@ -446,13 +446,13 @@
         <v>5.0915274620056152</v>
       </c>
       <c r="C22" s="2">
-        <v>5.1370754241943359</v>
+        <v>5.1364598274230957</v>
       </c>
       <c r="D22" s="2">
         <v>5.2162694931030273</v>
       </c>
       <c r="E22" s="2">
-        <v>5.2104082107543945</v>
+        <v>5.2100181579589844</v>
       </c>
     </row>
     <row r="23">
@@ -463,13 +463,13 @@
         <v>5.0061426162719727</v>
       </c>
       <c r="C23" s="2">
-        <v>5.0323076248168945</v>
+        <v>5.0318045616149902</v>
       </c>
       <c r="D23" s="2">
         <v>5.2282333374023438</v>
       </c>
       <c r="E23" s="2">
-        <v>5.222414493560791</v>
+        <v>5.2220401763916016</v>
       </c>
     </row>
     <row r="24">
@@ -480,13 +480,13 @@
         <v>5.4103512763977051</v>
       </c>
       <c r="C24" s="2">
-        <v>5.4481468200683594</v>
+        <v>5.4474925994873047</v>
       </c>
       <c r="D24" s="2">
         <v>5.3616595268249512</v>
       </c>
       <c r="E24" s="2">
-        <v>5.3423662185668945</v>
+        <v>5.3419232368469238</v>
       </c>
     </row>
     <row r="25">
@@ -497,13 +497,13 @@
         <v>5.3587679862976074</v>
       </c>
       <c r="C25" s="2">
-        <v>5.3089089393615723</v>
+        <v>5.3086252212524414</v>
       </c>
       <c r="D25" s="2">
         <v>5.5079197883605957</v>
       </c>
       <c r="E25" s="2">
-        <v>5.4936671257019043</v>
+        <v>5.4932069778442383</v>
       </c>
     </row>
     <row r="26">
@@ -514,13 +514,13 @@
         <v>5.1905431747436524</v>
       </c>
       <c r="C26" s="2">
-        <v>5.1998519897460938</v>
+        <v>5.1992940902709961</v>
       </c>
       <c r="D26" s="2">
         <v>5.655947208404541</v>
       </c>
       <c r="E26" s="2">
-        <v>5.6435012817382813</v>
+        <v>5.6429762840270996</v>
       </c>
     </row>
     <row r="27">
@@ -531,13 +531,13 @@
         <v>5.1500072479248047</v>
       </c>
       <c r="C27" s="2">
-        <v>5.1576442718505859</v>
+        <v>5.1575093269348145</v>
       </c>
       <c r="D27" s="2">
         <v>5.7809267044067383</v>
       </c>
       <c r="E27" s="2">
-        <v>5.7614555358886719</v>
+        <v>5.7609548568725586</v>
       </c>
     </row>
     <row r="28">
@@ -548,13 +548,13 @@
         <v>6.3139305114746094</v>
       </c>
       <c r="C28" s="2">
-        <v>6.1600661277770996</v>
+        <v>6.1592283248901367</v>
       </c>
       <c r="D28" s="2">
         <v>5.8828501701354981</v>
       </c>
       <c r="E28" s="2">
-        <v>5.8618817329406738</v>
+        <v>5.8613624572753906</v>
       </c>
     </row>
     <row r="29">
@@ -565,13 +565,13 @@
         <v>6.7091741561889649</v>
       </c>
       <c r="C29" s="2">
-        <v>6.7402539253234863</v>
+        <v>6.7398786544799805</v>
       </c>
       <c r="D29" s="2">
         <v>5.8739819526672363</v>
       </c>
       <c r="E29" s="2">
-        <v>5.8569126129150391</v>
+        <v>5.8563718795776367</v>
       </c>
     </row>
     <row r="30">
@@ -582,13 +582,13 @@
         <v>6.6730799674987793</v>
       </c>
       <c r="C30" s="2">
-        <v>6.6072554588317871</v>
+        <v>6.6064925193786621</v>
       </c>
       <c r="D30" s="2">
         <v>5.9001255035400391</v>
       </c>
       <c r="E30" s="2">
-        <v>5.8882713317871094</v>
+        <v>5.8877401351928711</v>
       </c>
     </row>
     <row r="31">
@@ -599,13 +599,13 @@
         <v>6.216341495513916</v>
       </c>
       <c r="C31" s="2">
-        <v>6.1986665725708008</v>
+        <v>6.1982665061950684</v>
       </c>
       <c r="D31" s="2">
         <v>5.9874348640441895</v>
       </c>
       <c r="E31" s="2">
-        <v>5.9787173271179199</v>
+        <v>5.9781641960144043</v>
       </c>
     </row>
     <row r="32">
@@ -616,13 +616,13 @@
         <v>5.9234542846679688</v>
       </c>
       <c r="C32" s="2">
-        <v>5.9361424446105957</v>
+        <v>5.9354734420776367</v>
       </c>
       <c r="D32" s="2">
         <v>6.0610661506652832</v>
       </c>
       <c r="E32" s="2">
-        <v>6.0485634803771973</v>
+        <v>6.047976016998291</v>
       </c>
     </row>
     <row r="33">
@@ -633,13 +633,13 @@
         <v>5.3305401802062988</v>
       </c>
       <c r="C33" s="2">
-        <v>5.4034252166748047</v>
+        <v>5.4025793075561523</v>
       </c>
       <c r="D33" s="2">
         <v>6.0170836448669434</v>
       </c>
       <c r="E33" s="2">
-        <v>6.0093350410461426</v>
+        <v>6.0087847709655762</v>
       </c>
     </row>
     <row r="34">
@@ -650,13 +650,13 @@
         <v>5.5940604209899902</v>
       </c>
       <c r="C34" s="2">
-        <v>5.5911369323730469</v>
+        <v>5.590939998626709</v>
       </c>
       <c r="D34" s="2">
         <v>5.9141139984130859</v>
       </c>
       <c r="E34" s="2">
-        <v>5.9050188064575195</v>
+        <v>5.9044804573059082</v>
       </c>
     </row>
     <row r="35">
@@ -667,13 +667,13 @@
         <v>5.9763264656066895</v>
       </c>
       <c r="C35" s="2">
-        <v>6.0138645172119141</v>
+        <v>6.0131096839904785</v>
       </c>
       <c r="D35" s="2">
         <v>5.7950410842895508</v>
       </c>
       <c r="E35" s="2">
-        <v>5.7962989807128906</v>
+        <v>5.7957744598388672</v>
       </c>
     </row>
     <row r="36">
@@ -684,13 +684,13 @@
         <v>5.812687873840332</v>
       </c>
       <c r="C36" s="2">
-        <v>5.786259651184082</v>
+        <v>5.7858176231384277</v>
       </c>
       <c r="D36" s="2">
         <v>5.7436814308166504</v>
       </c>
       <c r="E36" s="2">
-        <v>5.7248682975769043</v>
+        <v>5.7243685722351074</v>
       </c>
     </row>
     <row r="37">
@@ -701,13 +701,13 @@
         <v>5.9180879592895508</v>
       </c>
       <c r="C37" s="2">
-        <v>5.8070087432861328</v>
+        <v>5.8065052032470703</v>
       </c>
       <c r="D37" s="2">
         <v>5.7534322738647461</v>
       </c>
       <c r="E37" s="2">
-        <v>5.73577880859375</v>
+        <v>5.73529052734375</v>
       </c>
     </row>
     <row r="38">
@@ -718,13 +718,13 @@
         <v>5.7824473381042481</v>
       </c>
       <c r="C38" s="2">
-        <v>5.8014092445373535</v>
+        <v>5.8011393547058105</v>
       </c>
       <c r="D38" s="2">
         <v>5.7924013137817383</v>
       </c>
       <c r="E38" s="2">
-        <v>5.7630486488342285</v>
+        <v>5.7625384330749512</v>
       </c>
     </row>
     <row r="39">
@@ -735,13 +735,13 @@
         <v>5.6014218330383301</v>
       </c>
       <c r="C39" s="2">
-        <v>5.6287775039672852</v>
+        <v>5.6281394958496094</v>
       </c>
       <c r="D39" s="2">
         <v>5.7983555793762207</v>
       </c>
       <c r="E39" s="2">
-        <v>5.7645249366760254</v>
+        <v>5.7639265060424805</v>
       </c>
     </row>
     <row r="40">
@@ -752,13 +752,13 @@
         <v>5.7541046142578125</v>
       </c>
       <c r="C40" s="2">
-        <v>5.5557918548583984</v>
+        <v>5.5556111335754395</v>
       </c>
       <c r="D40" s="2">
         <v>5.7396688461303711</v>
       </c>
       <c r="E40" s="2">
-        <v>5.7078628540039063</v>
+        <v>5.7073578834533691</v>
       </c>
     </row>
     <row r="41">
@@ -769,13 +769,13 @@
         <v>6.0112128257751465</v>
       </c>
       <c r="C41" s="2">
-        <v>6.0343341827392578</v>
+        <v>6.0337734222412109</v>
       </c>
       <c r="D41" s="2">
         <v>5.7314720153808594</v>
       </c>
       <c r="E41" s="2">
-        <v>5.7036476135253906</v>
+        <v>5.7031455039978027</v>
       </c>
     </row>
     <row r="42">
@@ -786,13 +786,13 @@
         <v>5.6812634468078613</v>
       </c>
       <c r="C42" s="2">
-        <v>5.6488552093505859</v>
+        <v>5.6478104591369629</v>
       </c>
       <c r="D42" s="2">
         <v>5.7334041595458984</v>
       </c>
       <c r="E42" s="2">
-        <v>5.7032861709594727</v>
+        <v>5.7027740478515625</v>
       </c>
     </row>
     <row r="43">
@@ -803,13 +803,13 @@
         <v>5.6476459503173828</v>
       </c>
       <c r="C43" s="2">
-        <v>5.6044225692749024</v>
+        <v>5.6034302711486816</v>
       </c>
       <c r="D43" s="2">
         <v>5.7263574600219727</v>
       </c>
       <c r="E43" s="2">
-        <v>5.6828899383544922</v>
+        <v>5.6823334693908691</v>
       </c>
     </row>
     <row r="44">
@@ -820,13 +820,13 @@
         <v>5.4481496810913086</v>
       </c>
       <c r="C44" s="2">
-        <v>5.50390625</v>
+        <v>5.503993034362793</v>
       </c>
       <c r="D44" s="2">
         <v>5.7394461631774902</v>
       </c>
       <c r="E44" s="2">
-        <v>5.6895408630371094</v>
+        <v>5.6889219284057617</v>
       </c>
     </row>
     <row r="45">
@@ -837,13 +837,13 @@
         <v>5.7389159202575684</v>
       </c>
       <c r="C45" s="2">
-        <v>5.7483210563659668</v>
+        <v>5.7479071617126465</v>
       </c>
       <c r="D45" s="2">
         <v>5.7987289428710938</v>
       </c>
       <c r="E45" s="2">
-        <v>5.761075496673584</v>
+        <v>5.7603631019592285</v>
       </c>
     </row>
     <row r="46">
@@ -854,13 +854,13 @@
         <v>5.9354772567749023</v>
       </c>
       <c r="C46" s="2">
-        <v>5.8037586212158203</v>
+        <v>5.8031611442565918</v>
       </c>
       <c r="D46" s="2">
         <v>5.719050407409668</v>
       </c>
       <c r="E46" s="2">
-        <v>5.6799764633178711</v>
+        <v>5.6792612075805664</v>
       </c>
     </row>
     <row r="47">
@@ -871,13 +871,13 @@
         <v>5.7190256118774414</v>
       </c>
       <c r="C47" s="2">
-        <v>5.6178431510925293</v>
+        <v>5.6171741485595703</v>
       </c>
       <c r="D47" s="2">
         <v>5.6907224655151367</v>
       </c>
       <c r="E47" s="2">
-        <v>5.6521015167236328</v>
+        <v>5.6514644622802734</v>
       </c>
     </row>
     <row r="48">
@@ -888,13 +888,13 @@
         <v>5.7192182540893555</v>
       </c>
       <c r="C48" s="2">
-        <v>5.6886358261108398</v>
+        <v>5.6874384880065918</v>
       </c>
       <c r="D48" s="2">
         <v>5.6798882484436035</v>
       </c>
       <c r="E48" s="2">
-        <v>5.6325397491455078</v>
+        <v>5.6319470405578613</v>
       </c>
     </row>
     <row r="49">
@@ -905,13 +905,13 @@
         <v>6.2876520156860352</v>
       </c>
       <c r="C49" s="2">
-        <v>6.1996035575866699</v>
+        <v>6.1985807418823242</v>
       </c>
       <c r="D49" s="2">
         <v>5.7535262107849121</v>
       </c>
       <c r="E49" s="2">
-        <v>5.6937432289123535</v>
+        <v>5.6931014060974121</v>
       </c>
     </row>
     <row r="50">
@@ -922,13 +922,13 @@
         <v>5.2941045761108398</v>
       </c>
       <c r="C50" s="2">
-        <v>5.3044438362121582</v>
+        <v>5.3038568496704102</v>
       </c>
       <c r="D50" s="2">
         <v>5.7474493980407715</v>
       </c>
       <c r="E50" s="2">
-        <v>5.678715705871582</v>
+        <v>5.6780257225036621</v>
       </c>
     </row>
     <row r="51">
@@ -939,13 +939,13 @@
         <v>5.4263134002685547</v>
       </c>
       <c r="C51" s="2">
-        <v>5.3979792594909668</v>
+        <v>5.3976383209228516</v>
       </c>
       <c r="D51" s="2">
         <v>5.7395920753479004</v>
       </c>
       <c r="E51" s="2">
-        <v>5.6786985397338867</v>
+        <v>5.6780219078063965</v>
       </c>
     </row>
     <row r="52">
@@ -956,13 +956,13 @@
         <v>5.5501360893249512</v>
       </c>
       <c r="C52" s="2">
-        <v>5.4283676147460938</v>
+        <v>5.4277749061584473</v>
       </c>
       <c r="D52" s="2">
         <v>5.6856269836425781</v>
       </c>
       <c r="E52" s="2">
-        <v>5.6320419311523438</v>
+        <v>5.6314315795898438</v>
       </c>
     </row>
     <row r="53">
@@ -973,13 +973,13 @@
         <v>6.1108942031860352</v>
       </c>
       <c r="C53" s="2">
-        <v>6.0547375679016113</v>
+        <v>6.0543818473815918</v>
       </c>
       <c r="D53" s="2">
         <v>5.6655492782592774</v>
       </c>
       <c r="E53" s="2">
-        <v>5.5989894866943359</v>
+        <v>5.5984258651733399</v>
       </c>
     </row>
     <row r="54">
@@ -990,13 +990,13 @@
         <v>5.6842246055603027</v>
       </c>
       <c r="C54" s="2">
-        <v>5.6130728721618652</v>
+        <v>5.6122250556945801</v>
       </c>
       <c r="D54" s="2">
         <v>5.5611786842346191</v>
       </c>
       <c r="E54" s="2">
-        <v>5.5078902244567871</v>
+        <v>5.5073952674865723</v>
       </c>
     </row>
     <row r="55">
@@ -1007,13 +1007,13 @@
         <v>5.8647608757019043</v>
       </c>
       <c r="C55" s="2">
-        <v>5.8036041259765625</v>
+        <v>5.8031268119812012</v>
       </c>
       <c r="D55" s="2">
         <v>5.6205921173095703</v>
       </c>
       <c r="E55" s="2">
-        <v>5.5604691505432129</v>
+        <v>5.5600223541259766</v>
       </c>
     </row>
     <row r="56">
@@ -1024,13 +1024,13 @@
         <v>5.2333388328552246</v>
       </c>
       <c r="C56" s="2">
-        <v>5.1979312896728516</v>
+        <v>5.1978611946105957</v>
       </c>
       <c r="D56" s="2">
         <v>5.6678867340087891</v>
       </c>
       <c r="E56" s="2">
-        <v>5.5946826934814453</v>
+        <v>5.5942010879516602</v>
       </c>
     </row>
     <row r="57">
@@ -1041,13 +1041,13 @@
         <v>5.5385169982910156</v>
       </c>
       <c r="C57" s="2">
-        <v>5.3911638259887695</v>
+        <v>5.3903880119323731</v>
       </c>
       <c r="D57" s="2">
         <v>5.634124755859375</v>
       </c>
       <c r="E57" s="2">
-        <v>5.5541386604309082</v>
+        <v>5.5535945892333984</v>
       </c>
     </row>
     <row r="58">
@@ -1058,13 +1058,13 @@
         <v>5.3483180999755859</v>
       </c>
       <c r="C58" s="2">
-        <v>5.3797097206115723</v>
+        <v>5.3793044090270996</v>
       </c>
       <c r="D58" s="2">
         <v>5.4743690490722656</v>
       </c>
       <c r="E58" s="2">
-        <v>5.4062762260437012</v>
+        <v>5.4057736396789551</v>
       </c>
     </row>
     <row r="59">
@@ -1075,13 +1075,13 @@
         <v>5.8288273811340332</v>
       </c>
       <c r="C59" s="2">
-        <v>5.7776551246643067</v>
+        <v>5.7775025367736817</v>
       </c>
       <c r="D59" s="2">
         <v>5.4098186492919922</v>
       </c>
       <c r="E59" s="2">
-        <v>5.3460712432861328</v>
+        <v>5.3455557823181152</v>
       </c>
     </row>
     <row r="60">
@@ -1092,13 +1092,13 @@
         <v>5.8519649505615234</v>
       </c>
       <c r="C60" s="2">
-        <v>5.705902099609375</v>
+        <v>5.7052454948425293</v>
       </c>
       <c r="D60" s="2">
         <v>5.3264899253845215</v>
       </c>
       <c r="E60" s="2">
-        <v>5.2746820449829102</v>
+        <v>5.2741904258728027</v>
       </c>
     </row>
     <row r="61">
@@ -1109,13 +1109,13 @@
         <v>5.2462759017944336</v>
       </c>
       <c r="C61" s="2">
-        <v>5.0634713172912598</v>
+        <v>5.0623154640197754</v>
       </c>
       <c r="D61" s="2">
         <v>5.238349437713623</v>
       </c>
       <c r="E61" s="2">
-        <v>5.1912202835083008</v>
+        <v>5.1906809806823731</v>
       </c>
     </row>
     <row r="62">
@@ -1126,13 +1126,13 @@
         <v>4.6730952262878418</v>
       </c>
       <c r="C62" s="2">
-        <v>4.7239756584167481</v>
+        <v>4.7239923477172852</v>
       </c>
       <c r="D62" s="2">
         <v>5.1381845474243164</v>
       </c>
       <c r="E62" s="2">
-        <v>5.0967397689819336</v>
+        <v>5.0963120460510254</v>
       </c>
     </row>
     <row r="63">
@@ -1143,13 +1143,13 @@
         <v>5.1032705307006836</v>
       </c>
       <c r="C63" s="2">
-        <v>5.0712270736694336</v>
+        <v>5.0702667236328125</v>
       </c>
       <c r="D63" s="2">
         <v>5.0074877738952637</v>
       </c>
       <c r="E63" s="2">
-        <v>4.964759349822998</v>
+        <v>4.964332103729248</v>
       </c>
     </row>
     <row r="64">
@@ -1160,13 +1160,13 @@
         <v>5.1148004531860352</v>
       </c>
       <c r="C64" s="2">
-        <v>5.1611042022705078</v>
+        <v>5.1608390808105469</v>
       </c>
       <c r="D64" s="2">
         <v>4.8893857002258301</v>
       </c>
       <c r="E64" s="2">
-        <v>4.855069637298584</v>
+        <v>4.8546242713928223</v>
       </c>
     </row>
     <row r="65">
@@ -1177,13 +1177,13 @@
         <v>4.4400773048400879</v>
       </c>
       <c r="C65" s="2">
-        <v>4.4467716217041016</v>
+        <v>4.4462761878967285</v>
       </c>
       <c r="D65" s="2">
         <v>4.7622103691101074</v>
       </c>
       <c r="E65" s="2">
-        <v>4.7460780143737793</v>
+        <v>4.7456202507019043</v>
       </c>
     </row>
     <row r="66">
@@ -1194,13 +1194,13 @@
         <v>4.6370310783386231</v>
       </c>
       <c r="C66" s="2">
-        <v>4.5408411026000977</v>
+        <v>4.5410642623901367</v>
       </c>
       <c r="D66" s="2">
         <v>4.6887083053588867</v>
       </c>
       <c r="E66" s="2">
-        <v>4.6929788589477539</v>
+        <v>4.692629337310791</v>
       </c>
     </row>
     <row r="67">
@@ -1211,13 +1211,13 @@
         <v>4.1720466613769531</v>
       </c>
       <c r="C67" s="2">
-        <v>4.1918864250183105</v>
+        <v>4.1914868354797363</v>
       </c>
       <c r="D67" s="2">
         <v>4.7258806228637695</v>
       </c>
       <c r="E67" s="2">
-        <v>4.7242512702941895</v>
+        <v>4.7239236831665039</v>
       </c>
     </row>
     <row r="68">
@@ -1228,13 +1228,13 @@
         <v>4.7659111022949219</v>
       </c>
       <c r="C68" s="2">
-        <v>4.7904458045959473</v>
+        <v>4.7901339530944824</v>
       </c>
       <c r="D68" s="2">
         <v>4.6892385482788086</v>
       </c>
       <c r="E68" s="2">
-        <v>4.6829519271850586</v>
+        <v>4.6827244758605957</v>
       </c>
     </row>
     <row r="69">
@@ -1245,13 +1245,13 @@
         <v>4.7073850631713867</v>
       </c>
       <c r="C69" s="2">
-        <v>4.7249798774719238</v>
+        <v>4.7242059707641602</v>
       </c>
       <c r="D69" s="2">
         <v>4.6410598754882813</v>
       </c>
       <c r="E69" s="2">
-        <v>4.6287751197814942</v>
+        <v>4.6285052299499512</v>
       </c>
     </row>
     <row r="70">
@@ -1262,13 +1262,13 @@
         <v>4.5847554206848145</v>
       </c>
       <c r="C70" s="2">
-        <v>4.5855789184570313</v>
+        <v>4.5854001045227051</v>
       </c>
       <c r="D70" s="2">
         <v>4.6104984283447266</v>
       </c>
       <c r="E70" s="2">
-        <v>4.5954880714416504</v>
+        <v>4.5952849388122559</v>
       </c>
     </row>
     <row r="71">
@@ -1279,13 +1279,13 @@
         <v>5.0076484680175781</v>
       </c>
       <c r="C71" s="2">
-        <v>5.0054264068603516</v>
+        <v>5.0056419372558594</v>
       </c>
       <c r="D71" s="2">
         <v>4.5841484069824219</v>
       </c>
       <c r="E71" s="2">
-        <v>4.5745201110839844</v>
+        <v>4.5742859840393067</v>
       </c>
     </row>
     <row r="72">
@@ -1296,13 +1296,13 @@
         <v>4.773491382598877</v>
       </c>
       <c r="C72" s="2">
-        <v>4.6995334625244141</v>
+        <v>4.6994705200195313</v>
       </c>
       <c r="D72" s="2">
         <v>4.6379852294921875</v>
       </c>
       <c r="E72" s="2">
-        <v>4.6243782043457031</v>
+        <v>4.6242284774780274</v>
       </c>
     </row>
     <row r="73">
@@ -1313,13 +1313,13 @@
         <v>4.6811914443969727</v>
       </c>
       <c r="C73" s="2">
-        <v>4.6735105514526367</v>
+        <v>4.6728677749633789</v>
       </c>
       <c r="D73" s="2">
         <v>4.6563220024108887</v>
       </c>
       <c r="E73" s="2">
-        <v>4.6254444122314453</v>
+        <v>4.6253376007080078</v>
       </c>
     </row>
     <row r="74">
@@ -1330,13 +1330,13 @@
         <v>4.1650247573852539</v>
       </c>
       <c r="C74" s="2">
-        <v>4.1471900939941406</v>
+        <v>4.1472940444946289</v>
       </c>
       <c r="D74" s="2">
         <v>4.6488223075866699</v>
       </c>
       <c r="E74" s="2">
-        <v>4.6230525970458984</v>
+        <v>4.6229853630065918</v>
       </c>
     </row>
     <row r="75">
@@ -1347,13 +1347,13 @@
         <v>4.3998832702636719</v>
       </c>
       <c r="C75" s="2">
-        <v>4.3521299362182617</v>
+        <v>4.3520712852478027</v>
       </c>
       <c r="D75" s="2">
         <v>4.6251792907714844</v>
       </c>
       <c r="E75" s="2">
-        <v>4.6032991409301758</v>
+        <v>4.6031646728515625</v>
       </c>
     </row>
     <row r="76">
@@ -1364,13 +1364,13 @@
         <v>4.6565780639648438</v>
       </c>
       <c r="C76" s="2">
-        <v>4.6406068801879883</v>
+        <v>4.6409716606140137</v>
       </c>
       <c r="D76" s="2">
         <v>4.5890069007873535</v>
       </c>
       <c r="E76" s="2">
-        <v>4.5556793212890625</v>
+        <v>4.5554804801940918</v>
       </c>
     </row>
     <row r="77">
@@ -1381,13 +1381,13 @@
         <v>4.930938720703125</v>
       </c>
       <c r="C77" s="2">
-        <v>4.8000426292419434</v>
+        <v>4.8001141548156738</v>
       </c>
       <c r="D77" s="2">
         <v>4.5461277961730957</v>
       </c>
       <c r="E77" s="2">
-        <v>4.5219273567199707</v>
+        <v>4.521794319152832</v>
       </c>
     </row>
     <row r="78">
@@ -1398,13 +1398,13 @@
         <v>4.6398911476135254</v>
       </c>
       <c r="C78" s="2">
-        <v>4.7034549713134766</v>
+        <v>4.7030367851257324</v>
       </c>
       <c r="D78" s="2">
         <v>4.4758791923522949</v>
       </c>
       <c r="E78" s="2">
-        <v>4.4570446014404297</v>
+        <v>4.4569482803344727</v>
       </c>
     </row>
     <row r="79">
@@ -1415,13 +1415,13 @@
         <v>4.3719682693481445</v>
       </c>
       <c r="C79" s="2">
-        <v>4.407799243927002</v>
+        <v>4.4070138931274414</v>
       </c>
       <c r="D79" s="2">
         <v>4.4940571784973145</v>
       </c>
       <c r="E79" s="2">
-        <v>4.4532785415649414</v>
+        <v>4.4531607627868652</v>
       </c>
     </row>
     <row r="80">
@@ -1432,13 +1432,13 @@
         <v>4.6820945739746094</v>
       </c>
       <c r="C80" s="2">
-        <v>4.5768470764160156</v>
+        <v>4.5764832496643066</v>
       </c>
       <c r="D80" s="2">
         <v>4.5513105392456055</v>
       </c>
       <c r="E80" s="2">
-        <v>4.5025286674499512</v>
+        <v>4.5023941993713379</v>
       </c>
     </row>
     <row r="81">
@@ -1449,13 +1449,13 @@
         <v>4.3875789642333984</v>
       </c>
       <c r="C81" s="2">
-        <v>4.3957643508911133</v>
+        <v>4.3962945938110352</v>
       </c>
       <c r="D81" s="2">
         <v>4.5585446357727051</v>
       </c>
       <c r="E81" s="2">
-        <v>4.5113615989685059</v>
+        <v>4.5111651420593262</v>
       </c>
     </row>
     <row r="82">
@@ -1466,13 +1466,13 @@
         <v>4.048954963684082</v>
       </c>
       <c r="C82" s="2">
-        <v>4.0895657539367676</v>
+        <v>4.0892534255981445</v>
       </c>
       <c r="D82" s="2">
         <v>4.4854936599731445</v>
       </c>
       <c r="E82" s="2">
-        <v>4.4536561965942383</v>
+        <v>4.4534697532653809</v>
       </c>
     </row>
     <row r="83">
@@ -1483,13 +1483,13 @@
         <v>4.3286285400390625</v>
       </c>
       <c r="C83" s="2">
-        <v>4.1132950782775879</v>
+        <v>4.1132068634033203</v>
       </c>
       <c r="D83" s="2">
         <v>4.4207696914672852</v>
       </c>
       <c r="E83" s="2">
-        <v>4.3879661560058594</v>
+        <v>4.3878726959228516</v>
       </c>
     </row>
     <row r="84">
@@ -1500,13 +1500,13 @@
         <v>4.9151616096496582</v>
       </c>
       <c r="C84" s="2">
-        <v>4.7953805923461914</v>
+        <v>4.7951712608337402</v>
       </c>
       <c r="D84" s="2">
         <v>4.4632306098937988</v>
       </c>
       <c r="E84" s="2">
-        <v>4.4238405227661133</v>
+        <v>4.4238390922546387</v>
       </c>
     </row>
     <row r="85">
@@ -1517,13 +1517,13 @@
         <v>4.7216858863830566</v>
       </c>
       <c r="C85" s="2">
-        <v>4.7201066017150879</v>
+        <v>4.7199134826660156</v>
       </c>
       <c r="D85" s="2">
         <v>4.4655752182006836</v>
       </c>
       <c r="E85" s="2">
-        <v>4.4338550567626953</v>
+        <v>4.4337973594665527</v>
       </c>
     </row>
     <row r="86">
@@ -1534,13 +1534,13 @@
         <v>4.2734775543212891</v>
       </c>
       <c r="C86" s="2">
-        <v>4.2806906700134277</v>
+        <v>4.2808551788330078</v>
       </c>
       <c r="D86" s="2">
         <v>4.4854159355163574</v>
       </c>
       <c r="E86" s="2">
-        <v>4.4223818778991699</v>
+        <v>4.4222798347473145</v>
       </c>
     </row>
     <row r="87">
@@ -1551,13 +1551,13 @@
         <v>4.0573773384094238</v>
       </c>
       <c r="C87" s="2">
-        <v>4.1122474670410156</v>
+        <v>4.1126632690429688</v>
       </c>
       <c r="D87" s="2">
         <v>4.526339054107666</v>
       </c>
       <c r="E87" s="2">
-        <v>4.4486346244812012</v>
+        <v>4.4484949111938477</v>
       </c>
     </row>
     <row r="88">
@@ -1568,13 +1568,13 @@
         <v>4.7541146278381348</v>
       </c>
       <c r="C88" s="2">
-        <v>4.7306690216064453</v>
+        <v>4.730710506439209</v>
       </c>
       <c r="D88" s="2">
         <v>4.473689079284668</v>
       </c>
       <c r="E88" s="2">
-        <v>4.4105839729309082</v>
+        <v>4.4104852676391602</v>
       </c>
     </row>
     <row r="89">
@@ -1585,13 +1585,13 @@
         <v>4.7031955718994141</v>
       </c>
       <c r="C89" s="2">
-        <v>4.6669740676879883</v>
+        <v>4.6661067008972168</v>
       </c>
       <c r="D89" s="2">
         <v>4.3598828315734863</v>
       </c>
       <c r="E89" s="2">
-        <v>4.3132891654968262</v>
+        <v>4.3132810592651367</v>
       </c>
     </row>
     <row r="90">
@@ -1602,13 +1602,13 @@
         <v>4.5661458969116211</v>
       </c>
       <c r="C90" s="2">
-        <v>4.2925071716308594</v>
+        <v>4.2926363945007324</v>
       </c>
       <c r="D90" s="2">
         <v>4.2931337356567383</v>
       </c>
       <c r="E90" s="2">
-        <v>4.2272710800170899</v>
+        <v>4.2272148132324219</v>
       </c>
     </row>
     <row r="91">
@@ -1619,13 +1619,13 @@
         <v>4.4172654151916504</v>
       </c>
       <c r="C91" s="2">
-        <v>4.3258414268493652</v>
+        <v>4.3251891136169434</v>
       </c>
       <c r="D91" s="2">
         <v>4.3170304298400879</v>
       </c>
       <c r="E91" s="2">
-        <v>4.2438626289367676</v>
+        <v>4.2438297271728516</v>
       </c>
     </row>
     <row r="92">
@@ -1636,13 +1636,13 @@
         <v>3.8547775745391846</v>
       </c>
       <c r="C92" s="2">
-        <v>3.7708401679992676</v>
+        <v>3.7711217403411865</v>
       </c>
       <c r="D92" s="2">
         <v>4.331636905670166</v>
       </c>
       <c r="E92" s="2">
-        <v>4.2560954093933106</v>
+        <v>4.2559418678283692</v>
       </c>
     </row>
     <row r="93">
@@ -1653,13 +1653,13 @@
         <v>3.8909060955047608</v>
       </c>
       <c r="C93" s="2">
-        <v>3.9197249412536621</v>
+        <v>3.920332670211792</v>
       </c>
       <c r="D93" s="2">
         <v>4.3460822105407715</v>
       </c>
       <c r="E93" s="2">
-        <v>4.2656607627868652</v>
+        <v>4.2655048370361328</v>
       </c>
     </row>
     <row r="94">
@@ -1670,13 +1670,13 @@
         <v>4.1209421157836914</v>
       </c>
       <c r="C94" s="2">
-        <v>3.9459428787231445</v>
+        <v>3.945319652557373</v>
       </c>
       <c r="D94" s="2">
         <v>4.2894444465637207</v>
       </c>
       <c r="E94" s="2">
-        <v>4.200678825378418</v>
+        <v>4.2006192207336426</v>
       </c>
     </row>
     <row r="95">
@@ -1687,13 +1687,13 @@
         <v>4.4885473251342773</v>
       </c>
       <c r="C95" s="2">
-        <v>4.4300165176391602</v>
+        <v>4.4303865432739258</v>
       </c>
       <c r="D95" s="2">
         <v>4.2423930168151855</v>
       </c>
       <c r="E95" s="2">
-        <v>4.1620626449584961</v>
+        <v>4.161952018737793</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>4.1888389587402344</v>
       </c>
       <c r="C96" s="2">
-        <v>4.2223405838012695</v>
+        <v>4.2216720581054688</v>
       </c>
       <c r="D96" s="2">
         <v>4.2856988906860352</v>
       </c>
       <c r="E96" s="2">
-        <v>4.199643611907959</v>
+        <v>4.1996121406555176</v>
       </c>
     </row>
     <row r="97">
@@ -1721,13 +1721,13 @@
         <v>4.884122371673584</v>
       </c>
       <c r="C97" s="2">
-        <v>4.8167610168457031</v>
+        <v>4.816779613494873</v>
       </c>
       <c r="D97" s="2">
         <v>4.3659963607788086</v>
       </c>
       <c r="E97" s="2">
-        <v>4.2836360931396484</v>
+        <v>4.2835536003112793</v>
       </c>
     </row>
     <row r="98">
@@ -1738,13 +1738,13 @@
         <v>4.193455696105957</v>
       </c>
       <c r="C98" s="2">
-        <v>4.0821342468261719</v>
+        <v>4.0821352005004883</v>
       </c>
       <c r="D98" s="2">
         <v>4.3741154670715332</v>
       </c>
       <c r="E98" s="2">
-        <v>4.2919306755065918</v>
+        <v>4.2916755676269531</v>
       </c>
     </row>
     <row r="99">
@@ -1755,13 +1755,13 @@
         <v>4.1426806449890137</v>
       </c>
       <c r="C99" s="2">
-        <v>3.9449608325958252</v>
+        <v>3.9446303844451904</v>
       </c>
       <c r="D99" s="2">
         <v>4.4242830276489258</v>
       </c>
       <c r="E99" s="2">
-        <v>4.3517236709594727</v>
+        <v>4.3514952659606934</v>
       </c>
     </row>
     <row r="100">
@@ -1772,13 +1772,13 @@
         <v>4.8070187568664551</v>
       </c>
       <c r="C100" s="2">
-        <v>4.6640715599060059</v>
+        <v>4.6641297340393067</v>
       </c>
       <c r="D100" s="2">
         <v>4.3953042030334473</v>
       </c>
       <c r="E100" s="2">
-        <v>4.3405704498291016</v>
+        <v>4.3402566909790039</v>
       </c>
     </row>
     <row r="101">
@@ -1789,13 +1789,13 @@
         <v>4.5774550437927246</v>
       </c>
       <c r="C101" s="2">
-        <v>4.5267715454101563</v>
+        <v>4.5265965461730957</v>
       </c>
       <c r="D101" s="2">
         <v>4.4311375617980957</v>
       </c>
       <c r="E101" s="2">
-        <v>4.3674888610839844</v>
+        <v>4.3672304153442383</v>
       </c>
     </row>
     <row r="102">
@@ -1806,13 +1806,13 @@
         <v>3.963977575302124</v>
       </c>
       <c r="C102" s="2">
-        <v>3.9943783283233643</v>
+        <v>3.9934301376342773</v>
       </c>
       <c r="D102" s="2">
         <v>4.3158988952636719</v>
       </c>
       <c r="E102" s="2">
-        <v>4.2606649398803711</v>
+        <v>4.2603721618652344</v>
       </c>
     </row>
     <row r="103">
@@ -1823,13 +1823,13 @@
         <v>4.5724520683288574</v>
       </c>
       <c r="C103" s="2">
-        <v>4.4840779304504395</v>
+        <v>4.483696460723877</v>
       </c>
       <c r="D103" s="2">
         <v>4.2897796630859375</v>
       </c>
       <c r="E103" s="2">
-        <v>4.2382426261901856</v>
+        <v>4.2379498481750488</v>
       </c>
     </row>
     <row r="104">
@@ -1840,13 +1840,13 @@
         <v>4.2277359962463379</v>
       </c>
       <c r="C104" s="2">
-        <v>4.3296384811401367</v>
+        <v>4.3292403221130371</v>
       </c>
       <c r="D104" s="2">
         <v>4.243870735168457</v>
       </c>
       <c r="E104" s="2">
-        <v>4.2183008193969727</v>
+        <v>4.2180218696594238</v>
       </c>
     </row>
     <row r="105">
@@ -1857,13 +1857,13 @@
         <v>4.5113391876220703</v>
       </c>
       <c r="C105" s="2">
-        <v>4.4646077156066895</v>
+        <v>4.4644341468811035</v>
       </c>
       <c r="D105" s="2">
         <v>4.2307953834533691</v>
       </c>
       <c r="E105" s="2">
-        <v>4.2019486427307129</v>
+        <v>4.201655387878418</v>
       </c>
     </row>
     <row r="106">
@@ -1874,13 +1874,13 @@
         <v>3.8469746112823486</v>
       </c>
       <c r="C106" s="2">
-        <v>3.8553431034088135</v>
+        <v>3.8550570011138916</v>
       </c>
       <c r="D106" s="2">
         <v>4.1245584487915039</v>
       </c>
       <c r="E106" s="2">
-        <v>4.1069765090942383</v>
+        <v>4.1066713333129883</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>3.9583845138549805</v>
       </c>
       <c r="C107" s="2">
-        <v>3.8803329467773438</v>
+        <v>3.8803353309631348</v>
       </c>
       <c r="D107" s="2">
         <v>4.1840195655822754</v>
       </c>
       <c r="E107" s="2">
-        <v>4.1750516891479492</v>
+        <v>4.1748313903808594</v>
       </c>
     </row>
     <row r="108">
@@ -1908,13 +1908,13 @@
         <v>3.7294986248016358</v>
       </c>
       <c r="C108" s="2">
-        <v>3.7654874324798584</v>
+        <v>3.7652781009674072</v>
       </c>
       <c r="D108" s="2">
         <v>4.1624822616577148</v>
       </c>
       <c r="E108" s="2">
-        <v>4.1623344421386719</v>
+        <v>4.1620931625366211</v>
       </c>
     </row>
     <row r="109">
@@ -1925,13 +1925,13 @@
         <v>4.6893420219421387</v>
       </c>
       <c r="C109" s="2">
-        <v>4.5169000625610352</v>
+        <v>4.5168304443359375</v>
       </c>
       <c r="D109" s="2">
         <v>4.10174560546875</v>
       </c>
       <c r="E109" s="2">
-        <v>4.0776658058166504</v>
+        <v>4.0775361061096192</v>
       </c>
     </row>
     <row r="110">
@@ -1942,13 +1942,13 @@
         <v>3.6213226318359375</v>
       </c>
       <c r="C110" s="2">
-        <v>3.6720235347747803</v>
+        <v>3.6717381477355957</v>
       </c>
       <c r="D110" s="2">
         <v>3.9951121807098389</v>
       </c>
       <c r="E110" s="2">
-        <v>3.9777488708496094</v>
+        <v>3.977592945098877</v>
       </c>
     </row>
     <row r="111">
@@ -1959,13 +1959,13 @@
         <v>4.4991283416748047</v>
       </c>
       <c r="C111" s="2">
-        <v>4.6070528030395508</v>
+        <v>4.6068706512451172</v>
       </c>
       <c r="D111" s="2">
         <v>4.0168018341064453</v>
       </c>
       <c r="E111" s="2">
-        <v>3.9974291324615479</v>
+        <v>3.9973092079162598</v>
       </c>
     </row>
     <row r="112">
@@ -1976,13 +1976,13 @@
         <v>4.3786134719848633</v>
       </c>
       <c r="C112" s="2">
-        <v>4.3696250915527344</v>
+        <v>4.3690547943115234</v>
       </c>
       <c r="D112" s="2">
         <v>3.9773139953613281</v>
       </c>
       <c r="E112" s="2">
-        <v>3.9663949012756348</v>
+        <v>3.9663262367248535</v>
       </c>
     </row>
     <row r="113">
@@ -1993,13 +1993,13 @@
         <v>3.6811065673828125</v>
       </c>
       <c r="C113" s="2">
-        <v>3.5676181316375732</v>
+        <v>3.5682277679443359</v>
       </c>
       <c r="D113" s="2">
         <v>4.0369014739990234</v>
       </c>
       <c r="E113" s="2">
-        <v>3.9938366413116455</v>
+        <v>3.9937725067138672</v>
       </c>
     </row>
     <row r="114">
@@ -2010,13 +2010,13 @@
         <v>3.5516388416290283</v>
       </c>
       <c r="C114" s="2">
-        <v>3.5653574466705322</v>
+        <v>3.5649440288543701</v>
       </c>
       <c r="D114" s="2">
         <v>3.9178233146667481</v>
       </c>
       <c r="E114" s="2">
-        <v>3.8981857299804688</v>
+        <v>3.8980948925018311</v>
       </c>
     </row>
     <row r="115">
@@ -2027,13 +2027,13 @@
         <v>4.0421795845031738</v>
       </c>
       <c r="C115" s="2">
-        <v>4.0324640274047852</v>
+        <v>4.0325031280517578</v>
       </c>
       <c r="D115" s="2">
         <v>3.9905812740325928</v>
       </c>
       <c r="E115" s="2">
-        <v>3.9748101234436035</v>
+        <v>3.9747543334960938</v>
       </c>
     </row>
     <row r="116">
@@ -2044,13 +2044,13 @@
         <v>3.602996826171875</v>
       </c>
       <c r="C116" s="2">
-        <v>3.6010262966156006</v>
+        <v>3.6014885902404785</v>
       </c>
       <c r="D116" s="2">
         <v>3.9752483367919922</v>
       </c>
       <c r="E116" s="2">
-        <v>3.9359138011932373</v>
+        <v>3.9358329772949219</v>
       </c>
     </row>
     <row r="117">
@@ -2061,13 +2061,13 @@
         <v>4.2657833099365234</v>
       </c>
       <c r="C117" s="2">
-        <v>4.0124621391296387</v>
+        <v>4.0122957229614258</v>
       </c>
       <c r="D117" s="2">
         <v>3.9432253837585449</v>
       </c>
       <c r="E117" s="2">
-        <v>3.9118874073028564</v>
+        <v>3.9118099212646484</v>
       </c>
     </row>
     <row r="118">
@@ -2078,13 +2078,13 @@
         <v>3.6176407337188721</v>
       </c>
       <c r="C118" s="2">
-        <v>3.656041145324707</v>
+        <v>3.6557309627532959</v>
       </c>
       <c r="D118" s="2">
         <v>4.0605607032775879</v>
       </c>
       <c r="E118" s="2">
-        <v>4.017298698425293</v>
+        <v>4.0170841217041016</v>
       </c>
     </row>
     <row r="119">
@@ -2095,13 +2095,13 @@
         <v>4.2761440277099609</v>
       </c>
       <c r="C119" s="2">
-        <v>4.3616447448730469</v>
+        <v>4.3616738319396973</v>
       </c>
       <c r="D119" s="2">
         <v>4.198979377746582</v>
       </c>
       <c r="E119" s="2">
-        <v>4.1532869338989258</v>
+        <v>4.1531901359558106</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>4.3611321449279785</v>
       </c>
       <c r="C120" s="2">
-        <v>4.2569851875305176</v>
+        <v>4.2565779685974121</v>
       </c>
       <c r="D120" s="2">
         <v>4.146876335144043</v>
       </c>
       <c r="E120" s="2">
-        <v>4.1177997589111328</v>
+        <v>4.1177783012390137</v>
       </c>
     </row>
     <row r="121">
@@ -2129,13 +2129,13 @@
         <v>4.0904059410095215</v>
       </c>
       <c r="C121" s="2">
-        <v>4.153388500213623</v>
+        <v>4.1528477668762207</v>
       </c>
       <c r="D121" s="2">
         <v>4.1947636604309082</v>
       </c>
       <c r="E121" s="2">
-        <v>4.1683707237243652</v>
+        <v>4.168238639831543</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>4.737126350402832</v>
       </c>
       <c r="C122" s="2">
-        <v>4.5163202285766602</v>
+        <v>4.5156946182250977</v>
       </c>
       <c r="D122" s="2">
         <v>4.1767911911010742</v>
       </c>
       <c r="E122" s="2">
-        <v>4.1816306114196777</v>
+        <v>4.181511402130127</v>
       </c>
     </row>
     <row r="123">
@@ -2163,13 +2163,13 @@
         <v>4.7974042892456055</v>
       </c>
       <c r="C123" s="2">
-        <v>4.7892489433288574</v>
+        <v>4.7899003028869629</v>
       </c>
       <c r="D123" s="2">
         <v>4.2154178619384766</v>
       </c>
       <c r="E123" s="2">
-        <v>4.212315559387207</v>
+        <v>4.2123236656188965</v>
       </c>
     </row>
     <row r="124">
@@ -2180,13 +2180,13 @@
         <v>3.5732526779174805</v>
       </c>
       <c r="C124" s="2">
-        <v>3.7130815982818604</v>
+        <v>3.7137947082519531</v>
       </c>
       <c r="D124" s="2">
         <v>4.1879181861877441</v>
       </c>
       <c r="E124" s="2">
-        <v>4.182523250579834</v>
+        <v>4.1824774742126465</v>
       </c>
     </row>
     <row r="125">
@@ -2197,13 +2197,13 @@
         <v>4.0339841842651367</v>
       </c>
       <c r="C125" s="2">
-        <v>4.0561642646789551</v>
+        <v>4.0556316375732422</v>
       </c>
       <c r="D125" s="2">
         <v>4.2102208137512207</v>
       </c>
       <c r="E125" s="2">
-        <v>4.1825141906738281</v>
+        <v>4.1825170516967774</v>
       </c>
     </row>
     <row r="126">
@@ -2214,13 +2214,13 @@
         <v>4.1040301322937012</v>
       </c>
       <c r="C126" s="2">
-        <v>4.131800651550293</v>
+        <v>4.1317510604858399</v>
       </c>
       <c r="D126" s="2">
         <v>4.116055965423584</v>
       </c>
       <c r="E126" s="2">
-        <v>4.0813937187194824</v>
+        <v>4.081444263458252</v>
       </c>
     </row>
     <row r="127">
@@ -2231,13 +2231,13 @@
         <v>3.9652822017669678</v>
       </c>
       <c r="C127" s="2">
-        <v>3.9322037696838379</v>
+        <v>3.9330399036407471</v>
       </c>
       <c r="D127" s="2">
         <v>3.9989426136016846</v>
       </c>
       <c r="E127" s="2">
-        <v>3.9901576042175293</v>
+        <v>3.9902775287628174</v>
       </c>
     </row>
     <row r="128">
@@ -2248,13 +2248,13 @@
         <v>4.0286455154418945</v>
       </c>
       <c r="C128" s="2">
-        <v>4.0935168266296387</v>
+        <v>4.0930595397949219</v>
       </c>
       <c r="D128" s="2">
         <v>3.9041619300842285</v>
       </c>
       <c r="E128" s="2">
-        <v>3.8838162422180176</v>
+        <v>3.8838415145874023</v>
       </c>
     </row>
     <row r="129">
@@ -2265,13 +2265,13 @@
         <v>4.5618553161621094</v>
       </c>
       <c r="C129" s="2">
-        <v>4.2569050788879395</v>
+        <v>4.2569332122802734</v>
       </c>
       <c r="D129" s="2">
         <v>3.9406790733337402</v>
       </c>
       <c r="E129" s="2">
-        <v>3.9113154411315918</v>
+        <v>3.9112164974212646</v>
       </c>
     </row>
     <row r="130">
@@ -2282,13 +2282,13 @@
         <v>3.2429232597351074</v>
       </c>
       <c r="C130" s="2">
-        <v>3.2433028221130371</v>
+        <v>3.2431936264038086</v>
       </c>
       <c r="D130" s="2">
         <v>3.8931331634521484</v>
       </c>
       <c r="E130" s="2">
-        <v>3.8616311550140381</v>
+        <v>3.8615424633026123</v>
       </c>
     </row>
     <row r="131">
@@ -2305,7 +2305,7 @@
         <v>3.8230805397033691</v>
       </c>
       <c r="E131" s="2">
-        <v>3.7851099967956543</v>
+        <v>3.7850663661956787</v>
       </c>
     </row>
     <row r="132">
@@ -2316,13 +2316,13 @@
         <v>3.9443776607513428</v>
       </c>
       <c r="C132" s="2">
-        <v>3.8321769237518311</v>
+        <v>3.8319766521453857</v>
       </c>
       <c r="D132" s="2">
         <v>3.8246469497680664</v>
       </c>
       <c r="E132" s="2">
-        <v>3.7819039821624756</v>
+        <v>3.7818067073822022</v>
       </c>
     </row>
     <row r="133">
@@ -2333,13 +2333,13 @@
         <v>3.9019074440002441</v>
       </c>
       <c r="C133" s="2">
-        <v>3.9605753421783447</v>
+        <v>3.9601681232452393</v>
       </c>
       <c r="D133" s="2">
         <v>3.8221738338470459</v>
       </c>
       <c r="E133" s="2">
-        <v>3.7681427001953125</v>
+        <v>3.7681066989898682</v>
       </c>
     </row>
     <row r="134">
@@ -2350,13 +2350,13 @@
         <v>3.6060712337493896</v>
       </c>
       <c r="C134" s="2">
-        <v>3.6090044975280762</v>
+        <v>3.608565092086792</v>
       </c>
       <c r="D134" s="2">
         <v>3.7871029376983643</v>
       </c>
       <c r="E134" s="2">
-        <v>3.756699800491333</v>
+        <v>3.7566609382629395</v>
       </c>
     </row>
     <row r="135">
@@ -2367,13 +2367,13 @@
         <v>3.4735567569732666</v>
       </c>
       <c r="C135" s="2">
-        <v>3.4431097507476807</v>
+        <v>3.443467378616333</v>
       </c>
       <c r="D135" s="2">
         <v>3.8688387870788574</v>
       </c>
       <c r="E135" s="2">
-        <v>3.8428285121917725</v>
+        <v>3.8428614139556885</v>
       </c>
     </row>
     <row r="136">
@@ -2384,13 +2384,13 @@
         <v>3.979379415512085</v>
       </c>
       <c r="C136" s="2">
-        <v>3.9033496379852295</v>
+        <v>3.903702974319458</v>
       </c>
       <c r="D136" s="2">
         <v>3.9195215702056885</v>
       </c>
       <c r="E136" s="2">
-        <v>3.8999295234680176</v>
+        <v>3.9000248908996582</v>
       </c>
     </row>
     <row r="137">
@@ -2401,13 +2401,13 @@
         <v>4.0063877105712891</v>
       </c>
       <c r="C137" s="2">
-        <v>3.9696657657623291</v>
+        <v>3.9697599411010742</v>
       </c>
       <c r="D137" s="2">
         <v>3.9067833423614502</v>
       </c>
       <c r="E137" s="2">
-        <v>3.9020750522613525</v>
+        <v>3.9022214412689209</v>
       </c>
     </row>
     <row r="138">
@@ -2424,7 +2424,7 @@
         <v>3.9162147045135498</v>
       </c>
       <c r="E138" s="2">
-        <v>3.8925516605377197</v>
+        <v>3.892608642578125</v>
       </c>
     </row>
     <row r="139">
@@ -2435,13 +2435,13 @@
         <v>3.9785463809967041</v>
       </c>
       <c r="C139" s="2">
-        <v>4.0184602737426758</v>
+        <v>4.0189995765686035</v>
       </c>
       <c r="D139" s="2">
         <v>3.9166164398193359</v>
       </c>
       <c r="E139" s="2">
-        <v>3.8928139209747315</v>
+        <v>3.8929054737091065</v>
       </c>
     </row>
     <row r="140">
@@ -2452,13 +2452,13 @@
         <v>4.1392512321472168</v>
       </c>
       <c r="C140" s="2">
-        <v>4.2091035842895508</v>
+        <v>4.2096638679504395</v>
       </c>
       <c r="D140" s="2">
         <v>3.9978604316711426</v>
       </c>
       <c r="E140" s="2">
-        <v>3.9790523052215576</v>
+        <v>3.9790515899658203</v>
       </c>
     </row>
     <row r="141">
@@ -2469,13 +2469,13 @@
         <v>3.82973313331604</v>
       </c>
       <c r="C141" s="2">
-        <v>3.8514866828918457</v>
+        <v>3.8517453670501709</v>
       </c>
       <c r="D141" s="2">
         <v>4.0089535713195801</v>
       </c>
       <c r="E141" s="2">
-        <v>3.9801287651062012</v>
+        <v>3.9800705909729004</v>
       </c>
     </row>
     <row r="142">
@@ -2486,13 +2486,13 @@
         <v>3.9867899417877197</v>
       </c>
       <c r="C142" s="2">
-        <v>3.8748657703399658</v>
+        <v>3.873654842376709</v>
       </c>
       <c r="D142" s="2">
         <v>4.0298609733581543</v>
       </c>
       <c r="E142" s="2">
-        <v>3.9970219135284424</v>
+        <v>3.9970009326934815</v>
       </c>
     </row>
     <row r="143">
@@ -2503,13 +2503,13 @@
         <v>3.6096861362457275</v>
       </c>
       <c r="C143" s="2">
-        <v>3.6113650798797607</v>
+        <v>3.6112349033355713</v>
       </c>
       <c r="D143" s="2">
         <v>3.9875633716583252</v>
       </c>
       <c r="E143" s="2">
-        <v>3.9631848335266113</v>
+        <v>3.9631786346435547</v>
       </c>
     </row>
     <row r="144">
@@ -2520,13 +2520,13 @@
         <v>4.2047538757324219</v>
       </c>
       <c r="C144" s="2">
-        <v>4.2192544937133789</v>
+        <v>4.2187833786010742</v>
       </c>
       <c r="D144" s="2">
         <v>3.9666812419891358</v>
       </c>
       <c r="E144" s="2">
-        <v>3.9314835071563721</v>
+        <v>3.9314136505126953</v>
       </c>
     </row>
     <row r="145">
@@ -2537,13 +2537,13 @@
         <v>4.0792155265808105</v>
       </c>
       <c r="C145" s="2">
-        <v>3.9130373001098633</v>
+        <v>3.9128730297088623</v>
       </c>
       <c r="D145" s="2">
         <v>3.9503111839294434</v>
       </c>
       <c r="E145" s="2">
-        <v>3.9099068641662598</v>
+        <v>3.9096813201904297</v>
       </c>
     </row>
     <row r="146">
@@ -2554,13 +2554,13 @@
         <v>4.1945557594299316</v>
       </c>
       <c r="C146" s="2">
-        <v>4.1217036247253418</v>
+        <v>4.1221346855163574</v>
       </c>
       <c r="D146" s="2">
         <v>3.8672749996185303</v>
       </c>
       <c r="E146" s="2">
-        <v>3.8254239559173584</v>
+        <v>3.8251934051513672</v>
       </c>
     </row>
     <row r="147">
@@ -2571,13 +2571,13 @@
         <v>3.8655381202697754</v>
       </c>
       <c r="C147" s="2">
-        <v>3.8493862152099609</v>
+        <v>3.849517822265625</v>
       </c>
       <c r="D147" s="2">
         <v>3.794119119644165</v>
       </c>
       <c r="E147" s="2">
-        <v>3.7442996501922607</v>
+        <v>3.7442212104797363</v>
       </c>
     </row>
     <row r="148">
@@ -2588,13 +2588,13 @@
         <v>3.790607213973999</v>
       </c>
       <c r="C148" s="2">
-        <v>3.7331488132476807</v>
+        <v>3.7331156730651855</v>
       </c>
       <c r="D148" s="2">
         <v>3.8196616172790527</v>
       </c>
       <c r="E148" s="2">
-        <v>3.7675626277923584</v>
+        <v>3.7675142288208008</v>
       </c>
     </row>
     <row r="149">
@@ -2605,13 +2605,13 @@
         <v>3.9919219017028809</v>
       </c>
       <c r="C149" s="2">
-        <v>4.0149130821228027</v>
+        <v>4.0140719413757324</v>
       </c>
       <c r="D149" s="2">
         <v>3.8297927379608154</v>
       </c>
       <c r="E149" s="2">
-        <v>3.7693717479705811</v>
+        <v>3.7693254947662354</v>
       </c>
     </row>
     <row r="150">
@@ -2622,13 +2622,13 @@
         <v>3.0824072360992432</v>
       </c>
       <c r="C150" s="2">
-        <v>3.0911412239074707</v>
+        <v>3.0913541316986084</v>
       </c>
       <c r="D150" s="2">
         <v>3.9254441261291504</v>
       </c>
       <c r="E150" s="2">
-        <v>3.8913917541503906</v>
+        <v>3.8913652896881104</v>
       </c>
     </row>
     <row r="151">
@@ -2639,13 +2639,13 @@
         <v>3.3283853530883789</v>
       </c>
       <c r="C151" s="2">
-        <v>3.144747257232666</v>
+        <v>3.1449043750762939</v>
       </c>
       <c r="D151" s="2">
         <v>4.0257153511047363</v>
       </c>
       <c r="E151" s="2">
-        <v>3.9980771541595459</v>
+        <v>3.9979302883148193</v>
       </c>
     </row>
     <row r="152">
@@ -2656,13 +2656,13 @@
         <v>3.8395702838897705</v>
       </c>
       <c r="C152" s="2">
-        <v>3.8207323551177979</v>
+        <v>3.8208725452423096</v>
       </c>
       <c r="D152" s="2">
         <v>4.1817293167114258</v>
       </c>
       <c r="E152" s="2">
-        <v>4.1385207176208496</v>
+        <v>4.1383285522460938</v>
       </c>
     </row>
     <row r="153">
@@ -2673,13 +2673,13 @@
         <v>4.2959332466125488</v>
       </c>
       <c r="C153" s="2">
-        <v>4.2355360984802246</v>
+        <v>4.2350854873657227</v>
       </c>
       <c r="D153" s="2">
         <v>4.3404712677001953</v>
       </c>
       <c r="E153" s="2">
-        <v>4.3048391342163086</v>
+        <v>4.3046751022338867</v>
       </c>
     </row>
     <row r="154">
@@ -2690,13 +2690,13 @@
         <v>4.9400782585144043</v>
       </c>
       <c r="C154" s="2">
-        <v>5.0112175941467285</v>
+        <v>5.0112299919128418</v>
       </c>
       <c r="D154" s="2">
         <v>4.5507335662841797</v>
       </c>
       <c r="E154" s="2">
-        <v>4.4774966239929199</v>
+        <v>4.4774818420410156</v>
       </c>
     </row>
     <row r="155">
@@ -2707,13 +2707,13 @@
         <v>5.0969977378845215</v>
       </c>
       <c r="C155" s="2">
-        <v>5.0818719863891602</v>
+        <v>5.0812211036682129</v>
       </c>
       <c r="D155" s="2">
         <v>4.8327503204345703</v>
       </c>
       <c r="E155" s="2">
-        <v>4.7465038299560547</v>
+        <v>4.7465357780456543</v>
       </c>
     </row>
     <row r="156">
@@ -2724,13 +2724,13 @@
         <v>5.2696604728698731</v>
       </c>
       <c r="C156" s="2">
-        <v>5.1133785247802734</v>
+        <v>5.1131019592285156</v>
       </c>
       <c r="D156" s="2">
         <v>4.9979076385498047</v>
       </c>
       <c r="E156" s="2">
-        <v>4.8913216590881348</v>
+        <v>4.8912568092346191</v>
       </c>
     </row>
     <row r="157">
@@ -2741,13 +2741,13 @@
         <v>5.2192864418029785</v>
       </c>
       <c r="C157" s="2">
-        <v>5.2300152778625488</v>
+        <v>5.2302355766296387</v>
       </c>
       <c r="D157" s="2">
         <v>5.1233968734741211</v>
       </c>
       <c r="E157" s="2">
-        <v>5.0100054740905762</v>
+        <v>5.0099630355834961</v>
       </c>
     </row>
     <row r="158">
@@ -2758,13 +2758,13 @@
         <v>5.8842825889587402</v>
       </c>
       <c r="C158" s="2">
-        <v>5.5688309669494629</v>
+        <v>5.5693330764770508</v>
       </c>
       <c r="D158" s="2">
         <v>5.2179183959960938</v>
       </c>
       <c r="E158" s="2">
-        <v>5.0989232063293457</v>
+        <v>5.0988826751708984</v>
       </c>
     </row>
     <row r="159">
@@ -2775,13 +2775,13 @@
         <v>5.6205568313598633</v>
       </c>
       <c r="C159" s="2">
-        <v>5.5122036933898926</v>
+        <v>5.5128393173217773</v>
       </c>
       <c r="D159" s="2">
         <v>5.1188726425170899</v>
       </c>
       <c r="E159" s="2">
-        <v>4.9923539161682129</v>
+        <v>4.9923734664916992</v>
       </c>
     </row>
     <row r="160">
@@ -2792,13 +2792,13 @@
         <v>4.8148040771484375</v>
       </c>
       <c r="C160" s="2">
-        <v>4.4481077194213867</v>
+        <v>4.4473919868469238</v>
       </c>
       <c r="D160" s="2">
         <v>5.0083155632019043</v>
       </c>
       <c r="E160" s="2">
-        <v>4.8856663703918457</v>
+        <v>4.8857526779174805</v>
       </c>
     </row>
     <row r="161">
@@ -2809,13 +2809,13 @@
         <v>4.9689736366271973</v>
       </c>
       <c r="C161" s="2">
-        <v>4.8888869285583496</v>
+        <v>4.8892269134521484</v>
       </c>
       <c r="D161" s="2">
         <v>4.8853311538696289</v>
       </c>
       <c r="E161" s="2">
-        <v>4.7863798141479492</v>
+        <v>4.786527156829834</v>
       </c>
     </row>
     <row r="162">
@@ -2826,13 +2826,13 @@
         <v>5.1466236114501953</v>
       </c>
       <c r="C162" s="2">
-        <v>5.0357942581176758</v>
+        <v>5.0353646278381348</v>
       </c>
       <c r="D162" s="2">
         <v>4.7245163917541504</v>
       </c>
       <c r="E162" s="2">
-        <v>4.6214165687561035</v>
+        <v>4.6215362548828125</v>
       </c>
     </row>
     <row r="163">
@@ -2843,13 +2843,13 @@
         <v>4.048668384552002</v>
       </c>
       <c r="C163" s="2">
-        <v>4.0520973205566406</v>
+        <v>4.0526461601257324</v>
       </c>
       <c r="D163" s="2">
         <v>4.5938811302185059</v>
       </c>
       <c r="E163" s="2">
-        <v>4.5213313102722168</v>
+        <v>4.5213322639465332</v>
       </c>
     </row>
     <row r="164">
@@ -2860,13 +2860,13 @@
         <v>4.1019859313964844</v>
       </c>
       <c r="C164" s="2">
-        <v>4.1216845512390137</v>
+        <v>4.121635913848877</v>
       </c>
       <c r="D164" s="2">
         <v>4.4883174896240234</v>
       </c>
       <c r="E164" s="2">
-        <v>4.4178814888000488</v>
+        <v>4.4177761077880859</v>
       </c>
     </row>
     <row r="165">
@@ -2877,13 +2877,13 @@
         <v>4.1627979278564453</v>
       </c>
       <c r="C165" s="2">
-        <v>4.2197985649108887</v>
+        <v>4.2200717926025391</v>
       </c>
       <c r="D165" s="2">
         <v>4.5428223609924316</v>
       </c>
       <c r="E165" s="2">
-        <v>4.5079364776611328</v>
+        <v>4.5079512596130371</v>
       </c>
     </row>
     <row r="166">
@@ -2894,13 +2894,13 @@
         <v>3.7719550132751465</v>
       </c>
       <c r="C166" s="2">
-        <v>3.7453458309173584</v>
+        <v>3.7453148365020752</v>
       </c>
       <c r="D166" s="2">
         <v>4.5694928169250488</v>
       </c>
       <c r="E166" s="2">
-        <v>4.5218348503112793</v>
+        <v>4.521845817565918</v>
       </c>
     </row>
     <row r="167">
@@ -2911,13 +2911,13 @@
         <v>4.7085657119750977</v>
       </c>
       <c r="C167" s="2">
-        <v>4.6680631637573242</v>
+        <v>4.6674976348876953</v>
       </c>
       <c r="D167" s="2">
         <v>4.5303997993469238</v>
       </c>
       <c r="E167" s="2">
-        <v>4.4961333274841309</v>
+        <v>4.4961757659912109</v>
       </c>
     </row>
     <row r="168">
@@ -2928,13 +2928,13 @@
         <v>4.6704821586608887</v>
       </c>
       <c r="C168" s="2">
-        <v>4.5811548233032227</v>
+        <v>4.5808343887329102</v>
       </c>
       <c r="D168" s="2">
         <v>4.5268383026123047</v>
       </c>
       <c r="E168" s="2">
-        <v>4.4980149269104004</v>
+        <v>4.4980530738830566</v>
       </c>
     </row>
     <row r="169">
@@ -2945,13 +2945,13 @@
         <v>5.3053488731384277</v>
       </c>
       <c r="C169" s="2">
-        <v>5.258601188659668</v>
+        <v>5.2589688301086426</v>
       </c>
       <c r="D169" s="2">
         <v>4.5952014923095703</v>
       </c>
       <c r="E169" s="2">
-        <v>4.5636000633239746</v>
+        <v>4.5636944770812988</v>
       </c>
     </row>
     <row r="170">
@@ -2962,13 +2962,13 @@
         <v>5.2090096473693848</v>
       </c>
       <c r="C170" s="2">
-        <v>5.013972282409668</v>
+        <v>5.0142779350280762</v>
       </c>
       <c r="D170" s="2">
         <v>4.6298704147338867</v>
       </c>
       <c r="E170" s="2">
-        <v>4.5942206382751465</v>
+        <v>4.5942845344543457</v>
       </c>
     </row>
     <row r="171">
@@ -2979,13 +2979,13 @@
         <v>4.7947840690612793</v>
       </c>
       <c r="C171" s="2">
-        <v>4.8044815063476563</v>
+        <v>4.8043332099914551</v>
       </c>
       <c r="D171" s="2">
         <v>4.7297163009643555</v>
       </c>
       <c r="E171" s="2">
-        <v>4.6881990432739258</v>
+        <v>4.6882991790771484</v>
       </c>
     </row>
     <row r="172">
@@ -2996,13 +2996,13 @@
         <v>4.0166139602661133</v>
       </c>
       <c r="C172" s="2">
-        <v>4.0690326690673828</v>
+        <v>4.069542407989502</v>
       </c>
       <c r="D172" s="2">
         <v>4.6381349563598633</v>
       </c>
       <c r="E172" s="2">
-        <v>4.6085968017578125</v>
+        <v>4.6087126731872559</v>
       </c>
     </row>
     <row r="173">
@@ -3013,13 +3013,13 @@
         <v>4.7172565460205078</v>
       </c>
       <c r="C173" s="2">
-        <v>4.7119507789611816</v>
+        <v>4.7124090194702149</v>
       </c>
       <c r="D173" s="2">
         <v>4.6270294189453125</v>
       </c>
       <c r="E173" s="2">
-        <v>4.5868983268737793</v>
+        <v>4.5869622230529785</v>
       </c>
     </row>
     <row r="174">
@@ -3030,13 +3030,13 @@
         <v>4.4748187065124512</v>
       </c>
       <c r="C174" s="2">
-        <v>4.4953837394714355</v>
+        <v>4.4953827857971192</v>
       </c>
       <c r="D174" s="2">
         <v>4.5077643394470215</v>
       </c>
       <c r="E174" s="2">
-        <v>4.4751949310302734</v>
+        <v>4.4751763343811035</v>
       </c>
     </row>
     <row r="175">
@@ -3047,13 +3047,13 @@
         <v>4.6705670356750488</v>
       </c>
       <c r="C175" s="2">
-        <v>4.5911493301391602</v>
+        <v>4.5914454460144043</v>
       </c>
       <c r="D175" s="2">
         <v>4.3778076171875</v>
       </c>
       <c r="E175" s="2">
-        <v>4.3655071258544922</v>
+        <v>4.3653559684753418</v>
       </c>
     </row>
     <row r="176">
@@ -3064,13 +3064,13 @@
         <v>3.8843338489532471</v>
       </c>
       <c r="C176" s="2">
-        <v>3.9516463279724121</v>
+        <v>3.9512183666229248</v>
       </c>
       <c r="D176" s="2">
         <v>4.306004524230957</v>
       </c>
       <c r="E176" s="2">
-        <v>4.3008666038513184</v>
+        <v>4.3007545471191406</v>
       </c>
     </row>
     <row r="177">
@@ -3081,13 +3081,13 @@
         <v>4.5705342292785645</v>
       </c>
       <c r="C177" s="2">
-        <v>4.3858656883239746</v>
+        <v>4.3850836753845215</v>
       </c>
       <c r="D177" s="2">
         <v>4.3371500968933106</v>
       </c>
       <c r="E177" s="2">
-        <v>4.3195552825927734</v>
+        <v>4.3192548751831055</v>
       </c>
     </row>
     <row r="178">
@@ -3098,13 +3098,13 @@
         <v>4.2319622039794922</v>
       </c>
       <c r="C178" s="2">
-        <v>4.2532734870910645</v>
+        <v>4.252894401550293</v>
       </c>
       <c r="D178" s="2">
         <v>4.2080726623535156</v>
       </c>
       <c r="E178" s="2">
-        <v>4.1845345497131348</v>
+        <v>4.1842484474182129</v>
       </c>
     </row>
     <row r="179">
@@ -3115,13 +3115,13 @@
         <v>4.0393986701965332</v>
       </c>
       <c r="C179" s="2">
-        <v>4.0267796516418457</v>
+        <v>4.0258960723876953</v>
       </c>
       <c r="D179" s="2">
         <v>4.1978750228881836</v>
       </c>
       <c r="E179" s="2">
-        <v>4.1627745628356934</v>
+        <v>4.1624670028686523</v>
       </c>
     </row>
     <row r="180">
@@ -3132,13 +3132,13 @@
         <v>4.1485557556152344</v>
       </c>
       <c r="C180" s="2">
-        <v>4.2227182388305664</v>
+        <v>4.2229189872741699</v>
       </c>
       <c r="D180" s="2">
         <v>4.1790437698364258</v>
       </c>
       <c r="E180" s="2">
-        <v>4.1547355651855469</v>
+        <v>4.1543412208557129</v>
       </c>
     </row>
     <row r="181">
@@ -3149,13 +3149,13 @@
         <v>4.2969241142272949</v>
       </c>
       <c r="C181" s="2">
-        <v>4.2372307777404785</v>
+        <v>4.2360453605651855</v>
       </c>
       <c r="D181" s="2">
         <v>4.2363519668579102</v>
       </c>
       <c r="E181" s="2">
-        <v>4.1812815666198731</v>
+        <v>4.1809368133544922</v>
       </c>
     </row>
     <row r="182">
@@ -3166,13 +3166,13 @@
         <v>3.5555591583251953</v>
       </c>
       <c r="C182" s="2">
-        <v>3.4967625141143799</v>
+        <v>3.4973516464233399</v>
       </c>
       <c r="D182" s="2">
         <v>4.1872053146362305</v>
       </c>
       <c r="E182" s="2">
-        <v>4.1520786285400391</v>
+        <v>4.1518416404724121</v>
       </c>
     </row>
     <row r="183">
@@ -3183,13 +3183,13 @@
         <v>4.3830404281616211</v>
       </c>
       <c r="C183" s="2">
-        <v>4.2995452880859375</v>
+        <v>4.2993497848510742</v>
       </c>
       <c r="D183" s="2">
         <v>4.1576037406921387</v>
       </c>
       <c r="E183" s="2">
-        <v>4.0929512977600098</v>
+        <v>4.0927119255065918</v>
       </c>
     </row>
     <row r="184">
@@ -3200,13 +3200,13 @@
         <v>4.5010862350463867</v>
       </c>
       <c r="C184" s="2">
-        <v>4.5187978744506836</v>
+        <v>4.5183124542236328</v>
       </c>
       <c r="D184" s="2">
         <v>4.1290659904479981</v>
       </c>
       <c r="E184" s="2">
-        <v>4.048093318939209</v>
+        <v>4.0480108261108398</v>
       </c>
     </row>
     <row r="185">
@@ -3217,13 +3217,13 @@
         <v>4.4001073837280274</v>
       </c>
       <c r="C185" s="2">
-        <v>4.1905617713928223</v>
+        <v>4.1905770301818848</v>
       </c>
       <c r="D185" s="2">
         <v>4.108891487121582</v>
       </c>
       <c r="E185" s="2">
-        <v>4.0209331512451172</v>
+        <v>4.0207662582397461</v>
       </c>
     </row>
     <row r="186">
@@ -3234,13 +3234,13 @@
         <v>4.1282129287719727</v>
       </c>
       <c r="C186" s="2">
-        <v>4.1230363845825195</v>
+        <v>4.1232309341430664</v>
       </c>
       <c r="D186" s="2">
         <v>4.1605253219604492</v>
       </c>
       <c r="E186" s="2">
-        <v>4.064903736114502</v>
+        <v>4.0648574829101563</v>
       </c>
     </row>
     <row r="187">
@@ -3251,13 +3251,13 @@
         <v>3.9655506610870361</v>
       </c>
       <c r="C187" s="2">
-        <v>3.7211275100708008</v>
+        <v>3.7207248210906982</v>
       </c>
       <c r="D187" s="2">
         <v>4.2315049171447754</v>
       </c>
       <c r="E187" s="2">
-        <v>4.1124668121337891</v>
+        <v>4.1122756004333496</v>
       </c>
     </row>
     <row r="188">
@@ -3268,13 +3268,13 @@
         <v>3.7825582027435303</v>
       </c>
       <c r="C188" s="2">
-        <v>3.6230590343475342</v>
+        <v>3.6235847473144531</v>
       </c>
       <c r="D188" s="2">
         <v>4.2142910957336426</v>
       </c>
       <c r="E188" s="2">
-        <v>4.1005258560180664</v>
+        <v>4.100339412689209</v>
       </c>
     </row>
     <row r="189">
@@ -3285,13 +3285,13 @@
         <v>3.9669833183288574</v>
       </c>
       <c r="C189" s="2">
-        <v>3.9782774448394775</v>
+        <v>3.9777204990386963</v>
       </c>
       <c r="D189" s="2">
         <v>4.2037482261657715</v>
       </c>
       <c r="E189" s="2">
-        <v>4.0900096893310547</v>
+        <v>4.0899028778076172</v>
       </c>
     </row>
     <row r="190">
@@ -3302,13 +3302,13 @@
         <v>4.7616300582885742</v>
       </c>
       <c r="C190" s="2">
-        <v>4.6329646110534668</v>
+        <v>4.6328654289245606</v>
       </c>
       <c r="D190" s="2">
         <v>4.1248078346252442</v>
       </c>
       <c r="E190" s="2">
-        <v>4.0260653495788574</v>
+        <v>4.0259995460510254</v>
       </c>
     </row>
     <row r="191">
@@ -3319,13 +3319,13 @@
         <v>4.1943764686584473</v>
       </c>
       <c r="C191" s="2">
-        <v>3.9248332977294922</v>
+        <v>3.9241156578063965</v>
       </c>
       <c r="D191" s="2">
         <v>4.0612754821777344</v>
       </c>
       <c r="E191" s="2">
-        <v>3.9461948871612549</v>
+        <v>3.9461715221405029</v>
       </c>
     </row>
     <row r="192">
@@ -3336,13 +3336,13 @@
         <v>4.2281126976013184</v>
       </c>
       <c r="C192" s="2">
-        <v>4.1920757293701172</v>
+        <v>4.1919245719909668</v>
       </c>
       <c r="D192" s="2">
         <v>4.0237245559692383</v>
       </c>
       <c r="E192" s="2">
-        <v>3.8989028930664063</v>
+        <v>3.8989627361297607</v>
       </c>
     </row>
     <row r="193">
@@ -3353,13 +3353,13 @@
         <v>4.4062037467956543</v>
       </c>
       <c r="C193" s="2">
-        <v>4.4241523742675781</v>
+        <v>4.4243841171264648</v>
       </c>
       <c r="D193" s="2">
         <v>3.9919888973236084</v>
       </c>
       <c r="E193" s="2">
-        <v>3.8899333477020264</v>
+        <v>3.8898849487304688</v>
       </c>
     </row>
     <row r="194">
@@ -3370,13 +3370,13 @@
         <v>3.6896429061889649</v>
       </c>
       <c r="C194" s="2">
-        <v>3.6150634288787842</v>
+        <v>3.6154448986053467</v>
       </c>
       <c r="D194" s="2">
         <v>3.9963579177856445</v>
       </c>
       <c r="E194" s="2">
-        <v>3.8947775363922119</v>
+        <v>3.8948540687561035</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +3387,13 @@
         <v>3.5564200878143311</v>
       </c>
       <c r="C195" s="2">
-        <v>3.4042012691497803</v>
+        <v>3.404778003692627</v>
       </c>
       <c r="D195" s="2">
         <v>3.8820686340332031</v>
       </c>
       <c r="E195" s="2">
-        <v>3.798276424407959</v>
+        <v>3.7983908653259277</v>
       </c>
     </row>
     <row r="196">
@@ -3404,13 +3404,13 @@
         <v>3.6275947093963623</v>
       </c>
       <c r="C196" s="2">
-        <v>3.2954981327056885</v>
+        <v>3.2958459854125977</v>
       </c>
       <c r="D196" s="2">
         <v>3.8816556930541992</v>
       </c>
       <c r="E196" s="2">
-        <v>3.8252663612365723</v>
+        <v>3.8254880905151367</v>
       </c>
     </row>
     <row r="197">
@@ -3421,13 +3421,13 @@
         <v>3.4969356060028076</v>
       </c>
       <c r="C197" s="2">
-        <v>3.5423343181610107</v>
+        <v>3.5418846607208252</v>
       </c>
       <c r="D197" s="2">
         <v>3.8840534687042236</v>
       </c>
       <c r="E197" s="2">
-        <v>3.819237232208252</v>
+        <v>3.819366455078125</v>
       </c>
     </row>
     <row r="198">
@@ -3438,13 +3438,13 @@
         <v>4.0063042640686035</v>
       </c>
       <c r="C198" s="2">
-        <v>4.0218753814697266</v>
+        <v>4.0224437713623047</v>
       </c>
       <c r="D198" s="2">
         <v>3.783766508102417</v>
       </c>
       <c r="E198" s="2">
-        <v>3.7106058597564697</v>
+        <v>3.7107226848602295</v>
       </c>
     </row>
     <row r="199">
@@ -3455,13 +3455,13 @@
         <v>3.733027458190918</v>
       </c>
       <c r="C199" s="2">
-        <v>3.764453649520874</v>
+        <v>3.7646970748901367</v>
       </c>
       <c r="D199" s="2">
         <v>3.7685971260070801</v>
       </c>
       <c r="E199" s="2">
-        <v>3.6813180446624756</v>
+        <v>3.681434154510498</v>
       </c>
     </row>
     <row r="200">
@@ -3472,13 +3472,13 @@
         <v>4.1906604766845703</v>
       </c>
       <c r="C200" s="2">
-        <v>4.1677427291870117</v>
+        <v>4.1679887771606445</v>
       </c>
       <c r="D200" s="2">
         <v>3.8132710456848145</v>
       </c>
       <c r="E200" s="2">
-        <v>3.7431333065032959</v>
+        <v>3.7432210445404053</v>
       </c>
     </row>
     <row r="201">
@@ -3489,13 +3489,13 @@
         <v>4.2496929168701172</v>
       </c>
       <c r="C201" s="2">
-        <v>4.1378135681152344</v>
+        <v>4.1368298530578613</v>
       </c>
       <c r="D201" s="2">
         <v>3.8687834739685059</v>
       </c>
       <c r="E201" s="2">
-        <v>3.8258709907531738</v>
+        <v>3.8259446620941162</v>
       </c>
     </row>
     <row r="202">
@@ -3506,13 +3506,13 @@
         <v>3.5036203861236572</v>
       </c>
       <c r="C202" s="2">
-        <v>3.4464693069458008</v>
+        <v>3.4465909004211426</v>
       </c>
       <c r="D202" s="2">
         <v>3.8831210136413574</v>
       </c>
       <c r="E202" s="2">
-        <v>3.8364322185516358</v>
+        <v>3.8366076946258545</v>
       </c>
     </row>
     <row r="203">
@@ -3523,13 +3523,13 @@
         <v>3.5531179904937744</v>
       </c>
       <c r="C203" s="2">
-        <v>3.351473331451416</v>
+        <v>3.3518481254577637</v>
       </c>
       <c r="D203" s="2">
         <v>3.8147087097167969</v>
       </c>
       <c r="E203" s="2">
-        <v>3.7775301933288574</v>
+        <v>3.7777366638183594</v>
       </c>
     </row>
     <row r="204">
@@ -3540,13 +3540,13 @@
         <v>3.9584856033325195</v>
       </c>
       <c r="C204" s="2">
-        <v>3.9605398178100586</v>
+        <v>3.9608609676361084</v>
       </c>
       <c r="D204" s="2">
         <v>3.8203892707824707</v>
       </c>
       <c r="E204" s="2">
-        <v>3.7772715091705322</v>
+        <v>3.7774059772491455</v>
       </c>
     </row>
     <row r="205">
@@ -3557,13 +3557,13 @@
         <v>4.1272068023681641</v>
       </c>
       <c r="C205" s="2">
-        <v>4.0401363372802734</v>
+        <v>4.0403580665588379</v>
       </c>
       <c r="D205" s="2">
         <v>3.8052942752838135</v>
       </c>
       <c r="E205" s="2">
-        <v>3.7505719661712646</v>
+        <v>3.7507612705230713</v>
       </c>
     </row>
     <row r="206">
@@ -3574,13 +3574,13 @@
         <v>3.6259734630584717</v>
       </c>
       <c r="C206" s="2">
-        <v>3.6373860836029053</v>
+        <v>3.6378519535064697</v>
       </c>
       <c r="D206" s="2">
         <v>3.7856020927429199</v>
       </c>
       <c r="E206" s="2">
-        <v>3.7023360729217529</v>
+        <v>3.7026047706604004</v>
       </c>
     </row>
     <row r="207">
@@ -3591,13 +3591,13 @@
         <v>3.3905940055847168</v>
       </c>
       <c r="C207" s="2">
-        <v>3.4917576313018799</v>
+        <v>3.4926049709320068</v>
       </c>
       <c r="D207" s="2">
         <v>3.836916446685791</v>
       </c>
       <c r="E207" s="2">
-        <v>3.7562971115112305</v>
+        <v>3.7565233707427979</v>
       </c>
     </row>
     <row r="208">
@@ -3608,13 +3608,13 @@
         <v>3.784151554107666</v>
       </c>
       <c r="C208" s="2">
-        <v>3.7621243000030518</v>
+        <v>3.7617204189300537</v>
       </c>
       <c r="D208" s="2">
         <v>3.8652083873748779</v>
       </c>
       <c r="E208" s="2">
-        <v>3.817460298538208</v>
+        <v>3.8176858425140381</v>
       </c>
     </row>
     <row r="209">
@@ -3625,13 +3625,13 @@
         <v>4.0548062324523926</v>
       </c>
       <c r="C209" s="2">
-        <v>3.9274473190307617</v>
+        <v>3.9281861782073975</v>
       </c>
       <c r="D209" s="2">
         <v>3.8924236297607422</v>
       </c>
       <c r="E209" s="2">
-        <v>3.8165144920349121</v>
+        <v>3.8167703151702881</v>
       </c>
     </row>
     <row r="210">
@@ -3642,13 +3642,13 @@
         <v>4.0724625587463379</v>
       </c>
       <c r="C210" s="2">
-        <v>3.7036912441253662</v>
+        <v>3.7034204006195068</v>
       </c>
       <c r="D210" s="2">
         <v>3.8652403354644775</v>
       </c>
       <c r="E210" s="2">
-        <v>3.8025557994842529</v>
+        <v>3.8028120994567871</v>
       </c>
     </row>
     <row r="211">
@@ -3659,13 +3659,13 @@
         <v>3.9654502868652344</v>
       </c>
       <c r="C211" s="2">
-        <v>3.932117223739624</v>
+        <v>3.931859016418457</v>
       </c>
       <c r="D211" s="2">
         <v>3.8147697448730469</v>
       </c>
       <c r="E211" s="2">
-        <v>3.7538542747497559</v>
+        <v>3.754021167755127</v>
       </c>
     </row>
     <row r="212">
@@ -3676,13 +3676,13 @@
         <v>3.8077449798583984</v>
       </c>
       <c r="C212" s="2">
-        <v>3.9019424915313721</v>
+        <v>3.9023101329803467</v>
       </c>
       <c r="D212" s="2">
         <v>3.9047887325286865</v>
       </c>
       <c r="E212" s="2">
-        <v>3.8427307605743408</v>
+        <v>3.8428242206573486</v>
       </c>
     </row>
     <row r="213">
@@ -3693,13 +3693,13 @@
         <v>4.2034225463867188</v>
       </c>
       <c r="C213" s="2">
-        <v>3.9520285129547119</v>
+        <v>3.952622652053833</v>
       </c>
       <c r="D213" s="2">
         <v>3.9039812088012695</v>
       </c>
       <c r="E213" s="2">
-        <v>3.838841438293457</v>
+        <v>3.8389616012573242</v>
       </c>
     </row>
     <row r="214">
@@ -3710,13 +3710,13 @@
         <v>3.8825583457946777</v>
       </c>
       <c r="C214" s="2">
-        <v>3.9145066738128662</v>
+        <v>3.9147322177886963</v>
       </c>
       <c r="D214" s="2">
         <v>3.9037740230560303</v>
       </c>
       <c r="E214" s="2">
-        <v>3.8333580493927002</v>
+        <v>3.8333287239074707</v>
       </c>
     </row>
     <row r="215">
@@ -3727,13 +3727,13 @@
         <v>3.1717381477355957</v>
       </c>
       <c r="C215" s="2">
-        <v>3.1990721225738525</v>
+        <v>3.1987354755401611</v>
       </c>
       <c r="D215" s="2">
         <v>3.825577974319458</v>
       </c>
       <c r="E215" s="2">
-        <v>3.7911038398742676</v>
+        <v>3.7911884784698486</v>
       </c>
     </row>
     <row r="216">
@@ -3744,13 +3744,13 @@
         <v>4.2007632255554199</v>
       </c>
       <c r="C216" s="2">
-        <v>4.2916479110717773</v>
+        <v>4.291832447052002</v>
       </c>
       <c r="D216" s="2">
         <v>3.8674559593200684</v>
       </c>
       <c r="E216" s="2">
-        <v>3.841914176940918</v>
+        <v>3.8421170711517334</v>
       </c>
     </row>
     <row r="217">
@@ -3761,13 +3761,13 @@
         <v>3.7768843173980713</v>
       </c>
       <c r="C217" s="2">
-        <v>3.7271184921264648</v>
+        <v>3.7269551753997803</v>
       </c>
       <c r="D217" s="2">
         <v>3.8432183265686035</v>
       </c>
       <c r="E217" s="2">
-        <v>3.7712879180908203</v>
+        <v>3.7714507579803467</v>
       </c>
     </row>
     <row r="218">
@@ -3778,13 +3778,13 @@
         <v>4.0529413223266602</v>
       </c>
       <c r="C218" s="2">
-        <v>3.8780968189239502</v>
+        <v>3.8774914741516113</v>
       </c>
       <c r="D218" s="2">
         <v>3.872032642364502</v>
       </c>
       <c r="E218" s="2">
-        <v>3.8168830871582031</v>
+        <v>3.8169288635253906</v>
       </c>
     </row>
     <row r="219">
@@ -3795,13 +3795,13 @@
         <v>3.3686988353729248</v>
       </c>
       <c r="C219" s="2">
-        <v>3.3234038352966309</v>
+        <v>3.32415771484375</v>
       </c>
       <c r="D219" s="2">
         <v>3.8413360118865967</v>
       </c>
       <c r="E219" s="2">
-        <v>3.7631683349609375</v>
+        <v>3.7631204128265381</v>
       </c>
     </row>
     <row r="220">
@@ -3812,13 +3812,13 @@
         <v>4.3423514366149902</v>
       </c>
       <c r="C220" s="2">
-        <v>4.3894104957580567</v>
+        <v>4.3902163505554199</v>
       </c>
       <c r="D220" s="2">
         <v>3.9152722358703613</v>
       </c>
       <c r="E220" s="2">
-        <v>3.8183467388153076</v>
+        <v>3.8183553218841553</v>
       </c>
     </row>
     <row r="221">
@@ -3829,13 +3829,13 @@
         <v>3.5896067619323731</v>
       </c>
       <c r="C221" s="2">
-        <v>3.2663071155548096</v>
+        <v>3.2663140296936035</v>
       </c>
       <c r="D221" s="2">
         <v>3.9038076400756836</v>
       </c>
       <c r="E221" s="2">
-        <v>3.7989878654479981</v>
+        <v>3.7989821434020996</v>
       </c>
     </row>
     <row r="222">
@@ -3846,13 +3846,13 @@
         <v>4.4627518653869629</v>
       </c>
       <c r="C222" s="2">
-        <v>4.3623833656311035</v>
+        <v>4.3619251251220703</v>
       </c>
       <c r="D222" s="2">
         <v>3.8869314193725586</v>
       </c>
       <c r="E222" s="2">
-        <v>3.7768096923828125</v>
+        <v>3.7768490314483643</v>
       </c>
     </row>
     <row r="223">
@@ -3863,13 +3863,13 @@
         <v>3.6062881946563721</v>
       </c>
       <c r="C223" s="2">
-        <v>3.431074857711792</v>
+        <v>3.4304563999176025</v>
       </c>
       <c r="D223" s="2">
         <v>3.9254381656646729</v>
       </c>
       <c r="E223" s="2">
-        <v>3.823392391204834</v>
+        <v>3.8235197067260742</v>
       </c>
     </row>
     <row r="224">
@@ -3880,13 +3880,13 @@
         <v>3.8371636867523193</v>
       </c>
       <c r="C224" s="2">
-        <v>3.6956775188446045</v>
+        <v>3.6958496570587158</v>
       </c>
       <c r="D224" s="2">
         <v>3.9103567600250244</v>
       </c>
       <c r="E224" s="2">
-        <v>3.8139595985412598</v>
+        <v>3.8139946460723877</v>
       </c>
     </row>
     <row r="225">
@@ -3897,13 +3897,13 @@
         <v>4.0975832939147949</v>
       </c>
       <c r="C225" s="2">
-        <v>4.1174182891845703</v>
+        <v>4.1174731254577637</v>
       </c>
       <c r="D225" s="2">
         <v>3.8274989128112793</v>
       </c>
       <c r="E225" s="2">
-        <v>3.7257921695709229</v>
+        <v>3.7257602214813233</v>
       </c>
     </row>
     <row r="226">
@@ -3914,13 +3914,13 @@
         <v>3.6249983310699463</v>
       </c>
       <c r="C226" s="2">
-        <v>3.5275156497955322</v>
+        <v>3.5277583599090576</v>
       </c>
       <c r="D226" s="2">
         <v>3.7693893909454346</v>
       </c>
       <c r="E226" s="2">
-        <v>3.6962745189666748</v>
+        <v>3.696305513381958</v>
       </c>
     </row>
     <row r="227">
@@ -3931,13 +3931,13 @@
         <v>4.3995013236999512</v>
       </c>
       <c r="C227" s="2">
-        <v>4.2973403930664063</v>
+        <v>4.2975268363952637</v>
       </c>
       <c r="D227" s="2">
         <v>3.6467714309692383</v>
       </c>
       <c r="E227" s="2">
-        <v>3.5751092433929443</v>
+        <v>3.575279712677002</v>
       </c>
     </row>
     <row r="228">
@@ -3948,13 +3948,13 @@
         <v>3.2329649925231934</v>
       </c>
       <c r="C228" s="2">
-        <v>3.238508939743042</v>
+        <v>3.2384324073791504</v>
       </c>
       <c r="D228" s="2">
         <v>3.6103711128234863</v>
       </c>
       <c r="E228" s="2">
-        <v>3.5557513236999512</v>
+        <v>3.5560379028320313</v>
       </c>
     </row>
     <row r="229">
@@ -3965,13 +3965,13 @@
         <v>3.5966322422027588</v>
       </c>
       <c r="C229" s="2">
-        <v>3.5959024429321289</v>
+        <v>3.5961060523986816</v>
       </c>
       <c r="D229" s="2">
         <v>3.5925853252410889</v>
       </c>
       <c r="E229" s="2">
-        <v>3.5280745029449463</v>
+        <v>3.5284478664398193</v>
       </c>
     </row>
     <row r="230">
@@ -3982,13 +3982,13 @@
         <v>3.0666215419769287</v>
       </c>
       <c r="C230" s="2">
-        <v>3.0006494522094727</v>
+        <v>3.001220703125</v>
       </c>
       <c r="D230" s="2">
         <v>3.534658670425415</v>
       </c>
       <c r="E230" s="2">
-        <v>3.4723927974700928</v>
+        <v>3.4728198051452637</v>
       </c>
     </row>
     <row r="231">
@@ -3999,13 +3999,13 @@
         <v>3.3591897487640381</v>
       </c>
       <c r="C231" s="2">
-        <v>3.271895170211792</v>
+        <v>3.2726938724517822</v>
       </c>
       <c r="D231" s="2">
         <v>3.5254933834075928</v>
       </c>
       <c r="E231" s="2">
-        <v>3.486137866973877</v>
+        <v>3.4865469932556152</v>
       </c>
     </row>
     <row r="232">
@@ -4016,13 +4016,13 @@
         <v>3.2786858081817627</v>
       </c>
       <c r="C232" s="2">
-        <v>3.256854772567749</v>
+        <v>3.257279634475708</v>
       </c>
       <c r="D232" s="2">
         <v>3.4817874431610107</v>
       </c>
       <c r="E232" s="2">
-        <v>3.4422111511230469</v>
+        <v>3.4426970481872559</v>
       </c>
     </row>
     <row r="233">
@@ -4033,13 +4033,13 @@
         <v>3.6770896911621094</v>
       </c>
       <c r="C233" s="2">
-        <v>3.4465854167938233</v>
+        <v>3.4475388526916504</v>
       </c>
       <c r="D233" s="2">
         <v>3.5156421661376953</v>
       </c>
       <c r="E233" s="2">
-        <v>3.4552772045135498</v>
+        <v>3.4557690620422363</v>
       </c>
     </row>
     <row r="234">
@@ -4050,13 +4050,13 @@
         <v>3.5762434005737305</v>
       </c>
       <c r="C234" s="2">
-        <v>3.6162824630737305</v>
+        <v>3.6168224811553955</v>
       </c>
       <c r="D234" s="2">
         <v>3.4382021427154541</v>
       </c>
       <c r="E234" s="2">
-        <v>3.3765208721160889</v>
+        <v>3.3769679069519043</v>
       </c>
     </row>
     <row r="235">
@@ -4067,13 +4067,13 @@
         <v>3.5425121784210205</v>
       </c>
       <c r="C235" s="2">
-        <v>3.6512207984924316</v>
+        <v>3.6513011455535889</v>
       </c>
       <c r="D235" s="2">
         <v>3.4576280117034912</v>
       </c>
       <c r="E235" s="2">
-        <v>3.3957729339599609</v>
+        <v>3.3961312770843506</v>
       </c>
     </row>
     <row r="236">
@@ -4084,13 +4084,13 @@
         <v>4.0061483383178711</v>
       </c>
       <c r="C236" s="2">
-        <v>3.9020004272460938</v>
+        <v>3.9028773307800293</v>
       </c>
       <c r="D236" s="2">
         <v>3.4786615371704102</v>
       </c>
       <c r="E236" s="2">
-        <v>3.4373860359191895</v>
+        <v>3.4376115798950195</v>
       </c>
     </row>
     <row r="237">
@@ -4101,13 +4101,13 @@
         <v>3.5376560688018799</v>
       </c>
       <c r="C237" s="2">
-        <v>3.3561043739318848</v>
+        <v>3.3560812473297119</v>
       </c>
       <c r="D237" s="2">
         <v>3.5378484725952148</v>
       </c>
       <c r="E237" s="2">
-        <v>3.4917721748352051</v>
+        <v>3.492002010345459</v>
       </c>
     </row>
     <row r="238">
@@ -4118,13 +4118,13 @@
         <v>2.8996732234954834</v>
       </c>
       <c r="C238" s="2">
-        <v>2.8870949745178223</v>
+        <v>2.8868966102600098</v>
       </c>
       <c r="D238" s="2">
         <v>3.5016093254089356</v>
       </c>
       <c r="E238" s="2">
-        <v>3.482529878616333</v>
+        <v>3.4825823307037354</v>
       </c>
     </row>
     <row r="239">
@@ -4135,13 +4135,13 @@
         <v>3.2414543628692627</v>
       </c>
       <c r="C239" s="2">
-        <v>3.173917293548584</v>
+        <v>3.1736893653869629</v>
       </c>
       <c r="D239" s="2">
         <v>3.4521110057830811</v>
       </c>
       <c r="E239" s="2">
-        <v>3.443446159362793</v>
+        <v>3.4434480667114258</v>
       </c>
     </row>
     <row r="240">
@@ -4152,13 +4152,13 @@
         <v>3.5484905242919922</v>
       </c>
       <c r="C240" s="2">
-        <v>3.6464142799377441</v>
+        <v>3.6460180282592774</v>
       </c>
       <c r="D240" s="2">
         <v>3.4422399997711182</v>
       </c>
       <c r="E240" s="2">
-        <v>3.4272570610046387</v>
+        <v>3.4272804260253906</v>
       </c>
     </row>
     <row r="241">
@@ -4169,13 +4169,13 @@
         <v>3.8113682270050049</v>
       </c>
       <c r="C241" s="2">
-        <v>3.7463302612304688</v>
+        <v>3.7467927932739258</v>
       </c>
       <c r="D241" s="2">
         <v>3.3008048534393311</v>
       </c>
       <c r="E241" s="2">
-        <v>3.3021504878997803</v>
+        <v>3.302121639251709</v>
       </c>
     </row>
     <row r="242">
@@ -4186,13 +4186,13 @@
         <v>3.3509376049041748</v>
       </c>
       <c r="C242" s="2">
-        <v>3.3634037971496582</v>
+        <v>3.362762451171875</v>
       </c>
       <c r="D242" s="2">
         <v>3.2847714424133301</v>
       </c>
       <c r="E242" s="2">
-        <v>3.2972793579101563</v>
+        <v>3.2973349094390869</v>
       </c>
     </row>
     <row r="243">
@@ -4203,13 +4203,13 @@
         <v>3.1307578086853027</v>
       </c>
       <c r="C243" s="2">
-        <v>3.264528751373291</v>
+        <v>3.2646136283874512</v>
       </c>
       <c r="D243" s="2">
         <v>3.320873498916626</v>
       </c>
       <c r="E243" s="2">
-        <v>3.3388087749481201</v>
+        <v>3.3388798236846924</v>
       </c>
     </row>
     <row r="244">
@@ -4220,13 +4220,13 @@
         <v>3.45367431640625</v>
       </c>
       <c r="C244" s="2">
-        <v>3.505518913269043</v>
+        <v>3.5057914257049561</v>
       </c>
       <c r="D244" s="2">
         <v>3.2778739929199219</v>
       </c>
       <c r="E244" s="2">
-        <v>3.3054709434509277</v>
+        <v>3.3056554794311524</v>
       </c>
     </row>
     <row r="245">
@@ -4237,13 +4237,13 @@
         <v>2.7332313060760498</v>
       </c>
       <c r="C245" s="2">
-        <v>2.7760417461395264</v>
+        <v>2.7764489650726318</v>
       </c>
       <c r="D245" s="2">
         <v>3.2040784358978272</v>
       </c>
       <c r="E245" s="2">
-        <v>3.20133376121521</v>
+        <v>3.2015616893768311</v>
       </c>
     </row>
     <row r="246">
@@ -4254,13 +4254,13 @@
         <v>3.393355131149292</v>
       </c>
       <c r="C246" s="2">
-        <v>3.3122632503509522</v>
+        <v>3.3130011558532715</v>
       </c>
       <c r="D246" s="2">
         <v>3.1632518768310547</v>
       </c>
       <c r="E246" s="2">
-        <v>3.1556718349456787</v>
+        <v>3.1558318138122559</v>
       </c>
     </row>
     <row r="247">
@@ -4271,13 +4271,13 @@
         <v>3.2245914936065674</v>
       </c>
       <c r="C247" s="2">
-        <v>3.2608602046966553</v>
+        <v>3.2608013153076172</v>
       </c>
       <c r="D247" s="2">
         <v>3.1315021514892578</v>
       </c>
       <c r="E247" s="2">
-        <v>3.1052281856536865</v>
+        <v>3.1053879261016846</v>
       </c>
     </row>
     <row r="248">
@@ -4288,13 +4288,13 @@
         <v>2.8544595241546631</v>
       </c>
       <c r="C248" s="2">
-        <v>2.8738763332366943</v>
+        <v>2.8746695518493652</v>
       </c>
       <c r="D248" s="2">
         <v>3.192234992980957</v>
       </c>
       <c r="E248" s="2">
-        <v>3.1592886447906494</v>
+        <v>3.1595230102539063</v>
       </c>
     </row>
     <row r="249">
@@ -4305,13 +4305,13 @@
         <v>2.8843305110931397</v>
       </c>
       <c r="C249" s="2">
-        <v>2.7091798782348633</v>
+        <v>2.7091746330261231</v>
       </c>
       <c r="D249" s="2">
         <v>3.147158145904541</v>
       </c>
       <c r="E249" s="2">
-        <v>3.0937590599060059</v>
+        <v>3.0939872264862061</v>
       </c>
     </row>
     <row r="250">
@@ -4322,13 +4322,13 @@
         <v>3.4439294338226318</v>
       </c>
       <c r="C250" s="2">
-        <v>3.3353736400604248</v>
+        <v>3.3352227210998535</v>
       </c>
       <c r="D250" s="2">
         <v>3.199044942855835</v>
       </c>
       <c r="E250" s="2">
-        <v>3.1375076770782471</v>
+        <v>3.1377367973327637</v>
       </c>
     </row>
     <row r="251">
@@ -4339,13 +4339,13 @@
         <v>3.0651891231536865</v>
       </c>
       <c r="C251" s="2">
-        <v>2.9094114303588867</v>
+        <v>2.9087681770324707</v>
       </c>
       <c r="D251" s="2">
         <v>3.1490232944488525</v>
       </c>
       <c r="E251" s="2">
-        <v>3.0802567005157471</v>
+        <v>3.0805327892303467</v>
       </c>
     </row>
     <row r="252">
@@ -4356,13 +4356,13 @@
         <v>3.6773538589477539</v>
       </c>
       <c r="C252" s="2">
-        <v>3.7510719299316406</v>
+        <v>3.7518296241760254</v>
       </c>
       <c r="D252" s="2">
         <v>3.1537802219390869</v>
       </c>
       <c r="E252" s="2">
-        <v>3.0671029090881348</v>
+        <v>3.0674614906311035</v>
       </c>
     </row>
     <row r="253">
@@ -4373,13 +4373,13 @@
         <v>3.0479822158813477</v>
       </c>
       <c r="C253" s="2">
-        <v>2.9157538414001465</v>
+        <v>2.9159684181213379</v>
       </c>
       <c r="D253" s="2">
         <v>3.1576163768768311</v>
       </c>
       <c r="E253" s="2">
-        <v>3.0685808658599854</v>
+        <v>3.0688586235046387</v>
       </c>
     </row>
     <row r="254">
@@ -4390,13 +4390,13 @@
         <v>3.2002134323120117</v>
       </c>
       <c r="C254" s="2">
-        <v>3.1697788238525391</v>
+        <v>3.1701958179473877</v>
       </c>
       <c r="D254" s="2">
         <v>3.163780689239502</v>
       </c>
       <c r="E254" s="2">
-        <v>3.0738842487335205</v>
+        <v>3.0742077827453613</v>
       </c>
     </row>
     <row r="255">
@@ -4407,13 +4407,13 @@
         <v>2.943159818649292</v>
       </c>
       <c r="C255" s="2">
-        <v>2.7970049381256104</v>
+        <v>2.798163890838623</v>
       </c>
       <c r="D255" s="2">
         <v>3.151989221572876</v>
       </c>
       <c r="E255" s="2">
-        <v>3.0839290618896484</v>
+        <v>3.0842921733856201</v>
       </c>
     </row>
     <row r="256">
@@ -4424,13 +4424,13 @@
         <v>3.2674050331115723</v>
       </c>
       <c r="C256" s="2">
-        <v>3.142474889755249</v>
+        <v>3.1431596279144287</v>
       </c>
       <c r="D256" s="2">
         <v>3.1423709392547608</v>
       </c>
       <c r="E256" s="2">
-        <v>3.1024479866027832</v>
+        <v>3.1028039455413818</v>
       </c>
     </row>
     <row r="257">
@@ -4441,13 +4441,13 @@
         <v>2.8889834880828858</v>
       </c>
       <c r="C257" s="2">
-        <v>2.887178897857666</v>
+        <v>2.8872442245483398</v>
       </c>
       <c r="D257" s="2">
         <v>3.084669828414917</v>
       </c>
       <c r="E257" s="2">
-        <v>3.0353004932403565</v>
+        <v>3.0355656147003174</v>
       </c>
     </row>
     <row r="258">
@@ -4458,13 +4458,13 @@
         <v>2.9398102760314942</v>
       </c>
       <c r="C258" s="2">
-        <v>2.7569091320037842</v>
+        <v>2.757317066192627</v>
       </c>
       <c r="D258" s="2">
         <v>3.1128582954406738</v>
       </c>
       <c r="E258" s="2">
-        <v>3.0629265308380127</v>
+        <v>3.0631504058837891</v>
       </c>
     </row>
     <row r="259">
@@ -4475,13 +4475,13 @@
         <v>3.337805986404419</v>
       </c>
       <c r="C259" s="2">
-        <v>3.4257783889770508</v>
+        <v>3.4259822368621826</v>
       </c>
       <c r="D259" s="2">
         <v>3.1047215461730957</v>
       </c>
       <c r="E259" s="2">
-        <v>2.9980030059814453</v>
+        <v>2.9981563091278076</v>
       </c>
     </row>
     <row r="260">
@@ -4492,13 +4492,13 @@
         <v>2.9786252975463867</v>
       </c>
       <c r="C260" s="2">
-        <v>3.0760800838470459</v>
+        <v>3.0753750801086426</v>
       </c>
       <c r="D260" s="2">
         <v>3.1624977588653564</v>
       </c>
       <c r="E260" s="2">
-        <v>3.086444616317749</v>
+        <v>3.0865159034729004</v>
       </c>
     </row>
     <row r="261">
@@ -4509,13 +4509,13 @@
         <v>3.1580421924591065</v>
       </c>
       <c r="C261" s="2">
-        <v>3.146744966506958</v>
+        <v>3.1466834545135498</v>
       </c>
       <c r="D261" s="2">
         <v>3.1564946174621582</v>
       </c>
       <c r="E261" s="2">
-        <v>3.0853116512298584</v>
+        <v>3.0852885246276856</v>
       </c>
     </row>
     <row r="262">
@@ -4526,13 +4526,13 @@
         <v>3.3016800880432129</v>
       </c>
       <c r="C262" s="2">
-        <v>3.16438889503479</v>
+        <v>3.1642313003540039</v>
       </c>
       <c r="D262" s="2">
         <v>3.2513048648834229</v>
       </c>
       <c r="E262" s="2">
-        <v>3.1755039691925049</v>
+        <v>3.1754436492919922</v>
       </c>
     </row>
     <row r="263">
@@ -4543,13 +4543,13 @@
         <v>3.1269807815551758</v>
       </c>
       <c r="C263" s="2">
-        <v>2.5854659080505371</v>
+        <v>2.5852489471435547</v>
       </c>
       <c r="D263" s="2">
         <v>3.3401598930358887</v>
       </c>
       <c r="E263" s="2">
-        <v>3.2744183540344238</v>
+        <v>3.2743270397186279</v>
       </c>
     </row>
     <row r="264">
@@ -4560,13 +4560,13 @@
         <v>3.4631462097167969</v>
       </c>
       <c r="C264" s="2">
-        <v>3.592979907989502</v>
+        <v>3.5934009552001953</v>
       </c>
       <c r="D264" s="2">
         <v>3.3486342430114746</v>
       </c>
       <c r="E264" s="2">
-        <v>3.2674283981323242</v>
+        <v>3.2673647403717041</v>
       </c>
     </row>
     <row r="265">
@@ -4577,13 +4577,13 @@
         <v>3.2133762836456299</v>
       </c>
       <c r="C265" s="2">
-        <v>3.132279634475708</v>
+        <v>3.1321136951446533</v>
       </c>
       <c r="D265" s="2">
         <v>3.3644547462463379</v>
       </c>
       <c r="E265" s="2">
-        <v>3.2574100494384766</v>
+        <v>3.2575421333312988</v>
       </c>
     </row>
     <row r="266">
@@ -4594,13 +4594,13 @@
         <v>3.7422761917114258</v>
       </c>
       <c r="C266" s="2">
-        <v>3.6989095211029053</v>
+        <v>3.6986403465270996</v>
       </c>
       <c r="D266" s="2">
         <v>3.3512697219848633</v>
       </c>
       <c r="E266" s="2">
-        <v>3.2491979598999023</v>
+        <v>3.249319314956665</v>
       </c>
     </row>
     <row r="267">
@@ -4611,13 +4611,13 @@
         <v>3.7395064830780029</v>
       </c>
       <c r="C267" s="2">
-        <v>3.6471381187438965</v>
+        <v>3.6472675800323486</v>
       </c>
       <c r="D267" s="2">
         <v>3.342789888381958</v>
       </c>
       <c r="E267" s="2">
-        <v>3.2516565322875977</v>
+        <v>3.2518024444580078</v>
       </c>
     </row>
     <row r="268">
@@ -4628,13 +4628,13 @@
         <v>3.4140751361846924</v>
       </c>
       <c r="C268" s="2">
-        <v>3.3628683090209961</v>
+        <v>3.3633220195770264</v>
       </c>
       <c r="D268" s="2">
         <v>3.3792126178741455</v>
       </c>
       <c r="E268" s="2">
-        <v>3.3557162284851074</v>
+        <v>3.3559708595275879</v>
       </c>
     </row>
     <row r="269">
@@ -4645,13 +4645,13 @@
         <v>3.121009111404419</v>
       </c>
       <c r="C269" s="2">
-        <v>2.9859156608581543</v>
+        <v>2.9869704246520996</v>
       </c>
       <c r="D269" s="2">
         <v>3.4116978645324707</v>
       </c>
       <c r="E269" s="2">
-        <v>3.3220858573913574</v>
+        <v>3.3222954273223877</v>
       </c>
     </row>
     <row r="270">
@@ -4662,13 +4662,13 @@
         <v>3.0393767356872559</v>
       </c>
       <c r="C270" s="2">
-        <v>3.0728359222412109</v>
+        <v>3.0726792812347412</v>
       </c>
       <c r="D270" s="2">
         <v>3.5137777328491211</v>
       </c>
       <c r="E270" s="2">
-        <v>3.4122979640960693</v>
+        <v>3.412398099899292</v>
       </c>
     </row>
     <row r="271">
@@ -4679,13 +4679,13 @@
         <v>3.22536301612854</v>
       </c>
       <c r="C271" s="2">
-        <v>3.1865165233612061</v>
+        <v>3.1865780353546143</v>
       </c>
       <c r="D271" s="2">
         <v>3.5534012317657471</v>
       </c>
       <c r="E271" s="2">
-        <v>3.4412236213684082</v>
+        <v>3.4414145946502686</v>
       </c>
     </row>
     <row r="272">
@@ -4696,13 +4696,13 @@
         <v>3.454784631729126</v>
       </c>
       <c r="C272" s="2">
-        <v>3.5220017433166504</v>
+        <v>3.5227653980255127</v>
       </c>
       <c r="D272" s="2">
         <v>3.536442756652832</v>
       </c>
       <c r="E272" s="2">
-        <v>3.447390079498291</v>
+        <v>3.4476163387298584</v>
       </c>
     </row>
     <row r="273">
@@ -4713,13 +4713,13 @@
         <v>3.7555122375488281</v>
       </c>
       <c r="C273" s="2">
-        <v>3.2903077602386475</v>
+        <v>3.2903220653533936</v>
       </c>
       <c r="D273" s="2">
         <v>3.5827023983001709</v>
       </c>
       <c r="E273" s="2">
-        <v>3.4741325378417969</v>
+        <v>3.4742484092712402</v>
       </c>
     </row>
     <row r="274">
@@ -4730,13 +4730,13 @@
         <v>4.1320962905883789</v>
       </c>
       <c r="C274" s="2">
-        <v>3.9441883563995361</v>
+        <v>3.9430370330810547</v>
       </c>
       <c r="D274" s="2">
         <v>3.669377326965332</v>
       </c>
       <c r="E274" s="2">
-        <v>3.577911376953125</v>
+        <v>3.5779085159301758</v>
       </c>
     </row>
     <row r="275">
@@ -4747,13 +4747,13 @@
         <v>4.0988874435424805</v>
       </c>
       <c r="C275" s="2">
-        <v>3.9592409133911133</v>
+        <v>3.9597902297973633</v>
       </c>
       <c r="D275" s="2">
         <v>3.8051445484161377</v>
       </c>
       <c r="E275" s="2">
-        <v>3.7187836170196533</v>
+        <v>3.7188029289245606</v>
       </c>
     </row>
     <row r="276">
@@ -4764,13 +4764,13 @@
         <v>3.5868797302246094</v>
       </c>
       <c r="C276" s="2">
-        <v>3.7026348114013672</v>
+        <v>3.7030825614929199</v>
       </c>
       <c r="D276" s="2">
         <v>3.8741528987884521</v>
       </c>
       <c r="E276" s="2">
-        <v>3.7925889492034912</v>
+        <v>3.7926192283630371</v>
       </c>
     </row>
     <row r="277">
@@ -4781,13 +4781,13 @@
         <v>3.8304121494293213</v>
       </c>
       <c r="C277" s="2">
-        <v>3.6035506725311279</v>
+        <v>3.6030104160308838</v>
       </c>
       <c r="D277" s="2">
         <v>3.9784433841705322</v>
       </c>
       <c r="E277" s="2">
-        <v>3.8769838809967041</v>
+        <v>3.8768784999847412</v>
       </c>
     </row>
     <row r="278">
@@ -4798,13 +4798,13 @@
         <v>3.9010844230651855</v>
       </c>
       <c r="C278" s="2">
-        <v>3.919926643371582</v>
+        <v>3.9199109077453613</v>
       </c>
       <c r="D278" s="2">
         <v>4.0363903045654297</v>
       </c>
       <c r="E278" s="2">
-        <v>3.9943528175354004</v>
+        <v>3.9942760467529297</v>
       </c>
     </row>
     <row r="279">
@@ -4815,13 +4815,13 @@
         <v>4.2612814903259277</v>
       </c>
       <c r="C279" s="2">
-        <v>4.3406848907470703</v>
+        <v>4.3407292366027832</v>
       </c>
       <c r="D279" s="2">
         <v>4.0706839561462402</v>
       </c>
       <c r="E279" s="2">
-        <v>4.0010232925415039</v>
+        <v>4.001093864440918</v>
       </c>
     </row>
     <row r="280">
@@ -4832,13 +4832,13 @@
         <v>3.8464369773864746</v>
       </c>
       <c r="C280" s="2">
-        <v>3.8507645130157471</v>
+        <v>3.8509247303009033</v>
       </c>
       <c r="D280" s="2">
         <v>4.0286593437194824</v>
       </c>
       <c r="E280" s="2">
-        <v>3.9587280750274658</v>
+        <v>3.9587399959564209</v>
       </c>
     </row>
     <row r="281">
@@ -4849,13 +4849,13 @@
         <v>4.393399715423584</v>
       </c>
       <c r="C281" s="2">
-        <v>4.2815566062927246</v>
+        <v>4.2810983657836914</v>
       </c>
       <c r="D281" s="2">
         <v>4.0808019638061523</v>
       </c>
       <c r="E281" s="2">
-        <v>3.9979617595672608</v>
+        <v>3.9979209899902344</v>
       </c>
     </row>
     <row r="282">
@@ -4866,13 +4866,13 @@
         <v>4.2770347595214844</v>
       </c>
       <c r="C282" s="2">
-        <v>4.3466272354125977</v>
+        <v>4.3469014167785645</v>
       </c>
       <c r="D282" s="2">
         <v>4.1467533111572266</v>
       </c>
       <c r="E282" s="2">
-        <v>4.0603470802307129</v>
+        <v>4.060244083404541</v>
       </c>
     </row>
     <row r="283">
@@ -4883,13 +4883,13 @@
         <v>4.4407405853271484</v>
       </c>
       <c r="C283" s="2">
-        <v>4.0042252540588379</v>
+        <v>4.0043988227844238</v>
       </c>
       <c r="D283" s="2">
         <v>4.2746191024780274</v>
       </c>
       <c r="E283" s="2">
-        <v>4.1574296951293945</v>
+        <v>4.1573972702026367</v>
       </c>
     </row>
     <row r="284">
@@ -4900,13 +4900,13 @@
         <v>3.7206640243530273</v>
       </c>
       <c r="C284" s="2">
-        <v>3.5785825252532959</v>
+        <v>3.5786035060882568</v>
       </c>
       <c r="D284" s="2">
         <v>4.3695507049560547</v>
       </c>
       <c r="E284" s="2">
-        <v>4.2505507469177246</v>
+        <v>4.2505588531494141</v>
       </c>
     </row>
     <row r="285">
@@ -4917,13 +4917,13 @@
         <v>4.0561628341674805</v>
       </c>
       <c r="C285" s="2">
-        <v>4.0557365417480469</v>
+        <v>4.0557112693786621</v>
       </c>
       <c r="D285" s="2">
         <v>4.5183582305908203</v>
       </c>
       <c r="E285" s="2">
-        <v>4.4000530242919922</v>
+        <v>4.4000906944274902</v>
       </c>
     </row>
     <row r="286">
@@ -4934,13 +4934,13 @@
         <v>4.4239740371704102</v>
       </c>
       <c r="C286" s="2">
-        <v>4.1650214195251465</v>
+        <v>4.1639175415039063</v>
       </c>
       <c r="D286" s="2">
         <v>4.4677720069885254</v>
       </c>
       <c r="E286" s="2">
-        <v>4.3594851493835449</v>
+        <v>4.3595404624938965</v>
       </c>
     </row>
     <row r="287">
@@ -4951,13 +4951,13 @@
         <v>5.051877498626709</v>
       </c>
       <c r="C287" s="2">
-        <v>4.7936687469482422</v>
+        <v>4.7942886352539063</v>
       </c>
       <c r="D287" s="2">
         <v>4.4230818748474121</v>
       </c>
       <c r="E287" s="2">
-        <v>4.3102331161499023</v>
+        <v>4.3103289604187012</v>
       </c>
     </row>
     <row r="288">
@@ -4968,13 +4968,13 @@
         <v>5.1156654357910156</v>
       </c>
       <c r="C288" s="2">
-        <v>5.17877197265625</v>
+        <v>5.1791834831237793</v>
       </c>
       <c r="D288" s="2">
         <v>4.3849377632141113</v>
       </c>
       <c r="E288" s="2">
-        <v>4.3041610717773438</v>
+        <v>4.3043360710144043</v>
       </c>
     </row>
     <row r="289">
@@ -4985,13 +4985,13 @@
         <v>5.1857056617736817</v>
       </c>
       <c r="C289" s="2">
-        <v>5.1962852478027344</v>
+        <v>5.1967134475708008</v>
       </c>
       <c r="D289" s="2">
         <v>4.3976068496704102</v>
       </c>
       <c r="E289" s="2">
-        <v>4.2742218971252442</v>
+        <v>4.2743420600891113</v>
       </c>
     </row>
     <row r="290">
@@ -5002,13 +5002,13 @@
         <v>3.9381241798400879</v>
       </c>
       <c r="C290" s="2">
-        <v>3.9164471626281738</v>
+        <v>3.9161443710327149</v>
       </c>
       <c r="D290" s="2">
         <v>4.3462710380554199</v>
       </c>
       <c r="E290" s="2">
-        <v>4.2081432342529297</v>
+        <v>4.2082972526550293</v>
       </c>
     </row>
     <row r="291">
@@ -5019,13 +5019,13 @@
         <v>3.8748221397399902</v>
       </c>
       <c r="C291" s="2">
-        <v>3.9033575057983398</v>
+        <v>3.9040005207061768</v>
       </c>
       <c r="D291" s="2">
         <v>4.2555227279663086</v>
       </c>
       <c r="E291" s="2">
-        <v>4.1278090476989746</v>
+        <v>4.1281352043151855</v>
       </c>
     </row>
     <row r="292">
@@ -5036,13 +5036,13 @@
         <v>4.097442626953125</v>
       </c>
       <c r="C292" s="2">
-        <v>3.9495804309844971</v>
+        <v>3.9504632949829102</v>
       </c>
       <c r="D292" s="2">
         <v>4.1055941581726074</v>
       </c>
       <c r="E292" s="2">
-        <v>4.0096855163574219</v>
+        <v>4.0099172592163086</v>
       </c>
     </row>
     <row r="293">
@@ -5053,13 +5053,13 @@
         <v>3.8346874713897705</v>
       </c>
       <c r="C293" s="2">
-        <v>3.3091270923614502</v>
+        <v>3.3086569309234619</v>
       </c>
       <c r="D293" s="2">
         <v>3.9219682216644287</v>
       </c>
       <c r="E293" s="2">
-        <v>3.814133882522583</v>
+        <v>3.8142688274383545</v>
       </c>
     </row>
     <row r="294">
@@ -5070,13 +5070,13 @@
         <v>3.5941383838653564</v>
       </c>
       <c r="C294" s="2">
-        <v>3.4610283374786377</v>
+        <v>3.4613056182861328</v>
       </c>
       <c r="D294" s="2">
         <v>3.7633950710296631</v>
       </c>
       <c r="E294" s="2">
-        <v>3.6285617351531982</v>
+        <v>3.6286213397979736</v>
       </c>
     </row>
     <row r="295">
@@ -5087,13 +5087,13 @@
         <v>3.6072416305541992</v>
       </c>
       <c r="C295" s="2">
-        <v>3.4420135021209717</v>
+        <v>3.4424586296081543</v>
       </c>
       <c r="D295" s="2">
         <v>3.7637808322906494</v>
       </c>
       <c r="E295" s="2">
-        <v>3.6269943714141846</v>
+        <v>3.6270759105682373</v>
       </c>
     </row>
     <row r="296">
@@ -5104,13 +5104,13 @@
         <v>3.7025206089019775</v>
       </c>
       <c r="C296" s="2">
-        <v>3.7305569648742676</v>
+        <v>3.730330228805542</v>
       </c>
       <c r="D296" s="2">
         <v>3.7337501049041748</v>
       </c>
       <c r="E296" s="2">
-        <v>3.5714774131774902</v>
+        <v>3.5715184211730957</v>
       </c>
     </row>
     <row r="297">
@@ -5121,13 +5121,13 @@
         <v>3.4630312919616699</v>
       </c>
       <c r="C297" s="2">
-        <v>3.4188096523284912</v>
+        <v>3.4183461666107178</v>
       </c>
       <c r="D297" s="2">
         <v>3.7067553997039795</v>
       </c>
       <c r="E297" s="2">
-        <v>3.5639703273773193</v>
+        <v>3.5638275146484375</v>
       </c>
     </row>
     <row r="298">
@@ -5138,13 +5138,13 @@
         <v>3.7585482597351074</v>
       </c>
       <c r="C298" s="2">
-        <v>3.5261342525482178</v>
+        <v>3.5258870124816895</v>
       </c>
       <c r="D298" s="2">
         <v>3.6816940307617188</v>
       </c>
       <c r="E298" s="2">
-        <v>3.6069784164428711</v>
+        <v>3.6068925857543945</v>
       </c>
     </row>
     <row r="299">
@@ -5155,13 +5155,13 @@
         <v>3.9415957927703858</v>
       </c>
       <c r="C299" s="2">
-        <v>3.9023425579071045</v>
+        <v>3.902235746383667</v>
       </c>
       <c r="D299" s="2">
         <v>3.7416007518768311</v>
       </c>
       <c r="E299" s="2">
-        <v>3.690394401550293</v>
+        <v>3.6903145313262939</v>
       </c>
     </row>
     <row r="300">
@@ -5172,13 +5172,13 @@
         <v>3.6045451164245606</v>
       </c>
       <c r="C300" s="2">
-        <v>3.4037041664123535</v>
+        <v>3.4039816856384277</v>
       </c>
       <c r="D300" s="2">
         <v>3.7711029052734375</v>
       </c>
       <c r="E300" s="2">
-        <v>3.7322702407836914</v>
+        <v>3.732154130935669</v>
       </c>
     </row>
     <row r="301">
@@ -5189,13 +5189,13 @@
         <v>3.8544893264770508</v>
       </c>
       <c r="C301" s="2">
-        <v>3.8820168972015381</v>
+        <v>3.8812451362609863</v>
       </c>
       <c r="D301" s="2">
         <v>3.8967525959014893</v>
       </c>
       <c r="E301" s="2">
-        <v>3.8553671836853027</v>
+        <v>3.8553535938262939</v>
       </c>
     </row>
     <row r="302">
@@ -5206,13 +5206,13 @@
         <v>3.6091365814208984</v>
       </c>
       <c r="C302" s="2">
-        <v>3.6961984634399414</v>
+        <v>3.6962423324584961</v>
       </c>
       <c r="D302" s="2">
         <v>3.8768432140350342</v>
       </c>
       <c r="E302" s="2">
-        <v>3.840977668762207</v>
+        <v>3.8410248756408691</v>
       </c>
     </row>
     <row r="303">
@@ -5223,13 +5223,13 @@
         <v>4.1332988739013672</v>
       </c>
       <c r="C303" s="2">
-        <v>4.2117724418640137</v>
+        <v>4.2121038436889649</v>
       </c>
       <c r="D303" s="2">
         <v>3.8511974811553955</v>
       </c>
       <c r="E303" s="2">
-        <v>3.8392684459686279</v>
+        <v>3.8393487930297852</v>
       </c>
     </row>
     <row r="304">
@@ -5240,13 +5240,13 @@
         <v>3.8727607727050781</v>
       </c>
       <c r="C304" s="2">
-        <v>3.8188967704772949</v>
+        <v>3.8190140724182129</v>
       </c>
       <c r="D304" s="2">
         <v>3.7936034202575684</v>
       </c>
       <c r="E304" s="2">
-        <v>3.7871115207672119</v>
+        <v>3.7872366905212402</v>
       </c>
     </row>
     <row r="305">
@@ -5257,13 +5257,13 @@
         <v>4.8333673477172852</v>
       </c>
       <c r="C305" s="2">
-        <v>4.8384284973144531</v>
+        <v>4.8391256332397461</v>
       </c>
       <c r="D305" s="2">
         <v>3.8048264980316162</v>
       </c>
       <c r="E305" s="2">
-        <v>3.8012702465057373</v>
+        <v>3.8014528751373291</v>
       </c>
     </row>
     <row r="306">
@@ -5274,13 +5274,13 @@
         <v>3.2838468551635742</v>
       </c>
       <c r="C306" s="2">
-        <v>3.2893056869506836</v>
+        <v>3.28938889503479</v>
       </c>
       <c r="D306" s="2">
         <v>3.7963066101074219</v>
       </c>
       <c r="E306" s="2">
-        <v>3.790813684463501</v>
+        <v>3.79103684425354</v>
       </c>
     </row>
     <row r="307">
@@ -5291,13 +5291,13 @@
         <v>3.5277373790740967</v>
       </c>
       <c r="C307" s="2">
-        <v>3.5107502937316895</v>
+        <v>3.5108017921447754</v>
       </c>
       <c r="D307" s="2">
         <v>3.8119418621063232</v>
       </c>
       <c r="E307" s="2">
-        <v>3.7940349578857422</v>
+        <v>3.794316291809082</v>
       </c>
     </row>
     <row r="308">
@@ -5308,13 +5308,13 @@
         <v>3.4232485294342041</v>
       </c>
       <c r="C308" s="2">
-        <v>3.4329309463500977</v>
+        <v>3.4332277774810791</v>
       </c>
       <c r="D308" s="2">
         <v>3.7372992038726807</v>
       </c>
       <c r="E308" s="2">
-        <v>3.7059009075164795</v>
+        <v>3.706247091293335</v>
       </c>
     </row>
     <row r="309">
@@ -5325,13 +5325,13 @@
         <v>3.7055525779724121</v>
       </c>
       <c r="C309" s="2">
-        <v>3.5311329364776611</v>
+        <v>3.5319256782531738</v>
       </c>
       <c r="D309" s="2">
         <v>3.6620819568634033</v>
       </c>
       <c r="E309" s="2">
-        <v>3.6215558052062988</v>
+        <v>3.6219589710235596</v>
       </c>
     </row>
     <row r="310">
@@ -5342,13 +5342,13 @@
         <v>3.7778110504150391</v>
       </c>
       <c r="C310" s="2">
-        <v>3.7879064083099365</v>
+        <v>3.7875006198883057</v>
       </c>
       <c r="D310" s="2">
         <v>3.5311498641967774</v>
       </c>
       <c r="E310" s="2">
-        <v>3.5018754005432129</v>
+        <v>3.5021476745605469</v>
       </c>
     </row>
     <row r="311">
@@ -5359,13 +5359,13 @@
         <v>3.7498531341552734</v>
       </c>
       <c r="C311" s="2">
-        <v>3.7251913547515869</v>
+        <v>3.7257578372955322</v>
       </c>
       <c r="D311" s="2">
         <v>3.5360217094421387</v>
       </c>
       <c r="E311" s="2">
-        <v>3.4952027797698975</v>
+        <v>3.4955034255981445</v>
       </c>
     </row>
     <row r="312">
@@ -5376,13 +5376,13 @@
         <v>3.4615161418914795</v>
       </c>
       <c r="C312" s="2">
-        <v>3.4185652732849121</v>
+        <v>3.4194822311401367</v>
       </c>
       <c r="D312" s="2">
         <v>3.5479559898376465</v>
       </c>
       <c r="E312" s="2">
-        <v>3.4943234920501709</v>
+        <v>3.4946396350860596</v>
       </c>
     </row>
     <row r="313">
@@ -5393,13 +5393,13 @@
         <v>3.1958053112030029</v>
       </c>
       <c r="C313" s="2">
-        <v>3.0597913265228271</v>
+        <v>3.060420036315918</v>
       </c>
       <c r="D313" s="2">
         <v>3.5787432193756104</v>
       </c>
       <c r="E313" s="2">
-        <v>3.5175666809082031</v>
+        <v>3.5178766250610352</v>
       </c>
     </row>
     <row r="314">
@@ -5410,13 +5410,13 @@
         <v>3.6549777984619141</v>
       </c>
       <c r="C314" s="2">
-        <v>3.7613039016723633</v>
+        <v>3.7608246803283692</v>
       </c>
       <c r="D314" s="2">
         <v>3.5610930919647217</v>
       </c>
       <c r="E314" s="2">
-        <v>3.5201802253723145</v>
+        <v>3.5205404758453369</v>
       </c>
     </row>
     <row r="315">
@@ -5427,13 +5427,13 @@
         <v>3.3276932239532471</v>
       </c>
       <c r="C315" s="2">
-        <v>3.2292530536651611</v>
+        <v>3.2295892238616943</v>
       </c>
       <c r="D315" s="2">
         <v>3.5440859794616699</v>
       </c>
       <c r="E315" s="2">
-        <v>3.4887814521789551</v>
+        <v>3.489229679107666</v>
       </c>
     </row>
     <row r="316">
@@ -5444,13 +5444,13 @@
         <v>3.6351451873779297</v>
       </c>
       <c r="C316" s="2">
-        <v>3.5028359889984131</v>
+        <v>3.5030279159545899</v>
       </c>
       <c r="D316" s="2">
         <v>3.4792108535766602</v>
       </c>
       <c r="E316" s="2">
-        <v>3.4227173328399658</v>
+        <v>3.4230451583862305</v>
       </c>
     </row>
     <row r="317">
@@ -5461,13 +5461,13 @@
         <v>3.700333833694458</v>
       </c>
       <c r="C317" s="2">
-        <v>3.6421205997467041</v>
+        <v>3.6423609256744385</v>
       </c>
       <c r="D317" s="2">
         <v>3.4789412021636963</v>
       </c>
       <c r="E317" s="2">
-        <v>3.4113972187042236</v>
+        <v>3.411607027053833</v>
       </c>
     </row>
     <row r="318">
@@ -5478,13 +5478,13 @@
         <v>3.5467014312744141</v>
       </c>
       <c r="C318" s="2">
-        <v>3.5546541213989258</v>
+        <v>3.5559017658233643</v>
       </c>
       <c r="D318" s="2">
         <v>3.472646951675415</v>
       </c>
       <c r="E318" s="2">
-        <v>3.3975999355316162</v>
+        <v>3.3977365493774414</v>
       </c>
     </row>
     <row r="319">
@@ -5495,13 +5495,13 @@
         <v>3.6247472763061523</v>
       </c>
       <c r="C319" s="2">
-        <v>3.5053172111511231</v>
+        <v>3.5057015419006348</v>
       </c>
       <c r="D319" s="2">
         <v>3.4430778026580811</v>
       </c>
       <c r="E319" s="2">
-        <v>3.3560159206390381</v>
+        <v>3.3561902046203613</v>
       </c>
     </row>
     <row r="320">
@@ -5512,13 +5512,13 @@
         <v>3.1659765243530273</v>
       </c>
       <c r="C320" s="2">
-        <v>3.1306149959564209</v>
+        <v>3.1300981044769287</v>
       </c>
       <c r="D320" s="2">
         <v>3.4279749393463135</v>
       </c>
       <c r="E320" s="2">
-        <v>3.3430447578430176</v>
+        <v>3.3432333469390869</v>
       </c>
     </row>
     <row r="321">
@@ -5529,13 +5529,13 @@
         <v>3.4590909481048584</v>
       </c>
       <c r="C321" s="2">
-        <v>3.3166847229003906</v>
+        <v>3.3165390491485596</v>
       </c>
       <c r="D321" s="2">
         <v>3.3937656879425049</v>
       </c>
       <c r="E321" s="2">
-        <v>3.3282003402709961</v>
+        <v>3.3284409046173096</v>
       </c>
     </row>
     <row r="322">
@@ -5546,13 +5546,13 @@
         <v>3.1391561031341553</v>
       </c>
       <c r="C322" s="2">
-        <v>2.935615062713623</v>
+        <v>2.9355852603912354</v>
       </c>
       <c r="D322" s="2">
         <v>3.3829224109649658</v>
       </c>
       <c r="E322" s="2">
-        <v>3.3030052185058594</v>
+        <v>3.3032305240631104</v>
       </c>
     </row>
     <row r="323">
@@ -5563,13 +5563,13 @@
         <v>3.38885498046875</v>
       </c>
       <c r="C323" s="2">
-        <v>3.3870468139648438</v>
+        <v>3.386909008026123</v>
       </c>
       <c r="D323" s="2">
         <v>3.33188796043396</v>
       </c>
       <c r="E323" s="2">
-        <v>3.2528760433197022</v>
+        <v>3.2530477046966553</v>
       </c>
     </row>
     <row r="324">
@@ -5580,13 +5580,13 @@
         <v>3.1917672157287598</v>
       </c>
       <c r="C324" s="2">
-        <v>3.1125140190124512</v>
+        <v>3.1129763126373291</v>
       </c>
       <c r="D324" s="2">
         <v>3.3056337833404541</v>
       </c>
       <c r="E324" s="2">
-        <v>3.239607572555542</v>
+        <v>3.2396953105926514</v>
       </c>
     </row>
     <row r="325">
@@ -5597,13 +5597,13 @@
         <v>3.3272631168365479</v>
       </c>
       <c r="C325" s="2">
-        <v>3.3692350387573242</v>
+        <v>3.3698966503143311</v>
       </c>
       <c r="D325" s="2">
         <v>3.3183209896087647</v>
       </c>
       <c r="E325" s="2">
-        <v>3.2534546852111816</v>
+        <v>3.2536003589630127</v>
       </c>
     </row>
     <row r="326">
@@ -5614,13 +5614,13 @@
         <v>3.6027436256408691</v>
       </c>
       <c r="C326" s="2">
-        <v>3.4153642654418945</v>
+        <v>3.4154667854309082</v>
       </c>
       <c r="D326" s="2">
         <v>3.2918331623077393</v>
       </c>
       <c r="E326" s="2">
-        <v>3.2384326457977295</v>
+        <v>3.2385833263397217</v>
       </c>
     </row>
     <row r="327">
@@ -5631,13 +5631,13 @@
         <v>3.0873916149139404</v>
       </c>
       <c r="C327" s="2">
-        <v>3.1034929752349854</v>
+        <v>3.1042568683624268</v>
       </c>
       <c r="D327" s="2">
         <v>3.3317298889160156</v>
       </c>
       <c r="E327" s="2">
-        <v>3.3006293773651123</v>
+        <v>3.3007853031158447</v>
       </c>
     </row>
     <row r="328">
@@ -5648,13 +5648,13 @@
         <v>3.388460636138916</v>
       </c>
       <c r="C328" s="2">
-        <v>3.3859004974365234</v>
+        <v>3.3855292797088623</v>
       </c>
       <c r="D328" s="2">
         <v>3.3198268413543701</v>
       </c>
       <c r="E328" s="2">
-        <v>3.2755520343780518</v>
+        <v>3.2757787704467774</v>
       </c>
     </row>
     <row r="329">
@@ -5665,13 +5665,13 @@
         <v>3.2801611423492432</v>
       </c>
       <c r="C329" s="2">
-        <v>3.2552382946014404</v>
+        <v>3.2552437782287598</v>
       </c>
       <c r="D329" s="2">
         <v>3.3744840621948242</v>
       </c>
       <c r="E329" s="2">
-        <v>3.330052375793457</v>
+        <v>3.3302905559539795</v>
       </c>
     </row>
     <row r="330">
@@ -5682,13 +5682,13 @@
         <v>3.2207002639770508</v>
       </c>
       <c r="C330" s="2">
-        <v>3.1814863681793213</v>
+        <v>3.1813852787017822</v>
       </c>
       <c r="D330" s="2">
         <v>3.5740458965301514</v>
       </c>
       <c r="E330" s="2">
-        <v>3.5138111114501953</v>
+        <v>3.5139586925506592</v>
       </c>
     </row>
     <row r="331">
@@ -5699,13 +5699,13 @@
         <v>3.4982259273529053</v>
       </c>
       <c r="C331" s="2">
-        <v>3.4953854084014893</v>
+        <v>3.4954032897949219</v>
       </c>
       <c r="D331" s="2">
         <v>3.730290412902832</v>
       </c>
       <c r="E331" s="2">
-        <v>3.6762189865112305</v>
+        <v>3.6764230728149414</v>
       </c>
     </row>
     <row r="332">
@@ -5716,13 +5716,13 @@
         <v>3.2817270755767822</v>
       </c>
       <c r="C332" s="2">
-        <v>3.1613507270812988</v>
+        <v>3.1618506908416748</v>
       </c>
       <c r="D332" s="2">
         <v>3.8870706558227539</v>
       </c>
       <c r="E332" s="2">
-        <v>3.8201875686645508</v>
+        <v>3.8202974796295166</v>
       </c>
     </row>
     <row r="333">
@@ -5733,13 +5733,13 @@
         <v>3.6836831569671631</v>
       </c>
       <c r="C333" s="2">
-        <v>3.6030168533325195</v>
+        <v>3.6035828590393067</v>
       </c>
       <c r="D333" s="2">
         <v>4.0632085800170899</v>
       </c>
       <c r="E333" s="2">
-        <v>3.9603545665740967</v>
+        <v>3.96044921875</v>
       </c>
     </row>
     <row r="334">
@@ -5750,13 +5750,13 @@
         <v>5.1233196258544922</v>
       </c>
       <c r="C334" s="2">
-        <v>5.0230650901794434</v>
+        <v>5.0229096412658692</v>
       </c>
       <c r="D334" s="2">
         <v>4.1666903495788574</v>
       </c>
       <c r="E334" s="2">
-        <v>4.0732865333557129</v>
+        <v>4.0734701156616211</v>
       </c>
     </row>
     <row r="335">
@@ -5767,13 +5767,13 @@
         <v>5.0089449882507324</v>
       </c>
       <c r="C335" s="2">
-        <v>4.8770337104797363</v>
+        <v>4.8776459693908691</v>
       </c>
       <c r="D335" s="2">
         <v>4.1722702980041504</v>
       </c>
       <c r="E335" s="2">
-        <v>4.0808925628662109</v>
+        <v>4.0811934471130371</v>
       </c>
     </row>
     <row r="336">
@@ -5784,13 +5784,13 @@
         <v>4.4984140396118164</v>
       </c>
       <c r="C336" s="2">
-        <v>4.3992104530334473</v>
+        <v>4.3991274833679199</v>
       </c>
       <c r="D336" s="2">
         <v>4.1823687553405762</v>
       </c>
       <c r="E336" s="2">
-        <v>4.0938410758972168</v>
+        <v>4.0941438674926758</v>
       </c>
     </row>
     <row r="337">
@@ -5801,13 +5801,13 @@
         <v>4.9737005233764648</v>
       </c>
       <c r="C337" s="2">
-        <v>4.6474037170410156</v>
+        <v>4.6468935012817383</v>
       </c>
       <c r="D337" s="2">
         <v>4.2772340774536133</v>
       </c>
       <c r="E337" s="2">
-        <v>4.2116575241088867</v>
+        <v>4.2119612693786621</v>
       </c>
     </row>
     <row r="338">
@@ -5818,13 +5818,13 @@
         <v>4.2114963531494141</v>
       </c>
       <c r="C338" s="2">
-        <v>4.2716274261474609</v>
+        <v>4.2724323272705078</v>
       </c>
       <c r="D338" s="2">
         <v>4.3286595344543457</v>
       </c>
       <c r="E338" s="2">
-        <v>4.2559952735900879</v>
+        <v>4.2562751770019531</v>
       </c>
     </row>
     <row r="339">
@@ -5835,13 +5835,13 @@
         <v>3.2709217071533203</v>
       </c>
       <c r="C339" s="2">
-        <v>3.2499401569366455</v>
+        <v>3.2508959770202637</v>
       </c>
       <c r="D339" s="2">
         <v>4.1281013488769531</v>
       </c>
       <c r="E339" s="2">
-        <v>4.0655388832092285</v>
+        <v>4.0658721923828125</v>
       </c>
     </row>
     <row r="340">
@@ -5852,13 +5852,13 @@
         <v>3.5891106128692627</v>
       </c>
       <c r="C340" s="2">
-        <v>3.6119198799133301</v>
+        <v>3.6119558811187744</v>
       </c>
       <c r="D340" s="2">
         <v>3.9429290294647217</v>
       </c>
       <c r="E340" s="2">
-        <v>3.8675065040588379</v>
+        <v>3.8677828311920166</v>
       </c>
     </row>
     <row r="341">
@@ -5869,13 +5869,13 @@
         <v>4.1355166435241699</v>
       </c>
       <c r="C341" s="2">
-        <v>4.2217006683349609</v>
+        <v>4.2222080230712891</v>
       </c>
       <c r="D341" s="2">
         <v>3.8944966793060303</v>
       </c>
       <c r="E341" s="2">
-        <v>3.8330905437469483</v>
+        <v>3.8334262371063232</v>
       </c>
     </row>
     <row r="342">
@@ -5886,13 +5886,13 @@
         <v>4.1465115547180176</v>
       </c>
       <c r="C342" s="2">
-        <v>4.0020570755004883</v>
+        <v>4.0024094581604004</v>
       </c>
       <c r="D342" s="2">
         <v>3.7477116584777832</v>
       </c>
       <c r="E342" s="2">
-        <v>3.7169413566589356</v>
+        <v>3.7173607349395752</v>
       </c>
     </row>
     <row r="343">
@@ -5903,13 +5903,13 @@
         <v>3.318295955657959</v>
       </c>
       <c r="C343" s="2">
-        <v>3.3089587688446045</v>
+        <v>3.3092801570892334</v>
       </c>
       <c r="D343" s="2">
         <v>3.6600584983825684</v>
       </c>
       <c r="E343" s="2">
-        <v>3.6078469753265381</v>
+        <v>3.60809326171875</v>
       </c>
     </row>
     <row r="344">
@@ -5920,13 +5920,13 @@
         <v>3.3423929214477539</v>
       </c>
       <c r="C344" s="2">
-        <v>3.0947408676147461</v>
+        <v>3.0948431491851807</v>
       </c>
       <c r="D344" s="2">
         <v>3.6862246990203858</v>
       </c>
       <c r="E344" s="2">
-        <v>3.6308233737945557</v>
+        <v>3.6310858726501465</v>
       </c>
     </row>
     <row r="345">
@@ -5937,13 +5937,13 @@
         <v>4.0625247955322266</v>
       </c>
       <c r="C345" s="2">
-        <v>4.0894656181335449</v>
+        <v>4.0899171829223633</v>
       </c>
       <c r="D345" s="2">
         <v>3.6805758476257324</v>
       </c>
       <c r="E345" s="2">
-        <v>3.6205010414123535</v>
+        <v>3.6208646297454834</v>
       </c>
     </row>
     <row r="346">
@@ -5954,13 +5954,13 @@
         <v>3.6526343822479248</v>
       </c>
       <c r="C346" s="2">
-        <v>3.6020627021789551</v>
+        <v>3.6023035049438477</v>
       </c>
       <c r="D346" s="2">
         <v>3.6399054527282715</v>
       </c>
       <c r="E346" s="2">
-        <v>3.5687148571014404</v>
+        <v>3.5690550804138184</v>
       </c>
     </row>
     <row r="347">
@@ -5971,13 +5971,13 @@
         <v>3.4226171970367432</v>
       </c>
       <c r="C347" s="2">
-        <v>3.2897779941558838</v>
+        <v>3.2890267372131348</v>
       </c>
       <c r="D347" s="2">
         <v>3.5440464019775391</v>
       </c>
       <c r="E347" s="2">
-        <v>3.4783275127410889</v>
+        <v>3.4786512851715088</v>
       </c>
     </row>
     <row r="348">
@@ -5988,13 +5988,13 @@
         <v>3.5064172744750977</v>
       </c>
       <c r="C348" s="2">
-        <v>3.4567265510559082</v>
+        <v>3.4578282833099365</v>
       </c>
       <c r="D348" s="2">
         <v>3.5252079963684082</v>
       </c>
       <c r="E348" s="2">
-        <v>3.4574222564697266</v>
+        <v>3.4576799869537354</v>
       </c>
     </row>
     <row r="349">
@@ -6005,13 +6005,13 @@
         <v>3.5382711887359619</v>
       </c>
       <c r="C349" s="2">
-        <v>3.5190200805664063</v>
+        <v>3.5199642181396484</v>
       </c>
       <c r="D349" s="2">
         <v>3.5586881637573242</v>
       </c>
       <c r="E349" s="2">
-        <v>3.5128245353698731</v>
+        <v>3.5130691528320313</v>
       </c>
     </row>
     <row r="350">
@@ -6022,13 +6022,13 @@
         <v>3.769484281539917</v>
       </c>
       <c r="C350" s="2">
-        <v>3.755624532699585</v>
+        <v>3.7559232711791992</v>
       </c>
       <c r="D350" s="2">
         <v>3.5072808265686035</v>
       </c>
       <c r="E350" s="2">
-        <v>3.4443881511688232</v>
+        <v>3.4445159435272217</v>
       </c>
     </row>
     <row r="351">
@@ -6039,13 +6039,13 @@
         <v>3.2837791442871094</v>
       </c>
       <c r="C351" s="2">
-        <v>3.1885702610015869</v>
+        <v>3.1887750625610352</v>
       </c>
       <c r="D351" s="2">
         <v>3.4866721630096436</v>
       </c>
       <c r="E351" s="2">
-        <v>3.411444902420044</v>
+        <v>3.411463737487793</v>
       </c>
     </row>
     <row r="352">
@@ -6056,13 +6056,13 @@
         <v>3.1487517356872559</v>
       </c>
       <c r="C352" s="2">
-        <v>3.1208126544952393</v>
+        <v>3.1205377578735352</v>
       </c>
       <c r="D352" s="2">
         <v>3.5454921722412109</v>
       </c>
       <c r="E352" s="2">
-        <v>3.4815106391906738</v>
+        <v>3.4816887378692627</v>
       </c>
     </row>
     <row r="353">
@@ -6073,13 +6073,13 @@
         <v>3.6437129974365234</v>
       </c>
       <c r="C353" s="2">
-        <v>3.5933606624603271</v>
+        <v>3.5933465957641602</v>
       </c>
       <c r="D353" s="2">
         <v>3.6694416999816895</v>
       </c>
       <c r="E353" s="2">
-        <v>3.5715391635894775</v>
+        <v>3.5715923309326172</v>
       </c>
     </row>
     <row r="354">
@@ -6090,13 +6090,13 @@
         <v>3.5998599529266357</v>
       </c>
       <c r="C354" s="2">
-        <v>3.4735374450683594</v>
+        <v>3.4729387760162354</v>
       </c>
       <c r="D354" s="2">
         <v>3.7164912223815918</v>
       </c>
       <c r="E354" s="2">
-        <v>3.630119800567627</v>
+        <v>3.6301343441009522</v>
       </c>
     </row>
     <row r="355">
@@ -6107,13 +6107,13 @@
         <v>3.4671556949615479</v>
       </c>
       <c r="C355" s="2">
-        <v>3.3055739402770996</v>
+        <v>3.3048336505889893</v>
       </c>
       <c r="D355" s="2">
         <v>3.7044999599456787</v>
       </c>
       <c r="E355" s="2">
-        <v>3.6149947643280029</v>
+        <v>3.6149582862854004</v>
       </c>
     </row>
     <row r="356">
@@ -6124,13 +6124,13 @@
         <v>3.9519977569580078</v>
       </c>
       <c r="C356" s="2">
-        <v>3.9203689098358154</v>
+        <v>3.9210505485534668</v>
       </c>
       <c r="D356" s="2">
         <v>3.8225727081298828</v>
       </c>
       <c r="E356" s="2">
-        <v>3.7358653545379639</v>
+        <v>3.7358253002166748</v>
       </c>
     </row>
     <row r="357">
@@ -6141,13 +6141,13 @@
         <v>4.6219635009765625</v>
       </c>
       <c r="C357" s="2">
-        <v>4.2669830322265625</v>
+        <v>4.2669615745544434</v>
       </c>
       <c r="D357" s="2">
         <v>4.0059103965759277</v>
       </c>
       <c r="E357" s="2">
-        <v>3.9188926219940186</v>
+        <v>3.9188523292541504</v>
       </c>
     </row>
     <row r="358">
@@ -6158,13 +6158,13 @@
         <v>3.9617159366607666</v>
       </c>
       <c r="C358" s="2">
-        <v>4.0462474822998047</v>
+        <v>4.0468416213989258</v>
       </c>
       <c r="D358" s="2">
         <v>4.0175023078918457</v>
       </c>
       <c r="E358" s="2">
-        <v>3.9477815628051758</v>
+        <v>3.9477508068084717</v>
       </c>
     </row>
     <row r="359">
@@ -6175,13 +6175,13 @@
         <v>3.661562442779541</v>
       </c>
       <c r="C359" s="2">
-        <v>3.6194987297058106</v>
+        <v>3.6193380355834961</v>
       </c>
       <c r="D359" s="2">
         <v>4.0629725456237793</v>
       </c>
       <c r="E359" s="2">
-        <v>4.0161209106445313</v>
+        <v>4.0161981582641602</v>
       </c>
     </row>
     <row r="360">
@@ -6192,13 +6192,13 @@
         <v>4.3464341163635254</v>
       </c>
       <c r="C360" s="2">
-        <v>4.2764062881469727</v>
+        <v>4.2765789031982422</v>
       </c>
       <c r="D360" s="2">
         <v>4.1381683349609375</v>
       </c>
       <c r="E360" s="2">
-        <v>4.1218252182006836</v>
+        <v>4.1221098899841309</v>
       </c>
     </row>
     <row r="361">
@@ -6209,13 +6209,13 @@
         <v>4.7987914085388184</v>
       </c>
       <c r="C361" s="2">
-        <v>4.7680568695068359</v>
+        <v>4.7677807807922363</v>
       </c>
       <c r="D361" s="2">
         <v>4.3013873100280762</v>
       </c>
       <c r="E361" s="2">
-        <v>4.2691764831542969</v>
+        <v>4.269413948059082</v>
       </c>
     </row>
     <row r="362">
@@ -6226,13 +6226,13 @@
         <v>3.7480406761169434</v>
       </c>
       <c r="C362" s="2">
-        <v>3.8533618450164795</v>
+        <v>3.8534328937530518</v>
       </c>
       <c r="D362" s="2">
         <v>4.3249030113220215</v>
       </c>
       <c r="E362" s="2">
-        <v>4.3083510398864746</v>
+        <v>4.3085379600524902</v>
       </c>
     </row>
     <row r="363">
@@ -6243,13 +6243,13 @@
         <v>4.0090928077697754</v>
       </c>
       <c r="C363" s="2">
-        <v>4.0885906219482422</v>
+        <v>4.0889649391174317</v>
       </c>
       <c r="D363" s="2">
         <v>4.5165724754333496</v>
       </c>
       <c r="E363" s="2">
-        <v>4.4635305404663086</v>
+        <v>4.4635262489318848</v>
       </c>
     </row>
     <row r="364">
@@ -6260,13 +6260,13 @@
         <v>4.1439151763916016</v>
       </c>
       <c r="C364" s="2">
-        <v>4.2569131851196289</v>
+        <v>4.2580399513244629</v>
       </c>
       <c r="D364" s="2">
         <v>4.6799225807189941</v>
       </c>
       <c r="E364" s="2">
-        <v>4.610203742980957</v>
+        <v>4.6101770401000977</v>
       </c>
     </row>
     <row r="365">
@@ -6277,13 +6277,13 @@
         <v>5.4209690093994141</v>
       </c>
       <c r="C365" s="2">
-        <v>5.2465295791625977</v>
+        <v>5.2467889785766602</v>
       </c>
       <c r="D365" s="2">
         <v>4.7414731979370117</v>
       </c>
       <c r="E365" s="2">
-        <v>4.6719064712524414</v>
+        <v>4.6718502044677734</v>
       </c>
     </row>
     <row r="366">
@@ -6294,13 +6294,13 @@
         <v>4.8336038589477539</v>
       </c>
       <c r="C366" s="2">
-        <v>4.6195540428161621</v>
+        <v>4.6190762519836426</v>
       </c>
       <c r="D366" s="2">
         <v>4.7578773498535156</v>
       </c>
       <c r="E366" s="2">
-        <v>4.6961970329284668</v>
+        <v>4.6962075233459473</v>
       </c>
     </row>
     <row r="367">
@@ -6311,13 +6311,13 @@
         <v>5.6867408752441406</v>
       </c>
       <c r="C367" s="2">
-        <v>5.4428658485412598</v>
+        <v>5.441737174987793</v>
       </c>
       <c r="D367" s="2">
         <v>4.9875340461730957</v>
       </c>
       <c r="E367" s="2">
-        <v>4.918179988861084</v>
+        <v>4.9182834625244141</v>
       </c>
     </row>
     <row r="368">
@@ -6328,13 +6328,13 @@
         <v>5.1317143440246582</v>
       </c>
       <c r="C368" s="2">
-        <v>4.9395570755004883</v>
+        <v>4.9391913414001465</v>
       </c>
       <c r="D368" s="2">
         <v>5.2222738265991211</v>
       </c>
       <c r="E368" s="2">
-        <v>5.1505522727966309</v>
+        <v>5.1505446434020996</v>
       </c>
     </row>
     <row r="369">
@@ -6345,13 +6345,13 @@
         <v>4.9003920555114746</v>
       </c>
       <c r="C369" s="2">
-        <v>4.831730842590332</v>
+        <v>4.8316397666931152</v>
       </c>
       <c r="D369" s="2">
         <v>5.4702773094177246</v>
       </c>
       <c r="E369" s="2">
-        <v>5.3776035308837891</v>
+        <v>5.3774509429931641</v>
       </c>
     </row>
     <row r="370">
@@ -6362,13 +6362,13 @@
         <v>4.9464282989501953</v>
       </c>
       <c r="C370" s="2">
-        <v>4.986668586730957</v>
+        <v>4.9869961738586426</v>
       </c>
       <c r="D370" s="2">
         <v>5.603147029876709</v>
       </c>
       <c r="E370" s="2">
-        <v>5.5187282562255859</v>
+        <v>5.5186314582824707</v>
       </c>
     </row>
     <row r="371">
@@ -6379,13 +6379,13 @@
         <v>5.8149518966674805</v>
       </c>
       <c r="C371" s="2">
-        <v>5.8512110710144043</v>
+        <v>5.8521156311035156</v>
       </c>
       <c r="D371" s="2">
         <v>5.8102240562438965</v>
       </c>
       <c r="E371" s="2">
-        <v>5.7486438751220703</v>
+        <v>5.7485203742980957</v>
       </c>
     </row>
     <row r="372">
@@ -6396,13 +6396,13 @@
         <v>6.1217489242553711</v>
       </c>
       <c r="C372" s="2">
-        <v>6.1799407005310059</v>
+        <v>6.1793146133422852</v>
       </c>
       <c r="D372" s="2">
         <v>5.8662552833557129</v>
       </c>
       <c r="E372" s="2">
-        <v>5.8270406723022461</v>
+        <v>5.8270320892333984</v>
       </c>
     </row>
     <row r="373">
@@ -6413,13 +6413,13 @@
         <v>6.375946044921875</v>
       </c>
       <c r="C373" s="2">
-        <v>6.3003726005554199</v>
+        <v>6.3002004623413086</v>
       </c>
       <c r="D373" s="2">
         <v>5.9241394996643067</v>
       </c>
       <c r="E373" s="2">
-        <v>5.9000558853149414</v>
+        <v>5.9000339508056641</v>
       </c>
     </row>
     <row r="374">
@@ -6430,13 +6430,13 @@
         <v>6.6167960166931152</v>
       </c>
       <c r="C374" s="2">
-        <v>6.5166544914245606</v>
+        <v>6.5174117088317871</v>
       </c>
       <c r="D374" s="2">
         <v>6.0169620513916016</v>
       </c>
       <c r="E374" s="2">
-        <v>5.9970769882202149</v>
+        <v>5.9970083236694336</v>
       </c>
     </row>
     <row r="375">
@@ -6447,13 +6447,13 @@
         <v>6.6972966194152832</v>
       </c>
       <c r="C375" s="2">
-        <v>6.6887950897216797</v>
+        <v>6.6880764961242676</v>
       </c>
       <c r="D375" s="2">
         <v>6.0849957466125488</v>
       </c>
       <c r="E375" s="2">
-        <v>6.0630412101745605</v>
+        <v>6.0631232261657715</v>
       </c>
     </row>
     <row r="376">
@@ -6464,13 +6464,13 @@
         <v>6.1910228729248047</v>
       </c>
       <c r="C376" s="2">
-        <v>6.1484355926513672</v>
+        <v>6.1483440399169922</v>
       </c>
       <c r="D376" s="2">
         <v>6.0511994361877441</v>
       </c>
       <c r="E376" s="2">
-        <v>6.0234308242797852</v>
+        <v>6.0233750343322754</v>
       </c>
     </row>
     <row r="377">
@@ -6481,13 +6481,13 @@
         <v>5.6526718139648438</v>
       </c>
       <c r="C377" s="2">
-        <v>5.5966920852661133</v>
+        <v>5.5962057113647461</v>
       </c>
       <c r="D377" s="2">
         <v>5.9160447120666504</v>
       </c>
       <c r="E377" s="2">
-        <v>5.8993673324584961</v>
+        <v>5.8994078636169434</v>
       </c>
     </row>
     <row r="378">
@@ -6498,13 +6498,13 @@
         <v>5.7357945442199707</v>
       </c>
       <c r="C378" s="2">
-        <v>5.7049241065979004</v>
+        <v>5.7044095993041992</v>
       </c>
       <c r="D378" s="2">
         <v>5.734926700592041</v>
       </c>
       <c r="E378" s="2">
-        <v>5.7309107780456543</v>
+        <v>5.730982780456543</v>
       </c>
     </row>
     <row r="379">
@@ -6515,13 +6515,13 @@
         <v>5.5587348937988281</v>
       </c>
       <c r="C379" s="2">
-        <v>5.580345630645752</v>
+        <v>5.5820317268371582</v>
       </c>
       <c r="D379" s="2">
         <v>5.4862046241760254</v>
       </c>
       <c r="E379" s="2">
-        <v>5.4861135482788086</v>
+        <v>5.4860601425170899</v>
       </c>
     </row>
     <row r="380">
@@ -6532,13 +6532,13 @@
         <v>5.5107827186584473</v>
       </c>
       <c r="C380" s="2">
-        <v>5.4947161674499512</v>
+        <v>5.4943804740905762</v>
       </c>
       <c r="D380" s="2">
         <v>5.2940917015075684</v>
       </c>
       <c r="E380" s="2">
-        <v>5.2893595695495605</v>
+        <v>5.289400577545166</v>
       </c>
     </row>
     <row r="381">
@@ -6549,13 +6549,13 @@
         <v>4.9053564071655273</v>
       </c>
       <c r="C381" s="2">
-        <v>5.0633711814880371</v>
+        <v>5.0636119842529297</v>
       </c>
       <c r="D381" s="2">
         <v>5.0460348129272461</v>
       </c>
       <c r="E381" s="2">
-        <v>5.0576276779174805</v>
+        <v>5.0576367378234863</v>
       </c>
     </row>
     <row r="382">
@@ -6566,13 +6566,13 @@
         <v>4.7458853721618652</v>
       </c>
       <c r="C382" s="2">
-        <v>4.7842636108398438</v>
+        <v>4.7843747138977051</v>
       </c>
       <c r="D382" s="2">
         <v>5.0062055587768555</v>
       </c>
       <c r="E382" s="2">
-        <v>5.0212631225585938</v>
+        <v>5.0213332176208496</v>
       </c>
     </row>
     <row r="383">
@@ -6583,13 +6583,13 @@
         <v>4.378298282623291</v>
       </c>
       <c r="C383" s="2">
-        <v>4.3134799003601074</v>
+        <v>4.313107967376709</v>
       </c>
       <c r="D383" s="2">
         <v>4.8587741851806641</v>
       </c>
       <c r="E383" s="2">
-        <v>4.8629460334777832</v>
+        <v>4.8630237579345703</v>
       </c>
     </row>
     <row r="384">
@@ -6600,13 +6600,13 @@
         <v>4.9682765007019043</v>
       </c>
       <c r="C384" s="2">
-        <v>4.9180083274841309</v>
+        <v>4.9181375503540039</v>
       </c>
       <c r="D384" s="2">
         <v>4.7014479637145996</v>
       </c>
       <c r="E384" s="2">
-        <v>4.6898727416992188</v>
+        <v>4.6897959709167481</v>
       </c>
     </row>
     <row r="385">
@@ -6617,13 +6617,13 @@
         <v>3.9585111141204834</v>
       </c>
       <c r="C385" s="2">
-        <v>4.0628480911254883</v>
+        <v>4.062471866607666</v>
       </c>
       <c r="D385" s="2">
         <v>4.5931224822998047</v>
       </c>
       <c r="E385" s="2">
-        <v>4.5964746475219727</v>
+        <v>4.5965085029602051</v>
       </c>
     </row>
     <row r="386">
@@ -6634,13 +6634,13 @@
         <v>5.2942104339599609</v>
       </c>
       <c r="C386" s="2">
-        <v>5.2694101333618164</v>
+        <v>5.2694745063781738</v>
       </c>
       <c r="D386" s="2">
         <v>4.5202045440673828</v>
       </c>
       <c r="E386" s="2">
-        <v>4.5069084167480469</v>
+        <v>4.506868839263916</v>
       </c>
     </row>
     <row r="387">
@@ -6651,13 +6651,13 @@
         <v>4.4089126586914063</v>
       </c>
       <c r="C387" s="2">
-        <v>4.2800722122192383</v>
+        <v>4.2796244621276856</v>
       </c>
       <c r="D387" s="2">
         <v>4.4593081474304199</v>
       </c>
       <c r="E387" s="2">
-        <v>4.4293150901794434</v>
+        <v>4.429295539855957</v>
       </c>
     </row>
     <row r="388">
@@ -6668,13 +6668,13 @@
         <v>4.142796516418457</v>
       </c>
       <c r="C388" s="2">
-        <v>4.0226869583129883</v>
+        <v>4.0229802131652832</v>
       </c>
       <c r="D388" s="2">
         <v>4.4173460006713867</v>
       </c>
       <c r="E388" s="2">
-        <v>4.3676290512084961</v>
+        <v>4.3675775527954102</v>
       </c>
     </row>
     <row r="389">
@@ -6685,13 +6685,13 @@
         <v>4.5358529090881348</v>
       </c>
       <c r="C389" s="2">
-        <v>4.6541295051574707</v>
+        <v>4.6547937393188477</v>
       </c>
       <c r="D389" s="2">
         <v>4.3634805679321289</v>
       </c>
       <c r="E389" s="2">
-        <v>4.3156790733337402</v>
+        <v>4.3155860900878906</v>
       </c>
     </row>
     <row r="390">
@@ -6702,13 +6702,13 @@
         <v>4.2490954399108887</v>
       </c>
       <c r="C390" s="2">
-        <v>4.2572760581970215</v>
+        <v>4.2568545341491699</v>
       </c>
       <c r="D390" s="2">
         <v>4.4213542938232422</v>
       </c>
       <c r="E390" s="2">
-        <v>4.3607187271118164</v>
+        <v>4.3606076240539551</v>
       </c>
     </row>
     <row r="391">
@@ -6719,13 +6719,13 @@
         <v>4.1978187561035156</v>
       </c>
       <c r="C391" s="2">
-        <v>4.0859246253967285</v>
+        <v>4.086216926574707</v>
       </c>
       <c r="D391" s="2">
         <v>4.2956666946411133</v>
       </c>
       <c r="E391" s="2">
-        <v>4.2396297454833984</v>
+        <v>4.2395963668823242</v>
       </c>
     </row>
     <row r="392">
@@ -6736,13 +6736,13 @@
         <v>4.0006413459777832</v>
       </c>
       <c r="C392" s="2">
-        <v>3.7583045959472656</v>
+        <v>3.7576422691345215</v>
       </c>
       <c r="D392" s="2">
         <v>4.2608504295349121</v>
       </c>
       <c r="E392" s="2">
-        <v>4.1936612129211426</v>
+        <v>4.1935572624206543</v>
       </c>
     </row>
     <row r="393">
@@ -6753,13 +6753,13 @@
         <v>4.4834861755371094</v>
       </c>
       <c r="C393" s="2">
-        <v>4.4504613876342773</v>
+        <v>4.4502172470092774</v>
       </c>
       <c r="D393" s="2">
         <v>4.3273444175720215</v>
       </c>
       <c r="E393" s="2">
-        <v>4.2536182403564453</v>
+        <v>4.2534022331237793</v>
       </c>
     </row>
     <row r="394">
@@ -6770,13 +6770,13 @@
         <v>4.4793758392333984</v>
       </c>
       <c r="C394" s="2">
-        <v>4.4682021141052246</v>
+        <v>4.4676666259765625</v>
       </c>
       <c r="D394" s="2">
         <v>4.3267126083374023</v>
       </c>
       <c r="E394" s="2">
-        <v>4.2224316596984863</v>
+        <v>4.2221755981445313</v>
       </c>
     </row>
     <row r="395">
@@ -6787,13 +6787,13 @@
         <v>4.1630220413208008</v>
       </c>
       <c r="C395" s="2">
-        <v>4.1796088218688965</v>
+        <v>4.1803693771362305</v>
       </c>
       <c r="D395" s="2">
         <v>4.3108134269714355</v>
       </c>
       <c r="E395" s="2">
-        <v>4.1923379898071289</v>
+        <v>4.1921558380126953</v>
       </c>
     </row>
     <row r="396">
@@ -6804,13 +6804,13 @@
         <v>4.0955667495727539</v>
       </c>
       <c r="C396" s="2">
-        <v>3.8663578033447266</v>
+        <v>3.8652763366699219</v>
       </c>
       <c r="D396" s="2">
         <v>4.3164701461791992</v>
       </c>
       <c r="E396" s="2">
-        <v>4.1853079795837402</v>
+        <v>4.1851611137390137</v>
       </c>
     </row>
     <row r="397">
@@ -6821,13 +6821,13 @@
         <v>4.7412385940551758</v>
       </c>
       <c r="C397" s="2">
-        <v>4.5622982978820801</v>
+        <v>4.5615839958190918</v>
       </c>
       <c r="D397" s="2">
         <v>4.3604536056518555</v>
       </c>
       <c r="E397" s="2">
-        <v>4.25262451171875</v>
+        <v>4.252476692199707</v>
       </c>
     </row>
     <row r="398">
@@ -6838,13 +6838,13 @@
         <v>4.5301675796508789</v>
       </c>
       <c r="C398" s="2">
-        <v>4.3734517097473145</v>
+        <v>4.373753547668457</v>
       </c>
       <c r="D398" s="2">
         <v>4.3411579132080078</v>
       </c>
       <c r="E398" s="2">
-        <v>4.2364120483398438</v>
+        <v>4.2363510131835938</v>
       </c>
     </row>
     <row r="399">
@@ -6855,13 +6855,13 @@
         <v>4.1060023307800293</v>
       </c>
       <c r="C399" s="2">
-        <v>3.9864335060119629</v>
+        <v>3.986677885055542</v>
       </c>
       <c r="D399" s="2">
         <v>4.3359031677246094</v>
       </c>
       <c r="E399" s="2">
-        <v>4.2148556709289551</v>
+        <v>4.2148618698120117</v>
       </c>
     </row>
     <row r="400">
@@ -6872,13 +6872,13 @@
         <v>4.2487320899963379</v>
       </c>
       <c r="C400" s="2">
-        <v>4.0226526260375977</v>
+        <v>4.0232625007629395</v>
       </c>
       <c r="D400" s="2">
         <v>4.3771729469299316</v>
       </c>
       <c r="E400" s="2">
-        <v>4.2609529495239258</v>
+        <v>4.2609314918518067</v>
       </c>
     </row>
     <row r="401">
@@ -6889,13 +6889,13 @@
         <v>4.3964905738830566</v>
       </c>
       <c r="C401" s="2">
-        <v>4.3641533851623535</v>
+        <v>4.3634819984436035</v>
       </c>
       <c r="D401" s="2">
         <v>4.4121470451354981</v>
       </c>
       <c r="E401" s="2">
-        <v>4.3022251129150391</v>
+        <v>4.302342414855957</v>
       </c>
     </row>
     <row r="402">
@@ -6906,13 +6906,13 @@
         <v>4.3098263740539551</v>
       </c>
       <c r="C402" s="2">
-        <v>4.3045492172241211</v>
+        <v>4.3050861358642578</v>
       </c>
       <c r="D402" s="2">
         <v>4.3665757179260254</v>
       </c>
       <c r="E402" s="2">
-        <v>4.2688264846801758</v>
+        <v>4.2691059112548828</v>
       </c>
     </row>
     <row r="403">
@@ -6923,13 +6923,13 @@
         <v>4.4320836067199707</v>
       </c>
       <c r="C403" s="2">
-        <v>4.2741937637329102</v>
+        <v>4.2742633819580078</v>
       </c>
       <c r="D403" s="2">
         <v>4.3413434028625488</v>
       </c>
       <c r="E403" s="2">
-        <v>4.251551628112793</v>
+        <v>4.2517266273498535</v>
       </c>
     </row>
     <row r="404">
@@ -6940,13 +6940,13 @@
         <v>4.5344467163085938</v>
       </c>
       <c r="C404" s="2">
-        <v>4.5944881439208984</v>
+        <v>4.5949993133544922</v>
       </c>
       <c r="D404" s="2">
         <v>4.2883005142211914</v>
       </c>
       <c r="E404" s="2">
-        <v>4.2183384895324707</v>
+        <v>4.2184901237487793</v>
       </c>
     </row>
     <row r="405">
@@ -6957,13 +6957,13 @@
         <v>4.4103355407714844</v>
       </c>
       <c r="C405" s="2">
-        <v>4.2378044128417969</v>
+        <v>4.2379722595214844</v>
       </c>
       <c r="D405" s="2">
         <v>4.278923511505127</v>
       </c>
       <c r="E405" s="2">
-        <v>4.2123665809631348</v>
+        <v>4.2124314308166504</v>
       </c>
     </row>
     <row r="406">
@@ -6974,13 +6974,13 @@
         <v>4.3310976028442383</v>
       </c>
       <c r="C406" s="2">
-        <v>4.2617135047912598</v>
+        <v>4.2624583244323731</v>
       </c>
       <c r="D406" s="2">
         <v>4.2046651840209961</v>
       </c>
       <c r="E406" s="2">
-        <v>4.1220464706420898</v>
+        <v>4.1221866607666016</v>
       </c>
     </row>
     <row r="407">
@@ -6991,13 +6991,13 @@
         <v>4.3030738830566406</v>
       </c>
       <c r="C407" s="2">
-        <v>4.2179770469665527</v>
+        <v>4.217339038848877</v>
       </c>
       <c r="D407" s="2">
         <v>4.1821503639221191</v>
       </c>
       <c r="E407" s="2">
-        <v>4.0720925331115723</v>
+        <v>4.0723075866699219</v>
       </c>
     </row>
     <row r="408">
@@ -7008,13 +7008,13 @@
         <v>3.6286160945892334</v>
       </c>
       <c r="C408" s="2">
-        <v>3.687514066696167</v>
+        <v>3.6875488758087158</v>
       </c>
       <c r="D408" s="2">
         <v>4.1902179718017578</v>
       </c>
       <c r="E408" s="2">
-        <v>4.085909366607666</v>
+        <v>4.0860676765441895</v>
       </c>
     </row>
     <row r="409">
@@ -7025,13 +7025,13 @@
         <v>4.1643404960632324</v>
       </c>
       <c r="C409" s="2">
-        <v>3.9689044952392578</v>
+        <v>3.9687328338623047</v>
       </c>
       <c r="D409" s="2">
         <v>4.124579906463623</v>
       </c>
       <c r="E409" s="2">
-        <v>4.0167155265808105</v>
+        <v>4.0168418884277344</v>
       </c>
     </row>
     <row r="410">
@@ -7042,13 +7042,13 @@
         <v>3.7281684875488281</v>
       </c>
       <c r="C410" s="2">
-        <v>3.5512731075286865</v>
+        <v>3.5512781143188477</v>
       </c>
       <c r="D410" s="2">
         <v>4.0719895362854004</v>
       </c>
       <c r="E410" s="2">
-        <v>3.9766197204589844</v>
+        <v>3.976691484451294</v>
       </c>
     </row>
     <row r="411">
@@ -7059,13 +7059,13 @@
         <v>4.1071896553039551</v>
       </c>
       <c r="C411" s="2">
-        <v>3.8549635410308838</v>
+        <v>3.856177568435669</v>
       </c>
       <c r="D411" s="2">
         <v>4.0649623870849609</v>
       </c>
       <c r="E411" s="2">
-        <v>3.9660959243774414</v>
+        <v>3.9659721851348877</v>
       </c>
     </row>
     <row r="412">
@@ -7076,13 +7076,13 @@
         <v>4.5046954154968262</v>
       </c>
       <c r="C412" s="2">
-        <v>4.3985457420349121</v>
+        <v>4.3981013298034668</v>
       </c>
       <c r="D412" s="2">
         <v>4.0494828224182129</v>
       </c>
       <c r="E412" s="2">
-        <v>3.9522082805633545</v>
+        <v>3.9521484375</v>
       </c>
     </row>
     <row r="413">
@@ -7093,13 +7093,13 @@
         <v>3.9437003135681152</v>
       </c>
       <c r="C413" s="2">
-        <v>3.9717423915863037</v>
+        <v>3.9719667434692383</v>
       </c>
       <c r="D413" s="2">
         <v>4.1114287376403809</v>
       </c>
       <c r="E413" s="2">
-        <v>4.0046577453613281</v>
+        <v>4.0045385360717773</v>
       </c>
     </row>
     <row r="414">
@@ -7110,13 +7110,13 @@
         <v>3.9370238780975342</v>
       </c>
       <c r="C414" s="2">
-        <v>3.8769428730010986</v>
+        <v>3.8766200542449951</v>
       </c>
       <c r="D414" s="2">
         <v>4.1388192176818848</v>
       </c>
       <c r="E414" s="2">
-        <v>4.052433967590332</v>
+        <v>4.0523061752319336</v>
       </c>
     </row>
     <row r="415">
@@ -7127,13 +7127,13 @@
         <v>4.2678513526916504</v>
       </c>
       <c r="C415" s="2">
-        <v>4.1670002937316895</v>
+        <v>4.1659860610961914</v>
       </c>
       <c r="D415" s="2">
         <v>4.1454658508300781</v>
       </c>
       <c r="E415" s="2">
-        <v>4.0770974159240723</v>
+        <v>4.0769386291503906</v>
       </c>
     </row>
     <row r="416">
@@ -7144,13 +7144,13 @@
         <v>4.1637606620788574</v>
       </c>
       <c r="C416" s="2">
-        <v>4.0929875373840332</v>
+        <v>4.092923641204834</v>
       </c>
       <c r="D416" s="2">
         <v>4.1783709526062012</v>
       </c>
       <c r="E416" s="2">
-        <v>4.1420307159423828</v>
+        <v>4.1418375968933106</v>
       </c>
     </row>
     <row r="417">
@@ -7161,13 +7161,13 @@
         <v>4.1861276626586914</v>
       </c>
       <c r="C417" s="2">
-        <v>4.1595606803894043</v>
+        <v>4.1590585708618164</v>
       </c>
       <c r="D417" s="2">
         <v>4.1868424415588379</v>
       </c>
       <c r="E417" s="2">
-        <v>4.1641411781311035</v>
+        <v>4.1639866828918457</v>
       </c>
     </row>
     <row r="418">
@@ -7178,13 +7178,13 @@
         <v>4.4108562469482422</v>
       </c>
       <c r="C418" s="2">
-        <v>4.3988885879516602</v>
+        <v>4.3986425399780274</v>
       </c>
       <c r="D418" s="2">
         <v>4.1842365264892578</v>
       </c>
       <c r="E418" s="2">
-        <v>4.1533284187316895</v>
+        <v>4.153167724609375</v>
       </c>
     </row>
     <row r="419">
@@ -7195,13 +7195,13 @@
         <v>3.7879889011383057</v>
       </c>
       <c r="C419" s="2">
-        <v>3.7732439041137695</v>
+        <v>3.7729730606079102</v>
       </c>
       <c r="D419" s="2">
         <v>4.2660789489746094</v>
       </c>
       <c r="E419" s="2">
-        <v>4.2394967079162598</v>
+        <v>4.2393231391906738</v>
       </c>
     </row>
     <row r="420">
@@ -7212,13 +7212,13 @@
         <v>4.4033350944519043</v>
       </c>
       <c r="C420" s="2">
-        <v>4.4393630027770996</v>
+        <v>4.4402661323547363</v>
       </c>
       <c r="D420" s="2">
         <v>4.1830687522888184</v>
       </c>
       <c r="E420" s="2">
-        <v>4.1822209358215332</v>
+        <v>4.1822714805603027</v>
       </c>
     </row>
     <row r="421">
@@ -7229,13 +7229,13 @@
         <v>4.5809383392333984</v>
       </c>
       <c r="C421" s="2">
-        <v>4.597541332244873</v>
+        <v>4.5974440574645996</v>
       </c>
       <c r="D421" s="2">
         <v>4.1754117012023926</v>
       </c>
       <c r="E421" s="2">
-        <v>4.1801471710205078</v>
+        <v>4.1802506446838379</v>
       </c>
     </row>
     <row r="422">
@@ -7246,13 +7246,13 @@
         <v>3.9202456474304199</v>
       </c>
       <c r="C422" s="2">
-        <v>3.874427318572998</v>
+        <v>3.8745970726013184</v>
       </c>
       <c r="D422" s="2">
         <v>4.1906309127807617</v>
       </c>
       <c r="E422" s="2">
-        <v>4.1882491111755371</v>
+        <v>4.1885170936584473</v>
       </c>
     </row>
     <row r="423">
@@ -7263,13 +7263,13 @@
         <v>4.6736054420471192</v>
       </c>
       <c r="C423" s="2">
-        <v>4.6524596214294434</v>
+        <v>4.6520156860351563</v>
       </c>
       <c r="D423" s="2">
         <v>4.1023178100585938</v>
       </c>
       <c r="E423" s="2">
-        <v>4.097832202911377</v>
+        <v>4.0981931686401367</v>
       </c>
     </row>
     <row r="424">
@@ -7280,13 +7280,13 @@
         <v>3.5207626819610596</v>
       </c>
       <c r="C424" s="2">
-        <v>3.6515181064605713</v>
+        <v>3.6525213718414307</v>
       </c>
       <c r="D424" s="2">
         <v>4.0845861434936524</v>
       </c>
       <c r="E424" s="2">
-        <v>4.0550541877746582</v>
+        <v>4.0555028915405274</v>
       </c>
     </row>
     <row r="425">
@@ -7297,13 +7297,13 @@
         <v>4.0948443412780762</v>
       </c>
       <c r="C425" s="2">
-        <v>4.0743207931518555</v>
+        <v>4.074737548828125</v>
       </c>
       <c r="D425" s="2">
         <v>4.0781993865966797</v>
       </c>
       <c r="E425" s="2">
-        <v>4.0336318016052246</v>
+        <v>4.0340394973754883</v>
       </c>
     </row>
     <row r="426">
@@ -7314,13 +7314,13 @@
         <v>4.3231015205383301</v>
       </c>
       <c r="C426" s="2">
-        <v>4.232478141784668</v>
+        <v>4.2334551811218262</v>
       </c>
       <c r="D426" s="2">
         <v>3.9869227409362793</v>
       </c>
       <c r="E426" s="2">
-        <v>3.9136812686920166</v>
+        <v>3.9141659736633301</v>
       </c>
     </row>
     <row r="427">
@@ -7331,13 +7331,13 @@
         <v>3.6160387992858887</v>
       </c>
       <c r="C427" s="2">
-        <v>3.5851383209228516</v>
+        <v>3.5857300758361817</v>
       </c>
       <c r="D427" s="2">
         <v>3.9508092403411865</v>
       </c>
       <c r="E427" s="2">
-        <v>3.8794608116149902</v>
+        <v>3.8798670768737793</v>
       </c>
     </row>
     <row r="428">
@@ -7348,13 +7348,13 @@
         <v>3.6284034252166748</v>
       </c>
       <c r="C428" s="2">
-        <v>3.3882429599761963</v>
+        <v>3.3887581825256348</v>
       </c>
       <c r="D428" s="2">
         <v>3.8596417903900147</v>
       </c>
       <c r="E428" s="2">
-        <v>3.7972524166107178</v>
+        <v>3.7977621555328369</v>
       </c>
     </row>
     <row r="429">
@@ -7365,13 +7365,13 @@
         <v>4.3458542823791504</v>
       </c>
       <c r="C429" s="2">
-        <v>4.2465605735778809</v>
+        <v>4.247098445892334</v>
       </c>
       <c r="D429" s="2">
         <v>3.8999776840209961</v>
       </c>
       <c r="E429" s="2">
-        <v>3.8076889514923096</v>
+        <v>3.8080868721008301</v>
       </c>
     </row>
     <row r="430">
@@ -7382,13 +7382,13 @@
         <v>3.7594485282897949</v>
       </c>
       <c r="C430" s="2">
-        <v>3.5179860591888428</v>
+        <v>3.5185797214508057</v>
       </c>
       <c r="D430" s="2">
         <v>3.8746161460876465</v>
       </c>
       <c r="E430" s="2">
-        <v>3.7800135612487793</v>
+        <v>3.780346155166626</v>
       </c>
     </row>
     <row r="431">
@@ -7399,13 +7399,13 @@
         <v>3.5952250957489014</v>
       </c>
       <c r="C431" s="2">
-        <v>3.5664429664611816</v>
+        <v>3.5659072399139404</v>
       </c>
       <c r="D431" s="2">
         <v>3.8206756114959717</v>
       </c>
       <c r="E431" s="2">
-        <v>3.7164220809936524</v>
+        <v>3.7166709899902344</v>
       </c>
     </row>
     <row r="432">
@@ -7416,13 +7416,13 @@
         <v>3.8530969619750977</v>
       </c>
       <c r="C432" s="2">
-        <v>3.9125845432281494</v>
+        <v>3.9130713939666748</v>
       </c>
       <c r="D432" s="2">
         <v>3.8644287586212158</v>
       </c>
       <c r="E432" s="2">
-        <v>3.7609636783599854</v>
+        <v>3.7611980438232422</v>
       </c>
     </row>
     <row r="433">
@@ -7433,13 +7433,13 @@
         <v>3.8837859630584717</v>
       </c>
       <c r="C433" s="2">
-        <v>3.7454462051391602</v>
+        <v>3.7454442977905274</v>
       </c>
       <c r="D433" s="2">
         <v>3.8501389026641846</v>
       </c>
       <c r="E433" s="2">
-        <v>3.7564651966094971</v>
+        <v>3.756589412689209</v>
       </c>
     </row>
     <row r="434">
@@ -7450,13 +7450,13 @@
         <v>3.8665909767150879</v>
       </c>
       <c r="C434" s="2">
-        <v>3.825242280960083</v>
+        <v>3.825070858001709</v>
       </c>
       <c r="D434" s="2">
         <v>3.7994756698608398</v>
       </c>
       <c r="E434" s="2">
-        <v>3.7131898403167725</v>
+        <v>3.7132585048675537</v>
       </c>
     </row>
     <row r="435">
@@ -7467,13 +7467,13 @@
         <v>3.8376364707946777</v>
       </c>
       <c r="C435" s="2">
-        <v>3.6601543426513672</v>
+        <v>3.6603796482086182</v>
       </c>
       <c r="D435" s="2">
         <v>3.731520414352417</v>
       </c>
       <c r="E435" s="2">
-        <v>3.6743683815002441</v>
+        <v>3.6745352745056152</v>
       </c>
     </row>
     <row r="436">
@@ -7484,13 +7484,13 @@
         <v>4.0098171234130859</v>
       </c>
       <c r="C436" s="2">
-        <v>3.9860138893127442</v>
+        <v>3.986473560333252</v>
       </c>
       <c r="D436" s="2">
         <v>3.6961855888366699</v>
       </c>
       <c r="E436" s="2">
-        <v>3.6388125419616699</v>
+        <v>3.6390795707702637</v>
       </c>
     </row>
     <row r="437">
@@ -7501,13 +7501,13 @@
         <v>3.4997940063476563</v>
       </c>
       <c r="C437" s="2">
-        <v>3.347754955291748</v>
+        <v>3.3472802639007568</v>
       </c>
       <c r="D437" s="2">
         <v>3.6769936084747315</v>
       </c>
       <c r="E437" s="2">
-        <v>3.6072826385498047</v>
+        <v>3.6075892448425293</v>
       </c>
     </row>
     <row r="438">
@@ -7518,13 +7518,13 @@
         <v>3.889885425567627</v>
       </c>
       <c r="C438" s="2">
-        <v>3.8570835590362549</v>
+        <v>3.8571200370788574</v>
       </c>
       <c r="D438" s="2">
         <v>3.6050310134887695</v>
       </c>
       <c r="E438" s="2">
-        <v>3.5387561321258545</v>
+        <v>3.5391199588775635</v>
       </c>
     </row>
     <row r="439">
@@ -7535,13 +7535,13 @@
         <v>3.1478512287139893</v>
       </c>
       <c r="C439" s="2">
-        <v>3.1685922145843506</v>
+        <v>3.170069694519043</v>
       </c>
       <c r="D439" s="2">
         <v>3.5499520301818848</v>
       </c>
       <c r="E439" s="2">
-        <v>3.5053045749664307</v>
+        <v>3.5057828426361084</v>
       </c>
     </row>
     <row r="440">
@@ -7552,13 +7552,13 @@
         <v>3.2772116661071777</v>
       </c>
       <c r="C440" s="2">
-        <v>3.2464408874511719</v>
+        <v>3.2468061447143555</v>
       </c>
       <c r="D440" s="2">
         <v>3.5421032905578613</v>
       </c>
       <c r="E440" s="2">
-        <v>3.5078186988830566</v>
+        <v>3.5083274841308594</v>
       </c>
     </row>
     <row r="441">
@@ -7569,13 +7569,13 @@
         <v>3.6803703308105469</v>
       </c>
       <c r="C441" s="2">
-        <v>3.6288151741027832</v>
+        <v>3.6296579837799072</v>
       </c>
       <c r="D441" s="2">
         <v>3.4593536853790283</v>
       </c>
       <c r="E441" s="2">
-        <v>3.4219424724578857</v>
+        <v>3.4224977493286133</v>
       </c>
     </row>
     <row r="442">
@@ -7586,13 +7586,13 @@
         <v>3.236121654510498</v>
       </c>
       <c r="C442" s="2">
-        <v>3.1287069320678711</v>
+        <v>3.1292221546173096</v>
       </c>
       <c r="D442" s="2">
         <v>3.4865090847015381</v>
       </c>
       <c r="E442" s="2">
-        <v>3.4751441478729248</v>
+        <v>3.4758975505828858</v>
       </c>
     </row>
     <row r="443">
@@ -7603,13 +7603,13 @@
         <v>3.3708798885345459</v>
       </c>
       <c r="C443" s="2">
-        <v>3.5241782665252686</v>
+        <v>3.5250363349914551</v>
       </c>
       <c r="D443" s="2">
         <v>3.4650111198425293</v>
       </c>
       <c r="E443" s="2">
-        <v>3.4471848011016846</v>
+        <v>3.4480526447296143</v>
       </c>
     </row>
     <row r="444">
@@ -7620,13 +7620,13 @@
         <v>3.7669975757598877</v>
       </c>
       <c r="C444" s="2">
-        <v>3.6827816963195801</v>
+        <v>3.683281421661377</v>
       </c>
       <c r="D444" s="2">
         <v>3.4761631488800049</v>
       </c>
       <c r="E444" s="2">
-        <v>3.4486627578735352</v>
+        <v>3.4494500160217285</v>
       </c>
     </row>
     <row r="445">
@@ -7637,13 +7637,13 @@
         <v>3.2650706768035889</v>
       </c>
       <c r="C445" s="2">
-        <v>3.2131280899047852</v>
+        <v>3.214005708694458</v>
       </c>
       <c r="D445" s="2">
         <v>3.4726383686065674</v>
       </c>
       <c r="E445" s="2">
-        <v>3.4500854015350342</v>
+        <v>3.4509737491607666</v>
       </c>
     </row>
     <row r="446">
@@ -7654,13 +7654,13 @@
         <v>3.7441933155059814</v>
       </c>
       <c r="C446" s="2">
-        <v>3.826570987701416</v>
+        <v>3.8278777599334717</v>
       </c>
       <c r="D446" s="2">
         <v>3.4007117748260498</v>
       </c>
       <c r="E446" s="2">
-        <v>3.3769702911376953</v>
+        <v>3.3778467178344727</v>
       </c>
     </row>
     <row r="447">
@@ -7671,13 +7671,13 @@
         <v>3.6964037418365479</v>
       </c>
       <c r="C447" s="2">
-        <v>3.6054480075836182</v>
+        <v>3.6065163612365723</v>
       </c>
       <c r="D447" s="2">
         <v>3.4382469654083252</v>
       </c>
       <c r="E447" s="2">
-        <v>3.4135000705718994</v>
+        <v>3.4143428802490234</v>
       </c>
     </row>
     <row r="448">
@@ -7688,13 +7688,13 @@
         <v>3.2482204437255859</v>
       </c>
       <c r="C448" s="2">
-        <v>3.181894063949585</v>
+        <v>3.1826462745666504</v>
       </c>
       <c r="D448" s="2">
         <v>3.5121443271636963</v>
       </c>
       <c r="E448" s="2">
-        <v>3.4580512046813965</v>
+        <v>3.4589612483978272</v>
       </c>
     </row>
     <row r="449">
@@ -7705,13 +7705,13 @@
         <v>3.2454879283905029</v>
       </c>
       <c r="C449" s="2">
-        <v>3.2592446804046631</v>
+        <v>3.2605190277099609</v>
       </c>
       <c r="D449" s="2">
         <v>3.4961528778076172</v>
       </c>
       <c r="E449" s="2">
-        <v>3.444305419921875</v>
+        <v>3.4451963901519775</v>
       </c>
     </row>
     <row r="450">
@@ -7722,13 +7722,13 @@
         <v>3.0330300331115723</v>
       </c>
       <c r="C450" s="2">
-        <v>2.9707803726196289</v>
+        <v>2.9715151786804199</v>
       </c>
       <c r="D450" s="2">
         <v>3.5135207176208496</v>
       </c>
       <c r="E450" s="2">
-        <v>3.4597389698028564</v>
+        <v>3.4605364799499512</v>
       </c>
     </row>
     <row r="451">
@@ -7739,13 +7739,13 @@
         <v>3.5739383697509766</v>
       </c>
       <c r="C451" s="2">
-        <v>3.4574737548828125</v>
+        <v>3.4576888084411621</v>
       </c>
       <c r="D451" s="2">
         <v>3.5166964530944824</v>
       </c>
       <c r="E451" s="2">
-        <v>3.4543297290802002</v>
+        <v>3.4549858570098877</v>
       </c>
     </row>
     <row r="452">
@@ -7756,13 +7756,13 @@
         <v>4.0359559059143066</v>
       </c>
       <c r="C452" s="2">
-        <v>3.9251391887664795</v>
+        <v>3.9265997409820557</v>
       </c>
       <c r="D452" s="2">
         <v>3.4785239696502686</v>
       </c>
       <c r="E452" s="2">
-        <v>3.420818567276001</v>
+        <v>3.4214110374450684</v>
       </c>
     </row>
     <row r="453">
@@ -7773,13 +7773,13 @@
         <v>3.6230745315551758</v>
       </c>
       <c r="C453" s="2">
-        <v>3.5590693950653076</v>
+        <v>3.5593984127044678</v>
       </c>
       <c r="D453" s="2">
         <v>3.5176351070404053</v>
       </c>
       <c r="E453" s="2">
-        <v>3.4721567630767822</v>
+        <v>3.4727611541748047</v>
       </c>
     </row>
     <row r="454">
@@ -7790,13 +7790,13 @@
         <v>3.4213821887969971</v>
       </c>
       <c r="C454" s="2">
-        <v>3.3520293235778809</v>
+        <v>3.3520669937133789</v>
       </c>
       <c r="D454" s="2">
         <v>3.58199143409729</v>
       </c>
       <c r="E454" s="2">
-        <v>3.5134029388427734</v>
+        <v>3.5138745307922363</v>
       </c>
     </row>
     <row r="455">
@@ -7807,13 +7807,13 @@
         <v>3.7727756500244141</v>
       </c>
       <c r="C455" s="2">
-        <v>3.7778892517089844</v>
+        <v>3.7779219150543213</v>
       </c>
       <c r="D455" s="2">
         <v>3.6315968036651611</v>
       </c>
       <c r="E455" s="2">
-        <v>3.5579617023468018</v>
+        <v>3.5584681034088135</v>
       </c>
     </row>
     <row r="456">
@@ -7824,13 +7824,13 @@
         <v>3.3528516292572021</v>
       </c>
       <c r="C456" s="2">
-        <v>3.303847074508667</v>
+        <v>3.3043437004089356</v>
       </c>
       <c r="D456" s="2">
         <v>3.5888140201568604</v>
       </c>
       <c r="E456" s="2">
-        <v>3.5133383274078369</v>
+        <v>3.5138628482818604</v>
       </c>
     </row>
     <row r="457">
@@ -7841,13 +7841,13 @@
         <v>3.6002190113067627</v>
       </c>
       <c r="C457" s="2">
-        <v>3.6439380645751953</v>
+        <v>3.6447956562042236</v>
       </c>
       <c r="D457" s="2">
         <v>3.5377955436706543</v>
       </c>
       <c r="E457" s="2">
-        <v>3.477651834487915</v>
+        <v>3.4781129360198975</v>
       </c>
     </row>
     <row r="458">
@@ -7858,13 +7858,13 @@
         <v>3.8246951103210449</v>
       </c>
       <c r="C458" s="2">
-        <v>3.6304607391357422</v>
+        <v>3.6305410861968994</v>
       </c>
       <c r="D458" s="2">
         <v>3.5175139904022217</v>
       </c>
       <c r="E458" s="2">
-        <v>3.4655070304870605</v>
+        <v>3.4660599231719971</v>
       </c>
     </row>
     <row r="459">
@@ -7875,13 +7875,13 @@
         <v>3.4794793128967285</v>
       </c>
       <c r="C459" s="2">
-        <v>3.3718075752258301</v>
+        <v>3.3728556632995605</v>
       </c>
       <c r="D459" s="2">
         <v>3.4716658592224121</v>
       </c>
       <c r="E459" s="2">
-        <v>3.4210631847381592</v>
+        <v>3.4215970039367676</v>
       </c>
     </row>
     <row r="460">
@@ -7892,13 +7892,13 @@
         <v>3.1888933181762695</v>
       </c>
       <c r="C460" s="2">
-        <v>3.0558643341064453</v>
+        <v>3.0562427043914795</v>
       </c>
       <c r="D460" s="2">
         <v>3.4218933582305908</v>
       </c>
       <c r="E460" s="2">
-        <v>3.3579156398773193</v>
+        <v>3.3584961891174317</v>
       </c>
     </row>
     <row r="461">
@@ -7909,13 +7909,13 @@
         <v>3.5767889022827149</v>
       </c>
       <c r="C461" s="2">
-        <v>3.6039597988128662</v>
+        <v>3.6048507690429688</v>
       </c>
       <c r="D461" s="2">
         <v>3.4345381259918213</v>
       </c>
       <c r="E461" s="2">
-        <v>3.3705155849456787</v>
+        <v>3.3710458278656006</v>
       </c>
     </row>
     <row r="462">
@@ -7926,13 +7926,13 @@
         <v>3.4405417442321777</v>
       </c>
       <c r="C462" s="2">
-        <v>3.4497671127319336</v>
+        <v>3.4509198665618897</v>
       </c>
       <c r="D462" s="2">
         <v>3.3863358497619629</v>
       </c>
       <c r="E462" s="2">
-        <v>3.3082759380340576</v>
+        <v>3.3087790012359619</v>
       </c>
     </row>
     <row r="463">
@@ -7943,13 +7943,13 @@
         <v>3.0087485313415527</v>
       </c>
       <c r="C463" s="2">
-        <v>2.9520339965820313</v>
+        <v>2.9519007205963135</v>
       </c>
       <c r="D463" s="2">
         <v>3.3187849521636963</v>
       </c>
       <c r="E463" s="2">
-        <v>3.260991096496582</v>
+        <v>3.2614676952362061</v>
       </c>
     </row>
     <row r="464">
@@ -7960,13 +7960,13 @@
         <v>3.3248226642608643</v>
       </c>
       <c r="C464" s="2">
-        <v>3.2095613479614258</v>
+        <v>3.2100160121917725</v>
       </c>
       <c r="D464" s="2">
         <v>3.291632890701294</v>
       </c>
       <c r="E464" s="2">
-        <v>3.2461121082305908</v>
+        <v>3.2465415000915527</v>
       </c>
     </row>
     <row r="465">
@@ -7977,13 +7977,13 @@
         <v>3.4666545391082764</v>
       </c>
       <c r="C465" s="2">
-        <v>3.4172463417053223</v>
+        <v>3.4172899723052979</v>
       </c>
       <c r="D465" s="2">
         <v>3.3108029365539551</v>
       </c>
       <c r="E465" s="2">
-        <v>3.272411584854126</v>
+        <v>3.2728555202484131</v>
       </c>
     </row>
     <row r="466">
@@ -7994,13 +7994,13 @@
         <v>3.1663978099822998</v>
       </c>
       <c r="C466" s="2">
-        <v>3.0837829113006592</v>
+        <v>3.0843932628631592</v>
       </c>
       <c r="D466" s="2">
         <v>3.2702279090881348</v>
       </c>
       <c r="E466" s="2">
-        <v>3.2329845428466797</v>
+        <v>3.2333216667175293</v>
       </c>
     </row>
     <row r="467">
@@ -8011,13 +8011,13 @@
         <v>3.2167372703552246</v>
       </c>
       <c r="C467" s="2">
-        <v>3.2048971652984619</v>
+        <v>3.2047407627105713</v>
       </c>
       <c r="D467" s="2">
         <v>3.2822127342224121</v>
       </c>
       <c r="E467" s="2">
-        <v>3.2449424266815186</v>
+        <v>3.2452468872070313</v>
       </c>
     </row>
     <row r="468">
@@ -8028,13 +8028,13 @@
         <v>3.2351109981536865</v>
       </c>
       <c r="C468" s="2">
-        <v>3.2378950119018555</v>
+        <v>3.2385189533233643</v>
       </c>
       <c r="D468" s="2">
         <v>3.3174350261688232</v>
       </c>
       <c r="E468" s="2">
-        <v>3.2708866596221924</v>
+        <v>3.2713062763214111</v>
       </c>
     </row>
     <row r="469">
@@ -8045,13 +8045,13 @@
         <v>3.3614249229431152</v>
       </c>
       <c r="C469" s="2">
-        <v>3.2925596237182617</v>
+        <v>3.2930700778961182</v>
       </c>
       <c r="D469" s="2">
         <v>3.3219799995422363</v>
       </c>
       <c r="E469" s="2">
-        <v>3.2923338413238525</v>
+        <v>3.2928085327148438</v>
       </c>
     </row>
     <row r="470">
@@ -8062,13 +8062,13 @@
         <v>3.211613655090332</v>
       </c>
       <c r="C470" s="2">
-        <v>3.249117374420166</v>
+        <v>3.2490453720092774</v>
       </c>
       <c r="D470" s="2">
         <v>3.3007421493530273</v>
       </c>
       <c r="E470" s="2">
-        <v>3.2760419845581055</v>
+        <v>3.276578426361084</v>
       </c>
     </row>
     <row r="471">
@@ -8079,13 +8079,13 @@
         <v>3.5484046936035156</v>
       </c>
       <c r="C471" s="2">
-        <v>3.5573873519897461</v>
+        <v>3.5582470893859863</v>
       </c>
       <c r="D471" s="2">
         <v>3.3442409038543701</v>
       </c>
       <c r="E471" s="2">
-        <v>3.3202626705169678</v>
+        <v>3.3207845687866211</v>
       </c>
     </row>
     <row r="472">
@@ -8096,13 +8096,13 @@
         <v>3.3257477283477783</v>
       </c>
       <c r="C472" s="2">
-        <v>3.1855318546295166</v>
+        <v>3.1864359378814697</v>
       </c>
       <c r="D472" s="2">
         <v>3.3238921165466309</v>
       </c>
       <c r="E472" s="2">
-        <v>3.2958674430847168</v>
+        <v>3.2964138984680176</v>
       </c>
     </row>
     <row r="473">
@@ -8113,13 +8113,13 @@
         <v>3.3657293319702149</v>
       </c>
       <c r="C473" s="2">
-        <v>3.4025876522064209</v>
+        <v>3.4035353660583496</v>
       </c>
       <c r="D473" s="2">
         <v>3.3387739658355713</v>
       </c>
       <c r="E473" s="2">
-        <v>3.2923545837402344</v>
+        <v>3.2927834987640381</v>
       </c>
     </row>
     <row r="474">
@@ -8130,13 +8130,13 @@
         <v>3.2755124568939209</v>
       </c>
       <c r="C474" s="2">
-        <v>3.270618200302124</v>
+        <v>3.2712182998657227</v>
       </c>
       <c r="D474" s="2">
         <v>3.3244314193725586</v>
       </c>
       <c r="E474" s="2">
-        <v>3.2845602035522461</v>
+        <v>3.285022497177124</v>
       </c>
     </row>
     <row r="475">
@@ -8147,13 +8147,13 @@
         <v>3.557887077331543</v>
       </c>
       <c r="C475" s="2">
-        <v>3.4817695617675781</v>
+        <v>3.4822502136230469</v>
       </c>
       <c r="D475" s="2">
         <v>3.3224530220031738</v>
       </c>
       <c r="E475" s="2">
-        <v>3.2760043144226074</v>
+        <v>3.2765469551086426</v>
       </c>
     </row>
     <row r="476">
@@ -8164,13 +8164,13 @@
         <v>3.0335986614227295</v>
       </c>
       <c r="C476" s="2">
-        <v>2.9853413105010986</v>
+        <v>2.985403299331665</v>
       </c>
       <c r="D476" s="2">
         <v>3.3201529979705811</v>
       </c>
       <c r="E476" s="2">
-        <v>3.2608957290649414</v>
+        <v>3.2614057064056397</v>
       </c>
     </row>
     <row r="477">
@@ -8181,13 +8181,13 @@
         <v>3.3690464496612549</v>
       </c>
       <c r="C477" s="2">
-        <v>3.2062790393829346</v>
+        <v>3.2058451175689697</v>
       </c>
       <c r="D477" s="2">
         <v>3.3027467727661133</v>
       </c>
       <c r="E477" s="2">
-        <v>3.252669095993042</v>
+        <v>3.2531552314758301</v>
       </c>
     </row>
     <row r="478">
@@ -8198,13 +8198,13 @@
         <v>3.2323434352874756</v>
       </c>
       <c r="C478" s="2">
-        <v>3.2224090099334717</v>
+        <v>3.2232217788696289</v>
       </c>
       <c r="D478" s="2">
         <v>3.2677679061889649</v>
       </c>
       <c r="E478" s="2">
-        <v>3.2022097110748291</v>
+        <v>3.2026400566101074</v>
       </c>
     </row>
     <row r="479">
@@ -8215,13 +8215,13 @@
         <v>3.1938076019287109</v>
       </c>
       <c r="C479" s="2">
-        <v>3.1721150875091553</v>
+        <v>3.172764778137207</v>
       </c>
       <c r="D479" s="2">
         <v>3.2509391307830811</v>
       </c>
       <c r="E479" s="2">
-        <v>3.187323808670044</v>
+        <v>3.1877758502960205</v>
       </c>
     </row>
     <row r="480">
@@ -8232,13 +8232,13 @@
         <v>3.527705192565918</v>
       </c>
       <c r="C480" s="2">
-        <v>3.4214105606079102</v>
+        <v>3.4219775199890137</v>
       </c>
       <c r="D480" s="2">
         <v>3.1826138496398926</v>
       </c>
       <c r="E480" s="2">
-        <v>3.1229383945465088</v>
+        <v>3.1234626770019531</v>
       </c>
     </row>
     <row r="481">
@@ -8249,13 +8249,13 @@
         <v>3.1690912246704102</v>
       </c>
       <c r="C481" s="2">
-        <v>3.1114914417266846</v>
+        <v>3.112180233001709</v>
       </c>
       <c r="D481" s="2">
         <v>3.216069221496582</v>
       </c>
       <c r="E481" s="2">
-        <v>3.1599102020263672</v>
+        <v>3.1605262756347656</v>
       </c>
     </row>
     <row r="482">
@@ -8266,13 +8266,13 @@
         <v>3.0509192943572998</v>
       </c>
       <c r="C482" s="2">
-        <v>2.9484541416168213</v>
+        <v>2.9488987922668457</v>
       </c>
       <c r="D482" s="2">
         <v>3.1866574287414551</v>
       </c>
       <c r="E482" s="2">
-        <v>3.140390157699585</v>
+        <v>3.1411712169647217</v>
       </c>
     </row>
     <row r="483">
@@ -8283,13 +8283,13 @@
         <v>3.124053955078125</v>
       </c>
       <c r="C483" s="2">
-        <v>3.136643648147583</v>
+        <v>3.1374406814575195</v>
       </c>
       <c r="D483" s="2">
         <v>3.22096848487854</v>
       </c>
       <c r="E483" s="2">
-        <v>3.1684143543243408</v>
+        <v>3.1691813468933106</v>
       </c>
     </row>
     <row r="484">
@@ -8300,13 +8300,13 @@
         <v>2.9429597854614258</v>
       </c>
       <c r="C484" s="2">
-        <v>2.9023003578186035</v>
+        <v>2.9034318923950195</v>
       </c>
       <c r="D484" s="2">
         <v>3.2778096199035645</v>
       </c>
       <c r="E484" s="2">
-        <v>3.2323687076568604</v>
+        <v>3.2331376075744629</v>
       </c>
     </row>
     <row r="485">
@@ -8317,13 +8317,13 @@
         <v>3.3346970081329346</v>
       </c>
       <c r="C485" s="2">
-        <v>3.3180892467498779</v>
+        <v>3.3189756870269775</v>
       </c>
       <c r="D485" s="2">
         <v>3.2976031303405762</v>
       </c>
       <c r="E485" s="2">
-        <v>3.2572023868560791</v>
+        <v>3.2579770088195801</v>
       </c>
     </row>
     <row r="486">
@@ -8334,13 +8334,13 @@
         <v>3.1043403148651123</v>
       </c>
       <c r="C486" s="2">
-        <v>3.0305979251861572</v>
+        <v>3.0316505432128906</v>
       </c>
       <c r="D486" s="2">
         <v>3.2933359146118164</v>
       </c>
       <c r="E486" s="2">
-        <v>3.2530035972595215</v>
+        <v>3.2538540363311768</v>
       </c>
     </row>
     <row r="487">
@@ -8351,13 +8351,13 @@
         <v>3.5411427021026611</v>
       </c>
       <c r="C487" s="2">
-        <v>3.4746274948120117</v>
+        <v>3.475311279296875</v>
       </c>
       <c r="D487" s="2">
         <v>3.3664484024047852</v>
       </c>
       <c r="E487" s="2">
-        <v>3.3423056602478027</v>
+        <v>3.3431634902954102</v>
       </c>
     </row>
     <row r="488">
@@ -8368,13 +8368,13 @@
         <v>3.7053766250610352</v>
       </c>
       <c r="C488" s="2">
-        <v>3.7477025985717773</v>
+        <v>3.7483720779418945</v>
       </c>
       <c r="D488" s="2">
         <v>3.4156734943389893</v>
       </c>
       <c r="E488" s="2">
-        <v>3.389674186706543</v>
+        <v>3.3904740810394287</v>
       </c>
     </row>
     <row r="489">
@@ -8385,13 +8385,13 @@
         <v>3.7058470249176025</v>
       </c>
       <c r="C489" s="2">
-        <v>3.6449136734008789</v>
+        <v>3.6455328464508057</v>
       </c>
       <c r="D489" s="2">
         <v>3.4969873428344727</v>
       </c>
       <c r="E489" s="2">
-        <v>3.4781851768493652</v>
+        <v>3.4789125919342041</v>
       </c>
     </row>
     <row r="490">
@@ -8402,13 +8402,13 @@
         <v>3.1306874752044678</v>
       </c>
       <c r="C490" s="2">
-        <v>3.0737037658691406</v>
+        <v>3.0750715732574463</v>
       </c>
       <c r="D490" s="2">
         <v>3.4565737247467041</v>
       </c>
       <c r="E490" s="2">
-        <v>3.4443237781524658</v>
+        <v>3.4450802803039551</v>
       </c>
     </row>
     <row r="491">
@@ -8419,13 +8419,13 @@
         <v>3.708930253982544</v>
       </c>
       <c r="C491" s="2">
-        <v>3.7521729469299316</v>
+        <v>3.7526843547821045</v>
       </c>
       <c r="D491" s="2">
         <v>3.4550285339355469</v>
       </c>
       <c r="E491" s="2">
-        <v>3.4449203014373779</v>
+        <v>3.4456274509429932</v>
       </c>
     </row>
     <row r="492">
@@ -8436,13 +8436,13 @@
         <v>3.5670793056488037</v>
       </c>
       <c r="C492" s="2">
-        <v>3.5629594326019287</v>
+        <v>3.5632369518280029</v>
       </c>
       <c r="D492" s="2">
         <v>3.3958930969238281</v>
       </c>
       <c r="E492" s="2">
-        <v>3.3887944221496582</v>
+        <v>3.3894674777984619</v>
       </c>
     </row>
     <row r="493">
@@ -8453,13 +8453,13 @@
         <v>3.6747863292694092</v>
       </c>
       <c r="C493" s="2">
-        <v>3.6989002227783203</v>
+        <v>3.6993789672851563</v>
       </c>
       <c r="D493" s="2">
         <v>3.3094384670257568</v>
       </c>
       <c r="E493" s="2">
-        <v>3.2893638610839844</v>
+        <v>3.2900071144104004</v>
       </c>
     </row>
     <row r="494">
@@ -8470,13 +8470,13 @@
         <v>2.9709737300872803</v>
       </c>
       <c r="C494" s="2">
-        <v>3.0133368968963623</v>
+        <v>3.014484167098999</v>
       </c>
       <c r="D494" s="2">
         <v>3.233849048614502</v>
       </c>
       <c r="E494" s="2">
-        <v>3.2241723537445068</v>
+        <v>3.2248334884643555</v>
       </c>
     </row>
     <row r="495">
@@ -8487,13 +8487,13 @@
         <v>3.0904343128204346</v>
       </c>
       <c r="C495" s="2">
-        <v>3.0359659194946289</v>
+        <v>3.0365753173828125</v>
       </c>
       <c r="D495" s="2">
         <v>3.2887201309204102</v>
       </c>
       <c r="E495" s="2">
-        <v>3.2723274230957031</v>
+        <v>3.2729661464691162</v>
       </c>
     </row>
     <row r="496">
@@ -8504,13 +8504,13 @@
         <v>3.0089230537414551</v>
       </c>
       <c r="C496" s="2">
-        <v>2.9694945812225342</v>
+        <v>2.9698712825775147</v>
       </c>
       <c r="D496" s="2">
         <v>3.278853178024292</v>
       </c>
       <c r="E496" s="2">
-        <v>3.2592639923095703</v>
+        <v>3.2598991394042969</v>
       </c>
     </row>
     <row r="497">
@@ -8521,13 +8521,13 @@
         <v>2.9272847175598145</v>
       </c>
       <c r="C497" s="2">
-        <v>2.8528282642364502</v>
+        <v>2.853229284286499</v>
       </c>
       <c r="D497" s="2">
         <v>3.277618408203125</v>
       </c>
       <c r="E497" s="2">
-        <v>3.2556343078613281</v>
+        <v>3.2562687397003174</v>
       </c>
     </row>
     <row r="498">
@@ -8538,13 +8538,13 @@
         <v>3.025543212890625</v>
       </c>
       <c r="C498" s="2">
-        <v>3.0581891536712646</v>
+        <v>3.0589699745178223</v>
       </c>
       <c r="D498" s="2">
         <v>3.2586498260498047</v>
       </c>
       <c r="E498" s="2">
-        <v>3.2360930442810059</v>
+        <v>3.2368161678314209</v>
       </c>
     </row>
     <row r="499">
@@ -8555,13 +8555,13 @@
         <v>3.6245269775390625</v>
       </c>
       <c r="C499" s="2">
-        <v>3.5071001052856445</v>
+        <v>3.5082657337188721</v>
       </c>
       <c r="D499" s="2">
         <v>3.2885701656341553</v>
       </c>
       <c r="E499" s="2">
-        <v>3.2642192840576172</v>
+        <v>3.2649762630462647</v>
       </c>
     </row>
     <row r="500">
@@ -8572,13 +8572,13 @@
         <v>3.6201279163360596</v>
       </c>
       <c r="C500" s="2">
-        <v>3.6346020698547363</v>
+        <v>3.6350810527801514</v>
       </c>
       <c r="D500" s="2">
         <v>3.316361665725708</v>
       </c>
       <c r="E500" s="2">
-        <v>3.2721383571624756</v>
+        <v>3.2729086875915527</v>
       </c>
     </row>
     <row r="501">
@@ -8589,13 +8589,13 @@
         <v>3.5559659004211426</v>
       </c>
       <c r="C501" s="2">
-        <v>3.530292272567749</v>
+        <v>3.5305626392364502</v>
       </c>
       <c r="D501" s="2">
         <v>3.3411548137664795</v>
       </c>
       <c r="E501" s="2">
-        <v>3.3002827167510986</v>
+        <v>3.3010268211364746</v>
       </c>
     </row>
     <row r="502">
@@ -8606,13 +8606,13 @@
         <v>3.5040690898895264</v>
       </c>
       <c r="C502" s="2">
-        <v>3.5230271816253662</v>
+        <v>3.5243053436279297</v>
       </c>
       <c r="D502" s="2">
         <v>3.3402423858642578</v>
       </c>
       <c r="E502" s="2">
-        <v>3.2887034416198731</v>
+        <v>3.2894418239593506</v>
       </c>
     </row>
     <row r="503">
@@ -8623,13 +8623,13 @@
         <v>3.24025559425354</v>
       </c>
       <c r="C503" s="2">
-        <v>3.2664732933044434</v>
+        <v>3.2679247856140137</v>
       </c>
       <c r="D503" s="2">
         <v>3.3367319107055664</v>
       </c>
       <c r="E503" s="2">
-        <v>3.2874312400817871</v>
+        <v>3.2882215976715088</v>
       </c>
     </row>
     <row r="504">
@@ -8640,13 +8640,13 @@
         <v>3.3405587673187256</v>
       </c>
       <c r="C504" s="2">
-        <v>3.1072378158569336</v>
+        <v>3.1079690456390381</v>
       </c>
       <c r="D504" s="2">
         <v>3.3683757781982422</v>
       </c>
       <c r="E504" s="2">
-        <v>3.3338589668273926</v>
+        <v>3.3345909118652344</v>
       </c>
     </row>
     <row r="505">
@@ -8657,13 +8657,13 @@
         <v>3.2320601940155029</v>
       </c>
       <c r="C505" s="2">
-        <v>3.2227940559387207</v>
+        <v>3.2229328155517578</v>
       </c>
       <c r="D505" s="2">
         <v>3.6003420352935791</v>
       </c>
       <c r="E505" s="2">
-        <v>3.5531375408172608</v>
+        <v>3.5538871288299561</v>
       </c>
     </row>
     <row r="506">
@@ -8674,13 +8674,13 @@
         <v>2.9190728664398193</v>
       </c>
       <c r="C506" s="2">
-        <v>2.7486157417297363</v>
+        <v>2.7489640712738037</v>
       </c>
       <c r="D506" s="2">
         <v>3.8552887439727783</v>
       </c>
       <c r="E506" s="2">
-        <v>3.8043572902679443</v>
+        <v>3.8051633834838867</v>
       </c>
     </row>
     <row r="507">
@@ -8691,13 +8691,13 @@
         <v>2.9939491748809815</v>
       </c>
       <c r="C507" s="2">
-        <v>3.0467393398284912</v>
+        <v>3.0479879379272461</v>
       </c>
       <c r="D507" s="2">
         <v>3.9692280292510986</v>
       </c>
       <c r="E507" s="2">
-        <v>3.9094517230987549</v>
+        <v>3.9101815223693848</v>
       </c>
     </row>
     <row r="508">
@@ -8708,13 +8708,13 @@
         <v>3.9093215465545654</v>
       </c>
       <c r="C508" s="2">
-        <v>3.9249486923217773</v>
+        <v>3.9255907535552979</v>
       </c>
       <c r="D508" s="2">
         <v>4.1104598045349121</v>
       </c>
       <c r="E508" s="2">
-        <v>4.0403885841369629</v>
+        <v>4.0409793853759766</v>
       </c>
     </row>
     <row r="509">
@@ -8725,13 +8725,13 @@
         <v>5.70782470703125</v>
       </c>
       <c r="C509" s="2">
-        <v>5.6081094741821289</v>
+        <v>5.6087474822998047</v>
       </c>
       <c r="D509" s="2">
         <v>4.2469882965087891</v>
       </c>
       <c r="E509" s="2">
-        <v>4.2056369781494141</v>
+        <v>4.2061848640441895</v>
       </c>
     </row>
     <row r="510">
@@ -8742,13 +8742,13 @@
         <v>5.850487232208252</v>
       </c>
       <c r="C510" s="2">
-        <v>5.7912697792053223</v>
+        <v>5.7920479774475098</v>
       </c>
       <c r="D510" s="2">
         <v>4.3552389144897461</v>
       </c>
       <c r="E510" s="2">
-        <v>4.3144893646240234</v>
+        <v>4.3150653839111328</v>
       </c>
     </row>
     <row r="511">
@@ -8759,13 +8759,13 @@
         <v>4.5295224189758301</v>
       </c>
       <c r="C511" s="2">
-        <v>4.4688777923583984</v>
+        <v>4.4694681167602539</v>
       </c>
       <c r="D511" s="2">
         <v>4.4503674507141113</v>
       </c>
       <c r="E511" s="2">
-        <v>4.4114198684692383</v>
+        <v>4.4120445251464844</v>
       </c>
     </row>
     <row r="512">
@@ -8776,13 +8776,13 @@
         <v>4.5113420486450195</v>
       </c>
       <c r="C512" s="2">
-        <v>4.4449057579040527</v>
+        <v>4.4451084136962891</v>
       </c>
       <c r="D512" s="2">
         <v>4.5743598937988281</v>
       </c>
       <c r="E512" s="2">
-        <v>4.5300259590148926</v>
+        <v>4.530613899230957</v>
       </c>
     </row>
     <row r="513">
@@ -8793,13 +8793,13 @@
         <v>4.5693154335021973</v>
       </c>
       <c r="C513" s="2">
-        <v>4.5944728851318359</v>
+        <v>4.5948143005371094</v>
       </c>
       <c r="D513" s="2">
         <v>4.6378192901611328</v>
       </c>
       <c r="E513" s="2">
-        <v>4.6076478958129883</v>
+        <v>4.6081514358520508</v>
       </c>
     </row>
     <row r="514">
@@ -8810,13 +8810,13 @@
         <v>4.2063159942626953</v>
       </c>
       <c r="C514" s="2">
-        <v>4.2024660110473633</v>
+        <v>4.2028594017028809</v>
       </c>
       <c r="D514" s="2">
         <v>4.4920592308044434</v>
       </c>
       <c r="E514" s="2">
-        <v>4.4769163131713867</v>
+        <v>4.4773435592651367</v>
       </c>
     </row>
     <row r="515">
@@ -8827,13 +8827,13 @@
         <v>3.7752299308776856</v>
       </c>
       <c r="C515" s="2">
-        <v>3.6209876537322998</v>
+        <v>3.6217775344848633</v>
       </c>
       <c r="D515" s="2">
         <v>4.3292365074157715</v>
       </c>
       <c r="E515" s="2">
-        <v>4.3216381072998047</v>
+        <v>4.3219404220581055</v>
       </c>
     </row>
     <row r="516">
@@ -8844,13 +8844,13 @@
         <v>4.1098775863647461</v>
       </c>
       <c r="C516" s="2">
-        <v>4.114194393157959</v>
+        <v>4.115109920501709</v>
       </c>
       <c r="D516" s="2">
         <v>4.2806987762451172</v>
       </c>
       <c r="E516" s="2">
-        <v>4.2708892822265625</v>
+        <v>4.2711329460144043</v>
       </c>
     </row>
     <row r="517">
@@ -8861,13 +8861,13 @@
         <v>4.4804592132568359</v>
       </c>
       <c r="C517" s="2">
-        <v>4.6235485076904297</v>
+        <v>4.6234288215637207</v>
       </c>
       <c r="D517" s="2">
         <v>4.2383441925048828</v>
       </c>
       <c r="E517" s="2">
-        <v>4.2458815574645996</v>
+        <v>4.2462344169616699</v>
       </c>
     </row>
     <row r="518">
@@ -8878,13 +8878,13 @@
         <v>4.3959846496582031</v>
       </c>
       <c r="C518" s="2">
-        <v>4.4315261840820313</v>
+        <v>4.4314785003662109</v>
       </c>
       <c r="D518" s="2">
         <v>4.2485189437866211</v>
       </c>
       <c r="E518" s="2">
-        <v>4.245934009552002</v>
+        <v>4.2463474273681641</v>
       </c>
     </row>
     <row r="519">
@@ -8895,13 +8895,13 @@
         <v>4.3850827217102051</v>
       </c>
       <c r="C519" s="2">
-        <v>4.393765926361084</v>
+        <v>4.3934173583984375</v>
       </c>
       <c r="D519" s="2">
         <v>4.3535876274108887</v>
       </c>
       <c r="E519" s="2">
-        <v>4.3375177383422852</v>
+        <v>4.3379368782043457</v>
       </c>
     </row>
     <row r="520">
@@ -8912,13 +8912,13 @@
         <v>4.0926823616027832</v>
       </c>
       <c r="C520" s="2">
-        <v>4.0121374130249024</v>
+        <v>4.0122032165527344</v>
       </c>
       <c r="D520" s="2">
         <v>4.4861111640930176</v>
       </c>
       <c r="E520" s="2">
-        <v>4.4866228103637695</v>
+        <v>4.4870176315307617</v>
       </c>
     </row>
     <row r="521">
@@ -8929,13 +8929,13 @@
         <v>4.1301479339599609</v>
       </c>
       <c r="C521" s="2">
-        <v>4.2198348045349121</v>
+        <v>4.2210211753845215</v>
       </c>
       <c r="D521" s="2">
         <v>4.5787687301635742</v>
       </c>
       <c r="E521" s="2">
-        <v>4.5835399627685547</v>
+        <v>4.5839352607727051</v>
       </c>
     </row>
     <row r="522">
@@ -8946,13 +8946,13 @@
         <v>4.660888671875</v>
       </c>
       <c r="C522" s="2">
-        <v>4.5949435234069824</v>
+        <v>4.5958294868469238</v>
       </c>
       <c r="D522" s="2">
         <v>4.7003388404846191</v>
       </c>
       <c r="E522" s="2">
-        <v>4.6841621398925781</v>
+        <v>4.6846671104431152</v>
       </c>
     </row>
     <row r="523">
@@ -8963,13 +8963,13 @@
         <v>5.1519336700439453</v>
       </c>
       <c r="C523" s="2">
-        <v>5.0267210006713867</v>
+        <v>5.0271668434143066</v>
       </c>
       <c r="D523" s="2">
         <v>4.7933120727539063</v>
       </c>
       <c r="E523" s="2">
-        <v>4.756798267364502</v>
+        <v>4.7573256492614746</v>
       </c>
     </row>
     <row r="524">
@@ -8980,13 +8980,13 @@
         <v>4.9679455757141113</v>
       </c>
       <c r="C524" s="2">
-        <v>4.9629330635070801</v>
+        <v>4.9635047912597656</v>
       </c>
       <c r="D524" s="2">
         <v>4.8824996948242188</v>
       </c>
       <c r="E524" s="2">
-        <v>4.8399691581726074</v>
+        <v>4.8404793739318848</v>
       </c>
     </row>
     <row r="525">
@@ -8997,13 +8997,13 @@
         <v>4.9437952041625977</v>
       </c>
       <c r="C525" s="2">
-        <v>4.9864487648010254</v>
+        <v>4.98736572265625</v>
       </c>
       <c r="D525" s="2">
         <v>5.0670738220214844</v>
       </c>
       <c r="E525" s="2">
-        <v>5.0415215492248535</v>
+        <v>5.042078971862793</v>
       </c>
     </row>
     <row r="526">
@@ -9014,13 +9014,13 @@
         <v>5.5745902061462402</v>
       </c>
       <c r="C526" s="2">
-        <v>5.529149055480957</v>
+        <v>5.5300178527832031</v>
       </c>
       <c r="D526" s="2">
         <v>5.1949796676635742</v>
       </c>
       <c r="E526" s="2">
-        <v>5.1486878395080567</v>
+        <v>5.1491436958312988</v>
       </c>
     </row>
     <row r="527">
@@ -9031,13 +9031,13 @@
         <v>5.2327427864074707</v>
       </c>
       <c r="C527" s="2">
-        <v>5.0852503776550293</v>
+        <v>5.0854029655456543</v>
       </c>
       <c r="D527" s="2">
         <v>5.2232699394226074</v>
       </c>
       <c r="E527" s="2">
-        <v>5.178067684173584</v>
+        <v>5.1784892082214355</v>
       </c>
     </row>
     <row r="528">
@@ -9048,13 +9048,13 @@
         <v>5.1877713203430176</v>
       </c>
       <c r="C528" s="2">
-        <v>5.142305850982666</v>
+        <v>5.1418037414550781</v>
       </c>
       <c r="D528" s="2">
         <v>5.2693939208984375</v>
       </c>
       <c r="E528" s="2">
-        <v>5.2326583862304688</v>
+        <v>5.2329730987548828</v>
       </c>
     </row>
     <row r="529">
@@ -9065,13 +9065,13 @@
         <v>5.7538480758666992</v>
       </c>
       <c r="C529" s="2">
-        <v>5.8261065483093262</v>
+        <v>5.826596736907959</v>
       </c>
       <c r="D529" s="2">
         <v>5.3304028511047363</v>
       </c>
       <c r="E529" s="2">
-        <v>5.2934470176696777</v>
+        <v>5.2937583923339844</v>
       </c>
     </row>
     <row r="530">
@@ -9082,13 +9082,13 @@
         <v>5.2813014984130859</v>
       </c>
       <c r="C530" s="2">
-        <v>5.1843314170837402</v>
+        <v>5.1846051216125488</v>
       </c>
       <c r="D530" s="2">
         <v>5.4217104911804199</v>
       </c>
       <c r="E530" s="2">
-        <v>5.3868217468261719</v>
+        <v>5.3871068954467774</v>
       </c>
     </row>
     <row r="531">
@@ -9099,13 +9099,13 @@
         <v>4.915501594543457</v>
       </c>
       <c r="C531" s="2">
-        <v>4.8593630790710449</v>
+        <v>4.8599390983581543</v>
       </c>
       <c r="D531" s="2">
         <v>5.4156079292297363</v>
       </c>
       <c r="E531" s="2">
-        <v>5.3795900344848633</v>
+        <v>5.3797335624694824</v>
       </c>
     </row>
     <row r="532">
@@ -9116,13 +9116,13 @@
         <v>5.5670490264892578</v>
       </c>
       <c r="C532" s="2">
-        <v>5.5180363655090332</v>
+        <v>5.5175209045410156</v>
       </c>
       <c r="D532" s="2">
         <v>5.4558911323547363</v>
       </c>
       <c r="E532" s="2">
-        <v>5.4316062927246094</v>
+        <v>5.4317030906677246</v>
       </c>
     </row>
     <row r="533">
@@ -9133,13 +9133,13 @@
         <v>5.5170273780822754</v>
       </c>
       <c r="C533" s="2">
-        <v>5.5100302696228027</v>
+        <v>5.5105733871459961</v>
       </c>
       <c r="D533" s="2">
         <v>5.5727348327636719</v>
       </c>
       <c r="E533" s="2">
-        <v>5.5565767288208008</v>
+        <v>5.5566487312316895</v>
       </c>
     </row>
     <row r="534">
@@ -9150,13 +9150,13 @@
         <v>5.7655625343322754</v>
       </c>
       <c r="C534" s="2">
-        <v>5.8268222808837891</v>
+        <v>5.8275032043457031</v>
       </c>
       <c r="D534" s="2">
         <v>5.6403322219848633</v>
       </c>
       <c r="E534" s="2">
-        <v>5.6113228797912598</v>
+        <v>5.611299991607666</v>
       </c>
     </row>
     <row r="535">
@@ -9167,13 +9167,13 @@
         <v>5.5196666717529297</v>
       </c>
       <c r="C535" s="2">
-        <v>5.4640655517578125</v>
+        <v>5.4636578559875488</v>
       </c>
       <c r="D535" s="2">
         <v>5.779301643371582</v>
       </c>
       <c r="E535" s="2">
-        <v>5.738128662109375</v>
+        <v>5.7380928993225098</v>
       </c>
     </row>
     <row r="536">
@@ -9184,13 +9184,13 @@
         <v>5.5952920913696289</v>
       </c>
       <c r="C536" s="2">
-        <v>5.5533933639526367</v>
+        <v>5.5531291961669922</v>
       </c>
       <c r="D536" s="2">
         <v>5.8993611335754395</v>
       </c>
       <c r="E536" s="2">
-        <v>5.8575253486633301</v>
+        <v>5.8574595451354981</v>
       </c>
     </row>
     <row r="537">
@@ -9201,13 +9201,13 @@
         <v>6.2393627166748047</v>
       </c>
       <c r="C537" s="2">
-        <v>6.2670435905456543</v>
+        <v>6.2663145065307617</v>
       </c>
       <c r="D537" s="2">
         <v>5.9830894470214844</v>
       </c>
       <c r="E537" s="2">
-        <v>5.9489998817443848</v>
+        <v>5.9489021301269531</v>
       </c>
     </row>
     <row r="538">
@@ -9218,13 +9218,13 @@
         <v>6.3622269630432129</v>
       </c>
       <c r="C538" s="2">
-        <v>6.3188185691833496</v>
+        <v>6.3184566497802734</v>
       </c>
       <c r="D538" s="2">
         <v>5.9506516456604004</v>
       </c>
       <c r="E538" s="2">
-        <v>5.9220576286315918</v>
+        <v>5.9219789505004883</v>
       </c>
     </row>
     <row r="539">
@@ -9235,13 +9235,13 @@
         <v>6.5320248603820801</v>
       </c>
       <c r="C539" s="2">
-        <v>6.3255863189697266</v>
+        <v>6.3257403373718262</v>
       </c>
       <c r="D539" s="2">
         <v>5.9368720054626465</v>
       </c>
       <c r="E539" s="2">
-        <v>5.9010524749755859</v>
+        <v>5.9008922576904297</v>
       </c>
     </row>
     <row r="540">
@@ -9252,13 +9252,13 @@
         <v>5.9960389137268067</v>
       </c>
       <c r="C540" s="2">
-        <v>5.9339337348937988</v>
+        <v>5.9342384338378906</v>
       </c>
       <c r="D540" s="2">
         <v>5.94476318359375</v>
       </c>
       <c r="E540" s="2">
-        <v>5.9163870811462402</v>
+        <v>5.9163532257080078</v>
       </c>
     </row>
     <row r="541">
@@ -9269,13 +9269,13 @@
         <v>6.3206038475036621</v>
       </c>
       <c r="C541" s="2">
-        <v>6.3413043022155762</v>
+        <v>6.3405051231384277</v>
       </c>
       <c r="D541" s="2">
         <v>5.9007554054260254</v>
       </c>
       <c r="E541" s="2">
-        <v>5.8644890785217285</v>
+        <v>5.8645138740539551</v>
       </c>
     </row>
     <row r="542">
@@ -9286,13 +9286,13 @@
         <v>5.2250876426696777</v>
       </c>
       <c r="C542" s="2">
-        <v>5.2675514221191406</v>
+        <v>5.2682662010192871</v>
       </c>
       <c r="D542" s="2">
         <v>5.7901620864868164</v>
       </c>
       <c r="E542" s="2">
-        <v>5.7564659118652344</v>
+        <v>5.7565088272094727</v>
       </c>
     </row>
     <row r="543">
@@ -9303,13 +9303,13 @@
         <v>5.641545295715332</v>
       </c>
       <c r="C543" s="2">
-        <v>5.6377744674682617</v>
+        <v>5.6377220153808594</v>
       </c>
       <c r="D543" s="2">
         <v>5.6473541259765625</v>
       </c>
       <c r="E543" s="2">
-        <v>5.6031713485717773</v>
+        <v>5.6031990051269531</v>
       </c>
     </row>
     <row r="544">
@@ -9320,13 +9320,13 @@
         <v>5.5906858444213867</v>
       </c>
       <c r="C544" s="2">
-        <v>5.6020784378051758</v>
+        <v>5.6028056144714355</v>
       </c>
       <c r="D544" s="2">
         <v>5.4985289573669434</v>
       </c>
       <c r="E544" s="2">
-        <v>5.4787225723266602</v>
+        <v>5.4787135124206543</v>
       </c>
     </row>
     <row r="545">
@@ -9337,13 +9337,13 @@
         <v>5.1992244720458984</v>
       </c>
       <c r="C545" s="2">
-        <v>5.0863118171691895</v>
+        <v>5.0865740776062012</v>
       </c>
       <c r="D545" s="2">
         <v>5.3203144073486328</v>
       </c>
       <c r="E545" s="2">
-        <v>5.2992563247680664</v>
+        <v>5.2991490364074707</v>
       </c>
     </row>
     <row r="546">
@@ -9354,13 +9354,13 @@
         <v>5.244020938873291</v>
       </c>
       <c r="C546" s="2">
-        <v>5.2948336601257324</v>
+        <v>5.2942709922790527</v>
       </c>
       <c r="D546" s="2">
         <v>5.1088137626647949</v>
       </c>
       <c r="E546" s="2">
-        <v>5.0796718597412109</v>
+        <v>5.0795903205871582</v>
       </c>
     </row>
     <row r="547">
@@ -9371,13 +9371,13 @@
         <v>5.0769534111022949</v>
       </c>
       <c r="C547" s="2">
-        <v>4.9391674995422363</v>
+        <v>4.9386672973632813</v>
       </c>
       <c r="D547" s="2">
         <v>5.1014866828918457</v>
       </c>
       <c r="E547" s="2">
-        <v>5.0732541084289551</v>
+        <v>5.073145866394043</v>
       </c>
     </row>
     <row r="548">
@@ -9388,13 +9388,13 @@
         <v>5.1925992965698242</v>
       </c>
       <c r="C548" s="2">
-        <v>5.2055492401123047</v>
+        <v>5.2053718566894531</v>
       </c>
       <c r="D548" s="2">
         <v>5.0389404296875</v>
       </c>
       <c r="E548" s="2">
-        <v>5.0081720352172852</v>
+        <v>5.0079755783081055</v>
       </c>
     </row>
     <row r="549">
@@ -9405,13 +9405,13 @@
         <v>4.3921093940734863</v>
       </c>
       <c r="C549" s="2">
-        <v>4.3187365531921387</v>
+        <v>4.3181600570678711</v>
       </c>
       <c r="D549" s="2">
         <v>4.9624805450439453</v>
       </c>
       <c r="E549" s="2">
-        <v>4.9170613288879395</v>
+        <v>4.9167256355285645</v>
       </c>
     </row>
     <row r="550">
@@ -9422,13 +9422,13 @@
         <v>4.4170994758605957</v>
       </c>
       <c r="C550" s="2">
-        <v>4.365044116973877</v>
+        <v>4.3644747734069824</v>
       </c>
       <c r="D550" s="2">
         <v>4.8666276931762695</v>
       </c>
       <c r="E550" s="2">
-        <v>4.8366179466247559</v>
+        <v>4.8361845016479492</v>
       </c>
     </row>
     <row r="551">
@@ -9439,13 +9439,13 @@
         <v>5.1591434478759766</v>
       </c>
       <c r="C551" s="2">
-        <v>5.2097930908203125</v>
+        <v>5.2102642059326172</v>
       </c>
       <c r="D551" s="2">
         <v>4.8695583343505859</v>
       </c>
       <c r="E551" s="2">
-        <v>4.835477352142334</v>
+        <v>4.8350324630737305</v>
       </c>
     </row>
     <row r="552">
@@ -9456,13 +9456,13 @@
         <v>5.0786275863647461</v>
       </c>
       <c r="C552" s="2">
-        <v>5.0520343780517578</v>
+        <v>5.0511922836303711</v>
       </c>
       <c r="D552" s="2">
         <v>4.8698391914367676</v>
       </c>
       <c r="E552" s="2">
-        <v>4.8251967430114746</v>
+        <v>4.8247685432434082</v>
       </c>
     </row>
     <row r="553">
@@ -9473,13 +9473,13 @@
         <v>4.9025483131408691</v>
       </c>
       <c r="C553" s="2">
-        <v>4.7820820808410645</v>
+        <v>4.7815570831298828</v>
       </c>
       <c r="D553" s="2">
-        <v>4.7510867118835449</v>
+        <v>4.7778716087341309</v>
       </c>
       <c r="E553" s="2">
-        <v>4.7091455459594727</v>
+        <v>4.7255196571350098</v>
       </c>
     </row>
     <row r="554">
@@ -9490,13 +9490,13 @@
         <v>4.3365478515625</v>
       </c>
       <c r="C554" s="2">
-        <v>4.3623213768005371</v>
+        <v>4.3617005348205567</v>
       </c>
       <c r="D554" s="2">
-        <v>4.7816629409790039</v>
+        <v>4.8133854866027832</v>
       </c>
       <c r="E554" s="2">
-        <v>4.7309732437133789</v>
+        <v>4.7487359046936035</v>
       </c>
     </row>
     <row r="555">
@@ -9507,13 +9507,13 @@
         <v>5.2703976631164551</v>
       </c>
       <c r="C555" s="2">
-        <v>5.2845697402954102</v>
+        <v>5.2839031219482422</v>
       </c>
       <c r="D555" s="2">
-        <v>4.8540267944335938</v>
+        <v>4.8742027282714844</v>
       </c>
       <c r="E555" s="2">
-        <v>4.8150506019592285</v>
+        <v>4.8152165412902832</v>
       </c>
     </row>
     <row r="556">
@@ -9524,13 +9524,13 @@
         <v>5.0794796943664551</v>
       </c>
       <c r="C556" s="2">
-        <v>4.8466396331787109</v>
+        <v>4.8462915420532227</v>
       </c>
       <c r="D556" s="2">
-        <v>4.391899585723877</v>
+        <v>4.8413186073303223</v>
       </c>
       <c r="E556" s="2">
-        <v>4.3519043922424316</v>
+        <v>4.760004997253418</v>
       </c>
     </row>
     <row r="557">
@@ -9538,16 +9538,16 @@
         <v>45383</v>
       </c>
       <c r="B557" s="2">
-        <v>4.1238250732421875</v>
+        <v>4.3648896217346191</v>
       </c>
       <c r="C557" s="2">
-        <v>4.1610870361328125</v>
+        <v>4.3121328353881836</v>
       </c>
       <c r="D557" s="2">
-        <v>4.5562119483947754</v>
+        <v>4.8667826652526855</v>
       </c>
       <c r="E557" s="2">
-        <v>4.5069880485534668</v>
+        <v>4.7697906494140625</v>
       </c>
     </row>
     <row r="558">
@@ -9555,16 +9555,16 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>4.66729736328125</v>
+        <v>4.7117362022399902</v>
       </c>
       <c r="C558" s="2">
-        <v>4.5151867866516113</v>
+        <v>4.5271077156066895</v>
       </c>
       <c r="D558" s="2">
-        <v>4.5129199028015137</v>
+        <v>4.8623123168945313</v>
       </c>
       <c r="E558" s="2">
-        <v>4.4726014137268066</v>
+        <v>4.7683196067810059</v>
       </c>
     </row>
     <row r="559">
@@ -9572,16 +9572,16 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>5.0683727264404297</v>
+        <v>4.9644546508789063</v>
       </c>
       <c r="C559" s="2">
-        <v>5.1217403411865234</v>
+        <v>4.9627995491027832</v>
       </c>
       <c r="D559" s="2">
-        <v>4.5381159782409668</v>
+        <v>4.9374213218688965</v>
       </c>
       <c r="E559" s="2">
-        <v>4.4883556365966797</v>
+        <v>4.8264079093933106</v>
       </c>
     </row>
     <row r="560">
@@ -9589,16 +9589,16 @@
         <v>45474</v>
       </c>
       <c r="B560" s="2">
-        <v>1</v>
+        <v>4.8631839752197266</v>
       </c>
       <c r="C560" s="2">
-        <v>1.041478157043457</v>
+        <v>4.7133584022521973</v>
       </c>
       <c r="D560" s="2">
-        <v>4.4160690307617188</v>
+        <v>4.881925106048584</v>
       </c>
       <c r="E560" s="2">
-        <v>4.3556532859802246</v>
+        <v>4.7501587867736817</v>
       </c>
     </row>
     <row r="561">
@@ -9606,16 +9606,16 @@
         <v>45505</v>
       </c>
       <c r="B561" s="2">
-        <v>6.5574383735656738</v>
+        <v>5.3078069686889649</v>
       </c>
       <c r="C561" s="2">
-        <v>6.4477882385253906</v>
+        <v>5.1392631530761719</v>
       </c>
       <c r="D561" s="2">
-        <v>4.2833867073059082</v>
+        <v>4.8424143791198731</v>
       </c>
       <c r="E561" s="2">
-        <v>4.2574563026428223</v>
+        <v>4.7309322357177734</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_stdev.xlsx
+++ b/MSC_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E561"/>
+  <dimension ref="A1:E567"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,13 +106,13 @@
         <v>3.9173924922943115</v>
       </c>
       <c r="C2" s="2">
-        <v>3.926511287689209</v>
+        <v>3.9260034561157227</v>
       </c>
       <c r="D2" s="2">
         <v>4.3444499969482422</v>
       </c>
       <c r="E2" s="2">
-        <v>4.3453578948974609</v>
+        <v>4.3447656631469727</v>
       </c>
     </row>
     <row r="3">
@@ -123,13 +123,13 @@
         <v>4.6166448593139648</v>
       </c>
       <c r="C3" s="2">
-        <v>4.5758566856384277</v>
+        <v>4.5750670433044434</v>
       </c>
       <c r="D3" s="2">
         <v>4.3426127433776856</v>
       </c>
       <c r="E3" s="2">
-        <v>4.3407530784606934</v>
+        <v>4.3401055335998535</v>
       </c>
     </row>
     <row r="4">
@@ -140,13 +140,13 @@
         <v>4.3726387023925781</v>
       </c>
       <c r="C4" s="2">
-        <v>4.4117813110351563</v>
+        <v>4.4105319976806641</v>
       </c>
       <c r="D4" s="2">
         <v>4.3223543167114258</v>
       </c>
       <c r="E4" s="2">
-        <v>4.3223323822021484</v>
+        <v>4.3215813636779785</v>
       </c>
     </row>
     <row r="5">
@@ -157,13 +157,13 @@
         <v>4.0475072860717773</v>
       </c>
       <c r="C5" s="2">
-        <v>4.0784220695495605</v>
+        <v>4.077728271484375</v>
       </c>
       <c r="D5" s="2">
         <v>4.3720974922180176</v>
       </c>
       <c r="E5" s="2">
-        <v>4.3658022880554199</v>
+        <v>4.3652281761169434</v>
       </c>
     </row>
     <row r="6">
@@ -174,13 +174,13 @@
         <v>4.76806640625</v>
       </c>
       <c r="C6" s="2">
-        <v>4.7342190742492676</v>
+        <v>4.7344970703125</v>
       </c>
       <c r="D6" s="2">
         <v>4.3931341171264648</v>
       </c>
       <c r="E6" s="2">
-        <v>4.3917350769042969</v>
+        <v>4.3911099433898926</v>
       </c>
     </row>
     <row r="7">
@@ -191,13 +191,13 @@
         <v>4.3334264755249024</v>
       </c>
       <c r="C7" s="2">
-        <v>4.3177280426025391</v>
+        <v>4.316805362701416</v>
       </c>
       <c r="D7" s="2">
         <v>4.4254779815673828</v>
       </c>
       <c r="E7" s="2">
-        <v>4.4274859428405762</v>
+        <v>4.4268088340759277</v>
       </c>
     </row>
     <row r="8">
@@ -208,13 +208,13 @@
         <v>4.2008047103881836</v>
       </c>
       <c r="C8" s="2">
-        <v>4.2118091583251953</v>
+        <v>4.2104349136352539</v>
       </c>
       <c r="D8" s="2">
         <v>4.3980436325073242</v>
       </c>
       <c r="E8" s="2">
-        <v>4.410736083984375</v>
+        <v>4.4101791381835938</v>
       </c>
     </row>
     <row r="9">
@@ -225,13 +225,13 @@
         <v>4.7202978134155273</v>
       </c>
       <c r="C9" s="2">
-        <v>4.6700906753540039</v>
+        <v>4.6707558631896973</v>
       </c>
       <c r="D9" s="2">
         <v>4.3640079498291016</v>
       </c>
       <c r="E9" s="2">
-        <v>4.3793258666992188</v>
+        <v>4.3788604736328125</v>
       </c>
     </row>
     <row r="10">
@@ -242,13 +242,13 @@
         <v>4.5614290237426758</v>
       </c>
       <c r="C10" s="2">
-        <v>4.5991992950439453</v>
+        <v>4.5981674194335938</v>
       </c>
       <c r="D10" s="2">
         <v>4.3777251243591309</v>
       </c>
       <c r="E10" s="2">
-        <v>4.3892002105712891</v>
+        <v>4.3887786865234375</v>
       </c>
     </row>
     <row r="11">
@@ -259,13 +259,13 @@
         <v>4.2084870338439942</v>
       </c>
       <c r="C11" s="2">
-        <v>4.2482690811157227</v>
+        <v>4.2472896575927734</v>
       </c>
       <c r="D11" s="2">
         <v>4.3681507110595703</v>
       </c>
       <c r="E11" s="2">
-        <v>4.3830428123474121</v>
+        <v>4.3825502395629883</v>
       </c>
     </row>
     <row r="12">
@@ -276,13 +276,13 @@
         <v>4.3697357177734375</v>
       </c>
       <c r="C12" s="2">
-        <v>4.4251079559326172</v>
+        <v>4.4254035949707031</v>
       </c>
       <c r="D12" s="2">
         <v>4.3958420753479004</v>
       </c>
       <c r="E12" s="2">
-        <v>4.4148416519165039</v>
+        <v>4.414299488067627</v>
       </c>
     </row>
     <row r="13">
@@ -293,13 +293,13 @@
         <v>4.0663175582885742</v>
       </c>
       <c r="C13" s="2">
-        <v>4.1290888786315918</v>
+        <v>4.1286635398864746</v>
       </c>
       <c r="D13" s="2">
         <v>4.4586381912231445</v>
       </c>
       <c r="E13" s="2">
-        <v>4.4721875190734863</v>
+        <v>4.4717659950256348</v>
       </c>
     </row>
     <row r="14">
@@ -310,13 +310,13 @@
         <v>4.17095947265625</v>
       </c>
       <c r="C14" s="2">
-        <v>4.1672887802124024</v>
+        <v>4.1669912338256836</v>
       </c>
       <c r="D14" s="2">
         <v>4.494420051574707</v>
       </c>
       <c r="E14" s="2">
-        <v>4.5143232345581055</v>
+        <v>4.5136737823486328</v>
       </c>
     </row>
     <row r="15">
@@ -327,13 +327,13 @@
         <v>4.6818990707397461</v>
       </c>
       <c r="C15" s="2">
-        <v>4.6788015365600586</v>
+        <v>4.678441047668457</v>
       </c>
       <c r="D15" s="2">
         <v>4.5557160377502441</v>
       </c>
       <c r="E15" s="2">
-        <v>4.567777156829834</v>
+        <v>4.5671977996826172</v>
       </c>
     </row>
     <row r="16">
@@ -344,13 +344,13 @@
         <v>4.5826473236083984</v>
       </c>
       <c r="C16" s="2">
-        <v>4.6039214134216309</v>
+        <v>4.6025471687316895</v>
       </c>
       <c r="D16" s="2">
         <v>4.6873102188110352</v>
       </c>
       <c r="E16" s="2">
-        <v>4.6933383941650391</v>
+        <v>4.6928133964538574</v>
       </c>
     </row>
     <row r="17">
@@ -361,13 +361,13 @@
         <v>4.7659707069396973</v>
       </c>
       <c r="C17" s="2">
-        <v>4.7279205322265625</v>
+        <v>4.727632999420166</v>
       </c>
       <c r="D17" s="2">
         <v>4.7952098846435547</v>
       </c>
       <c r="E17" s="2">
-        <v>4.7859454154968262</v>
+        <v>4.7853341102600098</v>
       </c>
     </row>
     <row r="18">
@@ -378,13 +378,13 @@
         <v>5.0423345565795898</v>
       </c>
       <c r="C18" s="2">
-        <v>5.0493125915527344</v>
+        <v>5.0479288101196289</v>
       </c>
       <c r="D18" s="2">
         <v>4.9091219902038574</v>
       </c>
       <c r="E18" s="2">
-        <v>4.8978757858276367</v>
+        <v>4.8971924781799316</v>
       </c>
     </row>
     <row r="19">
@@ -395,13 +395,13 @@
         <v>5.1130948066711426</v>
       </c>
       <c r="C19" s="2">
-        <v>5.0802826881408691</v>
+        <v>5.0798811912536621</v>
       </c>
       <c r="D19" s="2">
         <v>5.001920223236084</v>
       </c>
       <c r="E19" s="2">
-        <v>4.9939327239990234</v>
+        <v>4.9930973052978516</v>
       </c>
     </row>
     <row r="20">
@@ -412,13 +412,13 @@
         <v>5.3928313255310059</v>
       </c>
       <c r="C20" s="2">
-        <v>5.3783230781555176</v>
+        <v>5.3778305053710938</v>
       </c>
       <c r="D20" s="2">
         <v>5.0828590393066406</v>
       </c>
       <c r="E20" s="2">
-        <v>5.0793428421020508</v>
+        <v>5.0783710479736328</v>
       </c>
     </row>
     <row r="21">
@@ -429,13 +429,13 @@
         <v>5.3408327102661133</v>
       </c>
       <c r="C21" s="2">
-        <v>5.2585701942443848</v>
+        <v>5.258089542388916</v>
       </c>
       <c r="D21" s="2">
         <v>5.1690950393676758</v>
       </c>
       <c r="E21" s="2">
-        <v>5.1576433181762695</v>
+        <v>5.1567344665527344</v>
       </c>
     </row>
     <row r="22">
@@ -446,13 +446,13 @@
         <v>5.0915274620056152</v>
       </c>
       <c r="C22" s="2">
-        <v>5.1364598274230957</v>
+        <v>5.1353912353515625</v>
       </c>
       <c r="D22" s="2">
         <v>5.2162694931030273</v>
       </c>
       <c r="E22" s="2">
-        <v>5.2100181579589844</v>
+        <v>5.2089662551879883</v>
       </c>
     </row>
     <row r="23">
@@ -463,13 +463,13 @@
         <v>5.0061426162719727</v>
       </c>
       <c r="C23" s="2">
-        <v>5.0318045616149902</v>
+        <v>5.0301318168640137</v>
       </c>
       <c r="D23" s="2">
         <v>5.2282333374023438</v>
       </c>
       <c r="E23" s="2">
-        <v>5.2220401763916016</v>
+        <v>5.2211170196533203</v>
       </c>
     </row>
     <row r="24">
@@ -480,13 +480,13 @@
         <v>5.4103512763977051</v>
       </c>
       <c r="C24" s="2">
-        <v>5.4474925994873047</v>
+        <v>5.4459042549133301</v>
       </c>
       <c r="D24" s="2">
         <v>5.3616595268249512</v>
       </c>
       <c r="E24" s="2">
-        <v>5.3419232368469238</v>
+        <v>5.3408827781677246</v>
       </c>
     </row>
     <row r="25">
@@ -497,13 +497,13 @@
         <v>5.3587679862976074</v>
       </c>
       <c r="C25" s="2">
-        <v>5.3086252212524414</v>
+        <v>5.3078212738037109</v>
       </c>
       <c r="D25" s="2">
         <v>5.5079197883605957</v>
       </c>
       <c r="E25" s="2">
-        <v>5.4932069778442383</v>
+        <v>5.4921455383300781</v>
       </c>
     </row>
     <row r="26">
@@ -514,13 +514,13 @@
         <v>5.1905431747436524</v>
       </c>
       <c r="C26" s="2">
-        <v>5.1992940902709961</v>
+        <v>5.1977195739746094</v>
       </c>
       <c r="D26" s="2">
         <v>5.655947208404541</v>
       </c>
       <c r="E26" s="2">
-        <v>5.6429762840270996</v>
+        <v>5.6418356895446777</v>
       </c>
     </row>
     <row r="27">
@@ -531,13 +531,13 @@
         <v>5.1500072479248047</v>
       </c>
       <c r="C27" s="2">
-        <v>5.1575093269348145</v>
+        <v>5.1572823524475098</v>
       </c>
       <c r="D27" s="2">
         <v>5.7809267044067383</v>
       </c>
       <c r="E27" s="2">
-        <v>5.7609548568725586</v>
+        <v>5.7598638534545899</v>
       </c>
     </row>
     <row r="28">
@@ -548,13 +548,13 @@
         <v>6.3139305114746094</v>
       </c>
       <c r="C28" s="2">
-        <v>6.1592283248901367</v>
+        <v>6.1577730178833008</v>
       </c>
       <c r="D28" s="2">
         <v>5.8828501701354981</v>
       </c>
       <c r="E28" s="2">
-        <v>5.8613624572753906</v>
+        <v>5.8604021072387695</v>
       </c>
     </row>
     <row r="29">
@@ -565,13 +565,13 @@
         <v>6.7091741561889649</v>
       </c>
       <c r="C29" s="2">
-        <v>6.7398786544799805</v>
+        <v>6.7391953468322754</v>
       </c>
       <c r="D29" s="2">
         <v>5.8739819526672363</v>
       </c>
       <c r="E29" s="2">
-        <v>5.8563718795776367</v>
+        <v>5.8554730415344238</v>
       </c>
     </row>
     <row r="30">
@@ -582,13 +582,13 @@
         <v>6.6730799674987793</v>
       </c>
       <c r="C30" s="2">
-        <v>6.6064925193786621</v>
+        <v>6.6053013801574707</v>
       </c>
       <c r="D30" s="2">
         <v>5.9001255035400391</v>
       </c>
       <c r="E30" s="2">
-        <v>5.8877401351928711</v>
+        <v>5.8869194984436035</v>
       </c>
     </row>
     <row r="31">
@@ -599,13 +599,13 @@
         <v>6.216341495513916</v>
       </c>
       <c r="C31" s="2">
-        <v>6.1982665061950684</v>
+        <v>6.1976470947265625</v>
       </c>
       <c r="D31" s="2">
         <v>5.9874348640441895</v>
       </c>
       <c r="E31" s="2">
-        <v>5.9781641960144043</v>
+        <v>5.9773373603820801</v>
       </c>
     </row>
     <row r="32">
@@ -616,13 +616,13 @@
         <v>5.9234542846679688</v>
       </c>
       <c r="C32" s="2">
-        <v>5.9354734420776367</v>
+        <v>5.9349751472473145</v>
       </c>
       <c r="D32" s="2">
         <v>6.0610661506652832</v>
       </c>
       <c r="E32" s="2">
-        <v>6.047976016998291</v>
+        <v>6.0470647811889649</v>
       </c>
     </row>
     <row r="33">
@@ -633,13 +633,13 @@
         <v>5.3305401802062988</v>
       </c>
       <c r="C33" s="2">
-        <v>5.4025793075561523</v>
+        <v>5.401543140411377</v>
       </c>
       <c r="D33" s="2">
         <v>6.0170836448669434</v>
       </c>
       <c r="E33" s="2">
-        <v>6.0087847709655762</v>
+        <v>6.007962703704834</v>
       </c>
     </row>
     <row r="34">
@@ -650,13 +650,13 @@
         <v>5.5940604209899902</v>
       </c>
       <c r="C34" s="2">
-        <v>5.590939998626709</v>
+        <v>5.5908389091491699</v>
       </c>
       <c r="D34" s="2">
         <v>5.9141139984130859</v>
       </c>
       <c r="E34" s="2">
-        <v>5.9044804573059082</v>
+        <v>5.903785228729248</v>
       </c>
     </row>
     <row r="35">
@@ -667,13 +667,13 @@
         <v>5.9763264656066895</v>
       </c>
       <c r="C35" s="2">
-        <v>6.0131096839904785</v>
+        <v>6.0114789009094238</v>
       </c>
       <c r="D35" s="2">
         <v>5.7950410842895508</v>
       </c>
       <c r="E35" s="2">
-        <v>5.7957744598388672</v>
+        <v>5.7949895858764648</v>
       </c>
     </row>
     <row r="36">
@@ -684,13 +684,13 @@
         <v>5.812687873840332</v>
       </c>
       <c r="C36" s="2">
-        <v>5.7858176231384277</v>
+        <v>5.7848281860351563</v>
       </c>
       <c r="D36" s="2">
         <v>5.7436814308166504</v>
       </c>
       <c r="E36" s="2">
-        <v>5.7243685722351074</v>
+        <v>5.7235355377197266</v>
       </c>
     </row>
     <row r="37">
@@ -701,13 +701,13 @@
         <v>5.9180879592895508</v>
       </c>
       <c r="C37" s="2">
-        <v>5.8065052032470703</v>
+        <v>5.8058543205261231</v>
       </c>
       <c r="D37" s="2">
         <v>5.7534322738647461</v>
       </c>
       <c r="E37" s="2">
-        <v>5.73529052734375</v>
+        <v>5.7343082427978516</v>
       </c>
     </row>
     <row r="38">
@@ -718,13 +718,13 @@
         <v>5.7824473381042481</v>
       </c>
       <c r="C38" s="2">
-        <v>5.8011393547058105</v>
+        <v>5.8016009330749512</v>
       </c>
       <c r="D38" s="2">
         <v>5.7924013137817383</v>
       </c>
       <c r="E38" s="2">
-        <v>5.7625384330749512</v>
+        <v>5.7614817619323731</v>
       </c>
     </row>
     <row r="39">
@@ -735,13 +735,13 @@
         <v>5.6014218330383301</v>
       </c>
       <c r="C39" s="2">
-        <v>5.6281394958496094</v>
+        <v>5.6261382102966309</v>
       </c>
       <c r="D39" s="2">
         <v>5.7983555793762207</v>
       </c>
       <c r="E39" s="2">
-        <v>5.7639265060424805</v>
+        <v>5.7627348899841309</v>
       </c>
     </row>
     <row r="40">
@@ -752,13 +752,13 @@
         <v>5.7541046142578125</v>
       </c>
       <c r="C40" s="2">
-        <v>5.5556111335754395</v>
+        <v>5.5545635223388672</v>
       </c>
       <c r="D40" s="2">
         <v>5.7396688461303711</v>
       </c>
       <c r="E40" s="2">
-        <v>5.7073578834533691</v>
+        <v>5.7063546180725098</v>
       </c>
     </row>
     <row r="41">
@@ -769,13 +769,13 @@
         <v>6.0112128257751465</v>
       </c>
       <c r="C41" s="2">
-        <v>6.0337734222412109</v>
+        <v>6.0319280624389648</v>
       </c>
       <c r="D41" s="2">
         <v>5.7314720153808594</v>
       </c>
       <c r="E41" s="2">
-        <v>5.7031455039978027</v>
+        <v>5.7021393775939942</v>
       </c>
     </row>
     <row r="42">
@@ -786,13 +786,13 @@
         <v>5.6812634468078613</v>
       </c>
       <c r="C42" s="2">
-        <v>5.6478104591369629</v>
+        <v>5.6461067199707031</v>
       </c>
       <c r="D42" s="2">
         <v>5.7334041595458984</v>
       </c>
       <c r="E42" s="2">
-        <v>5.7027740478515625</v>
+        <v>5.7016067504882813</v>
       </c>
     </row>
     <row r="43">
@@ -803,13 +803,13 @@
         <v>5.6476459503173828</v>
       </c>
       <c r="C43" s="2">
-        <v>5.6034302711486816</v>
+        <v>5.602116584777832</v>
       </c>
       <c r="D43" s="2">
         <v>5.7263574600219727</v>
       </c>
       <c r="E43" s="2">
-        <v>5.6823334693908691</v>
+        <v>5.6808924674987793</v>
       </c>
     </row>
     <row r="44">
@@ -820,13 +820,13 @@
         <v>5.4481496810913086</v>
       </c>
       <c r="C44" s="2">
-        <v>5.503993034362793</v>
+        <v>5.504056453704834</v>
       </c>
       <c r="D44" s="2">
         <v>5.7394461631774902</v>
       </c>
       <c r="E44" s="2">
-        <v>5.6889219284057617</v>
+        <v>5.6875548362731934</v>
       </c>
     </row>
     <row r="45">
@@ -837,13 +837,13 @@
         <v>5.7389159202575684</v>
       </c>
       <c r="C45" s="2">
-        <v>5.7479071617126465</v>
+        <v>5.7468891143798828</v>
       </c>
       <c r="D45" s="2">
         <v>5.7987289428710938</v>
       </c>
       <c r="E45" s="2">
-        <v>5.7603631019592285</v>
+        <v>5.7589077949523926</v>
       </c>
     </row>
     <row r="46">
@@ -854,13 +854,13 @@
         <v>5.9354772567749023</v>
       </c>
       <c r="C46" s="2">
-        <v>5.8031611442565918</v>
+        <v>5.801063060760498</v>
       </c>
       <c r="D46" s="2">
         <v>5.719050407409668</v>
       </c>
       <c r="E46" s="2">
-        <v>5.6792612075805664</v>
+        <v>5.6779265403747559</v>
       </c>
     </row>
     <row r="47">
@@ -871,13 +871,13 @@
         <v>5.7190256118774414</v>
       </c>
       <c r="C47" s="2">
-        <v>5.6171741485595703</v>
+        <v>5.6151700019836426</v>
       </c>
       <c r="D47" s="2">
         <v>5.6907224655151367</v>
       </c>
       <c r="E47" s="2">
-        <v>5.6514644622802734</v>
+        <v>5.6502146720886231</v>
       </c>
     </row>
     <row r="48">
@@ -888,13 +888,13 @@
         <v>5.7192182540893555</v>
       </c>
       <c r="C48" s="2">
-        <v>5.6874384880065918</v>
+        <v>5.6860995292663574</v>
       </c>
       <c r="D48" s="2">
         <v>5.6798882484436035</v>
       </c>
       <c r="E48" s="2">
-        <v>5.6319470405578613</v>
+        <v>5.6307311058044434</v>
       </c>
     </row>
     <row r="49">
@@ -905,13 +905,13 @@
         <v>6.2876520156860352</v>
       </c>
       <c r="C49" s="2">
-        <v>6.1985807418823242</v>
+        <v>6.1967411041259766</v>
       </c>
       <c r="D49" s="2">
         <v>5.7535262107849121</v>
       </c>
       <c r="E49" s="2">
-        <v>5.6931014060974121</v>
+        <v>5.6917691230773926</v>
       </c>
     </row>
     <row r="50">
@@ -922,13 +922,13 @@
         <v>5.2941045761108398</v>
       </c>
       <c r="C50" s="2">
-        <v>5.3038568496704102</v>
+        <v>5.303098201751709</v>
       </c>
       <c r="D50" s="2">
         <v>5.7474493980407715</v>
       </c>
       <c r="E50" s="2">
-        <v>5.6780257225036621</v>
+        <v>5.6765608787536621</v>
       </c>
     </row>
     <row r="51">
@@ -939,13 +939,13 @@
         <v>5.4263134002685547</v>
       </c>
       <c r="C51" s="2">
-        <v>5.3976383209228516</v>
+        <v>5.3966994285583496</v>
       </c>
       <c r="D51" s="2">
         <v>5.7395920753479004</v>
       </c>
       <c r="E51" s="2">
-        <v>5.6780219078063965</v>
+        <v>5.6767730712890625</v>
       </c>
     </row>
     <row r="52">
@@ -956,13 +956,13 @@
         <v>5.5501360893249512</v>
       </c>
       <c r="C52" s="2">
-        <v>5.4277749061584473</v>
+        <v>5.4267640113830566</v>
       </c>
       <c r="D52" s="2">
         <v>5.6856269836425781</v>
       </c>
       <c r="E52" s="2">
-        <v>5.6314315795898438</v>
+        <v>5.630333423614502</v>
       </c>
     </row>
     <row r="53">
@@ -973,13 +973,13 @@
         <v>6.1108942031860352</v>
       </c>
       <c r="C53" s="2">
-        <v>6.0543818473815918</v>
+        <v>6.0533995628356934</v>
       </c>
       <c r="D53" s="2">
         <v>5.6655492782592774</v>
       </c>
       <c r="E53" s="2">
-        <v>5.5984258651733399</v>
+        <v>5.5973453521728516</v>
       </c>
     </row>
     <row r="54">
@@ -990,13 +990,13 @@
         <v>5.6842246055603027</v>
       </c>
       <c r="C54" s="2">
-        <v>5.6122250556945801</v>
+        <v>5.6100130081176758</v>
       </c>
       <c r="D54" s="2">
         <v>5.5611786842346191</v>
       </c>
       <c r="E54" s="2">
-        <v>5.5073952674865723</v>
+        <v>5.5064129829406738</v>
       </c>
     </row>
     <row r="55">
@@ -1007,13 +1007,13 @@
         <v>5.8647608757019043</v>
       </c>
       <c r="C55" s="2">
-        <v>5.8031268119812012</v>
+        <v>5.8029718399047852</v>
       </c>
       <c r="D55" s="2">
         <v>5.6205921173095703</v>
       </c>
       <c r="E55" s="2">
-        <v>5.5600223541259766</v>
+        <v>5.5591669082641602</v>
       </c>
     </row>
     <row r="56">
@@ -1024,13 +1024,13 @@
         <v>5.2333388328552246</v>
       </c>
       <c r="C56" s="2">
-        <v>5.1978611946105957</v>
+        <v>5.1972150802612305</v>
       </c>
       <c r="D56" s="2">
         <v>5.6678867340087891</v>
       </c>
       <c r="E56" s="2">
-        <v>5.5942010879516602</v>
+        <v>5.5933241844177246</v>
       </c>
     </row>
     <row r="57">
@@ -1041,13 +1041,13 @@
         <v>5.5385169982910156</v>
       </c>
       <c r="C57" s="2">
-        <v>5.3903880119323731</v>
+        <v>5.3892078399658203</v>
       </c>
       <c r="D57" s="2">
         <v>5.634124755859375</v>
       </c>
       <c r="E57" s="2">
-        <v>5.5535945892333984</v>
+        <v>5.5526299476623535</v>
       </c>
     </row>
     <row r="58">
@@ -1058,13 +1058,13 @@
         <v>5.3483180999755859</v>
       </c>
       <c r="C58" s="2">
-        <v>5.3793044090270996</v>
+        <v>5.3783478736877441</v>
       </c>
       <c r="D58" s="2">
         <v>5.4743690490722656</v>
       </c>
       <c r="E58" s="2">
-        <v>5.4057736396789551</v>
+        <v>5.4048051834106445</v>
       </c>
     </row>
     <row r="59">
@@ -1075,13 +1075,13 @@
         <v>5.8288273811340332</v>
       </c>
       <c r="C59" s="2">
-        <v>5.7775025367736817</v>
+        <v>5.7778816223144531</v>
       </c>
       <c r="D59" s="2">
         <v>5.4098186492919922</v>
       </c>
       <c r="E59" s="2">
-        <v>5.3455557823181152</v>
+        <v>5.3447070121765137</v>
       </c>
     </row>
     <row r="60">
@@ -1092,13 +1092,13 @@
         <v>5.8519649505615234</v>
       </c>
       <c r="C60" s="2">
-        <v>5.7052454948425293</v>
+        <v>5.7041182518005371</v>
       </c>
       <c r="D60" s="2">
         <v>5.3264899253845215</v>
       </c>
       <c r="E60" s="2">
-        <v>5.2741904258728027</v>
+        <v>5.2730755805969238</v>
       </c>
     </row>
     <row r="61">
@@ -1109,13 +1109,13 @@
         <v>5.2462759017944336</v>
       </c>
       <c r="C61" s="2">
-        <v>5.0623154640197754</v>
+        <v>5.060513973236084</v>
       </c>
       <c r="D61" s="2">
         <v>5.238349437713623</v>
       </c>
       <c r="E61" s="2">
-        <v>5.1906809806823731</v>
+        <v>5.1895947456359863</v>
       </c>
     </row>
     <row r="62">
@@ -1126,13 +1126,13 @@
         <v>4.6730952262878418</v>
       </c>
       <c r="C62" s="2">
-        <v>4.7239923477172852</v>
+        <v>4.7229771614074707</v>
       </c>
       <c r="D62" s="2">
         <v>5.1381845474243164</v>
       </c>
       <c r="E62" s="2">
-        <v>5.0963120460510254</v>
+        <v>5.0954532623291016</v>
       </c>
     </row>
     <row r="63">
@@ -1143,13 +1143,13 @@
         <v>5.1032705307006836</v>
       </c>
       <c r="C63" s="2">
-        <v>5.0702667236328125</v>
+        <v>5.0691280364990234</v>
       </c>
       <c r="D63" s="2">
         <v>5.0074877738952637</v>
       </c>
       <c r="E63" s="2">
-        <v>4.964332103729248</v>
+        <v>4.963343620300293</v>
       </c>
     </row>
     <row r="64">
@@ -1160,13 +1160,13 @@
         <v>5.1148004531860352</v>
       </c>
       <c r="C64" s="2">
-        <v>5.1608390808105469</v>
+        <v>5.158292293548584</v>
       </c>
       <c r="D64" s="2">
         <v>4.8893857002258301</v>
       </c>
       <c r="E64" s="2">
-        <v>4.8546242713928223</v>
+        <v>4.8536605834960938</v>
       </c>
     </row>
     <row r="65">
@@ -1177,13 +1177,13 @@
         <v>4.4400773048400879</v>
       </c>
       <c r="C65" s="2">
-        <v>4.4462761878967285</v>
+        <v>4.4458861351013184</v>
       </c>
       <c r="D65" s="2">
         <v>4.7622103691101074</v>
       </c>
       <c r="E65" s="2">
-        <v>4.7456202507019043</v>
+        <v>4.744511604309082</v>
       </c>
     </row>
     <row r="66">
@@ -1194,13 +1194,13 @@
         <v>4.6370310783386231</v>
       </c>
       <c r="C66" s="2">
-        <v>4.5410642623901367</v>
+        <v>4.5419349670410156</v>
       </c>
       <c r="D66" s="2">
         <v>4.6887083053588867</v>
       </c>
       <c r="E66" s="2">
-        <v>4.692629337310791</v>
+        <v>4.6915693283081055</v>
       </c>
     </row>
     <row r="67">
@@ -1211,13 +1211,13 @@
         <v>4.1720466613769531</v>
       </c>
       <c r="C67" s="2">
-        <v>4.1914868354797363</v>
+        <v>4.189359188079834</v>
       </c>
       <c r="D67" s="2">
         <v>4.7258806228637695</v>
       </c>
       <c r="E67" s="2">
-        <v>4.7239236831665039</v>
+        <v>4.7229838371276856</v>
       </c>
     </row>
     <row r="68">
@@ -1228,13 +1228,13 @@
         <v>4.7659111022949219</v>
       </c>
       <c r="C68" s="2">
-        <v>4.7901339530944824</v>
+        <v>4.7907333374023438</v>
       </c>
       <c r="D68" s="2">
         <v>4.6892385482788086</v>
       </c>
       <c r="E68" s="2">
-        <v>4.6827244758605957</v>
+        <v>4.6818289756774902</v>
       </c>
     </row>
     <row r="69">
@@ -1245,13 +1245,13 @@
         <v>4.7073850631713867</v>
       </c>
       <c r="C69" s="2">
-        <v>4.7242059707641602</v>
+        <v>4.7217788696289063</v>
       </c>
       <c r="D69" s="2">
         <v>4.6410598754882813</v>
       </c>
       <c r="E69" s="2">
-        <v>4.6285052299499512</v>
+        <v>4.6277370452880859</v>
       </c>
     </row>
     <row r="70">
@@ -1262,13 +1262,13 @@
         <v>4.5847554206848145</v>
       </c>
       <c r="C70" s="2">
-        <v>4.5854001045227051</v>
+        <v>4.5840344429016113</v>
       </c>
       <c r="D70" s="2">
         <v>4.6104984283447266</v>
       </c>
       <c r="E70" s="2">
-        <v>4.5952849388122559</v>
+        <v>4.5945591926574707</v>
       </c>
     </row>
     <row r="71">
@@ -1279,13 +1279,13 @@
         <v>5.0076484680175781</v>
       </c>
       <c r="C71" s="2">
-        <v>5.0056419372558594</v>
+        <v>5.0057082176208496</v>
       </c>
       <c r="D71" s="2">
         <v>4.5841484069824219</v>
       </c>
       <c r="E71" s="2">
-        <v>4.5742859840393067</v>
+        <v>4.5734572410583496</v>
       </c>
     </row>
     <row r="72">
@@ -1296,13 +1296,13 @@
         <v>4.773491382598877</v>
       </c>
       <c r="C72" s="2">
-        <v>4.6994705200195313</v>
+        <v>4.6987347602844238</v>
       </c>
       <c r="D72" s="2">
         <v>4.6379852294921875</v>
       </c>
       <c r="E72" s="2">
-        <v>4.6242284774780274</v>
+        <v>4.6234683990478516</v>
       </c>
     </row>
     <row r="73">
@@ -1313,13 +1313,13 @@
         <v>4.6811914443969727</v>
       </c>
       <c r="C73" s="2">
-        <v>4.6728677749633789</v>
+        <v>4.6714639663696289</v>
       </c>
       <c r="D73" s="2">
         <v>4.6563220024108887</v>
       </c>
       <c r="E73" s="2">
-        <v>4.6253376007080078</v>
+        <v>4.6246166229248047</v>
       </c>
     </row>
     <row r="74">
@@ -1330,13 +1330,13 @@
         <v>4.1650247573852539</v>
       </c>
       <c r="C74" s="2">
-        <v>4.1472940444946289</v>
+        <v>4.1472864151000977</v>
       </c>
       <c r="D74" s="2">
         <v>4.6488223075866699</v>
       </c>
       <c r="E74" s="2">
-        <v>4.6229853630065918</v>
+        <v>4.6224355697631836</v>
       </c>
     </row>
     <row r="75">
@@ -1347,13 +1347,13 @@
         <v>4.3998832702636719</v>
       </c>
       <c r="C75" s="2">
-        <v>4.3520712852478027</v>
+        <v>4.3520140647888184</v>
       </c>
       <c r="D75" s="2">
         <v>4.6251792907714844</v>
       </c>
       <c r="E75" s="2">
-        <v>4.6031646728515625</v>
+        <v>4.6025195121765137</v>
       </c>
     </row>
     <row r="76">
@@ -1364,13 +1364,13 @@
         <v>4.6565780639648438</v>
       </c>
       <c r="C76" s="2">
-        <v>4.6409716606140137</v>
+        <v>4.6394619941711426</v>
       </c>
       <c r="D76" s="2">
         <v>4.5890069007873535</v>
       </c>
       <c r="E76" s="2">
-        <v>4.5554804801940918</v>
+        <v>4.5546951293945313</v>
       </c>
     </row>
     <row r="77">
@@ -1381,13 +1381,13 @@
         <v>4.930938720703125</v>
       </c>
       <c r="C77" s="2">
-        <v>4.8001141548156738</v>
+        <v>4.8010663986206055</v>
       </c>
       <c r="D77" s="2">
         <v>4.5461277961730957</v>
       </c>
       <c r="E77" s="2">
-        <v>4.521794319152832</v>
+        <v>4.5210990905761719</v>
       </c>
     </row>
     <row r="78">
@@ -1398,13 +1398,13 @@
         <v>4.6398911476135254</v>
       </c>
       <c r="C78" s="2">
-        <v>4.7030367851257324</v>
+        <v>4.7021498680114746</v>
       </c>
       <c r="D78" s="2">
         <v>4.4758791923522949</v>
       </c>
       <c r="E78" s="2">
-        <v>4.4569482803344727</v>
+        <v>4.4562849998474121</v>
       </c>
     </row>
     <row r="79">
@@ -1415,13 +1415,13 @@
         <v>4.3719682693481445</v>
       </c>
       <c r="C79" s="2">
-        <v>4.4070138931274414</v>
+        <v>4.4047894477844238</v>
       </c>
       <c r="D79" s="2">
         <v>4.4940571784973145</v>
       </c>
       <c r="E79" s="2">
-        <v>4.4531607627868652</v>
+        <v>4.452387809753418</v>
       </c>
     </row>
     <row r="80">
@@ -1432,13 +1432,13 @@
         <v>4.6820945739746094</v>
       </c>
       <c r="C80" s="2">
-        <v>4.5764832496643066</v>
+        <v>4.575289249420166</v>
       </c>
       <c r="D80" s="2">
         <v>4.5513105392456055</v>
       </c>
       <c r="E80" s="2">
-        <v>4.5023941993713379</v>
+        <v>4.5015983581542969</v>
       </c>
     </row>
     <row r="81">
@@ -1449,13 +1449,13 @@
         <v>4.3875789642333984</v>
       </c>
       <c r="C81" s="2">
-        <v>4.3962945938110352</v>
+        <v>4.3963718414306641</v>
       </c>
       <c r="D81" s="2">
         <v>4.5585446357727051</v>
       </c>
       <c r="E81" s="2">
-        <v>4.5111651420593262</v>
+        <v>4.5104312896728516</v>
       </c>
     </row>
     <row r="82">
@@ -1466,13 +1466,13 @@
         <v>4.048954963684082</v>
       </c>
       <c r="C82" s="2">
-        <v>4.0892534255981445</v>
+        <v>4.0881352424621582</v>
       </c>
       <c r="D82" s="2">
         <v>4.4854936599731445</v>
       </c>
       <c r="E82" s="2">
-        <v>4.4534697532653809</v>
+        <v>4.4525365829467774</v>
       </c>
     </row>
     <row r="83">
@@ -1483,13 +1483,13 @@
         <v>4.3286285400390625</v>
       </c>
       <c r="C83" s="2">
-        <v>4.1132068634033203</v>
+        <v>4.1122112274169922</v>
       </c>
       <c r="D83" s="2">
         <v>4.4207696914672852</v>
       </c>
       <c r="E83" s="2">
-        <v>4.3878726959228516</v>
+        <v>4.3869776725769043</v>
       </c>
     </row>
     <row r="84">
@@ -1500,13 +1500,13 @@
         <v>4.9151616096496582</v>
       </c>
       <c r="C84" s="2">
-        <v>4.7951712608337402</v>
+        <v>4.7949113845825195</v>
       </c>
       <c r="D84" s="2">
         <v>4.4632306098937988</v>
       </c>
       <c r="E84" s="2">
-        <v>4.4238390922546387</v>
+        <v>4.4231953620910645</v>
       </c>
     </row>
     <row r="85">
@@ -1517,13 +1517,13 @@
         <v>4.7216858863830566</v>
       </c>
       <c r="C85" s="2">
-        <v>4.7199134826660156</v>
+        <v>4.7189555168151855</v>
       </c>
       <c r="D85" s="2">
         <v>4.4655752182006836</v>
       </c>
       <c r="E85" s="2">
-        <v>4.4337973594665527</v>
+        <v>4.4330062866210938</v>
       </c>
     </row>
     <row r="86">
@@ -1534,13 +1534,13 @@
         <v>4.2734775543212891</v>
       </c>
       <c r="C86" s="2">
-        <v>4.2808551788330078</v>
+        <v>4.2800135612487793</v>
       </c>
       <c r="D86" s="2">
         <v>4.4854159355163574</v>
       </c>
       <c r="E86" s="2">
-        <v>4.4222798347473145</v>
+        <v>4.4214634895324707</v>
       </c>
     </row>
     <row r="87">
@@ -1551,13 +1551,13 @@
         <v>4.0573773384094238</v>
       </c>
       <c r="C87" s="2">
-        <v>4.1126632690429688</v>
+        <v>4.1121220588684082</v>
       </c>
       <c r="D87" s="2">
         <v>4.526339054107666</v>
       </c>
       <c r="E87" s="2">
-        <v>4.4484949111938477</v>
+        <v>4.4476532936096192</v>
       </c>
     </row>
     <row r="88">
@@ -1568,13 +1568,13 @@
         <v>4.7541146278381348</v>
       </c>
       <c r="C88" s="2">
-        <v>4.730710506439209</v>
+        <v>4.7307472229003906</v>
       </c>
       <c r="D88" s="2">
         <v>4.473689079284668</v>
       </c>
       <c r="E88" s="2">
-        <v>4.4104852676391602</v>
+        <v>4.4095668792724609</v>
       </c>
     </row>
     <row r="89">
@@ -1585,13 +1585,13 @@
         <v>4.7031955718994141</v>
       </c>
       <c r="C89" s="2">
-        <v>4.6661067008972168</v>
+        <v>4.6635899543762207</v>
       </c>
       <c r="D89" s="2">
         <v>4.3598828315734863</v>
       </c>
       <c r="E89" s="2">
-        <v>4.3132810592651367</v>
+        <v>4.3125033378601074</v>
       </c>
     </row>
     <row r="90">
@@ -1602,13 +1602,13 @@
         <v>4.5661458969116211</v>
       </c>
       <c r="C90" s="2">
-        <v>4.2926363945007324</v>
+        <v>4.2924861907958984</v>
       </c>
       <c r="D90" s="2">
         <v>4.2931337356567383</v>
       </c>
       <c r="E90" s="2">
-        <v>4.2272148132324219</v>
+        <v>4.2263898849487305</v>
       </c>
     </row>
     <row r="91">
@@ -1619,13 +1619,13 @@
         <v>4.4172654151916504</v>
       </c>
       <c r="C91" s="2">
-        <v>4.3251891136169434</v>
+        <v>4.3238420486450195</v>
       </c>
       <c r="D91" s="2">
         <v>4.3170304298400879</v>
       </c>
       <c r="E91" s="2">
-        <v>4.2438297271728516</v>
+        <v>4.2431416511535645</v>
       </c>
     </row>
     <row r="92">
@@ -1636,13 +1636,13 @@
         <v>3.8547775745391846</v>
       </c>
       <c r="C92" s="2">
-        <v>3.7711217403411865</v>
+        <v>3.7694330215454102</v>
       </c>
       <c r="D92" s="2">
         <v>4.331636905670166</v>
       </c>
       <c r="E92" s="2">
-        <v>4.2559418678283692</v>
+        <v>4.2552719116210938</v>
       </c>
     </row>
     <row r="93">
@@ -1653,13 +1653,13 @@
         <v>3.8909060955047608</v>
       </c>
       <c r="C93" s="2">
-        <v>3.920332670211792</v>
+        <v>3.9213385581970215</v>
       </c>
       <c r="D93" s="2">
         <v>4.3460822105407715</v>
       </c>
       <c r="E93" s="2">
-        <v>4.2655048370361328</v>
+        <v>4.2648625373840332</v>
       </c>
     </row>
     <row r="94">
@@ -1670,13 +1670,13 @@
         <v>4.1209421157836914</v>
       </c>
       <c r="C94" s="2">
-        <v>3.945319652557373</v>
+        <v>3.9439351558685303</v>
       </c>
       <c r="D94" s="2">
         <v>4.2894444465637207</v>
       </c>
       <c r="E94" s="2">
-        <v>4.2006192207336426</v>
+        <v>4.2002677917480469</v>
       </c>
     </row>
     <row r="95">
@@ -1687,13 +1687,13 @@
         <v>4.4885473251342773</v>
       </c>
       <c r="C95" s="2">
-        <v>4.4303865432739258</v>
+        <v>4.4307808876037598</v>
       </c>
       <c r="D95" s="2">
         <v>4.2423930168151855</v>
       </c>
       <c r="E95" s="2">
-        <v>4.161952018737793</v>
+        <v>4.1615657806396484</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>4.1888389587402344</v>
       </c>
       <c r="C96" s="2">
-        <v>4.2216720581054688</v>
+        <v>4.2212963104248047</v>
       </c>
       <c r="D96" s="2">
         <v>4.2856988906860352</v>
       </c>
       <c r="E96" s="2">
-        <v>4.1996121406555176</v>
+        <v>4.1993250846862793</v>
       </c>
     </row>
     <row r="97">
@@ -1721,13 +1721,13 @@
         <v>4.884122371673584</v>
       </c>
       <c r="C97" s="2">
-        <v>4.816779613494873</v>
+        <v>4.8170614242553711</v>
       </c>
       <c r="D97" s="2">
         <v>4.3659963607788086</v>
       </c>
       <c r="E97" s="2">
-        <v>4.2835536003112793</v>
+        <v>4.2833433151245117</v>
       </c>
     </row>
     <row r="98">
@@ -1738,13 +1738,13 @@
         <v>4.193455696105957</v>
       </c>
       <c r="C98" s="2">
-        <v>4.0821352005004883</v>
+        <v>4.0822362899780274</v>
       </c>
       <c r="D98" s="2">
         <v>4.3741154670715332</v>
       </c>
       <c r="E98" s="2">
-        <v>4.2916755676269531</v>
+        <v>4.2912211418151855</v>
       </c>
     </row>
     <row r="99">
@@ -1755,13 +1755,13 @@
         <v>4.1426806449890137</v>
       </c>
       <c r="C99" s="2">
-        <v>3.9446303844451904</v>
+        <v>3.9441704750061035</v>
       </c>
       <c r="D99" s="2">
         <v>4.4242830276489258</v>
       </c>
       <c r="E99" s="2">
-        <v>4.3514952659606934</v>
+        <v>4.3510146141052246</v>
       </c>
     </row>
     <row r="100">
@@ -1772,13 +1772,13 @@
         <v>4.8070187568664551</v>
       </c>
       <c r="C100" s="2">
-        <v>4.6641297340393067</v>
+        <v>4.6636738777160645</v>
       </c>
       <c r="D100" s="2">
         <v>4.3953042030334473</v>
       </c>
       <c r="E100" s="2">
-        <v>4.3402566909790039</v>
+        <v>4.3397741317749024</v>
       </c>
     </row>
     <row r="101">
@@ -1789,13 +1789,13 @@
         <v>4.5774550437927246</v>
       </c>
       <c r="C101" s="2">
-        <v>4.5265965461730957</v>
+        <v>4.5255980491638184</v>
       </c>
       <c r="D101" s="2">
         <v>4.4311375617980957</v>
       </c>
       <c r="E101" s="2">
-        <v>4.3672304153442383</v>
+        <v>4.3667716979980469</v>
       </c>
     </row>
     <row r="102">
@@ -1806,13 +1806,13 @@
         <v>3.963977575302124</v>
       </c>
       <c r="C102" s="2">
-        <v>3.9934301376342773</v>
+        <v>3.9922370910644531</v>
       </c>
       <c r="D102" s="2">
         <v>4.3158988952636719</v>
       </c>
       <c r="E102" s="2">
-        <v>4.2603721618652344</v>
+        <v>4.2597827911376953</v>
       </c>
     </row>
     <row r="103">
@@ -1823,13 +1823,13 @@
         <v>4.5724520683288574</v>
       </c>
       <c r="C103" s="2">
-        <v>4.483696460723877</v>
+        <v>4.4820775985717773</v>
       </c>
       <c r="D103" s="2">
         <v>4.2897796630859375</v>
       </c>
       <c r="E103" s="2">
-        <v>4.2379498481750488</v>
+        <v>4.2372827529907227</v>
       </c>
     </row>
     <row r="104">
@@ -1840,13 +1840,13 @@
         <v>4.2277359962463379</v>
       </c>
       <c r="C104" s="2">
-        <v>4.3292403221130371</v>
+        <v>4.3296165466308594</v>
       </c>
       <c r="D104" s="2">
         <v>4.243870735168457</v>
       </c>
       <c r="E104" s="2">
-        <v>4.2180218696594238</v>
+        <v>4.2172403335571289</v>
       </c>
     </row>
     <row r="105">
@@ -1857,13 +1857,13 @@
         <v>4.5113391876220703</v>
       </c>
       <c r="C105" s="2">
-        <v>4.4644341468811035</v>
+        <v>4.4642720222473145</v>
       </c>
       <c r="D105" s="2">
         <v>4.2307953834533691</v>
       </c>
       <c r="E105" s="2">
-        <v>4.201655387878418</v>
+        <v>4.2008142471313477</v>
       </c>
     </row>
     <row r="106">
@@ -1874,13 +1874,13 @@
         <v>3.8469746112823486</v>
       </c>
       <c r="C106" s="2">
-        <v>3.8550570011138916</v>
+        <v>3.8541638851165772</v>
       </c>
       <c r="D106" s="2">
         <v>4.1245584487915039</v>
       </c>
       <c r="E106" s="2">
-        <v>4.1066713333129883</v>
+        <v>4.1057863235473633</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>3.9583845138549805</v>
       </c>
       <c r="C107" s="2">
-        <v>3.8803353309631348</v>
+        <v>3.879734992980957</v>
       </c>
       <c r="D107" s="2">
         <v>4.1840195655822754</v>
       </c>
       <c r="E107" s="2">
-        <v>4.1748313903808594</v>
+        <v>4.1740050315856934</v>
       </c>
     </row>
     <row r="108">
@@ -1908,13 +1908,13 @@
         <v>3.7294986248016358</v>
       </c>
       <c r="C108" s="2">
-        <v>3.7652781009674072</v>
+        <v>3.7637910842895508</v>
       </c>
       <c r="D108" s="2">
         <v>4.1624822616577148</v>
       </c>
       <c r="E108" s="2">
-        <v>4.1620931625366211</v>
+        <v>4.1613426208496094</v>
       </c>
     </row>
     <row r="109">
@@ -1925,13 +1925,13 @@
         <v>4.6893420219421387</v>
       </c>
       <c r="C109" s="2">
-        <v>4.5168304443359375</v>
+        <v>4.5158352851867676</v>
       </c>
       <c r="D109" s="2">
         <v>4.10174560546875</v>
       </c>
       <c r="E109" s="2">
-        <v>4.0775361061096192</v>
+        <v>4.0766229629516602</v>
       </c>
     </row>
     <row r="110">
@@ -1942,13 +1942,13 @@
         <v>3.6213226318359375</v>
       </c>
       <c r="C110" s="2">
-        <v>3.6717381477355957</v>
+        <v>3.6703481674194336</v>
       </c>
       <c r="D110" s="2">
         <v>3.9951121807098389</v>
       </c>
       <c r="E110" s="2">
-        <v>3.977592945098877</v>
+        <v>3.9766266345977783</v>
       </c>
     </row>
     <row r="111">
@@ -1959,13 +1959,13 @@
         <v>4.4991283416748047</v>
       </c>
       <c r="C111" s="2">
-        <v>4.6068706512451172</v>
+        <v>4.6062040328979492</v>
       </c>
       <c r="D111" s="2">
         <v>4.0168018341064453</v>
       </c>
       <c r="E111" s="2">
-        <v>3.9973092079162598</v>
+        <v>3.9963986873626709</v>
       </c>
     </row>
     <row r="112">
@@ -1976,13 +1976,13 @@
         <v>4.3786134719848633</v>
       </c>
       <c r="C112" s="2">
-        <v>4.3690547943115234</v>
+        <v>4.3681173324584961</v>
       </c>
       <c r="D112" s="2">
         <v>3.9773139953613281</v>
       </c>
       <c r="E112" s="2">
-        <v>3.9663262367248535</v>
+        <v>3.9655394554138184</v>
       </c>
     </row>
     <row r="113">
@@ -1993,13 +1993,13 @@
         <v>3.6811065673828125</v>
       </c>
       <c r="C113" s="2">
-        <v>3.5682277679443359</v>
+        <v>3.5671408176422119</v>
       </c>
       <c r="D113" s="2">
         <v>4.0369014739990234</v>
       </c>
       <c r="E113" s="2">
-        <v>3.9937725067138672</v>
+        <v>3.9929728507995605</v>
       </c>
     </row>
     <row r="114">
@@ -2010,13 +2010,13 @@
         <v>3.5516388416290283</v>
       </c>
       <c r="C114" s="2">
-        <v>3.5649440288543701</v>
+        <v>3.5643048286437988</v>
       </c>
       <c r="D114" s="2">
         <v>3.9178233146667481</v>
       </c>
       <c r="E114" s="2">
-        <v>3.8980948925018311</v>
+        <v>3.897320032119751</v>
       </c>
     </row>
     <row r="115">
@@ -2027,13 +2027,13 @@
         <v>4.0421795845031738</v>
       </c>
       <c r="C115" s="2">
-        <v>4.0325031280517578</v>
+        <v>4.0321121215820313</v>
       </c>
       <c r="D115" s="2">
         <v>3.9905812740325928</v>
       </c>
       <c r="E115" s="2">
-        <v>3.9747543334960938</v>
+        <v>3.9741141796112061</v>
       </c>
     </row>
     <row r="116">
@@ -2044,13 +2044,13 @@
         <v>3.602996826171875</v>
       </c>
       <c r="C116" s="2">
-        <v>3.6014885902404785</v>
+        <v>3.6020021438598633</v>
       </c>
       <c r="D116" s="2">
         <v>3.9752483367919922</v>
       </c>
       <c r="E116" s="2">
-        <v>3.9358329772949219</v>
+        <v>3.9351584911346436</v>
       </c>
     </row>
     <row r="117">
@@ -2061,13 +2061,13 @@
         <v>4.2657833099365234</v>
       </c>
       <c r="C117" s="2">
-        <v>4.0122957229614258</v>
+        <v>4.0106906890869141</v>
       </c>
       <c r="D117" s="2">
         <v>3.9432253837585449</v>
       </c>
       <c r="E117" s="2">
-        <v>3.9118099212646484</v>
+        <v>3.9112765789031982</v>
       </c>
     </row>
     <row r="118">
@@ -2078,13 +2078,13 @@
         <v>3.6176407337188721</v>
       </c>
       <c r="C118" s="2">
-        <v>3.6557309627532959</v>
+        <v>3.6549601554870605</v>
       </c>
       <c r="D118" s="2">
         <v>4.0605607032775879</v>
       </c>
       <c r="E118" s="2">
-        <v>4.0170841217041016</v>
+        <v>4.0165443420410156</v>
       </c>
     </row>
     <row r="119">
@@ -2095,13 +2095,13 @@
         <v>4.2761440277099609</v>
       </c>
       <c r="C119" s="2">
-        <v>4.3616738319396973</v>
+        <v>4.3614964485168457</v>
       </c>
       <c r="D119" s="2">
         <v>4.198979377746582</v>
       </c>
       <c r="E119" s="2">
-        <v>4.1531901359558106</v>
+        <v>4.1527214050292969</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>4.3611321449279785</v>
       </c>
       <c r="C120" s="2">
-        <v>4.2565779685974121</v>
+        <v>4.2556009292602539</v>
       </c>
       <c r="D120" s="2">
         <v>4.146876335144043</v>
       </c>
       <c r="E120" s="2">
-        <v>4.1177783012390137</v>
+        <v>4.1172466278076172</v>
       </c>
     </row>
     <row r="121">
@@ -2129,13 +2129,13 @@
         <v>4.0904059410095215</v>
       </c>
       <c r="C121" s="2">
-        <v>4.1528477668762207</v>
+        <v>4.1531801223754883</v>
       </c>
       <c r="D121" s="2">
         <v>4.1947636604309082</v>
       </c>
       <c r="E121" s="2">
-        <v>4.168238639831543</v>
+        <v>4.167625904083252</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>4.737126350402832</v>
       </c>
       <c r="C122" s="2">
-        <v>4.5156946182250977</v>
+        <v>4.5145516395568848</v>
       </c>
       <c r="D122" s="2">
         <v>4.1767911911010742</v>
       </c>
       <c r="E122" s="2">
-        <v>4.181511402130127</v>
+        <v>4.1810240745544434</v>
       </c>
     </row>
     <row r="123">
@@ -2163,13 +2163,13 @@
         <v>4.7974042892456055</v>
       </c>
       <c r="C123" s="2">
-        <v>4.7899003028869629</v>
+        <v>4.7898964881896973</v>
       </c>
       <c r="D123" s="2">
         <v>4.2154178619384766</v>
       </c>
       <c r="E123" s="2">
-        <v>4.2123236656188965</v>
+        <v>4.2119784355163574</v>
       </c>
     </row>
     <row r="124">
@@ -2180,13 +2180,13 @@
         <v>3.5732526779174805</v>
       </c>
       <c r="C124" s="2">
-        <v>3.7137947082519531</v>
+        <v>3.7128400802612305</v>
       </c>
       <c r="D124" s="2">
         <v>4.1879181861877441</v>
       </c>
       <c r="E124" s="2">
-        <v>4.1824774742126465</v>
+        <v>4.1820454597473145</v>
       </c>
     </row>
     <row r="125">
@@ -2197,13 +2197,13 @@
         <v>4.0339841842651367</v>
       </c>
       <c r="C125" s="2">
-        <v>4.0556316375732422</v>
+        <v>4.0554161071777344</v>
       </c>
       <c r="D125" s="2">
         <v>4.2102208137512207</v>
       </c>
       <c r="E125" s="2">
-        <v>4.1825170516967774</v>
+        <v>4.1821494102478027</v>
       </c>
     </row>
     <row r="126">
@@ -2214,13 +2214,13 @@
         <v>4.1040301322937012</v>
       </c>
       <c r="C126" s="2">
-        <v>4.1317510604858399</v>
+        <v>4.1312766075134277</v>
       </c>
       <c r="D126" s="2">
         <v>4.116055965423584</v>
       </c>
       <c r="E126" s="2">
-        <v>4.081444263458252</v>
+        <v>4.080963134765625</v>
       </c>
     </row>
     <row r="127">
@@ -2231,13 +2231,13 @@
         <v>3.9652822017669678</v>
       </c>
       <c r="C127" s="2">
-        <v>3.9330399036407471</v>
+        <v>3.9335460662841797</v>
       </c>
       <c r="D127" s="2">
         <v>3.9989426136016846</v>
       </c>
       <c r="E127" s="2">
-        <v>3.9902775287628174</v>
+        <v>3.9898800849914551</v>
       </c>
     </row>
     <row r="128">
@@ -2248,13 +2248,13 @@
         <v>4.0286455154418945</v>
       </c>
       <c r="C128" s="2">
-        <v>4.0930595397949219</v>
+        <v>4.0921015739440918</v>
       </c>
       <c r="D128" s="2">
         <v>3.9041619300842285</v>
       </c>
       <c r="E128" s="2">
-        <v>3.8838415145874023</v>
+        <v>3.8835124969482422</v>
       </c>
     </row>
     <row r="129">
@@ -2265,13 +2265,13 @@
         <v>4.5618553161621094</v>
       </c>
       <c r="C129" s="2">
-        <v>4.2569332122802734</v>
+        <v>4.256535530090332</v>
       </c>
       <c r="D129" s="2">
         <v>3.9406790733337402</v>
       </c>
       <c r="E129" s="2">
-        <v>3.9112164974212646</v>
+        <v>3.9108591079711914</v>
       </c>
     </row>
     <row r="130">
@@ -2282,13 +2282,13 @@
         <v>3.2429232597351074</v>
       </c>
       <c r="C130" s="2">
-        <v>3.2431936264038086</v>
+        <v>3.2425057888031006</v>
       </c>
       <c r="D130" s="2">
         <v>3.8931331634521484</v>
       </c>
       <c r="E130" s="2">
-        <v>3.8615424633026123</v>
+        <v>3.8609685897827149</v>
       </c>
     </row>
     <row r="131">
@@ -2299,13 +2299,13 @@
         <v>3.68310546875</v>
       </c>
       <c r="C131" s="2">
-        <v>3.6951942443847656</v>
+        <v>3.6948032379150391</v>
       </c>
       <c r="D131" s="2">
         <v>3.8230805397033691</v>
       </c>
       <c r="E131" s="2">
-        <v>3.7850663661956787</v>
+        <v>3.7844796180725098</v>
       </c>
     </row>
     <row r="132">
@@ -2316,13 +2316,13 @@
         <v>3.9443776607513428</v>
       </c>
       <c r="C132" s="2">
-        <v>3.8319766521453857</v>
+        <v>3.8325865268707275</v>
       </c>
       <c r="D132" s="2">
         <v>3.8246469497680664</v>
       </c>
       <c r="E132" s="2">
-        <v>3.7818067073822022</v>
+        <v>3.781181812286377</v>
       </c>
     </row>
     <row r="133">
@@ -2333,13 +2333,13 @@
         <v>3.9019074440002441</v>
       </c>
       <c r="C133" s="2">
-        <v>3.9601681232452393</v>
+        <v>3.9589600563049317</v>
       </c>
       <c r="D133" s="2">
         <v>3.8221738338470459</v>
       </c>
       <c r="E133" s="2">
-        <v>3.7681066989898682</v>
+        <v>3.7676198482513428</v>
       </c>
     </row>
     <row r="134">
@@ -2350,13 +2350,13 @@
         <v>3.6060712337493896</v>
       </c>
       <c r="C134" s="2">
-        <v>3.608565092086792</v>
+        <v>3.6064019203186035</v>
       </c>
       <c r="D134" s="2">
         <v>3.7871029376983643</v>
       </c>
       <c r="E134" s="2">
-        <v>3.7566609382629395</v>
+        <v>3.7563469409942627</v>
       </c>
     </row>
     <row r="135">
@@ -2367,13 +2367,13 @@
         <v>3.4735567569732666</v>
       </c>
       <c r="C135" s="2">
-        <v>3.443467378616333</v>
+        <v>3.4428749084472656</v>
       </c>
       <c r="D135" s="2">
         <v>3.8688387870788574</v>
       </c>
       <c r="E135" s="2">
-        <v>3.8428614139556885</v>
+        <v>3.8425750732421875</v>
       </c>
     </row>
     <row r="136">
@@ -2384,13 +2384,13 @@
         <v>3.979379415512085</v>
       </c>
       <c r="C136" s="2">
-        <v>3.903702974319458</v>
+        <v>3.9038670063018799</v>
       </c>
       <c r="D136" s="2">
         <v>3.9195215702056885</v>
       </c>
       <c r="E136" s="2">
-        <v>3.9000248908996582</v>
+        <v>3.8997235298156738</v>
       </c>
     </row>
     <row r="137">
@@ -2401,13 +2401,13 @@
         <v>4.0063877105712891</v>
       </c>
       <c r="C137" s="2">
-        <v>3.9697599411010742</v>
+        <v>3.9700427055358887</v>
       </c>
       <c r="D137" s="2">
         <v>3.9067833423614502</v>
       </c>
       <c r="E137" s="2">
-        <v>3.9022214412689209</v>
+        <v>3.9019315242767334</v>
       </c>
     </row>
     <row r="138">
@@ -2418,13 +2418,13 @@
         <v>4.2462167739868164</v>
       </c>
       <c r="C138" s="2">
-        <v>4.1539196968078613</v>
+        <v>4.1550803184509277</v>
       </c>
       <c r="D138" s="2">
         <v>3.9162147045135498</v>
       </c>
       <c r="E138" s="2">
-        <v>3.892608642578125</v>
+        <v>3.8922257423400879</v>
       </c>
     </row>
     <row r="139">
@@ -2435,13 +2435,13 @@
         <v>3.9785463809967041</v>
       </c>
       <c r="C139" s="2">
-        <v>4.0189995765686035</v>
+        <v>4.0185589790344238</v>
       </c>
       <c r="D139" s="2">
         <v>3.9166164398193359</v>
       </c>
       <c r="E139" s="2">
-        <v>3.8929054737091065</v>
+        <v>3.8926515579223633</v>
       </c>
     </row>
     <row r="140">
@@ -2452,13 +2452,13 @@
         <v>4.1392512321472168</v>
       </c>
       <c r="C140" s="2">
-        <v>4.2096638679504395</v>
+        <v>4.2091398239135742</v>
       </c>
       <c r="D140" s="2">
         <v>3.9978604316711426</v>
       </c>
       <c r="E140" s="2">
-        <v>3.9790515899658203</v>
+        <v>3.9786930084228516</v>
       </c>
     </row>
     <row r="141">
@@ -2469,13 +2469,13 @@
         <v>3.82973313331604</v>
       </c>
       <c r="C141" s="2">
-        <v>3.8517453670501709</v>
+        <v>3.8524587154388428</v>
       </c>
       <c r="D141" s="2">
         <v>4.0089535713195801</v>
       </c>
       <c r="E141" s="2">
-        <v>3.9800705909729004</v>
+        <v>3.9797501564025879</v>
       </c>
     </row>
     <row r="142">
@@ -2486,13 +2486,13 @@
         <v>3.9867899417877197</v>
       </c>
       <c r="C142" s="2">
-        <v>3.873654842376709</v>
+        <v>3.8716065883636475</v>
       </c>
       <c r="D142" s="2">
         <v>4.0298609733581543</v>
       </c>
       <c r="E142" s="2">
-        <v>3.9970009326934815</v>
+        <v>3.996551513671875</v>
       </c>
     </row>
     <row r="143">
@@ -2503,13 +2503,13 @@
         <v>3.6096861362457275</v>
       </c>
       <c r="C143" s="2">
-        <v>3.6112349033355713</v>
+        <v>3.610234260559082</v>
       </c>
       <c r="D143" s="2">
         <v>3.9875633716583252</v>
       </c>
       <c r="E143" s="2">
-        <v>3.9631786346435547</v>
+        <v>3.9626970291137695</v>
       </c>
     </row>
     <row r="144">
@@ -2520,13 +2520,13 @@
         <v>4.2047538757324219</v>
       </c>
       <c r="C144" s="2">
-        <v>4.2187833786010742</v>
+        <v>4.2172479629516602</v>
       </c>
       <c r="D144" s="2">
         <v>3.9666812419891358</v>
       </c>
       <c r="E144" s="2">
-        <v>3.9314136505126953</v>
+        <v>3.930842399597168</v>
       </c>
     </row>
     <row r="145">
@@ -2537,13 +2537,13 @@
         <v>4.0792155265808105</v>
       </c>
       <c r="C145" s="2">
-        <v>3.9128730297088623</v>
+        <v>3.9133830070495605</v>
       </c>
       <c r="D145" s="2">
         <v>3.9503111839294434</v>
       </c>
       <c r="E145" s="2">
-        <v>3.9096813201904297</v>
+        <v>3.9091382026672363</v>
       </c>
     </row>
     <row r="146">
@@ -2554,13 +2554,13 @@
         <v>4.1945557594299316</v>
       </c>
       <c r="C146" s="2">
-        <v>4.1221346855163574</v>
+        <v>4.1212530136108398</v>
       </c>
       <c r="D146" s="2">
         <v>3.8672749996185303</v>
       </c>
       <c r="E146" s="2">
-        <v>3.8251934051513672</v>
+        <v>3.8244950771331787</v>
       </c>
     </row>
     <row r="147">
@@ -2571,13 +2571,13 @@
         <v>3.8655381202697754</v>
       </c>
       <c r="C147" s="2">
-        <v>3.849517822265625</v>
+        <v>3.8503906726837158</v>
       </c>
       <c r="D147" s="2">
         <v>3.794119119644165</v>
       </c>
       <c r="E147" s="2">
-        <v>3.7442212104797363</v>
+        <v>3.7438228130340576</v>
       </c>
     </row>
     <row r="148">
@@ -2588,13 +2588,13 @@
         <v>3.790607213973999</v>
       </c>
       <c r="C148" s="2">
-        <v>3.7331156730651855</v>
+        <v>3.7318685054779053</v>
       </c>
       <c r="D148" s="2">
         <v>3.8196616172790527</v>
       </c>
       <c r="E148" s="2">
-        <v>3.7675142288208008</v>
+        <v>3.7673444747924805</v>
       </c>
     </row>
     <row r="149">
@@ -2605,13 +2605,13 @@
         <v>3.9919219017028809</v>
       </c>
       <c r="C149" s="2">
-        <v>4.0140719413757324</v>
+        <v>4.0138015747070313</v>
       </c>
       <c r="D149" s="2">
         <v>3.8297927379608154</v>
       </c>
       <c r="E149" s="2">
-        <v>3.7693254947662354</v>
+        <v>3.7691762447357178</v>
       </c>
     </row>
     <row r="150">
@@ -2622,13 +2622,13 @@
         <v>3.0824072360992432</v>
       </c>
       <c r="C150" s="2">
-        <v>3.0913541316986084</v>
+        <v>3.0906691551208496</v>
       </c>
       <c r="D150" s="2">
         <v>3.9254441261291504</v>
       </c>
       <c r="E150" s="2">
-        <v>3.8913652896881104</v>
+        <v>3.8913328647613525</v>
       </c>
     </row>
     <row r="151">
@@ -2639,13 +2639,13 @@
         <v>3.3283853530883789</v>
       </c>
       <c r="C151" s="2">
-        <v>3.1449043750762939</v>
+        <v>3.1455578804016113</v>
       </c>
       <c r="D151" s="2">
         <v>4.0257153511047363</v>
       </c>
       <c r="E151" s="2">
-        <v>3.9979302883148193</v>
+        <v>3.9976661205291748</v>
       </c>
     </row>
     <row r="152">
@@ -2656,13 +2656,13 @@
         <v>3.8395702838897705</v>
       </c>
       <c r="C152" s="2">
-        <v>3.8208725452423096</v>
+        <v>3.8219292163848877</v>
       </c>
       <c r="D152" s="2">
         <v>4.1817293167114258</v>
       </c>
       <c r="E152" s="2">
-        <v>4.1383285522460938</v>
+        <v>4.1380329132080078</v>
       </c>
     </row>
     <row r="153">
@@ -2673,13 +2673,13 @@
         <v>4.2959332466125488</v>
       </c>
       <c r="C153" s="2">
-        <v>4.2350854873657227</v>
+        <v>4.2337336540222168</v>
       </c>
       <c r="D153" s="2">
         <v>4.3404712677001953</v>
       </c>
       <c r="E153" s="2">
-        <v>4.3046751022338867</v>
+        <v>4.304415225982666</v>
       </c>
     </row>
     <row r="154">
@@ -2690,13 +2690,13 @@
         <v>4.9400782585144043</v>
       </c>
       <c r="C154" s="2">
-        <v>5.0112299919128418</v>
+        <v>5.012791633605957</v>
       </c>
       <c r="D154" s="2">
         <v>4.5507335662841797</v>
       </c>
       <c r="E154" s="2">
-        <v>4.4774818420410156</v>
+        <v>4.4771895408630371</v>
       </c>
     </row>
     <row r="155">
@@ -2707,13 +2707,13 @@
         <v>5.0969977378845215</v>
       </c>
       <c r="C155" s="2">
-        <v>5.0812211036682129</v>
+        <v>5.078251838684082</v>
       </c>
       <c r="D155" s="2">
         <v>4.8327503204345703</v>
       </c>
       <c r="E155" s="2">
-        <v>4.7465357780456543</v>
+        <v>4.746366024017334</v>
       </c>
     </row>
     <row r="156">
@@ -2724,13 +2724,13 @@
         <v>5.2696604728698731</v>
       </c>
       <c r="C156" s="2">
-        <v>5.1131019592285156</v>
+        <v>5.1136922836303711</v>
       </c>
       <c r="D156" s="2">
         <v>4.9979076385498047</v>
       </c>
       <c r="E156" s="2">
-        <v>4.8912568092346191</v>
+        <v>4.8909502029418945</v>
       </c>
     </row>
     <row r="157">
@@ -2741,13 +2741,13 @@
         <v>5.2192864418029785</v>
       </c>
       <c r="C157" s="2">
-        <v>5.2302355766296387</v>
+        <v>5.2293109893798828</v>
       </c>
       <c r="D157" s="2">
         <v>5.1233968734741211</v>
       </c>
       <c r="E157" s="2">
-        <v>5.0099630355834961</v>
+        <v>5.0095381736755371</v>
       </c>
     </row>
     <row r="158">
@@ -2758,13 +2758,13 @@
         <v>5.8842825889587402</v>
       </c>
       <c r="C158" s="2">
-        <v>5.5693330764770508</v>
+        <v>5.5687685012817383</v>
       </c>
       <c r="D158" s="2">
         <v>5.2179183959960938</v>
       </c>
       <c r="E158" s="2">
-        <v>5.0988826751708984</v>
+        <v>5.098358154296875</v>
       </c>
     </row>
     <row r="159">
@@ -2775,13 +2775,13 @@
         <v>5.6205568313598633</v>
       </c>
       <c r="C159" s="2">
-        <v>5.5128393173217773</v>
+        <v>5.5132589340209961</v>
       </c>
       <c r="D159" s="2">
         <v>5.1188726425170899</v>
       </c>
       <c r="E159" s="2">
-        <v>4.9923734664916992</v>
+        <v>4.9917435646057129</v>
       </c>
     </row>
     <row r="160">
@@ -2792,13 +2792,13 @@
         <v>4.8148040771484375</v>
       </c>
       <c r="C160" s="2">
-        <v>4.4473919868469238</v>
+        <v>4.4468140602111816</v>
       </c>
       <c r="D160" s="2">
         <v>5.0083155632019043</v>
       </c>
       <c r="E160" s="2">
-        <v>4.8857526779174805</v>
+        <v>4.8853206634521484</v>
       </c>
     </row>
     <row r="161">
@@ -2809,13 +2809,13 @@
         <v>4.9689736366271973</v>
       </c>
       <c r="C161" s="2">
-        <v>4.8892269134521484</v>
+        <v>4.8892221450805664</v>
       </c>
       <c r="D161" s="2">
         <v>4.8853311538696289</v>
       </c>
       <c r="E161" s="2">
-        <v>4.786527156829834</v>
+        <v>4.7860684394836426</v>
       </c>
     </row>
     <row r="162">
@@ -2826,13 +2826,13 @@
         <v>5.1466236114501953</v>
       </c>
       <c r="C162" s="2">
-        <v>5.0353646278381348</v>
+        <v>5.0331120491027832</v>
       </c>
       <c r="D162" s="2">
         <v>4.7245163917541504</v>
       </c>
       <c r="E162" s="2">
-        <v>4.6215362548828125</v>
+        <v>4.6211743354797363</v>
       </c>
     </row>
     <row r="163">
@@ -2843,13 +2843,13 @@
         <v>4.048668384552002</v>
       </c>
       <c r="C163" s="2">
-        <v>4.0526461601257324</v>
+        <v>4.0532627105712891</v>
       </c>
       <c r="D163" s="2">
         <v>4.5938811302185059</v>
       </c>
       <c r="E163" s="2">
-        <v>4.5213322639465332</v>
+        <v>4.5210332870483398</v>
       </c>
     </row>
     <row r="164">
@@ -2860,13 +2860,13 @@
         <v>4.1019859313964844</v>
       </c>
       <c r="C164" s="2">
-        <v>4.121635913848877</v>
+        <v>4.1204442977905274</v>
       </c>
       <c r="D164" s="2">
         <v>4.4883174896240234</v>
       </c>
       <c r="E164" s="2">
-        <v>4.4177761077880859</v>
+        <v>4.4174051284790039</v>
       </c>
     </row>
     <row r="165">
@@ -2877,13 +2877,13 @@
         <v>4.1627979278564453</v>
       </c>
       <c r="C165" s="2">
-        <v>4.2200717926025391</v>
+        <v>4.2204208374023438</v>
       </c>
       <c r="D165" s="2">
         <v>4.5428223609924316</v>
       </c>
       <c r="E165" s="2">
-        <v>4.5079512596130371</v>
+        <v>4.507652759552002</v>
       </c>
     </row>
     <row r="166">
@@ -2894,13 +2894,13 @@
         <v>3.7719550132751465</v>
       </c>
       <c r="C166" s="2">
-        <v>3.7453148365020752</v>
+        <v>3.7452635765075684</v>
       </c>
       <c r="D166" s="2">
         <v>4.5694928169250488</v>
       </c>
       <c r="E166" s="2">
-        <v>4.521845817565918</v>
+        <v>4.5216884613037109</v>
       </c>
     </row>
     <row r="167">
@@ -2911,13 +2911,13 @@
         <v>4.7085657119750977</v>
       </c>
       <c r="C167" s="2">
-        <v>4.6674976348876953</v>
+        <v>4.6675024032592774</v>
       </c>
       <c r="D167" s="2">
         <v>4.5303997993469238</v>
       </c>
       <c r="E167" s="2">
-        <v>4.4961757659912109</v>
+        <v>4.4960718154907227</v>
       </c>
     </row>
     <row r="168">
@@ -2928,13 +2928,13 @@
         <v>4.6704821586608887</v>
       </c>
       <c r="C168" s="2">
-        <v>4.5808343887329102</v>
+        <v>4.5806040763854981</v>
       </c>
       <c r="D168" s="2">
         <v>4.5268383026123047</v>
       </c>
       <c r="E168" s="2">
-        <v>4.4980530738830566</v>
+        <v>4.4978270530700684</v>
       </c>
     </row>
     <row r="169">
@@ -2945,13 +2945,13 @@
         <v>5.3053488731384277</v>
       </c>
       <c r="C169" s="2">
-        <v>5.2589688301086426</v>
+        <v>5.2590422630310059</v>
       </c>
       <c r="D169" s="2">
         <v>4.5952014923095703</v>
       </c>
       <c r="E169" s="2">
-        <v>4.5636944770812988</v>
+        <v>4.5636682510375977</v>
       </c>
     </row>
     <row r="170">
@@ -2962,13 +2962,13 @@
         <v>5.2090096473693848</v>
       </c>
       <c r="C170" s="2">
-        <v>5.0142779350280762</v>
+        <v>5.0155439376831055</v>
       </c>
       <c r="D170" s="2">
         <v>4.6298704147338867</v>
       </c>
       <c r="E170" s="2">
-        <v>4.5942845344543457</v>
+        <v>4.5941052436828613</v>
       </c>
     </row>
     <row r="171">
@@ -2979,13 +2979,13 @@
         <v>4.7947840690612793</v>
       </c>
       <c r="C171" s="2">
-        <v>4.8043332099914551</v>
+        <v>4.8025631904602051</v>
       </c>
       <c r="D171" s="2">
         <v>4.7297163009643555</v>
       </c>
       <c r="E171" s="2">
-        <v>4.6882991790771484</v>
+        <v>4.6881475448608398</v>
       </c>
     </row>
     <row r="172">
@@ -2996,13 +2996,13 @@
         <v>4.0166139602661133</v>
       </c>
       <c r="C172" s="2">
-        <v>4.069542407989502</v>
+        <v>4.0690569877624512</v>
       </c>
       <c r="D172" s="2">
         <v>4.6381349563598633</v>
       </c>
       <c r="E172" s="2">
-        <v>4.6087126731872559</v>
+        <v>4.6086301803588867</v>
       </c>
     </row>
     <row r="173">
@@ -3013,13 +3013,13 @@
         <v>4.7172565460205078</v>
       </c>
       <c r="C173" s="2">
-        <v>4.7124090194702149</v>
+        <v>4.7130169868469238</v>
       </c>
       <c r="D173" s="2">
         <v>4.6270294189453125</v>
       </c>
       <c r="E173" s="2">
-        <v>4.5869622230529785</v>
+        <v>4.5867924690246582</v>
       </c>
     </row>
     <row r="174">
@@ -3030,13 +3030,13 @@
         <v>4.4748187065124512</v>
       </c>
       <c r="C174" s="2">
-        <v>4.4953827857971192</v>
+        <v>4.494354248046875</v>
       </c>
       <c r="D174" s="2">
         <v>4.5077643394470215</v>
       </c>
       <c r="E174" s="2">
-        <v>4.4751763343811035</v>
+        <v>4.4748349189758301</v>
       </c>
     </row>
     <row r="175">
@@ -3047,13 +3047,13 @@
         <v>4.6705670356750488</v>
       </c>
       <c r="C175" s="2">
-        <v>4.5914454460144043</v>
+        <v>4.5916457176208496</v>
       </c>
       <c r="D175" s="2">
         <v>4.3778076171875</v>
       </c>
       <c r="E175" s="2">
-        <v>4.3653559684753418</v>
+        <v>4.3648223876953125</v>
       </c>
     </row>
     <row r="176">
@@ -3064,13 +3064,13 @@
         <v>3.8843338489532471</v>
       </c>
       <c r="C176" s="2">
-        <v>3.9512183666229248</v>
+        <v>3.9518451690673828</v>
       </c>
       <c r="D176" s="2">
         <v>4.306004524230957</v>
       </c>
       <c r="E176" s="2">
-        <v>4.3007545471191406</v>
+        <v>4.3004059791564941</v>
       </c>
     </row>
     <row r="177">
@@ -3081,13 +3081,13 @@
         <v>4.5705342292785645</v>
       </c>
       <c r="C177" s="2">
-        <v>4.3850836753845215</v>
+        <v>4.3840646743774414</v>
       </c>
       <c r="D177" s="2">
         <v>4.3371500968933106</v>
       </c>
       <c r="E177" s="2">
-        <v>4.3192548751831055</v>
+        <v>4.3187923431396484</v>
       </c>
     </row>
     <row r="178">
@@ -3098,13 +3098,13 @@
         <v>4.2319622039794922</v>
       </c>
       <c r="C178" s="2">
-        <v>4.252894401550293</v>
+        <v>4.2514243125915527</v>
       </c>
       <c r="D178" s="2">
         <v>4.2080726623535156</v>
       </c>
       <c r="E178" s="2">
-        <v>4.1842484474182129</v>
+        <v>4.1836371421813965</v>
       </c>
     </row>
     <row r="179">
@@ -3115,13 +3115,13 @@
         <v>4.0393986701965332</v>
       </c>
       <c r="C179" s="2">
-        <v>4.0258960723876953</v>
+        <v>4.0254321098327637</v>
       </c>
       <c r="D179" s="2">
         <v>4.1978750228881836</v>
       </c>
       <c r="E179" s="2">
-        <v>4.1624670028686523</v>
+        <v>4.1619358062744141</v>
       </c>
     </row>
     <row r="180">
@@ -3132,13 +3132,13 @@
         <v>4.1485557556152344</v>
       </c>
       <c r="C180" s="2">
-        <v>4.2229189872741699</v>
+        <v>4.2228150367736817</v>
       </c>
       <c r="D180" s="2">
         <v>4.1790437698364258</v>
       </c>
       <c r="E180" s="2">
-        <v>4.1543412208557129</v>
+        <v>4.1537990570068359</v>
       </c>
     </row>
     <row r="181">
@@ -3149,13 +3149,13 @@
         <v>4.2969241142272949</v>
       </c>
       <c r="C181" s="2">
-        <v>4.2360453605651855</v>
+        <v>4.2345328330993652</v>
       </c>
       <c r="D181" s="2">
         <v>4.2363519668579102</v>
       </c>
       <c r="E181" s="2">
-        <v>4.1809368133544922</v>
+        <v>4.1803789138793945</v>
       </c>
     </row>
     <row r="182">
@@ -3166,13 +3166,13 @@
         <v>3.5555591583251953</v>
       </c>
       <c r="C182" s="2">
-        <v>3.4973516464233399</v>
+        <v>3.4966204166412354</v>
       </c>
       <c r="D182" s="2">
         <v>4.1872053146362305</v>
       </c>
       <c r="E182" s="2">
-        <v>4.1518416404724121</v>
+        <v>4.1512584686279297</v>
       </c>
     </row>
     <row r="183">
@@ -3183,13 +3183,13 @@
         <v>4.3830404281616211</v>
       </c>
       <c r="C183" s="2">
-        <v>4.2993497848510742</v>
+        <v>4.299044132232666</v>
       </c>
       <c r="D183" s="2">
         <v>4.1576037406921387</v>
       </c>
       <c r="E183" s="2">
-        <v>4.0927119255065918</v>
+        <v>4.0920758247375488</v>
       </c>
     </row>
     <row r="184">
@@ -3200,13 +3200,13 @@
         <v>4.5010862350463867</v>
       </c>
       <c r="C184" s="2">
-        <v>4.5183124542236328</v>
+        <v>4.5184130668640137</v>
       </c>
       <c r="D184" s="2">
         <v>4.1290659904479981</v>
       </c>
       <c r="E184" s="2">
-        <v>4.0480108261108398</v>
+        <v>4.0476040840148926</v>
       </c>
     </row>
     <row r="185">
@@ -3217,13 +3217,13 @@
         <v>4.4001073837280274</v>
       </c>
       <c r="C185" s="2">
-        <v>4.1905770301818848</v>
+        <v>4.191065788269043</v>
       </c>
       <c r="D185" s="2">
         <v>4.108891487121582</v>
       </c>
       <c r="E185" s="2">
-        <v>4.0207662582397461</v>
+        <v>4.0202975273132324</v>
       </c>
     </row>
     <row r="186">
@@ -3234,13 +3234,13 @@
         <v>4.1282129287719727</v>
       </c>
       <c r="C186" s="2">
-        <v>4.1232309341430664</v>
+        <v>4.121976375579834</v>
       </c>
       <c r="D186" s="2">
         <v>4.1605253219604492</v>
       </c>
       <c r="E186" s="2">
-        <v>4.0648574829101563</v>
+        <v>4.0645723342895508</v>
       </c>
     </row>
     <row r="187">
@@ -3251,13 +3251,13 @@
         <v>3.9655506610870361</v>
       </c>
       <c r="C187" s="2">
-        <v>3.7207248210906982</v>
+        <v>3.7187821865081787</v>
       </c>
       <c r="D187" s="2">
         <v>4.2315049171447754</v>
       </c>
       <c r="E187" s="2">
-        <v>4.1122756004333496</v>
+        <v>4.112152099609375</v>
       </c>
     </row>
     <row r="188">
@@ -3268,13 +3268,13 @@
         <v>3.7825582027435303</v>
       </c>
       <c r="C188" s="2">
-        <v>3.6235847473144531</v>
+        <v>3.6251864433288574</v>
       </c>
       <c r="D188" s="2">
         <v>4.2142910957336426</v>
       </c>
       <c r="E188" s="2">
-        <v>4.100339412689209</v>
+        <v>4.1003704071044922</v>
       </c>
     </row>
     <row r="189">
@@ -3285,13 +3285,13 @@
         <v>3.9669833183288574</v>
       </c>
       <c r="C189" s="2">
-        <v>3.9777204990386963</v>
+        <v>3.9770572185516358</v>
       </c>
       <c r="D189" s="2">
         <v>4.2037482261657715</v>
       </c>
       <c r="E189" s="2">
-        <v>4.0899028778076172</v>
+        <v>4.0899572372436524</v>
       </c>
     </row>
     <row r="190">
@@ -3302,13 +3302,13 @@
         <v>4.7616300582885742</v>
       </c>
       <c r="C190" s="2">
-        <v>4.6328654289245606</v>
+        <v>4.6330032348632813</v>
       </c>
       <c r="D190" s="2">
         <v>4.1248078346252442</v>
       </c>
       <c r="E190" s="2">
-        <v>4.0259995460510254</v>
+        <v>4.0260562896728516</v>
       </c>
     </row>
     <row r="191">
@@ -3319,13 +3319,13 @@
         <v>4.1943764686584473</v>
       </c>
       <c r="C191" s="2">
-        <v>3.9241156578063965</v>
+        <v>3.924839973449707</v>
       </c>
       <c r="D191" s="2">
         <v>4.0612754821777344</v>
       </c>
       <c r="E191" s="2">
-        <v>3.9461715221405029</v>
+        <v>3.9463319778442383</v>
       </c>
     </row>
     <row r="192">
@@ -3336,13 +3336,13 @@
         <v>4.2281126976013184</v>
       </c>
       <c r="C192" s="2">
-        <v>4.1919245719909668</v>
+        <v>4.1930093765258789</v>
       </c>
       <c r="D192" s="2">
         <v>4.0237245559692383</v>
       </c>
       <c r="E192" s="2">
-        <v>3.8989627361297607</v>
+        <v>3.8994350433349609</v>
       </c>
     </row>
     <row r="193">
@@ -3353,13 +3353,13 @@
         <v>4.4062037467956543</v>
       </c>
       <c r="C193" s="2">
-        <v>4.4243841171264648</v>
+        <v>4.4246964454650879</v>
       </c>
       <c r="D193" s="2">
         <v>3.9919888973236084</v>
       </c>
       <c r="E193" s="2">
-        <v>3.8898849487304688</v>
+        <v>3.8900952339172363</v>
       </c>
     </row>
     <row r="194">
@@ -3370,13 +3370,13 @@
         <v>3.6896429061889649</v>
       </c>
       <c r="C194" s="2">
-        <v>3.6154448986053467</v>
+        <v>3.6159567832946777</v>
       </c>
       <c r="D194" s="2">
         <v>3.9963579177856445</v>
       </c>
       <c r="E194" s="2">
-        <v>3.8948540687561035</v>
+        <v>3.8952643871307373</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +3387,13 @@
         <v>3.5564200878143311</v>
       </c>
       <c r="C195" s="2">
-        <v>3.404778003692627</v>
+        <v>3.4044570922851563</v>
       </c>
       <c r="D195" s="2">
         <v>3.8820686340332031</v>
       </c>
       <c r="E195" s="2">
-        <v>3.7983908653259277</v>
+        <v>3.7987525463104248</v>
       </c>
     </row>
     <row r="196">
@@ -3404,13 +3404,13 @@
         <v>3.6275947093963623</v>
       </c>
       <c r="C196" s="2">
-        <v>3.2958459854125977</v>
+        <v>3.2967097759246826</v>
       </c>
       <c r="D196" s="2">
         <v>3.8816556930541992</v>
       </c>
       <c r="E196" s="2">
-        <v>3.8254880905151367</v>
+        <v>3.8257520198822022</v>
       </c>
     </row>
     <row r="197">
@@ -3421,13 +3421,13 @@
         <v>3.4969356060028076</v>
       </c>
       <c r="C197" s="2">
-        <v>3.5418846607208252</v>
+        <v>3.5411267280578613</v>
       </c>
       <c r="D197" s="2">
         <v>3.8840534687042236</v>
       </c>
       <c r="E197" s="2">
-        <v>3.819366455078125</v>
+        <v>3.8194241523742676</v>
       </c>
     </row>
     <row r="198">
@@ -3438,13 +3438,13 @@
         <v>4.0063042640686035</v>
       </c>
       <c r="C198" s="2">
-        <v>4.0224437713623047</v>
+        <v>4.0235805511474609</v>
       </c>
       <c r="D198" s="2">
         <v>3.783766508102417</v>
       </c>
       <c r="E198" s="2">
-        <v>3.7107226848602295</v>
+        <v>3.7106606960296631</v>
       </c>
     </row>
     <row r="199">
@@ -3455,13 +3455,13 @@
         <v>3.733027458190918</v>
       </c>
       <c r="C199" s="2">
-        <v>3.7646970748901367</v>
+        <v>3.7643952369689941</v>
       </c>
       <c r="D199" s="2">
         <v>3.7685971260070801</v>
       </c>
       <c r="E199" s="2">
-        <v>3.681434154510498</v>
+        <v>3.681098222732544</v>
       </c>
     </row>
     <row r="200">
@@ -3472,13 +3472,13 @@
         <v>4.1906604766845703</v>
       </c>
       <c r="C200" s="2">
-        <v>4.1679887771606445</v>
+        <v>4.1678352355957031</v>
       </c>
       <c r="D200" s="2">
         <v>3.8132710456848145</v>
       </c>
       <c r="E200" s="2">
-        <v>3.7432210445404053</v>
+        <v>3.7430551052093506</v>
       </c>
     </row>
     <row r="201">
@@ -3489,13 +3489,13 @@
         <v>4.2496929168701172</v>
       </c>
       <c r="C201" s="2">
-        <v>4.1368298530578613</v>
+        <v>4.1360597610473633</v>
       </c>
       <c r="D201" s="2">
         <v>3.8687834739685059</v>
       </c>
       <c r="E201" s="2">
-        <v>3.8259446620941162</v>
+        <v>3.8257451057434082</v>
       </c>
     </row>
     <row r="202">
@@ -3506,13 +3506,13 @@
         <v>3.5036203861236572</v>
       </c>
       <c r="C202" s="2">
-        <v>3.4465909004211426</v>
+        <v>3.4458258152008057</v>
       </c>
       <c r="D202" s="2">
         <v>3.8831210136413574</v>
       </c>
       <c r="E202" s="2">
-        <v>3.8366076946258545</v>
+        <v>3.8365192413330078</v>
       </c>
     </row>
     <row r="203">
@@ -3523,13 +3523,13 @@
         <v>3.5531179904937744</v>
       </c>
       <c r="C203" s="2">
-        <v>3.3518481254577637</v>
+        <v>3.3498942852020264</v>
       </c>
       <c r="D203" s="2">
         <v>3.8147087097167969</v>
       </c>
       <c r="E203" s="2">
-        <v>3.7777366638183594</v>
+        <v>3.7776312828063965</v>
       </c>
     </row>
     <row r="204">
@@ -3540,13 +3540,13 @@
         <v>3.9584856033325195</v>
       </c>
       <c r="C204" s="2">
-        <v>3.9608609676361084</v>
+        <v>3.9620692729949951</v>
       </c>
       <c r="D204" s="2">
         <v>3.8203892707824707</v>
       </c>
       <c r="E204" s="2">
-        <v>3.7774059772491455</v>
+        <v>3.7772259712219238</v>
       </c>
     </row>
     <row r="205">
@@ -3557,13 +3557,13 @@
         <v>4.1272068023681641</v>
       </c>
       <c r="C205" s="2">
-        <v>4.0403580665588379</v>
+        <v>4.0409188270568848</v>
       </c>
       <c r="D205" s="2">
         <v>3.8052942752838135</v>
       </c>
       <c r="E205" s="2">
-        <v>3.7507612705230713</v>
+        <v>3.7506606578826904</v>
       </c>
     </row>
     <row r="206">
@@ -3574,13 +3574,13 @@
         <v>3.6259734630584717</v>
       </c>
       <c r="C206" s="2">
-        <v>3.6378519535064697</v>
+        <v>3.6380939483642578</v>
       </c>
       <c r="D206" s="2">
         <v>3.7856020927429199</v>
       </c>
       <c r="E206" s="2">
-        <v>3.7026047706604004</v>
+        <v>3.7024514675140381</v>
       </c>
     </row>
     <row r="207">
@@ -3591,13 +3591,13 @@
         <v>3.3905940055847168</v>
       </c>
       <c r="C207" s="2">
-        <v>3.4926049709320068</v>
+        <v>3.4935891628265381</v>
       </c>
       <c r="D207" s="2">
         <v>3.836916446685791</v>
       </c>
       <c r="E207" s="2">
-        <v>3.7565233707427979</v>
+        <v>3.7564139366149902</v>
       </c>
     </row>
     <row r="208">
@@ -3608,13 +3608,13 @@
         <v>3.784151554107666</v>
       </c>
       <c r="C208" s="2">
-        <v>3.7617204189300537</v>
+        <v>3.7607467174530029</v>
       </c>
       <c r="D208" s="2">
         <v>3.8652083873748779</v>
       </c>
       <c r="E208" s="2">
-        <v>3.8176858425140381</v>
+        <v>3.8178439140319824</v>
       </c>
     </row>
     <row r="209">
@@ -3625,13 +3625,13 @@
         <v>4.0548062324523926</v>
       </c>
       <c r="C209" s="2">
-        <v>3.9281861782073975</v>
+        <v>3.9287488460540772</v>
       </c>
       <c r="D209" s="2">
         <v>3.8924236297607422</v>
       </c>
       <c r="E209" s="2">
-        <v>3.8167703151702881</v>
+        <v>3.81691575050354</v>
       </c>
     </row>
     <row r="210">
@@ -3642,13 +3642,13 @@
         <v>4.0724625587463379</v>
       </c>
       <c r="C210" s="2">
-        <v>3.7034204006195068</v>
+        <v>3.7021758556365967</v>
       </c>
       <c r="D210" s="2">
         <v>3.8652403354644775</v>
       </c>
       <c r="E210" s="2">
-        <v>3.8028120994567871</v>
+        <v>3.8028769493103027</v>
       </c>
     </row>
     <row r="211">
@@ -3659,13 +3659,13 @@
         <v>3.9654502868652344</v>
       </c>
       <c r="C211" s="2">
-        <v>3.931859016418457</v>
+        <v>3.9314892292022705</v>
       </c>
       <c r="D211" s="2">
         <v>3.8147697448730469</v>
       </c>
       <c r="E211" s="2">
-        <v>3.754021167755127</v>
+        <v>3.7539434432983398</v>
       </c>
     </row>
     <row r="212">
@@ -3676,13 +3676,13 @@
         <v>3.8077449798583984</v>
       </c>
       <c r="C212" s="2">
-        <v>3.9023101329803467</v>
+        <v>3.9027636051177979</v>
       </c>
       <c r="D212" s="2">
         <v>3.9047887325286865</v>
       </c>
       <c r="E212" s="2">
-        <v>3.8428242206573486</v>
+        <v>3.8427765369415283</v>
       </c>
     </row>
     <row r="213">
@@ -3693,13 +3693,13 @@
         <v>4.2034225463867188</v>
       </c>
       <c r="C213" s="2">
-        <v>3.952622652053833</v>
+        <v>3.9537146091461182</v>
       </c>
       <c r="D213" s="2">
         <v>3.9039812088012695</v>
       </c>
       <c r="E213" s="2">
-        <v>3.8389616012573242</v>
+        <v>3.8390254974365234</v>
       </c>
     </row>
     <row r="214">
@@ -3710,13 +3710,13 @@
         <v>3.8825583457946777</v>
       </c>
       <c r="C214" s="2">
-        <v>3.9147322177886963</v>
+        <v>3.9145703315734863</v>
       </c>
       <c r="D214" s="2">
         <v>3.9037740230560303</v>
       </c>
       <c r="E214" s="2">
-        <v>3.8333287239074707</v>
+        <v>3.8332750797271729</v>
       </c>
     </row>
     <row r="215">
@@ -3727,13 +3727,13 @@
         <v>3.1717381477355957</v>
       </c>
       <c r="C215" s="2">
-        <v>3.1987354755401611</v>
+        <v>3.1976926326751709</v>
       </c>
       <c r="D215" s="2">
         <v>3.825577974319458</v>
       </c>
       <c r="E215" s="2">
-        <v>3.7911884784698486</v>
+        <v>3.7915494441986084</v>
       </c>
     </row>
     <row r="216">
@@ -3744,13 +3744,13 @@
         <v>4.2007632255554199</v>
       </c>
       <c r="C216" s="2">
-        <v>4.291832447052002</v>
+        <v>4.293086051940918</v>
       </c>
       <c r="D216" s="2">
         <v>3.8674559593200684</v>
       </c>
       <c r="E216" s="2">
-        <v>3.8421170711517334</v>
+        <v>3.8425374031066895</v>
       </c>
     </row>
     <row r="217">
@@ -3761,13 +3761,13 @@
         <v>3.7768843173980713</v>
       </c>
       <c r="C217" s="2">
-        <v>3.7269551753997803</v>
+        <v>3.7269890308380127</v>
       </c>
       <c r="D217" s="2">
         <v>3.8432183265686035</v>
       </c>
       <c r="E217" s="2">
-        <v>3.7714507579803467</v>
+        <v>3.7716236114501953</v>
       </c>
     </row>
     <row r="218">
@@ -3778,13 +3778,13 @@
         <v>4.0529413223266602</v>
       </c>
       <c r="C218" s="2">
-        <v>3.8774914741516113</v>
+        <v>3.8769934177398682</v>
       </c>
       <c r="D218" s="2">
         <v>3.872032642364502</v>
       </c>
       <c r="E218" s="2">
-        <v>3.8169288635253906</v>
+        <v>3.8170950412750244</v>
       </c>
     </row>
     <row r="219">
@@ -3795,13 +3795,13 @@
         <v>3.3686988353729248</v>
       </c>
       <c r="C219" s="2">
-        <v>3.32415771484375</v>
+        <v>3.3266456127166748</v>
       </c>
       <c r="D219" s="2">
         <v>3.8413360118865967</v>
       </c>
       <c r="E219" s="2">
-        <v>3.7631204128265381</v>
+        <v>3.7632467746734619</v>
       </c>
     </row>
     <row r="220">
@@ -3812,13 +3812,13 @@
         <v>4.3423514366149902</v>
       </c>
       <c r="C220" s="2">
-        <v>4.3902163505554199</v>
+        <v>4.3903818130493164</v>
       </c>
       <c r="D220" s="2">
         <v>3.9152722358703613</v>
       </c>
       <c r="E220" s="2">
-        <v>3.8183553218841553</v>
+        <v>3.8186242580413818</v>
       </c>
     </row>
     <row r="221">
@@ -3829,13 +3829,13 @@
         <v>3.5896067619323731</v>
       </c>
       <c r="C221" s="2">
-        <v>3.2663140296936035</v>
+        <v>3.264538049697876</v>
       </c>
       <c r="D221" s="2">
         <v>3.9038076400756836</v>
       </c>
       <c r="E221" s="2">
-        <v>3.7989821434020996</v>
+        <v>3.7990415096282959</v>
       </c>
     </row>
     <row r="222">
@@ -3846,13 +3846,13 @@
         <v>4.4627518653869629</v>
       </c>
       <c r="C222" s="2">
-        <v>4.3619251251220703</v>
+        <v>4.3629593849182129</v>
       </c>
       <c r="D222" s="2">
         <v>3.8869314193725586</v>
       </c>
       <c r="E222" s="2">
-        <v>3.7768490314483643</v>
+        <v>3.7770395278930664</v>
       </c>
     </row>
     <row r="223">
@@ -3863,13 +3863,13 @@
         <v>3.6062881946563721</v>
       </c>
       <c r="C223" s="2">
-        <v>3.4304563999176025</v>
+        <v>3.429934024810791</v>
       </c>
       <c r="D223" s="2">
         <v>3.9254381656646729</v>
       </c>
       <c r="E223" s="2">
-        <v>3.8235197067260742</v>
+        <v>3.8239097595214844</v>
       </c>
     </row>
     <row r="224">
@@ -3880,13 +3880,13 @@
         <v>3.8371636867523193</v>
       </c>
       <c r="C224" s="2">
-        <v>3.6958496570587158</v>
+        <v>3.6960916519165039</v>
       </c>
       <c r="D224" s="2">
         <v>3.9103567600250244</v>
       </c>
       <c r="E224" s="2">
-        <v>3.8139946460723877</v>
+        <v>3.8141024112701416</v>
       </c>
     </row>
     <row r="225">
@@ -3897,13 +3897,13 @@
         <v>4.0975832939147949</v>
       </c>
       <c r="C225" s="2">
-        <v>4.1174731254577637</v>
+        <v>4.1168398857116699</v>
       </c>
       <c r="D225" s="2">
         <v>3.8274989128112793</v>
       </c>
       <c r="E225" s="2">
-        <v>3.7257602214813233</v>
+        <v>3.7257821559906006</v>
       </c>
     </row>
     <row r="226">
@@ -3914,13 +3914,13 @@
         <v>3.6249983310699463</v>
       </c>
       <c r="C226" s="2">
-        <v>3.5277583599090576</v>
+        <v>3.5289721488952637</v>
       </c>
       <c r="D226" s="2">
         <v>3.7693893909454346</v>
       </c>
       <c r="E226" s="2">
-        <v>3.696305513381958</v>
+        <v>3.6967234611511231</v>
       </c>
     </row>
     <row r="227">
@@ -3931,13 +3931,13 @@
         <v>4.3995013236999512</v>
       </c>
       <c r="C227" s="2">
-        <v>4.2975268363952637</v>
+        <v>4.2988252639770508</v>
       </c>
       <c r="D227" s="2">
         <v>3.6467714309692383</v>
       </c>
       <c r="E227" s="2">
-        <v>3.575279712677002</v>
+        <v>3.5756542682647705</v>
       </c>
     </row>
     <row r="228">
@@ -3948,13 +3948,13 @@
         <v>3.2329649925231934</v>
       </c>
       <c r="C228" s="2">
-        <v>3.2384324073791504</v>
+        <v>3.2383801937103271</v>
       </c>
       <c r="D228" s="2">
         <v>3.6103711128234863</v>
       </c>
       <c r="E228" s="2">
-        <v>3.5560379028320313</v>
+        <v>3.5566506385803223</v>
       </c>
     </row>
     <row r="229">
@@ -3965,13 +3965,13 @@
         <v>3.5966322422027588</v>
       </c>
       <c r="C229" s="2">
-        <v>3.5961060523986816</v>
+        <v>3.5954997539520264</v>
       </c>
       <c r="D229" s="2">
         <v>3.5925853252410889</v>
       </c>
       <c r="E229" s="2">
-        <v>3.5284478664398193</v>
+        <v>3.5292685031890869</v>
       </c>
     </row>
     <row r="230">
@@ -3982,13 +3982,13 @@
         <v>3.0666215419769287</v>
       </c>
       <c r="C230" s="2">
-        <v>3.001220703125</v>
+        <v>3.0030083656311035</v>
       </c>
       <c r="D230" s="2">
         <v>3.534658670425415</v>
       </c>
       <c r="E230" s="2">
-        <v>3.4728198051452637</v>
+        <v>3.4737081527709961</v>
       </c>
     </row>
     <row r="231">
@@ -3999,13 +3999,13 @@
         <v>3.3591897487640381</v>
       </c>
       <c r="C231" s="2">
-        <v>3.2726938724517822</v>
+        <v>3.2733380794525146</v>
       </c>
       <c r="D231" s="2">
         <v>3.5254933834075928</v>
       </c>
       <c r="E231" s="2">
-        <v>3.4865469932556152</v>
+        <v>3.4874346256256104</v>
       </c>
     </row>
     <row r="232">
@@ -4016,13 +4016,13 @@
         <v>3.2786858081817627</v>
       </c>
       <c r="C232" s="2">
-        <v>3.257279634475708</v>
+        <v>3.2589008808135986</v>
       </c>
       <c r="D232" s="2">
         <v>3.4817874431610107</v>
       </c>
       <c r="E232" s="2">
-        <v>3.4426970481872559</v>
+        <v>3.4436142444610596</v>
       </c>
     </row>
     <row r="233">
@@ -4033,13 +4033,13 @@
         <v>3.6770896911621094</v>
       </c>
       <c r="C233" s="2">
-        <v>3.4475388526916504</v>
+        <v>3.4496521949768066</v>
       </c>
       <c r="D233" s="2">
         <v>3.5156421661376953</v>
       </c>
       <c r="E233" s="2">
-        <v>3.4557690620422363</v>
+        <v>3.4566121101379395</v>
       </c>
     </row>
     <row r="234">
@@ -4050,13 +4050,13 @@
         <v>3.5762434005737305</v>
       </c>
       <c r="C234" s="2">
-        <v>3.6168224811553955</v>
+        <v>3.6167962551116943</v>
       </c>
       <c r="D234" s="2">
         <v>3.4382021427154541</v>
       </c>
       <c r="E234" s="2">
-        <v>3.3769679069519043</v>
+        <v>3.3777332305908203</v>
       </c>
     </row>
     <row r="235">
@@ -4067,13 +4067,13 @@
         <v>3.5425121784210205</v>
       </c>
       <c r="C235" s="2">
-        <v>3.6513011455535889</v>
+        <v>3.6525096893310547</v>
       </c>
       <c r="D235" s="2">
         <v>3.4576280117034912</v>
       </c>
       <c r="E235" s="2">
-        <v>3.3961312770843506</v>
+        <v>3.3965637683868408</v>
       </c>
     </row>
     <row r="236">
@@ -4084,13 +4084,13 @@
         <v>4.0061483383178711</v>
       </c>
       <c r="C236" s="2">
-        <v>3.9028773307800293</v>
+        <v>3.9044430255889893</v>
       </c>
       <c r="D236" s="2">
         <v>3.4786615371704102</v>
       </c>
       <c r="E236" s="2">
-        <v>3.4376115798950195</v>
+        <v>3.4381089210510254</v>
       </c>
     </row>
     <row r="237">
@@ -4101,13 +4101,13 @@
         <v>3.5376560688018799</v>
       </c>
       <c r="C237" s="2">
-        <v>3.3560812473297119</v>
+        <v>3.3553617000579834</v>
       </c>
       <c r="D237" s="2">
         <v>3.5378484725952148</v>
       </c>
       <c r="E237" s="2">
-        <v>3.492002010345459</v>
+        <v>3.4923117160797119</v>
       </c>
     </row>
     <row r="238">
@@ -4118,13 +4118,13 @@
         <v>2.8996732234954834</v>
       </c>
       <c r="C238" s="2">
-        <v>2.8868966102600098</v>
+        <v>2.8855881690979004</v>
       </c>
       <c r="D238" s="2">
         <v>3.5016093254089356</v>
       </c>
       <c r="E238" s="2">
-        <v>3.4825823307037354</v>
+        <v>3.4824910163879395</v>
       </c>
     </row>
     <row r="239">
@@ -4135,13 +4135,13 @@
         <v>3.2414543628692627</v>
       </c>
       <c r="C239" s="2">
-        <v>3.1736893653869629</v>
+        <v>3.1724834442138672</v>
       </c>
       <c r="D239" s="2">
         <v>3.4521110057830811</v>
       </c>
       <c r="E239" s="2">
-        <v>3.4434480667114258</v>
+        <v>3.443148136138916</v>
       </c>
     </row>
     <row r="240">
@@ -4152,13 +4152,13 @@
         <v>3.5484905242919922</v>
       </c>
       <c r="C240" s="2">
-        <v>3.6460180282592774</v>
+        <v>3.6472439765930176</v>
       </c>
       <c r="D240" s="2">
         <v>3.4422399997711182</v>
       </c>
       <c r="E240" s="2">
-        <v>3.4272804260253906</v>
+        <v>3.4268665313720703</v>
       </c>
     </row>
     <row r="241">
@@ -4169,13 +4169,13 @@
         <v>3.8113682270050049</v>
       </c>
       <c r="C241" s="2">
-        <v>3.7467927932739258</v>
+        <v>3.7467269897460938</v>
       </c>
       <c r="D241" s="2">
         <v>3.3008048534393311</v>
       </c>
       <c r="E241" s="2">
-        <v>3.302121639251709</v>
+        <v>3.3014531135559082</v>
       </c>
     </row>
     <row r="242">
@@ -4186,13 +4186,13 @@
         <v>3.3509376049041748</v>
       </c>
       <c r="C242" s="2">
-        <v>3.362762451171875</v>
+        <v>3.3612651824951172</v>
       </c>
       <c r="D242" s="2">
         <v>3.2847714424133301</v>
       </c>
       <c r="E242" s="2">
-        <v>3.2973349094390869</v>
+        <v>3.296919584274292</v>
       </c>
     </row>
     <row r="243">
@@ -4203,13 +4203,13 @@
         <v>3.1307578086853027</v>
       </c>
       <c r="C243" s="2">
-        <v>3.2646136283874512</v>
+        <v>3.2627112865447998</v>
       </c>
       <c r="D243" s="2">
         <v>3.320873498916626</v>
       </c>
       <c r="E243" s="2">
-        <v>3.3388798236846924</v>
+        <v>3.338519811630249</v>
       </c>
     </row>
     <row r="244">
@@ -4220,13 +4220,13 @@
         <v>3.45367431640625</v>
       </c>
       <c r="C244" s="2">
-        <v>3.5057914257049561</v>
+        <v>3.5059754848480225</v>
       </c>
       <c r="D244" s="2">
         <v>3.2778739929199219</v>
       </c>
       <c r="E244" s="2">
-        <v>3.3056554794311524</v>
+        <v>3.3054697513580322</v>
       </c>
     </row>
     <row r="245">
@@ -4237,13 +4237,13 @@
         <v>2.7332313060760498</v>
       </c>
       <c r="C245" s="2">
-        <v>2.7764489650726318</v>
+        <v>2.7757227420806885</v>
       </c>
       <c r="D245" s="2">
         <v>3.2040784358978272</v>
       </c>
       <c r="E245" s="2">
-        <v>3.2015616893768311</v>
+        <v>3.2012999057769775</v>
       </c>
     </row>
     <row r="246">
@@ -4254,13 +4254,13 @@
         <v>3.393355131149292</v>
       </c>
       <c r="C246" s="2">
-        <v>3.3130011558532715</v>
+        <v>3.3145594596862793</v>
       </c>
       <c r="D246" s="2">
         <v>3.1632518768310547</v>
       </c>
       <c r="E246" s="2">
-        <v>3.1558318138122559</v>
+        <v>3.1556522846221924</v>
       </c>
     </row>
     <row r="247">
@@ -4271,13 +4271,13 @@
         <v>3.2245914936065674</v>
       </c>
       <c r="C247" s="2">
-        <v>3.2608013153076172</v>
+        <v>3.2599902153015137</v>
       </c>
       <c r="D247" s="2">
         <v>3.1315021514892578</v>
       </c>
       <c r="E247" s="2">
-        <v>3.1053879261016846</v>
+        <v>3.1052744388580322</v>
       </c>
     </row>
     <row r="248">
@@ -4288,13 +4288,13 @@
         <v>2.8544595241546631</v>
       </c>
       <c r="C248" s="2">
-        <v>2.8746695518493652</v>
+        <v>2.8750317096710205</v>
       </c>
       <c r="D248" s="2">
         <v>3.192234992980957</v>
       </c>
       <c r="E248" s="2">
-        <v>3.1595230102539063</v>
+        <v>3.1596522331237793</v>
       </c>
     </row>
     <row r="249">
@@ -4305,13 +4305,13 @@
         <v>2.8843305110931397</v>
       </c>
       <c r="C249" s="2">
-        <v>2.7091746330261231</v>
+        <v>2.7097151279449463</v>
       </c>
       <c r="D249" s="2">
         <v>3.147158145904541</v>
       </c>
       <c r="E249" s="2">
-        <v>3.0939872264862061</v>
+        <v>3.0940022468566895</v>
       </c>
     </row>
     <row r="250">
@@ -4322,13 +4322,13 @@
         <v>3.4439294338226318</v>
       </c>
       <c r="C250" s="2">
-        <v>3.3352227210998535</v>
+        <v>3.335899829864502</v>
       </c>
       <c r="D250" s="2">
         <v>3.199044942855835</v>
       </c>
       <c r="E250" s="2">
-        <v>3.1377367973327637</v>
+        <v>3.1377429962158203</v>
       </c>
     </row>
     <row r="251">
@@ -4339,13 +4339,13 @@
         <v>3.0651891231536865</v>
       </c>
       <c r="C251" s="2">
-        <v>2.9087681770324707</v>
+        <v>2.9078638553619385</v>
       </c>
       <c r="D251" s="2">
         <v>3.1490232944488525</v>
       </c>
       <c r="E251" s="2">
-        <v>3.0805327892303467</v>
+        <v>3.0804910659790039</v>
       </c>
     </row>
     <row r="252">
@@ -4356,13 +4356,13 @@
         <v>3.6773538589477539</v>
       </c>
       <c r="C252" s="2">
-        <v>3.7518296241760254</v>
+        <v>3.7521114349365234</v>
       </c>
       <c r="D252" s="2">
         <v>3.1537802219390869</v>
       </c>
       <c r="E252" s="2">
-        <v>3.0674614906311035</v>
+        <v>3.0675058364868164</v>
       </c>
     </row>
     <row r="253">
@@ -4373,13 +4373,13 @@
         <v>3.0479822158813477</v>
       </c>
       <c r="C253" s="2">
-        <v>2.9159684181213379</v>
+        <v>2.915125846862793</v>
       </c>
       <c r="D253" s="2">
         <v>3.1576163768768311</v>
       </c>
       <c r="E253" s="2">
-        <v>3.0688586235046387</v>
+        <v>3.0688767433166504</v>
       </c>
     </row>
     <row r="254">
@@ -4390,13 +4390,13 @@
         <v>3.2002134323120117</v>
       </c>
       <c r="C254" s="2">
-        <v>3.1701958179473877</v>
+        <v>3.1693894863128662</v>
       </c>
       <c r="D254" s="2">
         <v>3.163780689239502</v>
       </c>
       <c r="E254" s="2">
-        <v>3.0742077827453613</v>
+        <v>3.0741879940032959</v>
       </c>
     </row>
     <row r="255">
@@ -4407,13 +4407,13 @@
         <v>2.943159818649292</v>
       </c>
       <c r="C255" s="2">
-        <v>2.798163890838623</v>
+        <v>2.7992928028106689</v>
       </c>
       <c r="D255" s="2">
         <v>3.151989221572876</v>
       </c>
       <c r="E255" s="2">
-        <v>3.0842921733856201</v>
+        <v>3.0841517448425293</v>
       </c>
     </row>
     <row r="256">
@@ -4424,13 +4424,13 @@
         <v>3.2674050331115723</v>
       </c>
       <c r="C256" s="2">
-        <v>3.1431596279144287</v>
+        <v>3.1431224346160889</v>
       </c>
       <c r="D256" s="2">
         <v>3.1423709392547608</v>
       </c>
       <c r="E256" s="2">
-        <v>3.1028039455413818</v>
+        <v>3.1024549007415771</v>
       </c>
     </row>
     <row r="257">
@@ -4441,13 +4441,13 @@
         <v>2.8889834880828858</v>
       </c>
       <c r="C257" s="2">
-        <v>2.8872442245483398</v>
+        <v>2.8873701095581055</v>
       </c>
       <c r="D257" s="2">
         <v>3.084669828414917</v>
       </c>
       <c r="E257" s="2">
-        <v>3.0355656147003174</v>
+        <v>3.035104513168335</v>
       </c>
     </row>
     <row r="258">
@@ -4458,13 +4458,13 @@
         <v>2.9398102760314942</v>
       </c>
       <c r="C258" s="2">
-        <v>2.757317066192627</v>
+        <v>2.7575170993804932</v>
       </c>
       <c r="D258" s="2">
         <v>3.1128582954406738</v>
       </c>
       <c r="E258" s="2">
-        <v>3.0631504058837891</v>
+        <v>3.0627295970916748</v>
       </c>
     </row>
     <row r="259">
@@ -4475,13 +4475,13 @@
         <v>3.337805986404419</v>
       </c>
       <c r="C259" s="2">
-        <v>3.4259822368621826</v>
+        <v>3.4255731105804443</v>
       </c>
       <c r="D259" s="2">
         <v>3.1047215461730957</v>
       </c>
       <c r="E259" s="2">
-        <v>2.9981563091278076</v>
+        <v>2.9978580474853516</v>
       </c>
     </row>
     <row r="260">
@@ -4492,13 +4492,13 @@
         <v>2.9786252975463867</v>
       </c>
       <c r="C260" s="2">
-        <v>3.0753750801086426</v>
+        <v>3.0725913047790527</v>
       </c>
       <c r="D260" s="2">
         <v>3.1624977588653564</v>
       </c>
       <c r="E260" s="2">
-        <v>3.0865159034729004</v>
+        <v>3.0860989093780518</v>
       </c>
     </row>
     <row r="261">
@@ -4509,13 +4509,13 @@
         <v>3.1580421924591065</v>
       </c>
       <c r="C261" s="2">
-        <v>3.1466834545135498</v>
+        <v>3.1459581851959229</v>
       </c>
       <c r="D261" s="2">
         <v>3.1564946174621582</v>
       </c>
       <c r="E261" s="2">
-        <v>3.0852885246276856</v>
+        <v>3.084956169128418</v>
       </c>
     </row>
     <row r="262">
@@ -4526,13 +4526,13 @@
         <v>3.3016800880432129</v>
       </c>
       <c r="C262" s="2">
-        <v>3.1642313003540039</v>
+        <v>3.1637520790100098</v>
       </c>
       <c r="D262" s="2">
         <v>3.2513048648834229</v>
       </c>
       <c r="E262" s="2">
-        <v>3.1754436492919922</v>
+        <v>3.1750743389129639</v>
       </c>
     </row>
     <row r="263">
@@ -4543,13 +4543,13 @@
         <v>3.1269807815551758</v>
       </c>
       <c r="C263" s="2">
-        <v>2.5852489471435547</v>
+        <v>2.5855448246002197</v>
       </c>
       <c r="D263" s="2">
         <v>3.3401598930358887</v>
       </c>
       <c r="E263" s="2">
-        <v>3.2743270397186279</v>
+        <v>3.2739062309265137</v>
       </c>
     </row>
     <row r="264">
@@ -4560,13 +4560,13 @@
         <v>3.4631462097167969</v>
       </c>
       <c r="C264" s="2">
-        <v>3.5934009552001953</v>
+        <v>3.593461275100708</v>
       </c>
       <c r="D264" s="2">
         <v>3.3486342430114746</v>
       </c>
       <c r="E264" s="2">
-        <v>3.2673647403717041</v>
+        <v>3.266864538192749</v>
       </c>
     </row>
     <row r="265">
@@ -4577,13 +4577,13 @@
         <v>3.2133762836456299</v>
       </c>
       <c r="C265" s="2">
-        <v>3.1321136951446533</v>
+        <v>3.1328380107879639</v>
       </c>
       <c r="D265" s="2">
         <v>3.3644547462463379</v>
       </c>
       <c r="E265" s="2">
-        <v>3.2575421333312988</v>
+        <v>3.2574191093444824</v>
       </c>
     </row>
     <row r="266">
@@ -4594,13 +4594,13 @@
         <v>3.7422761917114258</v>
       </c>
       <c r="C266" s="2">
-        <v>3.6986403465270996</v>
+        <v>3.6984322071075439</v>
       </c>
       <c r="D266" s="2">
         <v>3.3512697219848633</v>
       </c>
       <c r="E266" s="2">
-        <v>3.249319314956665</v>
+        <v>3.2492883205413818</v>
       </c>
     </row>
     <row r="267">
@@ -4611,13 +4611,13 @@
         <v>3.7395064830780029</v>
       </c>
       <c r="C267" s="2">
-        <v>3.6472675800323486</v>
+        <v>3.6470043659210205</v>
       </c>
       <c r="D267" s="2">
         <v>3.342789888381958</v>
       </c>
       <c r="E267" s="2">
-        <v>3.2518024444580078</v>
+        <v>3.2517881393432617</v>
       </c>
     </row>
     <row r="268">
@@ -4628,13 +4628,13 @@
         <v>3.4140751361846924</v>
       </c>
       <c r="C268" s="2">
-        <v>3.3633220195770264</v>
+        <v>3.3621993064880371</v>
       </c>
       <c r="D268" s="2">
         <v>3.3792126178741455</v>
       </c>
       <c r="E268" s="2">
-        <v>3.3559708595275879</v>
+        <v>3.3558785915374756</v>
       </c>
     </row>
     <row r="269">
@@ -4645,13 +4645,13 @@
         <v>3.121009111404419</v>
       </c>
       <c r="C269" s="2">
-        <v>2.9869704246520996</v>
+        <v>2.9875822067260742</v>
       </c>
       <c r="D269" s="2">
         <v>3.4116978645324707</v>
       </c>
       <c r="E269" s="2">
-        <v>3.3222954273223877</v>
+        <v>3.3221900463104248</v>
       </c>
     </row>
     <row r="270">
@@ -4662,13 +4662,13 @@
         <v>3.0393767356872559</v>
       </c>
       <c r="C270" s="2">
-        <v>3.0726792812347412</v>
+        <v>3.0727798938751221</v>
       </c>
       <c r="D270" s="2">
         <v>3.5137777328491211</v>
       </c>
       <c r="E270" s="2">
-        <v>3.412398099899292</v>
+        <v>3.4120140075683594</v>
       </c>
     </row>
     <row r="271">
@@ -4679,13 +4679,13 @@
         <v>3.22536301612854</v>
       </c>
       <c r="C271" s="2">
-        <v>3.1865780353546143</v>
+        <v>3.1862504482269287</v>
       </c>
       <c r="D271" s="2">
         <v>3.5534012317657471</v>
       </c>
       <c r="E271" s="2">
-        <v>3.4414145946502686</v>
+        <v>3.4409887790679932</v>
       </c>
     </row>
     <row r="272">
@@ -4696,13 +4696,13 @@
         <v>3.454784631729126</v>
       </c>
       <c r="C272" s="2">
-        <v>3.5227653980255127</v>
+        <v>3.5223586559295654</v>
       </c>
       <c r="D272" s="2">
         <v>3.536442756652832</v>
       </c>
       <c r="E272" s="2">
-        <v>3.4476163387298584</v>
+        <v>3.4472174644470215</v>
       </c>
     </row>
     <row r="273">
@@ -4713,13 +4713,13 @@
         <v>3.7555122375488281</v>
       </c>
       <c r="C273" s="2">
-        <v>3.2903220653533936</v>
+        <v>3.2902653217315674</v>
       </c>
       <c r="D273" s="2">
         <v>3.5827023983001709</v>
       </c>
       <c r="E273" s="2">
-        <v>3.4742484092712402</v>
+        <v>3.473834753036499</v>
       </c>
     </row>
     <row r="274">
@@ -4730,13 +4730,13 @@
         <v>4.1320962905883789</v>
       </c>
       <c r="C274" s="2">
-        <v>3.9430370330810547</v>
+        <v>3.941253662109375</v>
       </c>
       <c r="D274" s="2">
         <v>3.669377326965332</v>
       </c>
       <c r="E274" s="2">
-        <v>3.5779085159301758</v>
+        <v>3.5773704051971436</v>
       </c>
     </row>
     <row r="275">
@@ -4747,13 +4747,13 @@
         <v>4.0988874435424805</v>
       </c>
       <c r="C275" s="2">
-        <v>3.9597902297973633</v>
+        <v>3.9592041969299316</v>
       </c>
       <c r="D275" s="2">
         <v>3.8051445484161377</v>
       </c>
       <c r="E275" s="2">
-        <v>3.7188029289245606</v>
+        <v>3.7182512283325195</v>
       </c>
     </row>
     <row r="276">
@@ -4764,13 +4764,13 @@
         <v>3.5868797302246094</v>
       </c>
       <c r="C276" s="2">
-        <v>3.7030825614929199</v>
+        <v>3.7030642032623291</v>
       </c>
       <c r="D276" s="2">
         <v>3.8741528987884521</v>
       </c>
       <c r="E276" s="2">
-        <v>3.7926192283630371</v>
+        <v>3.7920725345611572</v>
       </c>
     </row>
     <row r="277">
@@ -4781,13 +4781,13 @@
         <v>3.8304121494293213</v>
       </c>
       <c r="C277" s="2">
-        <v>3.6030104160308838</v>
+        <v>3.601754903793335</v>
       </c>
       <c r="D277" s="2">
         <v>3.9784433841705322</v>
       </c>
       <c r="E277" s="2">
-        <v>3.8768784999847412</v>
+        <v>3.8763747215270996</v>
       </c>
     </row>
     <row r="278">
@@ -4798,13 +4798,13 @@
         <v>3.9010844230651855</v>
       </c>
       <c r="C278" s="2">
-        <v>3.9199109077453613</v>
+        <v>3.9194016456604004</v>
       </c>
       <c r="D278" s="2">
         <v>4.0363903045654297</v>
       </c>
       <c r="E278" s="2">
-        <v>3.9942760467529297</v>
+        <v>3.9938116073608398</v>
       </c>
     </row>
     <row r="279">
@@ -4815,13 +4815,13 @@
         <v>4.2612814903259277</v>
       </c>
       <c r="C279" s="2">
-        <v>4.3407292366027832</v>
+        <v>4.3407073020935059</v>
       </c>
       <c r="D279" s="2">
         <v>4.0706839561462402</v>
       </c>
       <c r="E279" s="2">
-        <v>4.001093864440918</v>
+        <v>4.0010266304016113</v>
       </c>
     </row>
     <row r="280">
@@ -4832,13 +4832,13 @@
         <v>3.8464369773864746</v>
       </c>
       <c r="C280" s="2">
-        <v>3.8509247303009033</v>
+        <v>3.8506436347961426</v>
       </c>
       <c r="D280" s="2">
         <v>4.0286593437194824</v>
       </c>
       <c r="E280" s="2">
-        <v>3.9587399959564209</v>
+        <v>3.9586405754089356</v>
       </c>
     </row>
     <row r="281">
@@ -4849,13 +4849,13 @@
         <v>4.393399715423584</v>
       </c>
       <c r="C281" s="2">
-        <v>4.2810983657836914</v>
+        <v>4.2810773849487305</v>
       </c>
       <c r="D281" s="2">
         <v>4.0808019638061523</v>
       </c>
       <c r="E281" s="2">
-        <v>3.9979209899902344</v>
+        <v>3.9976561069488525</v>
       </c>
     </row>
     <row r="282">
@@ -4866,13 +4866,13 @@
         <v>4.2770347595214844</v>
       </c>
       <c r="C282" s="2">
-        <v>4.3469014167785645</v>
+        <v>4.3471965789794922</v>
       </c>
       <c r="D282" s="2">
         <v>4.1467533111572266</v>
       </c>
       <c r="E282" s="2">
-        <v>4.060244083404541</v>
+        <v>4.0599431991577148</v>
       </c>
     </row>
     <row r="283">
@@ -4883,13 +4883,13 @@
         <v>4.4407405853271484</v>
       </c>
       <c r="C283" s="2">
-        <v>4.0043988227844238</v>
+        <v>4.0061907768249512</v>
       </c>
       <c r="D283" s="2">
         <v>4.2746191024780274</v>
       </c>
       <c r="E283" s="2">
-        <v>4.1573972702026367</v>
+        <v>4.1570281982421875</v>
       </c>
     </row>
     <row r="284">
@@ -4900,13 +4900,13 @@
         <v>3.7206640243530273</v>
       </c>
       <c r="C284" s="2">
-        <v>3.5786035060882568</v>
+        <v>3.5777297019958496</v>
       </c>
       <c r="D284" s="2">
         <v>4.3695507049560547</v>
       </c>
       <c r="E284" s="2">
-        <v>4.2505588531494141</v>
+        <v>4.2501688003540039</v>
       </c>
     </row>
     <row r="285">
@@ -4917,13 +4917,13 @@
         <v>4.0561628341674805</v>
       </c>
       <c r="C285" s="2">
-        <v>4.0557112693786621</v>
+        <v>4.0542035102844238</v>
       </c>
       <c r="D285" s="2">
         <v>4.5183582305908203</v>
       </c>
       <c r="E285" s="2">
-        <v>4.4000906944274902</v>
+        <v>4.399958610534668</v>
       </c>
     </row>
     <row r="286">
@@ -4934,13 +4934,13 @@
         <v>4.4239740371704102</v>
       </c>
       <c r="C286" s="2">
-        <v>4.1639175415039063</v>
+        <v>4.1623373031616211</v>
       </c>
       <c r="D286" s="2">
         <v>4.4677720069885254</v>
       </c>
       <c r="E286" s="2">
-        <v>4.3595404624938965</v>
+        <v>4.3592572212219238</v>
       </c>
     </row>
     <row r="287">
@@ -4951,13 +4951,13 @@
         <v>5.051877498626709</v>
       </c>
       <c r="C287" s="2">
-        <v>4.7942886352539063</v>
+        <v>4.7931680679321289</v>
       </c>
       <c r="D287" s="2">
         <v>4.4230818748474121</v>
       </c>
       <c r="E287" s="2">
-        <v>4.3103289604187012</v>
+        <v>4.3098049163818359</v>
       </c>
     </row>
     <row r="288">
@@ -4968,13 +4968,13 @@
         <v>5.1156654357910156</v>
       </c>
       <c r="C288" s="2">
-        <v>5.1791834831237793</v>
+        <v>5.1789722442626953</v>
       </c>
       <c r="D288" s="2">
         <v>4.3849377632141113</v>
       </c>
       <c r="E288" s="2">
-        <v>4.3043360710144043</v>
+        <v>4.303764820098877</v>
       </c>
     </row>
     <row r="289">
@@ -4985,13 +4985,13 @@
         <v>5.1857056617736817</v>
       </c>
       <c r="C289" s="2">
-        <v>5.1967134475708008</v>
+        <v>5.198753833770752</v>
       </c>
       <c r="D289" s="2">
         <v>4.3976068496704102</v>
       </c>
       <c r="E289" s="2">
-        <v>4.2743420600891113</v>
+        <v>4.2738518714904785</v>
       </c>
     </row>
     <row r="290">
@@ -5002,13 +5002,13 @@
         <v>3.9381241798400879</v>
       </c>
       <c r="C290" s="2">
-        <v>3.9161443710327149</v>
+        <v>3.9147629737854004</v>
       </c>
       <c r="D290" s="2">
         <v>4.3462710380554199</v>
       </c>
       <c r="E290" s="2">
-        <v>4.2082972526550293</v>
+        <v>4.2079095840454102</v>
       </c>
     </row>
     <row r="291">
@@ -5019,13 +5019,13 @@
         <v>3.8748221397399902</v>
       </c>
       <c r="C291" s="2">
-        <v>3.9040005207061768</v>
+        <v>3.9021236896514893</v>
       </c>
       <c r="D291" s="2">
         <v>4.2555227279663086</v>
       </c>
       <c r="E291" s="2">
-        <v>4.1281352043151855</v>
+        <v>4.1278963088989258</v>
       </c>
     </row>
     <row r="292">
@@ -5036,13 +5036,13 @@
         <v>4.097442626953125</v>
       </c>
       <c r="C292" s="2">
-        <v>3.9504632949829102</v>
+        <v>3.9518325328826904</v>
       </c>
       <c r="D292" s="2">
         <v>4.1055941581726074</v>
       </c>
       <c r="E292" s="2">
-        <v>4.0099172592163086</v>
+        <v>4.009770393371582</v>
       </c>
     </row>
     <row r="293">
@@ -5053,13 +5053,13 @@
         <v>3.8346874713897705</v>
       </c>
       <c r="C293" s="2">
-        <v>3.3086569309234619</v>
+        <v>3.3085136413574219</v>
       </c>
       <c r="D293" s="2">
         <v>3.9219682216644287</v>
       </c>
       <c r="E293" s="2">
-        <v>3.8142688274383545</v>
+        <v>3.8140981197357178</v>
       </c>
     </row>
     <row r="294">
@@ -5070,13 +5070,13 @@
         <v>3.5941383838653564</v>
       </c>
       <c r="C294" s="2">
-        <v>3.4613056182861328</v>
+        <v>3.4607226848602295</v>
       </c>
       <c r="D294" s="2">
         <v>3.7633950710296631</v>
       </c>
       <c r="E294" s="2">
-        <v>3.6286213397979736</v>
+        <v>3.6282289028167725</v>
       </c>
     </row>
     <row r="295">
@@ -5087,13 +5087,13 @@
         <v>3.6072416305541992</v>
       </c>
       <c r="C295" s="2">
-        <v>3.4424586296081543</v>
+        <v>3.4422163963317871</v>
       </c>
       <c r="D295" s="2">
         <v>3.7637808322906494</v>
       </c>
       <c r="E295" s="2">
-        <v>3.6270759105682373</v>
+        <v>3.6266646385192871</v>
       </c>
     </row>
     <row r="296">
@@ -5104,13 +5104,13 @@
         <v>3.7025206089019775</v>
       </c>
       <c r="C296" s="2">
-        <v>3.730330228805542</v>
+        <v>3.7300374507904053</v>
       </c>
       <c r="D296" s="2">
         <v>3.7337501049041748</v>
       </c>
       <c r="E296" s="2">
-        <v>3.5715184211730957</v>
+        <v>3.5713372230529785</v>
       </c>
     </row>
     <row r="297">
@@ -5121,13 +5121,13 @@
         <v>3.4630312919616699</v>
       </c>
       <c r="C297" s="2">
-        <v>3.4183461666107178</v>
+        <v>3.4179203510284424</v>
       </c>
       <c r="D297" s="2">
         <v>3.7067553997039795</v>
       </c>
       <c r="E297" s="2">
-        <v>3.5638275146484375</v>
+        <v>3.5633134841918945</v>
       </c>
     </row>
     <row r="298">
@@ -5138,13 +5138,13 @@
         <v>3.7585482597351074</v>
       </c>
       <c r="C298" s="2">
-        <v>3.5258870124816895</v>
+        <v>3.5259311199188232</v>
       </c>
       <c r="D298" s="2">
         <v>3.6816940307617188</v>
       </c>
       <c r="E298" s="2">
-        <v>3.6068925857543945</v>
+        <v>3.6064069271087647</v>
       </c>
     </row>
     <row r="299">
@@ -5155,13 +5155,13 @@
         <v>3.9415957927703858</v>
       </c>
       <c r="C299" s="2">
-        <v>3.902235746383667</v>
+        <v>3.9006831645965576</v>
       </c>
       <c r="D299" s="2">
         <v>3.7416007518768311</v>
       </c>
       <c r="E299" s="2">
-        <v>3.6903145313262939</v>
+        <v>3.6898126602172852</v>
       </c>
     </row>
     <row r="300">
@@ -5172,13 +5172,13 @@
         <v>3.6045451164245606</v>
       </c>
       <c r="C300" s="2">
-        <v>3.4039816856384277</v>
+        <v>3.4041779041290283</v>
       </c>
       <c r="D300" s="2">
         <v>3.7711029052734375</v>
       </c>
       <c r="E300" s="2">
-        <v>3.732154130935669</v>
+        <v>3.7317805290222168</v>
       </c>
     </row>
     <row r="301">
@@ -5189,13 +5189,13 @@
         <v>3.8544893264770508</v>
       </c>
       <c r="C301" s="2">
-        <v>3.8812451362609863</v>
+        <v>3.8796195983886719</v>
       </c>
       <c r="D301" s="2">
         <v>3.8967525959014893</v>
       </c>
       <c r="E301" s="2">
-        <v>3.8553535938262939</v>
+        <v>3.85526442527771</v>
       </c>
     </row>
     <row r="302">
@@ -5206,13 +5206,13 @@
         <v>3.6091365814208984</v>
       </c>
       <c r="C302" s="2">
-        <v>3.6962423324584961</v>
+        <v>3.6963536739349365</v>
       </c>
       <c r="D302" s="2">
         <v>3.8768432140350342</v>
       </c>
       <c r="E302" s="2">
-        <v>3.8410248756408691</v>
+        <v>3.8408615589141846</v>
       </c>
     </row>
     <row r="303">
@@ -5223,13 +5223,13 @@
         <v>4.1332988739013672</v>
       </c>
       <c r="C303" s="2">
-        <v>4.2121038436889649</v>
+        <v>4.2113752365112305</v>
       </c>
       <c r="D303" s="2">
         <v>3.8511974811553955</v>
       </c>
       <c r="E303" s="2">
-        <v>3.8393487930297852</v>
+        <v>3.8392162322998047</v>
       </c>
     </row>
     <row r="304">
@@ -5240,13 +5240,13 @@
         <v>3.8727607727050781</v>
       </c>
       <c r="C304" s="2">
-        <v>3.8190140724182129</v>
+        <v>3.8199269771575928</v>
       </c>
       <c r="D304" s="2">
         <v>3.7936034202575684</v>
       </c>
       <c r="E304" s="2">
-        <v>3.7872366905212402</v>
+        <v>3.7874264717102051</v>
       </c>
     </row>
     <row r="305">
@@ -5257,13 +5257,13 @@
         <v>4.8333673477172852</v>
       </c>
       <c r="C305" s="2">
-        <v>4.8391256332397461</v>
+        <v>4.8413910865783692</v>
       </c>
       <c r="D305" s="2">
         <v>3.8048264980316162</v>
       </c>
       <c r="E305" s="2">
-        <v>3.8014528751373291</v>
+        <v>3.8017487525939942</v>
       </c>
     </row>
     <row r="306">
@@ -5274,13 +5274,13 @@
         <v>3.2838468551635742</v>
       </c>
       <c r="C306" s="2">
-        <v>3.28938889503479</v>
+        <v>3.2882950305938721</v>
       </c>
       <c r="D306" s="2">
         <v>3.7963066101074219</v>
       </c>
       <c r="E306" s="2">
-        <v>3.79103684425354</v>
+        <v>3.7914931774139404</v>
       </c>
     </row>
     <row r="307">
@@ -5291,13 +5291,13 @@
         <v>3.5277373790740967</v>
       </c>
       <c r="C307" s="2">
-        <v>3.5108017921447754</v>
+        <v>3.5111229419708252</v>
       </c>
       <c r="D307" s="2">
         <v>3.8119418621063232</v>
       </c>
       <c r="E307" s="2">
-        <v>3.794316291809082</v>
+        <v>3.7946927547454834</v>
       </c>
     </row>
     <row r="308">
@@ -5308,13 +5308,13 @@
         <v>3.4232485294342041</v>
       </c>
       <c r="C308" s="2">
-        <v>3.4332277774810791</v>
+        <v>3.4345760345458984</v>
       </c>
       <c r="D308" s="2">
         <v>3.7372992038726807</v>
       </c>
       <c r="E308" s="2">
-        <v>3.706247091293335</v>
+        <v>3.706916332244873</v>
       </c>
     </row>
     <row r="309">
@@ -5325,13 +5325,13 @@
         <v>3.7055525779724121</v>
       </c>
       <c r="C309" s="2">
-        <v>3.5319256782531738</v>
+        <v>3.5330777168273926</v>
       </c>
       <c r="D309" s="2">
         <v>3.6620819568634033</v>
       </c>
       <c r="E309" s="2">
-        <v>3.6219589710235596</v>
+        <v>3.6225700378417969</v>
       </c>
     </row>
     <row r="310">
@@ -5342,13 +5342,13 @@
         <v>3.7778110504150391</v>
       </c>
       <c r="C310" s="2">
-        <v>3.7875006198883057</v>
+        <v>3.7873201370239258</v>
       </c>
       <c r="D310" s="2">
         <v>3.5311498641967774</v>
       </c>
       <c r="E310" s="2">
-        <v>3.5021476745605469</v>
+        <v>3.5024547576904297</v>
       </c>
     </row>
     <row r="311">
@@ -5359,13 +5359,13 @@
         <v>3.7498531341552734</v>
       </c>
       <c r="C311" s="2">
-        <v>3.7257578372955322</v>
+        <v>3.7251503467559814</v>
       </c>
       <c r="D311" s="2">
         <v>3.5360217094421387</v>
       </c>
       <c r="E311" s="2">
-        <v>3.4955034255981445</v>
+        <v>3.496023416519165</v>
       </c>
     </row>
     <row r="312">
@@ -5376,13 +5376,13 @@
         <v>3.4615161418914795</v>
       </c>
       <c r="C312" s="2">
-        <v>3.4194822311401367</v>
+        <v>3.4213862419128418</v>
       </c>
       <c r="D312" s="2">
         <v>3.5479559898376465</v>
       </c>
       <c r="E312" s="2">
-        <v>3.4946396350860596</v>
+        <v>3.4952397346496582</v>
       </c>
     </row>
     <row r="313">
@@ -5393,13 +5393,13 @@
         <v>3.1958053112030029</v>
       </c>
       <c r="C313" s="2">
-        <v>3.060420036315918</v>
+        <v>3.0608105659484863</v>
       </c>
       <c r="D313" s="2">
         <v>3.5787432193756104</v>
       </c>
       <c r="E313" s="2">
-        <v>3.5178766250610352</v>
+        <v>3.5184004306793213</v>
       </c>
     </row>
     <row r="314">
@@ -5410,13 +5410,13 @@
         <v>3.6549777984619141</v>
       </c>
       <c r="C314" s="2">
-        <v>3.7608246803283692</v>
+        <v>3.7603545188903809</v>
       </c>
       <c r="D314" s="2">
         <v>3.5610930919647217</v>
       </c>
       <c r="E314" s="2">
-        <v>3.5205404758453369</v>
+        <v>3.5211741924285889</v>
       </c>
     </row>
     <row r="315">
@@ -5427,13 +5427,13 @@
         <v>3.3276932239532471</v>
       </c>
       <c r="C315" s="2">
-        <v>3.2295892238616943</v>
+        <v>3.2304131984710693</v>
       </c>
       <c r="D315" s="2">
         <v>3.5440859794616699</v>
       </c>
       <c r="E315" s="2">
-        <v>3.489229679107666</v>
+        <v>3.4900381565093994</v>
       </c>
     </row>
     <row r="316">
@@ -5444,13 +5444,13 @@
         <v>3.6351451873779297</v>
       </c>
       <c r="C316" s="2">
-        <v>3.5030279159545899</v>
+        <v>3.5040695667266846</v>
       </c>
       <c r="D316" s="2">
         <v>3.4792108535766602</v>
       </c>
       <c r="E316" s="2">
-        <v>3.4230451583862305</v>
+        <v>3.4235498905181885</v>
       </c>
     </row>
     <row r="317">
@@ -5461,13 +5461,13 @@
         <v>3.700333833694458</v>
       </c>
       <c r="C317" s="2">
-        <v>3.6423609256744385</v>
+        <v>3.6430222988128662</v>
       </c>
       <c r="D317" s="2">
         <v>3.4789412021636963</v>
       </c>
       <c r="E317" s="2">
-        <v>3.411607027053833</v>
+        <v>3.4118757247924805</v>
       </c>
     </row>
     <row r="318">
@@ -5478,13 +5478,13 @@
         <v>3.5467014312744141</v>
       </c>
       <c r="C318" s="2">
-        <v>3.5559017658233643</v>
+        <v>3.5580401420593262</v>
       </c>
       <c r="D318" s="2">
         <v>3.472646951675415</v>
       </c>
       <c r="E318" s="2">
-        <v>3.3977365493774414</v>
+        <v>3.39794921875</v>
       </c>
     </row>
     <row r="319">
@@ -5495,13 +5495,13 @@
         <v>3.6247472763061523</v>
       </c>
       <c r="C319" s="2">
-        <v>3.5057015419006348</v>
+        <v>3.5070960521697998</v>
       </c>
       <c r="D319" s="2">
         <v>3.4430778026580811</v>
       </c>
       <c r="E319" s="2">
-        <v>3.3561902046203613</v>
+        <v>3.3564107418060303</v>
       </c>
     </row>
     <row r="320">
@@ -5512,13 +5512,13 @@
         <v>3.1659765243530273</v>
       </c>
       <c r="C320" s="2">
-        <v>3.1300981044769287</v>
+        <v>3.1267554759979248</v>
       </c>
       <c r="D320" s="2">
         <v>3.4279749393463135</v>
       </c>
       <c r="E320" s="2">
-        <v>3.3432333469390869</v>
+        <v>3.3435003757476807</v>
       </c>
     </row>
     <row r="321">
@@ -5529,13 +5529,13 @@
         <v>3.4590909481048584</v>
       </c>
       <c r="C321" s="2">
-        <v>3.3165390491485596</v>
+        <v>3.3163206577301025</v>
       </c>
       <c r="D321" s="2">
         <v>3.3937656879425049</v>
       </c>
       <c r="E321" s="2">
-        <v>3.3284409046173096</v>
+        <v>3.3286542892456055</v>
       </c>
     </row>
     <row r="322">
@@ -5546,13 +5546,13 @@
         <v>3.1391561031341553</v>
       </c>
       <c r="C322" s="2">
-        <v>2.9355852603912354</v>
+        <v>2.9354712963104248</v>
       </c>
       <c r="D322" s="2">
         <v>3.3829224109649658</v>
       </c>
       <c r="E322" s="2">
-        <v>3.3032305240631104</v>
+        <v>3.3033559322357178</v>
       </c>
     </row>
     <row r="323">
@@ -5563,13 +5563,13 @@
         <v>3.38885498046875</v>
       </c>
       <c r="C323" s="2">
-        <v>3.386909008026123</v>
+        <v>3.3865077495574951</v>
       </c>
       <c r="D323" s="2">
         <v>3.33188796043396</v>
       </c>
       <c r="E323" s="2">
-        <v>3.2530477046966553</v>
+        <v>3.2530298233032227</v>
       </c>
     </row>
     <row r="324">
@@ -5580,13 +5580,13 @@
         <v>3.1917672157287598</v>
       </c>
       <c r="C324" s="2">
-        <v>3.1129763126373291</v>
+        <v>3.1142203807830811</v>
       </c>
       <c r="D324" s="2">
         <v>3.3056337833404541</v>
       </c>
       <c r="E324" s="2">
-        <v>3.2396953105926514</v>
+        <v>3.2396383285522461</v>
       </c>
     </row>
     <row r="325">
@@ -5597,13 +5597,13 @@
         <v>3.3272631168365479</v>
       </c>
       <c r="C325" s="2">
-        <v>3.3698966503143311</v>
+        <v>3.3704550266265869</v>
       </c>
       <c r="D325" s="2">
         <v>3.3183209896087647</v>
       </c>
       <c r="E325" s="2">
-        <v>3.2536003589630127</v>
+        <v>3.2539408206939697</v>
       </c>
     </row>
     <row r="326">
@@ -5614,13 +5614,13 @@
         <v>3.6027436256408691</v>
       </c>
       <c r="C326" s="2">
-        <v>3.4154667854309082</v>
+        <v>3.4153375625610352</v>
       </c>
       <c r="D326" s="2">
         <v>3.2918331623077393</v>
       </c>
       <c r="E326" s="2">
-        <v>3.2385833263397217</v>
+        <v>3.2390635013580322</v>
       </c>
     </row>
     <row r="327">
@@ -5631,13 +5631,13 @@
         <v>3.0873916149139404</v>
       </c>
       <c r="C327" s="2">
-        <v>3.1042568683624268</v>
+        <v>3.1051051616668701</v>
       </c>
       <c r="D327" s="2">
         <v>3.3317298889160156</v>
       </c>
       <c r="E327" s="2">
-        <v>3.3007853031158447</v>
+        <v>3.3011147975921631</v>
       </c>
     </row>
     <row r="328">
@@ -5648,13 +5648,13 @@
         <v>3.388460636138916</v>
       </c>
       <c r="C328" s="2">
-        <v>3.3855292797088623</v>
+        <v>3.3865718841552734</v>
       </c>
       <c r="D328" s="2">
         <v>3.3198268413543701</v>
       </c>
       <c r="E328" s="2">
-        <v>3.2757787704467774</v>
+        <v>3.2760851383209229</v>
       </c>
     </row>
     <row r="329">
@@ -5665,13 +5665,13 @@
         <v>3.2801611423492432</v>
       </c>
       <c r="C329" s="2">
-        <v>3.2552437782287598</v>
+        <v>3.2554781436920166</v>
       </c>
       <c r="D329" s="2">
         <v>3.3744840621948242</v>
       </c>
       <c r="E329" s="2">
-        <v>3.3302905559539795</v>
+        <v>3.3303470611572266</v>
       </c>
     </row>
     <row r="330">
@@ -5682,13 +5682,13 @@
         <v>3.2207002639770508</v>
       </c>
       <c r="C330" s="2">
-        <v>3.1813852787017822</v>
+        <v>3.1824245452880859</v>
       </c>
       <c r="D330" s="2">
         <v>3.5740458965301514</v>
       </c>
       <c r="E330" s="2">
-        <v>3.5139586925506592</v>
+        <v>3.5137929916381836</v>
       </c>
     </row>
     <row r="331">
@@ -5699,13 +5699,13 @@
         <v>3.4982259273529053</v>
       </c>
       <c r="C331" s="2">
-        <v>3.4954032897949219</v>
+        <v>3.4939320087432861</v>
       </c>
       <c r="D331" s="2">
         <v>3.730290412902832</v>
       </c>
       <c r="E331" s="2">
-        <v>3.6764230728149414</v>
+        <v>3.6764595508575439</v>
       </c>
     </row>
     <row r="332">
@@ -5716,13 +5716,13 @@
         <v>3.2817270755767822</v>
       </c>
       <c r="C332" s="2">
-        <v>3.1618506908416748</v>
+        <v>3.1612415313720703</v>
       </c>
       <c r="D332" s="2">
         <v>3.8870706558227539</v>
       </c>
       <c r="E332" s="2">
-        <v>3.8202974796295166</v>
+        <v>3.8201324939727783</v>
       </c>
     </row>
     <row r="333">
@@ -5733,13 +5733,13 @@
         <v>3.6836831569671631</v>
       </c>
       <c r="C333" s="2">
-        <v>3.6035828590393067</v>
+        <v>3.6025769710540772</v>
       </c>
       <c r="D333" s="2">
         <v>4.0632085800170899</v>
       </c>
       <c r="E333" s="2">
-        <v>3.96044921875</v>
+        <v>3.9602870941162109</v>
       </c>
     </row>
     <row r="334">
@@ -5750,13 +5750,13 @@
         <v>5.1233196258544922</v>
       </c>
       <c r="C334" s="2">
-        <v>5.0229096412658692</v>
+        <v>5.0214691162109375</v>
       </c>
       <c r="D334" s="2">
         <v>4.1666903495788574</v>
       </c>
       <c r="E334" s="2">
-        <v>4.0734701156616211</v>
+        <v>4.0734596252441406</v>
       </c>
     </row>
     <row r="335">
@@ -5767,13 +5767,13 @@
         <v>5.0089449882507324</v>
       </c>
       <c r="C335" s="2">
-        <v>4.8776459693908691</v>
+        <v>4.8793363571166992</v>
       </c>
       <c r="D335" s="2">
         <v>4.1722702980041504</v>
       </c>
       <c r="E335" s="2">
-        <v>4.0811934471130371</v>
+        <v>4.0809698104858399</v>
       </c>
     </row>
     <row r="336">
@@ -5784,13 +5784,13 @@
         <v>4.4984140396118164</v>
       </c>
       <c r="C336" s="2">
-        <v>4.3991274833679199</v>
+        <v>4.3981609344482422</v>
       </c>
       <c r="D336" s="2">
         <v>4.1823687553405762</v>
       </c>
       <c r="E336" s="2">
-        <v>4.0941438674926758</v>
+        <v>4.0940713882446289</v>
       </c>
     </row>
     <row r="337">
@@ -5801,13 +5801,13 @@
         <v>4.9737005233764648</v>
       </c>
       <c r="C337" s="2">
-        <v>4.6468935012817383</v>
+        <v>4.6479640007019043</v>
       </c>
       <c r="D337" s="2">
         <v>4.2772340774536133</v>
       </c>
       <c r="E337" s="2">
-        <v>4.2119612693786621</v>
+        <v>4.2120552062988281</v>
       </c>
     </row>
     <row r="338">
@@ -5818,13 +5818,13 @@
         <v>4.2114963531494141</v>
       </c>
       <c r="C338" s="2">
-        <v>4.2724323272705078</v>
+        <v>4.2740316390991211</v>
       </c>
       <c r="D338" s="2">
         <v>4.3286595344543457</v>
       </c>
       <c r="E338" s="2">
-        <v>4.2562751770019531</v>
+        <v>4.2566189765930176</v>
       </c>
     </row>
     <row r="339">
@@ -5835,13 +5835,13 @@
         <v>3.2709217071533203</v>
       </c>
       <c r="C339" s="2">
-        <v>3.2508959770202637</v>
+        <v>3.2500150203704834</v>
       </c>
       <c r="D339" s="2">
         <v>4.1281013488769531</v>
       </c>
       <c r="E339" s="2">
-        <v>4.0658721923828125</v>
+        <v>4.0663304328918457</v>
       </c>
     </row>
     <row r="340">
@@ -5852,13 +5852,13 @@
         <v>3.5891106128692627</v>
       </c>
       <c r="C340" s="2">
-        <v>3.6119558811187744</v>
+        <v>3.6118466854095459</v>
       </c>
       <c r="D340" s="2">
         <v>3.9429290294647217</v>
       </c>
       <c r="E340" s="2">
-        <v>3.8677828311920166</v>
+        <v>3.8681771755218506</v>
       </c>
     </row>
     <row r="341">
@@ -5869,13 +5869,13 @@
         <v>4.1355166435241699</v>
       </c>
       <c r="C341" s="2">
-        <v>4.2222080230712891</v>
+        <v>4.2230954170227051</v>
       </c>
       <c r="D341" s="2">
         <v>3.8944966793060303</v>
       </c>
       <c r="E341" s="2">
-        <v>3.8334262371063232</v>
+        <v>3.833864688873291</v>
       </c>
     </row>
     <row r="342">
@@ -5886,13 +5886,13 @@
         <v>4.1465115547180176</v>
       </c>
       <c r="C342" s="2">
-        <v>4.0024094581604004</v>
+        <v>4.0036530494689941</v>
       </c>
       <c r="D342" s="2">
         <v>3.7477116584777832</v>
       </c>
       <c r="E342" s="2">
-        <v>3.7173607349395752</v>
+        <v>3.717585563659668</v>
       </c>
     </row>
     <row r="343">
@@ -5903,13 +5903,13 @@
         <v>3.318295955657959</v>
       </c>
       <c r="C343" s="2">
-        <v>3.3092801570892334</v>
+        <v>3.3088726997375488</v>
       </c>
       <c r="D343" s="2">
         <v>3.6600584983825684</v>
       </c>
       <c r="E343" s="2">
-        <v>3.60809326171875</v>
+        <v>3.608043909072876</v>
       </c>
     </row>
     <row r="344">
@@ -5920,13 +5920,13 @@
         <v>3.3423929214477539</v>
       </c>
       <c r="C344" s="2">
-        <v>3.0948431491851807</v>
+        <v>3.0959558486938477</v>
       </c>
       <c r="D344" s="2">
         <v>3.6862246990203858</v>
       </c>
       <c r="E344" s="2">
-        <v>3.6310858726501465</v>
+        <v>3.6310863494873047</v>
       </c>
     </row>
     <row r="345">
@@ -5937,13 +5937,13 @@
         <v>4.0625247955322266</v>
       </c>
       <c r="C345" s="2">
-        <v>4.0899171829223633</v>
+        <v>4.0893473625183105</v>
       </c>
       <c r="D345" s="2">
         <v>3.6805758476257324</v>
       </c>
       <c r="E345" s="2">
-        <v>3.6208646297454834</v>
+        <v>3.6210248470306396</v>
       </c>
     </row>
     <row r="346">
@@ -5954,13 +5954,13 @@
         <v>3.6526343822479248</v>
       </c>
       <c r="C346" s="2">
-        <v>3.6023035049438477</v>
+        <v>3.6014525890350342</v>
       </c>
       <c r="D346" s="2">
         <v>3.6399054527282715</v>
       </c>
       <c r="E346" s="2">
-        <v>3.5690550804138184</v>
+        <v>3.5690572261810303</v>
       </c>
     </row>
     <row r="347">
@@ -5971,13 +5971,13 @@
         <v>3.4226171970367432</v>
       </c>
       <c r="C347" s="2">
-        <v>3.2890267372131348</v>
+        <v>3.2881557941436768</v>
       </c>
       <c r="D347" s="2">
         <v>3.5440464019775391</v>
       </c>
       <c r="E347" s="2">
-        <v>3.4786512851715088</v>
+        <v>3.4783785343170166</v>
       </c>
     </row>
     <row r="348">
@@ -5988,13 +5988,13 @@
         <v>3.5064172744750977</v>
       </c>
       <c r="C348" s="2">
-        <v>3.4578282833099365</v>
+        <v>3.4573967456817627</v>
       </c>
       <c r="D348" s="2">
         <v>3.5252079963684082</v>
       </c>
       <c r="E348" s="2">
-        <v>3.4576799869537354</v>
+        <v>3.4574260711669922</v>
       </c>
     </row>
     <row r="349">
@@ -6005,13 +6005,13 @@
         <v>3.5382711887359619</v>
       </c>
       <c r="C349" s="2">
-        <v>3.5199642181396484</v>
+        <v>3.5212934017181396</v>
       </c>
       <c r="D349" s="2">
         <v>3.5586881637573242</v>
       </c>
       <c r="E349" s="2">
-        <v>3.5130691528320313</v>
+        <v>3.5126273632049561</v>
       </c>
     </row>
     <row r="350">
@@ -6022,13 +6022,13 @@
         <v>3.769484281539917</v>
       </c>
       <c r="C350" s="2">
-        <v>3.7559232711791992</v>
+        <v>3.7553877830505371</v>
       </c>
       <c r="D350" s="2">
         <v>3.5072808265686035</v>
       </c>
       <c r="E350" s="2">
-        <v>3.4445159435272217</v>
+        <v>3.4443032741546631</v>
       </c>
     </row>
     <row r="351">
@@ -6039,13 +6039,13 @@
         <v>3.2837791442871094</v>
       </c>
       <c r="C351" s="2">
-        <v>3.1887750625610352</v>
+        <v>3.1875455379486084</v>
       </c>
       <c r="D351" s="2">
         <v>3.4866721630096436</v>
       </c>
       <c r="E351" s="2">
-        <v>3.411463737487793</v>
+        <v>3.4112367630004883</v>
       </c>
     </row>
     <row r="352">
@@ -6056,13 +6056,13 @@
         <v>3.1487517356872559</v>
       </c>
       <c r="C352" s="2">
-        <v>3.1205377578735352</v>
+        <v>3.12030029296875</v>
       </c>
       <c r="D352" s="2">
         <v>3.5454921722412109</v>
       </c>
       <c r="E352" s="2">
-        <v>3.4816887378692627</v>
+        <v>3.4815826416015625</v>
       </c>
     </row>
     <row r="353">
@@ -6073,13 +6073,13 @@
         <v>3.6437129974365234</v>
       </c>
       <c r="C353" s="2">
-        <v>3.5933465957641602</v>
+        <v>3.5927658081054688</v>
       </c>
       <c r="D353" s="2">
         <v>3.6694416999816895</v>
       </c>
       <c r="E353" s="2">
-        <v>3.5715923309326172</v>
+        <v>3.5715324878692627</v>
       </c>
     </row>
     <row r="354">
@@ -6090,13 +6090,13 @@
         <v>3.5998599529266357</v>
       </c>
       <c r="C354" s="2">
-        <v>3.4729387760162354</v>
+        <v>3.4744305610656738</v>
       </c>
       <c r="D354" s="2">
         <v>3.7164912223815918</v>
       </c>
       <c r="E354" s="2">
-        <v>3.6301343441009522</v>
+        <v>3.6299796104431152</v>
       </c>
     </row>
     <row r="355">
@@ -6107,13 +6107,13 @@
         <v>3.4671556949615479</v>
       </c>
       <c r="C355" s="2">
-        <v>3.3048336505889893</v>
+        <v>3.3038539886474609</v>
       </c>
       <c r="D355" s="2">
         <v>3.7044999599456787</v>
       </c>
       <c r="E355" s="2">
-        <v>3.6149582862854004</v>
+        <v>3.6149051189422607</v>
       </c>
     </row>
     <row r="356">
@@ -6124,13 +6124,13 @@
         <v>3.9519977569580078</v>
       </c>
       <c r="C356" s="2">
-        <v>3.9210505485534668</v>
+        <v>3.9212701320648193</v>
       </c>
       <c r="D356" s="2">
         <v>3.8225727081298828</v>
       </c>
       <c r="E356" s="2">
-        <v>3.7358253002166748</v>
+        <v>3.7358777523040772</v>
       </c>
     </row>
     <row r="357">
@@ -6141,13 +6141,13 @@
         <v>4.6219635009765625</v>
       </c>
       <c r="C357" s="2">
-        <v>4.2669615745544434</v>
+        <v>4.2669444084167481</v>
       </c>
       <c r="D357" s="2">
         <v>4.0059103965759277</v>
       </c>
       <c r="E357" s="2">
-        <v>3.9188523292541504</v>
+        <v>3.9189653396606445</v>
       </c>
     </row>
     <row r="358">
@@ -6158,13 +6158,13 @@
         <v>3.9617159366607666</v>
       </c>
       <c r="C358" s="2">
-        <v>4.0468416213989258</v>
+        <v>4.0473179817199707</v>
       </c>
       <c r="D358" s="2">
         <v>4.0175023078918457</v>
       </c>
       <c r="E358" s="2">
-        <v>3.9477508068084717</v>
+        <v>3.9478023052215576</v>
       </c>
     </row>
     <row r="359">
@@ -6175,13 +6175,13 @@
         <v>3.661562442779541</v>
       </c>
       <c r="C359" s="2">
-        <v>3.6193380355834961</v>
+        <v>3.6197183132171631</v>
       </c>
       <c r="D359" s="2">
         <v>4.0629725456237793</v>
       </c>
       <c r="E359" s="2">
-        <v>4.0161981582641602</v>
+        <v>4.0161757469177246</v>
       </c>
     </row>
     <row r="360">
@@ -6192,13 +6192,13 @@
         <v>4.3464341163635254</v>
       </c>
       <c r="C360" s="2">
-        <v>4.2765789031982422</v>
+        <v>4.2762975692749024</v>
       </c>
       <c r="D360" s="2">
         <v>4.1381683349609375</v>
       </c>
       <c r="E360" s="2">
-        <v>4.1221098899841309</v>
+        <v>4.1223783493041992</v>
       </c>
     </row>
     <row r="361">
@@ -6209,13 +6209,13 @@
         <v>4.7987914085388184</v>
       </c>
       <c r="C361" s="2">
-        <v>4.7677807807922363</v>
+        <v>4.7680888175964356</v>
       </c>
       <c r="D361" s="2">
         <v>4.3013873100280762</v>
       </c>
       <c r="E361" s="2">
-        <v>4.269413948059082</v>
+        <v>4.2697138786315918</v>
       </c>
     </row>
     <row r="362">
@@ -6226,13 +6226,13 @@
         <v>3.7480406761169434</v>
       </c>
       <c r="C362" s="2">
-        <v>3.8534328937530518</v>
+        <v>3.8522994518280029</v>
       </c>
       <c r="D362" s="2">
         <v>4.3249030113220215</v>
       </c>
       <c r="E362" s="2">
-        <v>4.3085379600524902</v>
+        <v>4.3087048530578613</v>
       </c>
     </row>
     <row r="363">
@@ -6243,13 +6243,13 @@
         <v>4.0090928077697754</v>
       </c>
       <c r="C363" s="2">
-        <v>4.0889649391174317</v>
+        <v>4.0897912979125977</v>
       </c>
       <c r="D363" s="2">
         <v>4.5165724754333496</v>
       </c>
       <c r="E363" s="2">
-        <v>4.4635262489318848</v>
+        <v>4.4634103775024414</v>
       </c>
     </row>
     <row r="364">
@@ -6260,13 +6260,13 @@
         <v>4.1439151763916016</v>
       </c>
       <c r="C364" s="2">
-        <v>4.2580399513244629</v>
+        <v>4.2596783638000488</v>
       </c>
       <c r="D364" s="2">
         <v>4.6799225807189941</v>
       </c>
       <c r="E364" s="2">
-        <v>4.6101770401000977</v>
+        <v>4.6100554466247559</v>
       </c>
     </row>
     <row r="365">
@@ -6277,13 +6277,13 @@
         <v>5.4209690093994141</v>
       </c>
       <c r="C365" s="2">
-        <v>5.2467889785766602</v>
+        <v>5.2472896575927734</v>
       </c>
       <c r="D365" s="2">
         <v>4.7414731979370117</v>
       </c>
       <c r="E365" s="2">
-        <v>4.6718502044677734</v>
+        <v>4.6717367172241211</v>
       </c>
     </row>
     <row r="366">
@@ -6294,13 +6294,13 @@
         <v>4.8336038589477539</v>
       </c>
       <c r="C366" s="2">
-        <v>4.6190762519836426</v>
+        <v>4.617861270904541</v>
       </c>
       <c r="D366" s="2">
         <v>4.7578773498535156</v>
       </c>
       <c r="E366" s="2">
-        <v>4.6962075233459473</v>
+        <v>4.6960048675537109</v>
       </c>
     </row>
     <row r="367">
@@ -6311,13 +6311,13 @@
         <v>5.6867408752441406</v>
       </c>
       <c r="C367" s="2">
-        <v>5.441737174987793</v>
+        <v>5.4396672248840332</v>
       </c>
       <c r="D367" s="2">
         <v>4.9875340461730957</v>
       </c>
       <c r="E367" s="2">
-        <v>4.9182834625244141</v>
+        <v>4.9182357788085938</v>
       </c>
     </row>
     <row r="368">
@@ -6328,13 +6328,13 @@
         <v>5.1317143440246582</v>
       </c>
       <c r="C368" s="2">
-        <v>4.9391913414001465</v>
+        <v>4.9395236968994141</v>
       </c>
       <c r="D368" s="2">
         <v>5.2222738265991211</v>
       </c>
       <c r="E368" s="2">
-        <v>5.1505446434020996</v>
+        <v>5.1502876281738281</v>
       </c>
     </row>
     <row r="369">
@@ -6345,13 +6345,13 @@
         <v>4.9003920555114746</v>
       </c>
       <c r="C369" s="2">
-        <v>4.8316397666931152</v>
+        <v>4.8314328193664551</v>
       </c>
       <c r="D369" s="2">
         <v>5.4702773094177246</v>
       </c>
       <c r="E369" s="2">
-        <v>5.3774509429931641</v>
+        <v>5.3770017623901367</v>
       </c>
     </row>
     <row r="370">
@@ -6362,13 +6362,13 @@
         <v>4.9464282989501953</v>
       </c>
       <c r="C370" s="2">
-        <v>4.9869961738586426</v>
+        <v>4.9865002632141113</v>
       </c>
       <c r="D370" s="2">
         <v>5.603147029876709</v>
       </c>
       <c r="E370" s="2">
-        <v>5.5186314582824707</v>
+        <v>5.5182938575744629</v>
       </c>
     </row>
     <row r="371">
@@ -6379,13 +6379,13 @@
         <v>5.8149518966674805</v>
       </c>
       <c r="C371" s="2">
-        <v>5.8521156311035156</v>
+        <v>5.8523778915405274</v>
       </c>
       <c r="D371" s="2">
         <v>5.8102240562438965</v>
       </c>
       <c r="E371" s="2">
-        <v>5.7485203742980957</v>
+        <v>5.7481184005737305</v>
       </c>
     </row>
     <row r="372">
@@ -6396,13 +6396,13 @@
         <v>6.1217489242553711</v>
       </c>
       <c r="C372" s="2">
-        <v>6.1793146133422852</v>
+        <v>6.1782593727111817</v>
       </c>
       <c r="D372" s="2">
         <v>5.8662552833557129</v>
       </c>
       <c r="E372" s="2">
-        <v>5.8270320892333984</v>
+        <v>5.8269758224487305</v>
       </c>
     </row>
     <row r="373">
@@ -6413,13 +6413,13 @@
         <v>6.375946044921875</v>
       </c>
       <c r="C373" s="2">
-        <v>6.3002004623413086</v>
+        <v>6.3001046180725098</v>
       </c>
       <c r="D373" s="2">
         <v>5.9241394996643067</v>
       </c>
       <c r="E373" s="2">
-        <v>5.9000339508056641</v>
+        <v>5.9002366065979004</v>
       </c>
     </row>
     <row r="374">
@@ -6430,13 +6430,13 @@
         <v>6.6167960166931152</v>
       </c>
       <c r="C374" s="2">
-        <v>6.5174117088317871</v>
+        <v>6.5189175605773926</v>
       </c>
       <c r="D374" s="2">
         <v>6.0169620513916016</v>
       </c>
       <c r="E374" s="2">
-        <v>5.9970083236694336</v>
+        <v>5.9970889091491699</v>
       </c>
     </row>
     <row r="375">
@@ -6447,13 +6447,13 @@
         <v>6.6972966194152832</v>
       </c>
       <c r="C375" s="2">
-        <v>6.6880764961242676</v>
+        <v>6.6862831115722656</v>
       </c>
       <c r="D375" s="2">
         <v>6.0849957466125488</v>
       </c>
       <c r="E375" s="2">
-        <v>6.0631232261657715</v>
+        <v>6.0632510185241699</v>
       </c>
     </row>
     <row r="376">
@@ -6464,13 +6464,13 @@
         <v>6.1910228729248047</v>
       </c>
       <c r="C376" s="2">
-        <v>6.1483440399169922</v>
+        <v>6.1493816375732422</v>
       </c>
       <c r="D376" s="2">
         <v>6.0511994361877441</v>
       </c>
       <c r="E376" s="2">
-        <v>6.0233750343322754</v>
+        <v>6.0232748985290527</v>
       </c>
     </row>
     <row r="377">
@@ -6481,13 +6481,13 @@
         <v>5.6526718139648438</v>
       </c>
       <c r="C377" s="2">
-        <v>5.5962057113647461</v>
+        <v>5.5988740921020508</v>
       </c>
       <c r="D377" s="2">
         <v>5.9160447120666504</v>
       </c>
       <c r="E377" s="2">
-        <v>5.8994078636169434</v>
+        <v>5.8992242813110352</v>
       </c>
     </row>
     <row r="378">
@@ -6498,13 +6498,13 @@
         <v>5.7357945442199707</v>
       </c>
       <c r="C378" s="2">
-        <v>5.7044095993041992</v>
+        <v>5.7031021118164063</v>
       </c>
       <c r="D378" s="2">
         <v>5.734926700592041</v>
       </c>
       <c r="E378" s="2">
-        <v>5.730982780456543</v>
+        <v>5.7307777404785156</v>
       </c>
     </row>
     <row r="379">
@@ -6515,13 +6515,13 @@
         <v>5.5587348937988281</v>
       </c>
       <c r="C379" s="2">
-        <v>5.5820317268371582</v>
+        <v>5.5819602012634277</v>
       </c>
       <c r="D379" s="2">
         <v>5.4862046241760254</v>
       </c>
       <c r="E379" s="2">
-        <v>5.4860601425170899</v>
+        <v>5.485680103302002</v>
       </c>
     </row>
     <row r="380">
@@ -6532,13 +6532,13 @@
         <v>5.5107827186584473</v>
       </c>
       <c r="C380" s="2">
-        <v>5.4943804740905762</v>
+        <v>5.4925894737243652</v>
       </c>
       <c r="D380" s="2">
         <v>5.2940917015075684</v>
       </c>
       <c r="E380" s="2">
-        <v>5.289400577545166</v>
+        <v>5.2893581390380859</v>
       </c>
     </row>
     <row r="381">
@@ -6549,13 +6549,13 @@
         <v>4.9053564071655273</v>
       </c>
       <c r="C381" s="2">
-        <v>5.0636119842529297</v>
+        <v>5.0618057250976563</v>
       </c>
       <c r="D381" s="2">
         <v>5.0460348129272461</v>
       </c>
       <c r="E381" s="2">
-        <v>5.0576367378234863</v>
+        <v>5.0575313568115234</v>
       </c>
     </row>
     <row r="382">
@@ -6566,13 +6566,13 @@
         <v>4.7458853721618652</v>
       </c>
       <c r="C382" s="2">
-        <v>4.7843747138977051</v>
+        <v>4.7840862274169922</v>
       </c>
       <c r="D382" s="2">
         <v>5.0062055587768555</v>
       </c>
       <c r="E382" s="2">
-        <v>5.0213332176208496</v>
+        <v>5.0208935737609863</v>
       </c>
     </row>
     <row r="383">
@@ -6583,13 +6583,13 @@
         <v>4.378298282623291</v>
       </c>
       <c r="C383" s="2">
-        <v>4.313107967376709</v>
+        <v>4.3130369186401367</v>
       </c>
       <c r="D383" s="2">
         <v>4.8587741851806641</v>
       </c>
       <c r="E383" s="2">
-        <v>4.8630237579345703</v>
+        <v>4.862755298614502</v>
       </c>
     </row>
     <row r="384">
@@ -6600,13 +6600,13 @@
         <v>4.9682765007019043</v>
       </c>
       <c r="C384" s="2">
-        <v>4.9181375503540039</v>
+        <v>4.9193878173828125</v>
       </c>
       <c r="D384" s="2">
         <v>4.7014479637145996</v>
       </c>
       <c r="E384" s="2">
-        <v>4.6897959709167481</v>
+        <v>4.689692497253418</v>
       </c>
     </row>
     <row r="385">
@@ -6617,13 +6617,13 @@
         <v>3.9585111141204834</v>
       </c>
       <c r="C385" s="2">
-        <v>4.062471866607666</v>
+        <v>4.0629405975341797</v>
       </c>
       <c r="D385" s="2">
         <v>4.5931224822998047</v>
       </c>
       <c r="E385" s="2">
-        <v>4.5965085029602051</v>
+        <v>4.5964322090148926</v>
       </c>
     </row>
     <row r="386">
@@ -6634,13 +6634,13 @@
         <v>5.2942104339599609</v>
       </c>
       <c r="C386" s="2">
-        <v>5.2694745063781738</v>
+        <v>5.269134521484375</v>
       </c>
       <c r="D386" s="2">
         <v>4.5202045440673828</v>
       </c>
       <c r="E386" s="2">
-        <v>4.506868839263916</v>
+        <v>4.5070881843566895</v>
       </c>
     </row>
     <row r="387">
@@ -6651,13 +6651,13 @@
         <v>4.4089126586914063</v>
       </c>
       <c r="C387" s="2">
-        <v>4.2796244621276856</v>
+        <v>4.2798566818237305</v>
       </c>
       <c r="D387" s="2">
         <v>4.4593081474304199</v>
       </c>
       <c r="E387" s="2">
-        <v>4.429295539855957</v>
+        <v>4.4295334815979004</v>
       </c>
     </row>
     <row r="388">
@@ -6668,13 +6668,13 @@
         <v>4.142796516418457</v>
       </c>
       <c r="C388" s="2">
-        <v>4.0229802131652832</v>
+        <v>4.0243954658508301</v>
       </c>
       <c r="D388" s="2">
         <v>4.4173460006713867</v>
       </c>
       <c r="E388" s="2">
-        <v>4.3675775527954102</v>
+        <v>4.3677616119384766</v>
       </c>
     </row>
     <row r="389">
@@ -6685,13 +6685,13 @@
         <v>4.5358529090881348</v>
       </c>
       <c r="C389" s="2">
-        <v>4.6547937393188477</v>
+        <v>4.6532459259033203</v>
       </c>
       <c r="D389" s="2">
         <v>4.3634805679321289</v>
       </c>
       <c r="E389" s="2">
-        <v>4.3155860900878906</v>
+        <v>4.3155322074890137</v>
       </c>
     </row>
     <row r="390">
@@ -6702,13 +6702,13 @@
         <v>4.2490954399108887</v>
       </c>
       <c r="C390" s="2">
-        <v>4.2568545341491699</v>
+        <v>4.2577099800109863</v>
       </c>
       <c r="D390" s="2">
         <v>4.4213542938232422</v>
       </c>
       <c r="E390" s="2">
-        <v>4.3606076240539551</v>
+        <v>4.360508918762207</v>
       </c>
     </row>
     <row r="391">
@@ -6719,13 +6719,13 @@
         <v>4.1978187561035156</v>
       </c>
       <c r="C391" s="2">
-        <v>4.086216926574707</v>
+        <v>4.086094856262207</v>
       </c>
       <c r="D391" s="2">
         <v>4.2956666946411133</v>
       </c>
       <c r="E391" s="2">
-        <v>4.2395963668823242</v>
+        <v>4.2397150993347168</v>
       </c>
     </row>
     <row r="392">
@@ -6736,13 +6736,13 @@
         <v>4.0006413459777832</v>
       </c>
       <c r="C392" s="2">
-        <v>3.7576422691345215</v>
+        <v>3.7570908069610596</v>
       </c>
       <c r="D392" s="2">
         <v>4.2608504295349121</v>
       </c>
       <c r="E392" s="2">
-        <v>4.1935572624206543</v>
+        <v>4.1937484741210938</v>
       </c>
     </row>
     <row r="393">
@@ -6753,13 +6753,13 @@
         <v>4.4834861755371094</v>
       </c>
       <c r="C393" s="2">
-        <v>4.4502172470092774</v>
+        <v>4.4493207931518555</v>
       </c>
       <c r="D393" s="2">
         <v>4.3273444175720215</v>
       </c>
       <c r="E393" s="2">
-        <v>4.2534022331237793</v>
+        <v>4.2535357475280762</v>
       </c>
     </row>
     <row r="394">
@@ -6770,13 +6770,13 @@
         <v>4.4793758392333984</v>
       </c>
       <c r="C394" s="2">
-        <v>4.4676666259765625</v>
+        <v>4.4677324295043945</v>
       </c>
       <c r="D394" s="2">
         <v>4.3267126083374023</v>
       </c>
       <c r="E394" s="2">
-        <v>4.2221755981445313</v>
+        <v>4.2224245071411133</v>
       </c>
     </row>
     <row r="395">
@@ -6787,13 +6787,13 @@
         <v>4.1630220413208008</v>
       </c>
       <c r="C395" s="2">
-        <v>4.1803693771362305</v>
+        <v>4.1819896697998047</v>
       </c>
       <c r="D395" s="2">
         <v>4.3108134269714355</v>
       </c>
       <c r="E395" s="2">
-        <v>4.1921558380126953</v>
+        <v>4.1922998428344727</v>
       </c>
     </row>
     <row r="396">
@@ -6804,13 +6804,13 @@
         <v>4.0955667495727539</v>
       </c>
       <c r="C396" s="2">
-        <v>3.8652763366699219</v>
+        <v>3.8661544322967529</v>
       </c>
       <c r="D396" s="2">
         <v>4.3164701461791992</v>
       </c>
       <c r="E396" s="2">
-        <v>4.1851611137390137</v>
+        <v>4.185579776763916</v>
       </c>
     </row>
     <row r="397">
@@ -6821,13 +6821,13 @@
         <v>4.7412385940551758</v>
       </c>
       <c r="C397" s="2">
-        <v>4.5615839958190918</v>
+        <v>4.5624842643737793</v>
       </c>
       <c r="D397" s="2">
         <v>4.3604536056518555</v>
       </c>
       <c r="E397" s="2">
-        <v>4.252476692199707</v>
+        <v>4.2529826164245606</v>
       </c>
     </row>
     <row r="398">
@@ -6838,13 +6838,13 @@
         <v>4.5301675796508789</v>
       </c>
       <c r="C398" s="2">
-        <v>4.373753547668457</v>
+        <v>4.3732428550720215</v>
       </c>
       <c r="D398" s="2">
         <v>4.3411579132080078</v>
       </c>
       <c r="E398" s="2">
-        <v>4.2363510131835938</v>
+        <v>4.2370872497558594</v>
       </c>
     </row>
     <row r="399">
@@ -6855,13 +6855,13 @@
         <v>4.1060023307800293</v>
       </c>
       <c r="C399" s="2">
-        <v>3.986677885055542</v>
+        <v>3.9865884780883789</v>
       </c>
       <c r="D399" s="2">
         <v>4.3359031677246094</v>
       </c>
       <c r="E399" s="2">
-        <v>4.2148618698120117</v>
+        <v>4.2155194282531738</v>
       </c>
     </row>
     <row r="400">
@@ -6872,13 +6872,13 @@
         <v>4.2487320899963379</v>
       </c>
       <c r="C400" s="2">
-        <v>4.0232625007629395</v>
+        <v>4.0256147384643555</v>
       </c>
       <c r="D400" s="2">
         <v>4.3771729469299316</v>
       </c>
       <c r="E400" s="2">
-        <v>4.2609314918518067</v>
+        <v>4.2613539695739746</v>
       </c>
     </row>
     <row r="401">
@@ -6889,13 +6889,13 @@
         <v>4.3964905738830566</v>
       </c>
       <c r="C401" s="2">
-        <v>4.3634819984436035</v>
+        <v>4.3637142181396484</v>
       </c>
       <c r="D401" s="2">
         <v>4.4121470451354981</v>
       </c>
       <c r="E401" s="2">
-        <v>4.302342414855957</v>
+        <v>4.3028106689453125</v>
       </c>
     </row>
     <row r="402">
@@ -6906,13 +6906,13 @@
         <v>4.3098263740539551</v>
       </c>
       <c r="C402" s="2">
-        <v>4.3050861358642578</v>
+        <v>4.3062629699707031</v>
       </c>
       <c r="D402" s="2">
         <v>4.3665757179260254</v>
       </c>
       <c r="E402" s="2">
-        <v>4.2691059112548828</v>
+        <v>4.269716739654541</v>
       </c>
     </row>
     <row r="403">
@@ -6923,13 +6923,13 @@
         <v>4.4320836067199707</v>
       </c>
       <c r="C403" s="2">
-        <v>4.2742633819580078</v>
+        <v>4.2736220359802246</v>
       </c>
       <c r="D403" s="2">
         <v>4.3413434028625488</v>
       </c>
       <c r="E403" s="2">
-        <v>4.2517266273498535</v>
+        <v>4.2525544166564941</v>
       </c>
     </row>
     <row r="404">
@@ -6940,13 +6940,13 @@
         <v>4.5344467163085938</v>
       </c>
       <c r="C404" s="2">
-        <v>4.5949993133544922</v>
+        <v>4.5945029258728027</v>
       </c>
       <c r="D404" s="2">
         <v>4.2883005142211914</v>
       </c>
       <c r="E404" s="2">
-        <v>4.2184901237487793</v>
+        <v>4.2190656661987305</v>
       </c>
     </row>
     <row r="405">
@@ -6957,13 +6957,13 @@
         <v>4.4103355407714844</v>
       </c>
       <c r="C405" s="2">
-        <v>4.2379722595214844</v>
+        <v>4.239264965057373</v>
       </c>
       <c r="D405" s="2">
         <v>4.278923511505127</v>
       </c>
       <c r="E405" s="2">
-        <v>4.2124314308166504</v>
+        <v>4.2128310203552246</v>
       </c>
     </row>
     <row r="406">
@@ -6974,13 +6974,13 @@
         <v>4.3310976028442383</v>
       </c>
       <c r="C406" s="2">
-        <v>4.2624583244323731</v>
+        <v>4.2646389007568359</v>
       </c>
       <c r="D406" s="2">
         <v>4.2046651840209961</v>
       </c>
       <c r="E406" s="2">
-        <v>4.1221866607666016</v>
+        <v>4.1226110458374023</v>
       </c>
     </row>
     <row r="407">
@@ -6991,13 +6991,13 @@
         <v>4.3030738830566406</v>
       </c>
       <c r="C407" s="2">
-        <v>4.217339038848877</v>
+        <v>4.2187790870666504</v>
       </c>
       <c r="D407" s="2">
         <v>4.1821503639221191</v>
       </c>
       <c r="E407" s="2">
-        <v>4.0723075866699219</v>
+        <v>4.0726504325866699</v>
       </c>
     </row>
     <row r="408">
@@ -7008,13 +7008,13 @@
         <v>3.6286160945892334</v>
       </c>
       <c r="C408" s="2">
-        <v>3.6875488758087158</v>
+        <v>3.6851913928985596</v>
       </c>
       <c r="D408" s="2">
         <v>4.1902179718017578</v>
       </c>
       <c r="E408" s="2">
-        <v>4.0860676765441895</v>
+        <v>4.0865044593811035</v>
       </c>
     </row>
     <row r="409">
@@ -7025,13 +7025,13 @@
         <v>4.1643404960632324</v>
       </c>
       <c r="C409" s="2">
-        <v>3.9687328338623047</v>
+        <v>3.9695034027099609</v>
       </c>
       <c r="D409" s="2">
         <v>4.124579906463623</v>
       </c>
       <c r="E409" s="2">
-        <v>4.0168418884277344</v>
+        <v>4.0174827575683594</v>
       </c>
     </row>
     <row r="410">
@@ -7042,13 +7042,13 @@
         <v>3.7281684875488281</v>
       </c>
       <c r="C410" s="2">
-        <v>3.5512781143188477</v>
+        <v>3.5517332553863525</v>
       </c>
       <c r="D410" s="2">
         <v>4.0719895362854004</v>
       </c>
       <c r="E410" s="2">
-        <v>3.976691484451294</v>
+        <v>3.9771404266357422</v>
       </c>
     </row>
     <row r="411">
@@ -7059,13 +7059,13 @@
         <v>4.1071896553039551</v>
       </c>
       <c r="C411" s="2">
-        <v>3.856177568435669</v>
+        <v>3.856619119644165</v>
       </c>
       <c r="D411" s="2">
         <v>4.0649623870849609</v>
       </c>
       <c r="E411" s="2">
-        <v>3.9659721851348877</v>
+        <v>3.9660892486572266</v>
       </c>
     </row>
     <row r="412">
@@ -7076,13 +7076,13 @@
         <v>4.5046954154968262</v>
       </c>
       <c r="C412" s="2">
-        <v>4.3981013298034668</v>
+        <v>4.398308277130127</v>
       </c>
       <c r="D412" s="2">
         <v>4.0494828224182129</v>
       </c>
       <c r="E412" s="2">
-        <v>3.9521484375</v>
+        <v>3.9520325660705567</v>
       </c>
     </row>
     <row r="413">
@@ -7093,13 +7093,13 @@
         <v>3.9437003135681152</v>
       </c>
       <c r="C413" s="2">
-        <v>3.9719667434692383</v>
+        <v>3.9733045101165772</v>
       </c>
       <c r="D413" s="2">
         <v>4.1114287376403809</v>
       </c>
       <c r="E413" s="2">
-        <v>4.0045385360717773</v>
+        <v>4.0047283172607422</v>
       </c>
     </row>
     <row r="414">
@@ -7110,13 +7110,13 @@
         <v>3.9370238780975342</v>
       </c>
       <c r="C414" s="2">
-        <v>3.8766200542449951</v>
+        <v>3.8761858940124512</v>
       </c>
       <c r="D414" s="2">
         <v>4.1388192176818848</v>
       </c>
       <c r="E414" s="2">
-        <v>4.0523061752319336</v>
+        <v>4.052513599395752</v>
       </c>
     </row>
     <row r="415">
@@ -7127,13 +7127,13 @@
         <v>4.2678513526916504</v>
       </c>
       <c r="C415" s="2">
-        <v>4.1659860610961914</v>
+        <v>4.1651792526245117</v>
       </c>
       <c r="D415" s="2">
         <v>4.1454658508300781</v>
       </c>
       <c r="E415" s="2">
-        <v>4.0769386291503906</v>
+        <v>4.0772795677185059</v>
       </c>
     </row>
     <row r="416">
@@ -7144,13 +7144,13 @@
         <v>4.1637606620788574</v>
       </c>
       <c r="C416" s="2">
-        <v>4.092923641204834</v>
+        <v>4.0922684669494629</v>
       </c>
       <c r="D416" s="2">
         <v>4.1783709526062012</v>
       </c>
       <c r="E416" s="2">
-        <v>4.1418375968933106</v>
+        <v>4.1421442031860352</v>
       </c>
     </row>
     <row r="417">
@@ -7161,13 +7161,13 @@
         <v>4.1861276626586914</v>
       </c>
       <c r="C417" s="2">
-        <v>4.1590585708618164</v>
+        <v>4.1594505310058594</v>
       </c>
       <c r="D417" s="2">
         <v>4.1868424415588379</v>
       </c>
       <c r="E417" s="2">
-        <v>4.1639866828918457</v>
+        <v>4.1643342971801758</v>
       </c>
     </row>
     <row r="418">
@@ -7178,13 +7178,13 @@
         <v>4.4108562469482422</v>
       </c>
       <c r="C418" s="2">
-        <v>4.3986425399780274</v>
+        <v>4.3995738029479981</v>
       </c>
       <c r="D418" s="2">
         <v>4.1842365264892578</v>
       </c>
       <c r="E418" s="2">
-        <v>4.153167724609375</v>
+        <v>4.1532249450683594</v>
       </c>
     </row>
     <row r="419">
@@ -7195,13 +7195,13 @@
         <v>3.7879889011383057</v>
       </c>
       <c r="C419" s="2">
-        <v>3.7729730606079102</v>
+        <v>3.7746274471282959</v>
       </c>
       <c r="D419" s="2">
         <v>4.2660789489746094</v>
       </c>
       <c r="E419" s="2">
-        <v>4.2393231391906738</v>
+        <v>4.2396178245544434</v>
       </c>
     </row>
     <row r="420">
@@ -7212,13 +7212,13 @@
         <v>4.4033350944519043</v>
       </c>
       <c r="C420" s="2">
-        <v>4.4402661323547363</v>
+        <v>4.4404010772705078</v>
       </c>
       <c r="D420" s="2">
         <v>4.1830687522888184</v>
       </c>
       <c r="E420" s="2">
-        <v>4.1822714805603027</v>
+        <v>4.1827583312988281</v>
       </c>
     </row>
     <row r="421">
@@ -7229,13 +7229,13 @@
         <v>4.5809383392333984</v>
       </c>
       <c r="C421" s="2">
-        <v>4.5974440574645996</v>
+        <v>4.5980181694030762</v>
       </c>
       <c r="D421" s="2">
         <v>4.1754117012023926</v>
       </c>
       <c r="E421" s="2">
-        <v>4.1802506446838379</v>
+        <v>4.1809153556823731</v>
       </c>
     </row>
     <row r="422">
@@ -7246,13 +7246,13 @@
         <v>3.9202456474304199</v>
       </c>
       <c r="C422" s="2">
-        <v>3.8745970726013184</v>
+        <v>3.8733198642730713</v>
       </c>
       <c r="D422" s="2">
         <v>4.1906309127807617</v>
       </c>
       <c r="E422" s="2">
-        <v>4.1885170936584473</v>
+        <v>4.1893229484558106</v>
       </c>
     </row>
     <row r="423">
@@ -7263,13 +7263,13 @@
         <v>4.6736054420471192</v>
       </c>
       <c r="C423" s="2">
-        <v>4.6520156860351563</v>
+        <v>4.6537213325500488</v>
       </c>
       <c r="D423" s="2">
         <v>4.1023178100585938</v>
       </c>
       <c r="E423" s="2">
-        <v>4.0981931686401367</v>
+        <v>4.0989699363708496</v>
       </c>
     </row>
     <row r="424">
@@ -7280,13 +7280,13 @@
         <v>3.5207626819610596</v>
       </c>
       <c r="C424" s="2">
-        <v>3.6525213718414307</v>
+        <v>3.6534438133239746</v>
       </c>
       <c r="D424" s="2">
         <v>4.0845861434936524</v>
       </c>
       <c r="E424" s="2">
-        <v>4.0555028915405274</v>
+        <v>4.0560908317565918</v>
       </c>
     </row>
     <row r="425">
@@ -7297,13 +7297,13 @@
         <v>4.0948443412780762</v>
       </c>
       <c r="C425" s="2">
-        <v>4.074737548828125</v>
+        <v>4.0756807327270508</v>
       </c>
       <c r="D425" s="2">
         <v>4.0781993865966797</v>
       </c>
       <c r="E425" s="2">
-        <v>4.0340394973754883</v>
+        <v>4.0347509384155273</v>
       </c>
     </row>
     <row r="426">
@@ -7314,13 +7314,13 @@
         <v>4.3231015205383301</v>
       </c>
       <c r="C426" s="2">
-        <v>4.2334551811218262</v>
+        <v>4.2351222038269043</v>
       </c>
       <c r="D426" s="2">
         <v>3.9869227409362793</v>
       </c>
       <c r="E426" s="2">
-        <v>3.9141659736633301</v>
+        <v>3.9151420593261719</v>
       </c>
     </row>
     <row r="427">
@@ -7331,13 +7331,13 @@
         <v>3.6160387992858887</v>
       </c>
       <c r="C427" s="2">
-        <v>3.5857300758361817</v>
+        <v>3.5863955020904541</v>
       </c>
       <c r="D427" s="2">
         <v>3.9508092403411865</v>
       </c>
       <c r="E427" s="2">
-        <v>3.8798670768737793</v>
+        <v>3.8810207843780518</v>
       </c>
     </row>
     <row r="428">
@@ -7348,13 +7348,13 @@
         <v>3.6284034252166748</v>
       </c>
       <c r="C428" s="2">
-        <v>3.3887581825256348</v>
+        <v>3.3887157440185547</v>
       </c>
       <c r="D428" s="2">
         <v>3.8596417903900147</v>
       </c>
       <c r="E428" s="2">
-        <v>3.7977621555328369</v>
+        <v>3.7986488342285156</v>
       </c>
     </row>
     <row r="429">
@@ -7365,13 +7365,13 @@
         <v>4.3458542823791504</v>
       </c>
       <c r="C429" s="2">
-        <v>4.247098445892334</v>
+        <v>4.2483415603637695</v>
       </c>
       <c r="D429" s="2">
         <v>3.8999776840209961</v>
       </c>
       <c r="E429" s="2">
-        <v>3.8080868721008301</v>
+        <v>3.8088946342468262</v>
       </c>
     </row>
     <row r="430">
@@ -7382,13 +7382,13 @@
         <v>3.7594485282897949</v>
       </c>
       <c r="C430" s="2">
-        <v>3.5185797214508057</v>
+        <v>3.5215370655059814</v>
       </c>
       <c r="D430" s="2">
         <v>3.8746161460876465</v>
       </c>
       <c r="E430" s="2">
-        <v>3.780346155166626</v>
+        <v>3.7809751033782959</v>
       </c>
     </row>
     <row r="431">
@@ -7399,13 +7399,13 @@
         <v>3.5952250957489014</v>
       </c>
       <c r="C431" s="2">
-        <v>3.5659072399139404</v>
+        <v>3.5662286281585693</v>
       </c>
       <c r="D431" s="2">
         <v>3.8206756114959717</v>
       </c>
       <c r="E431" s="2">
-        <v>3.7166709899902344</v>
+        <v>3.7173032760620117</v>
       </c>
     </row>
     <row r="432">
@@ -7416,13 +7416,13 @@
         <v>3.8530969619750977</v>
       </c>
       <c r="C432" s="2">
-        <v>3.9130713939666748</v>
+        <v>3.9123737812042236</v>
       </c>
       <c r="D432" s="2">
         <v>3.8644287586212158</v>
       </c>
       <c r="E432" s="2">
-        <v>3.7611980438232422</v>
+        <v>3.7620170116424561</v>
       </c>
     </row>
     <row r="433">
@@ -7433,13 +7433,13 @@
         <v>3.8837859630584717</v>
       </c>
       <c r="C433" s="2">
-        <v>3.7454442977905274</v>
+        <v>3.7456564903259277</v>
       </c>
       <c r="D433" s="2">
         <v>3.8501389026641846</v>
       </c>
       <c r="E433" s="2">
-        <v>3.756589412689209</v>
+        <v>3.7574193477630615</v>
       </c>
     </row>
     <row r="434">
@@ -7450,13 +7450,13 @@
         <v>3.8665909767150879</v>
       </c>
       <c r="C434" s="2">
-        <v>3.825070858001709</v>
+        <v>3.8244040012359619</v>
       </c>
       <c r="D434" s="2">
         <v>3.7994756698608398</v>
       </c>
       <c r="E434" s="2">
-        <v>3.7132585048675537</v>
+        <v>3.7139866352081299</v>
       </c>
     </row>
     <row r="435">
@@ -7467,13 +7467,13 @@
         <v>3.8376364707946777</v>
       </c>
       <c r="C435" s="2">
-        <v>3.6603796482086182</v>
+        <v>3.6620759963989258</v>
       </c>
       <c r="D435" s="2">
         <v>3.731520414352417</v>
       </c>
       <c r="E435" s="2">
-        <v>3.6745352745056152</v>
+        <v>3.6750900745391846</v>
       </c>
     </row>
     <row r="436">
@@ -7484,13 +7484,13 @@
         <v>4.0098171234130859</v>
       </c>
       <c r="C436" s="2">
-        <v>3.986473560333252</v>
+        <v>3.9888198375701904</v>
       </c>
       <c r="D436" s="2">
         <v>3.6961855888366699</v>
       </c>
       <c r="E436" s="2">
-        <v>3.6390795707702637</v>
+        <v>3.6396946907043457</v>
       </c>
     </row>
     <row r="437">
@@ -7501,13 +7501,13 @@
         <v>3.4997940063476563</v>
       </c>
       <c r="C437" s="2">
-        <v>3.3472802639007568</v>
+        <v>3.3473372459411621</v>
       </c>
       <c r="D437" s="2">
         <v>3.6769936084747315</v>
       </c>
       <c r="E437" s="2">
-        <v>3.6075892448425293</v>
+        <v>3.6082761287689209</v>
       </c>
     </row>
     <row r="438">
@@ -7518,13 +7518,13 @@
         <v>3.889885425567627</v>
       </c>
       <c r="C438" s="2">
-        <v>3.8571200370788574</v>
+        <v>3.8574464321136475</v>
       </c>
       <c r="D438" s="2">
         <v>3.6050310134887695</v>
       </c>
       <c r="E438" s="2">
-        <v>3.5391199588775635</v>
+        <v>3.5397484302520752</v>
       </c>
     </row>
     <row r="439">
@@ -7535,13 +7535,13 @@
         <v>3.1478512287139893</v>
       </c>
       <c r="C439" s="2">
-        <v>3.170069694519043</v>
+        <v>3.17146897315979</v>
       </c>
       <c r="D439" s="2">
         <v>3.5499520301818848</v>
       </c>
       <c r="E439" s="2">
-        <v>3.5057828426361084</v>
+        <v>3.5064537525177002</v>
       </c>
     </row>
     <row r="440">
@@ -7552,13 +7552,13 @@
         <v>3.2772116661071777</v>
       </c>
       <c r="C440" s="2">
-        <v>3.2468061447143555</v>
+        <v>3.2476704120635986</v>
       </c>
       <c r="D440" s="2">
         <v>3.5421032905578613</v>
       </c>
       <c r="E440" s="2">
-        <v>3.5083274841308594</v>
+        <v>3.5087289810180664</v>
       </c>
     </row>
     <row r="441">
@@ -7569,13 +7569,13 @@
         <v>3.6803703308105469</v>
       </c>
       <c r="C441" s="2">
-        <v>3.6296579837799072</v>
+        <v>3.629605770111084</v>
       </c>
       <c r="D441" s="2">
         <v>3.4593536853790283</v>
       </c>
       <c r="E441" s="2">
-        <v>3.4224977493286133</v>
+        <v>3.4228558540344238</v>
       </c>
     </row>
     <row r="442">
@@ -7586,13 +7586,13 @@
         <v>3.236121654510498</v>
       </c>
       <c r="C442" s="2">
-        <v>3.1292221546173096</v>
+        <v>3.1289072036743164</v>
       </c>
       <c r="D442" s="2">
         <v>3.4865090847015381</v>
       </c>
       <c r="E442" s="2">
-        <v>3.4758975505828858</v>
+        <v>3.4764094352722168</v>
       </c>
     </row>
     <row r="443">
@@ -7603,13 +7603,13 @@
         <v>3.3708798885345459</v>
       </c>
       <c r="C443" s="2">
-        <v>3.5250363349914551</v>
+        <v>3.5247514247894287</v>
       </c>
       <c r="D443" s="2">
         <v>3.4650111198425293</v>
       </c>
       <c r="E443" s="2">
-        <v>3.4480526447296143</v>
+        <v>3.448652982711792</v>
       </c>
     </row>
     <row r="444">
@@ -7620,13 +7620,13 @@
         <v>3.7669975757598877</v>
       </c>
       <c r="C444" s="2">
-        <v>3.683281421661377</v>
+        <v>3.6825542449951172</v>
       </c>
       <c r="D444" s="2">
         <v>3.4761631488800049</v>
       </c>
       <c r="E444" s="2">
-        <v>3.4494500160217285</v>
+        <v>3.4499533176422119</v>
       </c>
     </row>
     <row r="445">
@@ -7637,13 +7637,13 @@
         <v>3.2650706768035889</v>
       </c>
       <c r="C445" s="2">
-        <v>3.214005708694458</v>
+        <v>3.215961217880249</v>
       </c>
       <c r="D445" s="2">
         <v>3.4726383686065674</v>
       </c>
       <c r="E445" s="2">
-        <v>3.4509737491607666</v>
+        <v>3.4517586231231689</v>
       </c>
     </row>
     <row r="446">
@@ -7654,13 +7654,13 @@
         <v>3.7441933155059814</v>
       </c>
       <c r="C446" s="2">
-        <v>3.8278777599334717</v>
+        <v>3.8293192386627197</v>
       </c>
       <c r="D446" s="2">
         <v>3.4007117748260498</v>
       </c>
       <c r="E446" s="2">
-        <v>3.3778467178344727</v>
+        <v>3.3786435127258301</v>
       </c>
     </row>
     <row r="447">
@@ -7671,13 +7671,13 @@
         <v>3.6964037418365479</v>
       </c>
       <c r="C447" s="2">
-        <v>3.6065163612365723</v>
+        <v>3.6076390743255615</v>
       </c>
       <c r="D447" s="2">
         <v>3.4382469654083252</v>
       </c>
       <c r="E447" s="2">
-        <v>3.4143428802490234</v>
+        <v>3.41524338722229</v>
       </c>
     </row>
     <row r="448">
@@ -7688,13 +7688,13 @@
         <v>3.2482204437255859</v>
       </c>
       <c r="C448" s="2">
-        <v>3.1826462745666504</v>
+        <v>3.1831722259521484</v>
       </c>
       <c r="D448" s="2">
         <v>3.5121443271636963</v>
       </c>
       <c r="E448" s="2">
-        <v>3.4589612483978272</v>
+        <v>3.4601571559906006</v>
       </c>
     </row>
     <row r="449">
@@ -7705,13 +7705,13 @@
         <v>3.2454879283905029</v>
       </c>
       <c r="C449" s="2">
-        <v>3.2605190277099609</v>
+        <v>3.2639179229736328</v>
       </c>
       <c r="D449" s="2">
         <v>3.4961528778076172</v>
       </c>
       <c r="E449" s="2">
-        <v>3.4451963901519775</v>
+        <v>3.4464941024780274</v>
       </c>
     </row>
     <row r="450">
@@ -7722,13 +7722,13 @@
         <v>3.0330300331115723</v>
       </c>
       <c r="C450" s="2">
-        <v>2.9715151786804199</v>
+        <v>2.9715700149536133</v>
       </c>
       <c r="D450" s="2">
         <v>3.5135207176208496</v>
       </c>
       <c r="E450" s="2">
-        <v>3.4605364799499512</v>
+        <v>3.4617414474487305</v>
       </c>
     </row>
     <row r="451">
@@ -7739,13 +7739,13 @@
         <v>3.5739383697509766</v>
       </c>
       <c r="C451" s="2">
-        <v>3.4576888084411621</v>
+        <v>3.4583053588867188</v>
       </c>
       <c r="D451" s="2">
         <v>3.5166964530944824</v>
       </c>
       <c r="E451" s="2">
-        <v>3.4549858570098877</v>
+        <v>3.4561522006988525</v>
       </c>
     </row>
     <row r="452">
@@ -7756,13 +7756,13 @@
         <v>4.0359559059143066</v>
       </c>
       <c r="C452" s="2">
-        <v>3.9265997409820557</v>
+        <v>3.9289758205413818</v>
       </c>
       <c r="D452" s="2">
         <v>3.4785239696502686</v>
       </c>
       <c r="E452" s="2">
-        <v>3.4214110374450684</v>
+        <v>3.4224188327789307</v>
       </c>
     </row>
     <row r="453">
@@ -7773,13 +7773,13 @@
         <v>3.6230745315551758</v>
       </c>
       <c r="C453" s="2">
-        <v>3.5593984127044678</v>
+        <v>3.5595858097076416</v>
       </c>
       <c r="D453" s="2">
         <v>3.5176351070404053</v>
       </c>
       <c r="E453" s="2">
-        <v>3.4727611541748047</v>
+        <v>3.4737715721130371</v>
       </c>
     </row>
     <row r="454">
@@ -7790,13 +7790,13 @@
         <v>3.4213821887969971</v>
       </c>
       <c r="C454" s="2">
-        <v>3.3520669937133789</v>
+        <v>3.3531877994537354</v>
       </c>
       <c r="D454" s="2">
         <v>3.58199143409729</v>
       </c>
       <c r="E454" s="2">
-        <v>3.5138745307922363</v>
+        <v>3.5146269798278809</v>
       </c>
     </row>
     <row r="455">
@@ -7807,13 +7807,13 @@
         <v>3.7727756500244141</v>
       </c>
       <c r="C455" s="2">
-        <v>3.7779219150543213</v>
+        <v>3.7790155410766602</v>
       </c>
       <c r="D455" s="2">
         <v>3.6315968036651611</v>
       </c>
       <c r="E455" s="2">
-        <v>3.5584681034088135</v>
+        <v>3.5595040321350098</v>
       </c>
     </row>
     <row r="456">
@@ -7824,13 +7824,13 @@
         <v>3.3528516292572021</v>
       </c>
       <c r="C456" s="2">
-        <v>3.3043437004089356</v>
+        <v>3.3040382862091065</v>
       </c>
       <c r="D456" s="2">
         <v>3.5888140201568604</v>
       </c>
       <c r="E456" s="2">
-        <v>3.5138628482818604</v>
+        <v>3.5148856639862061</v>
       </c>
     </row>
     <row r="457">
@@ -7841,13 +7841,13 @@
         <v>3.6002190113067627</v>
       </c>
       <c r="C457" s="2">
-        <v>3.6447956562042236</v>
+        <v>3.6453478336334229</v>
       </c>
       <c r="D457" s="2">
         <v>3.5377955436706543</v>
       </c>
       <c r="E457" s="2">
-        <v>3.4781129360198975</v>
+        <v>3.4791290760040283</v>
       </c>
     </row>
     <row r="458">
@@ -7858,13 +7858,13 @@
         <v>3.8246951103210449</v>
       </c>
       <c r="C458" s="2">
-        <v>3.6305410861968994</v>
+        <v>3.6316158771514893</v>
       </c>
       <c r="D458" s="2">
         <v>3.5175139904022217</v>
       </c>
       <c r="E458" s="2">
-        <v>3.4660599231719971</v>
+        <v>3.4671967029571533</v>
       </c>
     </row>
     <row r="459">
@@ -7875,13 +7875,13 @@
         <v>3.4794793128967285</v>
       </c>
       <c r="C459" s="2">
-        <v>3.3728556632995605</v>
+        <v>3.3754644393920898</v>
       </c>
       <c r="D459" s="2">
         <v>3.4716658592224121</v>
       </c>
       <c r="E459" s="2">
-        <v>3.4215970039367676</v>
+        <v>3.4226903915405274</v>
       </c>
     </row>
     <row r="460">
@@ -7892,13 +7892,13 @@
         <v>3.1888933181762695</v>
       </c>
       <c r="C460" s="2">
-        <v>3.0562427043914795</v>
+        <v>3.0567388534545899</v>
       </c>
       <c r="D460" s="2">
         <v>3.4218933582305908</v>
       </c>
       <c r="E460" s="2">
-        <v>3.3584961891174317</v>
+        <v>3.3595273494720459</v>
       </c>
     </row>
     <row r="461">
@@ -7909,13 +7909,13 @@
         <v>3.5767889022827149</v>
       </c>
       <c r="C461" s="2">
-        <v>3.6048507690429688</v>
+        <v>3.6071679592132568</v>
       </c>
       <c r="D461" s="2">
         <v>3.4345381259918213</v>
       </c>
       <c r="E461" s="2">
-        <v>3.3710458278656006</v>
+        <v>3.3721864223480225</v>
       </c>
     </row>
     <row r="462">
@@ -7926,13 +7926,13 @@
         <v>3.4405417442321777</v>
       </c>
       <c r="C462" s="2">
-        <v>3.4509198665618897</v>
+        <v>3.4521944522857666</v>
       </c>
       <c r="D462" s="2">
         <v>3.3863358497619629</v>
       </c>
       <c r="E462" s="2">
-        <v>3.3087790012359619</v>
+        <v>3.3099355697631836</v>
       </c>
     </row>
     <row r="463">
@@ -7943,13 +7943,13 @@
         <v>3.0087485313415527</v>
       </c>
       <c r="C463" s="2">
-        <v>2.9519007205963135</v>
+        <v>2.9526293277740479</v>
       </c>
       <c r="D463" s="2">
         <v>3.3187849521636963</v>
       </c>
       <c r="E463" s="2">
-        <v>3.2614676952362061</v>
+        <v>3.2626724243164063</v>
       </c>
     </row>
     <row r="464">
@@ -7960,13 +7960,13 @@
         <v>3.3248226642608643</v>
       </c>
       <c r="C464" s="2">
-        <v>3.2100160121917725</v>
+        <v>3.2105484008789063</v>
       </c>
       <c r="D464" s="2">
         <v>3.291632890701294</v>
       </c>
       <c r="E464" s="2">
-        <v>3.2465415000915527</v>
+        <v>3.2476952075958252</v>
       </c>
     </row>
     <row r="465">
@@ -7977,13 +7977,13 @@
         <v>3.4666545391082764</v>
       </c>
       <c r="C465" s="2">
-        <v>3.4172899723052979</v>
+        <v>3.4179708957672119</v>
       </c>
       <c r="D465" s="2">
         <v>3.3108029365539551</v>
       </c>
       <c r="E465" s="2">
-        <v>3.2728555202484131</v>
+        <v>3.2741127014160156</v>
       </c>
     </row>
     <row r="466">
@@ -7994,13 +7994,13 @@
         <v>3.1663978099822998</v>
       </c>
       <c r="C466" s="2">
-        <v>3.0843932628631592</v>
+        <v>3.0850889682769775</v>
       </c>
       <c r="D466" s="2">
         <v>3.2702279090881348</v>
       </c>
       <c r="E466" s="2">
-        <v>3.2333216667175293</v>
+        <v>3.2343943119049072</v>
       </c>
     </row>
     <row r="467">
@@ -8011,13 +8011,13 @@
         <v>3.2167372703552246</v>
       </c>
       <c r="C467" s="2">
-        <v>3.2047407627105713</v>
+        <v>3.2062475681304932</v>
       </c>
       <c r="D467" s="2">
         <v>3.2822127342224121</v>
       </c>
       <c r="E467" s="2">
-        <v>3.2452468872070313</v>
+        <v>3.2462427616119385</v>
       </c>
     </row>
     <row r="468">
@@ -8028,13 +8028,13 @@
         <v>3.2351109981536865</v>
       </c>
       <c r="C468" s="2">
-        <v>3.2385189533233643</v>
+        <v>3.2406694889068604</v>
       </c>
       <c r="D468" s="2">
         <v>3.3174350261688232</v>
       </c>
       <c r="E468" s="2">
-        <v>3.2713062763214111</v>
+        <v>3.2722470760345459</v>
       </c>
     </row>
     <row r="469">
@@ -8045,13 +8045,13 @@
         <v>3.3614249229431152</v>
       </c>
       <c r="C469" s="2">
-        <v>3.2930700778961182</v>
+        <v>3.2944965362548828</v>
       </c>
       <c r="D469" s="2">
         <v>3.3219799995422363</v>
       </c>
       <c r="E469" s="2">
-        <v>3.2928085327148438</v>
+        <v>3.2938687801361084</v>
       </c>
     </row>
     <row r="470">
@@ -8062,13 +8062,13 @@
         <v>3.211613655090332</v>
       </c>
       <c r="C470" s="2">
-        <v>3.2490453720092774</v>
+        <v>3.2497024536132813</v>
       </c>
       <c r="D470" s="2">
         <v>3.3007421493530273</v>
       </c>
       <c r="E470" s="2">
-        <v>3.276578426361084</v>
+        <v>3.2775356769561768</v>
       </c>
     </row>
     <row r="471">
@@ -8079,13 +8079,13 @@
         <v>3.5484046936035156</v>
       </c>
       <c r="C471" s="2">
-        <v>3.5582470893859863</v>
+        <v>3.5588309764862061</v>
       </c>
       <c r="D471" s="2">
         <v>3.3442409038543701</v>
       </c>
       <c r="E471" s="2">
-        <v>3.3207845687866211</v>
+        <v>3.3218410015106201</v>
       </c>
     </row>
     <row r="472">
@@ -8096,13 +8096,13 @@
         <v>3.3257477283477783</v>
       </c>
       <c r="C472" s="2">
-        <v>3.1864359378814697</v>
+        <v>3.1866691112518311</v>
       </c>
       <c r="D472" s="2">
         <v>3.3238921165466309</v>
       </c>
       <c r="E472" s="2">
-        <v>3.2964138984680176</v>
+        <v>3.2973799705505371</v>
       </c>
     </row>
     <row r="473">
@@ -8113,13 +8113,13 @@
         <v>3.3657293319702149</v>
       </c>
       <c r="C473" s="2">
-        <v>3.4035353660583496</v>
+        <v>3.4051437377929688</v>
       </c>
       <c r="D473" s="2">
         <v>3.3387739658355713</v>
       </c>
       <c r="E473" s="2">
-        <v>3.2927834987640381</v>
+        <v>3.2936062812805176</v>
       </c>
     </row>
     <row r="474">
@@ -8130,13 +8130,13 @@
         <v>3.2755124568939209</v>
       </c>
       <c r="C474" s="2">
-        <v>3.2712182998657227</v>
+        <v>3.2709732055664063</v>
       </c>
       <c r="D474" s="2">
         <v>3.3244314193725586</v>
       </c>
       <c r="E474" s="2">
-        <v>3.285022497177124</v>
+        <v>3.2858572006225586</v>
       </c>
     </row>
     <row r="475">
@@ -8147,13 +8147,13 @@
         <v>3.557887077331543</v>
       </c>
       <c r="C475" s="2">
-        <v>3.4822502136230469</v>
+        <v>3.4838352203369141</v>
       </c>
       <c r="D475" s="2">
         <v>3.3224530220031738</v>
       </c>
       <c r="E475" s="2">
-        <v>3.2765469551086426</v>
+        <v>3.2774467468261719</v>
       </c>
     </row>
     <row r="476">
@@ -8164,13 +8164,13 @@
         <v>3.0335986614227295</v>
       </c>
       <c r="C476" s="2">
-        <v>2.985403299331665</v>
+        <v>2.9860992431640625</v>
       </c>
       <c r="D476" s="2">
         <v>3.3201529979705811</v>
       </c>
       <c r="E476" s="2">
-        <v>3.2614057064056397</v>
+        <v>3.2623372077941895</v>
       </c>
     </row>
     <row r="477">
@@ -8181,13 +8181,13 @@
         <v>3.3690464496612549</v>
       </c>
       <c r="C477" s="2">
-        <v>3.2058451175689697</v>
+        <v>3.2067060470581055</v>
       </c>
       <c r="D477" s="2">
         <v>3.3027467727661133</v>
       </c>
       <c r="E477" s="2">
-        <v>3.2531552314758301</v>
+        <v>3.2541928291320801</v>
       </c>
     </row>
     <row r="478">
@@ -8198,13 +8198,13 @@
         <v>3.2323434352874756</v>
       </c>
       <c r="C478" s="2">
-        <v>3.2232217788696289</v>
+        <v>3.2247555255889893</v>
       </c>
       <c r="D478" s="2">
         <v>3.2677679061889649</v>
       </c>
       <c r="E478" s="2">
-        <v>3.2026400566101074</v>
+        <v>3.2034752368927002</v>
       </c>
     </row>
     <row r="479">
@@ -8215,13 +8215,13 @@
         <v>3.1938076019287109</v>
       </c>
       <c r="C479" s="2">
-        <v>3.172764778137207</v>
+        <v>3.1740069389343262</v>
       </c>
       <c r="D479" s="2">
         <v>3.2509391307830811</v>
       </c>
       <c r="E479" s="2">
-        <v>3.1877758502960205</v>
+        <v>3.1887235641479492</v>
       </c>
     </row>
     <row r="480">
@@ -8232,13 +8232,13 @@
         <v>3.527705192565918</v>
       </c>
       <c r="C480" s="2">
-        <v>3.4219775199890137</v>
+        <v>3.4228460788726807</v>
       </c>
       <c r="D480" s="2">
         <v>3.1826138496398926</v>
       </c>
       <c r="E480" s="2">
-        <v>3.1234626770019531</v>
+        <v>3.124258279800415</v>
       </c>
     </row>
     <row r="481">
@@ -8249,13 +8249,13 @@
         <v>3.1690912246704102</v>
       </c>
       <c r="C481" s="2">
-        <v>3.112180233001709</v>
+        <v>3.113370418548584</v>
       </c>
       <c r="D481" s="2">
         <v>3.216069221496582</v>
       </c>
       <c r="E481" s="2">
-        <v>3.1605262756347656</v>
+        <v>3.1613729000091553</v>
       </c>
     </row>
     <row r="482">
@@ -8266,13 +8266,13 @@
         <v>3.0509192943572998</v>
       </c>
       <c r="C482" s="2">
-        <v>2.9488987922668457</v>
+        <v>2.9486846923828125</v>
       </c>
       <c r="D482" s="2">
         <v>3.1866574287414551</v>
       </c>
       <c r="E482" s="2">
-        <v>3.1411712169647217</v>
+        <v>3.1420729160308838</v>
       </c>
     </row>
     <row r="483">
@@ -8283,13 +8283,13 @@
         <v>3.124053955078125</v>
       </c>
       <c r="C483" s="2">
-        <v>3.1374406814575195</v>
+        <v>3.1382071971893311</v>
       </c>
       <c r="D483" s="2">
         <v>3.22096848487854</v>
       </c>
       <c r="E483" s="2">
-        <v>3.1691813468933106</v>
+        <v>3.1700115203857422</v>
       </c>
     </row>
     <row r="484">
@@ -8300,13 +8300,13 @@
         <v>2.9429597854614258</v>
       </c>
       <c r="C484" s="2">
-        <v>2.9034318923950195</v>
+        <v>2.903648853302002</v>
       </c>
       <c r="D484" s="2">
         <v>3.2778096199035645</v>
       </c>
       <c r="E484" s="2">
-        <v>3.2331376075744629</v>
+        <v>3.2336928844451904</v>
       </c>
     </row>
     <row r="485">
@@ -8317,13 +8317,13 @@
         <v>3.3346970081329346</v>
       </c>
       <c r="C485" s="2">
-        <v>3.3189756870269775</v>
+        <v>3.3201310634613037</v>
       </c>
       <c r="D485" s="2">
         <v>3.2976031303405762</v>
       </c>
       <c r="E485" s="2">
-        <v>3.2579770088195801</v>
+        <v>3.258394718170166</v>
       </c>
     </row>
     <row r="486">
@@ -8334,13 +8334,13 @@
         <v>3.1043403148651123</v>
       </c>
       <c r="C486" s="2">
-        <v>3.0316505432128906</v>
+        <v>3.0330047607421875</v>
       </c>
       <c r="D486" s="2">
         <v>3.2933359146118164</v>
       </c>
       <c r="E486" s="2">
-        <v>3.2538540363311768</v>
+        <v>3.2542104721069336</v>
       </c>
     </row>
     <row r="487">
@@ -8351,13 +8351,13 @@
         <v>3.5411427021026611</v>
       </c>
       <c r="C487" s="2">
-        <v>3.475311279296875</v>
+        <v>3.4762041568756104</v>
       </c>
       <c r="D487" s="2">
         <v>3.3664484024047852</v>
       </c>
       <c r="E487" s="2">
-        <v>3.3431634902954102</v>
+        <v>3.3435728549957275</v>
       </c>
     </row>
     <row r="488">
@@ -8368,13 +8368,13 @@
         <v>3.7053766250610352</v>
       </c>
       <c r="C488" s="2">
-        <v>3.7483720779418945</v>
+        <v>3.7471380233764648</v>
       </c>
       <c r="D488" s="2">
         <v>3.4156734943389893</v>
       </c>
       <c r="E488" s="2">
-        <v>3.3904740810394287</v>
+        <v>3.3908843994140625</v>
       </c>
     </row>
     <row r="489">
@@ -8385,13 +8385,13 @@
         <v>3.7058470249176025</v>
       </c>
       <c r="C489" s="2">
-        <v>3.6455328464508057</v>
+        <v>3.6451623439788818</v>
       </c>
       <c r="D489" s="2">
         <v>3.4969873428344727</v>
       </c>
       <c r="E489" s="2">
-        <v>3.4789125919342041</v>
+        <v>3.4792039394378662</v>
       </c>
     </row>
     <row r="490">
@@ -8402,13 +8402,13 @@
         <v>3.1306874752044678</v>
       </c>
       <c r="C490" s="2">
-        <v>3.0750715732574463</v>
+        <v>3.0757138729095459</v>
       </c>
       <c r="D490" s="2">
         <v>3.4565737247467041</v>
       </c>
       <c r="E490" s="2">
-        <v>3.4450802803039551</v>
+        <v>3.4454085826873779</v>
       </c>
     </row>
     <row r="491">
@@ -8419,13 +8419,13 @@
         <v>3.708930253982544</v>
       </c>
       <c r="C491" s="2">
-        <v>3.7526843547821045</v>
+        <v>3.7529449462890625</v>
       </c>
       <c r="D491" s="2">
         <v>3.4550285339355469</v>
       </c>
       <c r="E491" s="2">
-        <v>3.4456274509429932</v>
+        <v>3.4459846019744873</v>
       </c>
     </row>
     <row r="492">
@@ -8436,13 +8436,13 @@
         <v>3.5670793056488037</v>
       </c>
       <c r="C492" s="2">
-        <v>3.5632369518280029</v>
+        <v>3.5640113353729248</v>
       </c>
       <c r="D492" s="2">
         <v>3.3958930969238281</v>
       </c>
       <c r="E492" s="2">
-        <v>3.3894674777984619</v>
+        <v>3.3897659778594971</v>
       </c>
     </row>
     <row r="493">
@@ -8453,13 +8453,13 @@
         <v>3.6747863292694092</v>
       </c>
       <c r="C493" s="2">
-        <v>3.6993789672851563</v>
+        <v>3.6985247135162354</v>
       </c>
       <c r="D493" s="2">
         <v>3.3094384670257568</v>
       </c>
       <c r="E493" s="2">
-        <v>3.2900071144104004</v>
+        <v>3.2906577587127686</v>
       </c>
     </row>
     <row r="494">
@@ -8470,13 +8470,13 @@
         <v>2.9709737300872803</v>
       </c>
       <c r="C494" s="2">
-        <v>3.014484167098999</v>
+        <v>3.0159726142883301</v>
       </c>
       <c r="D494" s="2">
         <v>3.233849048614502</v>
       </c>
       <c r="E494" s="2">
-        <v>3.2248334884643555</v>
+        <v>3.2256181240081787</v>
       </c>
     </row>
     <row r="495">
@@ -8487,13 +8487,13 @@
         <v>3.0904343128204346</v>
       </c>
       <c r="C495" s="2">
-        <v>3.0365753173828125</v>
+        <v>3.0381898880004883</v>
       </c>
       <c r="D495" s="2">
         <v>3.2887201309204102</v>
       </c>
       <c r="E495" s="2">
-        <v>3.2729661464691162</v>
+        <v>3.273951530456543</v>
       </c>
     </row>
     <row r="496">
@@ -8504,13 +8504,13 @@
         <v>3.0089230537414551</v>
       </c>
       <c r="C496" s="2">
-        <v>2.9698712825775147</v>
+        <v>2.9702355861663818</v>
       </c>
       <c r="D496" s="2">
         <v>3.278853178024292</v>
       </c>
       <c r="E496" s="2">
-        <v>3.2598991394042969</v>
+        <v>3.2610437870025635</v>
       </c>
     </row>
     <row r="497">
@@ -8521,13 +8521,13 @@
         <v>2.9272847175598145</v>
       </c>
       <c r="C497" s="2">
-        <v>2.853229284286499</v>
+        <v>2.8551642894744873</v>
       </c>
       <c r="D497" s="2">
         <v>3.277618408203125</v>
       </c>
       <c r="E497" s="2">
-        <v>3.2562687397003174</v>
+        <v>3.2574753761291504</v>
       </c>
     </row>
     <row r="498">
@@ -8538,13 +8538,13 @@
         <v>3.025543212890625</v>
       </c>
       <c r="C498" s="2">
-        <v>3.0589699745178223</v>
+        <v>3.0598068237304688</v>
       </c>
       <c r="D498" s="2">
         <v>3.2586498260498047</v>
       </c>
       <c r="E498" s="2">
-        <v>3.2368161678314209</v>
+        <v>3.2381982803344727</v>
       </c>
     </row>
     <row r="499">
@@ -8555,13 +8555,13 @@
         <v>3.6245269775390625</v>
       </c>
       <c r="C499" s="2">
-        <v>3.5082657337188721</v>
+        <v>3.5107135772705078</v>
       </c>
       <c r="D499" s="2">
         <v>3.2885701656341553</v>
       </c>
       <c r="E499" s="2">
-        <v>3.2649762630462647</v>
+        <v>3.2661552429199219</v>
       </c>
     </row>
     <row r="500">
@@ -8572,13 +8572,13 @@
         <v>3.6201279163360596</v>
       </c>
       <c r="C500" s="2">
-        <v>3.6350810527801514</v>
+        <v>3.6367745399475098</v>
       </c>
       <c r="D500" s="2">
         <v>3.316361665725708</v>
       </c>
       <c r="E500" s="2">
-        <v>3.2729086875915527</v>
+        <v>3.2738823890686035</v>
       </c>
     </row>
     <row r="501">
@@ -8589,13 +8589,13 @@
         <v>3.5559659004211426</v>
       </c>
       <c r="C501" s="2">
-        <v>3.5305626392364502</v>
+        <v>3.5318970680236817</v>
       </c>
       <c r="D501" s="2">
         <v>3.3411548137664795</v>
       </c>
       <c r="E501" s="2">
-        <v>3.3010268211364746</v>
+        <v>3.3019070625305176</v>
       </c>
     </row>
     <row r="502">
@@ -8606,13 +8606,13 @@
         <v>3.5040690898895264</v>
       </c>
       <c r="C502" s="2">
-        <v>3.5243053436279297</v>
+        <v>3.525029182434082</v>
       </c>
       <c r="D502" s="2">
         <v>3.3402423858642578</v>
       </c>
       <c r="E502" s="2">
-        <v>3.2894418239593506</v>
+        <v>3.2900576591491699</v>
       </c>
     </row>
     <row r="503">
@@ -8623,13 +8623,13 @@
         <v>3.24025559425354</v>
       </c>
       <c r="C503" s="2">
-        <v>3.2679247856140137</v>
+        <v>3.2675871849060059</v>
       </c>
       <c r="D503" s="2">
         <v>3.3367319107055664</v>
       </c>
       <c r="E503" s="2">
-        <v>3.2882215976715088</v>
+        <v>3.2888979911804199</v>
       </c>
     </row>
     <row r="504">
@@ -8640,13 +8640,13 @@
         <v>3.3405587673187256</v>
       </c>
       <c r="C504" s="2">
-        <v>3.1079690456390381</v>
+        <v>3.1077332496643066</v>
       </c>
       <c r="D504" s="2">
         <v>3.3683757781982422</v>
       </c>
       <c r="E504" s="2">
-        <v>3.3345909118652344</v>
+        <v>3.3350000381469727</v>
       </c>
     </row>
     <row r="505">
@@ -8657,13 +8657,13 @@
         <v>3.2320601940155029</v>
       </c>
       <c r="C505" s="2">
-        <v>3.2229328155517578</v>
+        <v>3.2224571704864502</v>
       </c>
       <c r="D505" s="2">
         <v>3.6003420352935791</v>
       </c>
       <c r="E505" s="2">
-        <v>3.5538871288299561</v>
+        <v>3.5542099475860596</v>
       </c>
     </row>
     <row r="506">
@@ -8674,13 +8674,13 @@
         <v>2.9190728664398193</v>
       </c>
       <c r="C506" s="2">
-        <v>2.7489640712738037</v>
+        <v>2.7485198974609375</v>
       </c>
       <c r="D506" s="2">
         <v>3.8552887439727783</v>
       </c>
       <c r="E506" s="2">
-        <v>3.8051633834838867</v>
+        <v>3.8053815364837646</v>
       </c>
     </row>
     <row r="507">
@@ -8691,13 +8691,13 @@
         <v>2.9939491748809815</v>
       </c>
       <c r="C507" s="2">
-        <v>3.0479879379272461</v>
+        <v>3.0493700504302979</v>
       </c>
       <c r="D507" s="2">
         <v>3.9692280292510986</v>
       </c>
       <c r="E507" s="2">
-        <v>3.9101815223693848</v>
+        <v>3.9105300903320313</v>
       </c>
     </row>
     <row r="508">
@@ -8708,13 +8708,13 @@
         <v>3.9093215465545654</v>
       </c>
       <c r="C508" s="2">
-        <v>3.9255907535552979</v>
+        <v>3.9256327152252197</v>
       </c>
       <c r="D508" s="2">
         <v>4.1104598045349121</v>
       </c>
       <c r="E508" s="2">
-        <v>4.0409793853759766</v>
+        <v>4.0413646697998047</v>
       </c>
     </row>
     <row r="509">
@@ -8725,13 +8725,13 @@
         <v>5.70782470703125</v>
       </c>
       <c r="C509" s="2">
-        <v>5.6087474822998047</v>
+        <v>5.6096634864807129</v>
       </c>
       <c r="D509" s="2">
         <v>4.2469882965087891</v>
       </c>
       <c r="E509" s="2">
-        <v>4.2061848640441895</v>
+        <v>4.2066588401794434</v>
       </c>
     </row>
     <row r="510">
@@ -8742,13 +8742,13 @@
         <v>5.850487232208252</v>
       </c>
       <c r="C510" s="2">
-        <v>5.7920479774475098</v>
+        <v>5.7924408912658691</v>
       </c>
       <c r="D510" s="2">
         <v>4.3552389144897461</v>
       </c>
       <c r="E510" s="2">
-        <v>4.3150653839111328</v>
+        <v>4.3156423568725586</v>
       </c>
     </row>
     <row r="511">
@@ -8759,13 +8759,13 @@
         <v>4.5295224189758301</v>
       </c>
       <c r="C511" s="2">
-        <v>4.4694681167602539</v>
+        <v>4.4713668823242188</v>
       </c>
       <c r="D511" s="2">
         <v>4.4503674507141113</v>
       </c>
       <c r="E511" s="2">
-        <v>4.4120445251464844</v>
+        <v>4.4128775596618652</v>
       </c>
     </row>
     <row r="512">
@@ -8776,13 +8776,13 @@
         <v>4.5113420486450195</v>
       </c>
       <c r="C512" s="2">
-        <v>4.4451084136962891</v>
+        <v>4.445096492767334</v>
       </c>
       <c r="D512" s="2">
         <v>4.5743598937988281</v>
       </c>
       <c r="E512" s="2">
-        <v>4.530613899230957</v>
+        <v>4.5313563346862793</v>
       </c>
     </row>
     <row r="513">
@@ -8793,13 +8793,13 @@
         <v>4.5693154335021973</v>
       </c>
       <c r="C513" s="2">
-        <v>4.5948143005371094</v>
+        <v>4.5953822135925293</v>
       </c>
       <c r="D513" s="2">
         <v>4.6378192901611328</v>
       </c>
       <c r="E513" s="2">
-        <v>4.6081514358520508</v>
+        <v>4.6089768409729004</v>
       </c>
     </row>
     <row r="514">
@@ -8810,13 +8810,13 @@
         <v>4.2063159942626953</v>
       </c>
       <c r="C514" s="2">
-        <v>4.2028594017028809</v>
+        <v>4.2033066749572754</v>
       </c>
       <c r="D514" s="2">
         <v>4.4920592308044434</v>
       </c>
       <c r="E514" s="2">
-        <v>4.4773435592651367</v>
+        <v>4.4783110618591309</v>
       </c>
     </row>
     <row r="515">
@@ -8827,13 +8827,13 @@
         <v>3.7752299308776856</v>
       </c>
       <c r="C515" s="2">
-        <v>3.6217775344848633</v>
+        <v>3.6236393451690674</v>
       </c>
       <c r="D515" s="2">
         <v>4.3292365074157715</v>
       </c>
       <c r="E515" s="2">
-        <v>4.3219404220581055</v>
+        <v>4.3229460716247559</v>
       </c>
     </row>
     <row r="516">
@@ -8844,13 +8844,13 @@
         <v>4.1098775863647461</v>
       </c>
       <c r="C516" s="2">
-        <v>4.115109920501709</v>
+        <v>4.1156797409057617</v>
       </c>
       <c r="D516" s="2">
         <v>4.2806987762451172</v>
       </c>
       <c r="E516" s="2">
-        <v>4.2711329460144043</v>
+        <v>4.2721672058105469</v>
       </c>
     </row>
     <row r="517">
@@ -8861,13 +8861,13 @@
         <v>4.4804592132568359</v>
       </c>
       <c r="C517" s="2">
-        <v>4.6234288215637207</v>
+        <v>4.6242160797119141</v>
       </c>
       <c r="D517" s="2">
         <v>4.2383441925048828</v>
       </c>
       <c r="E517" s="2">
-        <v>4.2462344169616699</v>
+        <v>4.2474474906921387</v>
       </c>
     </row>
     <row r="518">
@@ -8878,13 +8878,13 @@
         <v>4.3959846496582031</v>
       </c>
       <c r="C518" s="2">
-        <v>4.4314785003662109</v>
+        <v>4.4336695671081543</v>
       </c>
       <c r="D518" s="2">
         <v>4.2485189437866211</v>
       </c>
       <c r="E518" s="2">
-        <v>4.2463474273681641</v>
+        <v>4.2476191520690918</v>
       </c>
     </row>
     <row r="519">
@@ -8895,13 +8895,13 @@
         <v>4.3850827217102051</v>
       </c>
       <c r="C519" s="2">
-        <v>4.3934173583984375</v>
+        <v>4.3941574096679688</v>
       </c>
       <c r="D519" s="2">
         <v>4.3535876274108887</v>
       </c>
       <c r="E519" s="2">
-        <v>4.3379368782043457</v>
+        <v>4.3394584655761719</v>
       </c>
     </row>
     <row r="520">
@@ -8912,13 +8912,13 @@
         <v>4.0926823616027832</v>
       </c>
       <c r="C520" s="2">
-        <v>4.0122032165527344</v>
+        <v>4.0143589973449707</v>
       </c>
       <c r="D520" s="2">
         <v>4.4861111640930176</v>
       </c>
       <c r="E520" s="2">
-        <v>4.4870176315307617</v>
+        <v>4.4882321357727051</v>
       </c>
     </row>
     <row r="521">
@@ -8929,13 +8929,13 @@
         <v>4.1301479339599609</v>
       </c>
       <c r="C521" s="2">
-        <v>4.2210211753845215</v>
+        <v>4.2226176261901856</v>
       </c>
       <c r="D521" s="2">
         <v>4.5787687301635742</v>
       </c>
       <c r="E521" s="2">
-        <v>4.5839352607727051</v>
+        <v>4.5852227210998535</v>
       </c>
     </row>
     <row r="522">
@@ -8946,13 +8946,13 @@
         <v>4.660888671875</v>
       </c>
       <c r="C522" s="2">
-        <v>4.5958294868469238</v>
+        <v>4.5969271659851074</v>
       </c>
       <c r="D522" s="2">
         <v>4.7003388404846191</v>
       </c>
       <c r="E522" s="2">
-        <v>4.6846671104431152</v>
+        <v>4.686182975769043</v>
       </c>
     </row>
     <row r="523">
@@ -8963,13 +8963,13 @@
         <v>5.1519336700439453</v>
       </c>
       <c r="C523" s="2">
-        <v>5.0271668434143066</v>
+        <v>5.0298624038696289</v>
       </c>
       <c r="D523" s="2">
         <v>4.7933120727539063</v>
       </c>
       <c r="E523" s="2">
-        <v>4.7573256492614746</v>
+        <v>4.758756160736084</v>
       </c>
     </row>
     <row r="524">
@@ -8980,13 +8980,13 @@
         <v>4.9679455757141113</v>
       </c>
       <c r="C524" s="2">
-        <v>4.9635047912597656</v>
+        <v>4.9625997543334961</v>
       </c>
       <c r="D524" s="2">
         <v>4.8824996948242188</v>
       </c>
       <c r="E524" s="2">
-        <v>4.8404793739318848</v>
+        <v>4.8417320251464844</v>
       </c>
     </row>
     <row r="525">
@@ -8997,13 +8997,13 @@
         <v>4.9437952041625977</v>
       </c>
       <c r="C525" s="2">
-        <v>4.98736572265625</v>
+        <v>4.9885945320129395</v>
       </c>
       <c r="D525" s="2">
         <v>5.0670738220214844</v>
       </c>
       <c r="E525" s="2">
-        <v>5.042078971862793</v>
+        <v>5.0431947708129883</v>
       </c>
     </row>
     <row r="526">
@@ -9014,13 +9014,13 @@
         <v>5.5745902061462402</v>
       </c>
       <c r="C526" s="2">
-        <v>5.5300178527832031</v>
+        <v>5.5328588485717773</v>
       </c>
       <c r="D526" s="2">
         <v>5.1949796676635742</v>
       </c>
       <c r="E526" s="2">
-        <v>5.1491436958312988</v>
+        <v>5.1501536369323731</v>
       </c>
     </row>
     <row r="527">
@@ -9031,13 +9031,13 @@
         <v>5.2327427864074707</v>
       </c>
       <c r="C527" s="2">
-        <v>5.0854029655456543</v>
+        <v>5.086829662322998</v>
       </c>
       <c r="D527" s="2">
         <v>5.2232699394226074</v>
       </c>
       <c r="E527" s="2">
-        <v>5.1784892082214355</v>
+        <v>5.1796002388000488</v>
       </c>
     </row>
     <row r="528">
@@ -9048,13 +9048,13 @@
         <v>5.1877713203430176</v>
       </c>
       <c r="C528" s="2">
-        <v>5.1418037414550781</v>
+        <v>5.1409387588500977</v>
       </c>
       <c r="D528" s="2">
         <v>5.2693939208984375</v>
       </c>
       <c r="E528" s="2">
-        <v>5.2329730987548828</v>
+        <v>5.2338323593139648</v>
       </c>
     </row>
     <row r="529">
@@ -9065,13 +9065,13 @@
         <v>5.7538480758666992</v>
       </c>
       <c r="C529" s="2">
-        <v>5.826596736907959</v>
+        <v>5.8275222778320313</v>
       </c>
       <c r="D529" s="2">
         <v>5.3304028511047363</v>
       </c>
       <c r="E529" s="2">
-        <v>5.2937583923339844</v>
+        <v>5.294771671295166</v>
       </c>
     </row>
     <row r="530">
@@ -9082,13 +9082,13 @@
         <v>5.2813014984130859</v>
       </c>
       <c r="C530" s="2">
-        <v>5.1846051216125488</v>
+        <v>5.1852483749389649</v>
       </c>
       <c r="D530" s="2">
         <v>5.4217104911804199</v>
       </c>
       <c r="E530" s="2">
-        <v>5.3871068954467774</v>
+        <v>5.3881669044494629</v>
       </c>
     </row>
     <row r="531">
@@ -9099,13 +9099,13 @@
         <v>4.915501594543457</v>
       </c>
       <c r="C531" s="2">
-        <v>4.8599390983581543</v>
+        <v>4.8619494438171387</v>
       </c>
       <c r="D531" s="2">
         <v>5.4156079292297363</v>
       </c>
       <c r="E531" s="2">
-        <v>5.3797335624694824</v>
+        <v>5.380589485168457</v>
       </c>
     </row>
     <row r="532">
@@ -9116,13 +9116,13 @@
         <v>5.5670490264892578</v>
       </c>
       <c r="C532" s="2">
-        <v>5.5175209045410156</v>
+        <v>5.517951488494873</v>
       </c>
       <c r="D532" s="2">
         <v>5.4558911323547363</v>
       </c>
       <c r="E532" s="2">
-        <v>5.4317030906677246</v>
+        <v>5.4323272705078125</v>
       </c>
     </row>
     <row r="533">
@@ -9133,13 +9133,13 @@
         <v>5.5170273780822754</v>
       </c>
       <c r="C533" s="2">
-        <v>5.5105733871459961</v>
+        <v>5.5110526084899902</v>
       </c>
       <c r="D533" s="2">
         <v>5.5727348327636719</v>
       </c>
       <c r="E533" s="2">
-        <v>5.5566487312316895</v>
+        <v>5.5573081970214844</v>
       </c>
     </row>
     <row r="534">
@@ -9150,13 +9150,13 @@
         <v>5.7655625343322754</v>
       </c>
       <c r="C534" s="2">
-        <v>5.8275032043457031</v>
+        <v>5.8291511535644531</v>
       </c>
       <c r="D534" s="2">
         <v>5.6403322219848633</v>
       </c>
       <c r="E534" s="2">
-        <v>5.611299991607666</v>
+        <v>5.6119198799133301</v>
       </c>
     </row>
     <row r="535">
@@ -9167,13 +9167,13 @@
         <v>5.5196666717529297</v>
       </c>
       <c r="C535" s="2">
-        <v>5.4636578559875488</v>
+        <v>5.4646615982055664</v>
       </c>
       <c r="D535" s="2">
         <v>5.779301643371582</v>
       </c>
       <c r="E535" s="2">
-        <v>5.7380928993225098</v>
+        <v>5.7387561798095703</v>
       </c>
     </row>
     <row r="536">
@@ -9184,13 +9184,13 @@
         <v>5.5952920913696289</v>
       </c>
       <c r="C536" s="2">
-        <v>5.5531291961669922</v>
+        <v>5.5524702072143555</v>
       </c>
       <c r="D536" s="2">
         <v>5.8993611335754395</v>
       </c>
       <c r="E536" s="2">
-        <v>5.8574595451354981</v>
+        <v>5.8579998016357422</v>
       </c>
     </row>
     <row r="537">
@@ -9201,13 +9201,13 @@
         <v>6.2393627166748047</v>
       </c>
       <c r="C537" s="2">
-        <v>6.2663145065307617</v>
+        <v>6.2657685279846192</v>
       </c>
       <c r="D537" s="2">
         <v>5.9830894470214844</v>
       </c>
       <c r="E537" s="2">
-        <v>5.9489021301269531</v>
+        <v>5.9492883682250977</v>
       </c>
     </row>
     <row r="538">
@@ -9218,13 +9218,13 @@
         <v>6.3622269630432129</v>
       </c>
       <c r="C538" s="2">
-        <v>6.3184566497802734</v>
+        <v>6.3190255165100098</v>
       </c>
       <c r="D538" s="2">
         <v>5.9506516456604004</v>
       </c>
       <c r="E538" s="2">
-        <v>5.9219789505004883</v>
+        <v>5.9225101470947266</v>
       </c>
     </row>
     <row r="539">
@@ -9235,13 +9235,13 @@
         <v>6.5320248603820801</v>
       </c>
       <c r="C539" s="2">
-        <v>6.3257403373718262</v>
+        <v>6.3267755508422852</v>
       </c>
       <c r="D539" s="2">
         <v>5.9368720054626465</v>
       </c>
       <c r="E539" s="2">
-        <v>5.9008922576904297</v>
+        <v>5.9013972282409668</v>
       </c>
     </row>
     <row r="540">
@@ -9252,13 +9252,13 @@
         <v>5.9960389137268067</v>
       </c>
       <c r="C540" s="2">
-        <v>5.9342384338378906</v>
+        <v>5.9351401329040527</v>
       </c>
       <c r="D540" s="2">
         <v>5.94476318359375</v>
       </c>
       <c r="E540" s="2">
-        <v>5.9163532257080078</v>
+        <v>5.9169950485229492</v>
       </c>
     </row>
     <row r="541">
@@ -9269,13 +9269,13 @@
         <v>6.3206038475036621</v>
       </c>
       <c r="C541" s="2">
-        <v>6.3405051231384277</v>
+        <v>6.3395519256591797</v>
       </c>
       <c r="D541" s="2">
         <v>5.9007554054260254</v>
       </c>
       <c r="E541" s="2">
-        <v>5.8645138740539551</v>
+        <v>5.865328311920166</v>
       </c>
     </row>
     <row r="542">
@@ -9286,13 +9286,13 @@
         <v>5.2250876426696777</v>
       </c>
       <c r="C542" s="2">
-        <v>5.2682662010192871</v>
+        <v>5.2700486183166504</v>
       </c>
       <c r="D542" s="2">
         <v>5.7901620864868164</v>
       </c>
       <c r="E542" s="2">
-        <v>5.7565088272094727</v>
+        <v>5.7574725151062012</v>
       </c>
     </row>
     <row r="543">
@@ -9303,13 +9303,13 @@
         <v>5.641545295715332</v>
       </c>
       <c r="C543" s="2">
-        <v>5.6377220153808594</v>
+        <v>5.6391348838806152</v>
       </c>
       <c r="D543" s="2">
         <v>5.6473541259765625</v>
       </c>
       <c r="E543" s="2">
-        <v>5.6031990051269531</v>
+        <v>5.6041250228881836</v>
       </c>
     </row>
     <row r="544">
@@ -9320,13 +9320,13 @@
         <v>5.5906858444213867</v>
       </c>
       <c r="C544" s="2">
-        <v>5.6028056144714355</v>
+        <v>5.6050400733947754</v>
       </c>
       <c r="D544" s="2">
         <v>5.4985289573669434</v>
       </c>
       <c r="E544" s="2">
-        <v>5.4787135124206543</v>
+        <v>5.4795913696289063</v>
       </c>
     </row>
     <row r="545">
@@ -9337,13 +9337,13 @@
         <v>5.1992244720458984</v>
       </c>
       <c r="C545" s="2">
-        <v>5.0865740776062012</v>
+        <v>5.087470531463623</v>
       </c>
       <c r="D545" s="2">
         <v>5.3203144073486328</v>
       </c>
       <c r="E545" s="2">
-        <v>5.2991490364074707</v>
+        <v>5.2997603416442871</v>
       </c>
     </row>
     <row r="546">
@@ -9354,13 +9354,13 @@
         <v>5.244020938873291</v>
       </c>
       <c r="C546" s="2">
-        <v>5.2942709922790527</v>
+        <v>5.2950658798217773</v>
       </c>
       <c r="D546" s="2">
         <v>5.1088137626647949</v>
       </c>
       <c r="E546" s="2">
-        <v>5.0795903205871582</v>
+        <v>5.0804505348205567</v>
       </c>
     </row>
     <row r="547">
@@ -9371,13 +9371,13 @@
         <v>5.0769534111022949</v>
       </c>
       <c r="C547" s="2">
-        <v>4.9386672973632813</v>
+        <v>4.9388985633850098</v>
       </c>
       <c r="D547" s="2">
         <v>5.1014866828918457</v>
       </c>
       <c r="E547" s="2">
-        <v>5.073145866394043</v>
+        <v>5.0740790367126465</v>
       </c>
     </row>
     <row r="548">
@@ -9388,13 +9388,13 @@
         <v>5.1925992965698242</v>
       </c>
       <c r="C548" s="2">
-        <v>5.2053718566894531</v>
+        <v>5.2059707641601563</v>
       </c>
       <c r="D548" s="2">
         <v>5.0389404296875</v>
       </c>
       <c r="E548" s="2">
-        <v>5.0079755783081055</v>
+        <v>5.0086274147033691</v>
       </c>
     </row>
     <row r="549">
@@ -9405,13 +9405,13 @@
         <v>4.3921093940734863</v>
       </c>
       <c r="C549" s="2">
-        <v>4.3181600570678711</v>
+        <v>4.3166632652282715</v>
       </c>
       <c r="D549" s="2">
         <v>4.9624805450439453</v>
       </c>
       <c r="E549" s="2">
-        <v>4.9167256355285645</v>
+        <v>4.9171109199523926</v>
       </c>
     </row>
     <row r="550">
@@ -9422,13 +9422,13 @@
         <v>4.4170994758605957</v>
       </c>
       <c r="C550" s="2">
-        <v>4.3644747734069824</v>
+        <v>4.3657641410827637</v>
       </c>
       <c r="D550" s="2">
         <v>4.8666276931762695</v>
       </c>
       <c r="E550" s="2">
-        <v>4.8361845016479492</v>
+        <v>4.8363127708435059</v>
       </c>
     </row>
     <row r="551">
@@ -9439,13 +9439,13 @@
         <v>5.1591434478759766</v>
       </c>
       <c r="C551" s="2">
-        <v>5.2102642059326172</v>
+        <v>5.2127017974853516</v>
       </c>
       <c r="D551" s="2">
         <v>4.8695583343505859</v>
       </c>
       <c r="E551" s="2">
-        <v>4.8350324630737305</v>
+        <v>4.8349876403808594</v>
       </c>
     </row>
     <row r="552">
@@ -9456,13 +9456,13 @@
         <v>5.0786275863647461</v>
       </c>
       <c r="C552" s="2">
-        <v>5.0511922836303711</v>
+        <v>5.0500712394714355</v>
       </c>
       <c r="D552" s="2">
         <v>4.8698391914367676</v>
       </c>
       <c r="E552" s="2">
-        <v>4.8247685432434082</v>
+        <v>4.8245840072631836</v>
       </c>
     </row>
     <row r="553">
@@ -9473,13 +9473,13 @@
         <v>4.9025483131408691</v>
       </c>
       <c r="C553" s="2">
-        <v>4.7815570831298828</v>
+        <v>4.7813935279846191</v>
       </c>
       <c r="D553" s="2">
         <v>4.7778716087341309</v>
       </c>
       <c r="E553" s="2">
-        <v>4.7255196571350098</v>
+        <v>4.7251038551330566</v>
       </c>
     </row>
     <row r="554">
@@ -9490,13 +9490,13 @@
         <v>4.3365478515625</v>
       </c>
       <c r="C554" s="2">
-        <v>4.3617005348205567</v>
+        <v>4.3602848052978516</v>
       </c>
       <c r="D554" s="2">
         <v>4.8133854866027832</v>
       </c>
       <c r="E554" s="2">
-        <v>4.7487359046936035</v>
+        <v>4.7485852241516113</v>
       </c>
     </row>
     <row r="555">
@@ -9507,13 +9507,13 @@
         <v>5.2703976631164551</v>
       </c>
       <c r="C555" s="2">
-        <v>5.2839031219482422</v>
+        <v>5.2831392288208008</v>
       </c>
       <c r="D555" s="2">
         <v>4.8742027282714844</v>
       </c>
       <c r="E555" s="2">
-        <v>4.8152165412902832</v>
+        <v>4.8148703575134277</v>
       </c>
     </row>
     <row r="556">
@@ -9524,13 +9524,13 @@
         <v>5.0794796943664551</v>
       </c>
       <c r="C556" s="2">
-        <v>4.8462915420532227</v>
+        <v>4.8452668190002441</v>
       </c>
       <c r="D556" s="2">
         <v>4.8413186073303223</v>
       </c>
       <c r="E556" s="2">
-        <v>4.760004997253418</v>
+        <v>4.7593092918395996</v>
       </c>
     </row>
     <row r="557">
@@ -9541,13 +9541,13 @@
         <v>4.3648896217346191</v>
       </c>
       <c r="C557" s="2">
-        <v>4.3121328353881836</v>
+        <v>4.3106517791748047</v>
       </c>
       <c r="D557" s="2">
         <v>4.8667826652526855</v>
       </c>
       <c r="E557" s="2">
-        <v>4.7697906494140625</v>
+        <v>4.7692451477050781</v>
       </c>
     </row>
     <row r="558">
@@ -9558,13 +9558,13 @@
         <v>4.7117362022399902</v>
       </c>
       <c r="C558" s="2">
-        <v>4.5271077156066895</v>
+        <v>4.5279917716979981</v>
       </c>
       <c r="D558" s="2">
-        <v>4.8623123168945313</v>
+        <v>4.9131326675415039</v>
       </c>
       <c r="E558" s="2">
-        <v>4.7683196067810059</v>
+        <v>4.8207788467407227</v>
       </c>
     </row>
     <row r="559">
@@ -9575,13 +9575,13 @@
         <v>4.9644546508789063</v>
       </c>
       <c r="C559" s="2">
-        <v>4.9627995491027832</v>
+        <v>4.9623317718505859</v>
       </c>
       <c r="D559" s="2">
-        <v>4.9374213218688965</v>
+        <v>4.9975528717041016</v>
       </c>
       <c r="E559" s="2">
-        <v>4.8264079093933106</v>
+        <v>4.8905735015869141</v>
       </c>
     </row>
     <row r="560">
@@ -9592,13 +9592,13 @@
         <v>4.8631839752197266</v>
       </c>
       <c r="C560" s="2">
-        <v>4.7133584022521973</v>
+        <v>4.7126517295837402</v>
       </c>
       <c r="D560" s="2">
-        <v>4.881925106048584</v>
+        <v>5.0682530403137207</v>
       </c>
       <c r="E560" s="2">
-        <v>4.7501587867736817</v>
+        <v>4.9697341918945313</v>
       </c>
     </row>
     <row r="561">
@@ -9609,13 +9609,115 @@
         <v>5.3078069686889649</v>
       </c>
       <c r="C561" s="2">
-        <v>5.1392631530761719</v>
+        <v>5.1394948959350586</v>
       </c>
       <c r="D561" s="2">
-        <v>4.8424143791198731</v>
+        <v>5.2516884803771973</v>
       </c>
       <c r="E561" s="2">
-        <v>4.7309322357177734</v>
+        <v>5.1724710464477539</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B562" s="2">
+        <v>5.3196983337402344</v>
+      </c>
+      <c r="C562" s="2">
+        <v>5.2451958656311035</v>
+      </c>
+      <c r="D562" s="2">
+        <v>5.4385628700256348</v>
+      </c>
+      <c r="E562" s="2">
+        <v>5.3586220741271973</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B563" s="2">
+        <v>5.0963287353515625</v>
+      </c>
+      <c r="C563" s="2">
+        <v>4.988438606262207</v>
+      </c>
+      <c r="D563" s="2">
+        <v>5.6799592971801758</v>
+      </c>
+      <c r="E563" s="2">
+        <v>5.6114139556884766</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B564" s="2">
+        <v>5.9067001342773438</v>
+      </c>
+      <c r="C564" s="2">
+        <v>5.9955825805664063</v>
+      </c>
+      <c r="D564" s="2">
+        <v>5.7693972587585449</v>
+      </c>
+      <c r="E564" s="2">
+        <v>5.6925492286682129</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B565" s="2">
+        <v>6.7303981781005859</v>
+      </c>
+      <c r="C565" s="2">
+        <v>6.6699013710021973</v>
+      </c>
+      <c r="D565" s="2">
+        <v>5.8988561630249024</v>
+      </c>
+      <c r="E565" s="2">
+        <v>5.8325347900390625</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B566" s="2">
+        <v>6.0467605590820313</v>
+      </c>
+      <c r="C566" s="2">
+        <v>5.9860119819641113</v>
+      </c>
+      <c r="D566" s="2">
+        <v>5.9973645210266113</v>
+      </c>
+      <c r="E566" s="2">
+        <v>5.9480414390563965</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B567" s="2">
+        <v>6.8843016624450684</v>
+      </c>
+      <c r="C567" s="2">
+        <v>6.8031182289123535</v>
+      </c>
+      <c r="D567" s="2">
+        <v>6.1328978538513184</v>
+      </c>
+      <c r="E567" s="2">
+        <v>6.0886106491088867</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_stdev.xlsx
+++ b/MSC_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E567"/>
+  <dimension ref="A1:E569"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,13 +106,13 @@
         <v>3.9173924922943115</v>
       </c>
       <c r="C2" s="2">
-        <v>3.9260034561157227</v>
+        <v>3.9257535934448242</v>
       </c>
       <c r="D2" s="2">
         <v>4.3444499969482422</v>
       </c>
       <c r="E2" s="2">
-        <v>4.3447656631469727</v>
+        <v>4.3447718620300293</v>
       </c>
     </row>
     <row r="3">
@@ -123,13 +123,13 @@
         <v>4.6166448593139648</v>
       </c>
       <c r="C3" s="2">
-        <v>4.5750670433044434</v>
+        <v>4.5745739936828613</v>
       </c>
       <c r="D3" s="2">
-        <v>4.3426127433776856</v>
+        <v>4.3426127433776855</v>
       </c>
       <c r="E3" s="2">
-        <v>4.3401055335998535</v>
+        <v>4.3401675224304199</v>
       </c>
     </row>
     <row r="4">
@@ -140,13 +140,13 @@
         <v>4.3726387023925781</v>
       </c>
       <c r="C4" s="2">
-        <v>4.4105319976806641</v>
+        <v>4.4110312461853027</v>
       </c>
       <c r="D4" s="2">
         <v>4.3223543167114258</v>
       </c>
       <c r="E4" s="2">
-        <v>4.3215813636779785</v>
+        <v>4.3216967582702637</v>
       </c>
     </row>
     <row r="5">
@@ -157,13 +157,13 @@
         <v>4.0475072860717773</v>
       </c>
       <c r="C5" s="2">
-        <v>4.077728271484375</v>
+        <v>4.0785565376281738</v>
       </c>
       <c r="D5" s="2">
         <v>4.3720974922180176</v>
       </c>
       <c r="E5" s="2">
-        <v>4.3652281761169434</v>
+        <v>4.3652992248535156</v>
       </c>
     </row>
     <row r="6">
@@ -174,13 +174,13 @@
         <v>4.76806640625</v>
       </c>
       <c r="C6" s="2">
-        <v>4.7344970703125</v>
+        <v>4.7339444160461426</v>
       </c>
       <c r="D6" s="2">
         <v>4.3931341171264648</v>
       </c>
       <c r="E6" s="2">
-        <v>4.3911099433898926</v>
+        <v>4.391270637512207</v>
       </c>
     </row>
     <row r="7">
@@ -188,16 +188,16 @@
         <v>28642</v>
       </c>
       <c r="B7" s="2">
-        <v>4.3334264755249024</v>
+        <v>4.3334264755249023</v>
       </c>
       <c r="C7" s="2">
-        <v>4.316805362701416</v>
+        <v>4.3171443939208984</v>
       </c>
       <c r="D7" s="2">
         <v>4.4254779815673828</v>
       </c>
       <c r="E7" s="2">
-        <v>4.4268088340759277</v>
+        <v>4.4270553588867188</v>
       </c>
     </row>
     <row r="8">
@@ -208,13 +208,13 @@
         <v>4.2008047103881836</v>
       </c>
       <c r="C8" s="2">
-        <v>4.2104349136352539</v>
+        <v>4.2108726501464844</v>
       </c>
       <c r="D8" s="2">
         <v>4.3980436325073242</v>
       </c>
       <c r="E8" s="2">
-        <v>4.4101791381835938</v>
+        <v>4.4104022979736328</v>
       </c>
     </row>
     <row r="9">
@@ -225,13 +225,13 @@
         <v>4.7202978134155273</v>
       </c>
       <c r="C9" s="2">
-        <v>4.6707558631896973</v>
+        <v>4.6705183982849121</v>
       </c>
       <c r="D9" s="2">
         <v>4.3640079498291016</v>
       </c>
       <c r="E9" s="2">
-        <v>4.3788604736328125</v>
+        <v>4.3790264129638672</v>
       </c>
     </row>
     <row r="10">
@@ -242,13 +242,13 @@
         <v>4.5614290237426758</v>
       </c>
       <c r="C10" s="2">
-        <v>4.5981674194335938</v>
+        <v>4.5990419387817383</v>
       </c>
       <c r="D10" s="2">
         <v>4.3777251243591309</v>
       </c>
       <c r="E10" s="2">
-        <v>4.3887786865234375</v>
+        <v>4.3888773918151855</v>
       </c>
     </row>
     <row r="11">
@@ -256,16 +256,16 @@
         <v>28764</v>
       </c>
       <c r="B11" s="2">
-        <v>4.2084870338439942</v>
+        <v>4.2084870338439941</v>
       </c>
       <c r="C11" s="2">
-        <v>4.2472896575927734</v>
+        <v>4.2478165626525879</v>
       </c>
       <c r="D11" s="2">
         <v>4.3681507110595703</v>
       </c>
       <c r="E11" s="2">
-        <v>4.3825502395629883</v>
+        <v>4.382720947265625</v>
       </c>
     </row>
     <row r="12">
@@ -276,13 +276,13 @@
         <v>4.3697357177734375</v>
       </c>
       <c r="C12" s="2">
-        <v>4.4254035949707031</v>
+        <v>4.4246959686279297</v>
       </c>
       <c r="D12" s="2">
         <v>4.3958420753479004</v>
       </c>
       <c r="E12" s="2">
-        <v>4.414299488067627</v>
+        <v>4.4144868850708008</v>
       </c>
     </row>
     <row r="13">
@@ -293,13 +293,13 @@
         <v>4.0663175582885742</v>
       </c>
       <c r="C13" s="2">
-        <v>4.1286635398864746</v>
+        <v>4.1286463737487793</v>
       </c>
       <c r="D13" s="2">
         <v>4.4586381912231445</v>
       </c>
       <c r="E13" s="2">
-        <v>4.4717659950256348</v>
+        <v>4.4719181060791016</v>
       </c>
     </row>
     <row r="14">
@@ -310,13 +310,13 @@
         <v>4.17095947265625</v>
       </c>
       <c r="C14" s="2">
-        <v>4.1669912338256836</v>
+        <v>4.1672177314758301</v>
       </c>
       <c r="D14" s="2">
         <v>4.494420051574707</v>
       </c>
       <c r="E14" s="2">
-        <v>4.5136737823486328</v>
+        <v>4.5138387680053711</v>
       </c>
     </row>
     <row r="15">
@@ -327,13 +327,13 @@
         <v>4.6818990707397461</v>
       </c>
       <c r="C15" s="2">
-        <v>4.678441047668457</v>
+        <v>4.678532600402832</v>
       </c>
       <c r="D15" s="2">
         <v>4.5557160377502441</v>
       </c>
       <c r="E15" s="2">
-        <v>4.5671977996826172</v>
+        <v>4.5672616958618164</v>
       </c>
     </row>
     <row r="16">
@@ -344,13 +344,13 @@
         <v>4.5826473236083984</v>
       </c>
       <c r="C16" s="2">
-        <v>4.6025471687316895</v>
+        <v>4.6030402183532715</v>
       </c>
       <c r="D16" s="2">
         <v>4.6873102188110352</v>
       </c>
       <c r="E16" s="2">
-        <v>4.6928133964538574</v>
+        <v>4.692807674407959</v>
       </c>
     </row>
     <row r="17">
@@ -361,13 +361,13 @@
         <v>4.7659707069396973</v>
       </c>
       <c r="C17" s="2">
-        <v>4.727632999420166</v>
+        <v>4.727752685546875</v>
       </c>
       <c r="D17" s="2">
         <v>4.7952098846435547</v>
       </c>
       <c r="E17" s="2">
-        <v>4.7853341102600098</v>
+        <v>4.7854008674621582</v>
       </c>
     </row>
     <row r="18">
@@ -378,13 +378,13 @@
         <v>5.0423345565795898</v>
       </c>
       <c r="C18" s="2">
-        <v>5.0479288101196289</v>
+        <v>5.0478062629699707</v>
       </c>
       <c r="D18" s="2">
         <v>4.9091219902038574</v>
       </c>
       <c r="E18" s="2">
-        <v>4.8971924781799316</v>
+        <v>4.8972878456115723</v>
       </c>
     </row>
     <row r="19">
@@ -395,13 +395,13 @@
         <v>5.1130948066711426</v>
       </c>
       <c r="C19" s="2">
-        <v>5.0798811912536621</v>
+        <v>5.0798482894897461</v>
       </c>
       <c r="D19" s="2">
         <v>5.001920223236084</v>
       </c>
       <c r="E19" s="2">
-        <v>4.9930973052978516</v>
+        <v>4.9931764602661133</v>
       </c>
     </row>
     <row r="20">
@@ -412,13 +412,13 @@
         <v>5.3928313255310059</v>
       </c>
       <c r="C20" s="2">
-        <v>5.3778305053710938</v>
+        <v>5.3777303695678711</v>
       </c>
       <c r="D20" s="2">
         <v>5.0828590393066406</v>
       </c>
       <c r="E20" s="2">
-        <v>5.0783710479736328</v>
+        <v>5.078486442565918</v>
       </c>
     </row>
     <row r="21">
@@ -429,13 +429,13 @@
         <v>5.3408327102661133</v>
       </c>
       <c r="C21" s="2">
-        <v>5.258089542388916</v>
+        <v>5.2580347061157227</v>
       </c>
       <c r="D21" s="2">
         <v>5.1690950393676758</v>
       </c>
       <c r="E21" s="2">
-        <v>5.1567344665527344</v>
+        <v>5.1567926406860352</v>
       </c>
     </row>
     <row r="22">
@@ -446,13 +446,13 @@
         <v>5.0915274620056152</v>
       </c>
       <c r="C22" s="2">
-        <v>5.1353912353515625</v>
+        <v>5.1356296539306641</v>
       </c>
       <c r="D22" s="2">
         <v>5.2162694931030273</v>
       </c>
       <c r="E22" s="2">
-        <v>5.2089662551879883</v>
+        <v>5.2090258598327637</v>
       </c>
     </row>
     <row r="23">
@@ -463,13 +463,13 @@
         <v>5.0061426162719727</v>
       </c>
       <c r="C23" s="2">
-        <v>5.0301318168640137</v>
+        <v>5.0302138328552246</v>
       </c>
       <c r="D23" s="2">
         <v>5.2282333374023438</v>
       </c>
       <c r="E23" s="2">
-        <v>5.2211170196533203</v>
+        <v>5.2211785316467285</v>
       </c>
     </row>
     <row r="24">
@@ -480,13 +480,13 @@
         <v>5.4103512763977051</v>
       </c>
       <c r="C24" s="2">
-        <v>5.4459042549133301</v>
+        <v>5.4463210105895996</v>
       </c>
       <c r="D24" s="2">
         <v>5.3616595268249512</v>
       </c>
       <c r="E24" s="2">
-        <v>5.3408827781677246</v>
+        <v>5.3410296440124512</v>
       </c>
     </row>
     <row r="25">
@@ -497,13 +497,13 @@
         <v>5.3587679862976074</v>
       </c>
       <c r="C25" s="2">
-        <v>5.3078212738037109</v>
+        <v>5.3077988624572754</v>
       </c>
       <c r="D25" s="2">
         <v>5.5079197883605957</v>
       </c>
       <c r="E25" s="2">
-        <v>5.4921455383300781</v>
+        <v>5.4922361373901367</v>
       </c>
     </row>
     <row r="26">
@@ -511,16 +511,16 @@
         <v>29221</v>
       </c>
       <c r="B26" s="2">
-        <v>5.1905431747436524</v>
+        <v>5.1905431747436523</v>
       </c>
       <c r="C26" s="2">
-        <v>5.1977195739746094</v>
+        <v>5.1978516578674316</v>
       </c>
       <c r="D26" s="2">
         <v>5.655947208404541</v>
       </c>
       <c r="E26" s="2">
-        <v>5.6418356895446777</v>
+        <v>5.642031192779541</v>
       </c>
     </row>
     <row r="27">
@@ -531,13 +531,13 @@
         <v>5.1500072479248047</v>
       </c>
       <c r="C27" s="2">
-        <v>5.1572823524475098</v>
+        <v>5.1571784019470215</v>
       </c>
       <c r="D27" s="2">
         <v>5.7809267044067383</v>
       </c>
       <c r="E27" s="2">
-        <v>5.7598638534545899</v>
+        <v>5.7599983215332031</v>
       </c>
     </row>
     <row r="28">
@@ -548,13 +548,13 @@
         <v>6.3139305114746094</v>
       </c>
       <c r="C28" s="2">
-        <v>6.1577730178833008</v>
+        <v>6.1585097312927246</v>
       </c>
       <c r="D28" s="2">
-        <v>5.8828501701354981</v>
+        <v>5.882850170135498</v>
       </c>
       <c r="E28" s="2">
-        <v>5.8604021072387695</v>
+        <v>5.8604769706726074</v>
       </c>
     </row>
     <row r="29">
@@ -562,16 +562,16 @@
         <v>29312</v>
       </c>
       <c r="B29" s="2">
-        <v>6.7091741561889649</v>
+        <v>6.7091741561889648</v>
       </c>
       <c r="C29" s="2">
-        <v>6.7391953468322754</v>
+        <v>6.7385873794555664</v>
       </c>
       <c r="D29" s="2">
         <v>5.8739819526672363</v>
       </c>
       <c r="E29" s="2">
-        <v>5.8554730415344238</v>
+        <v>5.8555870056152344</v>
       </c>
     </row>
     <row r="30">
@@ -582,13 +582,13 @@
         <v>6.6730799674987793</v>
       </c>
       <c r="C30" s="2">
-        <v>6.6053013801574707</v>
+        <v>6.6061921119689941</v>
       </c>
       <c r="D30" s="2">
         <v>5.9001255035400391</v>
       </c>
       <c r="E30" s="2">
-        <v>5.8869194984436035</v>
+        <v>5.8869895935058594</v>
       </c>
     </row>
     <row r="31">
@@ -599,13 +599,13 @@
         <v>6.216341495513916</v>
       </c>
       <c r="C31" s="2">
-        <v>6.1976470947265625</v>
+        <v>6.1973304748535156</v>
       </c>
       <c r="D31" s="2">
         <v>5.9874348640441895</v>
       </c>
       <c r="E31" s="2">
-        <v>5.9773373603820801</v>
+        <v>5.977414608001709</v>
       </c>
     </row>
     <row r="32">
@@ -616,13 +616,13 @@
         <v>5.9234542846679688</v>
       </c>
       <c r="C32" s="2">
-        <v>5.9349751472473145</v>
+        <v>5.9345235824584961</v>
       </c>
       <c r="D32" s="2">
         <v>6.0610661506652832</v>
       </c>
       <c r="E32" s="2">
-        <v>6.0470647811889649</v>
+        <v>6.0472025871276855</v>
       </c>
     </row>
     <row r="33">
@@ -633,13 +633,13 @@
         <v>5.3305401802062988</v>
       </c>
       <c r="C33" s="2">
-        <v>5.401543140411377</v>
+        <v>5.4023122787475586</v>
       </c>
       <c r="D33" s="2">
         <v>6.0170836448669434</v>
       </c>
       <c r="E33" s="2">
-        <v>6.007962703704834</v>
+        <v>6.0080661773681641</v>
       </c>
     </row>
     <row r="34">
@@ -650,13 +650,13 @@
         <v>5.5940604209899902</v>
       </c>
       <c r="C34" s="2">
-        <v>5.5908389091491699</v>
+        <v>5.5904216766357422</v>
       </c>
       <c r="D34" s="2">
         <v>5.9141139984130859</v>
       </c>
       <c r="E34" s="2">
-        <v>5.903785228729248</v>
+        <v>5.9040117263793945</v>
       </c>
     </row>
     <row r="35">
@@ -667,13 +667,13 @@
         <v>5.9763264656066895</v>
       </c>
       <c r="C35" s="2">
-        <v>6.0114789009094238</v>
+        <v>6.0116744041442871</v>
       </c>
       <c r="D35" s="2">
         <v>5.7950410842895508</v>
       </c>
       <c r="E35" s="2">
-        <v>5.7949895858764648</v>
+        <v>5.7952041625976562</v>
       </c>
     </row>
     <row r="36">
@@ -684,13 +684,13 @@
         <v>5.812687873840332</v>
       </c>
       <c r="C36" s="2">
-        <v>5.7848281860351563</v>
+        <v>5.7852697372436523</v>
       </c>
       <c r="D36" s="2">
         <v>5.7436814308166504</v>
       </c>
       <c r="E36" s="2">
-        <v>5.7235355377197266</v>
+        <v>5.7236685752868652</v>
       </c>
     </row>
     <row r="37">
@@ -701,13 +701,13 @@
         <v>5.9180879592895508</v>
       </c>
       <c r="C37" s="2">
-        <v>5.8058543205261231</v>
+        <v>5.8062839508056641</v>
       </c>
       <c r="D37" s="2">
         <v>5.7534322738647461</v>
       </c>
       <c r="E37" s="2">
-        <v>5.7343082427978516</v>
+        <v>5.7345108985900879</v>
       </c>
     </row>
     <row r="38">
@@ -715,16 +715,16 @@
         <v>29587</v>
       </c>
       <c r="B38" s="2">
-        <v>5.7824473381042481</v>
+        <v>5.782447338104248</v>
       </c>
       <c r="C38" s="2">
-        <v>5.8016009330749512</v>
+        <v>5.802095890045166</v>
       </c>
       <c r="D38" s="2">
         <v>5.7924013137817383</v>
       </c>
       <c r="E38" s="2">
-        <v>5.7614817619323731</v>
+        <v>5.7617053985595703</v>
       </c>
     </row>
     <row r="39">
@@ -735,13 +735,13 @@
         <v>5.6014218330383301</v>
       </c>
       <c r="C39" s="2">
-        <v>5.6261382102966309</v>
+        <v>5.6269245147705078</v>
       </c>
       <c r="D39" s="2">
         <v>5.7983555793762207</v>
       </c>
       <c r="E39" s="2">
-        <v>5.7627348899841309</v>
+        <v>5.763115406036377</v>
       </c>
     </row>
     <row r="40">
@@ -752,13 +752,13 @@
         <v>5.7541046142578125</v>
       </c>
       <c r="C40" s="2">
-        <v>5.5545635223388672</v>
+        <v>5.5535106658935547</v>
       </c>
       <c r="D40" s="2">
         <v>5.7396688461303711</v>
       </c>
       <c r="E40" s="2">
-        <v>5.7063546180725098</v>
+        <v>5.7066135406494141</v>
       </c>
     </row>
     <row r="41">
@@ -769,13 +769,13 @@
         <v>6.0112128257751465</v>
       </c>
       <c r="C41" s="2">
-        <v>6.0319280624389648</v>
+        <v>6.0321063995361328</v>
       </c>
       <c r="D41" s="2">
         <v>5.7314720153808594</v>
       </c>
       <c r="E41" s="2">
-        <v>5.7021393775939942</v>
+        <v>5.7023181915283203</v>
       </c>
     </row>
     <row r="42">
@@ -786,13 +786,13 @@
         <v>5.6812634468078613</v>
       </c>
       <c r="C42" s="2">
-        <v>5.6461067199707031</v>
+        <v>5.6470627784729004</v>
       </c>
       <c r="D42" s="2">
         <v>5.7334041595458984</v>
       </c>
       <c r="E42" s="2">
-        <v>5.7016067504882813</v>
+        <v>5.7018218040466309</v>
       </c>
     </row>
     <row r="43">
@@ -803,13 +803,13 @@
         <v>5.6476459503173828</v>
       </c>
       <c r="C43" s="2">
-        <v>5.602116584777832</v>
+        <v>5.6031093597412109</v>
       </c>
       <c r="D43" s="2">
         <v>5.7263574600219727</v>
       </c>
       <c r="E43" s="2">
-        <v>5.6808924674987793</v>
+        <v>5.6810579299926758</v>
       </c>
     </row>
     <row r="44">
@@ -820,13 +820,13 @@
         <v>5.4481496810913086</v>
       </c>
       <c r="C44" s="2">
-        <v>5.504056453704834</v>
+        <v>5.5031580924987793</v>
       </c>
       <c r="D44" s="2">
         <v>5.7394461631774902</v>
       </c>
       <c r="E44" s="2">
-        <v>5.6875548362731934</v>
+        <v>5.6877150535583496</v>
       </c>
     </row>
     <row r="45">
@@ -837,13 +837,13 @@
         <v>5.7389159202575684</v>
       </c>
       <c r="C45" s="2">
-        <v>5.7468891143798828</v>
+        <v>5.7466139793395996</v>
       </c>
       <c r="D45" s="2">
         <v>5.7987289428710938</v>
       </c>
       <c r="E45" s="2">
-        <v>5.7589077949523926</v>
+        <v>5.7592477798461914</v>
       </c>
     </row>
     <row r="46">
@@ -854,13 +854,13 @@
         <v>5.9354772567749023</v>
       </c>
       <c r="C46" s="2">
-        <v>5.801063060760498</v>
+        <v>5.801816463470459</v>
       </c>
       <c r="D46" s="2">
         <v>5.719050407409668</v>
       </c>
       <c r="E46" s="2">
-        <v>5.6779265403747559</v>
+        <v>5.6783161163330078</v>
       </c>
     </row>
     <row r="47">
@@ -871,13 +871,13 @@
         <v>5.7190256118774414</v>
       </c>
       <c r="C47" s="2">
-        <v>5.6151700019836426</v>
+        <v>5.6152186393737793</v>
       </c>
       <c r="D47" s="2">
         <v>5.6907224655151367</v>
       </c>
       <c r="E47" s="2">
-        <v>5.6502146720886231</v>
+        <v>5.6504373550415039</v>
       </c>
     </row>
     <row r="48">
@@ -888,13 +888,13 @@
         <v>5.7192182540893555</v>
       </c>
       <c r="C48" s="2">
-        <v>5.6860995292663574</v>
+        <v>5.6868376731872559</v>
       </c>
       <c r="D48" s="2">
         <v>5.6798882484436035</v>
       </c>
       <c r="E48" s="2">
-        <v>5.6307311058044434</v>
+        <v>5.6308460235595703</v>
       </c>
     </row>
     <row r="49">
@@ -905,13 +905,13 @@
         <v>6.2876520156860352</v>
       </c>
       <c r="C49" s="2">
-        <v>6.1967411041259766</v>
+        <v>6.1973066329956055</v>
       </c>
       <c r="D49" s="2">
         <v>5.7535262107849121</v>
       </c>
       <c r="E49" s="2">
-        <v>5.6917691230773926</v>
+        <v>5.6919674873352051</v>
       </c>
     </row>
     <row r="50">
@@ -922,13 +922,13 @@
         <v>5.2941045761108398</v>
       </c>
       <c r="C50" s="2">
-        <v>5.303098201751709</v>
+        <v>5.3037228584289551</v>
       </c>
       <c r="D50" s="2">
         <v>5.7474493980407715</v>
       </c>
       <c r="E50" s="2">
-        <v>5.6765608787536621</v>
+        <v>5.6768417358398438</v>
       </c>
     </row>
     <row r="51">
@@ -939,13 +939,13 @@
         <v>5.4263134002685547</v>
       </c>
       <c r="C51" s="2">
-        <v>5.3966994285583496</v>
+        <v>5.396151065826416</v>
       </c>
       <c r="D51" s="2">
         <v>5.7395920753479004</v>
       </c>
       <c r="E51" s="2">
-        <v>5.6767730712890625</v>
+        <v>5.6769118309020996</v>
       </c>
     </row>
     <row r="52">
@@ -956,13 +956,13 @@
         <v>5.5501360893249512</v>
       </c>
       <c r="C52" s="2">
-        <v>5.4267640113830566</v>
+        <v>5.426788330078125</v>
       </c>
       <c r="D52" s="2">
         <v>5.6856269836425781</v>
       </c>
       <c r="E52" s="2">
-        <v>5.630333423614502</v>
+        <v>5.630408763885498</v>
       </c>
     </row>
     <row r="53">
@@ -973,13 +973,13 @@
         <v>6.1108942031860352</v>
       </c>
       <c r="C53" s="2">
-        <v>6.0533995628356934</v>
+        <v>6.0532512664794922</v>
       </c>
       <c r="D53" s="2">
-        <v>5.6655492782592774</v>
+        <v>5.6655492782592773</v>
       </c>
       <c r="E53" s="2">
-        <v>5.5973453521728516</v>
+        <v>5.597470760345459</v>
       </c>
     </row>
     <row r="54">
@@ -990,13 +990,13 @@
         <v>5.6842246055603027</v>
       </c>
       <c r="C54" s="2">
-        <v>5.6100130081176758</v>
+        <v>5.6104817390441895</v>
       </c>
       <c r="D54" s="2">
         <v>5.5611786842346191</v>
       </c>
       <c r="E54" s="2">
-        <v>5.5064129829406738</v>
+        <v>5.5065097808837891</v>
       </c>
     </row>
     <row r="55">
@@ -1007,13 +1007,13 @@
         <v>5.8647608757019043</v>
       </c>
       <c r="C55" s="2">
-        <v>5.8029718399047852</v>
+        <v>5.8024473190307617</v>
       </c>
       <c r="D55" s="2">
         <v>5.6205921173095703</v>
       </c>
       <c r="E55" s="2">
-        <v>5.5591669082641602</v>
+        <v>5.5591354370117188</v>
       </c>
     </row>
     <row r="56">
@@ -1024,13 +1024,13 @@
         <v>5.2333388328552246</v>
       </c>
       <c r="C56" s="2">
-        <v>5.1972150802612305</v>
+        <v>5.196692943572998</v>
       </c>
       <c r="D56" s="2">
         <v>5.6678867340087891</v>
       </c>
       <c r="E56" s="2">
-        <v>5.5933241844177246</v>
+        <v>5.5933713912963867</v>
       </c>
     </row>
     <row r="57">
@@ -1041,13 +1041,13 @@
         <v>5.5385169982910156</v>
       </c>
       <c r="C57" s="2">
-        <v>5.3892078399658203</v>
+        <v>5.3903965950012207</v>
       </c>
       <c r="D57" s="2">
         <v>5.634124755859375</v>
       </c>
       <c r="E57" s="2">
-        <v>5.5526299476623535</v>
+        <v>5.5528278350830078</v>
       </c>
     </row>
     <row r="58">
@@ -1058,13 +1058,13 @@
         <v>5.3483180999755859</v>
       </c>
       <c r="C58" s="2">
-        <v>5.3783478736877441</v>
+        <v>5.378657341003418</v>
       </c>
       <c r="D58" s="2">
         <v>5.4743690490722656</v>
       </c>
       <c r="E58" s="2">
-        <v>5.4048051834106445</v>
+        <v>5.4048995971679688</v>
       </c>
     </row>
     <row r="59">
@@ -1075,13 +1075,13 @@
         <v>5.8288273811340332</v>
       </c>
       <c r="C59" s="2">
-        <v>5.7778816223144531</v>
+        <v>5.7773523330688477</v>
       </c>
       <c r="D59" s="2">
         <v>5.4098186492919922</v>
       </c>
       <c r="E59" s="2">
-        <v>5.3447070121765137</v>
+        <v>5.3448972702026367</v>
       </c>
     </row>
     <row r="60">
@@ -1092,13 +1092,13 @@
         <v>5.8519649505615234</v>
       </c>
       <c r="C60" s="2">
-        <v>5.7041182518005371</v>
+        <v>5.7042756080627441</v>
       </c>
       <c r="D60" s="2">
         <v>5.3264899253845215</v>
       </c>
       <c r="E60" s="2">
-        <v>5.2730755805969238</v>
+        <v>5.2733421325683594</v>
       </c>
     </row>
     <row r="61">
@@ -1109,13 +1109,13 @@
         <v>5.2462759017944336</v>
       </c>
       <c r="C61" s="2">
-        <v>5.060513973236084</v>
+        <v>5.061896800994873</v>
       </c>
       <c r="D61" s="2">
         <v>5.238349437713623</v>
       </c>
       <c r="E61" s="2">
-        <v>5.1895947456359863</v>
+        <v>5.1898627281188965</v>
       </c>
     </row>
     <row r="62">
@@ -1126,13 +1126,13 @@
         <v>4.6730952262878418</v>
       </c>
       <c r="C62" s="2">
-        <v>4.7229771614074707</v>
+        <v>4.7218976020812988</v>
       </c>
       <c r="D62" s="2">
         <v>5.1381845474243164</v>
       </c>
       <c r="E62" s="2">
-        <v>5.0954532623291016</v>
+        <v>5.0955567359924316</v>
       </c>
     </row>
     <row r="63">
@@ -1143,13 +1143,13 @@
         <v>5.1032705307006836</v>
       </c>
       <c r="C63" s="2">
-        <v>5.0691280364990234</v>
+        <v>5.070457935333252</v>
       </c>
       <c r="D63" s="2">
         <v>5.0074877738952637</v>
       </c>
       <c r="E63" s="2">
-        <v>4.963343620300293</v>
+        <v>4.9633865356445312</v>
       </c>
     </row>
     <row r="64">
@@ -1160,13 +1160,13 @@
         <v>5.1148004531860352</v>
       </c>
       <c r="C64" s="2">
-        <v>5.158292293548584</v>
+        <v>5.1584525108337402</v>
       </c>
       <c r="D64" s="2">
         <v>4.8893857002258301</v>
       </c>
       <c r="E64" s="2">
-        <v>4.8536605834960938</v>
+        <v>4.8537797927856445</v>
       </c>
     </row>
     <row r="65">
@@ -1177,13 +1177,13 @@
         <v>4.4400773048400879</v>
       </c>
       <c r="C65" s="2">
-        <v>4.4458861351013184</v>
+        <v>4.4453768730163574</v>
       </c>
       <c r="D65" s="2">
         <v>4.7622103691101074</v>
       </c>
       <c r="E65" s="2">
-        <v>4.744511604309082</v>
+        <v>4.7447381019592285</v>
       </c>
     </row>
     <row r="66">
@@ -1191,16 +1191,16 @@
         <v>30437</v>
       </c>
       <c r="B66" s="2">
-        <v>4.6370310783386231</v>
+        <v>4.637031078338623</v>
       </c>
       <c r="C66" s="2">
-        <v>4.5419349670410156</v>
+        <v>4.5416421890258789</v>
       </c>
       <c r="D66" s="2">
         <v>4.6887083053588867</v>
       </c>
       <c r="E66" s="2">
-        <v>4.6915693283081055</v>
+        <v>4.6915874481201172</v>
       </c>
     </row>
     <row r="67">
@@ -1211,13 +1211,13 @@
         <v>4.1720466613769531</v>
       </c>
       <c r="C67" s="2">
-        <v>4.189359188079834</v>
+        <v>4.1891255378723145</v>
       </c>
       <c r="D67" s="2">
         <v>4.7258806228637695</v>
       </c>
       <c r="E67" s="2">
-        <v>4.7229838371276856</v>
+        <v>4.7230229377746582</v>
       </c>
     </row>
     <row r="68">
@@ -1228,13 +1228,13 @@
         <v>4.7659111022949219</v>
       </c>
       <c r="C68" s="2">
-        <v>4.7907333374023438</v>
+        <v>4.7908921241760254</v>
       </c>
       <c r="D68" s="2">
         <v>4.6892385482788086</v>
       </c>
       <c r="E68" s="2">
-        <v>4.6818289756774902</v>
+        <v>4.6816363334655762</v>
       </c>
     </row>
     <row r="69">
@@ -1245,13 +1245,13 @@
         <v>4.7073850631713867</v>
       </c>
       <c r="C69" s="2">
-        <v>4.7217788696289063</v>
+        <v>4.7228994369506836</v>
       </c>
       <c r="D69" s="2">
-        <v>4.6410598754882813</v>
+        <v>4.6410598754882812</v>
       </c>
       <c r="E69" s="2">
-        <v>4.6277370452880859</v>
+        <v>4.6275172233581543</v>
       </c>
     </row>
     <row r="70">
@@ -1262,13 +1262,13 @@
         <v>4.5847554206848145</v>
       </c>
       <c r="C70" s="2">
-        <v>4.5840344429016113</v>
+        <v>4.5835409164428711</v>
       </c>
       <c r="D70" s="2">
         <v>4.6104984283447266</v>
       </c>
       <c r="E70" s="2">
-        <v>4.5945591926574707</v>
+        <v>4.5943999290466309</v>
       </c>
     </row>
     <row r="71">
@@ -1279,13 +1279,13 @@
         <v>5.0076484680175781</v>
       </c>
       <c r="C71" s="2">
-        <v>5.0057082176208496</v>
+        <v>5.004819393157959</v>
       </c>
       <c r="D71" s="2">
         <v>4.5841484069824219</v>
       </c>
       <c r="E71" s="2">
-        <v>4.5734572410583496</v>
+        <v>4.5733437538146973</v>
       </c>
     </row>
     <row r="72">
@@ -1296,13 +1296,13 @@
         <v>4.773491382598877</v>
       </c>
       <c r="C72" s="2">
-        <v>4.6987347602844238</v>
+        <v>4.6979789733886719</v>
       </c>
       <c r="D72" s="2">
         <v>4.6379852294921875</v>
       </c>
       <c r="E72" s="2">
-        <v>4.6234683990478516</v>
+        <v>4.6233181953430176</v>
       </c>
     </row>
     <row r="73">
@@ -1313,13 +1313,13 @@
         <v>4.6811914443969727</v>
       </c>
       <c r="C73" s="2">
-        <v>4.6714639663696289</v>
+        <v>4.6713776588439941</v>
       </c>
       <c r="D73" s="2">
         <v>4.6563220024108887</v>
       </c>
       <c r="E73" s="2">
-        <v>4.6246166229248047</v>
+        <v>4.624392032623291</v>
       </c>
     </row>
     <row r="74">
@@ -1330,13 +1330,13 @@
         <v>4.1650247573852539</v>
       </c>
       <c r="C74" s="2">
-        <v>4.1472864151000977</v>
+        <v>4.1473245620727539</v>
       </c>
       <c r="D74" s="2">
         <v>4.6488223075866699</v>
       </c>
       <c r="E74" s="2">
-        <v>4.6224355697631836</v>
+        <v>4.6220078468322754</v>
       </c>
     </row>
     <row r="75">
@@ -1347,13 +1347,13 @@
         <v>4.3998832702636719</v>
       </c>
       <c r="C75" s="2">
-        <v>4.3520140647888184</v>
+        <v>4.3521366119384766</v>
       </c>
       <c r="D75" s="2">
         <v>4.6251792907714844</v>
       </c>
       <c r="E75" s="2">
-        <v>4.6025195121765137</v>
+        <v>4.6021265983581543</v>
       </c>
     </row>
     <row r="76">
@@ -1364,13 +1364,13 @@
         <v>4.6565780639648438</v>
       </c>
       <c r="C76" s="2">
-        <v>4.6394619941711426</v>
+        <v>4.6388945579528809</v>
       </c>
       <c r="D76" s="2">
         <v>4.5890069007873535</v>
       </c>
       <c r="E76" s="2">
-        <v>4.5546951293945313</v>
+        <v>4.5544476509094238</v>
       </c>
     </row>
     <row r="77">
@@ -1381,13 +1381,13 @@
         <v>4.930938720703125</v>
       </c>
       <c r="C77" s="2">
-        <v>4.8010663986206055</v>
+        <v>4.8005561828613281</v>
       </c>
       <c r="D77" s="2">
         <v>4.5461277961730957</v>
       </c>
       <c r="E77" s="2">
-        <v>4.5210990905761719</v>
+        <v>4.5208206176757812</v>
       </c>
     </row>
     <row r="78">
@@ -1398,13 +1398,13 @@
         <v>4.6398911476135254</v>
       </c>
       <c r="C78" s="2">
-        <v>4.7021498680114746</v>
+        <v>4.7014398574829102</v>
       </c>
       <c r="D78" s="2">
         <v>4.4758791923522949</v>
       </c>
       <c r="E78" s="2">
-        <v>4.4562849998474121</v>
+        <v>4.4560489654541016</v>
       </c>
     </row>
     <row r="79">
@@ -1415,13 +1415,13 @@
         <v>4.3719682693481445</v>
       </c>
       <c r="C79" s="2">
-        <v>4.4047894477844238</v>
+        <v>4.4046101570129395</v>
       </c>
       <c r="D79" s="2">
         <v>4.4940571784973145</v>
       </c>
       <c r="E79" s="2">
-        <v>4.452387809753418</v>
+        <v>4.4521293640136719</v>
       </c>
     </row>
     <row r="80">
@@ -1432,13 +1432,13 @@
         <v>4.6820945739746094</v>
       </c>
       <c r="C80" s="2">
-        <v>4.575289249420166</v>
+        <v>4.5757102966308594</v>
       </c>
       <c r="D80" s="2">
         <v>4.5513105392456055</v>
       </c>
       <c r="E80" s="2">
-        <v>4.5015983581542969</v>
+        <v>4.5013384819030762</v>
       </c>
     </row>
     <row r="81">
@@ -1449,13 +1449,13 @@
         <v>4.3875789642333984</v>
       </c>
       <c r="C81" s="2">
-        <v>4.3963718414306641</v>
+        <v>4.3953342437744141</v>
       </c>
       <c r="D81" s="2">
         <v>4.5585446357727051</v>
       </c>
       <c r="E81" s="2">
-        <v>4.5104312896728516</v>
+        <v>4.510251522064209</v>
       </c>
     </row>
     <row r="82">
@@ -1466,13 +1466,13 @@
         <v>4.048954963684082</v>
       </c>
       <c r="C82" s="2">
-        <v>4.0881352424621582</v>
+        <v>4.0884361267089844</v>
       </c>
       <c r="D82" s="2">
         <v>4.4854936599731445</v>
       </c>
       <c r="E82" s="2">
-        <v>4.4525365829467774</v>
+        <v>4.4522700309753418</v>
       </c>
     </row>
     <row r="83">
@@ -1483,13 +1483,13 @@
         <v>4.3286285400390625</v>
       </c>
       <c r="C83" s="2">
-        <v>4.1122112274169922</v>
+        <v>4.1120476722717285</v>
       </c>
       <c r="D83" s="2">
         <v>4.4207696914672852</v>
       </c>
       <c r="E83" s="2">
-        <v>4.3869776725769043</v>
+        <v>4.3867487907409668</v>
       </c>
     </row>
     <row r="84">
@@ -1500,13 +1500,13 @@
         <v>4.9151616096496582</v>
       </c>
       <c r="C84" s="2">
-        <v>4.7949113845825195</v>
+        <v>4.7950167655944824</v>
       </c>
       <c r="D84" s="2">
         <v>4.4632306098937988</v>
       </c>
       <c r="E84" s="2">
-        <v>4.4231953620910645</v>
+        <v>4.422943115234375</v>
       </c>
     </row>
     <row r="85">
@@ -1517,13 +1517,13 @@
         <v>4.7216858863830566</v>
       </c>
       <c r="C85" s="2">
-        <v>4.7189555168151855</v>
+        <v>4.719111442565918</v>
       </c>
       <c r="D85" s="2">
         <v>4.4655752182006836</v>
       </c>
       <c r="E85" s="2">
-        <v>4.4330062866210938</v>
+        <v>4.4328231811523438</v>
       </c>
     </row>
     <row r="86">
@@ -1534,13 +1534,13 @@
         <v>4.2734775543212891</v>
       </c>
       <c r="C86" s="2">
-        <v>4.2800135612487793</v>
+        <v>4.2787232398986816</v>
       </c>
       <c r="D86" s="2">
         <v>4.4854159355163574</v>
       </c>
       <c r="E86" s="2">
-        <v>4.4214634895324707</v>
+        <v>4.4213438034057617</v>
       </c>
     </row>
     <row r="87">
@@ -1551,13 +1551,13 @@
         <v>4.0573773384094238</v>
       </c>
       <c r="C87" s="2">
-        <v>4.1121220588684082</v>
+        <v>4.1117477416992188</v>
       </c>
       <c r="D87" s="2">
         <v>4.526339054107666</v>
       </c>
       <c r="E87" s="2">
-        <v>4.4476532936096192</v>
+        <v>4.4475889205932617</v>
       </c>
     </row>
     <row r="88">
@@ -1568,13 +1568,13 @@
         <v>4.7541146278381348</v>
       </c>
       <c r="C88" s="2">
-        <v>4.7307472229003906</v>
+        <v>4.7303619384765625</v>
       </c>
       <c r="D88" s="2">
         <v>4.473689079284668</v>
       </c>
       <c r="E88" s="2">
-        <v>4.4095668792724609</v>
+        <v>4.4094610214233398</v>
       </c>
     </row>
     <row r="89">
@@ -1585,13 +1585,13 @@
         <v>4.7031955718994141</v>
       </c>
       <c r="C89" s="2">
-        <v>4.6635899543762207</v>
+        <v>4.6646299362182617</v>
       </c>
       <c r="D89" s="2">
         <v>4.3598828315734863</v>
       </c>
       <c r="E89" s="2">
-        <v>4.3125033378601074</v>
+        <v>4.3122868537902832</v>
       </c>
     </row>
     <row r="90">
@@ -1602,13 +1602,13 @@
         <v>4.5661458969116211</v>
       </c>
       <c r="C90" s="2">
-        <v>4.2924861907958984</v>
+        <v>4.2920188903808594</v>
       </c>
       <c r="D90" s="2">
         <v>4.2931337356567383</v>
       </c>
       <c r="E90" s="2">
-        <v>4.2263898849487305</v>
+        <v>4.2262334823608398</v>
       </c>
     </row>
     <row r="91">
@@ -1619,13 +1619,13 @@
         <v>4.4172654151916504</v>
       </c>
       <c r="C91" s="2">
-        <v>4.3238420486450195</v>
+        <v>4.3246431350708008</v>
       </c>
       <c r="D91" s="2">
         <v>4.3170304298400879</v>
       </c>
       <c r="E91" s="2">
-        <v>4.2431416511535645</v>
+        <v>4.2430171966552734</v>
       </c>
     </row>
     <row r="92">
@@ -1636,13 +1636,13 @@
         <v>3.8547775745391846</v>
       </c>
       <c r="C92" s="2">
-        <v>3.7694330215454102</v>
+        <v>3.7688956260681152</v>
       </c>
       <c r="D92" s="2">
         <v>4.331636905670166</v>
       </c>
       <c r="E92" s="2">
-        <v>4.2552719116210938</v>
+        <v>4.255277156829834</v>
       </c>
     </row>
     <row r="93">
@@ -1650,16 +1650,16 @@
         <v>31260</v>
       </c>
       <c r="B93" s="2">
-        <v>3.8909060955047608</v>
+        <v>3.8909060955047607</v>
       </c>
       <c r="C93" s="2">
-        <v>3.9213385581970215</v>
+        <v>3.9204483032226562</v>
       </c>
       <c r="D93" s="2">
         <v>4.3460822105407715</v>
       </c>
       <c r="E93" s="2">
-        <v>4.2648625373840332</v>
+        <v>4.264742374420166</v>
       </c>
     </row>
     <row r="94">
@@ -1670,13 +1670,13 @@
         <v>4.1209421157836914</v>
       </c>
       <c r="C94" s="2">
-        <v>3.9439351558685303</v>
+        <v>3.9446313381195068</v>
       </c>
       <c r="D94" s="2">
         <v>4.2894444465637207</v>
       </c>
       <c r="E94" s="2">
-        <v>4.2002677917480469</v>
+        <v>4.199951171875</v>
       </c>
     </row>
     <row r="95">
@@ -1687,13 +1687,13 @@
         <v>4.4885473251342773</v>
       </c>
       <c r="C95" s="2">
-        <v>4.4307808876037598</v>
+        <v>4.4297780990600586</v>
       </c>
       <c r="D95" s="2">
         <v>4.2423930168151855</v>
       </c>
       <c r="E95" s="2">
-        <v>4.1615657806396484</v>
+        <v>4.1612663269042969</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>4.1888389587402344</v>
       </c>
       <c r="C96" s="2">
-        <v>4.2212963104248047</v>
+        <v>4.2220888137817383</v>
       </c>
       <c r="D96" s="2">
         <v>4.2856988906860352</v>
       </c>
       <c r="E96" s="2">
-        <v>4.1993250846862793</v>
+        <v>4.198911190032959</v>
       </c>
     </row>
     <row r="97">
@@ -1721,13 +1721,13 @@
         <v>4.884122371673584</v>
       </c>
       <c r="C97" s="2">
-        <v>4.8170614242553711</v>
+        <v>4.8155479431152344</v>
       </c>
       <c r="D97" s="2">
         <v>4.3659963607788086</v>
       </c>
       <c r="E97" s="2">
-        <v>4.2833433151245117</v>
+        <v>4.2829504013061523</v>
       </c>
     </row>
     <row r="98">
@@ -1738,13 +1738,13 @@
         <v>4.193455696105957</v>
       </c>
       <c r="C98" s="2">
-        <v>4.0822362899780274</v>
+        <v>4.0815062522888184</v>
       </c>
       <c r="D98" s="2">
         <v>4.3741154670715332</v>
       </c>
       <c r="E98" s="2">
-        <v>4.2912211418151855</v>
+        <v>4.2910337448120117</v>
       </c>
     </row>
     <row r="99">
@@ -1755,13 +1755,13 @@
         <v>4.1426806449890137</v>
       </c>
       <c r="C99" s="2">
-        <v>3.9441704750061035</v>
+        <v>3.9438576698303223</v>
       </c>
       <c r="D99" s="2">
         <v>4.4242830276489258</v>
       </c>
       <c r="E99" s="2">
-        <v>4.3510146141052246</v>
+        <v>4.3507471084594727</v>
       </c>
     </row>
     <row r="100">
@@ -1772,13 +1772,13 @@
         <v>4.8070187568664551</v>
       </c>
       <c r="C100" s="2">
-        <v>4.6636738777160645</v>
+        <v>4.6634469032287598</v>
       </c>
       <c r="D100" s="2">
         <v>4.3953042030334473</v>
       </c>
       <c r="E100" s="2">
-        <v>4.3397741317749024</v>
+        <v>4.3396062850952148</v>
       </c>
     </row>
     <row r="101">
@@ -1789,13 +1789,13 @@
         <v>4.5774550437927246</v>
       </c>
       <c r="C101" s="2">
-        <v>4.5255980491638184</v>
+        <v>4.5252475738525391</v>
       </c>
       <c r="D101" s="2">
         <v>4.4311375617980957</v>
       </c>
       <c r="E101" s="2">
-        <v>4.3667716979980469</v>
+        <v>4.3664789199829102</v>
       </c>
     </row>
     <row r="102">
@@ -1806,13 +1806,13 @@
         <v>3.963977575302124</v>
       </c>
       <c r="C102" s="2">
-        <v>3.9922370910644531</v>
+        <v>3.9931983947753906</v>
       </c>
       <c r="D102" s="2">
         <v>4.3158988952636719</v>
       </c>
       <c r="E102" s="2">
-        <v>4.2597827911376953</v>
+        <v>4.2596049308776855</v>
       </c>
     </row>
     <row r="103">
@@ -1823,13 +1823,13 @@
         <v>4.5724520683288574</v>
       </c>
       <c r="C103" s="2">
-        <v>4.4820775985717773</v>
+        <v>4.4820523262023926</v>
       </c>
       <c r="D103" s="2">
         <v>4.2897796630859375</v>
       </c>
       <c r="E103" s="2">
-        <v>4.2372827529907227</v>
+        <v>4.2371492385864258</v>
       </c>
     </row>
     <row r="104">
@@ -1840,13 +1840,13 @@
         <v>4.2277359962463379</v>
       </c>
       <c r="C104" s="2">
-        <v>4.3296165466308594</v>
+        <v>4.3295092582702637</v>
       </c>
       <c r="D104" s="2">
         <v>4.243870735168457</v>
       </c>
       <c r="E104" s="2">
-        <v>4.2172403335571289</v>
+        <v>4.217048168182373</v>
       </c>
     </row>
     <row r="105">
@@ -1857,13 +1857,13 @@
         <v>4.5113391876220703</v>
       </c>
       <c r="C105" s="2">
-        <v>4.4642720222473145</v>
+        <v>4.4639449119567871</v>
       </c>
       <c r="D105" s="2">
         <v>4.2307953834533691</v>
       </c>
       <c r="E105" s="2">
-        <v>4.2008142471313477</v>
+        <v>4.2005109786987305</v>
       </c>
     </row>
     <row r="106">
@@ -1874,13 +1874,13 @@
         <v>3.8469746112823486</v>
       </c>
       <c r="C106" s="2">
-        <v>3.8541638851165772</v>
+        <v>3.8536813259124756</v>
       </c>
       <c r="D106" s="2">
         <v>4.1245584487915039</v>
       </c>
       <c r="E106" s="2">
-        <v>4.1057863235473633</v>
+        <v>4.1054635047912598</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>3.9583845138549805</v>
       </c>
       <c r="C107" s="2">
-        <v>3.879734992980957</v>
+        <v>3.8794026374816895</v>
       </c>
       <c r="D107" s="2">
         <v>4.1840195655822754</v>
       </c>
       <c r="E107" s="2">
-        <v>4.1740050315856934</v>
+        <v>4.1735806465148926</v>
       </c>
     </row>
     <row r="108">
@@ -1905,16 +1905,16 @@
         <v>31717</v>
       </c>
       <c r="B108" s="2">
-        <v>3.7294986248016358</v>
+        <v>3.7294986248016357</v>
       </c>
       <c r="C108" s="2">
-        <v>3.7637910842895508</v>
+        <v>3.7629489898681641</v>
       </c>
       <c r="D108" s="2">
         <v>4.1624822616577148</v>
       </c>
       <c r="E108" s="2">
-        <v>4.1613426208496094</v>
+        <v>4.1609678268432617</v>
       </c>
     </row>
     <row r="109">
@@ -1925,13 +1925,13 @@
         <v>4.6893420219421387</v>
       </c>
       <c r="C109" s="2">
-        <v>4.5158352851867676</v>
+        <v>4.5146112442016602</v>
       </c>
       <c r="D109" s="2">
         <v>4.10174560546875</v>
       </c>
       <c r="E109" s="2">
-        <v>4.0766229629516602</v>
+        <v>4.0760617256164551</v>
       </c>
     </row>
     <row r="110">
@@ -1942,13 +1942,13 @@
         <v>3.6213226318359375</v>
       </c>
       <c r="C110" s="2">
-        <v>3.6703481674194336</v>
+        <v>3.6698205471038818</v>
       </c>
       <c r="D110" s="2">
         <v>3.9951121807098389</v>
       </c>
       <c r="E110" s="2">
-        <v>3.9766266345977783</v>
+        <v>3.9760076999664307</v>
       </c>
     </row>
     <row r="111">
@@ -1959,13 +1959,13 @@
         <v>4.4991283416748047</v>
       </c>
       <c r="C111" s="2">
-        <v>4.6062040328979492</v>
+        <v>4.6062560081481934</v>
       </c>
       <c r="D111" s="2">
         <v>4.0168018341064453</v>
       </c>
       <c r="E111" s="2">
-        <v>3.9963986873626709</v>
+        <v>3.9956815242767334</v>
       </c>
     </row>
     <row r="112">
@@ -1976,13 +1976,13 @@
         <v>4.3786134719848633</v>
       </c>
       <c r="C112" s="2">
-        <v>4.3681173324584961</v>
+        <v>4.368537425994873</v>
       </c>
       <c r="D112" s="2">
         <v>3.9773139953613281</v>
       </c>
       <c r="E112" s="2">
-        <v>3.9655394554138184</v>
+        <v>3.9646856784820557</v>
       </c>
     </row>
     <row r="113">
@@ -1993,13 +1993,13 @@
         <v>3.6811065673828125</v>
       </c>
       <c r="C113" s="2">
-        <v>3.5671408176422119</v>
+        <v>3.5653517246246338</v>
       </c>
       <c r="D113" s="2">
         <v>4.0369014739990234</v>
       </c>
       <c r="E113" s="2">
-        <v>3.9929728507995605</v>
+        <v>3.9921529293060303</v>
       </c>
     </row>
     <row r="114">
@@ -2010,13 +2010,13 @@
         <v>3.5516388416290283</v>
       </c>
       <c r="C114" s="2">
-        <v>3.5643048286437988</v>
+        <v>3.5634596347808838</v>
       </c>
       <c r="D114" s="2">
-        <v>3.9178233146667481</v>
+        <v>3.917823314666748</v>
       </c>
       <c r="E114" s="2">
-        <v>3.897320032119751</v>
+        <v>3.8965616226196289</v>
       </c>
     </row>
     <row r="115">
@@ -2027,13 +2027,13 @@
         <v>4.0421795845031738</v>
       </c>
       <c r="C115" s="2">
-        <v>4.0321121215820313</v>
+        <v>4.0307450294494629</v>
       </c>
       <c r="D115" s="2">
         <v>3.9905812740325928</v>
       </c>
       <c r="E115" s="2">
-        <v>3.9741141796112061</v>
+        <v>3.9734680652618408</v>
       </c>
     </row>
     <row r="116">
@@ -2044,13 +2044,13 @@
         <v>3.602996826171875</v>
       </c>
       <c r="C116" s="2">
-        <v>3.6020021438598633</v>
+        <v>3.6004395484924316</v>
       </c>
       <c r="D116" s="2">
         <v>3.9752483367919922</v>
       </c>
       <c r="E116" s="2">
-        <v>3.9351584911346436</v>
+        <v>3.9344367980957031</v>
       </c>
     </row>
     <row r="117">
@@ -2061,13 +2061,13 @@
         <v>4.2657833099365234</v>
       </c>
       <c r="C117" s="2">
-        <v>4.0106906890869141</v>
+        <v>4.010155200958252</v>
       </c>
       <c r="D117" s="2">
         <v>3.9432253837585449</v>
       </c>
       <c r="E117" s="2">
-        <v>3.9112765789031982</v>
+        <v>3.9104368686676025</v>
       </c>
     </row>
     <row r="118">
@@ -2078,13 +2078,13 @@
         <v>3.6176407337188721</v>
       </c>
       <c r="C118" s="2">
-        <v>3.6549601554870605</v>
+        <v>3.6542890071868896</v>
       </c>
       <c r="D118" s="2">
         <v>4.0605607032775879</v>
       </c>
       <c r="E118" s="2">
-        <v>4.0165443420410156</v>
+        <v>4.0159978866577148</v>
       </c>
     </row>
     <row r="119">
@@ -2095,13 +2095,13 @@
         <v>4.2761440277099609</v>
       </c>
       <c r="C119" s="2">
-        <v>4.3614964485168457</v>
+        <v>4.3619785308837891</v>
       </c>
       <c r="D119" s="2">
         <v>4.198979377746582</v>
       </c>
       <c r="E119" s="2">
-        <v>4.1527214050292969</v>
+        <v>4.1520953178405762</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>4.3611321449279785</v>
       </c>
       <c r="C120" s="2">
-        <v>4.2556009292602539</v>
+        <v>4.2549753189086914</v>
       </c>
       <c r="D120" s="2">
         <v>4.146876335144043</v>
       </c>
       <c r="E120" s="2">
-        <v>4.1172466278076172</v>
+        <v>4.1165180206298828</v>
       </c>
     </row>
     <row r="121">
@@ -2129,13 +2129,13 @@
         <v>4.0904059410095215</v>
       </c>
       <c r="C121" s="2">
-        <v>4.1531801223754883</v>
+        <v>4.1525387763977051</v>
       </c>
       <c r="D121" s="2">
         <v>4.1947636604309082</v>
       </c>
       <c r="E121" s="2">
-        <v>4.167625904083252</v>
+        <v>4.1670398712158203</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>4.737126350402832</v>
       </c>
       <c r="C122" s="2">
-        <v>4.5145516395568848</v>
+        <v>4.5153985023498535</v>
       </c>
       <c r="D122" s="2">
         <v>4.1767911911010742</v>
       </c>
       <c r="E122" s="2">
-        <v>4.1810240745544434</v>
+        <v>4.1804156303405762</v>
       </c>
     </row>
     <row r="123">
@@ -2163,13 +2163,13 @@
         <v>4.7974042892456055</v>
       </c>
       <c r="C123" s="2">
-        <v>4.7898964881896973</v>
+        <v>4.7883377075195312</v>
       </c>
       <c r="D123" s="2">
         <v>4.2154178619384766</v>
       </c>
       <c r="E123" s="2">
-        <v>4.2119784355163574</v>
+        <v>4.2113299369812012</v>
       </c>
     </row>
     <row r="124">
@@ -2180,13 +2180,13 @@
         <v>3.5732526779174805</v>
       </c>
       <c r="C124" s="2">
-        <v>3.7128400802612305</v>
+        <v>3.7105498313903809</v>
       </c>
       <c r="D124" s="2">
         <v>4.1879181861877441</v>
       </c>
       <c r="E124" s="2">
-        <v>4.1820454597473145</v>
+        <v>4.1812362670898438</v>
       </c>
     </row>
     <row r="125">
@@ -2197,13 +2197,13 @@
         <v>4.0339841842651367</v>
       </c>
       <c r="C125" s="2">
-        <v>4.0554161071777344</v>
+        <v>4.0551376342773438</v>
       </c>
       <c r="D125" s="2">
         <v>4.2102208137512207</v>
       </c>
       <c r="E125" s="2">
-        <v>4.1821494102478027</v>
+        <v>4.1814570426940918</v>
       </c>
     </row>
     <row r="126">
@@ -2214,13 +2214,13 @@
         <v>4.1040301322937012</v>
       </c>
       <c r="C126" s="2">
-        <v>4.1312766075134277</v>
+        <v>4.1305341720581055</v>
       </c>
       <c r="D126" s="2">
         <v>4.116055965423584</v>
       </c>
       <c r="E126" s="2">
-        <v>4.080963134765625</v>
+        <v>4.0803623199462891</v>
       </c>
     </row>
     <row r="127">
@@ -2231,13 +2231,13 @@
         <v>3.9652822017669678</v>
       </c>
       <c r="C127" s="2">
-        <v>3.9335460662841797</v>
+        <v>3.9325172901153564</v>
       </c>
       <c r="D127" s="2">
         <v>3.9989426136016846</v>
       </c>
       <c r="E127" s="2">
-        <v>3.9898800849914551</v>
+        <v>3.9890270233154297</v>
       </c>
     </row>
     <row r="128">
@@ -2248,13 +2248,13 @@
         <v>4.0286455154418945</v>
       </c>
       <c r="C128" s="2">
-        <v>4.0921015739440918</v>
+        <v>4.0911355018615723</v>
       </c>
       <c r="D128" s="2">
         <v>3.9041619300842285</v>
       </c>
       <c r="E128" s="2">
-        <v>3.8835124969482422</v>
+        <v>3.882807731628418</v>
       </c>
     </row>
     <row r="129">
@@ -2265,13 +2265,13 @@
         <v>4.5618553161621094</v>
       </c>
       <c r="C129" s="2">
-        <v>4.256535530090332</v>
+        <v>4.2569622993469238</v>
       </c>
       <c r="D129" s="2">
         <v>3.9406790733337402</v>
       </c>
       <c r="E129" s="2">
-        <v>3.9108591079711914</v>
+        <v>3.9103665351867676</v>
       </c>
     </row>
     <row r="130">
@@ -2282,13 +2282,13 @@
         <v>3.2429232597351074</v>
       </c>
       <c r="C130" s="2">
-        <v>3.2425057888031006</v>
+        <v>3.2426884174346924</v>
       </c>
       <c r="D130" s="2">
         <v>3.8931331634521484</v>
       </c>
       <c r="E130" s="2">
-        <v>3.8609685897827149</v>
+        <v>3.8604850769042969</v>
       </c>
     </row>
     <row r="131">
@@ -2299,13 +2299,13 @@
         <v>3.68310546875</v>
       </c>
       <c r="C131" s="2">
-        <v>3.6948032379150391</v>
+        <v>3.6933796405792236</v>
       </c>
       <c r="D131" s="2">
         <v>3.8230805397033691</v>
       </c>
       <c r="E131" s="2">
-        <v>3.7844796180725098</v>
+        <v>3.7838029861450195</v>
       </c>
     </row>
     <row r="132">
@@ -2316,13 +2316,13 @@
         <v>3.9443776607513428</v>
       </c>
       <c r="C132" s="2">
-        <v>3.8325865268707275</v>
+        <v>3.8323655128479004</v>
       </c>
       <c r="D132" s="2">
         <v>3.8246469497680664</v>
       </c>
       <c r="E132" s="2">
-        <v>3.781181812286377</v>
+        <v>3.7803924083709717</v>
       </c>
     </row>
     <row r="133">
@@ -2333,13 +2333,13 @@
         <v>3.9019074440002441</v>
       </c>
       <c r="C133" s="2">
-        <v>3.9589600563049317</v>
+        <v>3.9585773944854736</v>
       </c>
       <c r="D133" s="2">
         <v>3.8221738338470459</v>
       </c>
       <c r="E133" s="2">
-        <v>3.7676198482513428</v>
+        <v>3.7668280601501465</v>
       </c>
     </row>
     <row r="134">
@@ -2350,13 +2350,13 @@
         <v>3.6060712337493896</v>
       </c>
       <c r="C134" s="2">
-        <v>3.6064019203186035</v>
+        <v>3.6062054634094238</v>
       </c>
       <c r="D134" s="2">
         <v>3.7871029376983643</v>
       </c>
       <c r="E134" s="2">
-        <v>3.7563469409942627</v>
+        <v>3.7553918361663818</v>
       </c>
     </row>
     <row r="135">
@@ -2367,13 +2367,13 @@
         <v>3.4735567569732666</v>
       </c>
       <c r="C135" s="2">
-        <v>3.4428749084472656</v>
+        <v>3.4403955936431885</v>
       </c>
       <c r="D135" s="2">
         <v>3.8688387870788574</v>
       </c>
       <c r="E135" s="2">
-        <v>3.8425750732421875</v>
+        <v>3.84140944480896</v>
       </c>
     </row>
     <row r="136">
@@ -2384,13 +2384,13 @@
         <v>3.979379415512085</v>
       </c>
       <c r="C136" s="2">
-        <v>3.9038670063018799</v>
+        <v>3.9018218517303467</v>
       </c>
       <c r="D136" s="2">
         <v>3.9195215702056885</v>
       </c>
       <c r="E136" s="2">
-        <v>3.8997235298156738</v>
+        <v>3.8985209465026855</v>
       </c>
     </row>
     <row r="137">
@@ -2401,13 +2401,13 @@
         <v>4.0063877105712891</v>
       </c>
       <c r="C137" s="2">
-        <v>3.9700427055358887</v>
+        <v>3.9690558910369873</v>
       </c>
       <c r="D137" s="2">
         <v>3.9067833423614502</v>
       </c>
       <c r="E137" s="2">
-        <v>3.9019315242767334</v>
+        <v>3.9006178379058838</v>
       </c>
     </row>
     <row r="138">
@@ -2418,13 +2418,13 @@
         <v>4.2462167739868164</v>
       </c>
       <c r="C138" s="2">
-        <v>4.1550803184509277</v>
+        <v>4.1540360450744629</v>
       </c>
       <c r="D138" s="2">
         <v>3.9162147045135498</v>
       </c>
       <c r="E138" s="2">
-        <v>3.8922257423400879</v>
+        <v>3.8908967971801758</v>
       </c>
     </row>
     <row r="139">
@@ -2435,13 +2435,13 @@
         <v>3.9785463809967041</v>
       </c>
       <c r="C139" s="2">
-        <v>4.0185589790344238</v>
+        <v>4.0168485641479492</v>
       </c>
       <c r="D139" s="2">
         <v>3.9166164398193359</v>
       </c>
       <c r="E139" s="2">
-        <v>3.8926515579223633</v>
+        <v>3.8911933898925781</v>
       </c>
     </row>
     <row r="140">
@@ -2452,13 +2452,13 @@
         <v>4.1392512321472168</v>
       </c>
       <c r="C140" s="2">
-        <v>4.2091398239135742</v>
+        <v>4.2073826789855957</v>
       </c>
       <c r="D140" s="2">
         <v>3.9978604316711426</v>
       </c>
       <c r="E140" s="2">
-        <v>3.9786930084228516</v>
+        <v>3.9774489402770996</v>
       </c>
     </row>
     <row r="141">
@@ -2469,13 +2469,13 @@
         <v>3.82973313331604</v>
       </c>
       <c r="C141" s="2">
-        <v>3.8524587154388428</v>
+        <v>3.8512372970581055</v>
       </c>
       <c r="D141" s="2">
         <v>4.0089535713195801</v>
       </c>
       <c r="E141" s="2">
-        <v>3.9797501564025879</v>
+        <v>3.978602409362793</v>
       </c>
     </row>
     <row r="142">
@@ -2486,13 +2486,13 @@
         <v>3.9867899417877197</v>
       </c>
       <c r="C142" s="2">
-        <v>3.8716065883636475</v>
+        <v>3.8710877895355225</v>
       </c>
       <c r="D142" s="2">
         <v>4.0298609733581543</v>
       </c>
       <c r="E142" s="2">
-        <v>3.996551513671875</v>
+        <v>3.99538254737854</v>
       </c>
     </row>
     <row r="143">
@@ -2503,13 +2503,13 @@
         <v>3.6096861362457275</v>
       </c>
       <c r="C143" s="2">
-        <v>3.610234260559082</v>
+        <v>3.6088740825653076</v>
       </c>
       <c r="D143" s="2">
         <v>3.9875633716583252</v>
       </c>
       <c r="E143" s="2">
-        <v>3.9626970291137695</v>
+        <v>3.9615254402160645</v>
       </c>
     </row>
     <row r="144">
@@ -2520,13 +2520,13 @@
         <v>4.2047538757324219</v>
       </c>
       <c r="C144" s="2">
-        <v>4.2172479629516602</v>
+        <v>4.2166962623596191</v>
       </c>
       <c r="D144" s="2">
-        <v>3.9666812419891358</v>
+        <v>3.9666812419891357</v>
       </c>
       <c r="E144" s="2">
-        <v>3.930842399597168</v>
+        <v>3.9296679496765137</v>
       </c>
     </row>
     <row r="145">
@@ -2537,13 +2537,13 @@
         <v>4.0792155265808105</v>
       </c>
       <c r="C145" s="2">
-        <v>3.9133830070495605</v>
+        <v>3.9122028350830078</v>
       </c>
       <c r="D145" s="2">
         <v>3.9503111839294434</v>
       </c>
       <c r="E145" s="2">
-        <v>3.9091382026672363</v>
+        <v>3.9081771373748779</v>
       </c>
     </row>
     <row r="146">
@@ -2554,13 +2554,13 @@
         <v>4.1945557594299316</v>
       </c>
       <c r="C146" s="2">
-        <v>4.1212530136108398</v>
+        <v>4.1200766563415527</v>
       </c>
       <c r="D146" s="2">
         <v>3.8672749996185303</v>
       </c>
       <c r="E146" s="2">
-        <v>3.8244950771331787</v>
+        <v>3.8235063552856445</v>
       </c>
     </row>
     <row r="147">
@@ -2571,13 +2571,13 @@
         <v>3.8655381202697754</v>
       </c>
       <c r="C147" s="2">
-        <v>3.8503906726837158</v>
+        <v>3.8493225574493408</v>
       </c>
       <c r="D147" s="2">
         <v>3.794119119644165</v>
       </c>
       <c r="E147" s="2">
-        <v>3.7438228130340576</v>
+        <v>3.7427723407745361</v>
       </c>
     </row>
     <row r="148">
@@ -2588,13 +2588,13 @@
         <v>3.790607213973999</v>
       </c>
       <c r="C148" s="2">
-        <v>3.7318685054779053</v>
+        <v>3.730130672454834</v>
       </c>
       <c r="D148" s="2">
         <v>3.8196616172790527</v>
       </c>
       <c r="E148" s="2">
-        <v>3.7673444747924805</v>
+        <v>3.7663702964782715</v>
       </c>
     </row>
     <row r="149">
@@ -2605,13 +2605,13 @@
         <v>3.9919219017028809</v>
       </c>
       <c r="C149" s="2">
-        <v>4.0138015747070313</v>
+        <v>4.0139670372009277</v>
       </c>
       <c r="D149" s="2">
         <v>3.8297927379608154</v>
       </c>
       <c r="E149" s="2">
-        <v>3.7691762447357178</v>
+        <v>3.7682738304138184</v>
       </c>
     </row>
     <row r="150">
@@ -2622,13 +2622,13 @@
         <v>3.0824072360992432</v>
       </c>
       <c r="C150" s="2">
-        <v>3.0906691551208496</v>
+        <v>3.0891988277435303</v>
       </c>
       <c r="D150" s="2">
         <v>3.9254441261291504</v>
       </c>
       <c r="E150" s="2">
-        <v>3.8913328647613525</v>
+        <v>3.8905560970306396</v>
       </c>
     </row>
     <row r="151">
@@ -2639,13 +2639,13 @@
         <v>3.3283853530883789</v>
       </c>
       <c r="C151" s="2">
-        <v>3.1455578804016113</v>
+        <v>3.1444828510284424</v>
       </c>
       <c r="D151" s="2">
         <v>4.0257153511047363</v>
       </c>
       <c r="E151" s="2">
-        <v>3.9976661205291748</v>
+        <v>3.9970066547393799</v>
       </c>
     </row>
     <row r="152">
@@ -2656,13 +2656,13 @@
         <v>3.8395702838897705</v>
       </c>
       <c r="C152" s="2">
-        <v>3.8219292163848877</v>
+        <v>3.8212544918060303</v>
       </c>
       <c r="D152" s="2">
         <v>4.1817293167114258</v>
       </c>
       <c r="E152" s="2">
-        <v>4.1380329132080078</v>
+        <v>4.1374411582946777</v>
       </c>
     </row>
     <row r="153">
@@ -2673,13 +2673,13 @@
         <v>4.2959332466125488</v>
       </c>
       <c r="C153" s="2">
-        <v>4.2337336540222168</v>
+        <v>4.2338285446166992</v>
       </c>
       <c r="D153" s="2">
         <v>4.3404712677001953</v>
       </c>
       <c r="E153" s="2">
-        <v>4.304415225982666</v>
+        <v>4.3039312362670898</v>
       </c>
     </row>
     <row r="154">
@@ -2690,13 +2690,13 @@
         <v>4.9400782585144043</v>
       </c>
       <c r="C154" s="2">
-        <v>5.012791633605957</v>
+        <v>5.0127425193786621</v>
       </c>
       <c r="D154" s="2">
         <v>4.5507335662841797</v>
       </c>
       <c r="E154" s="2">
-        <v>4.4771895408630371</v>
+        <v>4.4766554832458496</v>
       </c>
     </row>
     <row r="155">
@@ -2707,13 +2707,13 @@
         <v>5.0969977378845215</v>
       </c>
       <c r="C155" s="2">
-        <v>5.078251838684082</v>
+        <v>5.0781316757202148</v>
       </c>
       <c r="D155" s="2">
         <v>4.8327503204345703</v>
       </c>
       <c r="E155" s="2">
-        <v>4.746366024017334</v>
+        <v>4.7458734512329102</v>
       </c>
     </row>
     <row r="156">
@@ -2721,16 +2721,16 @@
         <v>33178</v>
       </c>
       <c r="B156" s="2">
-        <v>5.2696604728698731</v>
+        <v>5.269660472869873</v>
       </c>
       <c r="C156" s="2">
-        <v>5.1136922836303711</v>
+        <v>5.1132335662841797</v>
       </c>
       <c r="D156" s="2">
         <v>4.9979076385498047</v>
       </c>
       <c r="E156" s="2">
-        <v>4.8909502029418945</v>
+        <v>4.8905792236328125</v>
       </c>
     </row>
     <row r="157">
@@ -2741,13 +2741,13 @@
         <v>5.2192864418029785</v>
       </c>
       <c r="C157" s="2">
-        <v>5.2293109893798828</v>
+        <v>5.2285428047180176</v>
       </c>
       <c r="D157" s="2">
         <v>5.1233968734741211</v>
       </c>
       <c r="E157" s="2">
-        <v>5.0095381736755371</v>
+        <v>5.0091652870178223</v>
       </c>
     </row>
     <row r="158">
@@ -2758,13 +2758,13 @@
         <v>5.8842825889587402</v>
       </c>
       <c r="C158" s="2">
-        <v>5.5687685012817383</v>
+        <v>5.568483829498291</v>
       </c>
       <c r="D158" s="2">
         <v>5.2179183959960938</v>
       </c>
       <c r="E158" s="2">
-        <v>5.098358154296875</v>
+        <v>5.0979046821594238</v>
       </c>
     </row>
     <row r="159">
@@ -2775,13 +2775,13 @@
         <v>5.6205568313598633</v>
       </c>
       <c r="C159" s="2">
-        <v>5.5132589340209961</v>
+        <v>5.5121603012084961</v>
       </c>
       <c r="D159" s="2">
-        <v>5.1188726425170899</v>
+        <v>5.1188726425170898</v>
       </c>
       <c r="E159" s="2">
-        <v>4.9917435646057129</v>
+        <v>4.9911136627197266</v>
       </c>
     </row>
     <row r="160">
@@ -2792,13 +2792,13 @@
         <v>4.8148040771484375</v>
       </c>
       <c r="C160" s="2">
-        <v>4.4468140602111816</v>
+        <v>4.446835994720459</v>
       </c>
       <c r="D160" s="2">
         <v>5.0083155632019043</v>
       </c>
       <c r="E160" s="2">
-        <v>4.8853206634521484</v>
+        <v>4.8845815658569336</v>
       </c>
     </row>
     <row r="161">
@@ -2809,13 +2809,13 @@
         <v>4.9689736366271973</v>
       </c>
       <c r="C161" s="2">
-        <v>4.8892221450805664</v>
+        <v>4.8885288238525391</v>
       </c>
       <c r="D161" s="2">
         <v>4.8853311538696289</v>
       </c>
       <c r="E161" s="2">
-        <v>4.7860684394836426</v>
+        <v>4.7852044105529785</v>
       </c>
     </row>
     <row r="162">
@@ -2826,13 +2826,13 @@
         <v>5.1466236114501953</v>
       </c>
       <c r="C162" s="2">
-        <v>5.0331120491027832</v>
+        <v>5.0324840545654297</v>
       </c>
       <c r="D162" s="2">
         <v>4.7245163917541504</v>
       </c>
       <c r="E162" s="2">
-        <v>4.6211743354797363</v>
+        <v>4.6202211380004883</v>
       </c>
     </row>
     <row r="163">
@@ -2843,13 +2843,13 @@
         <v>4.048668384552002</v>
       </c>
       <c r="C163" s="2">
-        <v>4.0532627105712891</v>
+        <v>4.0516233444213867</v>
       </c>
       <c r="D163" s="2">
         <v>4.5938811302185059</v>
       </c>
       <c r="E163" s="2">
-        <v>4.5210332870483398</v>
+        <v>4.5201020240783691</v>
       </c>
     </row>
     <row r="164">
@@ -2860,13 +2860,13 @@
         <v>4.1019859313964844</v>
       </c>
       <c r="C164" s="2">
-        <v>4.1204442977905274</v>
+        <v>4.1193404197692871</v>
       </c>
       <c r="D164" s="2">
         <v>4.4883174896240234</v>
       </c>
       <c r="E164" s="2">
-        <v>4.4174051284790039</v>
+        <v>4.4167342185974121</v>
       </c>
     </row>
     <row r="165">
@@ -2877,13 +2877,13 @@
         <v>4.1627979278564453</v>
       </c>
       <c r="C165" s="2">
-        <v>4.2204208374023438</v>
+        <v>4.218839168548584</v>
       </c>
       <c r="D165" s="2">
         <v>4.5428223609924316</v>
       </c>
       <c r="E165" s="2">
-        <v>4.507652759552002</v>
+        <v>4.5070838928222656</v>
       </c>
     </row>
     <row r="166">
@@ -2894,13 +2894,13 @@
         <v>3.7719550132751465</v>
       </c>
       <c r="C166" s="2">
-        <v>3.7452635765075684</v>
+        <v>3.7436933517456055</v>
       </c>
       <c r="D166" s="2">
         <v>4.5694928169250488</v>
       </c>
       <c r="E166" s="2">
-        <v>4.5216884613037109</v>
+        <v>4.5212750434875488</v>
       </c>
     </row>
     <row r="167">
@@ -2911,13 +2911,13 @@
         <v>4.7085657119750977</v>
       </c>
       <c r="C167" s="2">
-        <v>4.6675024032592774</v>
+        <v>4.6674141883850098</v>
       </c>
       <c r="D167" s="2">
         <v>4.5303997993469238</v>
       </c>
       <c r="E167" s="2">
-        <v>4.4960718154907227</v>
+        <v>4.4957151412963867</v>
       </c>
     </row>
     <row r="168">
@@ -2928,13 +2928,13 @@
         <v>4.6704821586608887</v>
       </c>
       <c r="C168" s="2">
-        <v>4.5806040763854981</v>
+        <v>4.5818476676940918</v>
       </c>
       <c r="D168" s="2">
         <v>4.5268383026123047</v>
       </c>
       <c r="E168" s="2">
-        <v>4.4978270530700684</v>
+        <v>4.4974117279052734</v>
       </c>
     </row>
     <row r="169">
@@ -2945,13 +2945,13 @@
         <v>5.3053488731384277</v>
       </c>
       <c r="C169" s="2">
-        <v>5.2590422630310059</v>
+        <v>5.2599849700927734</v>
       </c>
       <c r="D169" s="2">
         <v>4.5952014923095703</v>
       </c>
       <c r="E169" s="2">
-        <v>4.5636682510375977</v>
+        <v>4.5632429122924805</v>
       </c>
     </row>
     <row r="170">
@@ -2962,13 +2962,13 @@
         <v>5.2090096473693848</v>
       </c>
       <c r="C170" s="2">
-        <v>5.0155439376831055</v>
+        <v>5.0162496566772461</v>
       </c>
       <c r="D170" s="2">
         <v>4.6298704147338867</v>
       </c>
       <c r="E170" s="2">
-        <v>4.5941052436828613</v>
+        <v>4.5938973426818848</v>
       </c>
     </row>
     <row r="171">
@@ -2979,13 +2979,13 @@
         <v>4.7947840690612793</v>
       </c>
       <c r="C171" s="2">
-        <v>4.8025631904602051</v>
+        <v>4.8024435043334961</v>
       </c>
       <c r="D171" s="2">
         <v>4.7297163009643555</v>
       </c>
       <c r="E171" s="2">
-        <v>4.6881475448608398</v>
+        <v>4.6879315376281738</v>
       </c>
     </row>
     <row r="172">
@@ -2996,13 +2996,13 @@
         <v>4.0166139602661133</v>
       </c>
       <c r="C172" s="2">
-        <v>4.0690569877624512</v>
+        <v>4.0668940544128418</v>
       </c>
       <c r="D172" s="2">
         <v>4.6381349563598633</v>
       </c>
       <c r="E172" s="2">
-        <v>4.6086301803588867</v>
+        <v>4.6083903312683105</v>
       </c>
     </row>
     <row r="173">
@@ -3013,13 +3013,13 @@
         <v>4.7172565460205078</v>
       </c>
       <c r="C173" s="2">
-        <v>4.7130169868469238</v>
+        <v>4.7118210792541504</v>
       </c>
       <c r="D173" s="2">
         <v>4.6270294189453125</v>
       </c>
       <c r="E173" s="2">
-        <v>4.5867924690246582</v>
+        <v>4.5865788459777832</v>
       </c>
     </row>
     <row r="174">
@@ -3030,13 +3030,13 @@
         <v>4.4748187065124512</v>
       </c>
       <c r="C174" s="2">
-        <v>4.494354248046875</v>
+        <v>4.4947280883789062</v>
       </c>
       <c r="D174" s="2">
         <v>4.5077643394470215</v>
       </c>
       <c r="E174" s="2">
-        <v>4.4748349189758301</v>
+        <v>4.4745163917541504</v>
       </c>
     </row>
     <row r="175">
@@ -3047,13 +3047,13 @@
         <v>4.6705670356750488</v>
       </c>
       <c r="C175" s="2">
-        <v>4.5916457176208496</v>
+        <v>4.5900001525878906</v>
       </c>
       <c r="D175" s="2">
         <v>4.3778076171875</v>
       </c>
       <c r="E175" s="2">
-        <v>4.3648223876953125</v>
+        <v>4.3644757270812988</v>
       </c>
     </row>
     <row r="176">
@@ -3064,13 +3064,13 @@
         <v>3.8843338489532471</v>
       </c>
       <c r="C176" s="2">
-        <v>3.9518451690673828</v>
+        <v>3.9515442848205566</v>
       </c>
       <c r="D176" s="2">
         <v>4.306004524230957</v>
       </c>
       <c r="E176" s="2">
-        <v>4.3004059791564941</v>
+        <v>4.2999053001403809</v>
       </c>
     </row>
     <row r="177">
@@ -3081,13 +3081,13 @@
         <v>4.5705342292785645</v>
       </c>
       <c r="C177" s="2">
-        <v>4.3840646743774414</v>
+        <v>4.3855438232421875</v>
       </c>
       <c r="D177" s="2">
-        <v>4.3371500968933106</v>
+        <v>4.3371500968933105</v>
       </c>
       <c r="E177" s="2">
-        <v>4.3187923431396484</v>
+        <v>4.3186850547790527</v>
       </c>
     </row>
     <row r="178">
@@ -3098,13 +3098,13 @@
         <v>4.2319622039794922</v>
       </c>
       <c r="C178" s="2">
-        <v>4.2514243125915527</v>
+        <v>4.2514233589172363</v>
       </c>
       <c r="D178" s="2">
         <v>4.2080726623535156</v>
       </c>
       <c r="E178" s="2">
-        <v>4.1836371421813965</v>
+        <v>4.1835646629333496</v>
       </c>
     </row>
     <row r="179">
@@ -3115,13 +3115,13 @@
         <v>4.0393986701965332</v>
       </c>
       <c r="C179" s="2">
-        <v>4.0254321098327637</v>
+        <v>4.0258841514587402</v>
       </c>
       <c r="D179" s="2">
         <v>4.1978750228881836</v>
       </c>
       <c r="E179" s="2">
-        <v>4.1619358062744141</v>
+        <v>4.1618099212646484</v>
       </c>
     </row>
     <row r="180">
@@ -3132,13 +3132,13 @@
         <v>4.1485557556152344</v>
       </c>
       <c r="C180" s="2">
-        <v>4.2228150367736817</v>
+        <v>4.2213101387023926</v>
       </c>
       <c r="D180" s="2">
         <v>4.1790437698364258</v>
       </c>
       <c r="E180" s="2">
-        <v>4.1537990570068359</v>
+        <v>4.1538634300231934</v>
       </c>
     </row>
     <row r="181">
@@ -3149,13 +3149,13 @@
         <v>4.2969241142272949</v>
       </c>
       <c r="C181" s="2">
-        <v>4.2345328330993652</v>
+        <v>4.2359089851379395</v>
       </c>
       <c r="D181" s="2">
         <v>4.2363519668579102</v>
       </c>
       <c r="E181" s="2">
-        <v>4.1803789138793945</v>
+        <v>4.1804056167602539</v>
       </c>
     </row>
     <row r="182">
@@ -3166,13 +3166,13 @@
         <v>3.5555591583251953</v>
       </c>
       <c r="C182" s="2">
-        <v>3.4966204166412354</v>
+        <v>3.4957401752471924</v>
       </c>
       <c r="D182" s="2">
         <v>4.1872053146362305</v>
       </c>
       <c r="E182" s="2">
-        <v>4.1512584686279297</v>
+        <v>4.1510190963745117</v>
       </c>
     </row>
     <row r="183">
@@ -3183,13 +3183,13 @@
         <v>4.3830404281616211</v>
       </c>
       <c r="C183" s="2">
-        <v>4.299044132232666</v>
+        <v>4.2989358901977539</v>
       </c>
       <c r="D183" s="2">
         <v>4.1576037406921387</v>
       </c>
       <c r="E183" s="2">
-        <v>4.0920758247375488</v>
+        <v>4.0917983055114746</v>
       </c>
     </row>
     <row r="184">
@@ -3200,13 +3200,13 @@
         <v>4.5010862350463867</v>
       </c>
       <c r="C184" s="2">
-        <v>4.5184130668640137</v>
+        <v>4.5184817314147949</v>
       </c>
       <c r="D184" s="2">
-        <v>4.1290659904479981</v>
+        <v>4.129065990447998</v>
       </c>
       <c r="E184" s="2">
-        <v>4.0476040840148926</v>
+        <v>4.0471510887145996</v>
       </c>
     </row>
     <row r="185">
@@ -3214,16 +3214,16 @@
         <v>34060</v>
       </c>
       <c r="B185" s="2">
-        <v>4.4001073837280274</v>
+        <v>4.4001073837280273</v>
       </c>
       <c r="C185" s="2">
-        <v>4.191065788269043</v>
+        <v>4.1904230117797852</v>
       </c>
       <c r="D185" s="2">
         <v>4.108891487121582</v>
       </c>
       <c r="E185" s="2">
-        <v>4.0202975273132324</v>
+        <v>4.0199394226074219</v>
       </c>
     </row>
     <row r="186">
@@ -3234,13 +3234,13 @@
         <v>4.1282129287719727</v>
       </c>
       <c r="C186" s="2">
-        <v>4.121976375579834</v>
+        <v>4.1210665702819824</v>
       </c>
       <c r="D186" s="2">
         <v>4.1605253219604492</v>
       </c>
       <c r="E186" s="2">
-        <v>4.0645723342895508</v>
+        <v>4.0641632080078125</v>
       </c>
     </row>
     <row r="187">
@@ -3251,13 +3251,13 @@
         <v>3.9655506610870361</v>
       </c>
       <c r="C187" s="2">
-        <v>3.7187821865081787</v>
+        <v>3.7184338569641113</v>
       </c>
       <c r="D187" s="2">
         <v>4.2315049171447754</v>
       </c>
       <c r="E187" s="2">
-        <v>4.112152099609375</v>
+        <v>4.1119356155395508</v>
       </c>
     </row>
     <row r="188">
@@ -3268,13 +3268,13 @@
         <v>3.7825582027435303</v>
       </c>
       <c r="C188" s="2">
-        <v>3.6251864433288574</v>
+        <v>3.624058723449707</v>
       </c>
       <c r="D188" s="2">
         <v>4.2142910957336426</v>
       </c>
       <c r="E188" s="2">
-        <v>4.1003704071044922</v>
+        <v>4.1000709533691406</v>
       </c>
     </row>
     <row r="189">
@@ -3285,13 +3285,13 @@
         <v>3.9669833183288574</v>
       </c>
       <c r="C189" s="2">
-        <v>3.9770572185516358</v>
+        <v>3.9764053821563721</v>
       </c>
       <c r="D189" s="2">
         <v>4.2037482261657715</v>
       </c>
       <c r="E189" s="2">
-        <v>4.0899572372436524</v>
+        <v>4.0895299911499023</v>
       </c>
     </row>
     <row r="190">
@@ -3302,13 +3302,13 @@
         <v>4.7616300582885742</v>
       </c>
       <c r="C190" s="2">
-        <v>4.6330032348632813</v>
+        <v>4.6339235305786133</v>
       </c>
       <c r="D190" s="2">
-        <v>4.1248078346252442</v>
+        <v>4.1248078346252441</v>
       </c>
       <c r="E190" s="2">
-        <v>4.0260562896728516</v>
+        <v>4.0255470275878906</v>
       </c>
     </row>
     <row r="191">
@@ -3319,13 +3319,13 @@
         <v>4.1943764686584473</v>
       </c>
       <c r="C191" s="2">
-        <v>3.924839973449707</v>
+        <v>3.9256906509399414</v>
       </c>
       <c r="D191" s="2">
         <v>4.0612754821777344</v>
       </c>
       <c r="E191" s="2">
-        <v>3.9463319778442383</v>
+        <v>3.9458661079406738</v>
       </c>
     </row>
     <row r="192">
@@ -3336,13 +3336,13 @@
         <v>4.2281126976013184</v>
       </c>
       <c r="C192" s="2">
-        <v>4.1930093765258789</v>
+        <v>4.1921539306640625</v>
       </c>
       <c r="D192" s="2">
         <v>4.0237245559692383</v>
       </c>
       <c r="E192" s="2">
-        <v>3.8994350433349609</v>
+        <v>3.898848295211792</v>
       </c>
     </row>
     <row r="193">
@@ -3353,13 +3353,13 @@
         <v>4.4062037467956543</v>
       </c>
       <c r="C193" s="2">
-        <v>4.4246964454650879</v>
+        <v>4.4236164093017578</v>
       </c>
       <c r="D193" s="2">
         <v>3.9919888973236084</v>
       </c>
       <c r="E193" s="2">
-        <v>3.8900952339172363</v>
+        <v>3.8895542621612549</v>
       </c>
     </row>
     <row r="194">
@@ -3367,16 +3367,16 @@
         <v>34335</v>
       </c>
       <c r="B194" s="2">
-        <v>3.6896429061889649</v>
+        <v>3.6896429061889648</v>
       </c>
       <c r="C194" s="2">
-        <v>3.6159567832946777</v>
+        <v>3.6145744323730469</v>
       </c>
       <c r="D194" s="2">
         <v>3.9963579177856445</v>
       </c>
       <c r="E194" s="2">
-        <v>3.8952643871307373</v>
+        <v>3.8946096897125244</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +3387,13 @@
         <v>3.5564200878143311</v>
       </c>
       <c r="C195" s="2">
-        <v>3.4044570922851563</v>
+        <v>3.4039387702941895</v>
       </c>
       <c r="D195" s="2">
         <v>3.8820686340332031</v>
       </c>
       <c r="E195" s="2">
-        <v>3.7987525463104248</v>
+        <v>3.7979428768157959</v>
       </c>
     </row>
     <row r="196">
@@ -3404,13 +3404,13 @@
         <v>3.6275947093963623</v>
       </c>
       <c r="C196" s="2">
-        <v>3.2967097759246826</v>
+        <v>3.2952737808227539</v>
       </c>
       <c r="D196" s="2">
         <v>3.8816556930541992</v>
       </c>
       <c r="E196" s="2">
-        <v>3.8257520198822022</v>
+        <v>3.8247241973876953</v>
       </c>
     </row>
     <row r="197">
@@ -3421,13 +3421,13 @@
         <v>3.4969356060028076</v>
       </c>
       <c r="C197" s="2">
-        <v>3.5411267280578613</v>
+        <v>3.5404114723205566</v>
       </c>
       <c r="D197" s="2">
         <v>3.8840534687042236</v>
       </c>
       <c r="E197" s="2">
-        <v>3.8194241523742676</v>
+        <v>3.8187201023101807</v>
       </c>
     </row>
     <row r="198">
@@ -3438,13 +3438,13 @@
         <v>4.0063042640686035</v>
       </c>
       <c r="C198" s="2">
-        <v>4.0235805511474609</v>
+        <v>4.0219039916992188</v>
       </c>
       <c r="D198" s="2">
         <v>3.783766508102417</v>
       </c>
       <c r="E198" s="2">
-        <v>3.7106606960296631</v>
+        <v>3.7099432945251465</v>
       </c>
     </row>
     <row r="199">
@@ -3455,13 +3455,13 @@
         <v>3.733027458190918</v>
       </c>
       <c r="C199" s="2">
-        <v>3.7643952369689941</v>
+        <v>3.7639234066009521</v>
       </c>
       <c r="D199" s="2">
         <v>3.7685971260070801</v>
       </c>
       <c r="E199" s="2">
-        <v>3.681098222732544</v>
+        <v>3.6804032325744629</v>
       </c>
     </row>
     <row r="200">
@@ -3472,13 +3472,13 @@
         <v>4.1906604766845703</v>
       </c>
       <c r="C200" s="2">
-        <v>4.1678352355957031</v>
+        <v>4.1667213439941406</v>
       </c>
       <c r="D200" s="2">
         <v>3.8132710456848145</v>
       </c>
       <c r="E200" s="2">
-        <v>3.7430551052093506</v>
+        <v>3.7423038482666016</v>
       </c>
     </row>
     <row r="201">
@@ -3489,13 +3489,13 @@
         <v>4.2496929168701172</v>
       </c>
       <c r="C201" s="2">
-        <v>4.1360597610473633</v>
+        <v>4.138117790222168</v>
       </c>
       <c r="D201" s="2">
         <v>3.8687834739685059</v>
       </c>
       <c r="E201" s="2">
-        <v>3.8257451057434082</v>
+        <v>3.8250784873962402</v>
       </c>
     </row>
     <row r="202">
@@ -3506,13 +3506,13 @@
         <v>3.5036203861236572</v>
       </c>
       <c r="C202" s="2">
-        <v>3.4458258152008057</v>
+        <v>3.4446249008178711</v>
       </c>
       <c r="D202" s="2">
         <v>3.8831210136413574</v>
       </c>
       <c r="E202" s="2">
-        <v>3.8365192413330078</v>
+        <v>3.8357491493225098</v>
       </c>
     </row>
     <row r="203">
@@ -3523,13 +3523,13 @@
         <v>3.5531179904937744</v>
       </c>
       <c r="C203" s="2">
-        <v>3.3498942852020264</v>
+        <v>3.3487143516540527</v>
       </c>
       <c r="D203" s="2">
         <v>3.8147087097167969</v>
       </c>
       <c r="E203" s="2">
-        <v>3.7776312828063965</v>
+        <v>3.7767515182495117</v>
       </c>
     </row>
     <row r="204">
@@ -3540,13 +3540,13 @@
         <v>3.9584856033325195</v>
       </c>
       <c r="C204" s="2">
-        <v>3.9620692729949951</v>
+        <v>3.9610440731048584</v>
       </c>
       <c r="D204" s="2">
         <v>3.8203892707824707</v>
       </c>
       <c r="E204" s="2">
-        <v>3.7772259712219238</v>
+        <v>3.776378870010376</v>
       </c>
     </row>
     <row r="205">
@@ -3557,13 +3557,13 @@
         <v>4.1272068023681641</v>
       </c>
       <c r="C205" s="2">
-        <v>4.0409188270568848</v>
+        <v>4.0402460098266602</v>
       </c>
       <c r="D205" s="2">
         <v>3.8052942752838135</v>
       </c>
       <c r="E205" s="2">
-        <v>3.7506606578826904</v>
+        <v>3.7498428821563721</v>
       </c>
     </row>
     <row r="206">
@@ -3574,13 +3574,13 @@
         <v>3.6259734630584717</v>
       </c>
       <c r="C206" s="2">
-        <v>3.6380939483642578</v>
+        <v>3.6364469528198242</v>
       </c>
       <c r="D206" s="2">
         <v>3.7856020927429199</v>
       </c>
       <c r="E206" s="2">
-        <v>3.7024514675140381</v>
+        <v>3.7013800144195557</v>
       </c>
     </row>
     <row r="207">
@@ -3591,13 +3591,13 @@
         <v>3.3905940055847168</v>
       </c>
       <c r="C207" s="2">
-        <v>3.4935891628265381</v>
+        <v>3.4909255504608154</v>
       </c>
       <c r="D207" s="2">
         <v>3.836916446685791</v>
       </c>
       <c r="E207" s="2">
-        <v>3.7564139366149902</v>
+        <v>3.7554831504821777</v>
       </c>
     </row>
     <row r="208">
@@ -3608,13 +3608,13 @@
         <v>3.784151554107666</v>
       </c>
       <c r="C208" s="2">
-        <v>3.7607467174530029</v>
+        <v>3.7605686187744141</v>
       </c>
       <c r="D208" s="2">
         <v>3.8652083873748779</v>
       </c>
       <c r="E208" s="2">
-        <v>3.8178439140319824</v>
+        <v>3.8168604373931885</v>
       </c>
     </row>
     <row r="209">
@@ -3625,13 +3625,13 @@
         <v>4.0548062324523926</v>
       </c>
       <c r="C209" s="2">
-        <v>3.9287488460540772</v>
+        <v>3.9278984069824219</v>
       </c>
       <c r="D209" s="2">
         <v>3.8924236297607422</v>
       </c>
       <c r="E209" s="2">
-        <v>3.81691575050354</v>
+        <v>3.815960168838501</v>
       </c>
     </row>
     <row r="210">
@@ -3642,13 +3642,13 @@
         <v>4.0724625587463379</v>
       </c>
       <c r="C210" s="2">
-        <v>3.7021758556365967</v>
+        <v>3.7019519805908203</v>
       </c>
       <c r="D210" s="2">
         <v>3.8652403354644775</v>
       </c>
       <c r="E210" s="2">
-        <v>3.8028769493103027</v>
+        <v>3.8017616271972656</v>
       </c>
     </row>
     <row r="211">
@@ -3659,13 +3659,13 @@
         <v>3.9654502868652344</v>
       </c>
       <c r="C211" s="2">
-        <v>3.9314892292022705</v>
+        <v>3.931551456451416</v>
       </c>
       <c r="D211" s="2">
         <v>3.8147697448730469</v>
       </c>
       <c r="E211" s="2">
-        <v>3.7539434432983398</v>
+        <v>3.7530407905578613</v>
       </c>
     </row>
     <row r="212">
@@ -3676,13 +3676,13 @@
         <v>3.8077449798583984</v>
       </c>
       <c r="C212" s="2">
-        <v>3.9027636051177979</v>
+        <v>3.9011118412017822</v>
       </c>
       <c r="D212" s="2">
         <v>3.9047887325286865</v>
       </c>
       <c r="E212" s="2">
-        <v>3.8427765369415283</v>
+        <v>3.842005729675293</v>
       </c>
     </row>
     <row r="213">
@@ -3693,13 +3693,13 @@
         <v>4.2034225463867188</v>
       </c>
       <c r="C213" s="2">
-        <v>3.9537146091461182</v>
+        <v>3.9529399871826172</v>
       </c>
       <c r="D213" s="2">
         <v>3.9039812088012695</v>
       </c>
       <c r="E213" s="2">
-        <v>3.8390254974365234</v>
+        <v>3.8383336067199707</v>
       </c>
     </row>
     <row r="214">
@@ -3710,13 +3710,13 @@
         <v>3.8825583457946777</v>
       </c>
       <c r="C214" s="2">
-        <v>3.9145703315734863</v>
+        <v>3.9124605655670166</v>
       </c>
       <c r="D214" s="2">
         <v>3.9037740230560303</v>
       </c>
       <c r="E214" s="2">
-        <v>3.8332750797271729</v>
+        <v>3.8327090740203857</v>
       </c>
     </row>
     <row r="215">
@@ -3727,13 +3727,13 @@
         <v>3.1717381477355957</v>
       </c>
       <c r="C215" s="2">
-        <v>3.1976926326751709</v>
+        <v>3.1979589462280273</v>
       </c>
       <c r="D215" s="2">
         <v>3.825577974319458</v>
       </c>
       <c r="E215" s="2">
-        <v>3.7915494441986084</v>
+        <v>3.790755033493042</v>
       </c>
     </row>
     <row r="216">
@@ -3744,13 +3744,13 @@
         <v>4.2007632255554199</v>
       </c>
       <c r="C216" s="2">
-        <v>4.293086051940918</v>
+        <v>4.2916102409362793</v>
       </c>
       <c r="D216" s="2">
         <v>3.8674559593200684</v>
       </c>
       <c r="E216" s="2">
-        <v>3.8425374031066895</v>
+        <v>3.8415737152099609</v>
       </c>
     </row>
     <row r="217">
@@ -3761,13 +3761,13 @@
         <v>3.7768843173980713</v>
       </c>
       <c r="C217" s="2">
-        <v>3.7269890308380127</v>
+        <v>3.7275197505950928</v>
       </c>
       <c r="D217" s="2">
         <v>3.8432183265686035</v>
       </c>
       <c r="E217" s="2">
-        <v>3.7716236114501953</v>
+        <v>3.7707781791687012</v>
       </c>
     </row>
     <row r="218">
@@ -3778,13 +3778,13 @@
         <v>4.0529413223266602</v>
       </c>
       <c r="C218" s="2">
-        <v>3.8769934177398682</v>
+        <v>3.8772776126861572</v>
       </c>
       <c r="D218" s="2">
         <v>3.872032642364502</v>
       </c>
       <c r="E218" s="2">
-        <v>3.8170950412750244</v>
+        <v>3.816455602645874</v>
       </c>
     </row>
     <row r="219">
@@ -3795,13 +3795,13 @@
         <v>3.3686988353729248</v>
       </c>
       <c r="C219" s="2">
-        <v>3.3266456127166748</v>
+        <v>3.324364185333252</v>
       </c>
       <c r="D219" s="2">
         <v>3.8413360118865967</v>
       </c>
       <c r="E219" s="2">
-        <v>3.7632467746734619</v>
+        <v>3.7627804279327393</v>
       </c>
     </row>
     <row r="220">
@@ -3812,13 +3812,13 @@
         <v>4.3423514366149902</v>
       </c>
       <c r="C220" s="2">
-        <v>4.3903818130493164</v>
+        <v>4.3889193534851074</v>
       </c>
       <c r="D220" s="2">
         <v>3.9152722358703613</v>
       </c>
       <c r="E220" s="2">
-        <v>3.8186242580413818</v>
+        <v>3.8181188106536865</v>
       </c>
     </row>
     <row r="221">
@@ -3826,16 +3826,16 @@
         <v>35156</v>
       </c>
       <c r="B221" s="2">
-        <v>3.5896067619323731</v>
+        <v>3.589606761932373</v>
       </c>
       <c r="C221" s="2">
-        <v>3.264538049697876</v>
+        <v>3.2639532089233398</v>
       </c>
       <c r="D221" s="2">
         <v>3.9038076400756836</v>
       </c>
       <c r="E221" s="2">
-        <v>3.7990415096282959</v>
+        <v>3.7985644340515137</v>
       </c>
     </row>
     <row r="222">
@@ -3846,13 +3846,13 @@
         <v>4.4627518653869629</v>
       </c>
       <c r="C222" s="2">
-        <v>4.3629593849182129</v>
+        <v>4.364037036895752</v>
       </c>
       <c r="D222" s="2">
         <v>3.8869314193725586</v>
       </c>
       <c r="E222" s="2">
-        <v>3.7770395278930664</v>
+        <v>3.7764251232147217</v>
       </c>
     </row>
     <row r="223">
@@ -3863,13 +3863,13 @@
         <v>3.6062881946563721</v>
       </c>
       <c r="C223" s="2">
-        <v>3.429934024810791</v>
+        <v>3.4293839931488037</v>
       </c>
       <c r="D223" s="2">
         <v>3.9254381656646729</v>
       </c>
       <c r="E223" s="2">
-        <v>3.8239097595214844</v>
+        <v>3.8231005668640137</v>
       </c>
     </row>
     <row r="224">
@@ -3880,13 +3880,13 @@
         <v>3.8371636867523193</v>
       </c>
       <c r="C224" s="2">
-        <v>3.6960916519165039</v>
+        <v>3.6960036754608154</v>
       </c>
       <c r="D224" s="2">
         <v>3.9103567600250244</v>
       </c>
       <c r="E224" s="2">
-        <v>3.8141024112701416</v>
+        <v>3.8135526180267334</v>
       </c>
     </row>
     <row r="225">
@@ -3897,13 +3897,13 @@
         <v>4.0975832939147949</v>
       </c>
       <c r="C225" s="2">
-        <v>4.1168398857116699</v>
+        <v>4.1156210899353027</v>
       </c>
       <c r="D225" s="2">
         <v>3.8274989128112793</v>
       </c>
       <c r="E225" s="2">
-        <v>3.7257821559906006</v>
+        <v>3.7252247333526611</v>
       </c>
     </row>
     <row r="226">
@@ -3914,13 +3914,13 @@
         <v>3.6249983310699463</v>
       </c>
       <c r="C226" s="2">
-        <v>3.5289721488952637</v>
+        <v>3.5282654762268066</v>
       </c>
       <c r="D226" s="2">
         <v>3.7693893909454346</v>
       </c>
       <c r="E226" s="2">
-        <v>3.6967234611511231</v>
+        <v>3.696040153503418</v>
       </c>
     </row>
     <row r="227">
@@ -3931,13 +3931,13 @@
         <v>4.3995013236999512</v>
       </c>
       <c r="C227" s="2">
-        <v>4.2988252639770508</v>
+        <v>4.2973570823669434</v>
       </c>
       <c r="D227" s="2">
         <v>3.6467714309692383</v>
       </c>
       <c r="E227" s="2">
-        <v>3.5756542682647705</v>
+        <v>3.5747416019439697</v>
       </c>
     </row>
     <row r="228">
@@ -3948,13 +3948,13 @@
         <v>3.2329649925231934</v>
       </c>
       <c r="C228" s="2">
-        <v>3.2383801937103271</v>
+        <v>3.2384321689605713</v>
       </c>
       <c r="D228" s="2">
         <v>3.6103711128234863</v>
       </c>
       <c r="E228" s="2">
-        <v>3.5566506385803223</v>
+        <v>3.5558090209960938</v>
       </c>
     </row>
     <row r="229">
@@ -3965,13 +3965,13 @@
         <v>3.5966322422027588</v>
       </c>
       <c r="C229" s="2">
-        <v>3.5954997539520264</v>
+        <v>3.5939693450927734</v>
       </c>
       <c r="D229" s="2">
         <v>3.5925853252410889</v>
       </c>
       <c r="E229" s="2">
-        <v>3.5292685031890869</v>
+        <v>3.5282878875732422</v>
       </c>
     </row>
     <row r="230">
@@ -3982,13 +3982,13 @@
         <v>3.0666215419769287</v>
       </c>
       <c r="C230" s="2">
-        <v>3.0030083656311035</v>
+        <v>3.0012912750244141</v>
       </c>
       <c r="D230" s="2">
         <v>3.534658670425415</v>
       </c>
       <c r="E230" s="2">
-        <v>3.4737081527709961</v>
+        <v>3.4726784229278564</v>
       </c>
     </row>
     <row r="231">
@@ -3999,13 +3999,13 @@
         <v>3.3591897487640381</v>
       </c>
       <c r="C231" s="2">
-        <v>3.2733380794525146</v>
+        <v>3.2723500728607178</v>
       </c>
       <c r="D231" s="2">
         <v>3.5254933834075928</v>
       </c>
       <c r="E231" s="2">
-        <v>3.4874346256256104</v>
+        <v>3.4864346981048584</v>
       </c>
     </row>
     <row r="232">
@@ -4016,13 +4016,13 @@
         <v>3.2786858081817627</v>
       </c>
       <c r="C232" s="2">
-        <v>3.2589008808135986</v>
+        <v>3.2589905261993408</v>
       </c>
       <c r="D232" s="2">
         <v>3.4817874431610107</v>
       </c>
       <c r="E232" s="2">
-        <v>3.4436142444610596</v>
+        <v>3.4426779747009277</v>
       </c>
     </row>
     <row r="233">
@@ -4033,13 +4033,13 @@
         <v>3.6770896911621094</v>
       </c>
       <c r="C233" s="2">
-        <v>3.4496521949768066</v>
+        <v>3.4483129978179932</v>
       </c>
       <c r="D233" s="2">
         <v>3.5156421661376953</v>
       </c>
       <c r="E233" s="2">
-        <v>3.4566121101379395</v>
+        <v>3.4554984569549561</v>
       </c>
     </row>
     <row r="234">
@@ -4050,13 +4050,13 @@
         <v>3.5762434005737305</v>
       </c>
       <c r="C234" s="2">
-        <v>3.6167962551116943</v>
+        <v>3.6151371002197266</v>
       </c>
       <c r="D234" s="2">
         <v>3.4382021427154541</v>
       </c>
       <c r="E234" s="2">
-        <v>3.3777332305908203</v>
+        <v>3.3767838478088379</v>
       </c>
     </row>
     <row r="235">
@@ -4067,13 +4067,13 @@
         <v>3.5425121784210205</v>
       </c>
       <c r="C235" s="2">
-        <v>3.6525096893310547</v>
+        <v>3.6520724296569824</v>
       </c>
       <c r="D235" s="2">
         <v>3.4576280117034912</v>
       </c>
       <c r="E235" s="2">
-        <v>3.3965637683868408</v>
+        <v>3.3957991600036621</v>
       </c>
     </row>
     <row r="236">
@@ -4084,13 +4084,13 @@
         <v>4.0061483383178711</v>
       </c>
       <c r="C236" s="2">
-        <v>3.9044430255889893</v>
+        <v>3.903545618057251</v>
       </c>
       <c r="D236" s="2">
         <v>3.4786615371704102</v>
       </c>
       <c r="E236" s="2">
-        <v>3.4381089210510254</v>
+        <v>3.4374074935913086</v>
       </c>
     </row>
     <row r="237">
@@ -4101,13 +4101,13 @@
         <v>3.5376560688018799</v>
       </c>
       <c r="C237" s="2">
-        <v>3.3553617000579834</v>
+        <v>3.3538162708282471</v>
       </c>
       <c r="D237" s="2">
         <v>3.5378484725952148</v>
       </c>
       <c r="E237" s="2">
-        <v>3.4923117160797119</v>
+        <v>3.4914836883544922</v>
       </c>
     </row>
     <row r="238">
@@ -4118,13 +4118,13 @@
         <v>2.8996732234954834</v>
       </c>
       <c r="C238" s="2">
-        <v>2.8855881690979004</v>
+        <v>2.8855383396148682</v>
       </c>
       <c r="D238" s="2">
-        <v>3.5016093254089356</v>
+        <v>3.5016093254089355</v>
       </c>
       <c r="E238" s="2">
-        <v>3.4824910163879395</v>
+        <v>3.4818122386932373</v>
       </c>
     </row>
     <row r="239">
@@ -4135,13 +4135,13 @@
         <v>3.2414543628692627</v>
       </c>
       <c r="C239" s="2">
-        <v>3.1724834442138672</v>
+        <v>3.1724295616149902</v>
       </c>
       <c r="D239" s="2">
         <v>3.4521110057830811</v>
       </c>
       <c r="E239" s="2">
-        <v>3.443148136138916</v>
+        <v>3.4425806999206543</v>
       </c>
     </row>
     <row r="240">
@@ -4152,13 +4152,13 @@
         <v>3.5484905242919922</v>
       </c>
       <c r="C240" s="2">
-        <v>3.6472439765930176</v>
+        <v>3.6468241214752197</v>
       </c>
       <c r="D240" s="2">
         <v>3.4422399997711182</v>
       </c>
       <c r="E240" s="2">
-        <v>3.4268665313720703</v>
+        <v>3.4261753559112549</v>
       </c>
     </row>
     <row r="241">
@@ -4169,13 +4169,13 @@
         <v>3.8113682270050049</v>
       </c>
       <c r="C241" s="2">
-        <v>3.7467269897460938</v>
+        <v>3.7456772327423096</v>
       </c>
       <c r="D241" s="2">
         <v>3.3008048534393311</v>
       </c>
       <c r="E241" s="2">
-        <v>3.3014531135559082</v>
+        <v>3.3005917072296143</v>
       </c>
     </row>
     <row r="242">
@@ -4186,13 +4186,13 @@
         <v>3.3509376049041748</v>
       </c>
       <c r="C242" s="2">
-        <v>3.3612651824951172</v>
+        <v>3.3612701892852783</v>
       </c>
       <c r="D242" s="2">
         <v>3.2847714424133301</v>
       </c>
       <c r="E242" s="2">
-        <v>3.296919584274292</v>
+        <v>3.2960801124572754</v>
       </c>
     </row>
     <row r="243">
@@ -4203,13 +4203,13 @@
         <v>3.1307578086853027</v>
       </c>
       <c r="C243" s="2">
-        <v>3.2627112865447998</v>
+        <v>3.2620525360107422</v>
       </c>
       <c r="D243" s="2">
         <v>3.320873498916626</v>
       </c>
       <c r="E243" s="2">
-        <v>3.338519811630249</v>
+        <v>3.337533712387085</v>
       </c>
     </row>
     <row r="244">
@@ -4220,13 +4220,13 @@
         <v>3.45367431640625</v>
       </c>
       <c r="C244" s="2">
-        <v>3.5059754848480225</v>
+        <v>3.5044240951538086</v>
       </c>
       <c r="D244" s="2">
         <v>3.2778739929199219</v>
       </c>
       <c r="E244" s="2">
-        <v>3.3054697513580322</v>
+        <v>3.3043231964111328</v>
       </c>
     </row>
     <row r="245">
@@ -4237,13 +4237,13 @@
         <v>2.7332313060760498</v>
       </c>
       <c r="C245" s="2">
-        <v>2.7757227420806885</v>
+        <v>2.773292064666748</v>
       </c>
       <c r="D245" s="2">
-        <v>3.2040784358978272</v>
+        <v>3.2040784358978271</v>
       </c>
       <c r="E245" s="2">
-        <v>3.2012999057769775</v>
+        <v>3.200160026550293</v>
       </c>
     </row>
     <row r="246">
@@ -4254,13 +4254,13 @@
         <v>3.393355131149292</v>
       </c>
       <c r="C246" s="2">
-        <v>3.3145594596862793</v>
+        <v>3.3132121562957764</v>
       </c>
       <c r="D246" s="2">
         <v>3.1632518768310547</v>
       </c>
       <c r="E246" s="2">
-        <v>3.1556522846221924</v>
+        <v>3.1544744968414307</v>
       </c>
     </row>
     <row r="247">
@@ -4271,13 +4271,13 @@
         <v>3.2245914936065674</v>
       </c>
       <c r="C247" s="2">
-        <v>3.2599902153015137</v>
+        <v>3.2586207389831543</v>
       </c>
       <c r="D247" s="2">
         <v>3.1315021514892578</v>
       </c>
       <c r="E247" s="2">
-        <v>3.1052744388580322</v>
+        <v>3.1040449142456055</v>
       </c>
     </row>
     <row r="248">
@@ -4288,13 +4288,13 @@
         <v>2.8544595241546631</v>
       </c>
       <c r="C248" s="2">
-        <v>2.8750317096710205</v>
+        <v>2.8735346794128418</v>
       </c>
       <c r="D248" s="2">
         <v>3.192234992980957</v>
       </c>
       <c r="E248" s="2">
-        <v>3.1596522331237793</v>
+        <v>3.1582820415496826</v>
       </c>
     </row>
     <row r="249">
@@ -4302,16 +4302,16 @@
         <v>36008</v>
       </c>
       <c r="B249" s="2">
-        <v>2.8843305110931397</v>
+        <v>2.8843305110931396</v>
       </c>
       <c r="C249" s="2">
-        <v>2.7097151279449463</v>
+        <v>2.7093563079833984</v>
       </c>
       <c r="D249" s="2">
         <v>3.147158145904541</v>
       </c>
       <c r="E249" s="2">
-        <v>3.0940022468566895</v>
+        <v>3.0927028656005859</v>
       </c>
     </row>
     <row r="250">
@@ -4322,13 +4322,13 @@
         <v>3.4439294338226318</v>
       </c>
       <c r="C250" s="2">
-        <v>3.335899829864502</v>
+        <v>3.3345072269439697</v>
       </c>
       <c r="D250" s="2">
         <v>3.199044942855835</v>
       </c>
       <c r="E250" s="2">
-        <v>3.1377429962158203</v>
+        <v>3.1367290019989014</v>
       </c>
     </row>
     <row r="251">
@@ -4339,13 +4339,13 @@
         <v>3.0651891231536865</v>
       </c>
       <c r="C251" s="2">
-        <v>2.9078638553619385</v>
+        <v>2.9074053764343262</v>
       </c>
       <c r="D251" s="2">
         <v>3.1490232944488525</v>
       </c>
       <c r="E251" s="2">
-        <v>3.0804910659790039</v>
+        <v>3.0794861316680908</v>
       </c>
     </row>
     <row r="252">
@@ -4356,13 +4356,13 @@
         <v>3.6773538589477539</v>
       </c>
       <c r="C252" s="2">
-        <v>3.7521114349365234</v>
+        <v>3.7501850128173828</v>
       </c>
       <c r="D252" s="2">
         <v>3.1537802219390869</v>
       </c>
       <c r="E252" s="2">
-        <v>3.0675058364868164</v>
+        <v>3.0664265155792236</v>
       </c>
     </row>
     <row r="253">
@@ -4373,13 +4373,13 @@
         <v>3.0479822158813477</v>
       </c>
       <c r="C253" s="2">
-        <v>2.915125846862793</v>
+        <v>2.9142119884490967</v>
       </c>
       <c r="D253" s="2">
         <v>3.1576163768768311</v>
       </c>
       <c r="E253" s="2">
-        <v>3.0688767433166504</v>
+        <v>3.0678005218505859</v>
       </c>
     </row>
     <row r="254">
@@ -4390,13 +4390,13 @@
         <v>3.2002134323120117</v>
       </c>
       <c r="C254" s="2">
-        <v>3.1693894863128662</v>
+        <v>3.1695277690887451</v>
       </c>
       <c r="D254" s="2">
         <v>3.163780689239502</v>
       </c>
       <c r="E254" s="2">
-        <v>3.0741879940032959</v>
+        <v>3.0729124546051025</v>
       </c>
     </row>
     <row r="255">
@@ -4407,13 +4407,13 @@
         <v>2.943159818649292</v>
       </c>
       <c r="C255" s="2">
-        <v>2.7992928028106689</v>
+        <v>2.7980265617370605</v>
       </c>
       <c r="D255" s="2">
         <v>3.151989221572876</v>
       </c>
       <c r="E255" s="2">
-        <v>3.0841517448425293</v>
+        <v>3.0829567909240723</v>
       </c>
     </row>
     <row r="256">
@@ -4424,13 +4424,13 @@
         <v>3.2674050331115723</v>
       </c>
       <c r="C256" s="2">
-        <v>3.1431224346160889</v>
+        <v>3.1410837173461914</v>
       </c>
       <c r="D256" s="2">
-        <v>3.1423709392547608</v>
+        <v>3.1423709392547607</v>
       </c>
       <c r="E256" s="2">
-        <v>3.1024549007415771</v>
+        <v>3.1012041568756104</v>
       </c>
     </row>
     <row r="257">
@@ -4438,16 +4438,16 @@
         <v>36251</v>
       </c>
       <c r="B257" s="2">
-        <v>2.8889834880828858</v>
+        <v>2.8889834880828857</v>
       </c>
       <c r="C257" s="2">
-        <v>2.8873701095581055</v>
+        <v>2.8859016895294189</v>
       </c>
       <c r="D257" s="2">
         <v>3.084669828414917</v>
       </c>
       <c r="E257" s="2">
-        <v>3.035104513168335</v>
+        <v>3.0339374542236328</v>
       </c>
     </row>
     <row r="258">
@@ -4455,16 +4455,16 @@
         <v>36281</v>
       </c>
       <c r="B258" s="2">
-        <v>2.9398102760314942</v>
+        <v>2.9398102760314941</v>
       </c>
       <c r="C258" s="2">
-        <v>2.7575170993804932</v>
+        <v>2.7553632259368896</v>
       </c>
       <c r="D258" s="2">
         <v>3.1128582954406738</v>
       </c>
       <c r="E258" s="2">
-        <v>3.0627295970916748</v>
+        <v>3.0616121292114258</v>
       </c>
     </row>
     <row r="259">
@@ -4472,16 +4472,16 @@
         <v>36312</v>
       </c>
       <c r="B259" s="2">
-        <v>3.337805986404419</v>
+        <v>3.3378059864044189</v>
       </c>
       <c r="C259" s="2">
-        <v>3.4255731105804443</v>
+        <v>3.4249062538146973</v>
       </c>
       <c r="D259" s="2">
         <v>3.1047215461730957</v>
       </c>
       <c r="E259" s="2">
-        <v>2.9978580474853516</v>
+        <v>2.9967412948608398</v>
       </c>
     </row>
     <row r="260">
@@ -4492,13 +4492,13 @@
         <v>2.9786252975463867</v>
       </c>
       <c r="C260" s="2">
-        <v>3.0725913047790527</v>
+        <v>3.0716307163238525</v>
       </c>
       <c r="D260" s="2">
         <v>3.1624977588653564</v>
       </c>
       <c r="E260" s="2">
-        <v>3.0860989093780518</v>
+        <v>3.0849385261535645</v>
       </c>
     </row>
     <row r="261">
@@ -4506,16 +4506,16 @@
         <v>36373</v>
       </c>
       <c r="B261" s="2">
-        <v>3.1580421924591065</v>
+        <v>3.1580421924591064</v>
       </c>
       <c r="C261" s="2">
-        <v>3.1459581851959229</v>
+        <v>3.1447854042053223</v>
       </c>
       <c r="D261" s="2">
         <v>3.1564946174621582</v>
       </c>
       <c r="E261" s="2">
-        <v>3.084956169128418</v>
+        <v>3.0841789245605469</v>
       </c>
     </row>
     <row r="262">
@@ -4526,13 +4526,13 @@
         <v>3.3016800880432129</v>
       </c>
       <c r="C262" s="2">
-        <v>3.1637520790100098</v>
+        <v>3.1632838249206543</v>
       </c>
       <c r="D262" s="2">
         <v>3.2513048648834229</v>
       </c>
       <c r="E262" s="2">
-        <v>3.1750743389129639</v>
+        <v>3.1744043827056885</v>
       </c>
     </row>
     <row r="263">
@@ -4543,13 +4543,13 @@
         <v>3.1269807815551758</v>
       </c>
       <c r="C263" s="2">
-        <v>2.5855448246002197</v>
+        <v>2.5856907367706299</v>
       </c>
       <c r="D263" s="2">
         <v>3.3401598930358887</v>
       </c>
       <c r="E263" s="2">
-        <v>3.2739062309265137</v>
+        <v>3.2734634876251221</v>
       </c>
     </row>
     <row r="264">
@@ -4560,13 +4560,13 @@
         <v>3.4631462097167969</v>
       </c>
       <c r="C264" s="2">
-        <v>3.593461275100708</v>
+        <v>3.5918002128601074</v>
       </c>
       <c r="D264" s="2">
         <v>3.3486342430114746</v>
       </c>
       <c r="E264" s="2">
-        <v>3.266864538192749</v>
+        <v>3.266380786895752</v>
       </c>
     </row>
     <row r="265">
@@ -4577,13 +4577,13 @@
         <v>3.2133762836456299</v>
       </c>
       <c r="C265" s="2">
-        <v>3.1328380107879639</v>
+        <v>3.1342489719390869</v>
       </c>
       <c r="D265" s="2">
         <v>3.3644547462463379</v>
       </c>
       <c r="E265" s="2">
-        <v>3.2574191093444824</v>
+        <v>3.2566907405853271</v>
       </c>
     </row>
     <row r="266">
@@ -4594,13 +4594,13 @@
         <v>3.7422761917114258</v>
       </c>
       <c r="C266" s="2">
-        <v>3.6984322071075439</v>
+        <v>3.6979310512542725</v>
       </c>
       <c r="D266" s="2">
         <v>3.3512697219848633</v>
       </c>
       <c r="E266" s="2">
-        <v>3.2492883205413818</v>
+        <v>3.2486171722412109</v>
       </c>
     </row>
     <row r="267">
@@ -4611,13 +4611,13 @@
         <v>3.7395064830780029</v>
       </c>
       <c r="C267" s="2">
-        <v>3.6470043659210205</v>
+        <v>3.6468935012817383</v>
       </c>
       <c r="D267" s="2">
         <v>3.342789888381958</v>
       </c>
       <c r="E267" s="2">
-        <v>3.2517881393432617</v>
+        <v>3.2510261535644531</v>
       </c>
     </row>
     <row r="268">
@@ -4628,13 +4628,13 @@
         <v>3.4140751361846924</v>
       </c>
       <c r="C268" s="2">
-        <v>3.3621993064880371</v>
+        <v>3.3611633777618408</v>
       </c>
       <c r="D268" s="2">
         <v>3.3792126178741455</v>
       </c>
       <c r="E268" s="2">
-        <v>3.3558785915374756</v>
+        <v>3.3548791408538818</v>
       </c>
     </row>
     <row r="269">
@@ -4642,16 +4642,16 @@
         <v>36617</v>
       </c>
       <c r="B269" s="2">
-        <v>3.121009111404419</v>
+        <v>3.1210091114044189</v>
       </c>
       <c r="C269" s="2">
-        <v>2.9875822067260742</v>
+        <v>2.9844191074371338</v>
       </c>
       <c r="D269" s="2">
         <v>3.4116978645324707</v>
       </c>
       <c r="E269" s="2">
-        <v>3.3221900463104248</v>
+        <v>3.3213927745819092</v>
       </c>
     </row>
     <row r="270">
@@ -4662,13 +4662,13 @@
         <v>3.0393767356872559</v>
       </c>
       <c r="C270" s="2">
-        <v>3.0727798938751221</v>
+        <v>3.0721237659454346</v>
       </c>
       <c r="D270" s="2">
         <v>3.5137777328491211</v>
       </c>
       <c r="E270" s="2">
-        <v>3.4120140075683594</v>
+        <v>3.4112215042114258</v>
       </c>
     </row>
     <row r="271">
@@ -4679,13 +4679,13 @@
         <v>3.22536301612854</v>
       </c>
       <c r="C271" s="2">
-        <v>3.1862504482269287</v>
+        <v>3.1849656105041504</v>
       </c>
       <c r="D271" s="2">
         <v>3.5534012317657471</v>
       </c>
       <c r="E271" s="2">
-        <v>3.4409887790679932</v>
+        <v>3.4399516582489014</v>
       </c>
     </row>
     <row r="272">
@@ -4696,13 +4696,13 @@
         <v>3.454784631729126</v>
       </c>
       <c r="C272" s="2">
-        <v>3.5223586559295654</v>
+        <v>3.5203673839569092</v>
       </c>
       <c r="D272" s="2">
         <v>3.536442756652832</v>
       </c>
       <c r="E272" s="2">
-        <v>3.4472174644470215</v>
+        <v>3.446035623550415</v>
       </c>
     </row>
     <row r="273">
@@ -4713,13 +4713,13 @@
         <v>3.7555122375488281</v>
       </c>
       <c r="C273" s="2">
-        <v>3.2902653217315674</v>
+        <v>3.2904226779937744</v>
       </c>
       <c r="D273" s="2">
         <v>3.5827023983001709</v>
       </c>
       <c r="E273" s="2">
-        <v>3.473834753036499</v>
+        <v>3.4727950096130371</v>
       </c>
     </row>
     <row r="274">
@@ -4730,13 +4730,13 @@
         <v>4.1320962905883789</v>
       </c>
       <c r="C274" s="2">
-        <v>3.941253662109375</v>
+        <v>3.9427070617675781</v>
       </c>
       <c r="D274" s="2">
         <v>3.669377326965332</v>
       </c>
       <c r="E274" s="2">
-        <v>3.5773704051971436</v>
+        <v>3.5766665935516357</v>
       </c>
     </row>
     <row r="275">
@@ -4747,13 +4747,13 @@
         <v>4.0988874435424805</v>
       </c>
       <c r="C275" s="2">
-        <v>3.9592041969299316</v>
+        <v>3.95650315284729</v>
       </c>
       <c r="D275" s="2">
         <v>3.8051445484161377</v>
       </c>
       <c r="E275" s="2">
-        <v>3.7182512283325195</v>
+        <v>3.7176289558410645</v>
       </c>
     </row>
     <row r="276">
@@ -4764,13 +4764,13 @@
         <v>3.5868797302246094</v>
       </c>
       <c r="C276" s="2">
-        <v>3.7030642032623291</v>
+        <v>3.7016494274139404</v>
       </c>
       <c r="D276" s="2">
         <v>3.8741528987884521</v>
       </c>
       <c r="E276" s="2">
-        <v>3.7920725345611572</v>
+        <v>3.7917118072509766</v>
       </c>
     </row>
     <row r="277">
@@ -4781,13 +4781,13 @@
         <v>3.8304121494293213</v>
       </c>
       <c r="C277" s="2">
-        <v>3.601754903793335</v>
+        <v>3.6019976139068604</v>
       </c>
       <c r="D277" s="2">
         <v>3.9784433841705322</v>
       </c>
       <c r="E277" s="2">
-        <v>3.8763747215270996</v>
+        <v>3.8764309883117676</v>
       </c>
     </row>
     <row r="278">
@@ -4798,13 +4798,13 @@
         <v>3.9010844230651855</v>
       </c>
       <c r="C278" s="2">
-        <v>3.9194016456604004</v>
+        <v>3.9192624092102051</v>
       </c>
       <c r="D278" s="2">
         <v>4.0363903045654297</v>
       </c>
       <c r="E278" s="2">
-        <v>3.9938116073608398</v>
+        <v>3.9938154220581055</v>
       </c>
     </row>
     <row r="279">
@@ -4815,13 +4815,13 @@
         <v>4.2612814903259277</v>
       </c>
       <c r="C279" s="2">
-        <v>4.3407073020935059</v>
+        <v>4.3407859802246094</v>
       </c>
       <c r="D279" s="2">
         <v>4.0706839561462402</v>
       </c>
       <c r="E279" s="2">
-        <v>4.0010266304016113</v>
+        <v>4.0009794235229492</v>
       </c>
     </row>
     <row r="280">
@@ -4832,13 +4832,13 @@
         <v>3.8464369773864746</v>
       </c>
       <c r="C280" s="2">
-        <v>3.8506436347961426</v>
+        <v>3.8517112731933594</v>
       </c>
       <c r="D280" s="2">
         <v>4.0286593437194824</v>
       </c>
       <c r="E280" s="2">
-        <v>3.9586405754089356</v>
+        <v>3.9589126110076904</v>
       </c>
     </row>
     <row r="281">
@@ -4849,13 +4849,13 @@
         <v>4.393399715423584</v>
       </c>
       <c r="C281" s="2">
-        <v>4.2810773849487305</v>
+        <v>4.282839298248291</v>
       </c>
       <c r="D281" s="2">
         <v>4.0808019638061523</v>
       </c>
       <c r="E281" s="2">
-        <v>3.9976561069488525</v>
+        <v>3.9981367588043213</v>
       </c>
     </row>
     <row r="282">
@@ -4866,13 +4866,13 @@
         <v>4.2770347595214844</v>
       </c>
       <c r="C282" s="2">
-        <v>4.3471965789794922</v>
+        <v>4.3468823432922363</v>
       </c>
       <c r="D282" s="2">
         <v>4.1467533111572266</v>
       </c>
       <c r="E282" s="2">
-        <v>4.0599431991577148</v>
+        <v>4.0606112480163574</v>
       </c>
     </row>
     <row r="283">
@@ -4883,13 +4883,13 @@
         <v>4.4407405853271484</v>
       </c>
       <c r="C283" s="2">
-        <v>4.0061907768249512</v>
+        <v>4.0071821212768555</v>
       </c>
       <c r="D283" s="2">
-        <v>4.2746191024780274</v>
+        <v>4.2746191024780273</v>
       </c>
       <c r="E283" s="2">
-        <v>4.1570281982421875</v>
+        <v>4.1577029228210449</v>
       </c>
     </row>
     <row r="284">
@@ -4900,13 +4900,13 @@
         <v>3.7206640243530273</v>
       </c>
       <c r="C284" s="2">
-        <v>3.5777297019958496</v>
+        <v>3.5779023170471191</v>
       </c>
       <c r="D284" s="2">
         <v>4.3695507049560547</v>
       </c>
       <c r="E284" s="2">
-        <v>4.2501688003540039</v>
+        <v>4.2508754730224609</v>
       </c>
     </row>
     <row r="285">
@@ -4917,13 +4917,13 @@
         <v>4.0561628341674805</v>
       </c>
       <c r="C285" s="2">
-        <v>4.0542035102844238</v>
+        <v>4.0546679496765137</v>
       </c>
       <c r="D285" s="2">
         <v>4.5183582305908203</v>
       </c>
       <c r="E285" s="2">
-        <v>4.399958610534668</v>
+        <v>4.4005618095397949</v>
       </c>
     </row>
     <row r="286">
@@ -4934,13 +4934,13 @@
         <v>4.4239740371704102</v>
       </c>
       <c r="C286" s="2">
-        <v>4.1623373031616211</v>
+        <v>4.1642661094665527</v>
       </c>
       <c r="D286" s="2">
         <v>4.4677720069885254</v>
       </c>
       <c r="E286" s="2">
-        <v>4.3592572212219238</v>
+        <v>4.3597917556762695</v>
       </c>
     </row>
     <row r="287">
@@ -4951,13 +4951,13 @@
         <v>5.051877498626709</v>
       </c>
       <c r="C287" s="2">
-        <v>4.7931680679321289</v>
+        <v>4.793088436126709</v>
       </c>
       <c r="D287" s="2">
         <v>4.4230818748474121</v>
       </c>
       <c r="E287" s="2">
-        <v>4.3098049163818359</v>
+        <v>4.310063362121582</v>
       </c>
     </row>
     <row r="288">
@@ -4968,13 +4968,13 @@
         <v>5.1156654357910156</v>
       </c>
       <c r="C288" s="2">
-        <v>5.1789722442626953</v>
+        <v>5.1793403625488281</v>
       </c>
       <c r="D288" s="2">
         <v>4.3849377632141113</v>
       </c>
       <c r="E288" s="2">
-        <v>4.303764820098877</v>
+        <v>4.3036985397338867</v>
       </c>
     </row>
     <row r="289">
@@ -4982,16 +4982,16 @@
         <v>37226</v>
       </c>
       <c r="B289" s="2">
-        <v>5.1857056617736817</v>
+        <v>5.1857056617736816</v>
       </c>
       <c r="C289" s="2">
-        <v>5.198753833770752</v>
+        <v>5.1988883018493652</v>
       </c>
       <c r="D289" s="2">
         <v>4.3976068496704102</v>
       </c>
       <c r="E289" s="2">
-        <v>4.2738518714904785</v>
+        <v>4.2739267349243164</v>
       </c>
     </row>
     <row r="290">
@@ -5002,13 +5002,13 @@
         <v>3.9381241798400879</v>
       </c>
       <c r="C290" s="2">
-        <v>3.9147629737854004</v>
+        <v>3.9159097671508789</v>
       </c>
       <c r="D290" s="2">
         <v>4.3462710380554199</v>
       </c>
       <c r="E290" s="2">
-        <v>4.2079095840454102</v>
+        <v>4.2077445983886719</v>
       </c>
     </row>
     <row r="291">
@@ -5019,13 +5019,13 @@
         <v>3.8748221397399902</v>
       </c>
       <c r="C291" s="2">
-        <v>3.9021236896514893</v>
+        <v>3.8993241786956787</v>
       </c>
       <c r="D291" s="2">
         <v>4.2555227279663086</v>
       </c>
       <c r="E291" s="2">
-        <v>4.1278963088989258</v>
+        <v>4.127232551574707</v>
       </c>
     </row>
     <row r="292">
@@ -5036,13 +5036,13 @@
         <v>4.097442626953125</v>
       </c>
       <c r="C292" s="2">
-        <v>3.9518325328826904</v>
+        <v>3.9498996734619141</v>
       </c>
       <c r="D292" s="2">
         <v>4.1055941581726074</v>
       </c>
       <c r="E292" s="2">
-        <v>4.009770393371582</v>
+        <v>4.0090827941894531</v>
       </c>
     </row>
     <row r="293">
@@ -5053,13 +5053,13 @@
         <v>3.8346874713897705</v>
       </c>
       <c r="C293" s="2">
-        <v>3.3085136413574219</v>
+        <v>3.3099579811096191</v>
       </c>
       <c r="D293" s="2">
         <v>3.9219682216644287</v>
       </c>
       <c r="E293" s="2">
-        <v>3.8140981197357178</v>
+        <v>3.8134441375732422</v>
       </c>
     </row>
     <row r="294">
@@ -5070,13 +5070,13 @@
         <v>3.5941383838653564</v>
       </c>
       <c r="C294" s="2">
-        <v>3.4607226848602295</v>
+        <v>3.4590260982513428</v>
       </c>
       <c r="D294" s="2">
         <v>3.7633950710296631</v>
       </c>
       <c r="E294" s="2">
-        <v>3.6282289028167725</v>
+        <v>3.627701997756958</v>
       </c>
     </row>
     <row r="295">
@@ -5087,13 +5087,13 @@
         <v>3.6072416305541992</v>
       </c>
       <c r="C295" s="2">
-        <v>3.4422163963317871</v>
+        <v>3.4396588802337646</v>
       </c>
       <c r="D295" s="2">
         <v>3.7637808322906494</v>
       </c>
       <c r="E295" s="2">
-        <v>3.6266646385192871</v>
+        <v>3.6259617805480957</v>
       </c>
     </row>
     <row r="296">
@@ -5104,13 +5104,13 @@
         <v>3.7025206089019775</v>
       </c>
       <c r="C296" s="2">
-        <v>3.7300374507904053</v>
+        <v>3.7297394275665283</v>
       </c>
       <c r="D296" s="2">
         <v>3.7337501049041748</v>
       </c>
       <c r="E296" s="2">
-        <v>3.5713372230529785</v>
+        <v>3.5709376335144043</v>
       </c>
     </row>
     <row r="297">
@@ -5121,13 +5121,13 @@
         <v>3.4630312919616699</v>
       </c>
       <c r="C297" s="2">
-        <v>3.4179203510284424</v>
+        <v>3.4185919761657715</v>
       </c>
       <c r="D297" s="2">
         <v>3.7067553997039795</v>
       </c>
       <c r="E297" s="2">
-        <v>3.5633134841918945</v>
+        <v>3.5633764266967773</v>
       </c>
     </row>
     <row r="298">
@@ -5138,13 +5138,13 @@
         <v>3.7585482597351074</v>
       </c>
       <c r="C298" s="2">
-        <v>3.5259311199188232</v>
+        <v>3.5272095203399658</v>
       </c>
       <c r="D298" s="2">
         <v>3.6816940307617188</v>
       </c>
       <c r="E298" s="2">
-        <v>3.6064069271087647</v>
+        <v>3.6062631607055664</v>
       </c>
     </row>
     <row r="299">
@@ -5152,16 +5152,16 @@
         <v>37530</v>
       </c>
       <c r="B299" s="2">
-        <v>3.9415957927703858</v>
+        <v>3.9415957927703857</v>
       </c>
       <c r="C299" s="2">
-        <v>3.9006831645965576</v>
+        <v>3.9002482891082764</v>
       </c>
       <c r="D299" s="2">
         <v>3.7416007518768311</v>
       </c>
       <c r="E299" s="2">
-        <v>3.6898126602172852</v>
+        <v>3.6897509098052979</v>
       </c>
     </row>
     <row r="300">
@@ -5169,16 +5169,16 @@
         <v>37561</v>
       </c>
       <c r="B300" s="2">
-        <v>3.6045451164245606</v>
+        <v>3.6045451164245605</v>
       </c>
       <c r="C300" s="2">
-        <v>3.4041779041290283</v>
+        <v>3.4041070938110352</v>
       </c>
       <c r="D300" s="2">
         <v>3.7711029052734375</v>
       </c>
       <c r="E300" s="2">
-        <v>3.7317805290222168</v>
+        <v>3.7319700717926025</v>
       </c>
     </row>
     <row r="301">
@@ -5189,13 +5189,13 @@
         <v>3.8544893264770508</v>
       </c>
       <c r="C301" s="2">
-        <v>3.8796195983886719</v>
+        <v>3.8818480968475342</v>
       </c>
       <c r="D301" s="2">
         <v>3.8967525959014893</v>
       </c>
       <c r="E301" s="2">
-        <v>3.85526442527771</v>
+        <v>3.8553686141967773</v>
       </c>
     </row>
     <row r="302">
@@ -5206,13 +5206,13 @@
         <v>3.6091365814208984</v>
       </c>
       <c r="C302" s="2">
-        <v>3.6963536739349365</v>
+        <v>3.6959385871887207</v>
       </c>
       <c r="D302" s="2">
         <v>3.8768432140350342</v>
       </c>
       <c r="E302" s="2">
-        <v>3.8408615589141846</v>
+        <v>3.840939998626709</v>
       </c>
     </row>
     <row r="303">
@@ -5223,13 +5223,13 @@
         <v>4.1332988739013672</v>
       </c>
       <c r="C303" s="2">
-        <v>4.2113752365112305</v>
+        <v>4.2104172706604004</v>
       </c>
       <c r="D303" s="2">
         <v>3.8511974811553955</v>
       </c>
       <c r="E303" s="2">
-        <v>3.8392162322998047</v>
+        <v>3.839200496673584</v>
       </c>
     </row>
     <row r="304">
@@ -5240,13 +5240,13 @@
         <v>3.8727607727050781</v>
       </c>
       <c r="C304" s="2">
-        <v>3.8199269771575928</v>
+        <v>3.8196296691894531</v>
       </c>
       <c r="D304" s="2">
         <v>3.7936034202575684</v>
       </c>
       <c r="E304" s="2">
-        <v>3.7874264717102051</v>
+        <v>3.7874727249145508</v>
       </c>
     </row>
     <row r="305">
@@ -5257,13 +5257,13 @@
         <v>4.8333673477172852</v>
       </c>
       <c r="C305" s="2">
-        <v>4.8413910865783692</v>
+        <v>4.8403277397155762</v>
       </c>
       <c r="D305" s="2">
         <v>3.8048264980316162</v>
       </c>
       <c r="E305" s="2">
-        <v>3.8017487525939942</v>
+        <v>3.8016490936279297</v>
       </c>
     </row>
     <row r="306">
@@ -5274,13 +5274,13 @@
         <v>3.2838468551635742</v>
       </c>
       <c r="C306" s="2">
-        <v>3.2882950305938721</v>
+        <v>3.2887327671051025</v>
       </c>
       <c r="D306" s="2">
         <v>3.7963066101074219</v>
       </c>
       <c r="E306" s="2">
-        <v>3.7914931774139404</v>
+        <v>3.7912144660949707</v>
       </c>
     </row>
     <row r="307">
@@ -5291,13 +5291,13 @@
         <v>3.5277373790740967</v>
       </c>
       <c r="C307" s="2">
-        <v>3.5111229419708252</v>
+        <v>3.5115542411804199</v>
       </c>
       <c r="D307" s="2">
         <v>3.8119418621063232</v>
       </c>
       <c r="E307" s="2">
-        <v>3.7946927547454834</v>
+        <v>3.7943203449249268</v>
       </c>
     </row>
     <row r="308">
@@ -5308,13 +5308,13 @@
         <v>3.4232485294342041</v>
       </c>
       <c r="C308" s="2">
-        <v>3.4345760345458984</v>
+        <v>3.4347000122070312</v>
       </c>
       <c r="D308" s="2">
         <v>3.7372992038726807</v>
       </c>
       <c r="E308" s="2">
-        <v>3.706916332244873</v>
+        <v>3.7065885066986084</v>
       </c>
     </row>
     <row r="309">
@@ -5325,13 +5325,13 @@
         <v>3.7055525779724121</v>
       </c>
       <c r="C309" s="2">
-        <v>3.5330777168273926</v>
+        <v>3.5316934585571289</v>
       </c>
       <c r="D309" s="2">
         <v>3.6620819568634033</v>
       </c>
       <c r="E309" s="2">
-        <v>3.6225700378417969</v>
+        <v>3.6221866607666016</v>
       </c>
     </row>
     <row r="310">
@@ -5342,13 +5342,13 @@
         <v>3.7778110504150391</v>
       </c>
       <c r="C310" s="2">
-        <v>3.7873201370239258</v>
+        <v>3.7879359722137451</v>
       </c>
       <c r="D310" s="2">
-        <v>3.5311498641967774</v>
+        <v>3.5311498641967773</v>
       </c>
       <c r="E310" s="2">
-        <v>3.5024547576904297</v>
+        <v>3.5022063255310059</v>
       </c>
     </row>
     <row r="311">
@@ -5359,13 +5359,13 @@
         <v>3.7498531341552734</v>
       </c>
       <c r="C311" s="2">
-        <v>3.7251503467559814</v>
+        <v>3.7238914966583252</v>
       </c>
       <c r="D311" s="2">
         <v>3.5360217094421387</v>
       </c>
       <c r="E311" s="2">
-        <v>3.496023416519165</v>
+        <v>3.4955496788024902</v>
       </c>
     </row>
     <row r="312">
@@ -5376,13 +5376,13 @@
         <v>3.4615161418914795</v>
       </c>
       <c r="C312" s="2">
-        <v>3.4213862419128418</v>
+        <v>3.4208316802978516</v>
       </c>
       <c r="D312" s="2">
         <v>3.5479559898376465</v>
       </c>
       <c r="E312" s="2">
-        <v>3.4952397346496582</v>
+        <v>3.4948339462280273</v>
       </c>
     </row>
     <row r="313">
@@ -5393,13 +5393,13 @@
         <v>3.1958053112030029</v>
       </c>
       <c r="C313" s="2">
-        <v>3.0608105659484863</v>
+        <v>3.0600125789642334</v>
       </c>
       <c r="D313" s="2">
         <v>3.5787432193756104</v>
       </c>
       <c r="E313" s="2">
-        <v>3.5184004306793213</v>
+        <v>3.5181303024291992</v>
       </c>
     </row>
     <row r="314">
@@ -5410,13 +5410,13 @@
         <v>3.6549777984619141</v>
       </c>
       <c r="C314" s="2">
-        <v>3.7603545188903809</v>
+        <v>3.7605047225952148</v>
       </c>
       <c r="D314" s="2">
         <v>3.5610930919647217</v>
       </c>
       <c r="E314" s="2">
-        <v>3.5211741924285889</v>
+        <v>3.5209181308746338</v>
       </c>
     </row>
     <row r="315">
@@ -5427,13 +5427,13 @@
         <v>3.3276932239532471</v>
       </c>
       <c r="C315" s="2">
-        <v>3.2304131984710693</v>
+        <v>3.2288219928741455</v>
       </c>
       <c r="D315" s="2">
         <v>3.5440859794616699</v>
       </c>
       <c r="E315" s="2">
-        <v>3.4900381565093994</v>
+        <v>3.4896285533905029</v>
       </c>
     </row>
     <row r="316">
@@ -5444,13 +5444,13 @@
         <v>3.6351451873779297</v>
       </c>
       <c r="C316" s="2">
-        <v>3.5040695667266846</v>
+        <v>3.5051143169403076</v>
       </c>
       <c r="D316" s="2">
         <v>3.4792108535766602</v>
       </c>
       <c r="E316" s="2">
-        <v>3.4235498905181885</v>
+        <v>3.4232707023620605</v>
       </c>
     </row>
     <row r="317">
@@ -5461,13 +5461,13 @@
         <v>3.700333833694458</v>
       </c>
       <c r="C317" s="2">
-        <v>3.6430222988128662</v>
+        <v>3.6443660259246826</v>
       </c>
       <c r="D317" s="2">
         <v>3.4789412021636963</v>
       </c>
       <c r="E317" s="2">
-        <v>3.4118757247924805</v>
+        <v>3.4115679264068604</v>
       </c>
     </row>
     <row r="318">
@@ -5478,13 +5478,13 @@
         <v>3.5467014312744141</v>
       </c>
       <c r="C318" s="2">
-        <v>3.5580401420593262</v>
+        <v>3.5567836761474609</v>
       </c>
       <c r="D318" s="2">
         <v>3.472646951675415</v>
       </c>
       <c r="E318" s="2">
-        <v>3.39794921875</v>
+        <v>3.3977611064910889</v>
       </c>
     </row>
     <row r="319">
@@ -5495,13 +5495,13 @@
         <v>3.6247472763061523</v>
       </c>
       <c r="C319" s="2">
-        <v>3.5070960521697998</v>
+        <v>3.5063300132751465</v>
       </c>
       <c r="D319" s="2">
         <v>3.4430778026580811</v>
       </c>
       <c r="E319" s="2">
-        <v>3.3564107418060303</v>
+        <v>3.3561587333679199</v>
       </c>
     </row>
     <row r="320">
@@ -5512,13 +5512,13 @@
         <v>3.1659765243530273</v>
       </c>
       <c r="C320" s="2">
-        <v>3.1267554759979248</v>
+        <v>3.1266715526580811</v>
       </c>
       <c r="D320" s="2">
         <v>3.4279749393463135</v>
       </c>
       <c r="E320" s="2">
-        <v>3.3435003757476807</v>
+        <v>3.3433482646942139</v>
       </c>
     </row>
     <row r="321">
@@ -5529,13 +5529,13 @@
         <v>3.4590909481048584</v>
       </c>
       <c r="C321" s="2">
-        <v>3.3163206577301025</v>
+        <v>3.3155055046081543</v>
       </c>
       <c r="D321" s="2">
         <v>3.3937656879425049</v>
       </c>
       <c r="E321" s="2">
-        <v>3.3286542892456055</v>
+        <v>3.328202486038208</v>
       </c>
     </row>
     <row r="322">
@@ -5546,13 +5546,13 @@
         <v>3.1391561031341553</v>
       </c>
       <c r="C322" s="2">
-        <v>2.9354712963104248</v>
+        <v>2.9357514381408691</v>
       </c>
       <c r="D322" s="2">
         <v>3.3829224109649658</v>
       </c>
       <c r="E322" s="2">
-        <v>3.3033559322357178</v>
+        <v>3.3026425838470459</v>
       </c>
     </row>
     <row r="323">
@@ -5563,13 +5563,13 @@
         <v>3.38885498046875</v>
       </c>
       <c r="C323" s="2">
-        <v>3.3865077495574951</v>
+        <v>3.3860833644866943</v>
       </c>
       <c r="D323" s="2">
         <v>3.33188796043396</v>
       </c>
       <c r="E323" s="2">
-        <v>3.2530298233032227</v>
+        <v>3.252302885055542</v>
       </c>
     </row>
     <row r="324">
@@ -5580,13 +5580,13 @@
         <v>3.1917672157287598</v>
       </c>
       <c r="C324" s="2">
-        <v>3.1142203807830811</v>
+        <v>3.1135289669036865</v>
       </c>
       <c r="D324" s="2">
         <v>3.3056337833404541</v>
       </c>
       <c r="E324" s="2">
-        <v>3.2396383285522461</v>
+        <v>3.2389683723449707</v>
       </c>
     </row>
     <row r="325">
@@ -5597,13 +5597,13 @@
         <v>3.3272631168365479</v>
       </c>
       <c r="C325" s="2">
-        <v>3.3704550266265869</v>
+        <v>3.3688018321990967</v>
       </c>
       <c r="D325" s="2">
-        <v>3.3183209896087647</v>
+        <v>3.3183209896087646</v>
       </c>
       <c r="E325" s="2">
-        <v>3.2539408206939697</v>
+        <v>3.2531728744506836</v>
       </c>
     </row>
     <row r="326">
@@ -5614,13 +5614,13 @@
         <v>3.6027436256408691</v>
       </c>
       <c r="C326" s="2">
-        <v>3.4153375625610352</v>
+        <v>3.4143261909484863</v>
       </c>
       <c r="D326" s="2">
         <v>3.2918331623077393</v>
       </c>
       <c r="E326" s="2">
-        <v>3.2390635013580322</v>
+        <v>3.2383241653442383</v>
       </c>
     </row>
     <row r="327">
@@ -5631,13 +5631,13 @@
         <v>3.0873916149139404</v>
       </c>
       <c r="C327" s="2">
-        <v>3.1051051616668701</v>
+        <v>3.1037271022796631</v>
       </c>
       <c r="D327" s="2">
         <v>3.3317298889160156</v>
       </c>
       <c r="E327" s="2">
-        <v>3.3011147975921631</v>
+        <v>3.3003568649291992</v>
       </c>
     </row>
     <row r="328">
@@ -5648,13 +5648,13 @@
         <v>3.388460636138916</v>
       </c>
       <c r="C328" s="2">
-        <v>3.3865718841552734</v>
+        <v>3.3863198757171631</v>
       </c>
       <c r="D328" s="2">
         <v>3.3198268413543701</v>
       </c>
       <c r="E328" s="2">
-        <v>3.2760851383209229</v>
+        <v>3.2752585411071777</v>
       </c>
     </row>
     <row r="329">
@@ -5665,13 +5665,13 @@
         <v>3.2801611423492432</v>
       </c>
       <c r="C329" s="2">
-        <v>3.2554781436920166</v>
+        <v>3.2545108795166016</v>
       </c>
       <c r="D329" s="2">
         <v>3.3744840621948242</v>
       </c>
       <c r="E329" s="2">
-        <v>3.3303470611572266</v>
+        <v>3.3293647766113281</v>
       </c>
     </row>
     <row r="330">
@@ -5682,13 +5682,13 @@
         <v>3.2207002639770508</v>
       </c>
       <c r="C330" s="2">
-        <v>3.1824245452880859</v>
+        <v>3.1818675994873047</v>
       </c>
       <c r="D330" s="2">
         <v>3.5740458965301514</v>
       </c>
       <c r="E330" s="2">
-        <v>3.5137929916381836</v>
+        <v>3.5131230354309082</v>
       </c>
     </row>
     <row r="331">
@@ -5699,13 +5699,13 @@
         <v>3.4982259273529053</v>
       </c>
       <c r="C331" s="2">
-        <v>3.4939320087432861</v>
+        <v>3.4940469264984131</v>
       </c>
       <c r="D331" s="2">
         <v>3.730290412902832</v>
       </c>
       <c r="E331" s="2">
-        <v>3.6764595508575439</v>
+        <v>3.6757452487945557</v>
       </c>
     </row>
     <row r="332">
@@ -5716,13 +5716,13 @@
         <v>3.2817270755767822</v>
       </c>
       <c r="C332" s="2">
-        <v>3.1612415313720703</v>
+        <v>3.1601982116699219</v>
       </c>
       <c r="D332" s="2">
         <v>3.8870706558227539</v>
       </c>
       <c r="E332" s="2">
-        <v>3.8201324939727783</v>
+        <v>3.8195912837982178</v>
       </c>
     </row>
     <row r="333">
@@ -5733,13 +5733,13 @@
         <v>3.6836831569671631</v>
       </c>
       <c r="C333" s="2">
-        <v>3.6025769710540772</v>
+        <v>3.6004836559295654</v>
       </c>
       <c r="D333" s="2">
-        <v>4.0632085800170899</v>
+        <v>4.0632085800170898</v>
       </c>
       <c r="E333" s="2">
-        <v>3.9602870941162109</v>
+        <v>3.9598915576934814</v>
       </c>
     </row>
     <row r="334">
@@ -5750,13 +5750,13 @@
         <v>5.1233196258544922</v>
       </c>
       <c r="C334" s="2">
-        <v>5.0214691162109375</v>
+        <v>5.0226259231567383</v>
       </c>
       <c r="D334" s="2">
         <v>4.1666903495788574</v>
       </c>
       <c r="E334" s="2">
-        <v>4.0734596252441406</v>
+        <v>4.0730056762695312</v>
       </c>
     </row>
     <row r="335">
@@ -5767,13 +5767,13 @@
         <v>5.0089449882507324</v>
       </c>
       <c r="C335" s="2">
-        <v>4.8793363571166992</v>
+        <v>4.8779263496398926</v>
       </c>
       <c r="D335" s="2">
         <v>4.1722702980041504</v>
       </c>
       <c r="E335" s="2">
-        <v>4.0809698104858399</v>
+        <v>4.0803213119506836</v>
       </c>
     </row>
     <row r="336">
@@ -5784,13 +5784,13 @@
         <v>4.4984140396118164</v>
       </c>
       <c r="C336" s="2">
-        <v>4.3981609344482422</v>
+        <v>4.3983430862426758</v>
       </c>
       <c r="D336" s="2">
         <v>4.1823687553405762</v>
       </c>
       <c r="E336" s="2">
-        <v>4.0940713882446289</v>
+        <v>4.0934357643127441</v>
       </c>
     </row>
     <row r="337">
@@ -5801,13 +5801,13 @@
         <v>4.9737005233764648</v>
       </c>
       <c r="C337" s="2">
-        <v>4.6479640007019043</v>
+        <v>4.6490216255187988</v>
       </c>
       <c r="D337" s="2">
         <v>4.2772340774536133</v>
       </c>
       <c r="E337" s="2">
-        <v>4.2120552062988281</v>
+        <v>4.2114324569702148</v>
       </c>
     </row>
     <row r="338">
@@ -5818,13 +5818,13 @@
         <v>4.2114963531494141</v>
       </c>
       <c r="C338" s="2">
-        <v>4.2740316390991211</v>
+        <v>4.2725391387939453</v>
       </c>
       <c r="D338" s="2">
         <v>4.3286595344543457</v>
       </c>
       <c r="E338" s="2">
-        <v>4.2566189765930176</v>
+        <v>4.2562479972839355</v>
       </c>
     </row>
     <row r="339">
@@ -5835,13 +5835,13 @@
         <v>3.2709217071533203</v>
       </c>
       <c r="C339" s="2">
-        <v>3.2500150203704834</v>
+        <v>3.2477083206176758</v>
       </c>
       <c r="D339" s="2">
         <v>4.1281013488769531</v>
       </c>
       <c r="E339" s="2">
-        <v>4.0663304328918457</v>
+        <v>4.0657992362976074</v>
       </c>
     </row>
     <row r="340">
@@ -5852,13 +5852,13 @@
         <v>3.5891106128692627</v>
       </c>
       <c r="C340" s="2">
-        <v>3.6118466854095459</v>
+        <v>3.6120762825012207</v>
       </c>
       <c r="D340" s="2">
         <v>3.9429290294647217</v>
       </c>
       <c r="E340" s="2">
-        <v>3.8681771755218506</v>
+        <v>3.8678233623504639</v>
       </c>
     </row>
     <row r="341">
@@ -5869,13 +5869,13 @@
         <v>4.1355166435241699</v>
       </c>
       <c r="C341" s="2">
-        <v>4.2230954170227051</v>
+        <v>4.2221670150756836</v>
       </c>
       <c r="D341" s="2">
         <v>3.8944966793060303</v>
       </c>
       <c r="E341" s="2">
-        <v>3.833864688873291</v>
+        <v>3.8333768844604492</v>
       </c>
     </row>
     <row r="342">
@@ -5886,13 +5886,13 @@
         <v>4.1465115547180176</v>
       </c>
       <c r="C342" s="2">
-        <v>4.0036530494689941</v>
+        <v>4.0038261413574219</v>
       </c>
       <c r="D342" s="2">
         <v>3.7477116584777832</v>
       </c>
       <c r="E342" s="2">
-        <v>3.717585563659668</v>
+        <v>3.7168304920196533</v>
       </c>
     </row>
     <row r="343">
@@ -5903,13 +5903,13 @@
         <v>3.318295955657959</v>
       </c>
       <c r="C343" s="2">
-        <v>3.3088726997375488</v>
+        <v>3.3085832595825195</v>
       </c>
       <c r="D343" s="2">
         <v>3.6600584983825684</v>
       </c>
       <c r="E343" s="2">
-        <v>3.608043909072876</v>
+        <v>3.607609748840332</v>
       </c>
     </row>
     <row r="344">
@@ -5920,13 +5920,13 @@
         <v>3.3423929214477539</v>
       </c>
       <c r="C344" s="2">
-        <v>3.0959558486938477</v>
+        <v>3.0961458683013916</v>
       </c>
       <c r="D344" s="2">
-        <v>3.6862246990203858</v>
+        <v>3.6862246990203857</v>
       </c>
       <c r="E344" s="2">
-        <v>3.6310863494873047</v>
+        <v>3.6305801868438721</v>
       </c>
     </row>
     <row r="345">
@@ -5937,13 +5937,13 @@
         <v>4.0625247955322266</v>
       </c>
       <c r="C345" s="2">
-        <v>4.0893473625183105</v>
+        <v>4.0883240699768066</v>
       </c>
       <c r="D345" s="2">
         <v>3.6805758476257324</v>
       </c>
       <c r="E345" s="2">
-        <v>3.6210248470306396</v>
+        <v>3.6204149723052979</v>
       </c>
     </row>
     <row r="346">
@@ -5954,13 +5954,13 @@
         <v>3.6526343822479248</v>
       </c>
       <c r="C346" s="2">
-        <v>3.6014525890350342</v>
+        <v>3.6001033782958984</v>
       </c>
       <c r="D346" s="2">
         <v>3.6399054527282715</v>
       </c>
       <c r="E346" s="2">
-        <v>3.5690572261810303</v>
+        <v>3.5684480667114258</v>
       </c>
     </row>
     <row r="347">
@@ -5971,13 +5971,13 @@
         <v>3.4226171970367432</v>
       </c>
       <c r="C347" s="2">
-        <v>3.2881557941436768</v>
+        <v>3.2895524501800537</v>
       </c>
       <c r="D347" s="2">
         <v>3.5440464019775391</v>
       </c>
       <c r="E347" s="2">
-        <v>3.4783785343170166</v>
+        <v>3.477780818939209</v>
       </c>
     </row>
     <row r="348">
@@ -5988,13 +5988,13 @@
         <v>3.5064172744750977</v>
       </c>
       <c r="C348" s="2">
-        <v>3.4573967456817627</v>
+        <v>3.4544425010681152</v>
       </c>
       <c r="D348" s="2">
         <v>3.5252079963684082</v>
       </c>
       <c r="E348" s="2">
-        <v>3.4574260711669922</v>
+        <v>3.4568688869476318</v>
       </c>
     </row>
     <row r="349">
@@ -6005,13 +6005,13 @@
         <v>3.5382711887359619</v>
       </c>
       <c r="C349" s="2">
-        <v>3.5212934017181396</v>
+        <v>3.5205903053283691</v>
       </c>
       <c r="D349" s="2">
         <v>3.5586881637573242</v>
       </c>
       <c r="E349" s="2">
-        <v>3.5126273632049561</v>
+        <v>3.5119228363037109</v>
       </c>
     </row>
     <row r="350">
@@ -6022,13 +6022,13 @@
         <v>3.769484281539917</v>
       </c>
       <c r="C350" s="2">
-        <v>3.7553877830505371</v>
+        <v>3.7544639110565186</v>
       </c>
       <c r="D350" s="2">
         <v>3.5072808265686035</v>
       </c>
       <c r="E350" s="2">
-        <v>3.4443032741546631</v>
+        <v>3.4439513683319092</v>
       </c>
     </row>
     <row r="351">
@@ -6039,13 +6039,13 @@
         <v>3.2837791442871094</v>
       </c>
       <c r="C351" s="2">
-        <v>3.1875455379486084</v>
+        <v>3.1878206729888916</v>
       </c>
       <c r="D351" s="2">
         <v>3.4866721630096436</v>
       </c>
       <c r="E351" s="2">
-        <v>3.4112367630004883</v>
+        <v>3.4112424850463867</v>
       </c>
     </row>
     <row r="352">
@@ -6056,13 +6056,13 @@
         <v>3.1487517356872559</v>
       </c>
       <c r="C352" s="2">
-        <v>3.12030029296875</v>
+        <v>3.1203758716583252</v>
       </c>
       <c r="D352" s="2">
         <v>3.5454921722412109</v>
       </c>
       <c r="E352" s="2">
-        <v>3.4815826416015625</v>
+        <v>3.4813015460968018</v>
       </c>
     </row>
     <row r="353">
@@ -6073,13 +6073,13 @@
         <v>3.6437129974365234</v>
       </c>
       <c r="C353" s="2">
-        <v>3.5927658081054688</v>
+        <v>3.5916321277618408</v>
       </c>
       <c r="D353" s="2">
         <v>3.6694416999816895</v>
       </c>
       <c r="E353" s="2">
-        <v>3.5715324878692627</v>
+        <v>3.5717954635620117</v>
       </c>
     </row>
     <row r="354">
@@ -6090,13 +6090,13 @@
         <v>3.5998599529266357</v>
       </c>
       <c r="C354" s="2">
-        <v>3.4744305610656738</v>
+        <v>3.476581335067749</v>
       </c>
       <c r="D354" s="2">
         <v>3.7164912223815918</v>
       </c>
       <c r="E354" s="2">
-        <v>3.6299796104431152</v>
+        <v>3.6300539970397949</v>
       </c>
     </row>
     <row r="355">
@@ -6107,13 +6107,13 @@
         <v>3.4671556949615479</v>
       </c>
       <c r="C355" s="2">
-        <v>3.3038539886474609</v>
+        <v>3.3057231903076172</v>
       </c>
       <c r="D355" s="2">
         <v>3.7044999599456787</v>
       </c>
       <c r="E355" s="2">
-        <v>3.6149051189422607</v>
+        <v>3.6151630878448486</v>
       </c>
     </row>
     <row r="356">
@@ -6124,13 +6124,13 @@
         <v>3.9519977569580078</v>
       </c>
       <c r="C356" s="2">
-        <v>3.9212701320648193</v>
+        <v>3.9200847148895264</v>
       </c>
       <c r="D356" s="2">
         <v>3.8225727081298828</v>
       </c>
       <c r="E356" s="2">
-        <v>3.7358777523040772</v>
+        <v>3.7361102104187012</v>
       </c>
     </row>
     <row r="357">
@@ -6141,13 +6141,13 @@
         <v>4.6219635009765625</v>
       </c>
       <c r="C357" s="2">
-        <v>4.2669444084167481</v>
+        <v>4.2688860893249512</v>
       </c>
       <c r="D357" s="2">
         <v>4.0059103965759277</v>
       </c>
       <c r="E357" s="2">
-        <v>3.9189653396606445</v>
+        <v>3.9192647933959961</v>
       </c>
     </row>
     <row r="358">
@@ -6158,13 +6158,13 @@
         <v>3.9617159366607666</v>
       </c>
       <c r="C358" s="2">
-        <v>4.0473179817199707</v>
+        <v>4.0449190139770508</v>
       </c>
       <c r="D358" s="2">
         <v>4.0175023078918457</v>
       </c>
       <c r="E358" s="2">
-        <v>3.9478023052215576</v>
+        <v>3.9482159614562988</v>
       </c>
     </row>
     <row r="359">
@@ -6175,13 +6175,13 @@
         <v>3.661562442779541</v>
       </c>
       <c r="C359" s="2">
-        <v>3.6197183132171631</v>
+        <v>3.620445728302002</v>
       </c>
       <c r="D359" s="2">
         <v>4.0629725456237793</v>
       </c>
       <c r="E359" s="2">
-        <v>4.0161757469177246</v>
+        <v>4.0161662101745605</v>
       </c>
     </row>
     <row r="360">
@@ -6192,13 +6192,13 @@
         <v>4.3464341163635254</v>
       </c>
       <c r="C360" s="2">
-        <v>4.2762975692749024</v>
+        <v>4.276343822479248</v>
       </c>
       <c r="D360" s="2">
         <v>4.1381683349609375</v>
       </c>
       <c r="E360" s="2">
-        <v>4.1223783493041992</v>
+        <v>4.1218671798706055</v>
       </c>
     </row>
     <row r="361">
@@ -6209,13 +6209,13 @@
         <v>4.7987914085388184</v>
       </c>
       <c r="C361" s="2">
-        <v>4.7680888175964356</v>
+        <v>4.7687673568725586</v>
       </c>
       <c r="D361" s="2">
         <v>4.3013873100280762</v>
       </c>
       <c r="E361" s="2">
-        <v>4.2697138786315918</v>
+        <v>4.2691874504089355</v>
       </c>
     </row>
     <row r="362">
@@ -6226,13 +6226,13 @@
         <v>3.7480406761169434</v>
       </c>
       <c r="C362" s="2">
-        <v>3.8522994518280029</v>
+        <v>3.8521919250488281</v>
       </c>
       <c r="D362" s="2">
         <v>4.3249030113220215</v>
       </c>
       <c r="E362" s="2">
-        <v>4.3087048530578613</v>
+        <v>4.3080735206604004</v>
       </c>
     </row>
     <row r="363">
@@ -6243,13 +6243,13 @@
         <v>4.0090928077697754</v>
       </c>
       <c r="C363" s="2">
-        <v>4.0897912979125977</v>
+        <v>4.0881352424621582</v>
       </c>
       <c r="D363" s="2">
         <v>4.5165724754333496</v>
       </c>
       <c r="E363" s="2">
-        <v>4.4634103775024414</v>
+        <v>4.4633097648620605</v>
       </c>
     </row>
     <row r="364">
@@ -6260,13 +6260,13 @@
         <v>4.1439151763916016</v>
       </c>
       <c r="C364" s="2">
-        <v>4.2596783638000488</v>
+        <v>4.2570314407348633</v>
       </c>
       <c r="D364" s="2">
         <v>4.6799225807189941</v>
       </c>
       <c r="E364" s="2">
-        <v>4.6100554466247559</v>
+        <v>4.6100358963012695</v>
       </c>
     </row>
     <row r="365">
@@ -6277,13 +6277,13 @@
         <v>5.4209690093994141</v>
       </c>
       <c r="C365" s="2">
-        <v>5.2472896575927734</v>
+        <v>5.245964527130127</v>
       </c>
       <c r="D365" s="2">
         <v>4.7414731979370117</v>
       </c>
       <c r="E365" s="2">
-        <v>4.6717367172241211</v>
+        <v>4.6717734336853027</v>
       </c>
     </row>
     <row r="366">
@@ -6294,13 +6294,13 @@
         <v>4.8336038589477539</v>
       </c>
       <c r="C366" s="2">
-        <v>4.617861270904541</v>
+        <v>4.618863582611084</v>
       </c>
       <c r="D366" s="2">
         <v>4.7578773498535156</v>
       </c>
       <c r="E366" s="2">
-        <v>4.6960048675537109</v>
+        <v>4.6959371566772461</v>
       </c>
     </row>
     <row r="367">
@@ -6311,13 +6311,13 @@
         <v>5.6867408752441406</v>
       </c>
       <c r="C367" s="2">
-        <v>5.4396672248840332</v>
+        <v>5.442042350769043</v>
       </c>
       <c r="D367" s="2">
         <v>4.9875340461730957</v>
       </c>
       <c r="E367" s="2">
-        <v>4.9182357788085938</v>
+        <v>4.917933464050293</v>
       </c>
     </row>
     <row r="368">
@@ -6328,13 +6328,13 @@
         <v>5.1317143440246582</v>
       </c>
       <c r="C368" s="2">
-        <v>4.9395236968994141</v>
+        <v>4.9409828186035156</v>
       </c>
       <c r="D368" s="2">
         <v>5.2222738265991211</v>
       </c>
       <c r="E368" s="2">
-        <v>5.1502876281738281</v>
+        <v>5.1502370834350586</v>
       </c>
     </row>
     <row r="369">
@@ -6345,13 +6345,13 @@
         <v>4.9003920555114746</v>
       </c>
       <c r="C369" s="2">
-        <v>4.8314328193664551</v>
+        <v>4.8319797515869141</v>
       </c>
       <c r="D369" s="2">
         <v>5.4702773094177246</v>
       </c>
       <c r="E369" s="2">
-        <v>5.3770017623901367</v>
+        <v>5.3774051666259766</v>
       </c>
     </row>
     <row r="370">
@@ -6362,13 +6362,13 @@
         <v>4.9464282989501953</v>
       </c>
       <c r="C370" s="2">
-        <v>4.9865002632141113</v>
+        <v>4.9862432479858398</v>
       </c>
       <c r="D370" s="2">
         <v>5.603147029876709</v>
       </c>
       <c r="E370" s="2">
-        <v>5.5182938575744629</v>
+        <v>5.5187115669250488</v>
       </c>
     </row>
     <row r="371">
@@ -6379,13 +6379,13 @@
         <v>5.8149518966674805</v>
       </c>
       <c r="C371" s="2">
-        <v>5.8523778915405274</v>
+        <v>5.8501601219177246</v>
       </c>
       <c r="D371" s="2">
         <v>5.8102240562438965</v>
       </c>
       <c r="E371" s="2">
-        <v>5.7481184005737305</v>
+        <v>5.7486824989318848</v>
       </c>
     </row>
     <row r="372">
@@ -6396,13 +6396,13 @@
         <v>6.1217489242553711</v>
       </c>
       <c r="C372" s="2">
-        <v>6.1782593727111817</v>
+        <v>6.1788644790649414</v>
       </c>
       <c r="D372" s="2">
         <v>5.8662552833557129</v>
       </c>
       <c r="E372" s="2">
-        <v>5.8269758224487305</v>
+        <v>5.8272666931152344</v>
       </c>
     </row>
     <row r="373">
@@ -6413,13 +6413,13 @@
         <v>6.375946044921875</v>
       </c>
       <c r="C373" s="2">
-        <v>6.3001046180725098</v>
+        <v>6.301544189453125</v>
       </c>
       <c r="D373" s="2">
-        <v>5.9241394996643067</v>
+        <v>5.9241394996643066</v>
       </c>
       <c r="E373" s="2">
-        <v>5.9002366065979004</v>
+        <v>5.9004983901977539</v>
       </c>
     </row>
     <row r="374">
@@ -6430,13 +6430,13 @@
         <v>6.6167960166931152</v>
       </c>
       <c r="C374" s="2">
-        <v>6.5189175605773926</v>
+        <v>6.5177249908447266</v>
       </c>
       <c r="D374" s="2">
         <v>6.0169620513916016</v>
       </c>
       <c r="E374" s="2">
-        <v>5.9970889091491699</v>
+        <v>5.9974608421325684</v>
       </c>
     </row>
     <row r="375">
@@ -6447,13 +6447,13 @@
         <v>6.6972966194152832</v>
       </c>
       <c r="C375" s="2">
-        <v>6.6862831115722656</v>
+        <v>6.6885991096496582</v>
       </c>
       <c r="D375" s="2">
         <v>6.0849957466125488</v>
       </c>
       <c r="E375" s="2">
-        <v>6.0632510185241699</v>
+        <v>6.0633730888366699</v>
       </c>
     </row>
     <row r="376">
@@ -6464,13 +6464,13 @@
         <v>6.1910228729248047</v>
       </c>
       <c r="C376" s="2">
-        <v>6.1493816375732422</v>
+        <v>6.1493010520935059</v>
       </c>
       <c r="D376" s="2">
         <v>6.0511994361877441</v>
       </c>
       <c r="E376" s="2">
-        <v>6.0232748985290527</v>
+        <v>6.0236406326293945</v>
       </c>
     </row>
     <row r="377">
@@ -6481,13 +6481,13 @@
         <v>5.6526718139648438</v>
       </c>
       <c r="C377" s="2">
-        <v>5.5988740921020508</v>
+        <v>5.600069522857666</v>
       </c>
       <c r="D377" s="2">
         <v>5.9160447120666504</v>
       </c>
       <c r="E377" s="2">
-        <v>5.8992242813110352</v>
+        <v>5.8994874954223633</v>
       </c>
     </row>
     <row r="378">
@@ -6498,13 +6498,13 @@
         <v>5.7357945442199707</v>
       </c>
       <c r="C378" s="2">
-        <v>5.7031021118164063</v>
+        <v>5.7046413421630859</v>
       </c>
       <c r="D378" s="2">
         <v>5.734926700592041</v>
       </c>
       <c r="E378" s="2">
-        <v>5.7307777404785156</v>
+        <v>5.7308540344238281</v>
       </c>
     </row>
     <row r="379">
@@ -6515,13 +6515,13 @@
         <v>5.5587348937988281</v>
       </c>
       <c r="C379" s="2">
-        <v>5.5819602012634277</v>
+        <v>5.5794515609741211</v>
       </c>
       <c r="D379" s="2">
         <v>5.4862046241760254</v>
       </c>
       <c r="E379" s="2">
-        <v>5.485680103302002</v>
+        <v>5.4859094619750977</v>
       </c>
     </row>
     <row r="380">
@@ -6532,13 +6532,13 @@
         <v>5.5107827186584473</v>
       </c>
       <c r="C380" s="2">
-        <v>5.4925894737243652</v>
+        <v>5.4925684928894043</v>
       </c>
       <c r="D380" s="2">
         <v>5.2940917015075684</v>
       </c>
       <c r="E380" s="2">
-        <v>5.2893581390380859</v>
+        <v>5.2894287109375</v>
       </c>
     </row>
     <row r="381">
@@ -6549,13 +6549,13 @@
         <v>4.9053564071655273</v>
       </c>
       <c r="C381" s="2">
-        <v>5.0618057250976563</v>
+        <v>5.0614852905273438</v>
       </c>
       <c r="D381" s="2">
         <v>5.0460348129272461</v>
       </c>
       <c r="E381" s="2">
-        <v>5.0575313568115234</v>
+        <v>5.0575380325317383</v>
       </c>
     </row>
     <row r="382">
@@ -6566,13 +6566,13 @@
         <v>4.7458853721618652</v>
       </c>
       <c r="C382" s="2">
-        <v>4.7840862274169922</v>
+        <v>4.7838430404663086</v>
       </c>
       <c r="D382" s="2">
         <v>5.0062055587768555</v>
       </c>
       <c r="E382" s="2">
-        <v>5.0208935737609863</v>
+        <v>5.0206537246704102</v>
       </c>
     </row>
     <row r="383">
@@ -6583,13 +6583,13 @@
         <v>4.378298282623291</v>
       </c>
       <c r="C383" s="2">
-        <v>4.3130369186401367</v>
+        <v>4.313227653503418</v>
       </c>
       <c r="D383" s="2">
         <v>4.8587741851806641</v>
       </c>
       <c r="E383" s="2">
-        <v>4.862755298614502</v>
+        <v>4.8624320030212402</v>
       </c>
     </row>
     <row r="384">
@@ -6600,13 +6600,13 @@
         <v>4.9682765007019043</v>
       </c>
       <c r="C384" s="2">
-        <v>4.9193878173828125</v>
+        <v>4.9202709197998047</v>
       </c>
       <c r="D384" s="2">
         <v>4.7014479637145996</v>
       </c>
       <c r="E384" s="2">
-        <v>4.689692497253418</v>
+        <v>4.6894869804382324</v>
       </c>
     </row>
     <row r="385">
@@ -6617,13 +6617,13 @@
         <v>3.9585111141204834</v>
       </c>
       <c r="C385" s="2">
-        <v>4.0629405975341797</v>
+        <v>4.0622854232788086</v>
       </c>
       <c r="D385" s="2">
         <v>4.5931224822998047</v>
       </c>
       <c r="E385" s="2">
-        <v>4.5964322090148926</v>
+        <v>4.5961651802062988</v>
       </c>
     </row>
     <row r="386">
@@ -6634,13 +6634,13 @@
         <v>5.2942104339599609</v>
       </c>
       <c r="C386" s="2">
-        <v>5.269134521484375</v>
+        <v>5.2681078910827637</v>
       </c>
       <c r="D386" s="2">
         <v>4.5202045440673828</v>
       </c>
       <c r="E386" s="2">
-        <v>4.5070881843566895</v>
+        <v>4.5069713592529297</v>
       </c>
     </row>
     <row r="387">
@@ -6648,16 +6648,16 @@
         <v>40210</v>
       </c>
       <c r="B387" s="2">
-        <v>4.4089126586914063</v>
+        <v>4.4089126586914062</v>
       </c>
       <c r="C387" s="2">
-        <v>4.2798566818237305</v>
+        <v>4.2806491851806641</v>
       </c>
       <c r="D387" s="2">
         <v>4.4593081474304199</v>
       </c>
       <c r="E387" s="2">
-        <v>4.4295334815979004</v>
+        <v>4.4294290542602539</v>
       </c>
     </row>
     <row r="388">
@@ -6668,13 +6668,13 @@
         <v>4.142796516418457</v>
       </c>
       <c r="C388" s="2">
-        <v>4.0243954658508301</v>
+        <v>4.0229454040527344</v>
       </c>
       <c r="D388" s="2">
         <v>4.4173460006713867</v>
       </c>
       <c r="E388" s="2">
-        <v>4.3677616119384766</v>
+        <v>4.3676261901855469</v>
       </c>
     </row>
     <row r="389">
@@ -6685,13 +6685,13 @@
         <v>4.5358529090881348</v>
       </c>
       <c r="C389" s="2">
-        <v>4.6532459259033203</v>
+        <v>4.6526718139648438</v>
       </c>
       <c r="D389" s="2">
         <v>4.3634805679321289</v>
       </c>
       <c r="E389" s="2">
-        <v>4.3155322074890137</v>
+        <v>4.3153219223022461</v>
       </c>
     </row>
     <row r="390">
@@ -6702,13 +6702,13 @@
         <v>4.2490954399108887</v>
       </c>
       <c r="C390" s="2">
-        <v>4.2577099800109863</v>
+        <v>4.2587394714355469</v>
       </c>
       <c r="D390" s="2">
         <v>4.4213542938232422</v>
       </c>
       <c r="E390" s="2">
-        <v>4.360508918762207</v>
+        <v>4.3604955673217773</v>
       </c>
     </row>
     <row r="391">
@@ -6719,13 +6719,13 @@
         <v>4.1978187561035156</v>
       </c>
       <c r="C391" s="2">
-        <v>4.086094856262207</v>
+        <v>4.085963249206543</v>
       </c>
       <c r="D391" s="2">
         <v>4.2956666946411133</v>
       </c>
       <c r="E391" s="2">
-        <v>4.2397150993347168</v>
+        <v>4.2397303581237793</v>
       </c>
     </row>
     <row r="392">
@@ -6736,13 +6736,13 @@
         <v>4.0006413459777832</v>
       </c>
       <c r="C392" s="2">
-        <v>3.7570908069610596</v>
+        <v>3.7570037841796875</v>
       </c>
       <c r="D392" s="2">
         <v>4.2608504295349121</v>
       </c>
       <c r="E392" s="2">
-        <v>4.1937484741210938</v>
+        <v>4.1939682960510254</v>
       </c>
     </row>
     <row r="393">
@@ -6753,13 +6753,13 @@
         <v>4.4834861755371094</v>
       </c>
       <c r="C393" s="2">
-        <v>4.4493207931518555</v>
+        <v>4.4495320320129395</v>
       </c>
       <c r="D393" s="2">
         <v>4.3273444175720215</v>
       </c>
       <c r="E393" s="2">
-        <v>4.2535357475280762</v>
+        <v>4.2542228698730469</v>
       </c>
     </row>
     <row r="394">
@@ -6770,13 +6770,13 @@
         <v>4.4793758392333984</v>
       </c>
       <c r="C394" s="2">
-        <v>4.4677324295043945</v>
+        <v>4.4688453674316406</v>
       </c>
       <c r="D394" s="2">
         <v>4.3267126083374023</v>
       </c>
       <c r="E394" s="2">
-        <v>4.2224245071411133</v>
+        <v>4.2230501174926758</v>
       </c>
     </row>
     <row r="395">
@@ -6787,13 +6787,13 @@
         <v>4.1630220413208008</v>
       </c>
       <c r="C395" s="2">
-        <v>4.1819896697998047</v>
+        <v>4.1812229156494141</v>
       </c>
       <c r="D395" s="2">
         <v>4.3108134269714355</v>
       </c>
       <c r="E395" s="2">
-        <v>4.1922998428344727</v>
+        <v>4.1928720474243164</v>
       </c>
     </row>
     <row r="396">
@@ -6804,13 +6804,13 @@
         <v>4.0955667495727539</v>
       </c>
       <c r="C396" s="2">
-        <v>3.8661544322967529</v>
+        <v>3.8687901496887207</v>
       </c>
       <c r="D396" s="2">
         <v>4.3164701461791992</v>
       </c>
       <c r="E396" s="2">
-        <v>4.185579776763916</v>
+        <v>4.1860260963439941</v>
       </c>
     </row>
     <row r="397">
@@ -6821,13 +6821,13 @@
         <v>4.7412385940551758</v>
       </c>
       <c r="C397" s="2">
-        <v>4.5624842643737793</v>
+        <v>4.5652370452880859</v>
       </c>
       <c r="D397" s="2">
         <v>4.3604536056518555</v>
       </c>
       <c r="E397" s="2">
-        <v>4.2529826164245606</v>
+        <v>4.2535233497619629</v>
       </c>
     </row>
     <row r="398">
@@ -6838,13 +6838,13 @@
         <v>4.5301675796508789</v>
       </c>
       <c r="C398" s="2">
-        <v>4.3732428550720215</v>
+        <v>4.3721184730529785</v>
       </c>
       <c r="D398" s="2">
         <v>4.3411579132080078</v>
       </c>
       <c r="E398" s="2">
-        <v>4.2370872497558594</v>
+        <v>4.237480640411377</v>
       </c>
     </row>
     <row r="399">
@@ -6855,13 +6855,13 @@
         <v>4.1060023307800293</v>
       </c>
       <c r="C399" s="2">
-        <v>3.9865884780883789</v>
+        <v>3.9871342182159424</v>
       </c>
       <c r="D399" s="2">
         <v>4.3359031677246094</v>
       </c>
       <c r="E399" s="2">
-        <v>4.2155194282531738</v>
+        <v>4.2159037590026855</v>
       </c>
     </row>
     <row r="400">
@@ -6872,13 +6872,13 @@
         <v>4.2487320899963379</v>
       </c>
       <c r="C400" s="2">
-        <v>4.0256147384643555</v>
+        <v>4.0243501663208008</v>
       </c>
       <c r="D400" s="2">
         <v>4.3771729469299316</v>
       </c>
       <c r="E400" s="2">
-        <v>4.2613539695739746</v>
+        <v>4.2616806030273438</v>
       </c>
     </row>
     <row r="401">
@@ -6889,13 +6889,13 @@
         <v>4.3964905738830566</v>
       </c>
       <c r="C401" s="2">
-        <v>4.3637142181396484</v>
+        <v>4.364478588104248</v>
       </c>
       <c r="D401" s="2">
-        <v>4.4121470451354981</v>
+        <v>4.412147045135498</v>
       </c>
       <c r="E401" s="2">
-        <v>4.3028106689453125</v>
+        <v>4.3029704093933105</v>
       </c>
     </row>
     <row r="402">
@@ -6906,13 +6906,13 @@
         <v>4.3098263740539551</v>
       </c>
       <c r="C402" s="2">
-        <v>4.3062629699707031</v>
+        <v>4.305147647857666</v>
       </c>
       <c r="D402" s="2">
         <v>4.3665757179260254</v>
       </c>
       <c r="E402" s="2">
-        <v>4.269716739654541</v>
+        <v>4.2694091796875</v>
       </c>
     </row>
     <row r="403">
@@ -6923,13 +6923,13 @@
         <v>4.4320836067199707</v>
       </c>
       <c r="C403" s="2">
-        <v>4.2736220359802246</v>
+        <v>4.2746562957763672</v>
       </c>
       <c r="D403" s="2">
         <v>4.3413434028625488</v>
       </c>
       <c r="E403" s="2">
-        <v>4.2525544166564941</v>
+        <v>4.2524890899658203</v>
       </c>
     </row>
     <row r="404">
@@ -6940,13 +6940,13 @@
         <v>4.5344467163085938</v>
       </c>
       <c r="C404" s="2">
-        <v>4.5945029258728027</v>
+        <v>4.5932116508483887</v>
       </c>
       <c r="D404" s="2">
         <v>4.2883005142211914</v>
       </c>
       <c r="E404" s="2">
-        <v>4.2190656661987305</v>
+        <v>4.2189116477966309</v>
       </c>
     </row>
     <row r="405">
@@ -6957,13 +6957,13 @@
         <v>4.4103355407714844</v>
       </c>
       <c r="C405" s="2">
-        <v>4.239264965057373</v>
+        <v>4.2403984069824219</v>
       </c>
       <c r="D405" s="2">
         <v>4.278923511505127</v>
       </c>
       <c r="E405" s="2">
-        <v>4.2128310203552246</v>
+        <v>4.2127289772033691</v>
       </c>
     </row>
     <row r="406">
@@ -6974,13 +6974,13 @@
         <v>4.3310976028442383</v>
       </c>
       <c r="C406" s="2">
-        <v>4.2646389007568359</v>
+        <v>4.263185977935791</v>
       </c>
       <c r="D406" s="2">
         <v>4.2046651840209961</v>
       </c>
       <c r="E406" s="2">
-        <v>4.1226110458374023</v>
+        <v>4.122370719909668</v>
       </c>
     </row>
     <row r="407">
@@ -6991,13 +6991,13 @@
         <v>4.3030738830566406</v>
       </c>
       <c r="C407" s="2">
-        <v>4.2187790870666504</v>
+        <v>4.2198395729064941</v>
       </c>
       <c r="D407" s="2">
         <v>4.1821503639221191</v>
       </c>
       <c r="E407" s="2">
-        <v>4.0726504325866699</v>
+        <v>4.0722713470458984</v>
       </c>
     </row>
     <row r="408">
@@ -7008,13 +7008,13 @@
         <v>3.6286160945892334</v>
       </c>
       <c r="C408" s="2">
-        <v>3.6851913928985596</v>
+        <v>3.6849355697631836</v>
       </c>
       <c r="D408" s="2">
         <v>4.1902179718017578</v>
       </c>
       <c r="E408" s="2">
-        <v>4.0865044593811035</v>
+        <v>4.0859336853027344</v>
       </c>
     </row>
     <row r="409">
@@ -7025,13 +7025,13 @@
         <v>4.1643404960632324</v>
       </c>
       <c r="C409" s="2">
-        <v>3.9695034027099609</v>
+        <v>3.9687075614929199</v>
       </c>
       <c r="D409" s="2">
         <v>4.124579906463623</v>
       </c>
       <c r="E409" s="2">
-        <v>4.0174827575683594</v>
+        <v>4.0169677734375</v>
       </c>
     </row>
     <row r="410">
@@ -7042,13 +7042,13 @@
         <v>3.7281684875488281</v>
       </c>
       <c r="C410" s="2">
-        <v>3.5517332553863525</v>
+        <v>3.5512516498565674</v>
       </c>
       <c r="D410" s="2">
         <v>4.0719895362854004</v>
       </c>
       <c r="E410" s="2">
-        <v>3.9771404266357422</v>
+        <v>3.9765274524688721</v>
       </c>
     </row>
     <row r="411">
@@ -7059,13 +7059,13 @@
         <v>4.1071896553039551</v>
       </c>
       <c r="C411" s="2">
-        <v>3.856619119644165</v>
+        <v>3.8542561531066895</v>
       </c>
       <c r="D411" s="2">
         <v>4.0649623870849609</v>
       </c>
       <c r="E411" s="2">
-        <v>3.9660892486572266</v>
+        <v>3.9659554958343506</v>
       </c>
     </row>
     <row r="412">
@@ -7076,13 +7076,13 @@
         <v>4.5046954154968262</v>
       </c>
       <c r="C412" s="2">
-        <v>4.398308277130127</v>
+        <v>4.3976154327392578</v>
       </c>
       <c r="D412" s="2">
         <v>4.0494828224182129</v>
       </c>
       <c r="E412" s="2">
-        <v>3.9520325660705567</v>
+        <v>3.9518704414367676</v>
       </c>
     </row>
     <row r="413">
@@ -7093,13 +7093,13 @@
         <v>3.9437003135681152</v>
       </c>
       <c r="C413" s="2">
-        <v>3.9733045101165772</v>
+        <v>3.9725193977355957</v>
       </c>
       <c r="D413" s="2">
         <v>4.1114287376403809</v>
       </c>
       <c r="E413" s="2">
-        <v>4.0047283172607422</v>
+        <v>4.0046372413635254</v>
       </c>
     </row>
     <row r="414">
@@ -7110,13 +7110,13 @@
         <v>3.9370238780975342</v>
       </c>
       <c r="C414" s="2">
-        <v>3.8761858940124512</v>
+        <v>3.8764364719390869</v>
       </c>
       <c r="D414" s="2">
         <v>4.1388192176818848</v>
       </c>
       <c r="E414" s="2">
-        <v>4.052513599395752</v>
+        <v>4.0525269508361816</v>
       </c>
     </row>
     <row r="415">
@@ -7127,13 +7127,13 @@
         <v>4.2678513526916504</v>
       </c>
       <c r="C415" s="2">
-        <v>4.1651792526245117</v>
+        <v>4.1680374145507812</v>
       </c>
       <c r="D415" s="2">
         <v>4.1454658508300781</v>
       </c>
       <c r="E415" s="2">
-        <v>4.0772795677185059</v>
+        <v>4.0774121284484863</v>
       </c>
     </row>
     <row r="416">
@@ -7144,13 +7144,13 @@
         <v>4.1637606620788574</v>
       </c>
       <c r="C416" s="2">
-        <v>4.0922684669494629</v>
+        <v>4.093073844909668</v>
       </c>
       <c r="D416" s="2">
         <v>4.1783709526062012</v>
       </c>
       <c r="E416" s="2">
-        <v>4.1421442031860352</v>
+        <v>4.1424098014831543</v>
       </c>
     </row>
     <row r="417">
@@ -7161,13 +7161,13 @@
         <v>4.1861276626586914</v>
       </c>
       <c r="C417" s="2">
-        <v>4.1594505310058594</v>
+        <v>4.1598367691040039</v>
       </c>
       <c r="D417" s="2">
         <v>4.1868424415588379</v>
       </c>
       <c r="E417" s="2">
-        <v>4.1643342971801758</v>
+        <v>4.1646575927734375</v>
       </c>
     </row>
     <row r="418">
@@ -7178,13 +7178,13 @@
         <v>4.4108562469482422</v>
       </c>
       <c r="C418" s="2">
-        <v>4.3995738029479981</v>
+        <v>4.3997135162353516</v>
       </c>
       <c r="D418" s="2">
         <v>4.1842365264892578</v>
       </c>
       <c r="E418" s="2">
-        <v>4.1532249450683594</v>
+        <v>4.1536383628845215</v>
       </c>
     </row>
     <row r="419">
@@ -7195,13 +7195,13 @@
         <v>3.7879889011383057</v>
       </c>
       <c r="C419" s="2">
-        <v>3.7746274471282959</v>
+        <v>3.7752196788787842</v>
       </c>
       <c r="D419" s="2">
         <v>4.2660789489746094</v>
       </c>
       <c r="E419" s="2">
-        <v>4.2396178245544434</v>
+        <v>4.2400102615356445</v>
       </c>
     </row>
     <row r="420">
@@ -7212,13 +7212,13 @@
         <v>4.4033350944519043</v>
       </c>
       <c r="C420" s="2">
-        <v>4.4404010772705078</v>
+        <v>4.4392337799072266</v>
       </c>
       <c r="D420" s="2">
         <v>4.1830687522888184</v>
       </c>
       <c r="E420" s="2">
-        <v>4.1827583312988281</v>
+        <v>4.1825375556945801</v>
       </c>
     </row>
     <row r="421">
@@ -7229,13 +7229,13 @@
         <v>4.5809383392333984</v>
       </c>
       <c r="C421" s="2">
-        <v>4.5980181694030762</v>
+        <v>4.5978469848632812</v>
       </c>
       <c r="D421" s="2">
         <v>4.1754117012023926</v>
       </c>
       <c r="E421" s="2">
-        <v>4.1809153556823731</v>
+        <v>4.1804904937744141</v>
       </c>
     </row>
     <row r="422">
@@ -7246,13 +7246,13 @@
         <v>3.9202456474304199</v>
       </c>
       <c r="C422" s="2">
-        <v>3.8733198642730713</v>
+        <v>3.8733487129211426</v>
       </c>
       <c r="D422" s="2">
         <v>4.1906309127807617</v>
       </c>
       <c r="E422" s="2">
-        <v>4.1893229484558106</v>
+        <v>4.1887893676757812</v>
       </c>
     </row>
     <row r="423">
@@ -7260,16 +7260,16 @@
         <v>41306</v>
       </c>
       <c r="B423" s="2">
-        <v>4.6736054420471192</v>
+        <v>4.6736054420471191</v>
       </c>
       <c r="C423" s="2">
-        <v>4.6537213325500488</v>
+        <v>4.6537809371948242</v>
       </c>
       <c r="D423" s="2">
         <v>4.1023178100585938</v>
       </c>
       <c r="E423" s="2">
-        <v>4.0989699363708496</v>
+        <v>4.0982747077941895</v>
       </c>
     </row>
     <row r="424">
@@ -7280,13 +7280,13 @@
         <v>3.5207626819610596</v>
       </c>
       <c r="C424" s="2">
-        <v>3.6534438133239746</v>
+        <v>3.650782585144043</v>
       </c>
       <c r="D424" s="2">
-        <v>4.0845861434936524</v>
+        <v>4.0845861434936523</v>
       </c>
       <c r="E424" s="2">
-        <v>4.0560908317565918</v>
+        <v>4.0553369522094727</v>
       </c>
     </row>
     <row r="425">
@@ -7297,13 +7297,13 @@
         <v>4.0948443412780762</v>
       </c>
       <c r="C425" s="2">
-        <v>4.0756807327270508</v>
+        <v>4.0746536254882812</v>
       </c>
       <c r="D425" s="2">
         <v>4.0781993865966797</v>
       </c>
       <c r="E425" s="2">
-        <v>4.0347509384155273</v>
+        <v>4.0341835021972656</v>
       </c>
     </row>
     <row r="426">
@@ -7314,13 +7314,13 @@
         <v>4.3231015205383301</v>
       </c>
       <c r="C426" s="2">
-        <v>4.2351222038269043</v>
+        <v>4.234525203704834</v>
       </c>
       <c r="D426" s="2">
         <v>3.9869227409362793</v>
       </c>
       <c r="E426" s="2">
-        <v>3.9151420593261719</v>
+        <v>3.9145462512969971</v>
       </c>
     </row>
     <row r="427">
@@ -7331,13 +7331,13 @@
         <v>3.6160387992858887</v>
       </c>
       <c r="C427" s="2">
-        <v>3.5863955020904541</v>
+        <v>3.5850796699523926</v>
       </c>
       <c r="D427" s="2">
         <v>3.9508092403411865</v>
       </c>
       <c r="E427" s="2">
-        <v>3.8810207843780518</v>
+        <v>3.8804638385772705</v>
       </c>
     </row>
     <row r="428">
@@ -7348,13 +7348,13 @@
         <v>3.6284034252166748</v>
       </c>
       <c r="C428" s="2">
-        <v>3.3887157440185547</v>
+        <v>3.3887820243835449</v>
       </c>
       <c r="D428" s="2">
-        <v>3.8596417903900147</v>
+        <v>3.8596417903900146</v>
       </c>
       <c r="E428" s="2">
-        <v>3.7986488342285156</v>
+        <v>3.7979207038879395</v>
       </c>
     </row>
     <row r="429">
@@ -7365,13 +7365,13 @@
         <v>4.3458542823791504</v>
       </c>
       <c r="C429" s="2">
-        <v>4.2483415603637695</v>
+        <v>4.2488536834716797</v>
       </c>
       <c r="D429" s="2">
         <v>3.8999776840209961</v>
       </c>
       <c r="E429" s="2">
-        <v>3.8088946342468262</v>
+        <v>3.8085241317749023</v>
       </c>
     </row>
     <row r="430">
@@ -7382,13 +7382,13 @@
         <v>3.7594485282897949</v>
       </c>
       <c r="C430" s="2">
-        <v>3.5215370655059814</v>
+        <v>3.5211091041564941</v>
       </c>
       <c r="D430" s="2">
         <v>3.8746161460876465</v>
       </c>
       <c r="E430" s="2">
-        <v>3.7809751033782959</v>
+        <v>3.780752420425415</v>
       </c>
     </row>
     <row r="431">
@@ -7399,13 +7399,13 @@
         <v>3.5952250957489014</v>
       </c>
       <c r="C431" s="2">
-        <v>3.5662286281585693</v>
+        <v>3.5666067600250244</v>
       </c>
       <c r="D431" s="2">
         <v>3.8206756114959717</v>
       </c>
       <c r="E431" s="2">
-        <v>3.7173032760620117</v>
+        <v>3.7172038555145264</v>
       </c>
     </row>
     <row r="432">
@@ -7416,13 +7416,13 @@
         <v>3.8530969619750977</v>
       </c>
       <c r="C432" s="2">
-        <v>3.9123737812042236</v>
+        <v>3.910893440246582</v>
       </c>
       <c r="D432" s="2">
         <v>3.8644287586212158</v>
       </c>
       <c r="E432" s="2">
-        <v>3.7620170116424561</v>
+        <v>3.7621052265167236</v>
       </c>
     </row>
     <row r="433">
@@ -7433,13 +7433,13 @@
         <v>3.8837859630584717</v>
       </c>
       <c r="C433" s="2">
-        <v>3.7456564903259277</v>
+        <v>3.7462141513824463</v>
       </c>
       <c r="D433" s="2">
         <v>3.8501389026641846</v>
       </c>
       <c r="E433" s="2">
-        <v>3.7574193477630615</v>
+        <v>3.7576627731323242</v>
       </c>
     </row>
     <row r="434">
@@ -7450,13 +7450,13 @@
         <v>3.8665909767150879</v>
       </c>
       <c r="C434" s="2">
-        <v>3.8244040012359619</v>
+        <v>3.8247077465057373</v>
       </c>
       <c r="D434" s="2">
         <v>3.7994756698608398</v>
       </c>
       <c r="E434" s="2">
-        <v>3.7139866352081299</v>
+        <v>3.7143135070800781</v>
       </c>
     </row>
     <row r="435">
@@ -7467,13 +7467,13 @@
         <v>3.8376364707946777</v>
       </c>
       <c r="C435" s="2">
-        <v>3.6620759963989258</v>
+        <v>3.662588357925415</v>
       </c>
       <c r="D435" s="2">
         <v>3.731520414352417</v>
       </c>
       <c r="E435" s="2">
-        <v>3.6750900745391846</v>
+        <v>3.6751315593719482</v>
       </c>
     </row>
     <row r="436">
@@ -7484,13 +7484,13 @@
         <v>4.0098171234130859</v>
       </c>
       <c r="C436" s="2">
-        <v>3.9888198375701904</v>
+        <v>3.9891910552978516</v>
       </c>
       <c r="D436" s="2">
         <v>3.6961855888366699</v>
       </c>
       <c r="E436" s="2">
-        <v>3.6396946907043457</v>
+        <v>3.6396200656890869</v>
       </c>
     </row>
     <row r="437">
@@ -7498,16 +7498,16 @@
         <v>41730</v>
       </c>
       <c r="B437" s="2">
-        <v>3.4997940063476563</v>
+        <v>3.4997940063476562</v>
       </c>
       <c r="C437" s="2">
-        <v>3.3473372459411621</v>
+        <v>3.3488011360168457</v>
       </c>
       <c r="D437" s="2">
-        <v>3.6769936084747315</v>
+        <v>3.6769936084747314</v>
       </c>
       <c r="E437" s="2">
-        <v>3.6082761287689209</v>
+        <v>3.6081399917602539</v>
       </c>
     </row>
     <row r="438">
@@ -7518,13 +7518,13 @@
         <v>3.889885425567627</v>
       </c>
       <c r="C438" s="2">
-        <v>3.8574464321136475</v>
+        <v>3.8587105274200439</v>
       </c>
       <c r="D438" s="2">
         <v>3.6050310134887695</v>
       </c>
       <c r="E438" s="2">
-        <v>3.5397484302520752</v>
+        <v>3.5395829677581787</v>
       </c>
     </row>
     <row r="439">
@@ -7535,13 +7535,13 @@
         <v>3.1478512287139893</v>
       </c>
       <c r="C439" s="2">
-        <v>3.17146897315979</v>
+        <v>3.1684706211090088</v>
       </c>
       <c r="D439" s="2">
         <v>3.5499520301818848</v>
       </c>
       <c r="E439" s="2">
-        <v>3.5064537525177002</v>
+        <v>3.5060508251190186</v>
       </c>
     </row>
     <row r="440">
@@ -7552,13 +7552,13 @@
         <v>3.2772116661071777</v>
       </c>
       <c r="C440" s="2">
-        <v>3.2476704120635986</v>
+        <v>3.2470033168792725</v>
       </c>
       <c r="D440" s="2">
         <v>3.5421032905578613</v>
       </c>
       <c r="E440" s="2">
-        <v>3.5087289810180664</v>
+        <v>3.5081913471221924</v>
       </c>
     </row>
     <row r="441">
@@ -7569,13 +7569,13 @@
         <v>3.6803703308105469</v>
       </c>
       <c r="C441" s="2">
-        <v>3.629605770111084</v>
+        <v>3.6275737285614014</v>
       </c>
       <c r="D441" s="2">
         <v>3.4593536853790283</v>
       </c>
       <c r="E441" s="2">
-        <v>3.4228558540344238</v>
+        <v>3.4220499992370605</v>
       </c>
     </row>
     <row r="442">
@@ -7586,13 +7586,13 @@
         <v>3.236121654510498</v>
       </c>
       <c r="C442" s="2">
-        <v>3.1289072036743164</v>
+        <v>3.1292004585266113</v>
       </c>
       <c r="D442" s="2">
         <v>3.4865090847015381</v>
       </c>
       <c r="E442" s="2">
-        <v>3.4764094352722168</v>
+        <v>3.475161075592041</v>
       </c>
     </row>
     <row r="443">
@@ -7603,13 +7603,13 @@
         <v>3.3708798885345459</v>
       </c>
       <c r="C443" s="2">
-        <v>3.5247514247894287</v>
+        <v>3.5229177474975586</v>
       </c>
       <c r="D443" s="2">
         <v>3.4650111198425293</v>
       </c>
       <c r="E443" s="2">
-        <v>3.448652982711792</v>
+        <v>3.4471189975738525</v>
       </c>
     </row>
     <row r="444">
@@ -7620,13 +7620,13 @@
         <v>3.7669975757598877</v>
       </c>
       <c r="C444" s="2">
-        <v>3.6825542449951172</v>
+        <v>3.6818540096282959</v>
       </c>
       <c r="D444" s="2">
         <v>3.4761631488800049</v>
       </c>
       <c r="E444" s="2">
-        <v>3.4499533176422119</v>
+        <v>3.448664665222168</v>
       </c>
     </row>
     <row r="445">
@@ -7637,13 +7637,13 @@
         <v>3.2650706768035889</v>
       </c>
       <c r="C445" s="2">
-        <v>3.215961217880249</v>
+        <v>3.2139182090759277</v>
       </c>
       <c r="D445" s="2">
         <v>3.4726383686065674</v>
       </c>
       <c r="E445" s="2">
-        <v>3.4517586231231689</v>
+        <v>3.4503426551818848</v>
       </c>
     </row>
     <row r="446">
@@ -7654,13 +7654,13 @@
         <v>3.7441933155059814</v>
       </c>
       <c r="C446" s="2">
-        <v>3.8293192386627197</v>
+        <v>3.826801061630249</v>
       </c>
       <c r="D446" s="2">
         <v>3.4007117748260498</v>
       </c>
       <c r="E446" s="2">
-        <v>3.3786435127258301</v>
+        <v>3.3772597312927246</v>
       </c>
     </row>
     <row r="447">
@@ -7671,13 +7671,13 @@
         <v>3.6964037418365479</v>
       </c>
       <c r="C447" s="2">
-        <v>3.6076390743255615</v>
+        <v>3.6063327789306641</v>
       </c>
       <c r="D447" s="2">
         <v>3.4382469654083252</v>
       </c>
       <c r="E447" s="2">
-        <v>3.41524338722229</v>
+        <v>3.4137780666351318</v>
       </c>
     </row>
     <row r="448">
@@ -7688,13 +7688,13 @@
         <v>3.2482204437255859</v>
       </c>
       <c r="C448" s="2">
-        <v>3.1831722259521484</v>
+        <v>3.182380199432373</v>
       </c>
       <c r="D448" s="2">
         <v>3.5121443271636963</v>
       </c>
       <c r="E448" s="2">
-        <v>3.4601571559906006</v>
+        <v>3.4586572647094727</v>
       </c>
     </row>
     <row r="449">
@@ -7705,13 +7705,13 @@
         <v>3.2454879283905029</v>
       </c>
       <c r="C449" s="2">
-        <v>3.2639179229736328</v>
+        <v>3.2621059417724609</v>
       </c>
       <c r="D449" s="2">
         <v>3.4961528778076172</v>
       </c>
       <c r="E449" s="2">
-        <v>3.4464941024780274</v>
+        <v>3.4449632167816162</v>
       </c>
     </row>
     <row r="450">
@@ -7722,13 +7722,13 @@
         <v>3.0330300331115723</v>
       </c>
       <c r="C450" s="2">
-        <v>2.9715700149536133</v>
+        <v>2.9698269367218018</v>
       </c>
       <c r="D450" s="2">
         <v>3.5135207176208496</v>
       </c>
       <c r="E450" s="2">
-        <v>3.4617414474487305</v>
+        <v>3.460214376449585</v>
       </c>
     </row>
     <row r="451">
@@ -7739,13 +7739,13 @@
         <v>3.5739383697509766</v>
       </c>
       <c r="C451" s="2">
-        <v>3.4583053588867188</v>
+        <v>3.4578647613525391</v>
       </c>
       <c r="D451" s="2">
         <v>3.5166964530944824</v>
       </c>
       <c r="E451" s="2">
-        <v>3.4561522006988525</v>
+        <v>3.4549238681793213</v>
       </c>
     </row>
     <row r="452">
@@ -7756,13 +7756,13 @@
         <v>4.0359559059143066</v>
       </c>
       <c r="C452" s="2">
-        <v>3.9289758205413818</v>
+        <v>3.9268324375152588</v>
       </c>
       <c r="D452" s="2">
         <v>3.4785239696502686</v>
       </c>
       <c r="E452" s="2">
-        <v>3.4224188327789307</v>
+        <v>3.42116379737854</v>
       </c>
     </row>
     <row r="453">
@@ -7773,13 +7773,13 @@
         <v>3.6230745315551758</v>
       </c>
       <c r="C453" s="2">
-        <v>3.5595858097076416</v>
+        <v>3.5586073398590088</v>
       </c>
       <c r="D453" s="2">
         <v>3.5176351070404053</v>
       </c>
       <c r="E453" s="2">
-        <v>3.4737715721130371</v>
+        <v>3.4725208282470703</v>
       </c>
     </row>
     <row r="454">
@@ -7790,13 +7790,13 @@
         <v>3.4213821887969971</v>
       </c>
       <c r="C454" s="2">
-        <v>3.3531877994537354</v>
+        <v>3.3511788845062256</v>
       </c>
       <c r="D454" s="2">
         <v>3.58199143409729</v>
       </c>
       <c r="E454" s="2">
-        <v>3.5146269798278809</v>
+        <v>3.5136175155639648</v>
       </c>
     </row>
     <row r="455">
@@ -7807,13 +7807,13 @@
         <v>3.7727756500244141</v>
       </c>
       <c r="C455" s="2">
-        <v>3.7790155410766602</v>
+        <v>3.7791855335235596</v>
       </c>
       <c r="D455" s="2">
         <v>3.6315968036651611</v>
       </c>
       <c r="E455" s="2">
-        <v>3.5595040321350098</v>
+        <v>3.5583655834197998</v>
       </c>
     </row>
     <row r="456">
@@ -7824,13 +7824,13 @@
         <v>3.3528516292572021</v>
       </c>
       <c r="C456" s="2">
-        <v>3.3040382862091065</v>
+        <v>3.3024916648864746</v>
       </c>
       <c r="D456" s="2">
         <v>3.5888140201568604</v>
       </c>
       <c r="E456" s="2">
-        <v>3.5148856639862061</v>
+        <v>3.5138046741485596</v>
       </c>
     </row>
     <row r="457">
@@ -7841,13 +7841,13 @@
         <v>3.6002190113067627</v>
       </c>
       <c r="C457" s="2">
-        <v>3.6453478336334229</v>
+        <v>3.6445934772491455</v>
       </c>
       <c r="D457" s="2">
         <v>3.5377955436706543</v>
       </c>
       <c r="E457" s="2">
-        <v>3.4791290760040283</v>
+        <v>3.4780395030975342</v>
       </c>
     </row>
     <row r="458">
@@ -7858,13 +7858,13 @@
         <v>3.8246951103210449</v>
       </c>
       <c r="C458" s="2">
-        <v>3.6316158771514893</v>
+        <v>3.6319773197174072</v>
       </c>
       <c r="D458" s="2">
         <v>3.5175139904022217</v>
       </c>
       <c r="E458" s="2">
-        <v>3.4671967029571533</v>
+        <v>3.4660944938659668</v>
       </c>
     </row>
     <row r="459">
@@ -7875,13 +7875,13 @@
         <v>3.4794793128967285</v>
       </c>
       <c r="C459" s="2">
-        <v>3.3754644393920898</v>
+        <v>3.3725588321685791</v>
       </c>
       <c r="D459" s="2">
         <v>3.4716658592224121</v>
       </c>
       <c r="E459" s="2">
-        <v>3.4226903915405274</v>
+        <v>3.4218580722808838</v>
       </c>
     </row>
     <row r="460">
@@ -7892,13 +7892,13 @@
         <v>3.1888933181762695</v>
       </c>
       <c r="C460" s="2">
-        <v>3.0567388534545899</v>
+        <v>3.0568168163299561</v>
       </c>
       <c r="D460" s="2">
         <v>3.4218933582305908</v>
       </c>
       <c r="E460" s="2">
-        <v>3.3595273494720459</v>
+        <v>3.3585710525512695</v>
       </c>
     </row>
     <row r="461">
@@ -7906,16 +7906,16 @@
         <v>42461</v>
       </c>
       <c r="B461" s="2">
-        <v>3.5767889022827149</v>
+        <v>3.5767889022827148</v>
       </c>
       <c r="C461" s="2">
-        <v>3.6071679592132568</v>
+        <v>3.6049466133117676</v>
       </c>
       <c r="D461" s="2">
         <v>3.4345381259918213</v>
       </c>
       <c r="E461" s="2">
-        <v>3.3721864223480225</v>
+        <v>3.3714034557342529</v>
       </c>
     </row>
     <row r="462">
@@ -7926,13 +7926,13 @@
         <v>3.4405417442321777</v>
       </c>
       <c r="C462" s="2">
-        <v>3.4521944522857666</v>
+        <v>3.451101541519165</v>
       </c>
       <c r="D462" s="2">
         <v>3.3863358497619629</v>
       </c>
       <c r="E462" s="2">
-        <v>3.3099355697631836</v>
+        <v>3.3090169429779053</v>
       </c>
     </row>
     <row r="463">
@@ -7943,13 +7943,13 @@
         <v>3.0087485313415527</v>
       </c>
       <c r="C463" s="2">
-        <v>2.9526293277740479</v>
+        <v>2.9530506134033203</v>
       </c>
       <c r="D463" s="2">
         <v>3.3187849521636963</v>
       </c>
       <c r="E463" s="2">
-        <v>3.2626724243164063</v>
+        <v>3.2617793083190918</v>
       </c>
     </row>
     <row r="464">
@@ -7960,13 +7960,13 @@
         <v>3.3248226642608643</v>
       </c>
       <c r="C464" s="2">
-        <v>3.2105484008789063</v>
+        <v>3.2096035480499268</v>
       </c>
       <c r="D464" s="2">
-        <v>3.291632890701294</v>
+        <v>3.2916328907012939</v>
       </c>
       <c r="E464" s="2">
-        <v>3.2476952075958252</v>
+        <v>3.2469377517700195</v>
       </c>
     </row>
     <row r="465">
@@ -7977,13 +7977,13 @@
         <v>3.4666545391082764</v>
       </c>
       <c r="C465" s="2">
-        <v>3.4179708957672119</v>
+        <v>3.4179816246032715</v>
       </c>
       <c r="D465" s="2">
         <v>3.3108029365539551</v>
       </c>
       <c r="E465" s="2">
-        <v>3.2741127014160156</v>
+        <v>3.2732374668121338</v>
       </c>
     </row>
     <row r="466">
@@ -7994,13 +7994,13 @@
         <v>3.1663978099822998</v>
       </c>
       <c r="C466" s="2">
-        <v>3.0850889682769775</v>
+        <v>3.0831151008605957</v>
       </c>
       <c r="D466" s="2">
         <v>3.2702279090881348</v>
       </c>
       <c r="E466" s="2">
-        <v>3.2343943119049072</v>
+        <v>3.2336750030517578</v>
       </c>
     </row>
     <row r="467">
@@ -8011,13 +8011,13 @@
         <v>3.2167372703552246</v>
       </c>
       <c r="C467" s="2">
-        <v>3.2062475681304932</v>
+        <v>3.2068397998809814</v>
       </c>
       <c r="D467" s="2">
         <v>3.2822127342224121</v>
       </c>
       <c r="E467" s="2">
-        <v>3.2462427616119385</v>
+        <v>3.2454187870025635</v>
       </c>
     </row>
     <row r="468">
@@ -8028,13 +8028,13 @@
         <v>3.2351109981536865</v>
       </c>
       <c r="C468" s="2">
-        <v>3.2406694889068604</v>
+        <v>3.2389848232269287</v>
       </c>
       <c r="D468" s="2">
         <v>3.3174350261688232</v>
       </c>
       <c r="E468" s="2">
-        <v>3.2722470760345459</v>
+        <v>3.2711021900177002</v>
       </c>
     </row>
     <row r="469">
@@ -8045,13 +8045,13 @@
         <v>3.3614249229431152</v>
       </c>
       <c r="C469" s="2">
-        <v>3.2944965362548828</v>
+        <v>3.2935140132904053</v>
       </c>
       <c r="D469" s="2">
         <v>3.3219799995422363</v>
       </c>
       <c r="E469" s="2">
-        <v>3.2938687801361084</v>
+        <v>3.2925148010253906</v>
       </c>
     </row>
     <row r="470">
@@ -8062,13 +8062,13 @@
         <v>3.211613655090332</v>
       </c>
       <c r="C470" s="2">
-        <v>3.2497024536132813</v>
+        <v>3.2488844394683838</v>
       </c>
       <c r="D470" s="2">
         <v>3.3007421493530273</v>
       </c>
       <c r="E470" s="2">
-        <v>3.2775356769561768</v>
+        <v>3.276003360748291</v>
       </c>
     </row>
     <row r="471">
@@ -8079,13 +8079,13 @@
         <v>3.5484046936035156</v>
       </c>
       <c r="C471" s="2">
-        <v>3.5588309764862061</v>
+        <v>3.5567951202392578</v>
       </c>
       <c r="D471" s="2">
         <v>3.3442409038543701</v>
       </c>
       <c r="E471" s="2">
-        <v>3.3218410015106201</v>
+        <v>3.3206243515014648</v>
       </c>
     </row>
     <row r="472">
@@ -8096,13 +8096,13 @@
         <v>3.3257477283477783</v>
       </c>
       <c r="C472" s="2">
-        <v>3.1866691112518311</v>
+        <v>3.1842019557952881</v>
       </c>
       <c r="D472" s="2">
         <v>3.3238921165466309</v>
       </c>
       <c r="E472" s="2">
-        <v>3.2973799705505371</v>
+        <v>3.295950174331665</v>
       </c>
     </row>
     <row r="473">
@@ -8110,16 +8110,16 @@
         <v>42826</v>
       </c>
       <c r="B473" s="2">
-        <v>3.3657293319702149</v>
+        <v>3.3657293319702148</v>
       </c>
       <c r="C473" s="2">
-        <v>3.4051437377929688</v>
+        <v>3.4023160934448242</v>
       </c>
       <c r="D473" s="2">
         <v>3.3387739658355713</v>
       </c>
       <c r="E473" s="2">
-        <v>3.2936062812805176</v>
+        <v>3.2924785614013672</v>
       </c>
     </row>
     <row r="474">
@@ -8130,13 +8130,13 @@
         <v>3.2755124568939209</v>
       </c>
       <c r="C474" s="2">
-        <v>3.2709732055664063</v>
+        <v>3.2693798542022705</v>
       </c>
       <c r="D474" s="2">
         <v>3.3244314193725586</v>
       </c>
       <c r="E474" s="2">
-        <v>3.2858572006225586</v>
+        <v>3.284618616104126</v>
       </c>
     </row>
     <row r="475">
@@ -8147,13 +8147,13 @@
         <v>3.557887077331543</v>
       </c>
       <c r="C475" s="2">
-        <v>3.4838352203369141</v>
+        <v>3.4847037792205811</v>
       </c>
       <c r="D475" s="2">
         <v>3.3224530220031738</v>
       </c>
       <c r="E475" s="2">
-        <v>3.2774467468261719</v>
+        <v>3.2761478424072266</v>
       </c>
     </row>
     <row r="476">
@@ -8164,13 +8164,13 @@
         <v>3.0335986614227295</v>
       </c>
       <c r="C476" s="2">
-        <v>2.9860992431640625</v>
+        <v>2.9847724437713623</v>
       </c>
       <c r="D476" s="2">
         <v>3.3201529979705811</v>
       </c>
       <c r="E476" s="2">
-        <v>3.2623372077941895</v>
+        <v>3.2611289024353027</v>
       </c>
     </row>
     <row r="477">
@@ -8181,13 +8181,13 @@
         <v>3.3690464496612549</v>
       </c>
       <c r="C477" s="2">
-        <v>3.2067060470581055</v>
+        <v>3.2077395915985107</v>
       </c>
       <c r="D477" s="2">
         <v>3.3027467727661133</v>
       </c>
       <c r="E477" s="2">
-        <v>3.2541928291320801</v>
+        <v>3.2530946731567383</v>
       </c>
     </row>
     <row r="478">
@@ -8198,13 +8198,13 @@
         <v>3.2323434352874756</v>
       </c>
       <c r="C478" s="2">
-        <v>3.2247555255889893</v>
+        <v>3.2227749824523926</v>
       </c>
       <c r="D478" s="2">
-        <v>3.2677679061889649</v>
+        <v>3.2677679061889648</v>
       </c>
       <c r="E478" s="2">
-        <v>3.2034752368927002</v>
+        <v>3.2025587558746338</v>
       </c>
     </row>
     <row r="479">
@@ -8215,13 +8215,13 @@
         <v>3.1938076019287109</v>
       </c>
       <c r="C479" s="2">
-        <v>3.1740069389343262</v>
+        <v>3.1726465225219727</v>
       </c>
       <c r="D479" s="2">
         <v>3.2509391307830811</v>
       </c>
       <c r="E479" s="2">
-        <v>3.1887235641479492</v>
+        <v>3.1878695487976074</v>
       </c>
     </row>
     <row r="480">
@@ -8232,13 +8232,13 @@
         <v>3.527705192565918</v>
       </c>
       <c r="C480" s="2">
-        <v>3.4228460788726807</v>
+        <v>3.4216248989105225</v>
       </c>
       <c r="D480" s="2">
         <v>3.1826138496398926</v>
       </c>
       <c r="E480" s="2">
-        <v>3.124258279800415</v>
+        <v>3.1230459213256836</v>
       </c>
     </row>
     <row r="481">
@@ -8249,13 +8249,13 @@
         <v>3.1690912246704102</v>
       </c>
       <c r="C481" s="2">
-        <v>3.113370418548584</v>
+        <v>3.1118946075439453</v>
       </c>
       <c r="D481" s="2">
         <v>3.216069221496582</v>
       </c>
       <c r="E481" s="2">
-        <v>3.1613729000091553</v>
+        <v>3.1600446701049805</v>
       </c>
     </row>
     <row r="482">
@@ -8266,13 +8266,13 @@
         <v>3.0509192943572998</v>
       </c>
       <c r="C482" s="2">
-        <v>2.9486846923828125</v>
+        <v>2.9474930763244629</v>
       </c>
       <c r="D482" s="2">
         <v>3.1866574287414551</v>
       </c>
       <c r="E482" s="2">
-        <v>3.1420729160308838</v>
+        <v>3.1403608322143555</v>
       </c>
     </row>
     <row r="483">
@@ -8283,13 +8283,13 @@
         <v>3.124053955078125</v>
       </c>
       <c r="C483" s="2">
-        <v>3.1382071971893311</v>
+        <v>3.1371757984161377</v>
       </c>
       <c r="D483" s="2">
         <v>3.22096848487854</v>
       </c>
       <c r="E483" s="2">
-        <v>3.1700115203857422</v>
+        <v>3.1683566570281982</v>
       </c>
     </row>
     <row r="484">
@@ -8300,13 +8300,13 @@
         <v>2.9429597854614258</v>
       </c>
       <c r="C484" s="2">
-        <v>2.903648853302002</v>
+        <v>2.9012904167175293</v>
       </c>
       <c r="D484" s="2">
         <v>3.2778096199035645</v>
       </c>
       <c r="E484" s="2">
-        <v>3.2336928844451904</v>
+        <v>3.2320201396942139</v>
       </c>
     </row>
     <row r="485">
@@ -8317,13 +8317,13 @@
         <v>3.3346970081329346</v>
       </c>
       <c r="C485" s="2">
-        <v>3.3201310634613037</v>
+        <v>3.3177616596221924</v>
       </c>
       <c r="D485" s="2">
         <v>3.2976031303405762</v>
       </c>
       <c r="E485" s="2">
-        <v>3.258394718170166</v>
+        <v>3.2566583156585693</v>
       </c>
     </row>
     <row r="486">
@@ -8334,13 +8334,13 @@
         <v>3.1043403148651123</v>
       </c>
       <c r="C486" s="2">
-        <v>3.0330047607421875</v>
+        <v>3.0305850505828857</v>
       </c>
       <c r="D486" s="2">
         <v>3.2933359146118164</v>
       </c>
       <c r="E486" s="2">
-        <v>3.2542104721069336</v>
+        <v>3.2523400783538818</v>
       </c>
     </row>
     <row r="487">
@@ -8351,13 +8351,13 @@
         <v>3.5411427021026611</v>
       </c>
       <c r="C487" s="2">
-        <v>3.4762041568756104</v>
+        <v>3.474738597869873</v>
       </c>
       <c r="D487" s="2">
         <v>3.3664484024047852</v>
       </c>
       <c r="E487" s="2">
-        <v>3.3435728549957275</v>
+        <v>3.3415672779083252</v>
       </c>
     </row>
     <row r="488">
@@ -8368,13 +8368,13 @@
         <v>3.7053766250610352</v>
       </c>
       <c r="C488" s="2">
-        <v>3.7471380233764648</v>
+        <v>3.7456169128417969</v>
       </c>
       <c r="D488" s="2">
         <v>3.4156734943389893</v>
       </c>
       <c r="E488" s="2">
-        <v>3.3908843994140625</v>
+        <v>3.3888962268829346</v>
       </c>
     </row>
     <row r="489">
@@ -8385,13 +8385,13 @@
         <v>3.7058470249176025</v>
       </c>
       <c r="C489" s="2">
-        <v>3.6451623439788818</v>
+        <v>3.6433689594268799</v>
       </c>
       <c r="D489" s="2">
         <v>3.4969873428344727</v>
       </c>
       <c r="E489" s="2">
-        <v>3.4792039394378662</v>
+        <v>3.4772834777832031</v>
       </c>
     </row>
     <row r="490">
@@ -8402,13 +8402,13 @@
         <v>3.1306874752044678</v>
       </c>
       <c r="C490" s="2">
-        <v>3.0757138729095459</v>
+        <v>3.0730304718017578</v>
       </c>
       <c r="D490" s="2">
         <v>3.4565737247467041</v>
       </c>
       <c r="E490" s="2">
-        <v>3.4454085826873779</v>
+        <v>3.4434421062469482</v>
       </c>
     </row>
     <row r="491">
@@ -8416,16 +8416,16 @@
         <v>43374</v>
       </c>
       <c r="B491" s="2">
-        <v>3.708930253982544</v>
+        <v>3.7089302539825439</v>
       </c>
       <c r="C491" s="2">
-        <v>3.7529449462890625</v>
+        <v>3.7505383491516113</v>
       </c>
       <c r="D491" s="2">
         <v>3.4550285339355469</v>
       </c>
       <c r="E491" s="2">
-        <v>3.4459846019744873</v>
+        <v>3.4441759586334229</v>
       </c>
     </row>
     <row r="492">
@@ -8436,13 +8436,13 @@
         <v>3.5670793056488037</v>
       </c>
       <c r="C492" s="2">
-        <v>3.5640113353729248</v>
+        <v>3.5631363391876221</v>
       </c>
       <c r="D492" s="2">
         <v>3.3958930969238281</v>
       </c>
       <c r="E492" s="2">
-        <v>3.3897659778594971</v>
+        <v>3.3879454135894775</v>
       </c>
     </row>
     <row r="493">
@@ -8453,13 +8453,13 @@
         <v>3.6747863292694092</v>
       </c>
       <c r="C493" s="2">
-        <v>3.6985247135162354</v>
+        <v>3.6967742443084717</v>
       </c>
       <c r="D493" s="2">
         <v>3.3094384670257568</v>
       </c>
       <c r="E493" s="2">
-        <v>3.2906577587127686</v>
+        <v>3.288945198059082</v>
       </c>
     </row>
     <row r="494">
@@ -8470,13 +8470,13 @@
         <v>2.9709737300872803</v>
       </c>
       <c r="C494" s="2">
-        <v>3.0159726142883301</v>
+        <v>3.0131902694702148</v>
       </c>
       <c r="D494" s="2">
         <v>3.233849048614502</v>
       </c>
       <c r="E494" s="2">
-        <v>3.2256181240081787</v>
+        <v>3.2238895893096924</v>
       </c>
     </row>
     <row r="495">
@@ -8487,13 +8487,13 @@
         <v>3.0904343128204346</v>
       </c>
       <c r="C495" s="2">
-        <v>3.0381898880004883</v>
+        <v>3.0371901988983154</v>
       </c>
       <c r="D495" s="2">
         <v>3.2887201309204102</v>
       </c>
       <c r="E495" s="2">
-        <v>3.273951530456543</v>
+        <v>3.2723071575164795</v>
       </c>
     </row>
     <row r="496">
@@ -8504,13 +8504,13 @@
         <v>3.0089230537414551</v>
       </c>
       <c r="C496" s="2">
-        <v>2.9702355861663818</v>
+        <v>2.9686636924743652</v>
       </c>
       <c r="D496" s="2">
         <v>3.278853178024292</v>
       </c>
       <c r="E496" s="2">
-        <v>3.2610437870025635</v>
+        <v>3.2594385147094727</v>
       </c>
     </row>
     <row r="497">
@@ -8521,13 +8521,13 @@
         <v>2.9272847175598145</v>
       </c>
       <c r="C497" s="2">
-        <v>2.8551642894744873</v>
+        <v>2.8546152114868164</v>
       </c>
       <c r="D497" s="2">
         <v>3.277618408203125</v>
       </c>
       <c r="E497" s="2">
-        <v>3.2574753761291504</v>
+        <v>3.255856990814209</v>
       </c>
     </row>
     <row r="498">
@@ -8538,13 +8538,13 @@
         <v>3.025543212890625</v>
       </c>
       <c r="C498" s="2">
-        <v>3.0598068237304688</v>
+        <v>3.0578680038452148</v>
       </c>
       <c r="D498" s="2">
         <v>3.2586498260498047</v>
       </c>
       <c r="E498" s="2">
-        <v>3.2381982803344727</v>
+        <v>3.2365162372589111</v>
       </c>
     </row>
     <row r="499">
@@ -8555,13 +8555,13 @@
         <v>3.6245269775390625</v>
       </c>
       <c r="C499" s="2">
-        <v>3.5107135772705078</v>
+        <v>3.5087871551513672</v>
       </c>
       <c r="D499" s="2">
         <v>3.2885701656341553</v>
       </c>
       <c r="E499" s="2">
-        <v>3.2661552429199219</v>
+        <v>3.2644078731536865</v>
       </c>
     </row>
     <row r="500">
@@ -8572,13 +8572,13 @@
         <v>3.6201279163360596</v>
       </c>
       <c r="C500" s="2">
-        <v>3.6367745399475098</v>
+        <v>3.6347217559814453</v>
       </c>
       <c r="D500" s="2">
         <v>3.316361665725708</v>
       </c>
       <c r="E500" s="2">
-        <v>3.2738823890686035</v>
+        <v>3.2721145153045654</v>
       </c>
     </row>
     <row r="501">
@@ -8589,13 +8589,13 @@
         <v>3.5559659004211426</v>
       </c>
       <c r="C501" s="2">
-        <v>3.5318970680236817</v>
+        <v>3.5309023857116699</v>
       </c>
       <c r="D501" s="2">
         <v>3.3411548137664795</v>
       </c>
       <c r="E501" s="2">
-        <v>3.3019070625305176</v>
+        <v>3.3002543449401855</v>
       </c>
     </row>
     <row r="502">
@@ -8606,13 +8606,13 @@
         <v>3.5040690898895264</v>
       </c>
       <c r="C502" s="2">
-        <v>3.525029182434082</v>
+        <v>3.5227067470550537</v>
       </c>
       <c r="D502" s="2">
         <v>3.3402423858642578</v>
       </c>
       <c r="E502" s="2">
-        <v>3.2900576591491699</v>
+        <v>3.2883031368255615</v>
       </c>
     </row>
     <row r="503">
@@ -8623,13 +8623,13 @@
         <v>3.24025559425354</v>
       </c>
       <c r="C503" s="2">
-        <v>3.2675871849060059</v>
+        <v>3.2642157077789307</v>
       </c>
       <c r="D503" s="2">
         <v>3.3367319107055664</v>
       </c>
       <c r="E503" s="2">
-        <v>3.2888979911804199</v>
+        <v>3.2869479656219482</v>
       </c>
     </row>
     <row r="504">
@@ -8640,13 +8640,13 @@
         <v>3.3405587673187256</v>
       </c>
       <c r="C504" s="2">
-        <v>3.1077332496643066</v>
+        <v>3.1065490245819092</v>
       </c>
       <c r="D504" s="2">
         <v>3.3683757781982422</v>
       </c>
       <c r="E504" s="2">
-        <v>3.3350000381469727</v>
+        <v>3.3330776691436768</v>
       </c>
     </row>
     <row r="505">
@@ -8657,13 +8657,13 @@
         <v>3.2320601940155029</v>
       </c>
       <c r="C505" s="2">
-        <v>3.2224571704864502</v>
+        <v>3.2219228744506836</v>
       </c>
       <c r="D505" s="2">
         <v>3.6003420352935791</v>
       </c>
       <c r="E505" s="2">
-        <v>3.5542099475860596</v>
+        <v>3.5524356365203857</v>
       </c>
     </row>
     <row r="506">
@@ -8674,13 +8674,13 @@
         <v>2.9190728664398193</v>
       </c>
       <c r="C506" s="2">
-        <v>2.7485198974609375</v>
+        <v>2.7470543384552002</v>
       </c>
       <c r="D506" s="2">
         <v>3.8552887439727783</v>
       </c>
       <c r="E506" s="2">
-        <v>3.8053815364837646</v>
+        <v>3.8037004470825195</v>
       </c>
     </row>
     <row r="507">
@@ -8688,16 +8688,16 @@
         <v>43862</v>
       </c>
       <c r="B507" s="2">
-        <v>2.9939491748809815</v>
+        <v>2.9939491748809814</v>
       </c>
       <c r="C507" s="2">
-        <v>3.0493700504302979</v>
+        <v>3.0456712245941162</v>
       </c>
       <c r="D507" s="2">
         <v>3.9692280292510986</v>
       </c>
       <c r="E507" s="2">
-        <v>3.9105300903320313</v>
+        <v>3.90901780128479</v>
       </c>
     </row>
     <row r="508">
@@ -8708,13 +8708,13 @@
         <v>3.9093215465545654</v>
       </c>
       <c r="C508" s="2">
-        <v>3.9256327152252197</v>
+        <v>3.9239542484283447</v>
       </c>
       <c r="D508" s="2">
         <v>4.1104598045349121</v>
       </c>
       <c r="E508" s="2">
-        <v>4.0413646697998047</v>
+        <v>4.0401625633239746</v>
       </c>
     </row>
     <row r="509">
@@ -8725,13 +8725,13 @@
         <v>5.70782470703125</v>
       </c>
       <c r="C509" s="2">
-        <v>5.6096634864807129</v>
+        <v>5.6089444160461426</v>
       </c>
       <c r="D509" s="2">
         <v>4.2469882965087891</v>
       </c>
       <c r="E509" s="2">
-        <v>4.2066588401794434</v>
+        <v>4.2054934501647949</v>
       </c>
     </row>
     <row r="510">
@@ -8742,13 +8742,13 @@
         <v>5.850487232208252</v>
       </c>
       <c r="C510" s="2">
-        <v>5.7924408912658691</v>
+        <v>5.7922859191894531</v>
       </c>
       <c r="D510" s="2">
         <v>4.3552389144897461</v>
       </c>
       <c r="E510" s="2">
-        <v>4.3156423568725586</v>
+        <v>4.3144607543945312</v>
       </c>
     </row>
     <row r="511">
@@ -8759,13 +8759,13 @@
         <v>4.5295224189758301</v>
       </c>
       <c r="C511" s="2">
-        <v>4.4713668823242188</v>
+        <v>4.4705629348754883</v>
       </c>
       <c r="D511" s="2">
         <v>4.4503674507141113</v>
       </c>
       <c r="E511" s="2">
-        <v>4.4128775596618652</v>
+        <v>4.4116954803466797</v>
       </c>
     </row>
     <row r="512">
@@ -8776,13 +8776,13 @@
         <v>4.5113420486450195</v>
       </c>
       <c r="C512" s="2">
-        <v>4.445096492767334</v>
+        <v>4.4445180892944336</v>
       </c>
       <c r="D512" s="2">
         <v>4.5743598937988281</v>
       </c>
       <c r="E512" s="2">
-        <v>4.5313563346862793</v>
+        <v>4.5304312705993652</v>
       </c>
     </row>
     <row r="513">
@@ -8793,13 +8793,13 @@
         <v>4.5693154335021973</v>
       </c>
       <c r="C513" s="2">
-        <v>4.5953822135925293</v>
+        <v>4.5945258140563965</v>
       </c>
       <c r="D513" s="2">
         <v>4.6378192901611328</v>
       </c>
       <c r="E513" s="2">
-        <v>4.6089768409729004</v>
+        <v>4.6081738471984863</v>
       </c>
     </row>
     <row r="514">
@@ -8810,13 +8810,13 @@
         <v>4.2063159942626953</v>
       </c>
       <c r="C514" s="2">
-        <v>4.2033066749572754</v>
+        <v>4.2026309967041016</v>
       </c>
       <c r="D514" s="2">
         <v>4.4920592308044434</v>
       </c>
       <c r="E514" s="2">
-        <v>4.4783110618591309</v>
+        <v>4.4776129722595215</v>
       </c>
     </row>
     <row r="515">
@@ -8824,16 +8824,16 @@
         <v>44105</v>
       </c>
       <c r="B515" s="2">
-        <v>3.7752299308776856</v>
+        <v>3.7752299308776855</v>
       </c>
       <c r="C515" s="2">
-        <v>3.6236393451690674</v>
+        <v>3.6221663951873779</v>
       </c>
       <c r="D515" s="2">
         <v>4.3292365074157715</v>
       </c>
       <c r="E515" s="2">
-        <v>4.3229460716247559</v>
+        <v>4.3223276138305664</v>
       </c>
     </row>
     <row r="516">
@@ -8844,13 +8844,13 @@
         <v>4.1098775863647461</v>
       </c>
       <c r="C516" s="2">
-        <v>4.1156797409057617</v>
+        <v>4.1142926216125488</v>
       </c>
       <c r="D516" s="2">
         <v>4.2806987762451172</v>
       </c>
       <c r="E516" s="2">
-        <v>4.2721672058105469</v>
+        <v>4.2716116905212402</v>
       </c>
     </row>
     <row r="517">
@@ -8861,13 +8861,13 @@
         <v>4.4804592132568359</v>
       </c>
       <c r="C517" s="2">
-        <v>4.6242160797119141</v>
+        <v>4.6236391067504883</v>
       </c>
       <c r="D517" s="2">
         <v>4.2383441925048828</v>
       </c>
       <c r="E517" s="2">
-        <v>4.2474474906921387</v>
+        <v>4.2467279434204102</v>
       </c>
     </row>
     <row r="518">
@@ -8878,13 +8878,13 @@
         <v>4.3959846496582031</v>
       </c>
       <c r="C518" s="2">
-        <v>4.4336695671081543</v>
+        <v>4.4338946342468262</v>
       </c>
       <c r="D518" s="2">
         <v>4.2485189437866211</v>
       </c>
       <c r="E518" s="2">
-        <v>4.2476191520690918</v>
+        <v>4.2469253540039062</v>
       </c>
     </row>
     <row r="519">
@@ -8895,13 +8895,13 @@
         <v>4.3850827217102051</v>
       </c>
       <c r="C519" s="2">
-        <v>4.3941574096679688</v>
+        <v>4.3947172164916992</v>
       </c>
       <c r="D519" s="2">
         <v>4.3535876274108887</v>
       </c>
       <c r="E519" s="2">
-        <v>4.3394584655761719</v>
+        <v>4.3388352394104004</v>
       </c>
     </row>
     <row r="520">
@@ -8912,13 +8912,13 @@
         <v>4.0926823616027832</v>
       </c>
       <c r="C520" s="2">
-        <v>4.0143589973449707</v>
+        <v>4.0141191482543945</v>
       </c>
       <c r="D520" s="2">
         <v>4.4861111640930176</v>
       </c>
       <c r="E520" s="2">
-        <v>4.4882321357727051</v>
+        <v>4.4876823425292969</v>
       </c>
     </row>
     <row r="521">
@@ -8929,13 +8929,13 @@
         <v>4.1301479339599609</v>
       </c>
       <c r="C521" s="2">
-        <v>4.2226176261901856</v>
+        <v>4.2205638885498047</v>
       </c>
       <c r="D521" s="2">
         <v>4.5787687301635742</v>
       </c>
       <c r="E521" s="2">
-        <v>4.5852227210998535</v>
+        <v>4.5846781730651855</v>
       </c>
     </row>
     <row r="522">
@@ -8946,13 +8946,13 @@
         <v>4.660888671875</v>
       </c>
       <c r="C522" s="2">
-        <v>4.5969271659851074</v>
+        <v>4.5963029861450195</v>
       </c>
       <c r="D522" s="2">
         <v>4.7003388404846191</v>
       </c>
       <c r="E522" s="2">
-        <v>4.686182975769043</v>
+        <v>4.6855649948120117</v>
       </c>
     </row>
     <row r="523">
@@ -8963,13 +8963,13 @@
         <v>5.1519336700439453</v>
       </c>
       <c r="C523" s="2">
-        <v>5.0298624038696289</v>
+        <v>5.029822826385498</v>
       </c>
       <c r="D523" s="2">
-        <v>4.7933120727539063</v>
+        <v>4.7933120727539062</v>
       </c>
       <c r="E523" s="2">
-        <v>4.758756160736084</v>
+        <v>4.7581148147583008</v>
       </c>
     </row>
     <row r="524">
@@ -8980,13 +8980,13 @@
         <v>4.9679455757141113</v>
       </c>
       <c r="C524" s="2">
-        <v>4.9625997543334961</v>
+        <v>4.9617867469787598</v>
       </c>
       <c r="D524" s="2">
         <v>4.8824996948242188</v>
       </c>
       <c r="E524" s="2">
-        <v>4.8417320251464844</v>
+        <v>4.8411259651184082</v>
       </c>
     </row>
     <row r="525">
@@ -8997,13 +8997,13 @@
         <v>4.9437952041625977</v>
       </c>
       <c r="C525" s="2">
-        <v>4.9885945320129395</v>
+        <v>4.9872550964355469</v>
       </c>
       <c r="D525" s="2">
         <v>5.0670738220214844</v>
       </c>
       <c r="E525" s="2">
-        <v>5.0431947708129883</v>
+        <v>5.0425348281860352</v>
       </c>
     </row>
     <row r="526">
@@ -9014,13 +9014,13 @@
         <v>5.5745902061462402</v>
       </c>
       <c r="C526" s="2">
-        <v>5.5328588485717773</v>
+        <v>5.5316238403320312</v>
       </c>
       <c r="D526" s="2">
         <v>5.1949796676635742</v>
       </c>
       <c r="E526" s="2">
-        <v>5.1501536369323731</v>
+        <v>5.1497292518615723</v>
       </c>
     </row>
     <row r="527">
@@ -9031,13 +9031,13 @@
         <v>5.2327427864074707</v>
       </c>
       <c r="C527" s="2">
-        <v>5.086829662322998</v>
+        <v>5.0868401527404785</v>
       </c>
       <c r="D527" s="2">
         <v>5.2232699394226074</v>
       </c>
       <c r="E527" s="2">
-        <v>5.1796002388000488</v>
+        <v>5.179206371307373</v>
       </c>
     </row>
     <row r="528">
@@ -9048,13 +9048,13 @@
         <v>5.1877713203430176</v>
       </c>
       <c r="C528" s="2">
-        <v>5.1409387588500977</v>
+        <v>5.1418204307556152</v>
       </c>
       <c r="D528" s="2">
         <v>5.2693939208984375</v>
       </c>
       <c r="E528" s="2">
-        <v>5.2338323593139648</v>
+        <v>5.2335524559020996</v>
       </c>
     </row>
     <row r="529">
@@ -9065,13 +9065,13 @@
         <v>5.7538480758666992</v>
       </c>
       <c r="C529" s="2">
-        <v>5.8275222778320313</v>
+        <v>5.8267974853515625</v>
       </c>
       <c r="D529" s="2">
         <v>5.3304028511047363</v>
       </c>
       <c r="E529" s="2">
-        <v>5.294771671295166</v>
+        <v>5.2944540977478027</v>
       </c>
     </row>
     <row r="530">
@@ -9082,13 +9082,13 @@
         <v>5.2813014984130859</v>
       </c>
       <c r="C530" s="2">
-        <v>5.1852483749389649</v>
+        <v>5.1853151321411133</v>
       </c>
       <c r="D530" s="2">
         <v>5.4217104911804199</v>
       </c>
       <c r="E530" s="2">
-        <v>5.3881669044494629</v>
+        <v>5.3878383636474609</v>
       </c>
     </row>
     <row r="531">
@@ -9099,13 +9099,13 @@
         <v>4.915501594543457</v>
       </c>
       <c r="C531" s="2">
-        <v>4.8619494438171387</v>
+        <v>4.8615970611572266</v>
       </c>
       <c r="D531" s="2">
         <v>5.4156079292297363</v>
       </c>
       <c r="E531" s="2">
-        <v>5.380589485168457</v>
+        <v>5.38043212890625</v>
       </c>
     </row>
     <row r="532">
@@ -9116,13 +9116,13 @@
         <v>5.5670490264892578</v>
       </c>
       <c r="C532" s="2">
-        <v>5.517951488494873</v>
+        <v>5.5189380645751953</v>
       </c>
       <c r="D532" s="2">
         <v>5.4558911323547363</v>
       </c>
       <c r="E532" s="2">
-        <v>5.4323272705078125</v>
+        <v>5.4321837425231934</v>
       </c>
     </row>
     <row r="533">
@@ -9133,13 +9133,13 @@
         <v>5.5170273780822754</v>
       </c>
       <c r="C533" s="2">
-        <v>5.5110526084899902</v>
+        <v>5.5098981857299805</v>
       </c>
       <c r="D533" s="2">
         <v>5.5727348327636719</v>
       </c>
       <c r="E533" s="2">
-        <v>5.5573081970214844</v>
+        <v>5.5572543144226074</v>
       </c>
     </row>
     <row r="534">
@@ -9150,13 +9150,13 @@
         <v>5.7655625343322754</v>
       </c>
       <c r="C534" s="2">
-        <v>5.8291511535644531</v>
+        <v>5.8277158737182617</v>
       </c>
       <c r="D534" s="2">
         <v>5.6403322219848633</v>
       </c>
       <c r="E534" s="2">
-        <v>5.6119198799133301</v>
+        <v>5.6121692657470703</v>
       </c>
     </row>
     <row r="535">
@@ -9167,13 +9167,13 @@
         <v>5.5196666717529297</v>
       </c>
       <c r="C535" s="2">
-        <v>5.4646615982055664</v>
+        <v>5.464968204498291</v>
       </c>
       <c r="D535" s="2">
         <v>5.779301643371582</v>
       </c>
       <c r="E535" s="2">
-        <v>5.7387561798095703</v>
+        <v>5.7390322685241699</v>
       </c>
     </row>
     <row r="536">
@@ -9184,13 +9184,13 @@
         <v>5.5952920913696289</v>
       </c>
       <c r="C536" s="2">
-        <v>5.5524702072143555</v>
+        <v>5.552605152130127</v>
       </c>
       <c r="D536" s="2">
         <v>5.8993611335754395</v>
       </c>
       <c r="E536" s="2">
-        <v>5.8579998016357422</v>
+        <v>5.8583054542541504</v>
       </c>
     </row>
     <row r="537">
@@ -9201,13 +9201,13 @@
         <v>6.2393627166748047</v>
       </c>
       <c r="C537" s="2">
-        <v>6.2657685279846192</v>
+        <v>6.2674531936645508</v>
       </c>
       <c r="D537" s="2">
         <v>5.9830894470214844</v>
       </c>
       <c r="E537" s="2">
-        <v>5.9492883682250977</v>
+        <v>5.9497165679931641</v>
       </c>
     </row>
     <row r="538">
@@ -9218,13 +9218,13 @@
         <v>6.3622269630432129</v>
       </c>
       <c r="C538" s="2">
-        <v>6.3190255165100098</v>
+        <v>6.3210325241088867</v>
       </c>
       <c r="D538" s="2">
         <v>5.9506516456604004</v>
       </c>
       <c r="E538" s="2">
-        <v>5.9225101470947266</v>
+        <v>5.9228677749633789</v>
       </c>
     </row>
     <row r="539">
@@ -9235,13 +9235,13 @@
         <v>6.5320248603820801</v>
       </c>
       <c r="C539" s="2">
-        <v>6.3267755508422852</v>
+        <v>6.3270840644836426</v>
       </c>
       <c r="D539" s="2">
         <v>5.9368720054626465</v>
       </c>
       <c r="E539" s="2">
-        <v>5.9013972282409668</v>
+        <v>5.9017448425292969</v>
       </c>
     </row>
     <row r="540">
@@ -9249,16 +9249,16 @@
         <v>44866</v>
       </c>
       <c r="B540" s="2">
-        <v>5.9960389137268067</v>
+        <v>5.9960389137268066</v>
       </c>
       <c r="C540" s="2">
-        <v>5.9351401329040527</v>
+        <v>5.9350533485412598</v>
       </c>
       <c r="D540" s="2">
         <v>5.94476318359375</v>
       </c>
       <c r="E540" s="2">
-        <v>5.9169950485229492</v>
+        <v>5.9172382354736328</v>
       </c>
     </row>
     <row r="541">
@@ -9269,13 +9269,13 @@
         <v>6.3206038475036621</v>
       </c>
       <c r="C541" s="2">
-        <v>6.3395519256591797</v>
+        <v>6.3416376113891602</v>
       </c>
       <c r="D541" s="2">
         <v>5.9007554054260254</v>
       </c>
       <c r="E541" s="2">
-        <v>5.865328311920166</v>
+        <v>5.8653817176818848</v>
       </c>
     </row>
     <row r="542">
@@ -9286,13 +9286,13 @@
         <v>5.2250876426696777</v>
       </c>
       <c r="C542" s="2">
-        <v>5.2700486183166504</v>
+        <v>5.2682604789733887</v>
       </c>
       <c r="D542" s="2">
         <v>5.7901620864868164</v>
       </c>
       <c r="E542" s="2">
-        <v>5.7574725151062012</v>
+        <v>5.7574691772460938</v>
       </c>
     </row>
     <row r="543">
@@ -9303,13 +9303,13 @@
         <v>5.641545295715332</v>
       </c>
       <c r="C543" s="2">
-        <v>5.6391348838806152</v>
+        <v>5.6376070976257324</v>
       </c>
       <c r="D543" s="2">
         <v>5.6473541259765625</v>
       </c>
       <c r="E543" s="2">
-        <v>5.6041250228881836</v>
+        <v>5.6039400100708008</v>
       </c>
     </row>
     <row r="544">
@@ -9320,13 +9320,13 @@
         <v>5.5906858444213867</v>
       </c>
       <c r="C544" s="2">
-        <v>5.6050400733947754</v>
+        <v>5.6044101715087891</v>
       </c>
       <c r="D544" s="2">
         <v>5.4985289573669434</v>
       </c>
       <c r="E544" s="2">
-        <v>5.4795913696289063</v>
+        <v>5.4793338775634766</v>
       </c>
     </row>
     <row r="545">
@@ -9337,13 +9337,13 @@
         <v>5.1992244720458984</v>
       </c>
       <c r="C545" s="2">
-        <v>5.087470531463623</v>
+        <v>5.0858969688415527</v>
       </c>
       <c r="D545" s="2">
         <v>5.3203144073486328</v>
       </c>
       <c r="E545" s="2">
-        <v>5.2997603416442871</v>
+        <v>5.299619197845459</v>
       </c>
     </row>
     <row r="546">
@@ -9354,13 +9354,13 @@
         <v>5.244020938873291</v>
       </c>
       <c r="C546" s="2">
-        <v>5.2950658798217773</v>
+        <v>5.2962403297424316</v>
       </c>
       <c r="D546" s="2">
         <v>5.1088137626647949</v>
       </c>
       <c r="E546" s="2">
-        <v>5.0804505348205567</v>
+        <v>5.0801925659179688</v>
       </c>
     </row>
     <row r="547">
@@ -9371,13 +9371,13 @@
         <v>5.0769534111022949</v>
       </c>
       <c r="C547" s="2">
-        <v>4.9388985633850098</v>
+        <v>4.9392714500427246</v>
       </c>
       <c r="D547" s="2">
         <v>5.1014866828918457</v>
       </c>
       <c r="E547" s="2">
-        <v>5.0740790367126465</v>
+        <v>5.0739669799804688</v>
       </c>
     </row>
     <row r="548">
@@ -9388,13 +9388,13 @@
         <v>5.1925992965698242</v>
       </c>
       <c r="C548" s="2">
-        <v>5.2059707641601563</v>
+        <v>5.2056260108947754</v>
       </c>
       <c r="D548" s="2">
         <v>5.0389404296875</v>
       </c>
       <c r="E548" s="2">
-        <v>5.0086274147033691</v>
+        <v>5.0087604522705078</v>
       </c>
     </row>
     <row r="549">
@@ -9405,13 +9405,13 @@
         <v>4.3921093940734863</v>
       </c>
       <c r="C549" s="2">
-        <v>4.3166632652282715</v>
+        <v>4.3176231384277344</v>
       </c>
       <c r="D549" s="2">
         <v>4.9624805450439453</v>
       </c>
       <c r="E549" s="2">
-        <v>4.9171109199523926</v>
+        <v>4.9174551963806152</v>
       </c>
     </row>
     <row r="550">
@@ -9422,13 +9422,13 @@
         <v>4.4170994758605957</v>
       </c>
       <c r="C550" s="2">
-        <v>4.3657641410827637</v>
+        <v>4.3667969703674316</v>
       </c>
       <c r="D550" s="2">
         <v>4.8666276931762695</v>
       </c>
       <c r="E550" s="2">
-        <v>4.8363127708435059</v>
+        <v>4.8369779586791992</v>
       </c>
     </row>
     <row r="551">
@@ -9439,13 +9439,13 @@
         <v>5.1591434478759766</v>
       </c>
       <c r="C551" s="2">
-        <v>5.2127017974853516</v>
+        <v>5.2122316360473633</v>
       </c>
       <c r="D551" s="2">
         <v>4.8695583343505859</v>
       </c>
       <c r="E551" s="2">
-        <v>4.8349876403808594</v>
+        <v>4.8357377052307129</v>
       </c>
     </row>
     <row r="552">
@@ -9456,13 +9456,13 @@
         <v>5.0786275863647461</v>
       </c>
       <c r="C552" s="2">
-        <v>5.0500712394714355</v>
+        <v>5.0507464408874512</v>
       </c>
       <c r="D552" s="2">
         <v>4.8698391914367676</v>
       </c>
       <c r="E552" s="2">
-        <v>4.8245840072631836</v>
+        <v>4.825340747833252</v>
       </c>
     </row>
     <row r="553">
@@ -9473,13 +9473,13 @@
         <v>4.9025483131408691</v>
       </c>
       <c r="C553" s="2">
-        <v>4.7813935279846191</v>
+        <v>4.7826642990112305</v>
       </c>
       <c r="D553" s="2">
         <v>4.7778716087341309</v>
       </c>
       <c r="E553" s="2">
-        <v>4.7251038551330566</v>
+        <v>4.7259416580200195</v>
       </c>
     </row>
     <row r="554">
@@ -9490,13 +9490,13 @@
         <v>4.3365478515625</v>
       </c>
       <c r="C554" s="2">
-        <v>4.3602848052978516</v>
+        <v>4.3615994453430176</v>
       </c>
       <c r="D554" s="2">
-        <v>4.8133854866027832</v>
+        <v>4.8104648590087891</v>
       </c>
       <c r="E554" s="2">
-        <v>4.7485852241516113</v>
+        <v>4.7478137016296387</v>
       </c>
     </row>
     <row r="555">
@@ -9507,13 +9507,13 @@
         <v>5.2703976631164551</v>
       </c>
       <c r="C555" s="2">
-        <v>5.2831392288208008</v>
+        <v>5.2850809097290039</v>
       </c>
       <c r="D555" s="2">
-        <v>4.8742027282714844</v>
+        <v>4.8626208305358887</v>
       </c>
       <c r="E555" s="2">
-        <v>4.8148703575134277</v>
+        <v>4.8014812469482422</v>
       </c>
     </row>
     <row r="556">
@@ -9524,13 +9524,13 @@
         <v>5.0794796943664551</v>
       </c>
       <c r="C556" s="2">
-        <v>4.8452668190002441</v>
+        <v>4.8456997871398926</v>
       </c>
       <c r="D556" s="2">
-        <v>4.8413186073303223</v>
+        <v>4.8297367095947266</v>
       </c>
       <c r="E556" s="2">
-        <v>4.7593092918395996</v>
+        <v>4.746056079864502</v>
       </c>
     </row>
     <row r="557">
@@ -9541,13 +9541,13 @@
         <v>4.3648896217346191</v>
       </c>
       <c r="C557" s="2">
-        <v>4.3106517791748047</v>
+        <v>4.3110318183898926</v>
       </c>
       <c r="D557" s="2">
-        <v>4.8667826652526855</v>
+        <v>4.855201244354248</v>
       </c>
       <c r="E557" s="2">
-        <v>4.7692451477050781</v>
+        <v>4.7560319900512695</v>
       </c>
     </row>
     <row r="558">
@@ -9555,16 +9555,16 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>4.7117362022399902</v>
+        <v>4.6854519844055176</v>
       </c>
       <c r="C558" s="2">
-        <v>4.5279917716979981</v>
+        <v>4.5144734382629395</v>
       </c>
       <c r="D558" s="2">
-        <v>4.9131326675415039</v>
+        <v>4.9015512466430664</v>
       </c>
       <c r="E558" s="2">
-        <v>4.8207788467407227</v>
+        <v>4.8075976371765137</v>
       </c>
     </row>
     <row r="559">
@@ -9572,16 +9572,16 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>4.9644546508789063</v>
+        <v>4.8865032196044922</v>
       </c>
       <c r="C559" s="2">
-        <v>4.9623317718505859</v>
+        <v>4.8498048782348633</v>
       </c>
       <c r="D559" s="2">
-        <v>4.9975528717041016</v>
+        <v>5.0303974151611328</v>
       </c>
       <c r="E559" s="2">
-        <v>4.8905735015869141</v>
+        <v>4.9201273918151855</v>
       </c>
     </row>
     <row r="560">
@@ -9592,13 +9592,13 @@
         <v>4.8631839752197266</v>
       </c>
       <c r="C560" s="2">
-        <v>4.7126517295837402</v>
+        <v>4.7134056091308594</v>
       </c>
       <c r="D560" s="2">
-        <v>5.0682530403137207</v>
+        <v>5.139315128326416</v>
       </c>
       <c r="E560" s="2">
-        <v>4.9697341918945313</v>
+        <v>5.0373544692993164</v>
       </c>
     </row>
     <row r="561">
@@ -9606,16 +9606,16 @@
         <v>45505</v>
       </c>
       <c r="B561" s="2">
-        <v>5.3078069686889649</v>
+        <v>5.3078069686889648</v>
       </c>
       <c r="C561" s="2">
-        <v>5.1394948959350586</v>
+        <v>5.1405277252197266</v>
       </c>
       <c r="D561" s="2">
-        <v>5.2516884803771973</v>
+        <v>5.366950511932373</v>
       </c>
       <c r="E561" s="2">
-        <v>5.1724710464477539</v>
+        <v>5.2901110649108887</v>
       </c>
     </row>
     <row r="562">
@@ -9626,13 +9626,13 @@
         <v>5.3196983337402344</v>
       </c>
       <c r="C562" s="2">
-        <v>5.2451958656311035</v>
+        <v>5.2467551231384277</v>
       </c>
       <c r="D562" s="2">
-        <v>5.4385628700256348</v>
+        <v>5.5944805145263672</v>
       </c>
       <c r="E562" s="2">
-        <v>5.3586220741271973</v>
+        <v>5.5131950378417969</v>
       </c>
     </row>
     <row r="563">
@@ -9640,16 +9640,16 @@
         <v>45566</v>
       </c>
       <c r="B563" s="2">
-        <v>5.0963287353515625</v>
+        <v>5.4961647987365723</v>
       </c>
       <c r="C563" s="2">
-        <v>4.988438606262207</v>
+        <v>5.3743672370910645</v>
       </c>
       <c r="D563" s="2">
-        <v>5.6799592971801758</v>
+        <v>5.9019012451171875</v>
       </c>
       <c r="E563" s="2">
-        <v>5.6114139556884766</v>
+        <v>5.8282427787780762</v>
       </c>
     </row>
     <row r="564">
@@ -9657,16 +9657,16 @@
         <v>45597</v>
       </c>
       <c r="B564" s="2">
-        <v>5.9067001342773438</v>
+        <v>6.2506556510925293</v>
       </c>
       <c r="C564" s="2">
-        <v>5.9955825805664063</v>
+        <v>6.3401241302490234</v>
       </c>
       <c r="D564" s="2">
-        <v>5.7693972587585449</v>
+        <v>6.1860098838806152</v>
       </c>
       <c r="E564" s="2">
-        <v>5.6925492286682129</v>
+        <v>6.0976877212524414</v>
       </c>
     </row>
     <row r="565">
@@ -9674,16 +9674,16 @@
         <v>45627</v>
       </c>
       <c r="B565" s="2">
-        <v>6.7303981781005859</v>
+        <v>7.1282005310058594</v>
       </c>
       <c r="C565" s="2">
-        <v>6.6699013710021973</v>
+        <v>7.1205096244812012</v>
       </c>
       <c r="D565" s="2">
-        <v>5.8988561630249024</v>
+        <v>6.4807510375976562</v>
       </c>
       <c r="E565" s="2">
-        <v>5.8325347900390625</v>
+        <v>6.4141488075256348</v>
       </c>
     </row>
     <row r="566">
@@ -9691,16 +9691,16 @@
         <v>45658</v>
       </c>
       <c r="B566" s="2">
-        <v>6.0467605590820313</v>
+        <v>6.4126577377319336</v>
       </c>
       <c r="C566" s="2">
-        <v>5.9860119819641113</v>
+        <v>6.3187880516052246</v>
       </c>
       <c r="D566" s="2">
-        <v>5.9973645210266113</v>
+        <v>6.6273689270019531</v>
       </c>
       <c r="E566" s="2">
-        <v>5.9480414390563965</v>
+        <v>6.5733513832092285</v>
       </c>
     </row>
     <row r="567">
@@ -9708,16 +9708,50 @@
         <v>45689</v>
       </c>
       <c r="B567" s="2">
-        <v>6.8843016624450684</v>
+        <v>7.4522414207458496</v>
       </c>
       <c r="C567" s="2">
-        <v>6.8031182289123535</v>
+        <v>7.3499016761779785</v>
       </c>
       <c r="D567" s="2">
-        <v>6.1328978538513184</v>
+        <v>6.8141789436340332</v>
       </c>
       <c r="E567" s="2">
-        <v>6.0886106491088867</v>
+        <v>6.7628650665283203</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B568" s="2">
+        <v>7.4434776306152344</v>
+      </c>
+      <c r="C568" s="2">
+        <v>7.274808406829834</v>
+      </c>
+      <c r="D568" s="2">
+        <v>7.0338482856750488</v>
+      </c>
+      <c r="E568" s="2">
+        <v>6.9942812919616699</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B569" s="2">
+        <v>7.5158562660217285</v>
+      </c>
+      <c r="C569" s="2">
+        <v>7.5615558624267578</v>
+      </c>
+      <c r="D569" s="2">
+        <v>7.1904869079589844</v>
+      </c>
+      <c r="E569" s="2">
+        <v>7.1251125335693359</v>
       </c>
     </row>
   </sheetData>
